--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12720" tabRatio="816" activeTab="12"/>
+    <workbookView windowWidth="28695" windowHeight="12720" tabRatio="816" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ModText" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2760">
   <si>
     <t>English</t>
   </si>
@@ -5335,6 +5335,15 @@
   </si>
   <si>
     <t>更多设置...</t>
+  </si>
+  <si>
+    <t>veneAmination</t>
+  </si>
+  <si>
+    <t>Disable Vents Animation</t>
+  </si>
+  <si>
+    <t>ベントアニメーション無効化</t>
   </si>
   <si>
     <t>loversFlavor</t>
@@ -9264,32 +9273,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -9314,17 +9309,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9332,9 +9318,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9349,6 +9350,43 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9373,35 +9411,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9435,7 +9444,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9453,7 +9522,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9465,139 +9606,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9609,13 +9624,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9626,15 +9635,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -9649,6 +9649,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9673,6 +9682,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9717,161 +9735,152 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -10248,7 +10257,7 @@
   <sheetPr/>
   <dimension ref="A1:Q100"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A82" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
@@ -11563,66 +11572,66 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>2535</v>
+        <v>2538</v>
       </c>
       <c r="B2" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="M2" t="s">
-        <v>2537</v>
+        <v>2540</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>2538</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>2542</v>
+      </c>
+      <c r="B3" t="s">
         <v>2539</v>
       </c>
-      <c r="B3" t="s">
-        <v>2536</v>
-      </c>
       <c r="M3" t="s">
-        <v>2540</v>
+        <v>2543</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>2541</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>2542</v>
+        <v>2545</v>
       </c>
       <c r="B4" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="M4" t="s">
-        <v>2543</v>
+        <v>2546</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>2544</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>2545</v>
+        <v>2548</v>
       </c>
       <c r="B5" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="M5" t="s">
-        <v>2546</v>
+        <v>2549</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>2547</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>2548</v>
+        <v>2551</v>
       </c>
       <c r="B6" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="M6" t="s">
         <v>169</v>
@@ -11633,69 +11642,69 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>2549</v>
+        <v>2552</v>
       </c>
       <c r="B7" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="M7" t="s">
-        <v>2550</v>
+        <v>2553</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>2551</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>2552</v>
+        <v>2555</v>
       </c>
       <c r="B8" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="M8" t="s">
-        <v>2553</v>
+        <v>2556</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>2554</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>2555</v>
+        <v>2558</v>
       </c>
       <c r="B9" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="M9" t="s">
-        <v>2556</v>
+        <v>2559</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>2557</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>2558</v>
+        <v>2561</v>
       </c>
       <c r="B10" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="M10" t="s">
-        <v>2559</v>
+        <v>2562</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>2560</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>2561</v>
+        <v>2564</v>
       </c>
       <c r="B11" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="M11" t="s">
-        <v>2562</v>
+        <v>2565</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>158</v>
@@ -11703,125 +11712,125 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>2563</v>
+        <v>2566</v>
       </c>
       <c r="B12" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="M12" t="s">
-        <v>2564</v>
+        <v>2567</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>2565</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>2566</v>
+        <v>2569</v>
       </c>
       <c r="B13" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="M13" t="s">
-        <v>2567</v>
+        <v>2570</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>2568</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>2569</v>
+        <v>2572</v>
       </c>
       <c r="B14" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="M14" t="s">
-        <v>2570</v>
+        <v>2573</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>2571</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>2572</v>
+        <v>2575</v>
       </c>
       <c r="B15" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="M15" t="s">
-        <v>2573</v>
+        <v>2576</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>2574</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>2575</v>
+        <v>2578</v>
       </c>
       <c r="B16" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="M16" t="s">
-        <v>2573</v>
+        <v>2576</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>2576</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>2577</v>
+        <v>2580</v>
       </c>
       <c r="B17" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="M17" t="s">
-        <v>2578</v>
+        <v>2581</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>2579</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>2580</v>
+        <v>2583</v>
       </c>
       <c r="B18" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="M18" t="s">
-        <v>2581</v>
+        <v>2584</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>2582</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>2583</v>
+        <v>2586</v>
       </c>
       <c r="B19" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="M19" t="s">
-        <v>2584</v>
+        <v>2587</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>2585</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>2586</v>
+        <v>2589</v>
       </c>
       <c r="B20" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="M20" t="s">
-        <v>2587</v>
+        <v>2590</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>468</v>
@@ -11829,259 +11838,259 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>2588</v>
+        <v>2591</v>
       </c>
       <c r="B21" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="M21" t="s">
-        <v>2589</v>
+        <v>2592</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>2590</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>2591</v>
+        <v>2594</v>
       </c>
       <c r="B22" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="M22" t="s">
-        <v>2592</v>
+        <v>2595</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>2593</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>2594</v>
+        <v>2597</v>
       </c>
       <c r="B23" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="M23" t="s">
         <v>582</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>2595</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>2596</v>
+        <v>2599</v>
       </c>
       <c r="B24" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="M24" t="s">
-        <v>2589</v>
+        <v>2592</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>2597</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>2598</v>
+        <v>2601</v>
       </c>
       <c r="B25" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="M25" t="s">
-        <v>2599</v>
+        <v>2602</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>2600</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>2601</v>
+        <v>2604</v>
       </c>
       <c r="B26" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="M26" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>2603</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>2604</v>
+        <v>2607</v>
       </c>
       <c r="B27" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="M27" t="s">
-        <v>2605</v>
+        <v>2608</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>2606</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>2607</v>
+        <v>2610</v>
       </c>
       <c r="B28" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="M28" t="s">
-        <v>2608</v>
+        <v>2611</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>2609</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>2610</v>
+        <v>2613</v>
       </c>
       <c r="B29" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="M29" t="s">
-        <v>2611</v>
+        <v>2614</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>2612</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>2613</v>
+        <v>2616</v>
       </c>
       <c r="B30" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="M30" t="s">
-        <v>2614</v>
+        <v>2617</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>2615</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>2616</v>
+        <v>2619</v>
       </c>
       <c r="B31" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="M31" t="s">
-        <v>2617</v>
+        <v>2620</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>2618</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" t="s">
-        <v>2619</v>
+        <v>2622</v>
       </c>
       <c r="B32" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="M32" t="s">
-        <v>2620</v>
+        <v>2623</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>2621</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" t="s">
-        <v>2622</v>
+        <v>2625</v>
       </c>
       <c r="B33" t="s">
-        <v>2623</v>
+        <v>2626</v>
       </c>
       <c r="M33" t="s">
-        <v>2624</v>
+        <v>2627</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>2625</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" t="s">
-        <v>2626</v>
+        <v>2629</v>
       </c>
       <c r="B34" t="s">
-        <v>2627</v>
+        <v>2630</v>
       </c>
       <c r="M34" t="s">
-        <v>2628</v>
+        <v>2631</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>2628</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" t="s">
-        <v>2629</v>
+        <v>2632</v>
       </c>
       <c r="B35" t="s">
-        <v>2630</v>
+        <v>2633</v>
       </c>
       <c r="M35" t="s">
-        <v>2631</v>
+        <v>2634</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>2632</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" t="s">
-        <v>2633</v>
+        <v>2636</v>
       </c>
       <c r="B36" t="s">
-        <v>2634</v>
+        <v>2637</v>
       </c>
       <c r="M36" t="s">
-        <v>2635</v>
+        <v>2638</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>2625</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" t="s">
-        <v>2636</v>
+        <v>2639</v>
       </c>
       <c r="B37" t="s">
-        <v>2637</v>
+        <v>2640</v>
       </c>
       <c r="M37" t="s">
-        <v>2638</v>
+        <v>2641</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>2628</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" t="s">
-        <v>2639</v>
+        <v>2642</v>
       </c>
       <c r="B38" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="M38" t="s">
-        <v>2578</v>
+        <v>2581</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>2579</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" t="s">
-        <v>2640</v>
+        <v>2643</v>
       </c>
       <c r="B39" t="s">
         <v>542</v>
@@ -12090,12 +12099,12 @@
         <v>543</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>2641</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="3" t="s">
-        <v>2642</v>
+        <v>2645</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>494</v>
@@ -12116,32 +12125,32 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>2643</v>
+        <v>2646</v>
       </c>
       <c r="B41" t="s">
-        <v>2644</v>
+        <v>2647</v>
       </c>
       <c r="M41" t="s">
-        <v>2645</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>2646</v>
+        <v>2649</v>
       </c>
       <c r="B42" t="s">
-        <v>2647</v>
+        <v>2650</v>
       </c>
       <c r="M42" t="s">
-        <v>2628</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="5" t="s">
-        <v>2648</v>
+        <v>2651</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>2649</v>
+        <v>2652</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -12154,19 +12163,19 @@
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5" t="s">
-        <v>2650</v>
+        <v>2653</v>
       </c>
       <c r="N43" s="5"/>
       <c r="O43" s="6" t="s">
-        <v>2651</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="5" t="s">
-        <v>2652</v>
+        <v>2655</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>2653</v>
+        <v>2656</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -12179,11 +12188,11 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5" t="s">
-        <v>2654</v>
+        <v>2657</v>
       </c>
       <c r="N44" s="5"/>
       <c r="O44" s="6" t="s">
-        <v>2655</v>
+        <v>2658</v>
       </c>
     </row>
   </sheetData>
@@ -12197,7 +12206,7 @@
   <sheetPr/>
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -12259,240 +12268,240 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>2656</v>
+        <v>2659</v>
       </c>
       <c r="B2" t="s">
-        <v>2657</v>
+        <v>2660</v>
       </c>
       <c r="M2" t="s">
-        <v>2658</v>
+        <v>2661</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>2659</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>2660</v>
+        <v>2663</v>
       </c>
       <c r="B3" t="s">
-        <v>2661</v>
+        <v>2664</v>
       </c>
       <c r="M3" t="s">
-        <v>2662</v>
+        <v>2665</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>2663</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>2664</v>
+        <v>2667</v>
       </c>
       <c r="B4" t="s">
-        <v>2665</v>
+        <v>2668</v>
       </c>
       <c r="M4" t="s">
-        <v>2666</v>
+        <v>2669</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>2667</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>2668</v>
+        <v>2671</v>
       </c>
       <c r="B5" t="s">
-        <v>2669</v>
+        <v>2672</v>
       </c>
       <c r="M5" t="s">
-        <v>2670</v>
+        <v>2673</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>2671</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>2672</v>
+        <v>2675</v>
       </c>
       <c r="B6" t="s">
-        <v>2673</v>
+        <v>2676</v>
       </c>
       <c r="M6" t="s">
-        <v>2674</v>
+        <v>2677</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>2675</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>2676</v>
+        <v>2679</v>
       </c>
       <c r="B7" t="s">
-        <v>2677</v>
+        <v>2680</v>
       </c>
       <c r="M7" t="s">
-        <v>2678</v>
+        <v>2681</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>2679</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>2680</v>
+        <v>2683</v>
       </c>
       <c r="B8" t="s">
-        <v>2681</v>
+        <v>2684</v>
       </c>
       <c r="M8" t="s">
-        <v>2682</v>
+        <v>2685</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>2683</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>2684</v>
+        <v>2687</v>
       </c>
       <c r="B9" t="s">
-        <v>2685</v>
+        <v>2688</v>
       </c>
       <c r="M9" t="s">
-        <v>2686</v>
+        <v>2689</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>2687</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>2688</v>
+        <v>2691</v>
       </c>
       <c r="B10" t="s">
-        <v>2689</v>
+        <v>2692</v>
       </c>
       <c r="M10" t="s">
-        <v>2690</v>
+        <v>2693</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>2691</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>2692</v>
+        <v>2695</v>
       </c>
       <c r="B11" t="s">
-        <v>2693</v>
+        <v>2696</v>
       </c>
       <c r="M11" t="s">
-        <v>2694</v>
+        <v>2697</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>2695</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>2696</v>
+        <v>2699</v>
       </c>
       <c r="B12" t="s">
-        <v>2697</v>
+        <v>2700</v>
       </c>
       <c r="M12" t="s">
-        <v>2698</v>
+        <v>2701</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>2699</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>2700</v>
+        <v>2703</v>
       </c>
       <c r="B13" t="s">
-        <v>2701</v>
+        <v>2704</v>
       </c>
       <c r="M13" t="s">
-        <v>2702</v>
+        <v>2705</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>2703</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>2704</v>
+        <v>2707</v>
       </c>
       <c r="B14" t="s">
-        <v>2705</v>
+        <v>2708</v>
       </c>
       <c r="M14" t="s">
-        <v>2706</v>
+        <v>2709</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>2707</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>2708</v>
+        <v>2711</v>
       </c>
       <c r="B15" t="s">
-        <v>2709</v>
+        <v>2712</v>
       </c>
       <c r="M15" t="s">
-        <v>2710</v>
+        <v>2713</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>2711</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>2712</v>
+        <v>2715</v>
       </c>
       <c r="B16" t="s">
-        <v>2713</v>
+        <v>2716</v>
       </c>
       <c r="M16" t="s">
-        <v>2714</v>
+        <v>2717</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>2715</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>2716</v>
+        <v>2719</v>
       </c>
       <c r="B17" t="s">
-        <v>2717</v>
+        <v>2720</v>
       </c>
       <c r="M17" t="s">
-        <v>2718</v>
+        <v>2721</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>2719</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>2720</v>
+        <v>2723</v>
       </c>
       <c r="B18" t="s">
-        <v>2721</v>
+        <v>2724</v>
       </c>
       <c r="M18" t="s">
-        <v>2722</v>
+        <v>2725</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>2723</v>
+        <v>2726</v>
       </c>
     </row>
   </sheetData>
@@ -12569,86 +12578,86 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>2724</v>
+        <v>2727</v>
       </c>
       <c r="B2" t="s">
-        <v>2725</v>
+        <v>2728</v>
       </c>
       <c r="M2" t="s">
-        <v>2726</v>
+        <v>2729</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>2727</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>2728</v>
+        <v>2731</v>
       </c>
       <c r="B3" t="s">
-        <v>2729</v>
+        <v>2732</v>
       </c>
       <c r="M3" t="s">
-        <v>2730</v>
+        <v>2733</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>2731</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>2732</v>
+        <v>2735</v>
       </c>
       <c r="B4" t="s">
-        <v>2733</v>
+        <v>2736</v>
       </c>
       <c r="M4" t="s">
-        <v>2734</v>
+        <v>2737</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>2735</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>2736</v>
+        <v>2739</v>
       </c>
       <c r="B5" t="s">
-        <v>2737</v>
+        <v>2740</v>
       </c>
       <c r="M5" t="s">
-        <v>2738</v>
+        <v>2741</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>2739</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>2740</v>
+        <v>2743</v>
       </c>
       <c r="B6" t="s">
-        <v>2741</v>
+        <v>2744</v>
       </c>
       <c r="M6" t="s">
-        <v>2742</v>
+        <v>2745</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>2743</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>2744</v>
+        <v>2747</v>
       </c>
       <c r="B7" t="s">
-        <v>2745</v>
+        <v>2748</v>
       </c>
       <c r="M7" t="s">
-        <v>2746</v>
+        <v>2749</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>2747</v>
+        <v>2750</v>
       </c>
     </row>
   </sheetData>
@@ -12662,7 +12671,7 @@
   <sheetPr/>
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -12720,35 +12729,35 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>2748</v>
+        <v>2751</v>
       </c>
       <c r="B2" t="s">
-        <v>2749</v>
+        <v>2752</v>
       </c>
       <c r="M2" t="s">
-        <v>2750</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>2751</v>
+        <v>2754</v>
       </c>
       <c r="B3" t="s">
-        <v>2752</v>
+        <v>2755</v>
       </c>
       <c r="M3" t="s">
-        <v>2753</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>2754</v>
+        <v>2757</v>
       </c>
       <c r="B4" t="s">
-        <v>2755</v>
+        <v>2758</v>
       </c>
       <c r="M4" t="s">
-        <v>2756</v>
+        <v>2759</v>
       </c>
     </row>
   </sheetData>
@@ -25306,8 +25315,8 @@
   <sheetPr/>
   <dimension ref="A1:Q904"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="M80" sqref="M80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -26303,8 +26312,12 @@
       <c r="O79" s="6"/>
     </row>
     <row r="80" spans="1:15">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
+      <c r="A80" s="5" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>1760</v>
+      </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
@@ -26315,7 +26328,9 @@
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
-      <c r="M80" s="5"/>
+      <c r="M80" s="5" t="s">
+        <v>1761</v>
+      </c>
       <c r="N80" s="5"/>
       <c r="O80" s="11"/>
     </row>
@@ -28804,8 +28819,8 @@
   <sheetPr/>
   <dimension ref="A1:Q904"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -28868,10 +28883,10 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="5" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>1760</v>
+        <v>1763</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -28884,19 +28899,19 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="11" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="6" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="5" t="s">
-        <v>1763</v>
+        <v>1766</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -28909,19 +28924,19 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5" t="s">
-        <v>1765</v>
+        <v>1768</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="6" t="s">
-        <v>1766</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="5" t="s">
-        <v>1767</v>
+        <v>1770</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1768</v>
+        <v>1771</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -28934,11 +28949,11 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5" t="s">
-        <v>1769</v>
+        <v>1772</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="6" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="6" spans="15:15">
@@ -28946,10 +28961,10 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="5" t="s">
-        <v>1771</v>
+        <v>1774</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1772</v>
+        <v>1775</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -28962,11 +28977,11 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5" t="s">
-        <v>1773</v>
+        <v>1776</v>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="6" t="s">
-        <v>1774</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="8" spans="15:15">
@@ -28974,10 +28989,10 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="5" t="s">
-        <v>1775</v>
+        <v>1778</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1776</v>
+        <v>1779</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -28990,11 +29005,11 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5" t="s">
-        <v>1777</v>
+        <v>1780</v>
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="6" t="s">
-        <v>1778</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="10" spans="15:15">
@@ -29002,10 +29017,10 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="5" t="s">
-        <v>1779</v>
+        <v>1782</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1780</v>
+        <v>1783</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -29018,11 +29033,11 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5" t="s">
-        <v>1769</v>
+        <v>1772</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="6" t="s">
-        <v>1781</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="12" spans="15:15">
@@ -29030,10 +29045,10 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="5" t="s">
-        <v>1782</v>
+        <v>1785</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1783</v>
+        <v>1786</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -29046,19 +29061,19 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5" t="s">
-        <v>1784</v>
+        <v>1787</v>
       </c>
       <c r="N13" s="5"/>
       <c r="O13" s="6" t="s">
-        <v>1785</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="5" t="s">
-        <v>1786</v>
+        <v>1789</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1787</v>
+        <v>1790</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -29071,19 +29086,19 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5" t="s">
-        <v>1788</v>
+        <v>1791</v>
       </c>
       <c r="N14" s="5"/>
       <c r="O14" s="6" t="s">
-        <v>1789</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="5" t="s">
-        <v>1790</v>
+        <v>1793</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1791</v>
+        <v>1794</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -29096,16 +29111,16 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5" t="s">
-        <v>1792</v>
+        <v>1795</v>
       </c>
       <c r="N15" s="5"/>
       <c r="O15" s="6" t="s">
-        <v>1793</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="5" t="s">
-        <v>1794</v>
+        <v>1797</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>437</v>
@@ -29121,19 +29136,19 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5" t="s">
-        <v>1795</v>
+        <v>1798</v>
       </c>
       <c r="N16" s="5"/>
       <c r="O16" s="6" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="5" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -29146,19 +29161,19 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
       <c r="N17" s="5"/>
       <c r="O17" s="6" t="s">
-        <v>1800</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="5" t="s">
-        <v>1801</v>
+        <v>1804</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -29171,19 +29186,19 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5" t="s">
-        <v>1795</v>
+        <v>1798</v>
       </c>
       <c r="N18" s="5"/>
       <c r="O18" s="6" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="5" t="s">
-        <v>1803</v>
+        <v>1806</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1804</v>
+        <v>1807</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -29196,11 +29211,11 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
       <c r="N19" s="5"/>
       <c r="O19" s="6" t="s">
-        <v>1800</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="20" spans="15:15">
@@ -29208,10 +29223,10 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="5" t="s">
-        <v>1805</v>
+        <v>1808</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -29224,25 +29239,25 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5" t="s">
-        <v>1807</v>
+        <v>1810</v>
       </c>
       <c r="N21" s="5"/>
       <c r="O21" s="6" t="s">
-        <v>1808</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="23" s="5" customFormat="1" spans="1:15">
       <c r="A23" s="5" t="s">
-        <v>1809</v>
+        <v>1812</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1810</v>
+        <v>1813</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>1811</v>
+        <v>1814</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>1812</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="24" spans="15:15">
@@ -29250,16 +29265,16 @@
     </row>
     <row r="25" s="5" customFormat="1" spans="1:15">
       <c r="A25" s="5" t="s">
-        <v>1813</v>
+        <v>1816</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1814</v>
+        <v>1817</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>1815</v>
+        <v>1818</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>1781</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="26" spans="15:15">
@@ -29267,27 +29282,27 @@
     </row>
     <row r="27" s="5" customFormat="1" spans="1:15">
       <c r="A27" s="5" t="s">
-        <v>1816</v>
+        <v>1819</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1817</v>
+        <v>1820</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>1818</v>
+        <v>1821</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>1819</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="29" s="5" customFormat="1" spans="1:13">
       <c r="A29" s="5" t="s">
-        <v>1820</v>
+        <v>1823</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1821</v>
+        <v>1824</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>1822</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="30" spans="15:15">
@@ -29295,72 +29310,72 @@
     </row>
     <row r="31" s="5" customFormat="1" spans="1:15">
       <c r="A31" s="5" t="s">
-        <v>1823</v>
+        <v>1826</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>21</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>1824</v>
+        <v>1827</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>1825</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="33" s="5" customFormat="1" spans="1:15">
       <c r="A33" s="5" t="s">
-        <v>1826</v>
+        <v>1829</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>1827</v>
+        <v>1830</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>1828</v>
+        <v>1831</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>1829</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="34" s="5" customFormat="1" spans="1:15">
       <c r="A34" s="5" t="s">
-        <v>1830</v>
+        <v>1833</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>1831</v>
+        <v>1834</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>1832</v>
+        <v>1835</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>1833</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="35" s="5" customFormat="1" spans="1:15">
       <c r="A35" s="5" t="s">
-        <v>1834</v>
+        <v>1837</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>1835</v>
+        <v>1838</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>1836</v>
+        <v>1839</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>1837</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="36" s="5" customFormat="1" spans="1:15">
       <c r="A36" s="5" t="s">
-        <v>1838</v>
+        <v>1841</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>1839</v>
+        <v>1842</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>1840</v>
+        <v>1843</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>1841</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="37" spans="15:15">
@@ -29368,38 +29383,38 @@
     </row>
     <row r="38" s="5" customFormat="1" spans="1:15">
       <c r="A38" s="5" t="s">
-        <v>1842</v>
+        <v>1845</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>1843</v>
+        <v>1846</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>1844</v>
+        <v>1847</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>1845</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="39" s="5" customFormat="1" spans="1:15">
       <c r="A39" s="5" t="s">
-        <v>1846</v>
+        <v>1849</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>1847</v>
+        <v>1850</v>
       </c>
       <c r="M39" s="5" t="s">
         <v>182</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>1848</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="40" s="5" customFormat="1" spans="1:15">
       <c r="A40" s="5" t="s">
-        <v>1849</v>
+        <v>1852</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>1850</v>
+        <v>1853</v>
       </c>
       <c r="M40" s="5" t="s">
         <v>182</v>
@@ -29410,21 +29425,21 @@
     </row>
     <row r="41" s="5" customFormat="1" spans="1:15">
       <c r="A41" s="5" t="s">
-        <v>1851</v>
+        <v>1854</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>21</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>1853</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="43" s="5" customFormat="1" spans="1:15">
       <c r="A43" s="5" t="s">
-        <v>1854</v>
+        <v>1857</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>160</v>
@@ -29433,7 +29448,7 @@
         <v>161</v>
       </c>
       <c r="O43" s="20" t="s">
-        <v>1855</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="44" spans="15:15">
@@ -29441,7 +29456,7 @@
     </row>
     <row r="45" s="5" customFormat="1" spans="1:15">
       <c r="A45" s="5" t="s">
-        <v>1856</v>
+        <v>1859</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>148</v>
@@ -29455,16 +29470,16 @@
     </row>
     <row r="46" s="5" customFormat="1" spans="1:15">
       <c r="A46" s="5" t="s">
-        <v>1857</v>
+        <v>1860</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>1858</v>
+        <v>1861</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>1859</v>
+        <v>1862</v>
       </c>
       <c r="O46" s="20" t="s">
-        <v>1860</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="47" spans="15:15">
@@ -29472,7 +29487,7 @@
     </row>
     <row r="48" s="5" customFormat="1" spans="1:15">
       <c r="A48" s="5" t="s">
-        <v>1861</v>
+        <v>1864</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>573</v>
@@ -29486,21 +29501,21 @@
     </row>
     <row r="49" s="5" customFormat="1" spans="1:15">
       <c r="A49" s="5" t="s">
-        <v>1862</v>
+        <v>1865</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>1863</v>
+        <v>1866</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>1864</v>
+        <v>1867</v>
       </c>
       <c r="O49" s="20" t="s">
-        <v>1865</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="50" s="5" customFormat="1" spans="1:15">
       <c r="A50" s="5" t="s">
-        <v>1866</v>
+        <v>1869</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>569</v>
@@ -29514,58 +29529,58 @@
     </row>
     <row r="51" s="5" customFormat="1" spans="1:15">
       <c r="A51" s="5" t="s">
-        <v>1867</v>
+        <v>1870</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>1868</v>
+        <v>1871</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>1869</v>
+        <v>1872</v>
       </c>
       <c r="O51" s="20" t="s">
-        <v>1870</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="52" s="5" customFormat="1" spans="1:15">
       <c r="A52" s="5" t="s">
-        <v>1871</v>
+        <v>1874</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>1872</v>
+        <v>1875</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>1873</v>
+        <v>1876</v>
       </c>
       <c r="O52" s="20" t="s">
-        <v>1874</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="53" s="5" customFormat="1" spans="1:15">
       <c r="A53" s="5" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>1876</v>
+        <v>1879</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>1877</v>
+        <v>1880</v>
       </c>
       <c r="O53" s="20" t="s">
-        <v>1878</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="54" s="5" customFormat="1" spans="1:15">
       <c r="A54" s="5" t="s">
-        <v>1879</v>
+        <v>1882</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>1880</v>
+        <v>1883</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>1881</v>
+        <v>1884</v>
       </c>
       <c r="O54" s="20" t="s">
-        <v>1882</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="55" spans="15:15">
@@ -32230,10 +32245,10 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="5" t="s">
-        <v>1883</v>
+        <v>1886</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1884</v>
+        <v>1887</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -32246,34 +32261,34 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5" t="s">
-        <v>1885</v>
+        <v>1888</v>
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="6" t="s">
-        <v>1886</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="5" t="s">
-        <v>1887</v>
+        <v>1890</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1888</v>
+        <v>1891</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>1889</v>
+        <v>1892</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="6" t="s">
-        <v>1890</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="5" t="s">
-        <v>1891</v>
+        <v>1894</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1892</v>
+        <v>1895</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -32286,19 +32301,19 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5" t="s">
-        <v>1893</v>
+        <v>1896</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="6" t="s">
-        <v>1894</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="5" t="s">
-        <v>1895</v>
+        <v>1898</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1896</v>
+        <v>1899</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -32311,19 +32326,19 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5" t="s">
-        <v>1897</v>
+        <v>1900</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="6" t="s">
-        <v>1898</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="5" t="s">
-        <v>1899</v>
+        <v>1902</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -32336,19 +32351,19 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5" t="s">
-        <v>1901</v>
+        <v>1904</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="6" t="s">
-        <v>1902</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="5" t="s">
-        <v>1903</v>
+        <v>1906</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1904</v>
+        <v>1907</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -32361,19 +32376,19 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5" t="s">
-        <v>1905</v>
+        <v>1908</v>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="6" t="s">
-        <v>1906</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="5" t="s">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -32386,19 +32401,19 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5" t="s">
-        <v>1909</v>
+        <v>1912</v>
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="6" t="s">
-        <v>1910</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="14" t="s">
-        <v>1911</v>
+        <v>1914</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>1912</v>
+        <v>1915</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -32411,19 +32426,19 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4" t="s">
-        <v>1913</v>
+        <v>1916</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4" t="s">
-        <v>1914</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="5" t="s">
-        <v>1915</v>
+        <v>1918</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1916</v>
+        <v>1919</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -32436,19 +32451,19 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5" t="s">
-        <v>1917</v>
+        <v>1920</v>
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="6" t="s">
-        <v>1918</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="5" t="s">
-        <v>1919</v>
+        <v>1922</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1920</v>
+        <v>1923</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -32461,19 +32476,19 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5" t="s">
-        <v>1921</v>
+        <v>1924</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="6" t="s">
-        <v>1922</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="5" t="s">
-        <v>1923</v>
+        <v>1926</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1924</v>
+        <v>1927</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -32486,19 +32501,19 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5" t="s">
-        <v>1925</v>
+        <v>1928</v>
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="6" t="s">
-        <v>1926</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="5" t="s">
-        <v>1927</v>
+        <v>1930</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1928</v>
+        <v>1931</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -32511,19 +32526,19 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5" t="s">
-        <v>1929</v>
+        <v>1932</v>
       </c>
       <c r="N13" s="5"/>
       <c r="O13" s="6" t="s">
-        <v>1930</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="5" t="s">
-        <v>1931</v>
+        <v>1934</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1932</v>
+        <v>1935</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -32536,19 +32551,19 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5" t="s">
-        <v>1933</v>
+        <v>1936</v>
       </c>
       <c r="N14" s="5"/>
       <c r="O14" s="6" t="s">
-        <v>1934</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="5" t="s">
-        <v>1935</v>
+        <v>1938</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1936</v>
+        <v>1939</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -32561,19 +32576,19 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5" t="s">
-        <v>1937</v>
+        <v>1940</v>
       </c>
       <c r="N15" s="5"/>
       <c r="O15" s="6" t="s">
-        <v>1938</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="5" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>1939</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>1936</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -32586,19 +32601,19 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5" t="s">
-        <v>1937</v>
+        <v>1940</v>
       </c>
       <c r="N16" s="5"/>
       <c r="O16" s="6" t="s">
-        <v>1938</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="5" t="s">
-        <v>1940</v>
+        <v>1943</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1941</v>
+        <v>1944</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -32611,19 +32626,19 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5" t="s">
-        <v>1942</v>
+        <v>1945</v>
       </c>
       <c r="N17" s="5"/>
       <c r="O17" s="6" t="s">
-        <v>1943</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="5" t="s">
-        <v>1944</v>
+        <v>1947</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1945</v>
+        <v>1948</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -32636,19 +32651,19 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5" t="s">
-        <v>1946</v>
+        <v>1949</v>
       </c>
       <c r="N18" s="5"/>
       <c r="O18" s="6" t="s">
-        <v>1947</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="5" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>1948</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>1945</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -32661,19 +32676,19 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5" t="s">
-        <v>1946</v>
+        <v>1949</v>
       </c>
       <c r="N19" s="5"/>
       <c r="O19" s="6" t="s">
-        <v>1947</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="5" t="s">
-        <v>1949</v>
+        <v>1952</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1950</v>
+        <v>1953</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -32686,19 +32701,19 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5" t="s">
-        <v>1951</v>
+        <v>1954</v>
       </c>
       <c r="N20" s="5"/>
       <c r="O20" s="6" t="s">
-        <v>1952</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="5" t="s">
-        <v>1953</v>
+        <v>1956</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1954</v>
+        <v>1957</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -32711,16 +32726,16 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5" t="s">
-        <v>1955</v>
+        <v>1958</v>
       </c>
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="5" t="s">
-        <v>1956</v>
+        <v>1959</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1957</v>
+        <v>1960</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -32733,19 +32748,19 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5" t="s">
-        <v>1958</v>
+        <v>1961</v>
       </c>
       <c r="N22" s="5"/>
       <c r="O22" s="6" t="s">
-        <v>1959</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="5" t="s">
-        <v>1960</v>
+        <v>1963</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1961</v>
+        <v>1964</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -32758,7 +32773,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5" t="s">
-        <v>1962</v>
+        <v>1965</v>
       </c>
       <c r="N23" s="5"/>
       <c r="O23" s="6" t="s">
@@ -32767,10 +32782,10 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="5" t="s">
-        <v>1963</v>
+        <v>1966</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1964</v>
+        <v>1967</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -32783,19 +32798,19 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5" t="s">
-        <v>1965</v>
+        <v>1968</v>
       </c>
       <c r="N24" s="5"/>
       <c r="O24" s="6" t="s">
-        <v>1966</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="5" t="s">
-        <v>1967</v>
+        <v>1970</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1968</v>
+        <v>1971</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -32808,19 +32823,19 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5" t="s">
-        <v>1969</v>
+        <v>1972</v>
       </c>
       <c r="N25" s="5"/>
       <c r="O25" s="6" t="s">
-        <v>1970</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="5" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>1971</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>1968</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -32833,19 +32848,19 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5" t="s">
-        <v>1972</v>
+        <v>1975</v>
       </c>
       <c r="N26" s="5"/>
       <c r="O26" s="6" t="s">
-        <v>1970</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="5" t="s">
-        <v>1973</v>
+        <v>1976</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1974</v>
+        <v>1977</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -32858,19 +32873,19 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5" t="s">
-        <v>1975</v>
+        <v>1978</v>
       </c>
       <c r="N27" s="5"/>
       <c r="O27" s="6" t="s">
-        <v>1976</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="5" t="s">
-        <v>1977</v>
+        <v>1980</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1978</v>
+        <v>1981</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -32883,19 +32898,19 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5" t="s">
-        <v>1979</v>
+        <v>1982</v>
       </c>
       <c r="N28" s="5"/>
       <c r="O28" s="6" t="s">
-        <v>1980</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="5" t="s">
-        <v>1981</v>
+        <v>1984</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1982</v>
+        <v>1985</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -32908,19 +32923,19 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5" t="s">
-        <v>1983</v>
+        <v>1986</v>
       </c>
       <c r="N29" s="5"/>
       <c r="O29" s="6" t="s">
-        <v>1984</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="5" t="s">
-        <v>1985</v>
+        <v>1988</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>1986</v>
+        <v>1989</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -32933,19 +32948,19 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5" t="s">
-        <v>1987</v>
+        <v>1990</v>
       </c>
       <c r="N30" s="5"/>
       <c r="O30" s="6" t="s">
-        <v>1988</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="5" t="s">
-        <v>1989</v>
+        <v>1992</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>1990</v>
+        <v>1993</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -32958,19 +32973,19 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5" t="s">
-        <v>1991</v>
+        <v>1994</v>
       </c>
       <c r="N31" s="5"/>
       <c r="O31" s="6" t="s">
-        <v>1992</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="5" t="s">
-        <v>1993</v>
+        <v>1996</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>1994</v>
+        <v>1997</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -32983,19 +32998,19 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5" t="s">
-        <v>1995</v>
+        <v>1998</v>
       </c>
       <c r="N32" s="5"/>
       <c r="O32" s="6" t="s">
-        <v>1996</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="5" t="s">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -33008,19 +33023,19 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5" t="s">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="N33" s="5"/>
       <c r="O33" s="6" t="s">
-        <v>2000</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="5" t="s">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -33033,19 +33048,19 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5" t="s">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="N34" s="5"/>
       <c r="O34" s="6" t="s">
-        <v>2004</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="5" t="s">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -33058,19 +33073,19 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5" t="s">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="N35" s="5"/>
       <c r="O35" s="6" t="s">
-        <v>2008</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="5" t="s">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -33083,19 +33098,19 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5" t="s">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="N36" s="5"/>
       <c r="O36" s="6" t="s">
-        <v>2012</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="5" t="s">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -33108,19 +33123,19 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5" t="s">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="N37" s="5"/>
       <c r="O37" s="6" t="s">
-        <v>2016</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="5" t="s">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -33133,19 +33148,19 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5" t="s">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="N38" s="5"/>
       <c r="O38" s="6" t="s">
-        <v>2020</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="5" t="s">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -33158,19 +33173,19 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5" t="s">
-        <v>2023</v>
+        <v>2026</v>
       </c>
       <c r="N39" s="5"/>
       <c r="O39" s="6" t="s">
-        <v>2024</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="5" t="s">
-        <v>2025</v>
+        <v>2028</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>2026</v>
+        <v>2029</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -33183,19 +33198,19 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5" t="s">
-        <v>2027</v>
+        <v>2030</v>
       </c>
       <c r="N40" s="5"/>
       <c r="O40" s="6" t="s">
-        <v>2028</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="5" t="s">
-        <v>2029</v>
+        <v>2032</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>2030</v>
+        <v>2033</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -33208,19 +33223,19 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5" t="s">
-        <v>2031</v>
+        <v>2034</v>
       </c>
       <c r="N41" s="5"/>
       <c r="O41" s="6" t="s">
-        <v>2032</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="5" t="s">
-        <v>2033</v>
+        <v>2036</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>2034</v>
+        <v>2037</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -33233,19 +33248,19 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5" t="s">
-        <v>2035</v>
+        <v>2038</v>
       </c>
       <c r="N42" s="5"/>
       <c r="O42" s="6" t="s">
-        <v>2036</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="5" t="s">
-        <v>2037</v>
+        <v>2040</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>2038</v>
+        <v>2041</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -33258,19 +33273,19 @@
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5" t="s">
-        <v>2039</v>
+        <v>2042</v>
       </c>
       <c r="N43" s="5"/>
       <c r="O43" s="6" t="s">
-        <v>2040</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="5" t="s">
-        <v>2041</v>
+        <v>2044</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>2042</v>
+        <v>2045</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -33283,19 +33298,19 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5" t="s">
-        <v>2043</v>
+        <v>2046</v>
       </c>
       <c r="N44" s="5"/>
       <c r="O44" s="6" t="s">
-        <v>2044</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="5" t="s">
-        <v>2045</v>
+        <v>2048</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>2046</v>
+        <v>2049</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -33308,19 +33323,19 @@
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5" t="s">
-        <v>2047</v>
+        <v>2050</v>
       </c>
       <c r="N45" s="5"/>
       <c r="O45" s="6" t="s">
-        <v>2048</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="5" t="s">
-        <v>2049</v>
+        <v>2052</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>2050</v>
+        <v>2053</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -33333,19 +33348,19 @@
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5" t="s">
-        <v>2051</v>
+        <v>2054</v>
       </c>
       <c r="N46" s="5"/>
       <c r="O46" s="6" t="s">
-        <v>2052</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="5" t="s">
-        <v>2053</v>
+        <v>2056</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>2054</v>
+        <v>2057</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -33358,19 +33373,19 @@
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="5" t="s">
-        <v>2055</v>
+        <v>2058</v>
       </c>
       <c r="N47" s="5"/>
       <c r="O47" s="6" t="s">
-        <v>2056</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="5" t="s">
-        <v>2057</v>
+        <v>2060</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>2058</v>
+        <v>2061</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -33383,19 +33398,19 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5" t="s">
-        <v>2059</v>
+        <v>2062</v>
       </c>
       <c r="N48" s="5"/>
       <c r="O48" s="6" t="s">
-        <v>2060</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="5" t="s">
-        <v>2061</v>
+        <v>2064</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>2062</v>
+        <v>2065</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -33408,19 +33423,19 @@
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
       <c r="M49" s="5" t="s">
-        <v>2063</v>
+        <v>2066</v>
       </c>
       <c r="N49" s="5"/>
       <c r="O49" s="6" t="s">
-        <v>2064</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="5" t="s">
-        <v>2065</v>
+        <v>2068</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>2066</v>
+        <v>2069</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -33433,19 +33448,19 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
       <c r="M50" s="5" t="s">
-        <v>2067</v>
+        <v>2070</v>
       </c>
       <c r="N50" s="5"/>
       <c r="O50" s="6" t="s">
-        <v>2068</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="5" t="s">
-        <v>2069</v>
+        <v>2072</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>2070</v>
+        <v>2073</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -33458,19 +33473,19 @@
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5" t="s">
-        <v>2071</v>
+        <v>2074</v>
       </c>
       <c r="N51" s="5"/>
       <c r="O51" s="6" t="s">
-        <v>2072</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="5" t="s">
-        <v>2073</v>
+        <v>2076</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>2074</v>
+        <v>2077</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -33483,19 +33498,19 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
       <c r="M52" s="5" t="s">
-        <v>2075</v>
+        <v>2078</v>
       </c>
       <c r="N52" s="5"/>
       <c r="O52" s="6" t="s">
-        <v>2076</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="5" t="s">
-        <v>2077</v>
+        <v>2080</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>2078</v>
+        <v>2081</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -33508,19 +33523,19 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
       <c r="M53" s="5" t="s">
-        <v>2079</v>
+        <v>2082</v>
       </c>
       <c r="N53" s="5"/>
       <c r="O53" s="6" t="s">
-        <v>2080</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="5" t="s">
-        <v>2081</v>
+        <v>2084</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>2082</v>
+        <v>2085</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -33533,19 +33548,19 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
       <c r="M54" s="5" t="s">
-        <v>2083</v>
+        <v>2086</v>
       </c>
       <c r="N54" s="5"/>
       <c r="O54" s="6" t="s">
-        <v>2084</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="5" t="s">
-        <v>2085</v>
+        <v>2088</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>2086</v>
+        <v>2089</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -33558,19 +33573,19 @@
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
       <c r="M55" s="5" t="s">
-        <v>2087</v>
+        <v>2090</v>
       </c>
       <c r="N55" s="5"/>
       <c r="O55" s="20" t="s">
-        <v>2088</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="5" t="s">
-        <v>2089</v>
+        <v>2092</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>2090</v>
+        <v>2093</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -33583,19 +33598,19 @@
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
       <c r="M56" s="5" t="s">
-        <v>2091</v>
+        <v>2094</v>
       </c>
       <c r="N56" s="5"/>
       <c r="O56" s="20" t="s">
-        <v>2092</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="5" t="s">
-        <v>2093</v>
+        <v>2096</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>2094</v>
+        <v>2097</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -33608,19 +33623,19 @@
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
       <c r="M57" s="5" t="s">
-        <v>2095</v>
+        <v>2098</v>
       </c>
       <c r="N57" s="5"/>
       <c r="O57" s="6" t="s">
-        <v>2096</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="5" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>2097</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>2094</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -33633,30 +33648,30 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
       <c r="M58" s="5" t="s">
-        <v>2095</v>
+        <v>2098</v>
       </c>
       <c r="N58" s="5"/>
       <c r="O58" s="6" t="s">
-        <v>2096</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>2098</v>
+        <v>2101</v>
       </c>
       <c r="B59" t="s">
-        <v>2099</v>
+        <v>2102</v>
       </c>
       <c r="M59" t="s">
-        <v>2100</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="5" t="s">
-        <v>2101</v>
+        <v>2104</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>2102</v>
+        <v>2105</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -33669,19 +33684,19 @@
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
       <c r="M60" s="5" t="s">
-        <v>2103</v>
+        <v>2106</v>
       </c>
       <c r="N60" s="5"/>
       <c r="O60" s="20" t="s">
-        <v>2104</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="5" t="s">
-        <v>2105</v>
+        <v>2108</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>2106</v>
+        <v>2109</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -33694,19 +33709,19 @@
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
       <c r="M61" s="5" t="s">
-        <v>2107</v>
+        <v>2110</v>
       </c>
       <c r="N61" s="5"/>
       <c r="O61" s="20" t="s">
-        <v>2108</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="5" t="s">
-        <v>2109</v>
+        <v>2112</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>2110</v>
+        <v>2113</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -33719,22 +33734,22 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
       <c r="M62" s="5" t="s">
-        <v>2111</v>
+        <v>2114</v>
       </c>
       <c r="N62" s="5"/>
       <c r="O62" s="5" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="B63" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="M63" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="64" spans="15:15">
@@ -36381,10 +36396,10 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="5" t="s">
-        <v>2116</v>
+        <v>2119</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1884</v>
+        <v>1887</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -36397,19 +36412,19 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5" t="s">
-        <v>1885</v>
+        <v>1888</v>
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="6" t="s">
-        <v>1886</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="5" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1888</v>
+        <v>1891</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -36422,19 +36437,19 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5" t="s">
-        <v>1889</v>
+        <v>1892</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="6" t="s">
-        <v>1890</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="5" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1888</v>
+        <v>1891</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -36447,19 +36462,19 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5" t="s">
-        <v>1889</v>
+        <v>1892</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="6" t="s">
-        <v>1890</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="5" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -36472,61 +36487,61 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5" t="s">
-        <v>2121</v>
+        <v>2124</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="6" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="6" s="5" customFormat="1" spans="1:15">
       <c r="A6" s="5" t="s">
-        <v>2123</v>
+        <v>2126</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>2126</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="7" s="5" customFormat="1" spans="1:15">
       <c r="A7" s="5" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>1905</v>
+        <v>1908</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="8" s="5" customFormat="1" spans="1:15">
       <c r="A8" s="5" t="s">
-        <v>2130</v>
+        <v>2133</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>2131</v>
+        <v>2134</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>1909</v>
+        <v>1912</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>2132</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="9" s="5" customFormat="1" spans="1:15">
       <c r="A9" s="14" t="s">
-        <v>2133</v>
+        <v>2136</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>2134</v>
+        <v>2137</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -36539,758 +36554,758 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4" t="s">
-        <v>2135</v>
+        <v>2138</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4" t="s">
-        <v>1914</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="10" s="5" customFormat="1" spans="1:15">
       <c r="A10" s="5" t="s">
-        <v>2136</v>
+        <v>2139</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>2137</v>
+        <v>2140</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>1917</v>
+        <v>1920</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>2138</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="11" s="5" customFormat="1" spans="1:15">
       <c r="A11" s="5" t="s">
-        <v>2139</v>
+        <v>2142</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>2140</v>
+        <v>2143</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>2141</v>
+        <v>2144</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>2142</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="12" s="5" customFormat="1" spans="1:15">
       <c r="A12" s="5" t="s">
-        <v>2143</v>
+        <v>2146</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>2144</v>
+        <v>2147</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>2121</v>
+        <v>2124</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>2145</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="13" s="5" customFormat="1" spans="1:15">
       <c r="A13" s="5" t="s">
-        <v>2146</v>
+        <v>2149</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>2147</v>
+        <v>2150</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>1929</v>
+        <v>1932</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>2148</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="14" s="5" customFormat="1" spans="1:15">
       <c r="A14" s="5" t="s">
-        <v>2149</v>
+        <v>2152</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1932</v>
+        <v>1935</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>1933</v>
+        <v>1936</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>1934</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="15" s="5" customFormat="1" spans="1:15">
       <c r="A15" s="5" t="s">
-        <v>2150</v>
+        <v>2153</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>2151</v>
+        <v>2154</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>2152</v>
+        <v>2155</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>2153</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="16" s="5" customFormat="1" spans="1:15">
       <c r="A16" s="5" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>2154</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>2151</v>
-      </c>
       <c r="M16" s="5" t="s">
-        <v>2152</v>
+        <v>2155</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>2153</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="17" s="5" customFormat="1" spans="1:15">
       <c r="A17" s="5" t="s">
-        <v>2155</v>
+        <v>2158</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1941</v>
+        <v>1944</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>1942</v>
+        <v>1945</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>1943</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="18" s="5" customFormat="1" spans="1:15">
       <c r="A18" s="5" t="s">
-        <v>2156</v>
+        <v>2159</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1945</v>
+        <v>1948</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>1946</v>
+        <v>1949</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>1947</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="19" s="5" customFormat="1" spans="1:15">
       <c r="A19" s="5" t="s">
-        <v>2157</v>
+        <v>2160</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1945</v>
+        <v>1948</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>1946</v>
+        <v>1949</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>1947</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="20" s="5" customFormat="1" spans="1:15">
       <c r="A20" s="5" t="s">
-        <v>2158</v>
+        <v>2161</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1950</v>
+        <v>1953</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>1951</v>
+        <v>1954</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>1952</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="21" s="5" customFormat="1" spans="1:13">
       <c r="A21" s="5" t="s">
-        <v>2159</v>
+        <v>2162</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1954</v>
+        <v>1957</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>1955</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="22" s="5" customFormat="1" spans="1:15">
       <c r="A22" s="5" t="s">
-        <v>2160</v>
+        <v>2163</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1957</v>
+        <v>1960</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>1958</v>
+        <v>1961</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>1959</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="23" s="5" customFormat="1" spans="1:15">
       <c r="A23" s="5" t="s">
-        <v>2161</v>
+        <v>2164</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1961</v>
+        <v>1964</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>1962</v>
+        <v>1965</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>2162</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="24" s="5" customFormat="1" spans="1:15">
       <c r="A24" s="5" t="s">
-        <v>2163</v>
+        <v>2166</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1964</v>
+        <v>1967</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>1965</v>
+        <v>1968</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>1966</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="25" s="5" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A25" s="5" t="s">
-        <v>2164</v>
+        <v>2167</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1968</v>
+        <v>1971</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>1969</v>
+        <v>1972</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>1970</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="26" s="5" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A26" s="5" t="s">
-        <v>2165</v>
+        <v>2168</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1968</v>
+        <v>1971</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>1972</v>
+        <v>1975</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>1970</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="27" s="5" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A27" s="5" t="s">
-        <v>2166</v>
+        <v>2169</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1974</v>
+        <v>1977</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>1975</v>
+        <v>1978</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>1976</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="28" s="5" customFormat="1" spans="1:15">
       <c r="A28" s="5" t="s">
-        <v>2167</v>
+        <v>2170</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>2168</v>
+        <v>2171</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>1979</v>
+        <v>1982</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>2169</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="29" s="5" customFormat="1" spans="1:15">
       <c r="A29" s="5" t="s">
-        <v>2170</v>
+        <v>2173</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>2171</v>
+        <v>2174</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>2172</v>
+        <v>2175</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>2173</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="30" s="5" customFormat="1" spans="1:15">
       <c r="A30" s="5" t="s">
-        <v>2174</v>
+        <v>2177</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>1986</v>
+        <v>1989</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>1987</v>
+        <v>1990</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>1988</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="31" s="5" customFormat="1" spans="1:15">
       <c r="A31" s="5" t="s">
-        <v>2175</v>
+        <v>2178</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>2176</v>
+        <v>2179</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>2177</v>
+        <v>2180</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>2178</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="32" s="5" customFormat="1" spans="1:15">
       <c r="A32" s="5" t="s">
-        <v>2179</v>
+        <v>2182</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>2180</v>
+        <v>2183</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>2181</v>
+        <v>2184</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>2182</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="33" s="5" customFormat="1" spans="1:15">
       <c r="A33" s="5" t="s">
-        <v>2183</v>
+        <v>2186</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>2184</v>
+        <v>2187</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>2185</v>
+        <v>2188</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>2186</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="34" s="5" customFormat="1" spans="1:15">
       <c r="A34" s="5" t="s">
-        <v>2187</v>
+        <v>2190</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>2188</v>
+        <v>2191</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>2189</v>
+        <v>2192</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>2190</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="35" s="5" customFormat="1" spans="1:15">
       <c r="A35" s="5" t="s">
+        <v>2194</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>2191</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>2188</v>
-      </c>
       <c r="M35" s="5" t="s">
-        <v>2189</v>
+        <v>2192</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>2190</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="36" s="5" customFormat="1" spans="1:15">
       <c r="A36" s="5" t="s">
-        <v>2192</v>
+        <v>2195</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>2012</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="37" s="5" customFormat="1" spans="1:15">
       <c r="A37" s="5" t="s">
-        <v>2193</v>
+        <v>2196</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>2194</v>
+        <v>2197</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>2195</v>
+        <v>2198</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>2196</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="38" s="5" customFormat="1" spans="1:15">
       <c r="A38" s="5" t="s">
-        <v>2197</v>
+        <v>2200</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>2198</v>
+        <v>2201</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>2199</v>
+        <v>2202</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>2200</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="39" s="5" customFormat="1" spans="1:15">
       <c r="A39" s="5" t="s">
-        <v>2201</v>
+        <v>2204</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>2202</v>
+        <v>2205</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>2203</v>
+        <v>2206</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>2204</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="40" s="5" customFormat="1" spans="1:15">
       <c r="A40" s="5" t="s">
-        <v>2205</v>
+        <v>2208</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>2206</v>
+        <v>2209</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>2207</v>
+        <v>2210</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>2208</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="41" s="5" customFormat="1" spans="1:15">
       <c r="A41" s="5" t="s">
-        <v>2209</v>
+        <v>2212</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>2030</v>
+        <v>2033</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>2210</v>
+        <v>2213</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>2032</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="42" s="5" customFormat="1" spans="1:15">
       <c r="A42" s="5" t="s">
-        <v>2211</v>
+        <v>2214</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>2034</v>
+        <v>2037</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>2035</v>
+        <v>2038</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>2036</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="43" s="5" customFormat="1" spans="1:15">
       <c r="A43" s="5" t="s">
-        <v>2212</v>
+        <v>2215</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>2213</v>
+        <v>2216</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>2214</v>
+        <v>2217</v>
       </c>
       <c r="O43" s="6" t="s">
-        <v>2215</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="44" s="5" customFormat="1" spans="1:15">
       <c r="A44" s="5" t="s">
-        <v>2216</v>
+        <v>2219</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>2042</v>
+        <v>2045</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>2043</v>
+        <v>2046</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>2044</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="45" s="5" customFormat="1" spans="1:15">
       <c r="A45" s="5" t="s">
-        <v>2217</v>
+        <v>2220</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>2218</v>
+        <v>2221</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>2047</v>
+        <v>2050</v>
       </c>
       <c r="O45" s="6" t="s">
-        <v>2219</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="46" s="5" customFormat="1" spans="1:15">
       <c r="A46" s="5" t="s">
-        <v>2220</v>
+        <v>2223</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>2221</v>
+        <v>2224</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>2222</v>
+        <v>2225</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>2223</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="47" s="5" customFormat="1" spans="1:15">
       <c r="A47" s="5" t="s">
-        <v>2224</v>
+        <v>2227</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>2054</v>
+        <v>2057</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>2055</v>
+        <v>2058</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>2056</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="48" s="5" customFormat="1" spans="1:15">
       <c r="A48" s="5" t="s">
-        <v>2225</v>
+        <v>2228</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>2058</v>
+        <v>2061</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>2059</v>
+        <v>2062</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>2060</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="49" s="5" customFormat="1" spans="1:15">
       <c r="A49" s="5" t="s">
-        <v>2226</v>
+        <v>2229</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>2062</v>
+        <v>2065</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>2063</v>
+        <v>2066</v>
       </c>
       <c r="O49" s="6" t="s">
-        <v>2064</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="50" s="5" customFormat="1" spans="1:15">
       <c r="A50" s="5" t="s">
-        <v>2227</v>
+        <v>2230</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>2066</v>
+        <v>2069</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>2067</v>
+        <v>2070</v>
       </c>
       <c r="O50" s="6" t="s">
-        <v>2068</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="51" s="5" customFormat="1" spans="1:15">
       <c r="A51" s="5" t="s">
-        <v>2228</v>
+        <v>2231</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>2070</v>
+        <v>2073</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>2071</v>
+        <v>2074</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>2229</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="52" s="5" customFormat="1" spans="1:15">
       <c r="A52" s="5" t="s">
-        <v>2230</v>
+        <v>2233</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>2074</v>
+        <v>2077</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>2075</v>
+        <v>2078</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>2076</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="53" s="5" customFormat="1" spans="1:15">
       <c r="A53" s="5" t="s">
-        <v>2231</v>
+        <v>2234</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>2078</v>
+        <v>2081</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>2079</v>
+        <v>2082</v>
       </c>
       <c r="O53" s="6" t="s">
-        <v>2080</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="54" s="5" customFormat="1" spans="1:15">
       <c r="A54" s="5" t="s">
-        <v>2232</v>
+        <v>2235</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>2082</v>
+        <v>2085</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>2083</v>
+        <v>2086</v>
       </c>
       <c r="O54" s="6" t="s">
-        <v>2084</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="55" s="5" customFormat="1" spans="1:15">
       <c r="A55" s="5" t="s">
-        <v>2233</v>
+        <v>2236</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>2086</v>
+        <v>2089</v>
       </c>
       <c r="M55" s="5" t="s">
-        <v>2087</v>
+        <v>2090</v>
       </c>
       <c r="O55" s="20" t="s">
-        <v>2088</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="56" s="5" customFormat="1" spans="1:15">
       <c r="A56" s="5" t="s">
-        <v>2234</v>
+        <v>2237</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>2090</v>
+        <v>2093</v>
       </c>
       <c r="M56" s="5" t="s">
-        <v>2091</v>
+        <v>2094</v>
       </c>
       <c r="O56" s="20" t="s">
-        <v>2092</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="57" s="5" customFormat="1" spans="1:15">
       <c r="A57" s="5" t="s">
-        <v>2235</v>
+        <v>2238</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>2094</v>
+        <v>2097</v>
       </c>
       <c r="M57" s="5" t="s">
-        <v>2095</v>
+        <v>2098</v>
       </c>
       <c r="O57" s="6" t="s">
-        <v>2096</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="58" s="5" customFormat="1" spans="1:15">
       <c r="A58" s="5" t="s">
-        <v>2236</v>
+        <v>2239</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>2094</v>
+        <v>2097</v>
       </c>
       <c r="M58" s="5" t="s">
-        <v>2095</v>
+        <v>2098</v>
       </c>
       <c r="O58" s="6" t="s">
-        <v>2096</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="59" s="5" customFormat="1" spans="1:13">
       <c r="A59" s="5" t="s">
-        <v>2237</v>
+        <v>2240</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>2099</v>
+        <v>2102</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>2100</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="60" s="5" customFormat="1" spans="1:15">
       <c r="A60" s="5" t="s">
-        <v>2238</v>
+        <v>2241</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>2102</v>
+        <v>2105</v>
       </c>
       <c r="M60" s="5" t="s">
-        <v>2103</v>
+        <v>2106</v>
       </c>
       <c r="O60" s="20" t="s">
-        <v>2104</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="61" s="5" customFormat="1" spans="1:15">
       <c r="A61" s="5" t="s">
-        <v>2239</v>
+        <v>2242</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>2106</v>
+        <v>2109</v>
       </c>
       <c r="M61" s="5" t="s">
-        <v>2107</v>
+        <v>2110</v>
       </c>
       <c r="O61" s="20" t="s">
-        <v>2108</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="62" s="5" customFormat="1" spans="1:15">
       <c r="A62" s="5" t="s">
-        <v>2240</v>
+        <v>2243</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>2110</v>
+        <v>2113</v>
       </c>
       <c r="M62" s="5" t="s">
-        <v>2111</v>
+        <v>2114</v>
       </c>
       <c r="O62" s="5" t="s">
-        <v>2241</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>2242</v>
+        <v>2245</v>
       </c>
       <c r="B63" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="M63" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="66" spans="15:15">
@@ -39931,618 +39946,618 @@
     </row>
     <row r="2" ht="56.25" spans="1:15">
       <c r="A2" t="s">
-        <v>2243</v>
+        <v>2246</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>2244</v>
+        <v>2247</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>2245</v>
+        <v>2248</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>2246</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="3" ht="56.25" spans="1:15">
       <c r="A3" t="s">
-        <v>2247</v>
+        <v>2250</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>2248</v>
+        <v>2251</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>2249</v>
+        <v>2252</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>2250</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="4" ht="93.75" spans="1:15">
       <c r="A4" t="s">
-        <v>2251</v>
+        <v>2254</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2252</v>
+        <v>2255</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>2253</v>
+        <v>2256</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>2254</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="5" ht="75" spans="1:15">
       <c r="A5" t="s">
-        <v>2255</v>
+        <v>2258</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2256</v>
+        <v>2259</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>2257</v>
+        <v>2260</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>2258</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="6" ht="56.25" spans="1:15">
       <c r="A6" t="s">
-        <v>2259</v>
+        <v>2262</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2260</v>
+        <v>2263</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>2261</v>
+        <v>2264</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>2262</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="7" ht="112.5" spans="1:15">
       <c r="A7" t="s">
-        <v>2263</v>
+        <v>2266</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>2264</v>
+        <v>2267</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>2265</v>
+        <v>2268</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>2266</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="8" ht="168.75" spans="1:15">
       <c r="A8" t="s">
-        <v>2267</v>
+        <v>2270</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>2268</v>
+        <v>2271</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>2269</v>
+        <v>2272</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>2270</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="9" ht="150" spans="1:15">
       <c r="A9" t="s">
-        <v>2271</v>
+        <v>2274</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>2272</v>
+        <v>2275</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>2273</v>
+        <v>2276</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>2274</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="10" ht="37.5" spans="1:15">
       <c r="A10" t="s">
-        <v>2275</v>
+        <v>2278</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>2276</v>
+        <v>2279</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>2277</v>
+        <v>2280</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>2278</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="11" ht="56.25" spans="1:15">
       <c r="A11" t="s">
-        <v>2279</v>
+        <v>2282</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>2280</v>
+        <v>2283</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>2281</v>
+        <v>2284</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>2282</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="12" ht="112.5" spans="1:15">
       <c r="A12" t="s">
-        <v>2283</v>
+        <v>2286</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>2284</v>
+        <v>2287</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>2285</v>
+        <v>2288</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>2286</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="13" ht="409.5" spans="1:15">
       <c r="A13" t="s">
-        <v>2287</v>
+        <v>2290</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>2288</v>
+        <v>2291</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>2289</v>
+        <v>2292</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>2290</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="14" ht="131.25" spans="1:15">
       <c r="A14" t="s">
-        <v>2291</v>
+        <v>2294</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>2292</v>
+        <v>2295</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>2293</v>
+        <v>2296</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>2294</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="15" ht="56.25" spans="1:15">
       <c r="A15" t="s">
-        <v>2295</v>
+        <v>2298</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>2296</v>
+        <v>2299</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>2297</v>
+        <v>2300</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>2298</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="16" ht="150" spans="1:15">
       <c r="A16" t="s">
-        <v>2299</v>
+        <v>2302</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>2300</v>
+        <v>2303</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>2301</v>
+        <v>2304</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>2302</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="17" ht="131.25" spans="1:15">
       <c r="A17" t="s">
-        <v>2303</v>
+        <v>2306</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>2304</v>
+        <v>2307</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>2305</v>
+        <v>2308</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>2306</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="18" ht="206.25" spans="1:15">
       <c r="A18" t="s">
-        <v>2307</v>
+        <v>2310</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>2308</v>
+        <v>2311</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>2309</v>
+        <v>2312</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>2310</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="19" ht="131.25" spans="1:15">
       <c r="A19" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>2312</v>
+        <v>2315</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>2313</v>
+        <v>2316</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>2314</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="20" ht="187.5" spans="1:15">
       <c r="A20" t="s">
-        <v>2315</v>
+        <v>2318</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>2316</v>
+        <v>2319</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>2317</v>
+        <v>2320</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>2318</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="21" ht="225" spans="1:15">
       <c r="A21" t="s">
-        <v>2319</v>
+        <v>2322</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>2320</v>
+        <v>2323</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>2321</v>
+        <v>2324</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>2322</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="22" ht="75" spans="1:15">
       <c r="A22" t="s">
-        <v>2323</v>
+        <v>2326</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>2324</v>
+        <v>2327</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>2325</v>
+        <v>2328</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>2326</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="23" ht="112.5" spans="1:15">
       <c r="A23" t="s">
-        <v>2327</v>
+        <v>2330</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>2328</v>
+        <v>2331</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>2329</v>
+        <v>2332</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>2330</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="24" ht="93.75" spans="1:15">
       <c r="A24" t="s">
-        <v>2331</v>
+        <v>2334</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>2332</v>
+        <v>2335</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>2333</v>
+        <v>2336</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>2334</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="25" ht="131.25" spans="1:15">
       <c r="A25" t="s">
-        <v>2335</v>
+        <v>2338</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>2336</v>
+        <v>2339</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>2337</v>
+        <v>2340</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>2338</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="26" ht="150" spans="1:15">
       <c r="A26" t="s">
-        <v>2339</v>
+        <v>2342</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>2340</v>
+        <v>2343</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>2341</v>
+        <v>2344</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>2342</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="27" ht="93.75" spans="1:15">
       <c r="A27" t="s">
-        <v>2343</v>
+        <v>2346</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>2344</v>
+        <v>2347</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>2345</v>
+        <v>2348</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>2346</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="28" ht="93.75" spans="1:15">
       <c r="A28" t="s">
-        <v>2347</v>
+        <v>2350</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>2348</v>
+        <v>2351</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>2349</v>
+        <v>2352</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>2350</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="29" ht="206.25" spans="1:15">
       <c r="A29" t="s">
-        <v>2351</v>
+        <v>2354</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>2352</v>
+        <v>2355</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>2353</v>
+        <v>2356</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>2354</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="30" ht="75" spans="1:15">
       <c r="A30" t="s">
-        <v>2355</v>
+        <v>2358</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>2356</v>
+        <v>2359</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>2357</v>
+        <v>2360</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>2358</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="31" ht="168.75" spans="1:15">
       <c r="A31" t="s">
-        <v>2359</v>
+        <v>2362</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>2360</v>
+        <v>2363</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>2361</v>
+        <v>2364</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>2362</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="32" ht="262.5" spans="1:15">
       <c r="A32" t="s">
-        <v>2363</v>
+        <v>2366</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>2364</v>
+        <v>2367</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>2365</v>
+        <v>2368</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>2366</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="33" ht="112.5" spans="1:15">
       <c r="A33" t="s">
-        <v>2367</v>
+        <v>2370</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>2368</v>
+        <v>2371</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>2369</v>
+        <v>2372</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>2370</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="34" ht="150" spans="1:15">
       <c r="A34" t="s">
-        <v>2371</v>
+        <v>2374</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>2372</v>
+        <v>2375</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>2373</v>
+        <v>2376</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>2374</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="35" ht="150" spans="1:15">
       <c r="A35" t="s">
+        <v>2378</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>2375</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>2372</v>
-      </c>
       <c r="M35" s="7" t="s">
-        <v>2373</v>
+        <v>2376</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>2374</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="36" ht="93.75" spans="1:15">
       <c r="A36" t="s">
-        <v>2376</v>
+        <v>2379</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>2377</v>
+        <v>2380</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>2378</v>
+        <v>2381</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>2379</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="37" ht="56.25" spans="1:15">
       <c r="A37" t="s">
-        <v>2380</v>
+        <v>2383</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>2381</v>
+        <v>2384</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>2382</v>
+        <v>2385</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>2383</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" t="s">
-        <v>2384</v>
+        <v>2387</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>2385</v>
+        <v>2388</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>2386</v>
+        <v>2389</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>2387</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" t="s">
-        <v>2388</v>
+        <v>2391</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>2389</v>
+        <v>2392</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>2390</v>
+        <v>2393</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>2391</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="40" ht="262.5" spans="1:15">
       <c r="A40" t="s">
-        <v>2392</v>
+        <v>2395</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>2393</v>
+        <v>2396</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>2394</v>
+        <v>2397</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>2395</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="41" ht="112.5" spans="1:15">
       <c r="A41" t="s">
-        <v>2396</v>
+        <v>2399</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>2397</v>
+        <v>2400</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>2398</v>
+        <v>2401</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>2399</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="42" ht="93.75" spans="1:15">
       <c r="A42" t="s">
-        <v>2400</v>
+        <v>2403</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>2401</v>
+        <v>2404</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>2402</v>
+        <v>2405</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>2403</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="43" ht="93.75" spans="1:15">
       <c r="A43" t="s">
-        <v>2404</v>
+        <v>2407</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>2405</v>
+        <v>2408</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>2406</v>
+        <v>2409</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>2407</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="44" ht="187.5" spans="1:15">
       <c r="A44" t="s">
-        <v>2408</v>
+        <v>2411</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>2409</v>
+        <v>2412</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>2410</v>
+        <v>2413</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>2411</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="45" ht="56.25" spans="1:15">
       <c r="A45" t="s">
-        <v>2412</v>
+        <v>2415</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>2413</v>
+        <v>2416</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>2414</v>
+        <v>2417</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>2415</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="46" spans="2:15">
@@ -40552,38 +40567,38 @@
     </row>
     <row r="47" ht="75" spans="1:15">
       <c r="A47" t="s">
-        <v>2416</v>
+        <v>2419</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>2324</v>
+        <v>2327</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>2417</v>
+        <v>2420</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>2326</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="48" ht="112.5" spans="1:15">
       <c r="A48" t="s">
-        <v>2418</v>
+        <v>2421</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>2419</v>
+        <v>2422</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>2420</v>
+        <v>2423</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>2421</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="49" ht="75" customHeight="1" spans="1:15">
       <c r="A49" s="8" t="s">
-        <v>2422</v>
+        <v>2425</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>2423</v>
+        <v>2426</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -40596,19 +40611,19 @@
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
       <c r="M49" s="12" t="s">
-        <v>2424</v>
+        <v>2427</v>
       </c>
       <c r="N49" s="10"/>
       <c r="O49" s="12" t="s">
-        <v>2425</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="50" ht="75" customHeight="1" spans="1:13">
       <c r="A50" s="8" t="s">
-        <v>2426</v>
+        <v>2429</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>1954</v>
+        <v>1957</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -40621,205 +40636,205 @@
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="12" t="s">
-        <v>2427</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="51" s="5" customFormat="1" ht="168.75" spans="1:15">
       <c r="A51" s="5" t="s">
-        <v>2428</v>
+        <v>2431</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>2429</v>
+        <v>2432</v>
       </c>
       <c r="M51" s="11" t="s">
-        <v>2430</v>
+        <v>2433</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>2431</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="52" s="5" customFormat="1" ht="112.5" spans="1:15">
       <c r="A52" s="5" t="s">
-        <v>2432</v>
+        <v>2435</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>2433</v>
+        <v>2436</v>
       </c>
       <c r="M52" s="11" t="s">
-        <v>2434</v>
+        <v>2437</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>2435</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="53" s="5" customFormat="1" ht="168.75" spans="1:15">
       <c r="A53" s="5" t="s">
-        <v>2436</v>
+        <v>2439</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>2437</v>
+        <v>2440</v>
       </c>
       <c r="M53" s="11" t="s">
-        <v>2438</v>
+        <v>2441</v>
       </c>
       <c r="O53" s="6" t="s">
-        <v>2439</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="54" s="5" customFormat="1" ht="112.5" spans="1:15">
       <c r="A54" s="5" t="s">
-        <v>2440</v>
+        <v>2443</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>2441</v>
+        <v>2444</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>2442</v>
+        <v>2445</v>
       </c>
       <c r="O54" s="6" t="s">
-        <v>2443</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="55" s="5" customFormat="1" ht="143" customHeight="1" spans="1:15">
       <c r="A55" s="5" t="s">
-        <v>2444</v>
+        <v>2447</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>2445</v>
+        <v>2448</v>
       </c>
       <c r="M55" s="11" t="s">
-        <v>2446</v>
+        <v>2449</v>
       </c>
       <c r="O55" s="6" t="s">
-        <v>2447</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="56" s="5" customFormat="1" ht="93.75" spans="1:15">
       <c r="A56" s="5" t="s">
-        <v>2448</v>
+        <v>2451</v>
       </c>
       <c r="M56" s="11" t="s">
-        <v>2449</v>
+        <v>2452</v>
       </c>
       <c r="O56" s="6" t="s">
-        <v>2450</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="57" s="5" customFormat="1" ht="168.75" spans="1:15">
       <c r="A57" s="5" t="s">
-        <v>2451</v>
+        <v>2454</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>2452</v>
+        <v>2455</v>
       </c>
       <c r="M57" s="11" t="s">
-        <v>2453</v>
+        <v>2456</v>
       </c>
       <c r="O57" s="6" t="s">
-        <v>2454</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="58" s="5" customFormat="1" ht="168.75" spans="1:15">
       <c r="A58" s="5" t="s">
-        <v>2455</v>
+        <v>2458</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>2456</v>
+        <v>2459</v>
       </c>
       <c r="M58" s="11" t="s">
-        <v>2457</v>
+        <v>2460</v>
       </c>
       <c r="O58" s="13" t="s">
-        <v>2458</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="59" s="5" customFormat="1" ht="112.5" spans="1:15">
       <c r="A59" s="5" t="s">
-        <v>2459</v>
+        <v>2462</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>2460</v>
+        <v>2463</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>2461</v>
+        <v>2464</v>
       </c>
       <c r="O59" s="13" t="s">
-        <v>2462</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="60" s="5" customFormat="1" ht="243.75" spans="1:15">
       <c r="A60" s="5" t="s">
-        <v>2463</v>
+        <v>2466</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>2464</v>
+        <v>2467</v>
       </c>
       <c r="M60" s="11" t="s">
-        <v>2465</v>
+        <v>2468</v>
       </c>
       <c r="O60" s="13" t="s">
-        <v>2466</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="61" s="5" customFormat="1" spans="1:15">
       <c r="A61" s="5" t="s">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>2468</v>
+        <v>2471</v>
       </c>
       <c r="M61" s="11" t="s">
-        <v>2469</v>
+        <v>2472</v>
       </c>
       <c r="O61" s="6" t="s">
-        <v>2470</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="62" s="5" customFormat="1" spans="1:15">
       <c r="A62" s="5" t="s">
+        <v>2474</v>
+      </c>
+      <c r="B62" s="11" t="s">
         <v>2471</v>
       </c>
-      <c r="B62" s="11" t="s">
-        <v>2468</v>
-      </c>
       <c r="M62" s="11" t="s">
-        <v>2469</v>
+        <v>2472</v>
       </c>
       <c r="O62" s="6" t="s">
-        <v>2470</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="63" s="5" customFormat="1" ht="131.25" spans="1:13">
       <c r="A63" s="5" t="s">
-        <v>2472</v>
+        <v>2475</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>2473</v>
+        <v>2476</v>
       </c>
       <c r="M63" s="11" t="s">
-        <v>2474</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="64" s="5" customFormat="1" spans="1:13">
       <c r="A64" s="5" t="s">
-        <v>2475</v>
+        <v>2478</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>2476</v>
+        <v>2479</v>
       </c>
       <c r="M64" s="5" t="s">
-        <v>2477</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="65" ht="37.5" spans="1:15">
       <c r="A65" t="s">
-        <v>2478</v>
+        <v>2481</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>2479</v>
+        <v>2482</v>
       </c>
       <c r="M65" s="7" t="s">
-        <v>2480</v>
+        <v>2483</v>
       </c>
       <c r="O65" s="1"/>
     </row>
@@ -43458,218 +43473,218 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2481</v>
+        <v>2484</v>
       </c>
       <c r="B2" t="s">
-        <v>2482</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2483</v>
+        <v>2486</v>
       </c>
       <c r="B3" t="s">
-        <v>2484</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>2485</v>
+        <v>2488</v>
       </c>
       <c r="B4" t="s">
-        <v>2486</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>2487</v>
+        <v>2490</v>
       </c>
       <c r="B5" t="s">
-        <v>2488</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>2489</v>
+        <v>2492</v>
       </c>
       <c r="B6" t="s">
-        <v>2490</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>2491</v>
+        <v>2494</v>
       </c>
       <c r="B7" t="s">
-        <v>2492</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>2493</v>
+        <v>2496</v>
       </c>
       <c r="B8" t="s">
-        <v>2494</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>2495</v>
+        <v>2498</v>
       </c>
       <c r="B9" t="s">
-        <v>2496</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>2497</v>
+        <v>2500</v>
       </c>
       <c r="B10" t="s">
-        <v>2498</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>2499</v>
+        <v>2502</v>
       </c>
       <c r="B11" t="s">
-        <v>2500</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>2501</v>
+        <v>2504</v>
       </c>
       <c r="B12" t="s">
-        <v>2502</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>2503</v>
+        <v>2506</v>
       </c>
       <c r="B13" t="s">
-        <v>2504</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>2505</v>
+        <v>2508</v>
       </c>
       <c r="B14" t="s">
-        <v>2506</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>2507</v>
+        <v>2510</v>
       </c>
       <c r="B15" t="s">
-        <v>2508</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>2509</v>
+        <v>2512</v>
       </c>
       <c r="B16" t="s">
-        <v>2510</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>2511</v>
+        <v>2514</v>
       </c>
       <c r="B17" t="s">
-        <v>2512</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>2513</v>
+        <v>2516</v>
       </c>
       <c r="B18" t="s">
-        <v>2514</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>2515</v>
+        <v>2518</v>
       </c>
       <c r="B19" t="s">
-        <v>2516</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>2517</v>
+        <v>2520</v>
       </c>
       <c r="B20" t="s">
-        <v>2518</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>2519</v>
+        <v>2522</v>
       </c>
       <c r="B21" t="s">
-        <v>2520</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>2521</v>
+        <v>2524</v>
       </c>
       <c r="B22" t="s">
-        <v>2522</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>2523</v>
+        <v>2526</v>
       </c>
       <c r="B23" t="s">
-        <v>2524</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>2525</v>
+        <v>2528</v>
       </c>
       <c r="B24" t="s">
-        <v>2526</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>2527</v>
+        <v>2530</v>
       </c>
       <c r="B25" t="s">
-        <v>2528</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>2529</v>
+        <v>2532</v>
       </c>
       <c r="B26" t="s">
-        <v>2530</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>2531</v>
+        <v>2534</v>
       </c>
       <c r="B27" t="s">
-        <v>2532</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>2533</v>
+        <v>2536</v>
       </c>
       <c r="B28" t="s">
-        <v>2534</v>
+        <v>2537</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13140" tabRatio="816" activeTab="12"/>
+    <workbookView windowWidth="28695" windowHeight="13140" tabRatio="816" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ModText" sheetId="1" r:id="rId1"/>
@@ -9329,9 +9329,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
@@ -9405,14 +9405,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9423,21 +9423,6 @@
       <color theme="3"/>
       <name val="游ゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9471,6 +9456,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -9482,14 +9490,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9509,8 +9509,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9524,9 +9525,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9576,19 +9576,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9600,37 +9600,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9654,13 +9630,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9672,31 +9714,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9708,55 +9750,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9767,21 +9767,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -9817,6 +9802,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -9842,17 +9853,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -9873,146 +9873,146 @@
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -12829,7 +12829,7 @@
   <sheetPr/>
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
@@ -25530,8 +25530,8 @@
   <sheetPr/>
   <dimension ref="A1:Q898"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13140" tabRatio="816" activeTab="3"/>
+    <workbookView windowWidth="28695" windowHeight="13140" tabRatio="816" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="ModText" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2797">
   <si>
     <t>English</t>
   </si>
@@ -9315,13 +9315,22 @@
     <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.0.4.1&lt;/size&gt;&lt;size=70%&gt;\n&lt;size=70%&gt;やっほー。清盛だよ～\n今回のアップデートの内容はこんな感じさ！\n1.モーフィングの修正\n\n2.カスタムオプション「一人で開始(次回適用)」追加\n\nそれじゃーね～～～                       でこぼこの清盛&amp;麦茶&lt;/size&gt;</t>
   </si>
   <si>
+    <t>Ver.1.0.4.2</t>
+  </si>
+  <si>
+    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.0.4.1&lt;/size&gt;&lt;size=70%&gt;\nHi! I'm Kiyomori!\nThis Update Contents is...\n1.Fixed Some Bug\n2.Add CustomOption "AirShip Reactor Duration"\n\n\nSee you next Update~~~!                        DekoKiyo&amp;Mugicha&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.0.4.1&lt;/size&gt;&lt;size=70%&gt;\n&lt;size=70%&gt;やっほー。清盛だよ～\n今回のアップデートの内容はこんな感じさ！\n1.バグ修正\n\n2.カスタムオプション「AirShip昇降機制限時間」追加\n\nそれじゃーね～～～                       でこぼこの清盛&amp;麦茶&lt;/size&gt;</t>
+  </si>
+  <si>
     <t>release</t>
   </si>
   <si>
-    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.0.4.1&lt;/size&gt;&lt;size=70%&gt;\nHi! I'm Kiyomori!\nThis Update Contents is...\n1.Fixed Some Bug\n2.Add CustomOption "AirShip Reactor Duration"\n\n\nSee you next Update~~~!                        DekoKiyo&amp;Mugicha&lt;/size&gt;</t>
-  </si>
-  <si>
-    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.0.4.1&lt;/size&gt;&lt;size=70%&gt;\n&lt;size=70%&gt;やっほー。清盛だよ～\n今回のアップデートの内容はこんな感じさ！\n1.バグ修正\n\n2.カスタムオプション「AirShip昇降機制限時間」追加\n\nそれじゃーね～～～                       でこぼこの清盛&amp;麦茶&lt;/size&gt;</t>
+    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.0.5&lt;/size&gt;&lt;size=70%&gt;\nHi! I'm Kiyomori!\nThis Update Contents is...\n1.Fixed Translate Bugs\n2.Fixed "Hide Task Arrow" Setting. (But Book Shelf Task at AirShip, It's First Book is always Hide Arrow.)\n3.Change "Streamer Mode" Text to "TheOtherRolesGM KM" (Until now =&gt; "TheOtherRolesGMK")\n4.Add Ability to Hawk Eye, Stop Halfway, Remove the View.\n\n\nSee you next Update~~~!                        DekoKiyo&amp;Mugicha&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.0.5&lt;/size&gt;&lt;size=70%&gt;\n&lt;size=70%&gt;やっほー。清盛だよ～\n今回のアップデートの内容はこんな感じやで！\n1.翻訳ミス修正\n\n2.タスク矢印設定復活(AirShipアーカイブタスクの最初の本以外)\n\n3.ストリーマーモードの文字をTheOtherRolesGM KMに変更(従来:TheOtherRolesGMK)\n\n4.ホークアイ修正(途中で終了できる&amp;視界制限排除)\n\nそれじゃーね～～～                       でこぼこの清盛&amp;麦茶&lt;/size&gt;</t>
   </si>
 </sst>
 </file>
@@ -9329,9 +9338,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
@@ -9405,14 +9414,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9426,15 +9459,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9457,7 +9484,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9465,15 +9514,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9482,6 +9530,13 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9496,55 +9551,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9576,7 +9585,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9588,31 +9693,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9624,31 +9723,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9666,97 +9759,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9770,17 +9779,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9800,13 +9814,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9826,11 +9853,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9843,176 +9876,152 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -12827,10 +12836,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -12982,6 +12991,17 @@
       </c>
       <c r="M10" t="s">
         <v>2793</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>2794</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2795</v>
+      </c>
+      <c r="M11" t="s">
+        <v>2796</v>
       </c>
     </row>
   </sheetData>
@@ -25530,7 +25550,7 @@
   <sheetPr/>
   <dimension ref="A1:Q898"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A66" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A66" workbookViewId="0">
       <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13140" tabRatio="816" activeTab="12"/>
+    <workbookView windowWidth="28695" windowHeight="13140" tabRatio="816" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ModText" sheetId="1" r:id="rId1"/>
@@ -9338,10 +9338,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -9413,8 +9413,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9422,6 +9423,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9435,11 +9443,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="游ゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9451,33 +9480,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9487,21 +9500,6 @@
       <color rgb="FF9C6500"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9521,39 +9519,41 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="游ゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9585,25 +9585,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9615,19 +9615,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9639,37 +9639,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9687,13 +9675,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9705,67 +9735,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9786,6 +9786,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9832,8 +9847,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9853,26 +9868,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9882,7 +9882,7 @@
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9891,137 +9891,137 @@
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -12838,7 +12838,7 @@
   <sheetPr/>
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -29014,8 +29014,8 @@
   <sheetPr/>
   <dimension ref="A1:Q904"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13140" tabRatio="816" activeTab="4"/>
+    <workbookView windowWidth="28695" windowHeight="13140" tabRatio="816" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="ModText" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2800">
   <si>
     <t>English</t>
   </si>
@@ -9324,13 +9324,22 @@
     <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.0.4.1&lt;/size&gt;&lt;size=70%&gt;\n&lt;size=70%&gt;やっほー。清盛だよ～\n今回のアップデートの内容はこんな感じさ！\n1.バグ修正\n\n2.カスタムオプション「AirShip昇降機制限時間」追加\n\nそれじゃーね～～～                       でこぼこの清盛&amp;麦茶&lt;/size&gt;</t>
   </si>
   <si>
+    <t>Ver.1.0.5</t>
+  </si>
+  <si>
+    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.0.5&lt;/size&gt;&lt;size=70%&gt;\nHi! I'm Kiyomori!\nThis Update Contents is...\n1.Fixed Translate Bugs\n2.Fixed "Hide Task Arrow" Setting. (But Book Shelf Task at AirShip, It's First Book is always Hide Arrow.)\n3.Change "Streamer Mode" Text to "TheOtherRolesGM KM" (Until now =&gt; "TheOtherRolesGMK")\n4.Add Ability to Hawk Eye, Stop Halfway, Remove the View.\n\n\nSee you next Update~~~!                        DekoKiyo&amp;Mugicha&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.0.5&lt;/size&gt;&lt;size=70%&gt;\n&lt;size=70%&gt;やっほー。清盛だよ～\n今回のアップデートの内容はこんな感じやで！\n1.翻訳ミス修正\n\n2.タスク矢印設定復活(AirShipアーカイブタスクの最初の本以外)\n\n3.ストリーマーモードの文字をTheOtherRolesGM KMに変更(従来:TheOtherRolesGMK)\n\n4.ホークアイ修正(途中で終了できる&amp;視界制限排除)\n\nそれじゃーね～～～                       でこぼこの清盛&amp;麦茶&lt;/size&gt;</t>
+  </si>
+  <si>
     <t>release</t>
   </si>
   <si>
-    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.0.5&lt;/size&gt;&lt;size=70%&gt;\nHi! I'm Kiyomori!\nThis Update Contents is...\n1.Fixed Translate Bugs\n2.Fixed "Hide Task Arrow" Setting. (But Book Shelf Task at AirShip, It's First Book is always Hide Arrow.)\n3.Change "Streamer Mode" Text to "TheOtherRolesGM KM" (Until now =&gt; "TheOtherRolesGMK")\n4.Add Ability to Hawk Eye, Stop Halfway, Remove the View.\n\n\nSee you next Update~~~!                        DekoKiyo&amp;Mugicha&lt;/size&gt;</t>
-  </si>
-  <si>
-    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.0.5&lt;/size&gt;&lt;size=70%&gt;\n&lt;size=70%&gt;やっほー。清盛だよ～\n今回のアップデートの内容はこんな感じやで！\n1.翻訳ミス修正\n\n2.タスク矢印設定復活(AirShipアーカイブタスクの最初の本以外)\n\n3.ストリーマーモードの文字をTheOtherRolesGM KMに変更(従来:TheOtherRolesGMK)\n\n4.ホークアイ修正(途中で終了できる&amp;視界制限排除)\n\nそれじゃーね～～～                       でこぼこの清盛&amp;麦茶&lt;/size&gt;</t>
+    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.0.5.1&lt;/size&gt;&lt;size=70%&gt;\nHi! I'm Kiyomori!\nThis Update Contents is...\n1.Fixed Some Bugs\n2.Fixed Lovers Couple Text\n3.Fixed Credit Text Position\n4.Fixed Mod Stamp\n\nSee you next Update~~~!                        DekoKiyo&amp;Mugicha&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.0.5.1&lt;/size&gt;&lt;size=70%&gt;\n&lt;size=70%&gt;やっほー。清盛だよ～\n今回のアップデートの内容はこんな感じさ！\n1.バグ修正\n\n2.イントロでラバーズの詳細が表示されていなかったバグを修正\n\n3.クレジットの文字の位置を修正\n\n4.Modスタンプ復帰\n\nそれじゃーね～～～                       でこぼこの清盛&amp;麦茶&lt;/size&gt;</t>
   </si>
 </sst>
 </file>
@@ -9338,10 +9347,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -9413,9 +9422,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9428,8 +9436,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9437,31 +9453,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9480,53 +9497,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="游ゴシック"/>
       <charset val="134"/>
@@ -9541,19 +9513,56 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="游ゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9585,73 +9594,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9669,7 +9630,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9687,7 +9666,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9699,13 +9708,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9717,13 +9732,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9741,31 +9768,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9776,32 +9785,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -9829,6 +9812,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -9840,15 +9841,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9868,11 +9860,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9882,7 +9891,7 @@
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9891,137 +9900,137 @@
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -12836,10 +12845,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -13002,6 +13011,17 @@
       </c>
       <c r="M11" t="s">
         <v>2796</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>2797</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2798</v>
+      </c>
+      <c r="M12" t="s">
+        <v>2799</v>
       </c>
     </row>
   </sheetData>
@@ -29014,7 +29034,7 @@
   <sheetPr/>
   <dimension ref="A1:Q904"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2803">
   <si>
     <t>English</t>
   </si>
@@ -9333,13 +9333,22 @@
     <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.0.5&lt;/size&gt;&lt;size=70%&gt;\n&lt;size=70%&gt;やっほー。清盛だよ～\n今回のアップデートの内容はこんな感じやで！\n1.翻訳ミス修正\n\n2.タスク矢印設定復活(AirShipアーカイブタスクの最初の本以外)\n\n3.ストリーマーモードの文字をTheOtherRolesGM KMに変更(従来:TheOtherRolesGMK)\n\n4.ホークアイ修正(途中で終了できる&amp;視界制限排除)\n\nそれじゃーね～～～                       でこぼこの清盛&amp;麦茶&lt;/size&gt;</t>
   </si>
   <si>
+    <t>Ver.1.0.5.1</t>
+  </si>
+  <si>
+    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.0.5.1&lt;/size&gt;&lt;size=70%&gt;\nHi! I'm Kiyomori!\nThis Update Contents is...\n1.Fixed Some Bugs\n2.Fixed Lovers Couple Text\n3.Fixed Credit Text Position\n4.Fixed Mod Stamp\n\nSee you next Update~~~!                        DekoKiyo&amp;Mugicha&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.0.5.1&lt;/size&gt;&lt;size=70%&gt;\n&lt;size=70%&gt;やっほー。清盛だよ～\n今回のアップデートの内容はこんな感じさ！\n1.バグ修正\n\n2.イントロでラバーズの詳細が表示されていなかったバグを修正\n\n3.クレジットの文字の位置を修正\n\n4.Modスタンプ復帰\n\nそれじゃーね～～～                       でこぼこの清盛&amp;麦茶&lt;/size&gt;</t>
+  </si>
+  <si>
     <t>release</t>
   </si>
   <si>
-    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.0.5.1&lt;/size&gt;&lt;size=70%&gt;\nHi! I'm Kiyomori!\nThis Update Contents is...\n1.Fixed Some Bugs\n2.Fixed Lovers Couple Text\n3.Fixed Credit Text Position\n4.Fixed Mod Stamp\n\nSee you next Update~~~!                        DekoKiyo&amp;Mugicha&lt;/size&gt;</t>
-  </si>
-  <si>
-    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.0.5.1&lt;/size&gt;&lt;size=70%&gt;\n&lt;size=70%&gt;やっほー。清盛だよ～\n今回のアップデートの内容はこんな感じさ！\n1.バグ修正\n\n2.イントロでラバーズの詳細が表示されていなかったバグを修正\n\n3.クレジットの文字の位置を修正\n\n4.Modスタンプ復帰\n\nそれじゃーね～～～                       でこぼこの清盛&amp;麦茶&lt;/size&gt;</t>
+    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.0.5.2&lt;/size&gt;&lt;size=70%&gt;\nHi! I'm Kiyomori!\nThis Update Contents is...\n1.Fixed Lovers Couple Text\n\nSee you next Update~~~!                        DekoKiyo&amp;Mugicha&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.0.5.2&lt;/size&gt;&lt;size=70%&gt;\n&lt;size=70%&gt;やっほー。清盛だよ～\n今回のアップデートの内容はこんな感じさ！\n1.誰がラバーズかがはっきりわからなかったバグを修正\n\nそれじゃーね～～～                       でこぼこの清盛&amp;麦茶&lt;/size&gt;</t>
   </si>
 </sst>
 </file>
@@ -9422,8 +9431,37 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9437,15 +9475,31 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="游ゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9459,6 +9513,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -9467,25 +9536,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9505,54 +9560,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9594,61 +9603,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9660,67 +9621,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9738,7 +9645,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9750,31 +9783,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9785,15 +9794,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -9815,32 +9815,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9877,6 +9853,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -9891,7 +9900,7 @@
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9900,137 +9909,137 @@
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -12845,10 +12854,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -13022,6 +13031,17 @@
       </c>
       <c r="M12" t="s">
         <v>2799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>2800</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2801</v>
+      </c>
+      <c r="M13" t="s">
+        <v>2802</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13140" tabRatio="816" activeTab="12"/>
+    <workbookView windowWidth="28695" windowHeight="13140" tabRatio="816" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ModText" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2796">
   <si>
     <t>English</t>
   </si>
@@ -5341,67 +5341,13 @@
     <t>死んだらズームイン&amp;アウトができる</t>
   </si>
   <si>
-    <t>inversionSkeld</t>
-  </si>
-  <si>
-    <t>Enable dlekS ehT</t>
-  </si>
-  <si>
-    <t>dlekS ehT 有効化</t>
-  </si>
-  <si>
-    <t>inversionMira</t>
-  </si>
-  <si>
-    <t>Enable QH ARIM</t>
-  </si>
-  <si>
-    <t>QH ARIM 有効化</t>
-  </si>
-  <si>
-    <t>inversionPolus</t>
-  </si>
-  <si>
-    <t>Enable suloP</t>
-  </si>
-  <si>
-    <t>suloP 有効化</t>
-  </si>
-  <si>
-    <t>inversionAirship</t>
-  </si>
-  <si>
-    <t>Enable pihsriA</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="1"/>
-      </rPr>
-      <t>pihsriA</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="1"/>
-      </rPr>
-      <t>有効化</t>
-    </r>
+    <t>enableMirror</t>
+  </si>
+  <si>
+    <t>Enable Mirror Maps</t>
+  </si>
+  <si>
+    <t>反転マップ有効化</t>
   </si>
   <si>
     <t>onePlayerStart</t>
@@ -9342,13 +9288,19 @@
     <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.0.5.1&lt;/size&gt;&lt;size=70%&gt;\n&lt;size=70%&gt;やっほー。清盛だよ～\n今回のアップデートの内容はこんな感じさ！\n1.バグ修正\n\n2.イントロでラバーズの詳細が表示されていなかったバグを修正\n\n3.クレジットの文字の位置を修正\n\n4.Modスタンプ復帰\n\nそれじゃーね～～～                       でこぼこの清盛&amp;麦茶&lt;/size&gt;</t>
   </si>
   <si>
+    <t>Ver.1.0.5.2</t>
+  </si>
+  <si>
+    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.0.5.2&lt;/size&gt;&lt;size=70%&gt;\nHi! I'm Kiyomori!\nThis Update Contents is...\n1.Fixed Lovers Couple Text\n\nSee you next Update~~~!                        DekoKiyo&amp;Mugicha&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.0.5.2&lt;/size&gt;&lt;size=70%&gt;\n&lt;size=70%&gt;やっほー。清盛だよ～\n今回のアップデートの内容はこんな感じさ！\n1.誰がラバーズかがはっきりわからなかったバグを修正\n\nそれじゃーね～～～                       でこぼこの清盛&amp;麦茶&lt;/size&gt;</t>
+  </si>
+  <si>
     <t>release</t>
   </si>
   <si>
-    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.0.5.2&lt;/size&gt;&lt;size=70%&gt;\nHi! I'm Kiyomori!\nThis Update Contents is...\n1.Fixed Lovers Couple Text\n\nSee you next Update~~~!                        DekoKiyo&amp;Mugicha&lt;/size&gt;</t>
-  </si>
-  <si>
-    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.0.5.2&lt;/size&gt;&lt;size=70%&gt;\n&lt;size=70%&gt;やっほー。清盛だよ～\n今回のアップデートの内容はこんな感じさ！\n1.誰がラバーズかがはっきりわからなかったバグを修正\n\nそれじゃーね～～～                       でこぼこの清盛&amp;麦茶&lt;/size&gt;</t>
+    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.0.5.3&lt;/size&gt;&lt;size=70%&gt;\nHi! I'm Kiyomori!\nThis Update Contents is...\n1.Fixed dlekS ehT Spawn Point\n2.Unification Mirror Map Setting\n\nSee you next Update~~~!                        DekoKiyo&amp;Mugicha&lt;/size&gt;</t>
   </si>
 </sst>
 </file>
@@ -9357,11 +9309,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9431,16 +9383,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9460,15 +9404,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="游ゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9482,10 +9436,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="游ゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9498,8 +9453,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9507,14 +9476,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9528,35 +9490,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="游ゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9586,13 +9538,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -9603,13 +9548,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9627,7 +9572,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9639,7 +9584,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9651,7 +9596,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9675,115 +9728,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9794,6 +9739,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -9815,23 +9769,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9851,11 +9790,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9878,8 +9823,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9900,25 +9845,25 @@
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9927,123 +9872,123 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="13" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -10091,9 +10036,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -11477,7 +11419,7 @@
       <c r="A79" t="s">
         <v>268</v>
       </c>
-      <c r="B79" s="30" t="s">
+      <c r="B79" s="29" t="s">
         <v>269</v>
       </c>
       <c r="M79" t="s">
@@ -11735,66 +11677,66 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>2550</v>
+        <v>2541</v>
       </c>
       <c r="B2" t="s">
-        <v>2551</v>
+        <v>2542</v>
       </c>
       <c r="M2" t="s">
-        <v>2552</v>
+        <v>2543</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>2553</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>2554</v>
+        <v>2545</v>
       </c>
       <c r="B3" t="s">
-        <v>2551</v>
+        <v>2542</v>
       </c>
       <c r="M3" t="s">
-        <v>2555</v>
+        <v>2546</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>2556</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>2557</v>
+        <v>2548</v>
       </c>
       <c r="B4" t="s">
-        <v>2551</v>
+        <v>2542</v>
       </c>
       <c r="M4" t="s">
-        <v>2558</v>
+        <v>2549</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>2559</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>2560</v>
+        <v>2551</v>
       </c>
       <c r="B5" t="s">
-        <v>2551</v>
+        <v>2542</v>
       </c>
       <c r="M5" t="s">
-        <v>2561</v>
+        <v>2552</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>2562</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>2563</v>
+        <v>2554</v>
       </c>
       <c r="B6" t="s">
-        <v>2551</v>
+        <v>2542</v>
       </c>
       <c r="M6" t="s">
         <v>169</v>
@@ -11805,69 +11747,69 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>2564</v>
+        <v>2555</v>
       </c>
       <c r="B7" t="s">
-        <v>2551</v>
+        <v>2542</v>
       </c>
       <c r="M7" t="s">
-        <v>2565</v>
+        <v>2556</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>2566</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>2567</v>
+        <v>2558</v>
       </c>
       <c r="B8" t="s">
-        <v>2551</v>
+        <v>2542</v>
       </c>
       <c r="M8" t="s">
-        <v>2568</v>
+        <v>2559</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>2569</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>2570</v>
+        <v>2561</v>
       </c>
       <c r="B9" t="s">
-        <v>2551</v>
+        <v>2542</v>
       </c>
       <c r="M9" t="s">
-        <v>2571</v>
+        <v>2562</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>2572</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>2573</v>
+        <v>2564</v>
       </c>
       <c r="B10" t="s">
-        <v>2551</v>
+        <v>2542</v>
       </c>
       <c r="M10" t="s">
-        <v>2574</v>
+        <v>2565</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>2575</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>2576</v>
+        <v>2567</v>
       </c>
       <c r="B11" t="s">
-        <v>2551</v>
+        <v>2542</v>
       </c>
       <c r="M11" t="s">
-        <v>2577</v>
+        <v>2568</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>158</v>
@@ -11875,125 +11817,125 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>2578</v>
+        <v>2569</v>
       </c>
       <c r="B12" t="s">
-        <v>2551</v>
+        <v>2542</v>
       </c>
       <c r="M12" t="s">
-        <v>2579</v>
+        <v>2570</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>2580</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>2581</v>
+        <v>2572</v>
       </c>
       <c r="B13" t="s">
-        <v>2551</v>
+        <v>2542</v>
       </c>
       <c r="M13" t="s">
-        <v>2582</v>
+        <v>2573</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>2583</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>2584</v>
+        <v>2575</v>
       </c>
       <c r="B14" t="s">
-        <v>2551</v>
+        <v>2542</v>
       </c>
       <c r="M14" t="s">
-        <v>2585</v>
+        <v>2576</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>2586</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>2587</v>
+        <v>2578</v>
       </c>
       <c r="B15" t="s">
-        <v>2551</v>
+        <v>2542</v>
       </c>
       <c r="M15" t="s">
-        <v>2588</v>
+        <v>2579</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>2589</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>2590</v>
+        <v>2581</v>
       </c>
       <c r="B16" t="s">
-        <v>2551</v>
+        <v>2542</v>
       </c>
       <c r="M16" t="s">
-        <v>2588</v>
+        <v>2579</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>2591</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>2592</v>
+        <v>2583</v>
       </c>
       <c r="B17" t="s">
-        <v>2551</v>
+        <v>2542</v>
       </c>
       <c r="M17" t="s">
-        <v>2593</v>
+        <v>2584</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>2594</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>2595</v>
+        <v>2586</v>
       </c>
       <c r="B18" t="s">
-        <v>2551</v>
+        <v>2542</v>
       </c>
       <c r="M18" t="s">
-        <v>2596</v>
+        <v>2587</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>2597</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>2598</v>
+        <v>2589</v>
       </c>
       <c r="B19" t="s">
-        <v>2551</v>
+        <v>2542</v>
       </c>
       <c r="M19" t="s">
-        <v>2599</v>
+        <v>2590</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>2600</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>2601</v>
+        <v>2592</v>
       </c>
       <c r="B20" t="s">
-        <v>2551</v>
+        <v>2542</v>
       </c>
       <c r="M20" t="s">
-        <v>2602</v>
+        <v>2593</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>467</v>
@@ -12001,259 +11943,259 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>2603</v>
+        <v>2594</v>
       </c>
       <c r="B21" t="s">
-        <v>2551</v>
+        <v>2542</v>
       </c>
       <c r="M21" t="s">
-        <v>2604</v>
+        <v>2595</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>2605</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>2606</v>
+        <v>2597</v>
       </c>
       <c r="B22" t="s">
-        <v>2551</v>
+        <v>2542</v>
       </c>
       <c r="M22" t="s">
-        <v>2607</v>
+        <v>2598</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>2608</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>2609</v>
+        <v>2600</v>
       </c>
       <c r="B23" t="s">
-        <v>2551</v>
+        <v>2542</v>
       </c>
       <c r="M23" t="s">
         <v>581</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>2610</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>2611</v>
+        <v>2602</v>
       </c>
       <c r="B24" t="s">
-        <v>2551</v>
+        <v>2542</v>
       </c>
       <c r="M24" t="s">
-        <v>2604</v>
+        <v>2595</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>2612</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>2613</v>
+        <v>2604</v>
       </c>
       <c r="B25" t="s">
-        <v>2551</v>
+        <v>2542</v>
       </c>
       <c r="M25" t="s">
-        <v>2614</v>
+        <v>2605</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>2615</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>2616</v>
+        <v>2607</v>
       </c>
       <c r="B26" t="s">
-        <v>2551</v>
+        <v>2542</v>
       </c>
       <c r="M26" t="s">
-        <v>2617</v>
+        <v>2608</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>2618</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>2619</v>
+        <v>2610</v>
       </c>
       <c r="B27" t="s">
-        <v>2551</v>
+        <v>2542</v>
       </c>
       <c r="M27" t="s">
-        <v>2620</v>
+        <v>2611</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>2621</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>2622</v>
+        <v>2613</v>
       </c>
       <c r="B28" t="s">
-        <v>2551</v>
+        <v>2542</v>
       </c>
       <c r="M28" t="s">
-        <v>2623</v>
+        <v>2614</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>2624</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>2625</v>
+        <v>2616</v>
       </c>
       <c r="B29" t="s">
-        <v>2551</v>
+        <v>2542</v>
       </c>
       <c r="M29" t="s">
-        <v>2626</v>
+        <v>2617</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>2627</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>2628</v>
+        <v>2619</v>
       </c>
       <c r="B30" t="s">
-        <v>2551</v>
+        <v>2542</v>
       </c>
       <c r="M30" t="s">
-        <v>2629</v>
+        <v>2620</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>2630</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>2631</v>
+        <v>2622</v>
       </c>
       <c r="B31" t="s">
-        <v>2551</v>
+        <v>2542</v>
       </c>
       <c r="M31" t="s">
-        <v>2632</v>
+        <v>2623</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>2633</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" t="s">
-        <v>2634</v>
+        <v>2625</v>
       </c>
       <c r="B32" t="s">
-        <v>2551</v>
+        <v>2542</v>
       </c>
       <c r="M32" t="s">
-        <v>2635</v>
+        <v>2626</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>2636</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" t="s">
-        <v>2637</v>
+        <v>2628</v>
       </c>
       <c r="B33" t="s">
-        <v>2638</v>
+        <v>2629</v>
       </c>
       <c r="M33" t="s">
-        <v>2639</v>
+        <v>2630</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>2640</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" t="s">
-        <v>2641</v>
+        <v>2632</v>
       </c>
       <c r="B34" t="s">
-        <v>2642</v>
+        <v>2633</v>
       </c>
       <c r="M34" t="s">
-        <v>2643</v>
+        <v>2634</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>2643</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" t="s">
-        <v>2644</v>
+        <v>2635</v>
       </c>
       <c r="B35" t="s">
-        <v>2645</v>
+        <v>2636</v>
       </c>
       <c r="M35" t="s">
-        <v>2646</v>
+        <v>2637</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>2647</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" t="s">
-        <v>2648</v>
+        <v>2639</v>
       </c>
       <c r="B36" t="s">
-        <v>2649</v>
+        <v>2640</v>
       </c>
       <c r="M36" t="s">
-        <v>2650</v>
+        <v>2641</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>2640</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" t="s">
-        <v>2651</v>
+        <v>2642</v>
       </c>
       <c r="B37" t="s">
-        <v>2652</v>
+        <v>2643</v>
       </c>
       <c r="M37" t="s">
-        <v>2653</v>
+        <v>2644</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>2643</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" t="s">
-        <v>2654</v>
+        <v>2645</v>
       </c>
       <c r="B38" t="s">
-        <v>2551</v>
+        <v>2542</v>
       </c>
       <c r="M38" t="s">
-        <v>2593</v>
+        <v>2584</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>2594</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" t="s">
-        <v>2655</v>
+        <v>2646</v>
       </c>
       <c r="B39" t="s">
         <v>541</v>
@@ -12262,12 +12204,12 @@
         <v>542</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>2656</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="3" t="s">
-        <v>2657</v>
+        <v>2648</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>493</v>
@@ -12288,32 +12230,32 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>2658</v>
+        <v>2649</v>
       </c>
       <c r="B41" t="s">
-        <v>2659</v>
+        <v>2650</v>
       </c>
       <c r="M41" t="s">
-        <v>2660</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>2661</v>
+        <v>2652</v>
       </c>
       <c r="B42" t="s">
-        <v>2662</v>
+        <v>2653</v>
       </c>
       <c r="M42" t="s">
-        <v>2643</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="5" t="s">
-        <v>2663</v>
+        <v>2654</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>2664</v>
+        <v>2655</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -12326,19 +12268,19 @@
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5" t="s">
-        <v>2665</v>
+        <v>2656</v>
       </c>
       <c r="N43" s="5"/>
       <c r="O43" s="6" t="s">
-        <v>2666</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="5" t="s">
-        <v>2667</v>
+        <v>2658</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>2668</v>
+        <v>2659</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -12351,33 +12293,33 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5" t="s">
-        <v>2669</v>
+        <v>2660</v>
       </c>
       <c r="N44" s="5"/>
       <c r="O44" s="6" t="s">
-        <v>2670</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>2671</v>
+        <v>2662</v>
       </c>
       <c r="B45" t="s">
-        <v>2672</v>
+        <v>2663</v>
       </c>
       <c r="M45" t="s">
-        <v>2673</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>2674</v>
+        <v>2665</v>
       </c>
       <c r="B46" t="s">
-        <v>2675</v>
+        <v>2666</v>
       </c>
       <c r="M46" t="s">
-        <v>2676</v>
+        <v>2667</v>
       </c>
     </row>
   </sheetData>
@@ -12453,240 +12395,240 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>2677</v>
+        <v>2668</v>
       </c>
       <c r="B2" t="s">
-        <v>2678</v>
+        <v>2669</v>
       </c>
       <c r="M2" t="s">
-        <v>2679</v>
+        <v>2670</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>2680</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>2681</v>
+        <v>2672</v>
       </c>
       <c r="B3" t="s">
-        <v>2682</v>
+        <v>2673</v>
       </c>
       <c r="M3" t="s">
-        <v>2683</v>
+        <v>2674</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>2684</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>2685</v>
+        <v>2676</v>
       </c>
       <c r="B4" t="s">
-        <v>2686</v>
+        <v>2677</v>
       </c>
       <c r="M4" t="s">
-        <v>2687</v>
+        <v>2678</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>2688</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>2689</v>
+        <v>2680</v>
       </c>
       <c r="B5" t="s">
-        <v>2690</v>
+        <v>2681</v>
       </c>
       <c r="M5" t="s">
-        <v>2691</v>
+        <v>2682</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>2692</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>2693</v>
+        <v>2684</v>
       </c>
       <c r="B6" t="s">
-        <v>2694</v>
+        <v>2685</v>
       </c>
       <c r="M6" t="s">
-        <v>2695</v>
+        <v>2686</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>2696</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>2697</v>
+        <v>2688</v>
       </c>
       <c r="B7" t="s">
-        <v>2698</v>
+        <v>2689</v>
       </c>
       <c r="M7" t="s">
-        <v>2699</v>
+        <v>2690</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>2700</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>2701</v>
+        <v>2692</v>
       </c>
       <c r="B8" t="s">
-        <v>2702</v>
+        <v>2693</v>
       </c>
       <c r="M8" t="s">
-        <v>2703</v>
+        <v>2694</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>2704</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>2705</v>
+        <v>2696</v>
       </c>
       <c r="B9" t="s">
-        <v>2706</v>
+        <v>2697</v>
       </c>
       <c r="M9" t="s">
-        <v>2707</v>
+        <v>2698</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>2708</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>2709</v>
+        <v>2700</v>
       </c>
       <c r="B10" t="s">
-        <v>2710</v>
+        <v>2701</v>
       </c>
       <c r="M10" t="s">
-        <v>2711</v>
+        <v>2702</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>2712</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>2713</v>
+        <v>2704</v>
       </c>
       <c r="B11" t="s">
-        <v>2714</v>
+        <v>2705</v>
       </c>
       <c r="M11" t="s">
-        <v>2715</v>
+        <v>2706</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>2716</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>2717</v>
+        <v>2708</v>
       </c>
       <c r="B12" t="s">
-        <v>2718</v>
+        <v>2709</v>
       </c>
       <c r="M12" t="s">
-        <v>2719</v>
+        <v>2710</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>2720</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>2721</v>
+        <v>2712</v>
       </c>
       <c r="B13" t="s">
-        <v>2722</v>
+        <v>2713</v>
       </c>
       <c r="M13" t="s">
-        <v>2723</v>
+        <v>2714</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>2724</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>2725</v>
+        <v>2716</v>
       </c>
       <c r="B14" t="s">
-        <v>2726</v>
+        <v>2717</v>
       </c>
       <c r="M14" t="s">
-        <v>2727</v>
+        <v>2718</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>2728</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>2729</v>
+        <v>2720</v>
       </c>
       <c r="B15" t="s">
-        <v>2730</v>
+        <v>2721</v>
       </c>
       <c r="M15" t="s">
-        <v>2731</v>
+        <v>2722</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>2732</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>2733</v>
+        <v>2724</v>
       </c>
       <c r="B16" t="s">
-        <v>2734</v>
+        <v>2725</v>
       </c>
       <c r="M16" t="s">
-        <v>2735</v>
+        <v>2726</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>2736</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>2737</v>
+        <v>2728</v>
       </c>
       <c r="B17" t="s">
-        <v>2738</v>
+        <v>2729</v>
       </c>
       <c r="M17" t="s">
-        <v>2739</v>
+        <v>2730</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>2740</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>2741</v>
+        <v>2732</v>
       </c>
       <c r="B18" t="s">
-        <v>2742</v>
+        <v>2733</v>
       </c>
       <c r="M18" t="s">
-        <v>2743</v>
+        <v>2734</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>2744</v>
+        <v>2735</v>
       </c>
     </row>
   </sheetData>
@@ -12763,86 +12705,86 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>2745</v>
+        <v>2736</v>
       </c>
       <c r="B2" t="s">
-        <v>2746</v>
+        <v>2737</v>
       </c>
       <c r="M2" t="s">
-        <v>2747</v>
+        <v>2738</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>2748</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>2749</v>
+        <v>2740</v>
       </c>
       <c r="B3" t="s">
-        <v>2750</v>
+        <v>2741</v>
       </c>
       <c r="M3" t="s">
-        <v>2751</v>
+        <v>2742</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>2752</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>2753</v>
+        <v>2744</v>
       </c>
       <c r="B4" t="s">
-        <v>2754</v>
+        <v>2745</v>
       </c>
       <c r="M4" t="s">
-        <v>2755</v>
+        <v>2746</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>2756</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>2757</v>
+        <v>2748</v>
       </c>
       <c r="B5" t="s">
-        <v>2758</v>
+        <v>2749</v>
       </c>
       <c r="M5" t="s">
-        <v>2759</v>
+        <v>2750</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>2760</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>2761</v>
+        <v>2752</v>
       </c>
       <c r="B6" t="s">
-        <v>2762</v>
+        <v>2753</v>
       </c>
       <c r="M6" t="s">
-        <v>2763</v>
+        <v>2754</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>2764</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>2765</v>
+        <v>2756</v>
       </c>
       <c r="B7" t="s">
-        <v>2766</v>
+        <v>2757</v>
       </c>
       <c r="M7" t="s">
-        <v>2767</v>
+        <v>2758</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>2768</v>
+        <v>2759</v>
       </c>
     </row>
   </sheetData>
@@ -12854,10 +12796,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -12914,134 +12856,142 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>2769</v>
+        <v>2760</v>
       </c>
       <c r="B2" t="s">
-        <v>2770</v>
+        <v>2761</v>
       </c>
       <c r="M2" t="s">
-        <v>2771</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>2772</v>
+        <v>2763</v>
       </c>
       <c r="B3" t="s">
-        <v>2773</v>
+        <v>2764</v>
       </c>
       <c r="M3" t="s">
-        <v>2774</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>2775</v>
+        <v>2766</v>
       </c>
       <c r="B4" t="s">
-        <v>2776</v>
+        <v>2767</v>
       </c>
       <c r="M4" t="s">
-        <v>2777</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>2778</v>
+        <v>2769</v>
       </c>
       <c r="B5" t="s">
-        <v>2779</v>
+        <v>2770</v>
       </c>
       <c r="M5" t="s">
-        <v>2780</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>2781</v>
+        <v>2772</v>
       </c>
       <c r="B6" t="s">
-        <v>2779</v>
+        <v>2770</v>
       </c>
       <c r="M6" t="s">
-        <v>2780</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>2782</v>
+        <v>2773</v>
       </c>
       <c r="B7" t="s">
-        <v>2783</v>
+        <v>2774</v>
       </c>
       <c r="M7" t="s">
-        <v>2784</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>2785</v>
+        <v>2776</v>
       </c>
       <c r="B8" t="s">
-        <v>2786</v>
+        <v>2777</v>
       </c>
       <c r="M8" t="s">
-        <v>2787</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>2788</v>
+        <v>2779</v>
       </c>
       <c r="B9" t="s">
-        <v>2789</v>
+        <v>2780</v>
       </c>
       <c r="M9" t="s">
-        <v>2790</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>2791</v>
+        <v>2782</v>
       </c>
       <c r="B10" t="s">
-        <v>2792</v>
+        <v>2783</v>
       </c>
       <c r="M10" t="s">
-        <v>2793</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>2794</v>
+        <v>2785</v>
       </c>
       <c r="B11" t="s">
-        <v>2795</v>
+        <v>2786</v>
       </c>
       <c r="M11" t="s">
-        <v>2796</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>2797</v>
+        <v>2788</v>
       </c>
       <c r="B12" t="s">
-        <v>2798</v>
+        <v>2789</v>
       </c>
       <c r="M12" t="s">
-        <v>2799</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>2800</v>
+        <v>2791</v>
       </c>
       <c r="B13" t="s">
-        <v>2801</v>
+        <v>2792</v>
       </c>
       <c r="M13" t="s">
-        <v>2802</v>
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>2794</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2795</v>
       </c>
     </row>
   </sheetData>
@@ -19102,7 +19052,7 @@
       <c r="O77" s="6"/>
     </row>
     <row r="78" spans="1:15">
-      <c r="A78" s="29" t="s">
+      <c r="A78" s="28" t="s">
         <v>823</v>
       </c>
       <c r="B78" s="5" t="s">
@@ -25588,10 +25538,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q898"/>
+  <dimension ref="A1:Q895"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="M84" sqref="M84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -26673,12 +26623,8 @@
       <c r="O83" s="4"/>
     </row>
     <row r="84" s="26" customFormat="1" spans="1:15">
-      <c r="A84" s="3" t="s">
-        <v>1764</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>1765</v>
-      </c>
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
@@ -26689,18 +26635,16 @@
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
-      <c r="M84" s="3" t="s">
-        <v>1766</v>
-      </c>
+      <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
     </row>
     <row r="85" s="26" customFormat="1" spans="1:15">
       <c r="A85" s="3" t="s">
-        <v>1767</v>
-      </c>
-      <c r="B85" s="27" t="s">
-        <v>1768</v>
+        <v>1764</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>1765</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -26712,18 +26656,18 @@
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
-      <c r="M85" s="27" t="s">
-        <v>1769</v>
+      <c r="M85" s="4" t="s">
+        <v>1766</v>
       </c>
       <c r="N85" s="4"/>
-      <c r="O85" s="17"/>
+      <c r="O85" s="4"/>
     </row>
     <row r="86" s="26" customFormat="1" spans="1:15">
       <c r="A86" s="3" t="s">
-        <v>1770</v>
-      </c>
-      <c r="B86" s="27" t="s">
-        <v>1771</v>
+        <v>1767</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>1768</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -26735,11 +26679,11 @@
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="27" t="s">
-        <v>1772</v>
+      <c r="M86" s="4" t="s">
+        <v>1769</v>
       </c>
       <c r="N86" s="4"/>
-      <c r="O86" s="17"/>
+      <c r="O86" s="4"/>
     </row>
     <row r="87" s="26" customFormat="1" spans="1:15">
       <c r="A87" s="3"/>
@@ -26759,12 +26703,8 @@
       <c r="O87" s="4"/>
     </row>
     <row r="88" s="26" customFormat="1" spans="1:15">
-      <c r="A88" s="3" t="s">
-        <v>1773</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>1774</v>
-      </c>
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
@@ -26775,19 +26715,13 @@
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="4" t="s">
-        <v>1775</v>
-      </c>
+      <c r="M88" s="4"/>
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
     </row>
     <row r="89" s="26" customFormat="1" spans="1:15">
-      <c r="A89" s="3" t="s">
-        <v>1776</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>1777</v>
-      </c>
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
@@ -26798,9 +26732,7 @@
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="4" t="s">
-        <v>1778</v>
-      </c>
+      <c r="M89" s="4"/>
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
     </row>
@@ -26839,8 +26771,8 @@
       <c r="O91" s="4"/>
     </row>
     <row r="92" s="26" customFormat="1" spans="1:15">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
@@ -26890,8 +26822,8 @@
       <c r="O94" s="4"/>
     </row>
     <row r="95" s="26" customFormat="1" spans="1:15">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
@@ -26940,62 +26872,17 @@
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
     </row>
-    <row r="98" s="26" customFormat="1" spans="1:15">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
-      <c r="M98" s="4"/>
-      <c r="N98" s="4"/>
-      <c r="O98" s="4"/>
-    </row>
-    <row r="99" s="26" customFormat="1" spans="1:15">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
-      <c r="M99" s="4"/>
-      <c r="N99" s="4"/>
-      <c r="O99" s="4"/>
-    </row>
-    <row r="100" s="26" customFormat="1" spans="1:15">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
-      <c r="J100" s="4"/>
-      <c r="K100" s="4"/>
-      <c r="L100" s="4"/>
-      <c r="M100" s="4"/>
-      <c r="N100" s="4"/>
-      <c r="O100" s="4"/>
-    </row>
-    <row r="101" s="26" customFormat="1" spans="15:15">
-      <c r="O101" s="28"/>
-    </row>
-    <row r="102" spans="15:15">
-      <c r="O102" s="1"/>
+    <row r="98" s="26" customFormat="1" spans="15:15">
+      <c r="O98" s="27"/>
+    </row>
+    <row r="99" spans="15:15">
+      <c r="O99" s="1"/>
+    </row>
+    <row r="100" spans="15:15">
+      <c r="O100" s="1"/>
+    </row>
+    <row r="101" spans="15:15">
+      <c r="O101" s="1"/>
     </row>
     <row r="103" spans="15:15">
       <c r="O103" s="1"/>
@@ -27003,17 +26890,17 @@
     <row r="104" spans="15:15">
       <c r="O104" s="1"/>
     </row>
-    <row r="106" spans="15:15">
-      <c r="O106" s="1"/>
-    </row>
-    <row r="107" spans="15:15">
-      <c r="O107" s="1"/>
-    </row>
-    <row r="108" spans="15:15">
-      <c r="O108" s="1"/>
-    </row>
-    <row r="112" spans="15:15">
-      <c r="O112" s="1"/>
+    <row r="105" spans="15:15">
+      <c r="O105" s="1"/>
+    </row>
+    <row r="109" spans="15:15">
+      <c r="O109" s="1"/>
+    </row>
+    <row r="110" spans="15:15">
+      <c r="O110" s="1"/>
+    </row>
+    <row r="111" spans="15:15">
+      <c r="O111" s="1"/>
     </row>
     <row r="113" spans="15:15">
       <c r="O113" s="1"/>
@@ -27021,32 +26908,32 @@
     <row r="114" spans="15:15">
       <c r="O114" s="1"/>
     </row>
-    <row r="116" spans="15:15">
-      <c r="O116" s="1"/>
+    <row r="115" spans="15:15">
+      <c r="O115" s="1"/>
     </row>
     <row r="117" spans="15:15">
       <c r="O117" s="1"/>
     </row>
-    <row r="118" spans="15:15">
-      <c r="O118" s="1"/>
-    </row>
-    <row r="120" spans="15:15">
-      <c r="O120" s="1"/>
-    </row>
-    <row r="124" spans="15:15">
-      <c r="O124" s="1"/>
+    <row r="121" spans="15:15">
+      <c r="O121" s="1"/>
+    </row>
+    <row r="122" spans="15:15">
+      <c r="O122" s="1"/>
+    </row>
+    <row r="123" spans="15:15">
+      <c r="O123" s="1"/>
     </row>
     <row r="125" spans="15:15">
       <c r="O125" s="1"/>
     </row>
-    <row r="126" spans="15:15">
-      <c r="O126" s="1"/>
-    </row>
-    <row r="128" spans="15:15">
-      <c r="O128" s="1"/>
-    </row>
-    <row r="132" spans="15:15">
-      <c r="O132" s="1"/>
+    <row r="129" spans="15:15">
+      <c r="O129" s="1"/>
+    </row>
+    <row r="130" spans="15:15">
+      <c r="O130" s="1"/>
+    </row>
+    <row r="131" spans="15:15">
+      <c r="O131" s="1"/>
     </row>
     <row r="133" spans="15:15">
       <c r="O133" s="1"/>
@@ -27054,14 +26941,14 @@
     <row r="134" spans="15:15">
       <c r="O134" s="1"/>
     </row>
-    <row r="136" spans="15:15">
-      <c r="O136" s="1"/>
-    </row>
-    <row r="137" spans="15:15">
-      <c r="O137" s="1"/>
-    </row>
-    <row r="141" spans="15:15">
-      <c r="O141" s="1"/>
+    <row r="138" spans="15:15">
+      <c r="O138" s="1"/>
+    </row>
+    <row r="139" spans="15:15">
+      <c r="O139" s="1"/>
+    </row>
+    <row r="140" spans="15:15">
+      <c r="O140" s="1"/>
     </row>
     <row r="142" spans="15:15">
       <c r="O142" s="1"/>
@@ -27069,26 +26956,26 @@
     <row r="143" spans="15:15">
       <c r="O143" s="1"/>
     </row>
+    <row r="144" spans="15:15">
+      <c r="O144" s="1"/>
+    </row>
     <row r="145" spans="15:15">
       <c r="O145" s="1"/>
     </row>
     <row r="146" spans="15:15">
       <c r="O146" s="1"/>
     </row>
-    <row r="147" spans="15:15">
-      <c r="O147" s="1"/>
-    </row>
-    <row r="148" spans="15:15">
-      <c r="O148" s="1"/>
-    </row>
-    <row r="149" spans="15:15">
-      <c r="O149" s="1"/>
+    <row r="150" spans="15:15">
+      <c r="O150" s="1"/>
+    </row>
+    <row r="152" spans="15:15">
+      <c r="O152" s="1"/>
     </row>
     <row r="153" spans="15:15">
       <c r="O153" s="1"/>
     </row>
-    <row r="155" spans="15:15">
-      <c r="O155" s="1"/>
+    <row r="154" spans="15:15">
+      <c r="O154" s="1"/>
     </row>
     <row r="156" spans="15:15">
       <c r="O156" s="1"/>
@@ -27096,8 +26983,8 @@
     <row r="157" spans="15:15">
       <c r="O157" s="1"/>
     </row>
-    <row r="159" spans="15:15">
-      <c r="O159" s="1"/>
+    <row r="158" spans="15:15">
+      <c r="O158" s="1"/>
     </row>
     <row r="160" spans="15:15">
       <c r="O160" s="1"/>
@@ -27105,29 +26992,32 @@
     <row r="161" spans="15:15">
       <c r="O161" s="1"/>
     </row>
-    <row r="163" spans="15:15">
-      <c r="O163" s="1"/>
-    </row>
-    <row r="164" spans="15:15">
-      <c r="O164" s="1"/>
-    </row>
-    <row r="168" spans="15:15">
+    <row r="165" spans="15:15">
+      <c r="O165" s="1"/>
+    </row>
+    <row r="166" spans="15:15">
+      <c r="O166" s="1"/>
+    </row>
+    <row r="167" spans="15:15">
+      <c r="O167" s="1"/>
+    </row>
+    <row r="168" spans="2:15">
+      <c r="B168" s="7"/>
+      <c r="M168" s="7"/>
       <c r="O168" s="1"/>
     </row>
-    <row r="169" spans="15:15">
+    <row r="169" spans="2:15">
+      <c r="B169" s="7"/>
+      <c r="M169" s="7"/>
       <c r="O169" s="1"/>
     </row>
     <row r="170" spans="15:15">
       <c r="O170" s="1"/>
     </row>
-    <row r="171" spans="2:15">
-      <c r="B171" s="7"/>
-      <c r="M171" s="7"/>
+    <row r="171" spans="15:15">
       <c r="O171" s="1"/>
     </row>
-    <row r="172" spans="2:15">
-      <c r="B172" s="7"/>
-      <c r="M172" s="7"/>
+    <row r="172" spans="15:15">
       <c r="O172" s="1"/>
     </row>
     <row r="173" spans="15:15">
@@ -27145,20 +27035,17 @@
     <row r="177" spans="15:15">
       <c r="O177" s="1"/>
     </row>
-    <row r="178" spans="15:15">
-      <c r="O178" s="1"/>
-    </row>
-    <row r="179" spans="15:15">
-      <c r="O179" s="1"/>
-    </row>
-    <row r="180" spans="15:15">
-      <c r="O180" s="1"/>
+    <row r="181" spans="15:15">
+      <c r="O181" s="1"/>
+    </row>
+    <row r="183" spans="15:15">
+      <c r="O183" s="1"/>
     </row>
     <row r="184" spans="15:15">
       <c r="O184" s="1"/>
     </row>
-    <row r="186" spans="15:15">
-      <c r="O186" s="1"/>
+    <row r="185" spans="15:15">
+      <c r="O185" s="1"/>
     </row>
     <row r="187" spans="15:15">
       <c r="O187" s="1"/>
@@ -27166,6 +27053,9 @@
     <row r="188" spans="15:15">
       <c r="O188" s="1"/>
     </row>
+    <row r="189" spans="15:15">
+      <c r="O189" s="1"/>
+    </row>
     <row r="190" spans="15:15">
       <c r="O190" s="1"/>
     </row>
@@ -27181,7 +27071,8 @@
     <row r="194" spans="15:15">
       <c r="O194" s="1"/>
     </row>
-    <row r="195" spans="15:15">
+    <row r="195" spans="1:15">
+      <c r="A195" s="19"/>
       <c r="O195" s="1"/>
     </row>
     <row r="196" spans="15:15">
@@ -27190,18 +27081,14 @@
     <row r="197" spans="15:15">
       <c r="O197" s="1"/>
     </row>
-    <row r="198" spans="1:15">
-      <c r="A198" s="19"/>
+    <row r="198" spans="15:15">
       <c r="O198" s="1"/>
     </row>
-    <row r="199" spans="15:15">
-      <c r="O199" s="1"/>
-    </row>
-    <row r="200" spans="15:15">
-      <c r="O200" s="1"/>
-    </row>
-    <row r="201" spans="15:15">
-      <c r="O201" s="1"/>
+    <row r="202" spans="15:15">
+      <c r="O202" s="1"/>
+    </row>
+    <row r="203" spans="15:15">
+      <c r="O203" s="1"/>
     </row>
     <row r="205" spans="15:15">
       <c r="O205" s="1"/>
@@ -27209,6 +27096,9 @@
     <row r="206" spans="15:15">
       <c r="O206" s="1"/>
     </row>
+    <row r="207" spans="15:15">
+      <c r="O207" s="1"/>
+    </row>
     <row r="208" spans="15:15">
       <c r="O208" s="1"/>
     </row>
@@ -27227,23 +27117,20 @@
     <row r="213" spans="15:15">
       <c r="O213" s="1"/>
     </row>
-    <row r="214" spans="15:15">
-      <c r="O214" s="1"/>
-    </row>
     <row r="215" spans="15:15">
       <c r="O215" s="1"/>
     </row>
     <row r="216" spans="15:15">
       <c r="O216" s="1"/>
     </row>
-    <row r="218" spans="15:15">
-      <c r="O218" s="1"/>
-    </row>
-    <row r="219" spans="15:15">
-      <c r="O219" s="1"/>
-    </row>
-    <row r="223" spans="15:15">
-      <c r="O223" s="1"/>
+    <row r="220" spans="15:15">
+      <c r="O220" s="1"/>
+    </row>
+    <row r="221" spans="15:15">
+      <c r="O221" s="1"/>
+    </row>
+    <row r="222" spans="15:15">
+      <c r="O222" s="1"/>
     </row>
     <row r="224" spans="15:15">
       <c r="O224" s="1"/>
@@ -27251,17 +27138,17 @@
     <row r="225" spans="15:15">
       <c r="O225" s="1"/>
     </row>
-    <row r="227" spans="15:15">
-      <c r="O227" s="1"/>
-    </row>
-    <row r="228" spans="15:15">
-      <c r="O228" s="1"/>
-    </row>
-    <row r="229" spans="15:15">
-      <c r="O229" s="1"/>
-    </row>
-    <row r="233" spans="15:15">
-      <c r="O233" s="1"/>
+    <row r="226" spans="15:15">
+      <c r="O226" s="1"/>
+    </row>
+    <row r="230" spans="15:15">
+      <c r="O230" s="1"/>
+    </row>
+    <row r="231" spans="15:15">
+      <c r="O231" s="1"/>
+    </row>
+    <row r="232" spans="15:15">
+      <c r="O232" s="1"/>
     </row>
     <row r="234" spans="15:15">
       <c r="O234" s="1"/>
@@ -27269,29 +27156,29 @@
     <row r="235" spans="15:15">
       <c r="O235" s="1"/>
     </row>
-    <row r="237" spans="15:15">
-      <c r="O237" s="1"/>
-    </row>
-    <row r="238" spans="15:15">
-      <c r="O238" s="1"/>
-    </row>
-    <row r="239" spans="15:15">
-      <c r="O239" s="1"/>
+    <row r="236" spans="15:15">
+      <c r="O236" s="1"/>
+    </row>
+    <row r="240" spans="15:15">
+      <c r="O240" s="1"/>
+    </row>
+    <row r="241" spans="15:15">
+      <c r="O241" s="1"/>
+    </row>
+    <row r="242" spans="15:15">
+      <c r="O242" s="1"/>
     </row>
     <row r="243" spans="15:15">
       <c r="O243" s="1"/>
     </row>
-    <row r="244" spans="15:15">
-      <c r="O244" s="1"/>
-    </row>
     <row r="245" spans="15:15">
       <c r="O245" s="1"/>
     </row>
     <row r="246" spans="15:15">
       <c r="O246" s="1"/>
     </row>
-    <row r="248" spans="15:15">
-      <c r="O248" s="1"/>
+    <row r="247" spans="15:15">
+      <c r="O247" s="1"/>
     </row>
     <row r="249" spans="15:15">
       <c r="O249" s="1"/>
@@ -27299,21 +27186,24 @@
     <row r="250" spans="15:15">
       <c r="O250" s="1"/>
     </row>
+    <row r="251" spans="15:15">
+      <c r="O251" s="1"/>
+    </row>
     <row r="252" spans="15:15">
       <c r="O252" s="1"/>
     </row>
     <row r="253" spans="15:15">
       <c r="O253" s="1"/>
     </row>
-    <row r="254" spans="15:15">
-      <c r="O254" s="1"/>
-    </row>
     <row r="255" spans="15:15">
       <c r="O255" s="1"/>
     </row>
     <row r="256" spans="15:15">
       <c r="O256" s="1"/>
     </row>
+    <row r="257" spans="15:15">
+      <c r="O257" s="1"/>
+    </row>
     <row r="258" spans="15:15">
       <c r="O258" s="1"/>
     </row>
@@ -27323,17 +27213,14 @@
     <row r="260" spans="15:15">
       <c r="O260" s="1"/>
     </row>
-    <row r="261" spans="15:15">
-      <c r="O261" s="1"/>
-    </row>
-    <row r="262" spans="15:15">
-      <c r="O262" s="1"/>
-    </row>
-    <row r="263" spans="15:15">
-      <c r="O263" s="1"/>
-    </row>
-    <row r="267" spans="15:15">
-      <c r="O267" s="1"/>
+    <row r="264" spans="15:15">
+      <c r="O264" s="1"/>
+    </row>
+    <row r="265" spans="15:15">
+      <c r="O265" s="1"/>
+    </row>
+    <row r="266" spans="15:15">
+      <c r="O266" s="1"/>
     </row>
     <row r="268" spans="15:15">
       <c r="O268" s="1"/>
@@ -27341,8 +27228,8 @@
     <row r="269" spans="15:15">
       <c r="O269" s="1"/>
     </row>
-    <row r="271" spans="15:15">
-      <c r="O271" s="1"/>
+    <row r="270" spans="15:15">
+      <c r="O270" s="1"/>
     </row>
     <row r="272" spans="15:15">
       <c r="O272" s="1"/>
@@ -27350,8 +27237,8 @@
     <row r="273" spans="15:15">
       <c r="O273" s="1"/>
     </row>
-    <row r="275" spans="15:15">
-      <c r="O275" s="1"/>
+    <row r="274" spans="15:15">
+      <c r="O274" s="1"/>
     </row>
     <row r="276" spans="15:15">
       <c r="O276" s="1"/>
@@ -27359,26 +27246,26 @@
     <row r="277" spans="15:15">
       <c r="O277" s="1"/>
     </row>
+    <row r="278" spans="15:15">
+      <c r="O278" s="1"/>
+    </row>
     <row r="279" spans="15:15">
       <c r="O279" s="1"/>
     </row>
     <row r="280" spans="15:15">
       <c r="O280" s="1"/>
     </row>
-    <row r="281" spans="15:15">
-      <c r="O281" s="1"/>
-    </row>
     <row r="282" spans="15:15">
       <c r="O282" s="1"/>
     </row>
-    <row r="283" spans="15:15">
-      <c r="O283" s="1"/>
-    </row>
     <row r="285" spans="15:15">
       <c r="O285" s="1"/>
     </row>
-    <row r="288" spans="15:15">
-      <c r="O288" s="1"/>
+    <row r="286" spans="15:15">
+      <c r="O286" s="1"/>
+    </row>
+    <row r="287" spans="15:15">
+      <c r="O287" s="1"/>
     </row>
     <row r="289" spans="15:15">
       <c r="O289" s="1"/>
@@ -27386,17 +27273,17 @@
     <row r="290" spans="15:15">
       <c r="O290" s="1"/>
     </row>
-    <row r="292" spans="15:15">
-      <c r="O292" s="1"/>
-    </row>
-    <row r="293" spans="15:15">
-      <c r="O293" s="1"/>
-    </row>
-    <row r="294" spans="15:15">
-      <c r="O294" s="1"/>
-    </row>
-    <row r="298" spans="15:15">
-      <c r="O298" s="1"/>
+    <row r="291" spans="15:15">
+      <c r="O291" s="1"/>
+    </row>
+    <row r="295" spans="15:15">
+      <c r="O295" s="1"/>
+    </row>
+    <row r="296" spans="15:15">
+      <c r="O296" s="1"/>
+    </row>
+    <row r="297" spans="15:15">
+      <c r="O297" s="1"/>
     </row>
     <row r="299" spans="15:15">
       <c r="O299" s="1"/>
@@ -27404,23 +27291,23 @@
     <row r="300" spans="15:15">
       <c r="O300" s="1"/>
     </row>
+    <row r="301" spans="15:15">
+      <c r="O301" s="1"/>
+    </row>
     <row r="302" spans="15:15">
       <c r="O302" s="1"/>
     </row>
-    <row r="303" spans="15:15">
-      <c r="O303" s="1"/>
-    </row>
     <row r="304" spans="15:15">
       <c r="O304" s="1"/>
     </row>
-    <row r="305" spans="15:15">
-      <c r="O305" s="1"/>
-    </row>
-    <row r="307" spans="15:15">
-      <c r="O307" s="1"/>
-    </row>
-    <row r="311" spans="15:15">
-      <c r="O311" s="1"/>
+    <row r="308" spans="15:15">
+      <c r="O308" s="1"/>
+    </row>
+    <row r="309" spans="15:15">
+      <c r="O309" s="1"/>
+    </row>
+    <row r="310" spans="15:15">
+      <c r="O310" s="1"/>
     </row>
     <row r="312" spans="15:15">
       <c r="O312" s="1"/>
@@ -27428,23 +27315,23 @@
     <row r="313" spans="15:15">
       <c r="O313" s="1"/>
     </row>
+    <row r="314" spans="15:15">
+      <c r="O314" s="1"/>
+    </row>
     <row r="315" spans="15:15">
       <c r="O315" s="1"/>
     </row>
     <row r="316" spans="15:15">
       <c r="O316" s="1"/>
     </row>
-    <row r="317" spans="15:15">
-      <c r="O317" s="1"/>
-    </row>
-    <row r="318" spans="15:15">
-      <c r="O318" s="1"/>
-    </row>
-    <row r="319" spans="15:15">
-      <c r="O319" s="1"/>
-    </row>
-    <row r="323" spans="15:15">
-      <c r="O323" s="1"/>
+    <row r="320" spans="15:15">
+      <c r="O320" s="1"/>
+    </row>
+    <row r="321" spans="15:15">
+      <c r="O321" s="1"/>
+    </row>
+    <row r="322" spans="15:15">
+      <c r="O322" s="1"/>
     </row>
     <row r="324" spans="15:15">
       <c r="O324" s="1"/>
@@ -27452,21 +27339,24 @@
     <row r="325" spans="15:15">
       <c r="O325" s="1"/>
     </row>
+    <row r="326" spans="15:15">
+      <c r="O326" s="1"/>
+    </row>
     <row r="327" spans="15:15">
       <c r="O327" s="1"/>
     </row>
     <row r="328" spans="15:15">
       <c r="O328" s="1"/>
     </row>
-    <row r="329" spans="15:15">
-      <c r="O329" s="1"/>
-    </row>
     <row r="330" spans="15:15">
       <c r="O330" s="1"/>
     </row>
     <row r="331" spans="15:15">
       <c r="O331" s="1"/>
     </row>
+    <row r="332" spans="15:15">
+      <c r="O332" s="1"/>
+    </row>
     <row r="333" spans="15:15">
       <c r="O333" s="1"/>
     </row>
@@ -27479,17 +27369,14 @@
     <row r="336" spans="15:15">
       <c r="O336" s="1"/>
     </row>
-    <row r="337" spans="15:15">
-      <c r="O337" s="1"/>
-    </row>
-    <row r="338" spans="15:15">
-      <c r="O338" s="1"/>
-    </row>
-    <row r="339" spans="15:15">
-      <c r="O339" s="1"/>
-    </row>
-    <row r="343" spans="15:15">
-      <c r="O343" s="1"/>
+    <row r="340" spans="15:15">
+      <c r="O340" s="1"/>
+    </row>
+    <row r="341" spans="15:15">
+      <c r="O341" s="1"/>
+    </row>
+    <row r="342" spans="15:15">
+      <c r="O342" s="1"/>
     </row>
     <row r="344" spans="15:15">
       <c r="O344" s="1"/>
@@ -27497,17 +27384,17 @@
     <row r="345" spans="15:15">
       <c r="O345" s="1"/>
     </row>
-    <row r="347" spans="15:15">
-      <c r="O347" s="1"/>
-    </row>
-    <row r="348" spans="15:15">
-      <c r="O348" s="1"/>
-    </row>
-    <row r="349" spans="15:15">
-      <c r="O349" s="1"/>
-    </row>
-    <row r="353" spans="15:15">
-      <c r="O353" s="1"/>
+    <row r="346" spans="15:15">
+      <c r="O346" s="1"/>
+    </row>
+    <row r="350" spans="15:15">
+      <c r="O350" s="1"/>
+    </row>
+    <row r="351" spans="15:15">
+      <c r="O351" s="1"/>
+    </row>
+    <row r="352" spans="15:15">
+      <c r="O352" s="1"/>
     </row>
     <row r="354" spans="15:15">
       <c r="O354" s="1"/>
@@ -27515,6 +27402,9 @@
     <row r="355" spans="15:15">
       <c r="O355" s="1"/>
     </row>
+    <row r="356" spans="15:15">
+      <c r="O356" s="1"/>
+    </row>
     <row r="357" spans="15:15">
       <c r="O357" s="1"/>
     </row>
@@ -27527,23 +27417,20 @@
     <row r="360" spans="15:15">
       <c r="O360" s="1"/>
     </row>
-    <row r="361" spans="15:15">
-      <c r="O361" s="1"/>
-    </row>
     <row r="362" spans="15:15">
       <c r="O362" s="1"/>
     </row>
-    <row r="363" spans="15:15">
-      <c r="O363" s="1"/>
-    </row>
-    <row r="365" spans="15:15">
-      <c r="O365" s="1"/>
+    <row r="366" spans="15:15">
+      <c r="O366" s="1"/>
+    </row>
+    <row r="368" spans="15:15">
+      <c r="O368" s="1"/>
     </row>
     <row r="369" spans="15:15">
       <c r="O369" s="1"/>
     </row>
-    <row r="371" spans="15:15">
-      <c r="O371" s="1"/>
+    <row r="370" spans="15:15">
+      <c r="O370" s="1"/>
     </row>
     <row r="372" spans="15:15">
       <c r="O372" s="1"/>
@@ -27551,8 +27438,8 @@
     <row r="373" spans="15:15">
       <c r="O373" s="1"/>
     </row>
-    <row r="375" spans="15:15">
-      <c r="O375" s="1"/>
+    <row r="374" spans="15:15">
+      <c r="O374" s="1"/>
     </row>
     <row r="376" spans="15:15">
       <c r="O376" s="1"/>
@@ -27560,23 +27447,23 @@
     <row r="377" spans="15:15">
       <c r="O377" s="1"/>
     </row>
+    <row r="378" spans="15:15">
+      <c r="O378" s="1"/>
+    </row>
     <row r="379" spans="15:15">
       <c r="O379" s="1"/>
     </row>
-    <row r="380" spans="15:15">
-      <c r="O380" s="1"/>
-    </row>
     <row r="381" spans="15:15">
       <c r="O381" s="1"/>
     </row>
-    <row r="382" spans="15:15">
-      <c r="O382" s="1"/>
-    </row>
-    <row r="384" spans="15:15">
-      <c r="O384" s="1"/>
-    </row>
-    <row r="388" spans="15:15">
-      <c r="O388" s="1"/>
+    <row r="385" spans="15:15">
+      <c r="O385" s="1"/>
+    </row>
+    <row r="386" spans="15:15">
+      <c r="O386" s="1"/>
+    </row>
+    <row r="387" spans="15:15">
+      <c r="O387" s="1"/>
     </row>
     <row r="389" spans="15:15">
       <c r="O389" s="1"/>
@@ -27584,6 +27471,9 @@
     <row r="390" spans="15:15">
       <c r="O390" s="1"/>
     </row>
+    <row r="391" spans="15:15">
+      <c r="O391" s="1"/>
+    </row>
     <row r="392" spans="15:15">
       <c r="O392" s="1"/>
     </row>
@@ -27611,15 +27501,15 @@
     <row r="400" spans="15:15">
       <c r="O400" s="1"/>
     </row>
-    <row r="401" spans="15:15">
-      <c r="O401" s="1"/>
-    </row>
     <row r="402" spans="15:15">
       <c r="O402" s="1"/>
     </row>
     <row r="403" spans="15:15">
       <c r="O403" s="1"/>
     </row>
+    <row r="404" spans="15:15">
+      <c r="O404" s="1"/>
+    </row>
     <row r="405" spans="15:15">
       <c r="O405" s="1"/>
     </row>
@@ -27629,20 +27519,17 @@
     <row r="407" spans="15:15">
       <c r="O407" s="1"/>
     </row>
-    <row r="408" spans="15:15">
-      <c r="O408" s="1"/>
-    </row>
     <row r="409" spans="15:15">
       <c r="O409" s="1"/>
     </row>
-    <row r="410" spans="15:15">
-      <c r="O410" s="1"/>
-    </row>
-    <row r="412" spans="15:15">
-      <c r="O412" s="1"/>
-    </row>
-    <row r="416" spans="15:15">
-      <c r="O416" s="1"/>
+    <row r="413" spans="15:15">
+      <c r="O413" s="1"/>
+    </row>
+    <row r="414" spans="15:15">
+      <c r="O414" s="1"/>
+    </row>
+    <row r="415" spans="15:15">
+      <c r="O415" s="1"/>
     </row>
     <row r="417" spans="15:15">
       <c r="O417" s="1"/>
@@ -27650,23 +27537,23 @@
     <row r="418" spans="15:15">
       <c r="O418" s="1"/>
     </row>
+    <row r="419" spans="15:15">
+      <c r="O419" s="1"/>
+    </row>
     <row r="420" spans="15:15">
       <c r="O420" s="1"/>
     </row>
     <row r="421" spans="15:15">
       <c r="O421" s="1"/>
     </row>
-    <row r="422" spans="15:15">
-      <c r="O422" s="1"/>
-    </row>
-    <row r="423" spans="15:15">
-      <c r="O423" s="1"/>
-    </row>
-    <row r="424" spans="15:15">
-      <c r="O424" s="1"/>
-    </row>
-    <row r="428" spans="15:15">
-      <c r="O428" s="1"/>
+    <row r="425" spans="15:15">
+      <c r="O425" s="1"/>
+    </row>
+    <row r="426" spans="15:15">
+      <c r="O426" s="1"/>
+    </row>
+    <row r="427" spans="15:15">
+      <c r="O427" s="1"/>
     </row>
     <row r="429" spans="15:15">
       <c r="O429" s="1"/>
@@ -27674,17 +27561,17 @@
     <row r="430" spans="15:15">
       <c r="O430" s="1"/>
     </row>
-    <row r="432" spans="15:15">
-      <c r="O432" s="1"/>
-    </row>
-    <row r="433" spans="15:15">
-      <c r="O433" s="1"/>
-    </row>
-    <row r="434" spans="15:15">
-      <c r="O434" s="1"/>
-    </row>
-    <row r="438" spans="15:15">
-      <c r="O438" s="1"/>
+    <row r="431" spans="15:15">
+      <c r="O431" s="1"/>
+    </row>
+    <row r="435" spans="15:15">
+      <c r="O435" s="1"/>
+    </row>
+    <row r="436" spans="15:15">
+      <c r="O436" s="1"/>
+    </row>
+    <row r="437" spans="15:15">
+      <c r="O437" s="1"/>
     </row>
     <row r="439" spans="15:15">
       <c r="O439" s="1"/>
@@ -27692,20 +27579,20 @@
     <row r="440" spans="15:15">
       <c r="O440" s="1"/>
     </row>
+    <row r="441" spans="15:15">
+      <c r="O441" s="1"/>
+    </row>
     <row r="442" spans="15:15">
       <c r="O442" s="1"/>
     </row>
-    <row r="443" spans="15:15">
-      <c r="O443" s="1"/>
-    </row>
-    <row r="444" spans="15:15">
-      <c r="O444" s="1"/>
-    </row>
-    <row r="445" spans="15:15">
-      <c r="O445" s="1"/>
-    </row>
-    <row r="449" spans="15:15">
-      <c r="O449" s="1"/>
+    <row r="446" spans="15:15">
+      <c r="O446" s="1"/>
+    </row>
+    <row r="447" spans="15:15">
+      <c r="O447" s="1"/>
+    </row>
+    <row r="448" spans="15:15">
+      <c r="O448" s="1"/>
     </row>
     <row r="450" spans="15:15">
       <c r="O450" s="1"/>
@@ -27713,6 +27600,9 @@
     <row r="451" spans="15:15">
       <c r="O451" s="1"/>
     </row>
+    <row r="452" spans="15:15">
+      <c r="O452" s="1"/>
+    </row>
     <row r="453" spans="15:15">
       <c r="O453" s="1"/>
     </row>
@@ -27728,20 +27618,17 @@
     <row r="457" spans="15:15">
       <c r="O457" s="1"/>
     </row>
-    <row r="458" spans="15:15">
-      <c r="O458" s="1"/>
-    </row>
     <row r="459" spans="15:15">
       <c r="O459" s="1"/>
     </row>
-    <row r="460" spans="15:15">
-      <c r="O460" s="1"/>
-    </row>
-    <row r="462" spans="15:15">
-      <c r="O462" s="1"/>
-    </row>
-    <row r="466" spans="15:15">
-      <c r="O466" s="1"/>
+    <row r="463" spans="15:15">
+      <c r="O463" s="1"/>
+    </row>
+    <row r="464" spans="15:15">
+      <c r="O464" s="1"/>
+    </row>
+    <row r="465" spans="15:15">
+      <c r="O465" s="1"/>
     </row>
     <row r="467" spans="15:15">
       <c r="O467" s="1"/>
@@ -27749,17 +27636,17 @@
     <row r="468" spans="15:15">
       <c r="O468" s="1"/>
     </row>
-    <row r="470" spans="15:15">
-      <c r="O470" s="1"/>
-    </row>
-    <row r="471" spans="15:15">
-      <c r="O471" s="1"/>
-    </row>
-    <row r="472" spans="15:15">
-      <c r="O472" s="1"/>
-    </row>
-    <row r="477" spans="15:15">
-      <c r="O477" s="1"/>
+    <row r="469" spans="15:15">
+      <c r="O469" s="1"/>
+    </row>
+    <row r="474" spans="15:15">
+      <c r="O474" s="1"/>
+    </row>
+    <row r="475" spans="15:15">
+      <c r="O475" s="1"/>
+    </row>
+    <row r="476" spans="15:15">
+      <c r="O476" s="1"/>
     </row>
     <row r="478" spans="15:15">
       <c r="O478" s="1"/>
@@ -27767,6 +27654,9 @@
     <row r="479" spans="15:15">
       <c r="O479" s="1"/>
     </row>
+    <row r="480" spans="15:15">
+      <c r="O480" s="1"/>
+    </row>
     <row r="481" spans="15:15">
       <c r="O481" s="1"/>
     </row>
@@ -27776,53 +27666,50 @@
     <row r="483" spans="15:15">
       <c r="O483" s="1"/>
     </row>
-    <row r="484" spans="15:15">
-      <c r="O484" s="1"/>
-    </row>
     <row r="485" spans="15:15">
       <c r="O485" s="1"/>
     </row>
     <row r="486" spans="15:15">
       <c r="O486" s="1"/>
     </row>
+    <row r="487" spans="15:15">
+      <c r="O487" s="1"/>
+    </row>
     <row r="488" spans="15:15">
       <c r="O488" s="1"/>
     </row>
     <row r="489" spans="15:15">
       <c r="O489" s="1"/>
     </row>
-    <row r="490" spans="15:15">
-      <c r="O490" s="1"/>
-    </row>
     <row r="491" spans="15:15">
       <c r="O491" s="1"/>
     </row>
     <row r="492" spans="15:15">
       <c r="O492" s="1"/>
     </row>
-    <row r="494" spans="15:15">
-      <c r="O494" s="1"/>
+    <row r="493" spans="15:15">
+      <c r="O493" s="1"/>
     </row>
     <row r="495" spans="15:15">
       <c r="O495" s="1"/>
     </row>
-    <row r="496" spans="15:15">
-      <c r="O496" s="1"/>
-    </row>
-    <row r="498" spans="15:15">
-      <c r="O498" s="1"/>
-    </row>
-    <row r="502" spans="15:15">
-      <c r="O502" s="1"/>
-    </row>
-    <row r="503" spans="15:15">
-      <c r="O503" s="1"/>
-    </row>
-    <row r="504" spans="15:15">
-      <c r="O504" s="1"/>
-    </row>
-    <row r="508" spans="15:15">
-      <c r="O508" s="1"/>
+    <row r="499" spans="15:15">
+      <c r="O499" s="1"/>
+    </row>
+    <row r="500" spans="15:15">
+      <c r="O500" s="1"/>
+    </row>
+    <row r="501" spans="15:15">
+      <c r="O501" s="1"/>
+    </row>
+    <row r="505" spans="15:15">
+      <c r="O505" s="1"/>
+    </row>
+    <row r="506" spans="15:15">
+      <c r="O506" s="1"/>
+    </row>
+    <row r="507" spans="15:15">
+      <c r="O507" s="1"/>
     </row>
     <row r="509" spans="15:15">
       <c r="O509" s="1"/>
@@ -27830,23 +27717,23 @@
     <row r="510" spans="15:15">
       <c r="O510" s="1"/>
     </row>
+    <row r="511" spans="15:15">
+      <c r="O511" s="1"/>
+    </row>
     <row r="512" spans="15:15">
       <c r="O512" s="1"/>
     </row>
-    <row r="513" spans="15:15">
-      <c r="O513" s="1"/>
-    </row>
     <row r="514" spans="15:15">
       <c r="O514" s="1"/>
     </row>
-    <row r="515" spans="15:15">
-      <c r="O515" s="1"/>
-    </row>
-    <row r="517" spans="15:15">
-      <c r="O517" s="1"/>
-    </row>
-    <row r="521" spans="15:15">
-      <c r="O521" s="1"/>
+    <row r="518" spans="15:15">
+      <c r="O518" s="1"/>
+    </row>
+    <row r="519" spans="15:15">
+      <c r="O519" s="1"/>
+    </row>
+    <row r="520" spans="15:15">
+      <c r="O520" s="1"/>
     </row>
     <row r="522" spans="15:15">
       <c r="O522" s="1"/>
@@ -27854,8 +27741,8 @@
     <row r="523" spans="15:15">
       <c r="O523" s="1"/>
     </row>
-    <row r="525" spans="15:15">
-      <c r="O525" s="1"/>
+    <row r="524" spans="15:15">
+      <c r="O524" s="1"/>
     </row>
     <row r="526" spans="15:15">
       <c r="O526" s="1"/>
@@ -27863,35 +27750,38 @@
     <row r="527" spans="15:15">
       <c r="O527" s="1"/>
     </row>
+    <row r="528" spans="15:15">
+      <c r="O528" s="1"/>
+    </row>
     <row r="529" spans="15:15">
       <c r="O529" s="1"/>
     </row>
-    <row r="530" spans="15:15">
-      <c r="O530" s="1"/>
-    </row>
-    <row r="531" spans="15:15">
-      <c r="O531" s="1"/>
-    </row>
-    <row r="532" spans="15:15">
-      <c r="O532" s="1"/>
-    </row>
-    <row r="536" spans="15:15">
+    <row r="533" spans="15:15">
+      <c r="O533" s="1"/>
+    </row>
+    <row r="534" spans="15:15">
+      <c r="O534" s="1"/>
+    </row>
+    <row r="535" spans="15:15">
+      <c r="O535" s="1"/>
+    </row>
+    <row r="536" spans="2:15">
+      <c r="B536" s="7"/>
+      <c r="M536" s="7"/>
       <c r="O536" s="1"/>
     </row>
-    <row r="537" spans="15:15">
+    <row r="537" spans="13:15">
+      <c r="M537" s="7"/>
       <c r="O537" s="1"/>
     </row>
-    <row r="538" spans="15:15">
-      <c r="O538" s="1"/>
-    </row>
-    <row r="539" spans="2:15">
-      <c r="B539" s="7"/>
-      <c r="M539" s="7"/>
+    <row r="539" spans="15:15">
       <c r="O539" s="1"/>
     </row>
-    <row r="540" spans="13:15">
-      <c r="M540" s="7"/>
+    <row r="540" spans="15:15">
       <c r="O540" s="1"/>
+    </row>
+    <row r="541" spans="15:15">
+      <c r="O541" s="1"/>
     </row>
     <row r="542" spans="15:15">
       <c r="O542" s="1"/>
@@ -27899,27 +27789,24 @@
     <row r="543" spans="15:15">
       <c r="O543" s="1"/>
     </row>
-    <row r="544" spans="15:15">
-      <c r="O544" s="1"/>
-    </row>
-    <row r="545" spans="15:15">
-      <c r="O545" s="1"/>
-    </row>
-    <row r="546" spans="15:15">
-      <c r="O546" s="1"/>
-    </row>
-    <row r="550" spans="15:15">
+    <row r="547" spans="15:15">
+      <c r="O547" s="1"/>
+    </row>
+    <row r="548" spans="15:15">
+      <c r="O548" s="1"/>
+    </row>
+    <row r="549" spans="15:15">
+      <c r="O549" s="1"/>
+    </row>
+    <row r="550" spans="2:15">
+      <c r="B550" s="7"/>
+      <c r="M550" s="7"/>
       <c r="O550" s="1"/>
     </row>
     <row r="551" spans="15:15">
       <c r="O551" s="1"/>
     </row>
-    <row r="552" spans="15:15">
-      <c r="O552" s="1"/>
-    </row>
-    <row r="553" spans="2:15">
-      <c r="B553" s="7"/>
-      <c r="M553" s="7"/>
+    <row r="553" spans="15:15">
       <c r="O553" s="1"/>
     </row>
     <row r="554" spans="15:15">
@@ -27928,29 +27815,32 @@
     <row r="556" spans="15:15">
       <c r="O556" s="1"/>
     </row>
-    <row r="557" spans="15:15">
-      <c r="O557" s="1"/>
-    </row>
-    <row r="559" spans="15:15">
-      <c r="O559" s="1"/>
-    </row>
-    <row r="563" spans="15:15">
+    <row r="560" spans="15:15">
+      <c r="O560" s="1"/>
+    </row>
+    <row r="561" spans="15:15">
+      <c r="O561" s="1"/>
+    </row>
+    <row r="562" spans="15:15">
+      <c r="O562" s="1"/>
+    </row>
+    <row r="563" spans="2:15">
+      <c r="B563" s="7"/>
+      <c r="M563" s="7"/>
       <c r="O563" s="1"/>
     </row>
-    <row r="564" spans="15:15">
+    <row r="564" spans="13:15">
+      <c r="M564" s="7"/>
       <c r="O564" s="1"/>
     </row>
-    <row r="565" spans="15:15">
-      <c r="O565" s="1"/>
-    </row>
-    <row r="566" spans="2:15">
-      <c r="B566" s="7"/>
-      <c r="M566" s="7"/>
+    <row r="566" spans="15:15">
       <c r="O566" s="1"/>
     </row>
-    <row r="567" spans="13:15">
-      <c r="M567" s="7"/>
+    <row r="567" spans="15:15">
       <c r="O567" s="1"/>
+    </row>
+    <row r="568" spans="15:15">
+      <c r="O568" s="1"/>
     </row>
     <row r="569" spans="15:15">
       <c r="O569" s="1"/>
@@ -27961,22 +27851,28 @@
     <row r="571" spans="15:15">
       <c r="O571" s="1"/>
     </row>
-    <row r="572" spans="15:15">
-      <c r="O572" s="1"/>
-    </row>
-    <row r="573" spans="15:15">
-      <c r="O573" s="1"/>
-    </row>
-    <row r="574" spans="15:15">
-      <c r="O574" s="1"/>
-    </row>
-    <row r="578" spans="15:15">
+    <row r="575" spans="15:15">
+      <c r="O575" s="1"/>
+    </row>
+    <row r="576" spans="15:15">
+      <c r="O576" s="1"/>
+    </row>
+    <row r="577" spans="15:15">
+      <c r="O577" s="1"/>
+    </row>
+    <row r="578" spans="2:15">
+      <c r="B578" s="7"/>
+      <c r="M578" s="7"/>
       <c r="O578" s="1"/>
     </row>
-    <row r="579" spans="15:15">
+    <row r="579" spans="2:15">
+      <c r="B579" s="7"/>
+      <c r="M579" s="7"/>
       <c r="O579" s="1"/>
     </row>
-    <row r="580" spans="15:15">
+    <row r="580" spans="2:15">
+      <c r="B580" s="7"/>
+      <c r="M580" s="7"/>
       <c r="O580" s="1"/>
     </row>
     <row r="581" spans="2:15">
@@ -27999,9 +27895,7 @@
       <c r="M584" s="7"/>
       <c r="O584" s="1"/>
     </row>
-    <row r="585" spans="2:15">
-      <c r="B585" s="7"/>
-      <c r="M585" s="7"/>
+    <row r="585" spans="15:15">
       <c r="O585" s="1"/>
     </row>
     <row r="586" spans="2:15">
@@ -28009,32 +27903,28 @@
       <c r="M586" s="7"/>
       <c r="O586" s="1"/>
     </row>
-    <row r="587" spans="2:15">
-      <c r="B587" s="7"/>
-      <c r="M587" s="7"/>
-      <c r="O587" s="1"/>
-    </row>
-    <row r="588" spans="15:15">
-      <c r="O588" s="1"/>
-    </row>
-    <row r="589" spans="2:15">
-      <c r="B589" s="7"/>
-      <c r="M589" s="7"/>
-      <c r="O589" s="1"/>
-    </row>
-    <row r="593" spans="15:15">
+    <row r="590" spans="15:15">
+      <c r="O590" s="1"/>
+    </row>
+    <row r="591" spans="15:15">
+      <c r="O591" s="1"/>
+    </row>
+    <row r="592" spans="15:15">
+      <c r="O592" s="1"/>
+    </row>
+    <row r="593" spans="2:15">
+      <c r="B593" s="7"/>
+      <c r="M593" s="7"/>
       <c r="O593" s="1"/>
-    </row>
-    <row r="594" spans="15:15">
-      <c r="O594" s="1"/>
     </row>
     <row r="595" spans="15:15">
       <c r="O595" s="1"/>
     </row>
-    <row r="596" spans="2:15">
-      <c r="B596" s="7"/>
-      <c r="M596" s="7"/>
+    <row r="596" spans="15:15">
       <c r="O596" s="1"/>
+    </row>
+    <row r="597" spans="15:15">
+      <c r="O597" s="1"/>
     </row>
     <row r="598" spans="15:15">
       <c r="O598" s="1"/>
@@ -28051,9 +27941,6 @@
     <row r="602" spans="15:15">
       <c r="O602" s="1"/>
     </row>
-    <row r="603" spans="15:15">
-      <c r="O603" s="1"/>
-    </row>
     <row r="604" spans="15:15">
       <c r="O604" s="1"/>
     </row>
@@ -28066,41 +27953,50 @@
     <row r="608" spans="15:15">
       <c r="O608" s="1"/>
     </row>
-    <row r="610" spans="15:15">
-      <c r="O610" s="1"/>
-    </row>
-    <row r="611" spans="15:15">
-      <c r="O611" s="1"/>
-    </row>
-    <row r="615" spans="15:15">
+    <row r="612" spans="15:15">
+      <c r="O612" s="1"/>
+    </row>
+    <row r="613" spans="15:15">
+      <c r="O613" s="1"/>
+    </row>
+    <row r="614" spans="15:15">
+      <c r="O614" s="1"/>
+    </row>
+    <row r="615" spans="13:15">
+      <c r="M615" s="7"/>
       <c r="O615" s="1"/>
-    </row>
-    <row r="616" spans="15:15">
-      <c r="O616" s="1"/>
     </row>
     <row r="617" spans="15:15">
       <c r="O617" s="1"/>
     </row>
-    <row r="618" spans="13:15">
-      <c r="M618" s="7"/>
+    <row r="618" spans="15:15">
       <c r="O618" s="1"/>
     </row>
-    <row r="620" spans="15:15">
-      <c r="O620" s="1"/>
-    </row>
-    <row r="621" spans="15:15">
-      <c r="O621" s="1"/>
-    </row>
-    <row r="622" spans="15:15">
-      <c r="O622" s="1"/>
-    </row>
-    <row r="626" spans="15:15">
+    <row r="619" spans="15:15">
+      <c r="O619" s="1"/>
+    </row>
+    <row r="623" spans="15:15">
+      <c r="O623" s="1"/>
+    </row>
+    <row r="624" spans="15:15">
+      <c r="O624" s="1"/>
+    </row>
+    <row r="625" spans="15:15">
+      <c r="O625" s="1"/>
+    </row>
+    <row r="626" spans="2:15">
+      <c r="B626" s="7"/>
+      <c r="M626" s="7"/>
       <c r="O626" s="1"/>
     </row>
-    <row r="627" spans="15:15">
+    <row r="627" spans="2:15">
+      <c r="B627" s="7"/>
+      <c r="M627" s="7"/>
       <c r="O627" s="1"/>
     </row>
-    <row r="628" spans="15:15">
+    <row r="628" spans="2:15">
+      <c r="B628" s="7"/>
+      <c r="M628" s="7"/>
       <c r="O628" s="1"/>
     </row>
     <row r="629" spans="2:15">
@@ -28116,36 +28012,30 @@
     <row r="631" spans="2:15">
       <c r="B631" s="7"/>
       <c r="M631" s="7"/>
-      <c r="O631" s="1"/>
-    </row>
-    <row r="632" spans="2:15">
-      <c r="B632" s="7"/>
-      <c r="M632" s="7"/>
-      <c r="O632" s="1"/>
-    </row>
-    <row r="633" spans="2:15">
-      <c r="B633" s="7"/>
-      <c r="M633" s="7"/>
-      <c r="O633" s="1"/>
-    </row>
-    <row r="634" spans="2:15">
-      <c r="B634" s="7"/>
-      <c r="M634" s="7"/>
-      <c r="O634" s="20"/>
-    </row>
-    <row r="638" spans="15:15">
-      <c r="O638" s="6"/>
+      <c r="O631" s="20"/>
+    </row>
+    <row r="635" spans="15:15">
+      <c r="O635" s="6"/>
+    </row>
+    <row r="636" spans="15:15">
+      <c r="O636" s="6"/>
+    </row>
+    <row r="637" spans="15:15">
+      <c r="O637" s="6"/>
+    </row>
+    <row r="638" spans="2:15">
+      <c r="B638" s="7"/>
+      <c r="M638" s="7"/>
+      <c r="O638" s="13"/>
     </row>
     <row r="639" spans="15:15">
-      <c r="O639" s="6"/>
+      <c r="O639" s="20"/>
     </row>
     <row r="640" spans="15:15">
-      <c r="O640" s="6"/>
-    </row>
-    <row r="641" spans="2:15">
-      <c r="B641" s="7"/>
-      <c r="M641" s="7"/>
-      <c r="O641" s="13"/>
+      <c r="O640" s="20"/>
+    </row>
+    <row r="641" spans="15:15">
+      <c r="O641" s="20"/>
     </row>
     <row r="642" spans="15:15">
       <c r="O642" s="20"/>
@@ -28171,17 +28061,19 @@
     <row r="649" spans="15:15">
       <c r="O649" s="20"/>
     </row>
-    <row r="650" spans="15:15">
-      <c r="O650" s="20"/>
-    </row>
-    <row r="651" spans="15:15">
-      <c r="O651" s="20"/>
-    </row>
-    <row r="652" spans="15:15">
-      <c r="O652" s="20"/>
-    </row>
-    <row r="656" spans="15:15">
-      <c r="O656" s="20"/>
+    <row r="653" spans="15:15">
+      <c r="O653" s="20"/>
+    </row>
+    <row r="654" spans="15:15">
+      <c r="O654" s="20"/>
+    </row>
+    <row r="655" spans="15:15">
+      <c r="O655" s="20"/>
+    </row>
+    <row r="656" spans="2:15">
+      <c r="B656" s="7"/>
+      <c r="M656" s="7"/>
+      <c r="O656" s="13"/>
     </row>
     <row r="657" spans="15:15">
       <c r="O657" s="20"/>
@@ -28189,33 +28081,31 @@
     <row r="658" spans="15:15">
       <c r="O658" s="20"/>
     </row>
-    <row r="659" spans="2:15">
-      <c r="B659" s="7"/>
-      <c r="M659" s="7"/>
-      <c r="O659" s="13"/>
-    </row>
-    <row r="660" spans="15:15">
-      <c r="O660" s="20"/>
-    </row>
-    <row r="661" spans="15:15">
-      <c r="O661" s="20"/>
-    </row>
-    <row r="665" spans="15:15">
-      <c r="O665" s="20"/>
+    <row r="662" spans="15:15">
+      <c r="O662" s="20"/>
+    </row>
+    <row r="663" spans="15:15">
+      <c r="O663" s="20"/>
+    </row>
+    <row r="664" spans="15:15">
+      <c r="O664" s="20"/>
+    </row>
+    <row r="665" spans="2:15">
+      <c r="B665" s="7"/>
+      <c r="M665" s="7"/>
+      <c r="O665" s="13"/>
     </row>
     <row r="666" spans="15:15">
       <c r="O666" s="20"/>
     </row>
     <row r="667" spans="15:15">
-      <c r="O667" s="20"/>
-    </row>
-    <row r="668" spans="2:15">
-      <c r="B668" s="7"/>
-      <c r="M668" s="7"/>
-      <c r="O668" s="13"/>
+      <c r="O667" s="21"/>
+    </row>
+    <row r="668" spans="15:15">
+      <c r="O668" s="21"/>
     </row>
     <row r="669" spans="15:15">
-      <c r="O669" s="20"/>
+      <c r="O669" s="21"/>
     </row>
     <row r="670" spans="15:15">
       <c r="O670" s="21"/>
@@ -28230,7 +28120,7 @@
       <c r="O673" s="21"/>
     </row>
     <row r="674" spans="15:15">
-      <c r="O674" s="21"/>
+      <c r="O674" s="20"/>
     </row>
     <row r="675" spans="15:15">
       <c r="O675" s="21"/>
@@ -28239,23 +28129,23 @@
       <c r="O676" s="21"/>
     </row>
     <row r="677" spans="15:15">
-      <c r="O677" s="20"/>
+      <c r="O677" s="21"/>
     </row>
     <row r="678" spans="15:15">
       <c r="O678" s="21"/>
     </row>
-    <row r="679" spans="15:15">
-      <c r="O679" s="21"/>
-    </row>
     <row r="680" spans="15:15">
-      <c r="O680" s="21"/>
-    </row>
-    <row r="681" spans="15:15">
-      <c r="O681" s="21"/>
+      <c r="O680" s="20"/>
+    </row>
+    <row r="682" spans="15:15">
+      <c r="O682" s="20"/>
     </row>
     <row r="683" spans="15:15">
       <c r="O683" s="20"/>
     </row>
+    <row r="684" spans="15:15">
+      <c r="O684" s="20"/>
+    </row>
     <row r="685" spans="15:15">
       <c r="O685" s="20"/>
     </row>
@@ -28268,73 +28158,70 @@
     <row r="688" spans="15:15">
       <c r="O688" s="20"/>
     </row>
-    <row r="689" spans="15:15">
-      <c r="O689" s="20"/>
-    </row>
-    <row r="690" spans="15:15">
-      <c r="O690" s="20"/>
-    </row>
-    <row r="691" spans="15:15">
-      <c r="O691" s="20"/>
+    <row r="692" spans="15:15">
+      <c r="O692" s="1"/>
+    </row>
+    <row r="694" spans="15:15">
+      <c r="O694" s="1"/>
     </row>
     <row r="695" spans="15:15">
       <c r="O695" s="1"/>
     </row>
-    <row r="697" spans="15:15">
+    <row r="696" spans="15:15">
+      <c r="O696" s="1"/>
+    </row>
+    <row r="697" spans="2:15">
+      <c r="B697" s="7"/>
+      <c r="M697" s="7"/>
       <c r="O697" s="1"/>
-    </row>
-    <row r="698" spans="15:15">
-      <c r="O698" s="1"/>
     </row>
     <row r="699" spans="15:15">
       <c r="O699" s="1"/>
     </row>
-    <row r="700" spans="2:15">
-      <c r="B700" s="7"/>
-      <c r="M700" s="7"/>
+    <row r="700" spans="15:15">
       <c r="O700" s="1"/>
     </row>
-    <row r="702" spans="15:15">
+    <row r="701" spans="15:15">
+      <c r="O701" s="1"/>
+    </row>
+    <row r="702" spans="2:15">
+      <c r="B702" s="7"/>
+      <c r="M702" s="7"/>
       <c r="O702" s="1"/>
     </row>
-    <row r="703" spans="15:15">
-      <c r="O703" s="1"/>
-    </row>
-    <row r="704" spans="15:15">
-      <c r="O704" s="1"/>
-    </row>
-    <row r="705" spans="2:15">
-      <c r="B705" s="7"/>
-      <c r="M705" s="7"/>
-      <c r="O705" s="1"/>
-    </row>
-    <row r="709" spans="2:13">
-      <c r="B709" s="7"/>
-      <c r="M709" s="7"/>
-    </row>
-    <row r="714" spans="15:15">
-      <c r="O714" s="2"/>
-    </row>
-    <row r="718" spans="15:15">
-      <c r="O718" s="2"/>
-    </row>
-    <row r="719" spans="15:15">
-      <c r="O719" s="2"/>
-    </row>
-    <row r="720" spans="15:15">
-      <c r="O720" s="2"/>
-    </row>
-    <row r="724" spans="15:15">
-      <c r="O724" s="2"/>
-    </row>
-    <row r="725" spans="15:15">
-      <c r="O725" s="2"/>
-    </row>
-    <row r="726" spans="15:15">
-      <c r="O726" s="2"/>
-    </row>
-    <row r="730" spans="15:15">
-      <c r="O730" s="2"/>
+    <row r="706" spans="2:13">
+      <c r="B706" s="7"/>
+      <c r="M706" s="7"/>
+    </row>
+    <row r="711" spans="15:15">
+      <c r="O711" s="2"/>
+    </row>
+    <row r="715" spans="15:15">
+      <c r="O715" s="2"/>
+    </row>
+    <row r="716" spans="15:15">
+      <c r="O716" s="2"/>
+    </row>
+    <row r="717" spans="15:15">
+      <c r="O717" s="2"/>
+    </row>
+    <row r="721" spans="15:15">
+      <c r="O721" s="2"/>
+    </row>
+    <row r="722" spans="15:15">
+      <c r="O722" s="2"/>
+    </row>
+    <row r="723" spans="15:15">
+      <c r="O723" s="2"/>
+    </row>
+    <row r="727" spans="15:15">
+      <c r="O727" s="2"/>
+    </row>
+    <row r="728" spans="15:15">
+      <c r="O728" s="2"/>
+    </row>
+    <row r="729" spans="15:15">
+      <c r="O729" s="2"/>
     </row>
     <row r="731" spans="15:15">
       <c r="O731" s="2"/>
@@ -28342,6 +28229,9 @@
     <row r="732" spans="15:15">
       <c r="O732" s="2"/>
     </row>
+    <row r="733" spans="15:15">
+      <c r="O733" s="2"/>
+    </row>
     <row r="734" spans="15:15">
       <c r="O734" s="2"/>
     </row>
@@ -28355,16 +28245,16 @@
       <c r="O737" s="2"/>
     </row>
     <row r="738" spans="15:15">
-      <c r="O738" s="2"/>
-    </row>
-    <row r="739" spans="15:15">
-      <c r="O739" s="2"/>
+      <c r="O738" s="1"/>
     </row>
     <row r="740" spans="15:15">
       <c r="O740" s="2"/>
     </row>
     <row r="741" spans="15:15">
-      <c r="O741" s="1"/>
+      <c r="O741" s="2"/>
+    </row>
+    <row r="742" spans="15:15">
+      <c r="O742" s="2"/>
     </row>
     <row r="743" spans="15:15">
       <c r="O743" s="2"/>
@@ -28384,15 +28274,15 @@
     <row r="748" spans="15:15">
       <c r="O748" s="2"/>
     </row>
-    <row r="749" spans="15:15">
-      <c r="O749" s="2"/>
-    </row>
     <row r="750" spans="15:15">
       <c r="O750" s="2"/>
     </row>
     <row r="751" spans="15:15">
       <c r="O751" s="2"/>
     </row>
+    <row r="752" spans="15:15">
+      <c r="O752" s="2"/>
+    </row>
     <row r="753" spans="15:15">
       <c r="O753" s="2"/>
     </row>
@@ -28414,32 +28304,29 @@
     <row r="759" spans="15:15">
       <c r="O759" s="2"/>
     </row>
-    <row r="760" spans="15:15">
-      <c r="O760" s="2"/>
-    </row>
     <row r="761" spans="15:15">
       <c r="O761" s="2"/>
     </row>
     <row r="762" spans="15:15">
-      <c r="O762" s="2"/>
-    </row>
-    <row r="764" spans="15:15">
-      <c r="O764" s="2"/>
+      <c r="O762" s="1"/>
+    </row>
+    <row r="763" spans="15:15">
+      <c r="O763" s="1"/>
     </row>
     <row r="765" spans="15:15">
-      <c r="O765" s="1"/>
+      <c r="O765" s="20"/>
     </row>
     <row r="766" spans="15:15">
-      <c r="O766" s="1"/>
-    </row>
-    <row r="768" spans="15:15">
-      <c r="O768" s="20"/>
-    </row>
-    <row r="769" spans="15:15">
-      <c r="O769" s="20"/>
-    </row>
-    <row r="770" spans="15:15">
-      <c r="O770" s="20"/>
+      <c r="O766" s="20"/>
+    </row>
+    <row r="767" spans="15:15">
+      <c r="O767" s="20"/>
+    </row>
+    <row r="771" spans="15:15">
+      <c r="O771" s="2"/>
+    </row>
+    <row r="772" spans="15:15">
+      <c r="O772" s="2"/>
     </row>
     <row r="774" spans="15:15">
       <c r="O774" s="2"/>
@@ -28447,34 +28334,73 @@
     <row r="775" spans="15:15">
       <c r="O775" s="2"/>
     </row>
-    <row r="777" spans="15:15">
-      <c r="O777" s="2"/>
+    <row r="776" spans="15:15">
+      <c r="O776" s="2"/>
     </row>
     <row r="778" spans="15:15">
       <c r="O778" s="2"/>
     </row>
-    <row r="779" spans="15:15">
-      <c r="O779" s="2"/>
-    </row>
-    <row r="781" spans="15:15">
-      <c r="O781" s="2"/>
+    <row r="780" spans="15:15">
+      <c r="O780" s="2"/>
+    </row>
+    <row r="782" spans="15:15">
+      <c r="O782" s="2"/>
     </row>
     <row r="783" spans="15:15">
       <c r="O783" s="2"/>
     </row>
+    <row r="784" spans="15:15">
+      <c r="O784" s="2"/>
+    </row>
     <row r="785" spans="15:15">
       <c r="O785" s="2"/>
     </row>
     <row r="786" spans="15:15">
       <c r="O786" s="2"/>
     </row>
-    <row r="787" spans="15:15">
+    <row r="787" spans="2:15">
+      <c r="B787" s="22"/>
+      <c r="C787" s="22"/>
+      <c r="D787" s="22"/>
+      <c r="E787" s="22"/>
+      <c r="F787" s="22"/>
+      <c r="G787" s="22"/>
+      <c r="H787" s="22"/>
+      <c r="I787" s="22"/>
+      <c r="J787" s="22"/>
+      <c r="K787" s="22"/>
+      <c r="L787" s="22"/>
+      <c r="M787" s="22"/>
       <c r="O787" s="2"/>
     </row>
-    <row r="788" spans="15:15">
+    <row r="788" spans="2:15">
+      <c r="B788" s="22"/>
+      <c r="C788" s="22"/>
+      <c r="D788" s="22"/>
+      <c r="E788" s="22"/>
+      <c r="F788" s="22"/>
+      <c r="G788" s="22"/>
+      <c r="H788" s="22"/>
+      <c r="I788" s="22"/>
+      <c r="J788" s="22"/>
+      <c r="K788" s="22"/>
+      <c r="L788" s="22"/>
+      <c r="M788" s="22"/>
       <c r="O788" s="2"/>
     </row>
-    <row r="789" spans="15:15">
+    <row r="789" spans="2:15">
+      <c r="B789" s="22"/>
+      <c r="C789" s="22"/>
+      <c r="D789" s="22"/>
+      <c r="E789" s="22"/>
+      <c r="F789" s="22"/>
+      <c r="G789" s="22"/>
+      <c r="H789" s="22"/>
+      <c r="I789" s="22"/>
+      <c r="J789" s="22"/>
+      <c r="K789" s="22"/>
+      <c r="L789" s="22"/>
+      <c r="M789" s="22"/>
       <c r="O789" s="2"/>
     </row>
     <row r="790" spans="2:15">
@@ -28537,50 +28463,14 @@
       <c r="M793" s="22"/>
       <c r="O793" s="2"/>
     </row>
-    <row r="794" spans="2:15">
-      <c r="B794" s="22"/>
-      <c r="C794" s="22"/>
-      <c r="D794" s="22"/>
-      <c r="E794" s="22"/>
-      <c r="F794" s="22"/>
-      <c r="G794" s="22"/>
-      <c r="H794" s="22"/>
-      <c r="I794" s="22"/>
-      <c r="J794" s="22"/>
-      <c r="K794" s="22"/>
-      <c r="L794" s="22"/>
-      <c r="M794" s="22"/>
-      <c r="O794" s="2"/>
-    </row>
-    <row r="795" spans="2:15">
-      <c r="B795" s="22"/>
-      <c r="C795" s="22"/>
-      <c r="D795" s="22"/>
-      <c r="E795" s="22"/>
-      <c r="F795" s="22"/>
-      <c r="G795" s="22"/>
-      <c r="H795" s="22"/>
-      <c r="I795" s="22"/>
-      <c r="J795" s="22"/>
-      <c r="K795" s="22"/>
-      <c r="L795" s="22"/>
-      <c r="M795" s="22"/>
+    <row r="795" spans="15:15">
       <c r="O795" s="2"/>
     </row>
-    <row r="796" spans="2:15">
-      <c r="B796" s="22"/>
-      <c r="C796" s="22"/>
-      <c r="D796" s="22"/>
-      <c r="E796" s="22"/>
-      <c r="F796" s="22"/>
-      <c r="G796" s="22"/>
-      <c r="H796" s="22"/>
-      <c r="I796" s="22"/>
-      <c r="J796" s="22"/>
-      <c r="K796" s="22"/>
-      <c r="L796" s="22"/>
-      <c r="M796" s="22"/>
+    <row r="796" spans="15:15">
       <c r="O796" s="2"/>
+    </row>
+    <row r="797" spans="15:15">
+      <c r="O797" s="2"/>
     </row>
     <row r="798" spans="15:15">
       <c r="O798" s="2"/>
@@ -28607,20 +28497,20 @@
       <c r="O805" s="2"/>
     </row>
     <row r="806" spans="15:15">
-      <c r="O806" s="2"/>
+      <c r="O806" s="1"/>
     </row>
     <row r="807" spans="15:15">
       <c r="O807" s="2"/>
     </row>
-    <row r="808" spans="15:15">
-      <c r="O808" s="2"/>
-    </row>
     <row r="809" spans="15:15">
-      <c r="O809" s="1"/>
+      <c r="O809" s="2"/>
     </row>
     <row r="810" spans="15:15">
       <c r="O810" s="2"/>
     </row>
+    <row r="811" spans="15:15">
+      <c r="O811" s="2"/>
+    </row>
     <row r="812" spans="15:15">
       <c r="O812" s="2"/>
     </row>
@@ -28643,16 +28533,16 @@
       <c r="O818" s="2"/>
     </row>
     <row r="819" spans="15:15">
-      <c r="O819" s="2"/>
-    </row>
-    <row r="820" spans="15:15">
-      <c r="O820" s="2"/>
+      <c r="O819" s="1"/>
     </row>
     <row r="821" spans="15:15">
       <c r="O821" s="2"/>
     </row>
     <row r="822" spans="15:15">
-      <c r="O822" s="1"/>
+      <c r="O822" s="2"/>
+    </row>
+    <row r="823" spans="15:15">
+      <c r="O823" s="2"/>
     </row>
     <row r="824" spans="15:15">
       <c r="O824" s="2"/>
@@ -28660,14 +28550,14 @@
     <row r="825" spans="15:15">
       <c r="O825" s="2"/>
     </row>
-    <row r="826" spans="15:15">
-      <c r="O826" s="2"/>
-    </row>
-    <row r="827" spans="15:15">
-      <c r="O827" s="2"/>
-    </row>
-    <row r="828" spans="15:15">
-      <c r="O828" s="2"/>
+    <row r="829" spans="15:15">
+      <c r="O829" s="2"/>
+    </row>
+    <row r="830" spans="15:15">
+      <c r="O830" s="2"/>
+    </row>
+    <row r="831" spans="15:15">
+      <c r="O831" s="2"/>
     </row>
     <row r="832" spans="15:15">
       <c r="O832" s="2"/>
@@ -28675,13 +28565,49 @@
     <row r="833" spans="15:15">
       <c r="O833" s="2"/>
     </row>
-    <row r="834" spans="15:15">
+    <row r="834" spans="2:15">
+      <c r="B834" s="23"/>
+      <c r="C834" s="24"/>
+      <c r="D834" s="24"/>
+      <c r="E834" s="24"/>
+      <c r="F834" s="24"/>
+      <c r="G834" s="24"/>
+      <c r="H834" s="24"/>
+      <c r="I834" s="24"/>
+      <c r="J834" s="24"/>
+      <c r="K834" s="24"/>
+      <c r="L834" s="24"/>
+      <c r="M834" s="23"/>
       <c r="O834" s="2"/>
     </row>
-    <row r="835" spans="15:15">
+    <row r="835" spans="2:15">
+      <c r="B835" s="23"/>
+      <c r="C835" s="24"/>
+      <c r="D835" s="24"/>
+      <c r="E835" s="24"/>
+      <c r="F835" s="24"/>
+      <c r="G835" s="24"/>
+      <c r="H835" s="24"/>
+      <c r="I835" s="24"/>
+      <c r="J835" s="24"/>
+      <c r="K835" s="24"/>
+      <c r="L835" s="24"/>
+      <c r="M835" s="23"/>
       <c r="O835" s="2"/>
     </row>
-    <row r="836" spans="15:15">
+    <row r="836" spans="2:15">
+      <c r="B836" s="23"/>
+      <c r="C836" s="24"/>
+      <c r="D836" s="24"/>
+      <c r="E836" s="24"/>
+      <c r="F836" s="24"/>
+      <c r="G836" s="24"/>
+      <c r="H836" s="24"/>
+      <c r="I836" s="24"/>
+      <c r="J836" s="24"/>
+      <c r="K836" s="24"/>
+      <c r="L836" s="24"/>
+      <c r="M836" s="23"/>
       <c r="O836" s="2"/>
     </row>
     <row r="837" spans="2:15">
@@ -28716,64 +28642,34 @@
     </row>
     <row r="839" spans="2:15">
       <c r="B839" s="23"/>
-      <c r="C839" s="24"/>
-      <c r="D839" s="24"/>
-      <c r="E839" s="24"/>
-      <c r="F839" s="24"/>
-      <c r="G839" s="24"/>
-      <c r="H839" s="24"/>
-      <c r="I839" s="24"/>
-      <c r="J839" s="24"/>
-      <c r="K839" s="24"/>
-      <c r="L839" s="24"/>
       <c r="M839" s="23"/>
       <c r="O839" s="2"/>
     </row>
-    <row r="840" spans="2:15">
-      <c r="B840" s="23"/>
-      <c r="C840" s="24"/>
-      <c r="D840" s="24"/>
-      <c r="E840" s="24"/>
-      <c r="F840" s="24"/>
-      <c r="G840" s="24"/>
-      <c r="H840" s="24"/>
-      <c r="I840" s="24"/>
-      <c r="J840" s="24"/>
-      <c r="K840" s="24"/>
-      <c r="L840" s="24"/>
-      <c r="M840" s="23"/>
-      <c r="O840" s="2"/>
-    </row>
-    <row r="841" spans="2:15">
-      <c r="B841" s="23"/>
-      <c r="C841" s="24"/>
-      <c r="D841" s="24"/>
-      <c r="E841" s="24"/>
-      <c r="F841" s="24"/>
-      <c r="G841" s="24"/>
-      <c r="H841" s="24"/>
-      <c r="I841" s="24"/>
-      <c r="J841" s="24"/>
-      <c r="K841" s="24"/>
-      <c r="L841" s="24"/>
-      <c r="M841" s="23"/>
+    <row r="840" spans="15:15">
+      <c r="O840" s="1"/>
+    </row>
+    <row r="841" spans="15:15">
       <c r="O841" s="2"/>
     </row>
-    <row r="842" spans="2:15">
-      <c r="B842" s="23"/>
-      <c r="M842" s="23"/>
-      <c r="O842" s="2"/>
-    </row>
-    <row r="843" spans="15:15">
-      <c r="O843" s="1"/>
-    </row>
-    <row r="844" spans="15:15">
-      <c r="O844" s="2"/>
+    <row r="843" spans="2:15">
+      <c r="B843" s="23"/>
+      <c r="M843" s="23"/>
+      <c r="O843" s="2"/>
+    </row>
+    <row r="845" spans="2:15">
+      <c r="B845" s="7"/>
+      <c r="M845" s="7"/>
+      <c r="O845" s="2"/>
     </row>
     <row r="846" spans="2:15">
-      <c r="B846" s="23"/>
-      <c r="M846" s="23"/>
+      <c r="B846" s="7"/>
+      <c r="M846" s="7"/>
       <c r="O846" s="2"/>
+    </row>
+    <row r="847" spans="2:15">
+      <c r="B847" s="7"/>
+      <c r="M847" s="7"/>
+      <c r="O847" s="2"/>
     </row>
     <row r="848" spans="2:15">
       <c r="B848" s="7"/>
@@ -28785,27 +28681,18 @@
       <c r="M849" s="7"/>
       <c r="O849" s="2"/>
     </row>
-    <row r="850" spans="2:15">
-      <c r="B850" s="7"/>
-      <c r="M850" s="7"/>
-      <c r="O850" s="2"/>
-    </row>
-    <row r="851" spans="2:15">
-      <c r="B851" s="7"/>
-      <c r="M851" s="7"/>
-      <c r="O851" s="2"/>
-    </row>
-    <row r="852" spans="2:15">
-      <c r="B852" s="7"/>
-      <c r="M852" s="7"/>
+    <row r="852" spans="15:15">
       <c r="O852" s="2"/>
+    </row>
+    <row r="853" spans="15:15">
+      <c r="O853" s="2"/>
+    </row>
+    <row r="854" spans="15:15">
+      <c r="O854" s="2"/>
     </row>
     <row r="855" spans="15:15">
       <c r="O855" s="2"/>
     </row>
-    <row r="856" spans="15:15">
-      <c r="O856" s="2"/>
-    </row>
     <row r="857" spans="15:15">
       <c r="O857" s="2"/>
     </row>
@@ -28815,12 +28702,15 @@
     <row r="860" spans="15:15">
       <c r="O860" s="2"/>
     </row>
-    <row r="861" spans="15:15">
-      <c r="O861" s="2"/>
+    <row r="862" spans="15:15">
+      <c r="O862" s="2"/>
     </row>
     <row r="863" spans="15:15">
       <c r="O863" s="2"/>
     </row>
+    <row r="864" spans="15:15">
+      <c r="O864" s="2"/>
+    </row>
     <row r="865" spans="15:15">
       <c r="O865" s="2"/>
     </row>
@@ -28842,35 +28732,40 @@
     <row r="871" spans="15:15">
       <c r="O871" s="2"/>
     </row>
-    <row r="872" spans="15:15">
+    <row r="872" spans="2:15">
+      <c r="B872" s="25"/>
       <c r="O872" s="2"/>
     </row>
-    <row r="873" spans="15:15">
-      <c r="O873" s="2"/>
-    </row>
-    <row r="874" spans="15:15">
-      <c r="O874" s="2"/>
+    <row r="874" spans="2:15">
+      <c r="B874" s="7"/>
+      <c r="M874" s="7"/>
+      <c r="O874" s="1"/>
     </row>
     <row r="875" spans="2:15">
-      <c r="B875" s="25"/>
-      <c r="O875" s="2"/>
-    </row>
-    <row r="877" spans="2:15">
-      <c r="B877" s="7"/>
-      <c r="M877" s="7"/>
-      <c r="O877" s="1"/>
+      <c r="B875" s="7"/>
+      <c r="M875" s="7"/>
+      <c r="O875" s="1"/>
+    </row>
+    <row r="876" spans="15:15">
+      <c r="O876" s="2"/>
     </row>
     <row r="878" spans="2:15">
       <c r="B878" s="7"/>
       <c r="M878" s="7"/>
       <c r="O878" s="1"/>
     </row>
-    <row r="879" spans="15:15">
-      <c r="O879" s="2"/>
+    <row r="879" spans="2:15">
+      <c r="B879" s="7"/>
+      <c r="M879" s="7"/>
+      <c r="O879" s="1"/>
+    </row>
+    <row r="880" spans="2:15">
+      <c r="B880" s="7"/>
+      <c r="M880" s="7"/>
+      <c r="O880" s="1"/>
     </row>
     <row r="881" spans="2:15">
       <c r="B881" s="7"/>
-      <c r="M881" s="7"/>
       <c r="O881" s="1"/>
     </row>
     <row r="882" spans="2:15">
@@ -28885,6 +28780,7 @@
     </row>
     <row r="884" spans="2:15">
       <c r="B884" s="7"/>
+      <c r="M884" s="7"/>
       <c r="O884" s="1"/>
     </row>
     <row r="885" spans="2:15">
@@ -28892,20 +28788,56 @@
       <c r="M885" s="7"/>
       <c r="O885" s="1"/>
     </row>
-    <row r="886" spans="2:15">
-      <c r="B886" s="7"/>
-      <c r="M886" s="7"/>
-      <c r="O886" s="1"/>
-    </row>
-    <row r="887" spans="2:15">
-      <c r="B887" s="7"/>
-      <c r="M887" s="7"/>
-      <c r="O887" s="1"/>
-    </row>
-    <row r="888" spans="2:15">
-      <c r="B888" s="7"/>
-      <c r="M888" s="7"/>
-      <c r="O888" s="1"/>
+    <row r="888" spans="1:15">
+      <c r="A888" s="5"/>
+      <c r="B888" s="5"/>
+      <c r="C888" s="5"/>
+      <c r="D888" s="5"/>
+      <c r="E888" s="5"/>
+      <c r="F888" s="5"/>
+      <c r="G888" s="5"/>
+      <c r="H888" s="5"/>
+      <c r="I888" s="5"/>
+      <c r="J888" s="5"/>
+      <c r="K888" s="5"/>
+      <c r="L888" s="5"/>
+      <c r="M888" s="5"/>
+      <c r="N888" s="5"/>
+      <c r="O888" s="5"/>
+    </row>
+    <row r="889" spans="1:15">
+      <c r="A889" s="5"/>
+      <c r="B889" s="5"/>
+      <c r="C889" s="5"/>
+      <c r="D889" s="5"/>
+      <c r="E889" s="5"/>
+      <c r="F889" s="5"/>
+      <c r="G889" s="5"/>
+      <c r="H889" s="5"/>
+      <c r="I889" s="5"/>
+      <c r="J889" s="5"/>
+      <c r="K889" s="5"/>
+      <c r="L889" s="5"/>
+      <c r="M889" s="5"/>
+      <c r="N889" s="5"/>
+      <c r="O889" s="5"/>
+    </row>
+    <row r="890" spans="1:15">
+      <c r="A890" s="5"/>
+      <c r="B890" s="5"/>
+      <c r="C890" s="5"/>
+      <c r="D890" s="5"/>
+      <c r="E890" s="5"/>
+      <c r="F890" s="5"/>
+      <c r="G890" s="5"/>
+      <c r="H890" s="5"/>
+      <c r="I890" s="5"/>
+      <c r="J890" s="5"/>
+      <c r="K890" s="5"/>
+      <c r="L890" s="5"/>
+      <c r="M890" s="5"/>
+      <c r="N890" s="5"/>
+      <c r="O890" s="5"/>
     </row>
     <row r="891" spans="1:15">
       <c r="A891" s="5"/>
@@ -28954,7 +28886,7 @@
       <c r="J893" s="5"/>
       <c r="K893" s="5"/>
       <c r="L893" s="5"/>
-      <c r="M893" s="5"/>
+      <c r="M893" s="11"/>
       <c r="N893" s="5"/>
       <c r="O893" s="5"/>
     </row>
@@ -28971,7 +28903,7 @@
       <c r="J894" s="5"/>
       <c r="K894" s="5"/>
       <c r="L894" s="5"/>
-      <c r="M894" s="5"/>
+      <c r="M894" s="11"/>
       <c r="N894" s="5"/>
       <c r="O894" s="5"/>
     </row>
@@ -28988,60 +28920,9 @@
       <c r="J895" s="5"/>
       <c r="K895" s="5"/>
       <c r="L895" s="5"/>
-      <c r="M895" s="5"/>
+      <c r="M895" s="11"/>
       <c r="N895" s="5"/>
       <c r="O895" s="5"/>
-    </row>
-    <row r="896" spans="1:15">
-      <c r="A896" s="5"/>
-      <c r="B896" s="5"/>
-      <c r="C896" s="5"/>
-      <c r="D896" s="5"/>
-      <c r="E896" s="5"/>
-      <c r="F896" s="5"/>
-      <c r="G896" s="5"/>
-      <c r="H896" s="5"/>
-      <c r="I896" s="5"/>
-      <c r="J896" s="5"/>
-      <c r="K896" s="5"/>
-      <c r="L896" s="5"/>
-      <c r="M896" s="11"/>
-      <c r="N896" s="5"/>
-      <c r="O896" s="5"/>
-    </row>
-    <row r="897" spans="1:15">
-      <c r="A897" s="5"/>
-      <c r="B897" s="5"/>
-      <c r="C897" s="5"/>
-      <c r="D897" s="5"/>
-      <c r="E897" s="5"/>
-      <c r="F897" s="5"/>
-      <c r="G897" s="5"/>
-      <c r="H897" s="5"/>
-      <c r="I897" s="5"/>
-      <c r="J897" s="5"/>
-      <c r="K897" s="5"/>
-      <c r="L897" s="5"/>
-      <c r="M897" s="11"/>
-      <c r="N897" s="5"/>
-      <c r="O897" s="5"/>
-    </row>
-    <row r="898" spans="1:15">
-      <c r="A898" s="5"/>
-      <c r="B898" s="5"/>
-      <c r="C898" s="5"/>
-      <c r="D898" s="5"/>
-      <c r="E898" s="5"/>
-      <c r="F898" s="5"/>
-      <c r="G898" s="5"/>
-      <c r="H898" s="5"/>
-      <c r="I898" s="5"/>
-      <c r="J898" s="5"/>
-      <c r="K898" s="5"/>
-      <c r="L898" s="5"/>
-      <c r="M898" s="11"/>
-      <c r="N898" s="5"/>
-      <c r="O898" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29118,10 +28999,10 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="5" t="s">
-        <v>1779</v>
+        <v>1770</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>1780</v>
+        <v>1771</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -29134,19 +29015,19 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="11" t="s">
-        <v>1781</v>
+        <v>1772</v>
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="6" t="s">
-        <v>1782</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="5" t="s">
-        <v>1783</v>
+        <v>1774</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1784</v>
+        <v>1775</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -29159,19 +29040,19 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5" t="s">
-        <v>1785</v>
+        <v>1776</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="6" t="s">
-        <v>1786</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="5" t="s">
-        <v>1787</v>
+        <v>1778</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1788</v>
+        <v>1779</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -29184,11 +29065,11 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5" t="s">
-        <v>1789</v>
+        <v>1780</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="6" t="s">
-        <v>1790</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="6" spans="15:15">
@@ -29196,10 +29077,10 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="5" t="s">
-        <v>1791</v>
+        <v>1782</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1792</v>
+        <v>1783</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -29212,11 +29093,11 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5" t="s">
-        <v>1793</v>
+        <v>1784</v>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="6" t="s">
-        <v>1794</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="8" spans="15:15">
@@ -29224,10 +29105,10 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="5" t="s">
-        <v>1795</v>
+        <v>1786</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1796</v>
+        <v>1787</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -29240,11 +29121,11 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5" t="s">
-        <v>1797</v>
+        <v>1788</v>
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="6" t="s">
-        <v>1798</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="10" spans="15:15">
@@ -29252,10 +29133,10 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="5" t="s">
-        <v>1799</v>
+        <v>1790</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1800</v>
+        <v>1791</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -29268,11 +29149,11 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5" t="s">
-        <v>1789</v>
+        <v>1780</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="6" t="s">
-        <v>1801</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="12" spans="15:15">
@@ -29280,10 +29161,10 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="5" t="s">
-        <v>1802</v>
+        <v>1793</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1803</v>
+        <v>1794</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -29296,19 +29177,19 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5" t="s">
-        <v>1804</v>
+        <v>1795</v>
       </c>
       <c r="N13" s="5"/>
       <c r="O13" s="6" t="s">
-        <v>1805</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="5" t="s">
-        <v>1806</v>
+        <v>1797</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1807</v>
+        <v>1798</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -29321,19 +29202,19 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5" t="s">
-        <v>1808</v>
+        <v>1799</v>
       </c>
       <c r="N14" s="5"/>
       <c r="O14" s="6" t="s">
-        <v>1809</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="5" t="s">
-        <v>1810</v>
+        <v>1801</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1811</v>
+        <v>1802</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -29346,16 +29227,16 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5" t="s">
-        <v>1812</v>
+        <v>1803</v>
       </c>
       <c r="N15" s="5"/>
       <c r="O15" s="6" t="s">
-        <v>1813</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="5" t="s">
-        <v>1814</v>
+        <v>1805</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>436</v>
@@ -29371,19 +29252,19 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5" t="s">
-        <v>1815</v>
+        <v>1806</v>
       </c>
       <c r="N16" s="5"/>
       <c r="O16" s="6" t="s">
-        <v>1816</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="5" t="s">
-        <v>1817</v>
+        <v>1808</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1818</v>
+        <v>1809</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -29396,19 +29277,19 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5" t="s">
-        <v>1819</v>
+        <v>1810</v>
       </c>
       <c r="N17" s="5"/>
       <c r="O17" s="6" t="s">
-        <v>1820</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="5" t="s">
-        <v>1821</v>
+        <v>1812</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1822</v>
+        <v>1813</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -29421,19 +29302,19 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5" t="s">
-        <v>1815</v>
+        <v>1806</v>
       </c>
       <c r="N18" s="5"/>
       <c r="O18" s="6" t="s">
-        <v>1816</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="5" t="s">
-        <v>1823</v>
+        <v>1814</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1824</v>
+        <v>1815</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -29446,11 +29327,11 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5" t="s">
-        <v>1819</v>
+        <v>1810</v>
       </c>
       <c r="N19" s="5"/>
       <c r="O19" s="6" t="s">
-        <v>1820</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="20" spans="15:15">
@@ -29458,10 +29339,10 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="5" t="s">
-        <v>1825</v>
+        <v>1816</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1826</v>
+        <v>1817</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -29474,25 +29355,25 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5" t="s">
-        <v>1827</v>
+        <v>1818</v>
       </c>
       <c r="N21" s="5"/>
       <c r="O21" s="6" t="s">
-        <v>1828</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="23" s="5" customFormat="1" spans="1:15">
       <c r="A23" s="5" t="s">
-        <v>1829</v>
+        <v>1820</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1830</v>
+        <v>1821</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>1831</v>
+        <v>1822</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>1832</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="24" spans="15:15">
@@ -29500,16 +29381,16 @@
     </row>
     <row r="25" s="5" customFormat="1" spans="1:15">
       <c r="A25" s="5" t="s">
-        <v>1833</v>
+        <v>1824</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1834</v>
+        <v>1825</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>1835</v>
+        <v>1826</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>1801</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="26" spans="15:15">
@@ -29517,27 +29398,27 @@
     </row>
     <row r="27" s="5" customFormat="1" spans="1:15">
       <c r="A27" s="5" t="s">
-        <v>1836</v>
+        <v>1827</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1837</v>
+        <v>1828</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>1838</v>
+        <v>1829</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>1839</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="29" s="5" customFormat="1" spans="1:13">
       <c r="A29" s="5" t="s">
-        <v>1840</v>
+        <v>1831</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1841</v>
+        <v>1832</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>1842</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="30" spans="15:15">
@@ -29545,72 +29426,72 @@
     </row>
     <row r="31" s="5" customFormat="1" spans="1:15">
       <c r="A31" s="5" t="s">
-        <v>1843</v>
+        <v>1834</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>21</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>1844</v>
+        <v>1835</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>1845</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="33" s="5" customFormat="1" spans="1:15">
       <c r="A33" s="5" t="s">
-        <v>1846</v>
+        <v>1837</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>1847</v>
+        <v>1838</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>1848</v>
+        <v>1839</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>1849</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="34" s="5" customFormat="1" spans="1:15">
       <c r="A34" s="5" t="s">
-        <v>1850</v>
+        <v>1841</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>1851</v>
+        <v>1842</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>1852</v>
+        <v>1843</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>1853</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="35" s="5" customFormat="1" spans="1:15">
       <c r="A35" s="5" t="s">
-        <v>1854</v>
+        <v>1845</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>1855</v>
+        <v>1846</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>1856</v>
+        <v>1847</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>1857</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="36" s="5" customFormat="1" spans="1:15">
       <c r="A36" s="5" t="s">
-        <v>1858</v>
+        <v>1849</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>1859</v>
+        <v>1850</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>1860</v>
+        <v>1851</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>1861</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="37" spans="15:15">
@@ -29618,38 +29499,38 @@
     </row>
     <row r="38" s="5" customFormat="1" spans="1:15">
       <c r="A38" s="5" t="s">
-        <v>1862</v>
+        <v>1853</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>1863</v>
+        <v>1854</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>1864</v>
+        <v>1855</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>1865</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="39" s="5" customFormat="1" spans="1:15">
       <c r="A39" s="5" t="s">
-        <v>1866</v>
+        <v>1857</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>1867</v>
+        <v>1858</v>
       </c>
       <c r="M39" s="5" t="s">
         <v>182</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>1868</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="40" s="5" customFormat="1" spans="1:15">
       <c r="A40" s="5" t="s">
-        <v>1869</v>
+        <v>1860</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>1870</v>
+        <v>1861</v>
       </c>
       <c r="M40" s="5" t="s">
         <v>182</v>
@@ -29660,21 +29541,21 @@
     </row>
     <row r="41" s="5" customFormat="1" spans="1:15">
       <c r="A41" s="5" t="s">
-        <v>1871</v>
+        <v>1862</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>21</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>1872</v>
+        <v>1863</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>1873</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="43" s="5" customFormat="1" spans="1:15">
       <c r="A43" s="5" t="s">
-        <v>1874</v>
+        <v>1865</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>160</v>
@@ -29683,7 +29564,7 @@
         <v>161</v>
       </c>
       <c r="O43" s="20" t="s">
-        <v>1875</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="44" spans="15:15">
@@ -29691,7 +29572,7 @@
     </row>
     <row r="45" s="5" customFormat="1" spans="1:15">
       <c r="A45" s="5" t="s">
-        <v>1876</v>
+        <v>1867</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>148</v>
@@ -29705,16 +29586,16 @@
     </row>
     <row r="46" s="5" customFormat="1" spans="1:15">
       <c r="A46" s="5" t="s">
-        <v>1877</v>
+        <v>1868</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>1878</v>
+        <v>1869</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>1879</v>
+        <v>1870</v>
       </c>
       <c r="O46" s="20" t="s">
-        <v>1880</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="47" spans="15:15">
@@ -29722,7 +29603,7 @@
     </row>
     <row r="48" s="5" customFormat="1" spans="1:15">
       <c r="A48" s="5" t="s">
-        <v>1881</v>
+        <v>1872</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>572</v>
@@ -29736,21 +29617,21 @@
     </row>
     <row r="49" s="5" customFormat="1" spans="1:15">
       <c r="A49" s="5" t="s">
-        <v>1882</v>
+        <v>1873</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>1883</v>
+        <v>1874</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>1884</v>
+        <v>1875</v>
       </c>
       <c r="O49" s="20" t="s">
-        <v>1885</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="50" s="5" customFormat="1" spans="1:15">
       <c r="A50" s="5" t="s">
-        <v>1886</v>
+        <v>1877</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>568</v>
@@ -29764,58 +29645,58 @@
     </row>
     <row r="51" s="5" customFormat="1" spans="1:15">
       <c r="A51" s="5" t="s">
-        <v>1887</v>
+        <v>1878</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>1889</v>
+        <v>1880</v>
       </c>
       <c r="O51" s="20" t="s">
-        <v>1890</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="52" s="5" customFormat="1" spans="1:15">
       <c r="A52" s="5" t="s">
-        <v>1891</v>
+        <v>1882</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>1892</v>
+        <v>1883</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>1893</v>
+        <v>1884</v>
       </c>
       <c r="O52" s="20" t="s">
-        <v>1894</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="53" s="5" customFormat="1" spans="1:15">
       <c r="A53" s="5" t="s">
-        <v>1895</v>
+        <v>1886</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>1896</v>
+        <v>1887</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>1897</v>
+        <v>1888</v>
       </c>
       <c r="O53" s="20" t="s">
-        <v>1898</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="54" s="5" customFormat="1" spans="1:15">
       <c r="A54" s="5" t="s">
-        <v>1899</v>
+        <v>1890</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>1900</v>
+        <v>1891</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>1901</v>
+        <v>1892</v>
       </c>
       <c r="O54" s="20" t="s">
-        <v>1902</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="55" spans="15:15">
@@ -32480,10 +32361,10 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="5" t="s">
-        <v>1903</v>
+        <v>1894</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1904</v>
+        <v>1895</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -32496,34 +32377,34 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5" t="s">
-        <v>1905</v>
+        <v>1896</v>
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="6" t="s">
-        <v>1906</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="5" t="s">
-        <v>1907</v>
+        <v>1898</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1908</v>
+        <v>1899</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>1909</v>
+        <v>1900</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="6" t="s">
-        <v>1910</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="5" t="s">
-        <v>1911</v>
+        <v>1902</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1912</v>
+        <v>1903</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -32536,19 +32417,19 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5" t="s">
-        <v>1913</v>
+        <v>1904</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="6" t="s">
-        <v>1914</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="5" t="s">
-        <v>1915</v>
+        <v>1906</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1916</v>
+        <v>1907</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -32561,19 +32442,19 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5" t="s">
-        <v>1917</v>
+        <v>1908</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="6" t="s">
-        <v>1918</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="5" t="s">
-        <v>1919</v>
+        <v>1910</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1920</v>
+        <v>1911</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -32586,19 +32467,19 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5" t="s">
-        <v>1921</v>
+        <v>1912</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="6" t="s">
-        <v>1922</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="5" t="s">
-        <v>1923</v>
+        <v>1914</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1924</v>
+        <v>1915</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -32611,19 +32492,19 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5" t="s">
-        <v>1925</v>
+        <v>1916</v>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="6" t="s">
-        <v>1926</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="5" t="s">
-        <v>1927</v>
+        <v>1918</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1928</v>
+        <v>1919</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -32636,19 +32517,19 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5" t="s">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="6" t="s">
-        <v>1930</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="14" t="s">
-        <v>1931</v>
+        <v>1922</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>1932</v>
+        <v>1923</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -32661,19 +32542,19 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4" t="s">
-        <v>1933</v>
+        <v>1924</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4" t="s">
-        <v>1934</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="5" t="s">
-        <v>1935</v>
+        <v>1926</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1936</v>
+        <v>1927</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -32686,19 +32567,19 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5" t="s">
-        <v>1937</v>
+        <v>1928</v>
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="6" t="s">
-        <v>1938</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="5" t="s">
-        <v>1939</v>
+        <v>1930</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1940</v>
+        <v>1931</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -32711,19 +32592,19 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5" t="s">
-        <v>1941</v>
+        <v>1932</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="6" t="s">
-        <v>1942</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="5" t="s">
-        <v>1943</v>
+        <v>1934</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1944</v>
+        <v>1935</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -32736,19 +32617,19 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5" t="s">
-        <v>1945</v>
+        <v>1936</v>
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="6" t="s">
-        <v>1946</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="5" t="s">
-        <v>1947</v>
+        <v>1938</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1948</v>
+        <v>1939</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -32761,19 +32642,19 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5" t="s">
-        <v>1949</v>
+        <v>1940</v>
       </c>
       <c r="N13" s="5"/>
       <c r="O13" s="6" t="s">
-        <v>1950</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="5" t="s">
-        <v>1951</v>
+        <v>1942</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1952</v>
+        <v>1943</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -32786,19 +32667,19 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5" t="s">
-        <v>1953</v>
+        <v>1944</v>
       </c>
       <c r="N14" s="5"/>
       <c r="O14" s="6" t="s">
-        <v>1954</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="5" t="s">
-        <v>1955</v>
+        <v>1946</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1956</v>
+        <v>1947</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -32811,19 +32692,19 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5" t="s">
-        <v>1957</v>
+        <v>1948</v>
       </c>
       <c r="N15" s="5"/>
       <c r="O15" s="6" t="s">
-        <v>1958</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="5" t="s">
-        <v>1959</v>
+        <v>1950</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1956</v>
+        <v>1947</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -32836,19 +32717,19 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5" t="s">
-        <v>1957</v>
+        <v>1948</v>
       </c>
       <c r="N16" s="5"/>
       <c r="O16" s="6" t="s">
-        <v>1958</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="5" t="s">
-        <v>1960</v>
+        <v>1951</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1961</v>
+        <v>1952</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -32861,19 +32742,19 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5" t="s">
-        <v>1962</v>
+        <v>1953</v>
       </c>
       <c r="N17" s="5"/>
       <c r="O17" s="6" t="s">
-        <v>1963</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="5" t="s">
-        <v>1964</v>
+        <v>1955</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1965</v>
+        <v>1956</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -32886,19 +32767,19 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5" t="s">
-        <v>1966</v>
+        <v>1957</v>
       </c>
       <c r="N18" s="5"/>
       <c r="O18" s="6" t="s">
-        <v>1967</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="5" t="s">
-        <v>1968</v>
+        <v>1959</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1965</v>
+        <v>1956</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -32911,19 +32792,19 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5" t="s">
-        <v>1966</v>
+        <v>1957</v>
       </c>
       <c r="N19" s="5"/>
       <c r="O19" s="6" t="s">
-        <v>1967</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="5" t="s">
-        <v>1969</v>
+        <v>1960</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1970</v>
+        <v>1961</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -32936,19 +32817,19 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5" t="s">
-        <v>1971</v>
+        <v>1962</v>
       </c>
       <c r="N20" s="5"/>
       <c r="O20" s="6" t="s">
-        <v>1972</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="5" t="s">
-        <v>1973</v>
+        <v>1964</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1974</v>
+        <v>1965</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -32961,16 +32842,16 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5" t="s">
-        <v>1975</v>
+        <v>1966</v>
       </c>
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="5" t="s">
-        <v>1976</v>
+        <v>1967</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1977</v>
+        <v>1968</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -32983,19 +32864,19 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5" t="s">
-        <v>1978</v>
+        <v>1969</v>
       </c>
       <c r="N22" s="5"/>
       <c r="O22" s="6" t="s">
-        <v>1979</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="5" t="s">
-        <v>1980</v>
+        <v>1971</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1981</v>
+        <v>1972</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -33008,7 +32889,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5" t="s">
-        <v>1982</v>
+        <v>1973</v>
       </c>
       <c r="N23" s="5"/>
       <c r="O23" s="6" t="s">
@@ -33017,10 +32898,10 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="5" t="s">
-        <v>1983</v>
+        <v>1974</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1984</v>
+        <v>1975</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -33033,19 +32914,19 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5" t="s">
-        <v>1985</v>
+        <v>1976</v>
       </c>
       <c r="N24" s="5"/>
       <c r="O24" s="6" t="s">
-        <v>1986</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="5" t="s">
-        <v>1987</v>
+        <v>1978</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1988</v>
+        <v>1979</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -33058,19 +32939,19 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5" t="s">
-        <v>1989</v>
+        <v>1980</v>
       </c>
       <c r="N25" s="5"/>
       <c r="O25" s="6" t="s">
-        <v>1990</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="5" t="s">
-        <v>1991</v>
+        <v>1982</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1988</v>
+        <v>1979</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -33083,19 +32964,19 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5" t="s">
-        <v>1992</v>
+        <v>1983</v>
       </c>
       <c r="N26" s="5"/>
       <c r="O26" s="6" t="s">
-        <v>1990</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="5" t="s">
-        <v>1993</v>
+        <v>1984</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1994</v>
+        <v>1985</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -33108,19 +32989,19 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="N27" s="5"/>
       <c r="O27" s="6" t="s">
-        <v>1996</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="5" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1998</v>
+        <v>1989</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -33133,19 +33014,19 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5" t="s">
-        <v>1999</v>
+        <v>1990</v>
       </c>
       <c r="N28" s="5"/>
       <c r="O28" s="6" t="s">
-        <v>2000</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="5" t="s">
-        <v>2001</v>
+        <v>1992</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>2002</v>
+        <v>1993</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -33158,19 +33039,19 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5" t="s">
-        <v>2003</v>
+        <v>1994</v>
       </c>
       <c r="N29" s="5"/>
       <c r="O29" s="6" t="s">
-        <v>2004</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="5" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>2006</v>
+        <v>1997</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -33183,19 +33064,19 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5" t="s">
-        <v>2007</v>
+        <v>1998</v>
       </c>
       <c r="N30" s="5"/>
       <c r="O30" s="6" t="s">
-        <v>2008</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="5" t="s">
-        <v>2009</v>
+        <v>2000</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>2010</v>
+        <v>2001</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -33208,19 +33089,19 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5" t="s">
-        <v>2011</v>
+        <v>2002</v>
       </c>
       <c r="N31" s="5"/>
       <c r="O31" s="6" t="s">
-        <v>2012</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="5" t="s">
-        <v>2013</v>
+        <v>2004</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>2014</v>
+        <v>2005</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -33233,19 +33114,19 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5" t="s">
-        <v>2015</v>
+        <v>2006</v>
       </c>
       <c r="N32" s="5"/>
       <c r="O32" s="6" t="s">
-        <v>2016</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="5" t="s">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>2018</v>
+        <v>2009</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -33258,19 +33139,19 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5" t="s">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="N33" s="5"/>
       <c r="O33" s="6" t="s">
-        <v>2020</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="5" t="s">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>2022</v>
+        <v>2013</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -33283,19 +33164,19 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5" t="s">
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="N34" s="5"/>
       <c r="O34" s="6" t="s">
-        <v>2024</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="5" t="s">
-        <v>2025</v>
+        <v>2016</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>2026</v>
+        <v>2017</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -33308,19 +33189,19 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5" t="s">
-        <v>2027</v>
+        <v>2018</v>
       </c>
       <c r="N35" s="5"/>
       <c r="O35" s="6" t="s">
-        <v>2028</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="5" t="s">
-        <v>2029</v>
+        <v>2020</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -33333,19 +33214,19 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5" t="s">
-        <v>2031</v>
+        <v>2022</v>
       </c>
       <c r="N36" s="5"/>
       <c r="O36" s="6" t="s">
-        <v>2032</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="5" t="s">
-        <v>2033</v>
+        <v>2024</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>2034</v>
+        <v>2025</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -33358,19 +33239,19 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5" t="s">
-        <v>2035</v>
+        <v>2026</v>
       </c>
       <c r="N37" s="5"/>
       <c r="O37" s="6" t="s">
-        <v>2036</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="5" t="s">
-        <v>2037</v>
+        <v>2028</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>2038</v>
+        <v>2029</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -33383,19 +33264,19 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5" t="s">
-        <v>2039</v>
+        <v>2030</v>
       </c>
       <c r="N38" s="5"/>
       <c r="O38" s="6" t="s">
-        <v>2040</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="5" t="s">
-        <v>2041</v>
+        <v>2032</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>2042</v>
+        <v>2033</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -33408,19 +33289,19 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5" t="s">
-        <v>2043</v>
+        <v>2034</v>
       </c>
       <c r="N39" s="5"/>
       <c r="O39" s="6" t="s">
-        <v>2044</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="5" t="s">
-        <v>2045</v>
+        <v>2036</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>2046</v>
+        <v>2037</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -33433,19 +33314,19 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5" t="s">
-        <v>2047</v>
+        <v>2038</v>
       </c>
       <c r="N40" s="5"/>
       <c r="O40" s="6" t="s">
-        <v>2048</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="5" t="s">
-        <v>2049</v>
+        <v>2040</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>2050</v>
+        <v>2041</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -33458,19 +33339,19 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5" t="s">
-        <v>2051</v>
+        <v>2042</v>
       </c>
       <c r="N41" s="5"/>
       <c r="O41" s="6" t="s">
-        <v>2052</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="5" t="s">
-        <v>2053</v>
+        <v>2044</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>2054</v>
+        <v>2045</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -33483,19 +33364,19 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5" t="s">
-        <v>2055</v>
+        <v>2046</v>
       </c>
       <c r="N42" s="5"/>
       <c r="O42" s="6" t="s">
-        <v>2056</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="5" t="s">
-        <v>2057</v>
+        <v>2048</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>2058</v>
+        <v>2049</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -33508,19 +33389,19 @@
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5" t="s">
-        <v>2059</v>
+        <v>2050</v>
       </c>
       <c r="N43" s="5"/>
       <c r="O43" s="6" t="s">
-        <v>2060</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="5" t="s">
-        <v>2061</v>
+        <v>2052</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>2062</v>
+        <v>2053</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -33533,19 +33414,19 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5" t="s">
-        <v>2063</v>
+        <v>2054</v>
       </c>
       <c r="N44" s="5"/>
       <c r="O44" s="6" t="s">
-        <v>2064</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="5" t="s">
-        <v>2065</v>
+        <v>2056</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>2066</v>
+        <v>2057</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -33558,19 +33439,19 @@
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5" t="s">
-        <v>2067</v>
+        <v>2058</v>
       </c>
       <c r="N45" s="5"/>
       <c r="O45" s="6" t="s">
-        <v>2068</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="5" t="s">
-        <v>2069</v>
+        <v>2060</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>2070</v>
+        <v>2061</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -33583,19 +33464,19 @@
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5" t="s">
-        <v>2071</v>
+        <v>2062</v>
       </c>
       <c r="N46" s="5"/>
       <c r="O46" s="6" t="s">
-        <v>2072</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="5" t="s">
-        <v>2073</v>
+        <v>2064</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>2074</v>
+        <v>2065</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -33608,19 +33489,19 @@
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="5" t="s">
-        <v>2075</v>
+        <v>2066</v>
       </c>
       <c r="N47" s="5"/>
       <c r="O47" s="6" t="s">
-        <v>2076</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="5" t="s">
-        <v>2077</v>
+        <v>2068</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>2078</v>
+        <v>2069</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -33633,19 +33514,19 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5" t="s">
-        <v>2079</v>
+        <v>2070</v>
       </c>
       <c r="N48" s="5"/>
       <c r="O48" s="6" t="s">
-        <v>2080</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="5" t="s">
-        <v>2081</v>
+        <v>2072</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>2082</v>
+        <v>2073</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -33658,19 +33539,19 @@
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
       <c r="M49" s="5" t="s">
-        <v>2083</v>
+        <v>2074</v>
       </c>
       <c r="N49" s="5"/>
       <c r="O49" s="6" t="s">
-        <v>2084</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="5" t="s">
-        <v>2085</v>
+        <v>2076</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>2086</v>
+        <v>2077</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -33683,19 +33564,19 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
       <c r="M50" s="5" t="s">
-        <v>2087</v>
+        <v>2078</v>
       </c>
       <c r="N50" s="5"/>
       <c r="O50" s="6" t="s">
-        <v>2088</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="5" t="s">
-        <v>2089</v>
+        <v>2080</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>2090</v>
+        <v>2081</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -33708,19 +33589,19 @@
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5" t="s">
-        <v>2091</v>
+        <v>2082</v>
       </c>
       <c r="N51" s="5"/>
       <c r="O51" s="6" t="s">
-        <v>2092</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="5" t="s">
-        <v>2093</v>
+        <v>2084</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>2094</v>
+        <v>2085</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -33733,19 +33614,19 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
       <c r="M52" s="5" t="s">
-        <v>2095</v>
+        <v>2086</v>
       </c>
       <c r="N52" s="5"/>
       <c r="O52" s="6" t="s">
-        <v>2096</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="5" t="s">
-        <v>2097</v>
+        <v>2088</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>2098</v>
+        <v>2089</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -33758,19 +33639,19 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
       <c r="M53" s="5" t="s">
-        <v>2099</v>
+        <v>2090</v>
       </c>
       <c r="N53" s="5"/>
       <c r="O53" s="6" t="s">
-        <v>2100</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="5" t="s">
-        <v>2101</v>
+        <v>2092</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>2102</v>
+        <v>2093</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -33783,19 +33664,19 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
       <c r="M54" s="5" t="s">
-        <v>2103</v>
+        <v>2094</v>
       </c>
       <c r="N54" s="5"/>
       <c r="O54" s="6" t="s">
-        <v>2104</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="5" t="s">
-        <v>2105</v>
+        <v>2096</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>2106</v>
+        <v>2097</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -33808,19 +33689,19 @@
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
       <c r="M55" s="5" t="s">
-        <v>2107</v>
+        <v>2098</v>
       </c>
       <c r="N55" s="5"/>
       <c r="O55" s="20" t="s">
-        <v>2108</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="5" t="s">
-        <v>2109</v>
+        <v>2100</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>2110</v>
+        <v>2101</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -33833,19 +33714,19 @@
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
       <c r="M56" s="5" t="s">
-        <v>2111</v>
+        <v>2102</v>
       </c>
       <c r="N56" s="5"/>
       <c r="O56" s="20" t="s">
-        <v>2112</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="5" t="s">
-        <v>2113</v>
+        <v>2104</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>2114</v>
+        <v>2105</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -33858,19 +33739,19 @@
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
       <c r="M57" s="5" t="s">
-        <v>2115</v>
+        <v>2106</v>
       </c>
       <c r="N57" s="5"/>
       <c r="O57" s="6" t="s">
-        <v>2116</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="5" t="s">
-        <v>2117</v>
+        <v>2108</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>2114</v>
+        <v>2105</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -33883,30 +33764,30 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
       <c r="M58" s="5" t="s">
-        <v>2115</v>
+        <v>2106</v>
       </c>
       <c r="N58" s="5"/>
       <c r="O58" s="6" t="s">
-        <v>2116</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>2118</v>
+        <v>2109</v>
       </c>
       <c r="B59" t="s">
-        <v>2119</v>
+        <v>2110</v>
       </c>
       <c r="M59" t="s">
-        <v>2120</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="5" t="s">
-        <v>2121</v>
+        <v>2112</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>2122</v>
+        <v>2113</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -33919,19 +33800,19 @@
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
       <c r="M60" s="5" t="s">
-        <v>2123</v>
+        <v>2114</v>
       </c>
       <c r="N60" s="5"/>
       <c r="O60" s="20" t="s">
-        <v>2124</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="5" t="s">
-        <v>2125</v>
+        <v>2116</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>2126</v>
+        <v>2117</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -33944,19 +33825,19 @@
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
       <c r="M61" s="5" t="s">
-        <v>2127</v>
+        <v>2118</v>
       </c>
       <c r="N61" s="5"/>
       <c r="O61" s="20" t="s">
-        <v>2128</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="5" t="s">
-        <v>2129</v>
+        <v>2120</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>2130</v>
+        <v>2121</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -33969,11 +33850,11 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
       <c r="M62" s="5" t="s">
-        <v>2131</v>
+        <v>2122</v>
       </c>
       <c r="N62" s="5"/>
       <c r="O62" s="5" t="s">
-        <v>2132</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="64" spans="15:15">
@@ -36620,10 +36501,10 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="5" t="s">
-        <v>2133</v>
+        <v>2124</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1904</v>
+        <v>1895</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -36636,19 +36517,19 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5" t="s">
-        <v>1905</v>
+        <v>1896</v>
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="6" t="s">
-        <v>1906</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="5" t="s">
-        <v>2134</v>
+        <v>2125</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1908</v>
+        <v>1899</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -36661,19 +36542,19 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5" t="s">
-        <v>1909</v>
+        <v>1900</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="6" t="s">
-        <v>1910</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="5" t="s">
-        <v>2135</v>
+        <v>2126</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1908</v>
+        <v>1899</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -36686,19 +36567,19 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5" t="s">
-        <v>1909</v>
+        <v>1900</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="6" t="s">
-        <v>1910</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="5" t="s">
-        <v>2136</v>
+        <v>2127</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>2137</v>
+        <v>2128</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -36711,61 +36592,61 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5" t="s">
-        <v>2138</v>
+        <v>2129</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="6" t="s">
-        <v>2139</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="6" s="5" customFormat="1" spans="1:15">
       <c r="A6" s="5" t="s">
-        <v>2140</v>
+        <v>2131</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>2141</v>
+        <v>2132</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>2142</v>
+        <v>2133</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>2143</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="7" s="5" customFormat="1" spans="1:15">
       <c r="A7" s="5" t="s">
-        <v>2144</v>
+        <v>2135</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>2145</v>
+        <v>2136</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>1925</v>
+        <v>1916</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>2146</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="8" s="5" customFormat="1" spans="1:15">
       <c r="A8" s="5" t="s">
-        <v>2147</v>
+        <v>2138</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>2148</v>
+        <v>2139</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>1929</v>
+        <v>1920</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>2149</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="9" s="5" customFormat="1" spans="1:15">
       <c r="A9" s="14" t="s">
-        <v>2150</v>
+        <v>2141</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>2151</v>
+        <v>2142</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -36778,747 +36659,747 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4" t="s">
-        <v>2152</v>
+        <v>2143</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4" t="s">
-        <v>1934</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="10" s="5" customFormat="1" spans="1:15">
       <c r="A10" s="5" t="s">
-        <v>2153</v>
+        <v>2144</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>2154</v>
+        <v>2145</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>1937</v>
+        <v>1928</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>2155</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="11" s="5" customFormat="1" spans="1:15">
       <c r="A11" s="5" t="s">
-        <v>2156</v>
+        <v>2147</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>2157</v>
+        <v>2148</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>2158</v>
+        <v>2149</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>2159</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="12" s="5" customFormat="1" spans="1:15">
       <c r="A12" s="5" t="s">
-        <v>2160</v>
+        <v>2151</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>2161</v>
+        <v>2152</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>2138</v>
+        <v>2129</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>2162</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="13" s="5" customFormat="1" spans="1:15">
       <c r="A13" s="5" t="s">
-        <v>2163</v>
+        <v>2154</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>2164</v>
+        <v>2155</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>1949</v>
+        <v>1940</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>2165</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="14" s="5" customFormat="1" spans="1:15">
       <c r="A14" s="5" t="s">
-        <v>2166</v>
+        <v>2157</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1952</v>
+        <v>1943</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>1953</v>
+        <v>1944</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>1954</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="15" s="5" customFormat="1" spans="1:15">
       <c r="A15" s="5" t="s">
-        <v>2167</v>
+        <v>2158</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>2168</v>
+        <v>2159</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>2169</v>
+        <v>2160</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>2170</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="16" s="5" customFormat="1" spans="1:15">
       <c r="A16" s="5" t="s">
-        <v>2171</v>
+        <v>2162</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>2168</v>
+        <v>2159</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>2169</v>
+        <v>2160</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>2170</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="17" s="5" customFormat="1" spans="1:15">
       <c r="A17" s="5" t="s">
-        <v>2172</v>
+        <v>2163</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1961</v>
+        <v>1952</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>1962</v>
+        <v>1953</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>1963</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="18" s="5" customFormat="1" spans="1:15">
       <c r="A18" s="5" t="s">
-        <v>2173</v>
+        <v>2164</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1965</v>
+        <v>1956</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>1966</v>
+        <v>1957</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>1967</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="19" s="5" customFormat="1" spans="1:15">
       <c r="A19" s="5" t="s">
-        <v>2174</v>
+        <v>2165</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1965</v>
+        <v>1956</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>1966</v>
+        <v>1957</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>1967</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="20" s="5" customFormat="1" spans="1:15">
       <c r="A20" s="5" t="s">
-        <v>2175</v>
+        <v>2166</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1970</v>
+        <v>1961</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>1971</v>
+        <v>1962</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>1972</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="21" s="5" customFormat="1" spans="1:13">
       <c r="A21" s="5" t="s">
-        <v>2176</v>
+        <v>2167</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1974</v>
+        <v>1965</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>1975</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="22" s="5" customFormat="1" spans="1:15">
       <c r="A22" s="5" t="s">
-        <v>2177</v>
+        <v>2168</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1977</v>
+        <v>1968</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>1978</v>
+        <v>1969</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>1979</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="23" s="5" customFormat="1" spans="1:15">
       <c r="A23" s="5" t="s">
-        <v>2178</v>
+        <v>2169</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1981</v>
+        <v>1972</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>1982</v>
+        <v>1973</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>2179</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="24" s="5" customFormat="1" spans="1:15">
       <c r="A24" s="5" t="s">
-        <v>2180</v>
+        <v>2171</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1984</v>
+        <v>1975</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>1985</v>
+        <v>1976</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>1986</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="25" s="5" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A25" s="5" t="s">
-        <v>2181</v>
+        <v>2172</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1988</v>
+        <v>1979</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>1989</v>
+        <v>1980</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>1990</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="26" s="5" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A26" s="5" t="s">
-        <v>2182</v>
+        <v>2173</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1988</v>
+        <v>1979</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>1992</v>
+        <v>1983</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>1990</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="27" s="5" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A27" s="5" t="s">
-        <v>2183</v>
+        <v>2174</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1994</v>
+        <v>1985</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>1996</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="28" s="5" customFormat="1" spans="1:15">
       <c r="A28" s="5" t="s">
-        <v>2184</v>
+        <v>2175</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>2185</v>
+        <v>2176</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>1999</v>
+        <v>1990</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>2186</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="29" s="5" customFormat="1" spans="1:15">
       <c r="A29" s="5" t="s">
-        <v>2187</v>
+        <v>2178</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>2188</v>
+        <v>2179</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>2189</v>
+        <v>2180</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>2190</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="30" s="5" customFormat="1" spans="1:15">
       <c r="A30" s="5" t="s">
-        <v>2191</v>
+        <v>2182</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>2006</v>
+        <v>1997</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>2007</v>
+        <v>1998</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>2008</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="31" s="5" customFormat="1" spans="1:15">
       <c r="A31" s="5" t="s">
-        <v>2192</v>
+        <v>2183</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>2193</v>
+        <v>2184</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>2194</v>
+        <v>2185</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>2195</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="32" s="5" customFormat="1" spans="1:15">
       <c r="A32" s="5" t="s">
-        <v>2196</v>
+        <v>2187</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>2197</v>
+        <v>2188</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>2198</v>
+        <v>2189</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>2199</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="33" s="5" customFormat="1" spans="1:15">
       <c r="A33" s="5" t="s">
-        <v>2200</v>
+        <v>2191</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>2201</v>
+        <v>2192</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>2202</v>
+        <v>2193</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>2203</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="34" s="5" customFormat="1" spans="1:15">
       <c r="A34" s="5" t="s">
-        <v>2204</v>
+        <v>2195</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>2205</v>
+        <v>2196</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>2206</v>
+        <v>2197</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>2207</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="35" s="5" customFormat="1" spans="1:15">
       <c r="A35" s="5" t="s">
-        <v>2208</v>
+        <v>2199</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>2205</v>
+        <v>2196</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>2206</v>
+        <v>2197</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>2207</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="36" s="5" customFormat="1" spans="1:15">
       <c r="A36" s="5" t="s">
-        <v>2209</v>
+        <v>2200</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>2031</v>
+        <v>2022</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>2032</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="37" s="5" customFormat="1" spans="1:15">
       <c r="A37" s="5" t="s">
-        <v>2210</v>
+        <v>2201</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>2211</v>
+        <v>2202</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>2212</v>
+        <v>2203</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>2213</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="38" s="5" customFormat="1" spans="1:15">
       <c r="A38" s="5" t="s">
-        <v>2214</v>
+        <v>2205</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>2215</v>
+        <v>2206</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>2216</v>
+        <v>2207</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>2217</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="39" s="5" customFormat="1" spans="1:15">
       <c r="A39" s="5" t="s">
-        <v>2218</v>
+        <v>2209</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>2219</v>
+        <v>2210</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>2220</v>
+        <v>2211</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>2221</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="40" s="5" customFormat="1" spans="1:15">
       <c r="A40" s="5" t="s">
-        <v>2222</v>
+        <v>2213</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>2223</v>
+        <v>2214</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>2224</v>
+        <v>2215</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>2225</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="41" s="5" customFormat="1" spans="1:15">
       <c r="A41" s="5" t="s">
-        <v>2226</v>
+        <v>2217</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>2050</v>
+        <v>2041</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>2227</v>
+        <v>2218</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>2052</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="42" s="5" customFormat="1" spans="1:15">
       <c r="A42" s="5" t="s">
-        <v>2228</v>
+        <v>2219</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>2054</v>
+        <v>2045</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>2055</v>
+        <v>2046</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>2056</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="43" s="5" customFormat="1" spans="1:15">
       <c r="A43" s="5" t="s">
-        <v>2229</v>
+        <v>2220</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>2230</v>
+        <v>2221</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>2231</v>
+        <v>2222</v>
       </c>
       <c r="O43" s="6" t="s">
-        <v>2232</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="44" s="5" customFormat="1" spans="1:15">
       <c r="A44" s="5" t="s">
-        <v>2233</v>
+        <v>2224</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>2062</v>
+        <v>2053</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>2063</v>
+        <v>2054</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>2064</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="45" s="5" customFormat="1" spans="1:15">
       <c r="A45" s="5" t="s">
-        <v>2234</v>
+        <v>2225</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>2235</v>
+        <v>2226</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>2067</v>
+        <v>2058</v>
       </c>
       <c r="O45" s="6" t="s">
-        <v>2236</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="46" s="5" customFormat="1" spans="1:15">
       <c r="A46" s="5" t="s">
-        <v>2237</v>
+        <v>2228</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>2238</v>
+        <v>2229</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>2239</v>
+        <v>2230</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>2240</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="47" s="5" customFormat="1" spans="1:15">
       <c r="A47" s="5" t="s">
-        <v>2241</v>
+        <v>2232</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>2074</v>
+        <v>2065</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>2075</v>
+        <v>2066</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>2076</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="48" s="5" customFormat="1" spans="1:15">
       <c r="A48" s="5" t="s">
-        <v>2242</v>
+        <v>2233</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>2078</v>
+        <v>2069</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>2079</v>
+        <v>2070</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>2080</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="49" s="5" customFormat="1" spans="1:15">
       <c r="A49" s="5" t="s">
-        <v>2243</v>
+        <v>2234</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>2082</v>
+        <v>2073</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>2083</v>
+        <v>2074</v>
       </c>
       <c r="O49" s="6" t="s">
-        <v>2084</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="50" s="5" customFormat="1" spans="1:15">
       <c r="A50" s="5" t="s">
-        <v>2244</v>
+        <v>2235</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>2086</v>
+        <v>2077</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>2087</v>
+        <v>2078</v>
       </c>
       <c r="O50" s="6" t="s">
-        <v>2088</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="51" s="5" customFormat="1" spans="1:15">
       <c r="A51" s="5" t="s">
-        <v>2245</v>
+        <v>2236</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>2090</v>
+        <v>2081</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>2091</v>
+        <v>2082</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>2246</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="52" s="5" customFormat="1" spans="1:15">
       <c r="A52" s="5" t="s">
-        <v>2247</v>
+        <v>2238</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>2094</v>
+        <v>2085</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>2095</v>
+        <v>2086</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>2096</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="53" s="5" customFormat="1" spans="1:15">
       <c r="A53" s="5" t="s">
-        <v>2248</v>
+        <v>2239</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>2098</v>
+        <v>2089</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>2099</v>
+        <v>2090</v>
       </c>
       <c r="O53" s="6" t="s">
-        <v>2100</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="54" s="5" customFormat="1" spans="1:15">
       <c r="A54" s="5" t="s">
-        <v>2249</v>
+        <v>2240</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>2102</v>
+        <v>2093</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>2103</v>
+        <v>2094</v>
       </c>
       <c r="O54" s="6" t="s">
-        <v>2104</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="55" s="5" customFormat="1" spans="1:15">
       <c r="A55" s="5" t="s">
-        <v>2250</v>
+        <v>2241</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>2106</v>
+        <v>2097</v>
       </c>
       <c r="M55" s="5" t="s">
-        <v>2107</v>
+        <v>2098</v>
       </c>
       <c r="O55" s="20" t="s">
-        <v>2108</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="56" s="5" customFormat="1" spans="1:15">
       <c r="A56" s="5" t="s">
-        <v>2251</v>
+        <v>2242</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>2110</v>
+        <v>2101</v>
       </c>
       <c r="M56" s="5" t="s">
-        <v>2111</v>
+        <v>2102</v>
       </c>
       <c r="O56" s="20" t="s">
-        <v>2112</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="57" s="5" customFormat="1" spans="1:15">
       <c r="A57" s="5" t="s">
-        <v>2252</v>
+        <v>2243</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>2114</v>
+        <v>2105</v>
       </c>
       <c r="M57" s="5" t="s">
-        <v>2115</v>
+        <v>2106</v>
       </c>
       <c r="O57" s="6" t="s">
-        <v>2116</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="58" s="5" customFormat="1" spans="1:15">
       <c r="A58" s="5" t="s">
-        <v>2253</v>
+        <v>2244</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>2114</v>
+        <v>2105</v>
       </c>
       <c r="M58" s="5" t="s">
-        <v>2115</v>
+        <v>2106</v>
       </c>
       <c r="O58" s="6" t="s">
-        <v>2116</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="59" s="5" customFormat="1" spans="1:13">
       <c r="A59" s="5" t="s">
-        <v>2254</v>
+        <v>2245</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>2119</v>
+        <v>2110</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>2120</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="60" s="5" customFormat="1" spans="1:15">
       <c r="A60" s="5" t="s">
-        <v>2255</v>
+        <v>2246</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>2122</v>
+        <v>2113</v>
       </c>
       <c r="M60" s="5" t="s">
-        <v>2123</v>
+        <v>2114</v>
       </c>
       <c r="O60" s="20" t="s">
-        <v>2124</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="61" s="5" customFormat="1" spans="1:15">
       <c r="A61" s="5" t="s">
-        <v>2256</v>
+        <v>2247</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>2257</v>
+        <v>2248</v>
       </c>
       <c r="M61" s="5" t="s">
-        <v>2258</v>
+        <v>2249</v>
       </c>
       <c r="O61" s="20" t="s">
-        <v>2128</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="62" s="5" customFormat="1" spans="1:15">
       <c r="A62" s="5" t="s">
-        <v>2259</v>
+        <v>2250</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>2130</v>
+        <v>2121</v>
       </c>
       <c r="M62" s="5" t="s">
-        <v>2131</v>
+        <v>2122</v>
       </c>
       <c r="O62" s="5" t="s">
-        <v>2260</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="66" spans="15:15">
@@ -40159,618 +40040,618 @@
     </row>
     <row r="2" ht="56.25" spans="1:15">
       <c r="A2" t="s">
-        <v>2261</v>
+        <v>2252</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>2262</v>
+        <v>2253</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>2263</v>
+        <v>2254</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>2264</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="3" ht="56.25" spans="1:15">
       <c r="A3" t="s">
-        <v>2265</v>
+        <v>2256</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>2266</v>
+        <v>2257</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>2267</v>
+        <v>2258</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>2268</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="4" ht="93.75" spans="1:15">
       <c r="A4" t="s">
-        <v>2269</v>
+        <v>2260</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2270</v>
+        <v>2261</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>2271</v>
+        <v>2262</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>2272</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="5" ht="75" spans="1:15">
       <c r="A5" t="s">
-        <v>2273</v>
+        <v>2264</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2274</v>
+        <v>2265</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>2275</v>
+        <v>2266</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>2276</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="6" ht="56.25" spans="1:15">
       <c r="A6" t="s">
-        <v>2277</v>
+        <v>2268</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2278</v>
+        <v>2269</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>2279</v>
+        <v>2270</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>2280</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="7" ht="112.5" spans="1:15">
       <c r="A7" t="s">
-        <v>2281</v>
+        <v>2272</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>2282</v>
+        <v>2273</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>2283</v>
+        <v>2274</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>2284</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="8" ht="168.75" spans="1:15">
       <c r="A8" t="s">
-        <v>2285</v>
+        <v>2276</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>2286</v>
+        <v>2277</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>2287</v>
+        <v>2278</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>2288</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="9" ht="150" spans="1:15">
       <c r="A9" t="s">
-        <v>2289</v>
+        <v>2280</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>2290</v>
+        <v>2281</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>2291</v>
+        <v>2282</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>2292</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="10" ht="37.5" spans="1:15">
       <c r="A10" t="s">
-        <v>2293</v>
+        <v>2284</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>2294</v>
+        <v>2285</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>2295</v>
+        <v>2286</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>2296</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="11" ht="56.25" spans="1:15">
       <c r="A11" t="s">
-        <v>2297</v>
+        <v>2288</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>2298</v>
+        <v>2289</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>2299</v>
+        <v>2290</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>2300</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="12" ht="112.5" spans="1:15">
       <c r="A12" t="s">
-        <v>2301</v>
+        <v>2292</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>2302</v>
+        <v>2293</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>2303</v>
+        <v>2294</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>2304</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="13" ht="409.5" spans="1:15">
       <c r="A13" t="s">
-        <v>2305</v>
+        <v>2296</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>2306</v>
+        <v>2297</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>2307</v>
+        <v>2298</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>2308</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="14" ht="131.25" spans="1:15">
       <c r="A14" t="s">
-        <v>2309</v>
+        <v>2300</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>2310</v>
+        <v>2301</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>2311</v>
+        <v>2302</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>2312</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="15" ht="56.25" spans="1:15">
       <c r="A15" t="s">
-        <v>2313</v>
+        <v>2304</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>2314</v>
+        <v>2305</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>2315</v>
+        <v>2306</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>2316</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="16" ht="150" spans="1:15">
       <c r="A16" t="s">
-        <v>2317</v>
+        <v>2308</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>2318</v>
+        <v>2309</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>2319</v>
+        <v>2310</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>2320</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="17" ht="131.25" spans="1:15">
       <c r="A17" t="s">
-        <v>2321</v>
+        <v>2312</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>2322</v>
+        <v>2313</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>2323</v>
+        <v>2314</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>2324</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="18" ht="206.25" spans="1:15">
       <c r="A18" t="s">
-        <v>2325</v>
+        <v>2316</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>2326</v>
+        <v>2317</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>2327</v>
+        <v>2318</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>2328</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="19" ht="131.25" spans="1:15">
       <c r="A19" t="s">
-        <v>2329</v>
+        <v>2320</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>2330</v>
+        <v>2321</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>2331</v>
+        <v>2322</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>2332</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="20" ht="187.5" spans="1:15">
       <c r="A20" t="s">
-        <v>2333</v>
+        <v>2324</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>2334</v>
+        <v>2325</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>2335</v>
+        <v>2326</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>2336</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="21" ht="225" spans="1:15">
       <c r="A21" t="s">
-        <v>2337</v>
+        <v>2328</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>2338</v>
+        <v>2329</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>2339</v>
+        <v>2330</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>2340</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="22" ht="75" spans="1:15">
       <c r="A22" t="s">
-        <v>2341</v>
+        <v>2332</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>2342</v>
+        <v>2333</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>2343</v>
+        <v>2334</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>2344</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="23" ht="112.5" spans="1:15">
       <c r="A23" t="s">
-        <v>2345</v>
+        <v>2336</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>2346</v>
+        <v>2337</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>2347</v>
+        <v>2338</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>2348</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="24" ht="93.75" spans="1:15">
       <c r="A24" t="s">
-        <v>2349</v>
+        <v>2340</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>2350</v>
+        <v>2341</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>2351</v>
+        <v>2342</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>2352</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="25" ht="131.25" spans="1:15">
       <c r="A25" t="s">
-        <v>2353</v>
+        <v>2344</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>2354</v>
+        <v>2345</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>2355</v>
+        <v>2346</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>2356</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="26" ht="150" spans="1:15">
       <c r="A26" t="s">
-        <v>2357</v>
+        <v>2348</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>2358</v>
+        <v>2349</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>2359</v>
+        <v>2350</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>2360</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="27" ht="93.75" spans="1:15">
       <c r="A27" t="s">
-        <v>2361</v>
+        <v>2352</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>2362</v>
+        <v>2353</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>2363</v>
+        <v>2354</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>2364</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="28" ht="93.75" spans="1:15">
       <c r="A28" t="s">
-        <v>2365</v>
+        <v>2356</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>2366</v>
+        <v>2357</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>2367</v>
+        <v>2358</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>2368</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="29" ht="206.25" spans="1:15">
       <c r="A29" t="s">
-        <v>2369</v>
+        <v>2360</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>2370</v>
+        <v>2361</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>2371</v>
+        <v>2362</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>2372</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="30" ht="75" spans="1:15">
       <c r="A30" t="s">
-        <v>2373</v>
+        <v>2364</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>2374</v>
+        <v>2365</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>2375</v>
+        <v>2366</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>2376</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="31" ht="168.75" spans="1:15">
       <c r="A31" t="s">
-        <v>2377</v>
+        <v>2368</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>2378</v>
+        <v>2369</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>2379</v>
+        <v>2370</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>2380</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="32" ht="262.5" spans="1:15">
       <c r="A32" t="s">
-        <v>2381</v>
+        <v>2372</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>2382</v>
+        <v>2373</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>2383</v>
+        <v>2374</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>2384</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="33" ht="112.5" spans="1:15">
       <c r="A33" t="s">
-        <v>2385</v>
+        <v>2376</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>2386</v>
+        <v>2377</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>2387</v>
+        <v>2378</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>2388</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="34" ht="150" spans="1:15">
       <c r="A34" t="s">
-        <v>2389</v>
+        <v>2380</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>2390</v>
+        <v>2381</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>2391</v>
+        <v>2382</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>2392</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="35" ht="150" spans="1:15">
       <c r="A35" t="s">
-        <v>2393</v>
+        <v>2384</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>2390</v>
+        <v>2381</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>2391</v>
+        <v>2382</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>2392</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="36" ht="93.75" spans="1:15">
       <c r="A36" t="s">
-        <v>2394</v>
+        <v>2385</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>2395</v>
+        <v>2386</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>2396</v>
+        <v>2387</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>2397</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="37" ht="56.25" spans="1:15">
       <c r="A37" t="s">
-        <v>2398</v>
+        <v>2389</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>2399</v>
+        <v>2390</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>2400</v>
+        <v>2391</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>2401</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" t="s">
-        <v>2402</v>
+        <v>2393</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>2403</v>
+        <v>2394</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>2404</v>
+        <v>2395</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>2405</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" t="s">
-        <v>2406</v>
+        <v>2397</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>2407</v>
+        <v>2398</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>2408</v>
+        <v>2399</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>2409</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="40" ht="262.5" spans="1:15">
       <c r="A40" t="s">
-        <v>2410</v>
+        <v>2401</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>2411</v>
+        <v>2402</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>2412</v>
+        <v>2403</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>2413</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="41" ht="112.5" spans="1:15">
       <c r="A41" t="s">
-        <v>2414</v>
+        <v>2405</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>2415</v>
+        <v>2406</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>2416</v>
+        <v>2407</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>2417</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="42" ht="93.75" spans="1:15">
       <c r="A42" t="s">
-        <v>2418</v>
+        <v>2409</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>2419</v>
+        <v>2410</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>2420</v>
+        <v>2411</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>2421</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="43" ht="93.75" spans="1:15">
       <c r="A43" t="s">
-        <v>2422</v>
+        <v>2413</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>2423</v>
+        <v>2414</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>2424</v>
+        <v>2415</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>2425</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="44" ht="187.5" spans="1:15">
       <c r="A44" t="s">
-        <v>2426</v>
+        <v>2417</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>2427</v>
+        <v>2418</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>2428</v>
+        <v>2419</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>2429</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="45" ht="56.25" spans="1:15">
       <c r="A45" t="s">
-        <v>2430</v>
+        <v>2421</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>2431</v>
+        <v>2422</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>2432</v>
+        <v>2423</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>2433</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="46" spans="2:15">
@@ -40780,38 +40661,38 @@
     </row>
     <row r="47" ht="75" spans="1:15">
       <c r="A47" t="s">
-        <v>2434</v>
+        <v>2425</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>2342</v>
+        <v>2333</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>2435</v>
+        <v>2426</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>2344</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="48" ht="112.5" spans="1:15">
       <c r="A48" t="s">
-        <v>2436</v>
+        <v>2427</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>2437</v>
+        <v>2428</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>2438</v>
+        <v>2429</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>2439</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="49" ht="75" customHeight="1" spans="1:15">
       <c r="A49" s="8" t="s">
-        <v>2440</v>
+        <v>2431</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>2441</v>
+        <v>2432</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -40824,19 +40705,19 @@
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
       <c r="M49" s="12" t="s">
-        <v>2442</v>
+        <v>2433</v>
       </c>
       <c r="N49" s="10"/>
       <c r="O49" s="12" t="s">
-        <v>2443</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="50" ht="75" customHeight="1" spans="1:13">
       <c r="A50" s="8" t="s">
-        <v>2444</v>
+        <v>2435</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>1974</v>
+        <v>1965</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -40849,194 +40730,194 @@
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="12" t="s">
-        <v>2445</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="51" s="5" customFormat="1" ht="168.75" spans="1:15">
       <c r="A51" s="5" t="s">
-        <v>2446</v>
+        <v>2437</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>2447</v>
+        <v>2438</v>
       </c>
       <c r="M51" s="11" t="s">
-        <v>2448</v>
+        <v>2439</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>2449</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="52" s="5" customFormat="1" ht="112.5" spans="1:15">
       <c r="A52" s="5" t="s">
-        <v>2450</v>
+        <v>2441</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>2451</v>
+        <v>2442</v>
       </c>
       <c r="M52" s="11" t="s">
-        <v>2452</v>
+        <v>2443</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>2453</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="53" s="5" customFormat="1" ht="168.75" spans="1:15">
       <c r="A53" s="5" t="s">
-        <v>2454</v>
+        <v>2445</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>2455</v>
+        <v>2446</v>
       </c>
       <c r="M53" s="11" t="s">
-        <v>2456</v>
+        <v>2447</v>
       </c>
       <c r="O53" s="6" t="s">
-        <v>2457</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="54" s="5" customFormat="1" ht="112.5" spans="1:15">
       <c r="A54" s="5" t="s">
-        <v>2458</v>
+        <v>2449</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>2459</v>
+        <v>2450</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>2460</v>
+        <v>2451</v>
       </c>
       <c r="O54" s="6" t="s">
-        <v>2461</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="55" s="5" customFormat="1" ht="143" customHeight="1" spans="1:15">
       <c r="A55" s="5" t="s">
-        <v>2462</v>
+        <v>2453</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>2463</v>
+        <v>2454</v>
       </c>
       <c r="M55" s="11" t="s">
-        <v>2464</v>
+        <v>2455</v>
       </c>
       <c r="O55" s="6" t="s">
-        <v>2465</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="56" s="5" customFormat="1" ht="93.75" spans="1:15">
       <c r="A56" s="5" t="s">
-        <v>2466</v>
+        <v>2457</v>
       </c>
       <c r="M56" s="11" t="s">
-        <v>2467</v>
+        <v>2458</v>
       </c>
       <c r="O56" s="6" t="s">
-        <v>2468</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="57" s="5" customFormat="1" ht="168.75" spans="1:15">
       <c r="A57" s="5" t="s">
-        <v>2469</v>
+        <v>2460</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>2470</v>
+        <v>2461</v>
       </c>
       <c r="M57" s="11" t="s">
-        <v>2471</v>
+        <v>2462</v>
       </c>
       <c r="O57" s="6" t="s">
-        <v>2472</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="58" s="5" customFormat="1" ht="168.75" spans="1:15">
       <c r="A58" s="5" t="s">
-        <v>2473</v>
+        <v>2464</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>2474</v>
+        <v>2465</v>
       </c>
       <c r="M58" s="11" t="s">
-        <v>2475</v>
+        <v>2466</v>
       </c>
       <c r="O58" s="13" t="s">
-        <v>2476</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="59" s="5" customFormat="1" ht="112.5" spans="1:15">
       <c r="A59" s="5" t="s">
-        <v>2477</v>
+        <v>2468</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>2478</v>
+        <v>2469</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>2479</v>
+        <v>2470</v>
       </c>
       <c r="O59" s="13" t="s">
-        <v>2480</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="60" s="5" customFormat="1" ht="243.75" spans="1:15">
       <c r="A60" s="5" t="s">
-        <v>2481</v>
+        <v>2472</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>2482</v>
+        <v>2473</v>
       </c>
       <c r="M60" s="11" t="s">
-        <v>2483</v>
+        <v>2474</v>
       </c>
       <c r="O60" s="13" t="s">
-        <v>2484</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="61" s="5" customFormat="1" spans="1:15">
       <c r="A61" s="5" t="s">
-        <v>2485</v>
+        <v>2476</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>2486</v>
+        <v>2477</v>
       </c>
       <c r="M61" s="11" t="s">
-        <v>2487</v>
+        <v>2478</v>
       </c>
       <c r="O61" s="6" t="s">
-        <v>2488</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="62" s="5" customFormat="1" spans="1:15">
       <c r="A62" s="5" t="s">
-        <v>2489</v>
+        <v>2480</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>2486</v>
+        <v>2477</v>
       </c>
       <c r="M62" s="11" t="s">
-        <v>2487</v>
+        <v>2478</v>
       </c>
       <c r="O62" s="6" t="s">
-        <v>2488</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="63" s="5" customFormat="1" ht="131.25" spans="1:13">
       <c r="A63" s="5" t="s">
-        <v>2490</v>
+        <v>2481</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>2491</v>
+        <v>2482</v>
       </c>
       <c r="M63" s="11" t="s">
-        <v>2492</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="64" s="5" customFormat="1" spans="1:13">
       <c r="A64" s="5" t="s">
-        <v>2493</v>
+        <v>2484</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>2494</v>
+        <v>2485</v>
       </c>
       <c r="M64" s="5" t="s">
-        <v>2495</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="65" spans="2:15">
@@ -43679,218 +43560,218 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2496</v>
+        <v>2487</v>
       </c>
       <c r="B2" t="s">
-        <v>2497</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2498</v>
+        <v>2489</v>
       </c>
       <c r="B3" t="s">
-        <v>2499</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>2500</v>
+        <v>2491</v>
       </c>
       <c r="B4" t="s">
-        <v>2501</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>2502</v>
+        <v>2493</v>
       </c>
       <c r="B5" t="s">
-        <v>2503</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>2504</v>
+        <v>2495</v>
       </c>
       <c r="B6" t="s">
-        <v>2505</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>2506</v>
+        <v>2497</v>
       </c>
       <c r="B7" t="s">
-        <v>2507</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>2508</v>
+        <v>2499</v>
       </c>
       <c r="B8" t="s">
-        <v>2509</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>2510</v>
+        <v>2501</v>
       </c>
       <c r="B9" t="s">
-        <v>2511</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>2512</v>
+        <v>2503</v>
       </c>
       <c r="B10" t="s">
-        <v>2513</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>2514</v>
+        <v>2505</v>
       </c>
       <c r="B11" t="s">
-        <v>2515</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>2516</v>
+        <v>2507</v>
       </c>
       <c r="B12" t="s">
-        <v>2517</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>2518</v>
+        <v>2509</v>
       </c>
       <c r="B13" t="s">
-        <v>2519</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>2520</v>
+        <v>2511</v>
       </c>
       <c r="B14" t="s">
-        <v>2521</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>2522</v>
+        <v>2513</v>
       </c>
       <c r="B15" t="s">
-        <v>2523</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>2524</v>
+        <v>2515</v>
       </c>
       <c r="B16" t="s">
-        <v>2525</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>2526</v>
+        <v>2517</v>
       </c>
       <c r="B17" t="s">
-        <v>2527</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>2528</v>
+        <v>2519</v>
       </c>
       <c r="B18" t="s">
-        <v>2529</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>2530</v>
+        <v>2521</v>
       </c>
       <c r="B19" t="s">
-        <v>2531</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>2532</v>
+        <v>2523</v>
       </c>
       <c r="B20" t="s">
-        <v>2533</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>2534</v>
+        <v>2525</v>
       </c>
       <c r="B21" t="s">
-        <v>2535</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>2536</v>
+        <v>2527</v>
       </c>
       <c r="B22" t="s">
-        <v>2537</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>2538</v>
+        <v>2529</v>
       </c>
       <c r="B23" t="s">
-        <v>2539</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>2540</v>
+        <v>2531</v>
       </c>
       <c r="B24" t="s">
-        <v>2541</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>2542</v>
+        <v>2533</v>
       </c>
       <c r="B25" t="s">
-        <v>2543</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>2544</v>
+        <v>2535</v>
       </c>
       <c r="B26" t="s">
-        <v>2545</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>2546</v>
+        <v>2537</v>
       </c>
       <c r="B27" t="s">
-        <v>2547</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>2548</v>
+        <v>2539</v>
       </c>
       <c r="B28" t="s">
-        <v>2549</v>
+        <v>2540</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13140" tabRatio="816" activeTab="3"/>
+    <workbookView windowWidth="28695" windowHeight="13140" tabRatio="816" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="ModText" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2797">
   <si>
     <t>English</t>
   </si>
@@ -9302,6 +9302,9 @@
   <si>
     <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.0.5.3&lt;/size&gt;&lt;size=70%&gt;\nHi! I'm Kiyomori!\nThis Update Contents is...\n1.Fixed dlekS ehT Spawn Point\n2.Unification Mirror Map Setting\n\nSee you next Update~~~!                        DekoKiyo&amp;Mugicha&lt;/size&gt;</t>
   </si>
+  <si>
+    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.0.5.3&lt;/size&gt;&lt;size=70%&gt;\n&lt;size=70%&gt;やっほー。清盛だよ～\n今回のアップデートの内容はこんな感じさ！\n1.dlekS ehTのスポーンポイントを修正\n\n2.反転マップの設定を統一\n\nそれじゃーね～～～                       でこぼこの清盛&amp;麦茶&lt;/size&gt;</t>
+  </si>
 </sst>
 </file>
 
@@ -9309,8 +9312,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
@@ -9384,13 +9387,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
@@ -9398,25 +9394,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9436,17 +9416,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="游ゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9467,18 +9476,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="游ゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="游ゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9490,23 +9500,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="游ゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9519,9 +9523,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9548,43 +9551,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9602,7 +9581,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9614,19 +9653,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9644,31 +9689,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9686,49 +9725,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9739,39 +9742,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -9805,17 +9775,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9839,140 +9809,158 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9984,7 +9972,22 @@
     <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -12798,8 +12801,8 @@
   <sheetPr/>
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -12986,12 +12989,15 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>2794</v>
       </c>
       <c r="B14" t="s">
         <v>2795</v>
+      </c>
+      <c r="M14" t="s">
+        <v>2796</v>
       </c>
     </row>
   </sheetData>
@@ -25540,7 +25546,7 @@
   <sheetPr/>
   <dimension ref="A1:Q895"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A66" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A66" workbookViewId="0">
       <selection activeCell="M84" sqref="M84"/>
     </sheetView>
   </sheetViews>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="12720" tabRatio="816" activeTab="2"/>
+    <workbookView windowWidth="19770" windowHeight="12720" tabRatio="819" firstSheet="4" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="ModText" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2870">
   <si>
     <t>English</t>
   </si>
@@ -5873,6 +5873,15 @@
   </si>
   <si>
     <t>{0}が使用しました。</t>
+  </si>
+  <si>
+    <t>atIntro</t>
+  </si>
+  <si>
+    <t>You have the ability to stay in place.</t>
+  </si>
+  <si>
+    <t>その場にとどまる能力を手に入れた。</t>
   </si>
   <si>
     <t>gmIntroDesc</t>
@@ -9506,13 +9515,22 @@
     <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.0.5.2&lt;/size&gt;&lt;size=70%&gt;\n&lt;size=70%&gt;やっほー。清盛だよ～\n今回のアップデートの内容はこんな感じさ！\n1.誰がラバーズかがはっきりわからなかったバグを修正\n\nそれじゃーね～～～                       でこぼこの清盛&amp;麦茶&lt;/size&gt;</t>
   </si>
   <si>
+    <t>Ver.1.0.5.3</t>
+  </si>
+  <si>
+    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.0.5.3&lt;/size&gt;&lt;size=70%&gt;\nHi! I'm Kiyomori!\nThis Update Contents is...\n1.Fixed dlekS ehT Spawn Point\n2.Unification Mirror Map Setting\n\nSee you next Update~~~!                        DekoKiyo&amp;Mugicha&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.0.5.3&lt;/size&gt;&lt;size=70%&gt;\n&lt;size=70%&gt;やっほー。清盛だよ～\n今回のアップデートの内容はこんな感じさ！\n1.dlekS ehTのスポーンポイントを修正\n\n2.反転マップの設定を統一\n\nそれじゃーね～～～                       でこぼこの清盛&amp;麦茶&lt;/size&gt;</t>
+  </si>
+  <si>
     <t>release</t>
   </si>
   <si>
-    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.0.5.3&lt;/size&gt;&lt;size=70%&gt;\nHi! I'm Kiyomori!\nThis Update Contents is...\n1.Fixed dlekS ehT Spawn Point\n2.Unification Mirror Map Setting\n\nSee you next Update~~~!                        DekoKiyo&amp;Mugicha&lt;/size&gt;</t>
-  </si>
-  <si>
-    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.0.5.3&lt;/size&gt;&lt;size=70%&gt;\n&lt;size=70%&gt;やっほー。清盛だよ～\n今回のアップデートの内容はこんな感じさ！\n1.dlekS ehTのスポーンポイントを修正\n\n2.反転マップの設定を統一\n\nそれじゃーね～～～                       でこぼこの清盛&amp;麦茶&lt;/size&gt;</t>
+    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.1.0&lt;/size&gt;\n&lt;size=70%&gt;Please Read Github&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.1.0&lt;/size&gt;\n&lt;size=70%&gt;Githubのページを読んでください&lt;/size&gt;</t>
   </si>
 </sst>
 </file>
@@ -9520,8 +9538,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -9595,28 +9613,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="游ゴシック"/>
@@ -9632,10 +9628,86 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="游ゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9656,21 +9728,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9684,56 +9749,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9760,7 +9778,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9772,7 +9808,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9784,13 +9832,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9802,79 +9856,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9892,13 +9892,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9910,25 +9928,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9940,7 +9940,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9964,21 +9982,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -9995,9 +9998,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10013,6 +10018,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10040,163 +10069,152 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11889,66 +11907,66 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>2601</v>
+        <v>2604</v>
       </c>
       <c r="B2" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="M2" t="s">
-        <v>2603</v>
+        <v>2606</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>2604</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>2608</v>
+      </c>
+      <c r="B3" t="s">
         <v>2605</v>
       </c>
-      <c r="B3" t="s">
-        <v>2602</v>
-      </c>
       <c r="M3" t="s">
-        <v>2606</v>
+        <v>2609</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>2607</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>2608</v>
+        <v>2611</v>
       </c>
       <c r="B4" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="M4" t="s">
-        <v>2609</v>
+        <v>2612</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>2610</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>2611</v>
+        <v>2614</v>
       </c>
       <c r="B5" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="M5" t="s">
-        <v>2612</v>
+        <v>2615</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>2613</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>2614</v>
+        <v>2617</v>
       </c>
       <c r="B6" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="M6" t="s">
         <v>169</v>
@@ -11959,69 +11977,69 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>2615</v>
+        <v>2618</v>
       </c>
       <c r="B7" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="M7" t="s">
-        <v>2616</v>
+        <v>2619</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>2617</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>2618</v>
+        <v>2621</v>
       </c>
       <c r="B8" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="M8" t="s">
-        <v>2619</v>
+        <v>2622</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>2620</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>2621</v>
+        <v>2624</v>
       </c>
       <c r="B9" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="M9" t="s">
-        <v>2622</v>
+        <v>2625</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>2623</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>2624</v>
+        <v>2627</v>
       </c>
       <c r="B10" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="M10" t="s">
-        <v>2625</v>
+        <v>2628</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>2626</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>2627</v>
+        <v>2630</v>
       </c>
       <c r="B11" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="M11" t="s">
-        <v>2628</v>
+        <v>2631</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>158</v>
@@ -12029,125 +12047,125 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>2629</v>
+        <v>2632</v>
       </c>
       <c r="B12" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="M12" t="s">
-        <v>2630</v>
+        <v>2633</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>2631</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>2632</v>
+        <v>2635</v>
       </c>
       <c r="B13" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="M13" t="s">
-        <v>2633</v>
+        <v>2636</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>2634</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>2635</v>
+        <v>2638</v>
       </c>
       <c r="B14" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="M14" t="s">
-        <v>2636</v>
+        <v>2639</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>2637</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>2638</v>
+        <v>2641</v>
       </c>
       <c r="B15" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="M15" t="s">
-        <v>2639</v>
+        <v>2642</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>2640</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>2641</v>
+        <v>2644</v>
       </c>
       <c r="B16" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="M16" t="s">
-        <v>2639</v>
+        <v>2642</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>2642</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>2643</v>
+        <v>2646</v>
       </c>
       <c r="B17" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="M17" t="s">
-        <v>2644</v>
+        <v>2647</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>2645</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>2646</v>
+        <v>2649</v>
       </c>
       <c r="B18" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="M18" t="s">
-        <v>2647</v>
+        <v>2650</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>2648</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>2649</v>
+        <v>2652</v>
       </c>
       <c r="B19" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="M19" t="s">
-        <v>2650</v>
+        <v>2653</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>2651</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>2652</v>
+        <v>2655</v>
       </c>
       <c r="B20" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="M20" t="s">
-        <v>2653</v>
+        <v>2656</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>467</v>
@@ -12155,259 +12173,259 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>2654</v>
+        <v>2657</v>
       </c>
       <c r="B21" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="M21" t="s">
-        <v>2655</v>
+        <v>2658</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>2656</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>2657</v>
+        <v>2660</v>
       </c>
       <c r="B22" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="M22" t="s">
-        <v>2658</v>
+        <v>2661</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>2659</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>2660</v>
+        <v>2663</v>
       </c>
       <c r="B23" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="M23" t="s">
         <v>581</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>2661</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>2662</v>
+        <v>2665</v>
       </c>
       <c r="B24" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="M24" t="s">
-        <v>2655</v>
+        <v>2658</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>2663</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>2664</v>
+        <v>2667</v>
       </c>
       <c r="B25" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="M25" t="s">
-        <v>2665</v>
+        <v>2668</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>2666</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>2667</v>
+        <v>2670</v>
       </c>
       <c r="B26" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="M26" t="s">
-        <v>2668</v>
+        <v>2671</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>2669</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>2670</v>
+        <v>2673</v>
       </c>
       <c r="B27" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="M27" t="s">
-        <v>2671</v>
+        <v>2674</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>2672</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>2673</v>
+        <v>2676</v>
       </c>
       <c r="B28" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="M28" t="s">
-        <v>2674</v>
+        <v>2677</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>2675</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>2676</v>
+        <v>2679</v>
       </c>
       <c r="B29" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="M29" t="s">
-        <v>2677</v>
+        <v>2680</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>2678</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>2679</v>
+        <v>2682</v>
       </c>
       <c r="B30" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="M30" t="s">
-        <v>2680</v>
+        <v>2683</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>2681</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>2682</v>
+        <v>2685</v>
       </c>
       <c r="B31" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="M31" t="s">
-        <v>2683</v>
+        <v>2686</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>2684</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" t="s">
-        <v>2685</v>
+        <v>2688</v>
       </c>
       <c r="B32" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="M32" t="s">
-        <v>2686</v>
+        <v>2689</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>2687</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" t="s">
-        <v>2688</v>
+        <v>2691</v>
       </c>
       <c r="B33" t="s">
-        <v>2689</v>
+        <v>2692</v>
       </c>
       <c r="M33" t="s">
-        <v>2690</v>
+        <v>2693</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>2691</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" t="s">
-        <v>2692</v>
+        <v>2695</v>
       </c>
       <c r="B34" t="s">
-        <v>2693</v>
+        <v>2696</v>
       </c>
       <c r="M34" t="s">
-        <v>2694</v>
+        <v>2697</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>2694</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" t="s">
-        <v>2695</v>
+        <v>2698</v>
       </c>
       <c r="B35" t="s">
-        <v>2696</v>
+        <v>2699</v>
       </c>
       <c r="M35" t="s">
-        <v>2697</v>
+        <v>2700</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>2698</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" t="s">
-        <v>2699</v>
+        <v>2702</v>
       </c>
       <c r="B36" t="s">
-        <v>2700</v>
+        <v>2703</v>
       </c>
       <c r="M36" t="s">
-        <v>2701</v>
+        <v>2704</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>2691</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" t="s">
-        <v>2702</v>
+        <v>2705</v>
       </c>
       <c r="B37" t="s">
-        <v>2703</v>
+        <v>2706</v>
       </c>
       <c r="M37" t="s">
-        <v>2704</v>
+        <v>2707</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>2694</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" t="s">
-        <v>2705</v>
+        <v>2708</v>
       </c>
       <c r="B38" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="M38" t="s">
-        <v>2644</v>
+        <v>2647</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>2645</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" t="s">
-        <v>2706</v>
+        <v>2709</v>
       </c>
       <c r="B39" t="s">
         <v>541</v>
@@ -12416,12 +12434,12 @@
         <v>542</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>2707</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="3" t="s">
-        <v>2708</v>
+        <v>2711</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>493</v>
@@ -12442,32 +12460,32 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>2709</v>
+        <v>2712</v>
       </c>
       <c r="B41" t="s">
-        <v>2710</v>
+        <v>2713</v>
       </c>
       <c r="M41" t="s">
-        <v>2711</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>2712</v>
+        <v>2715</v>
       </c>
       <c r="B42" t="s">
-        <v>2713</v>
+        <v>2716</v>
       </c>
       <c r="M42" t="s">
-        <v>2694</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="5" t="s">
-        <v>2714</v>
+        <v>2717</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>2715</v>
+        <v>2718</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -12480,19 +12498,19 @@
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5" t="s">
-        <v>2716</v>
+        <v>2719</v>
       </c>
       <c r="N43" s="5"/>
       <c r="O43" s="6" t="s">
-        <v>2717</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="5" t="s">
-        <v>2718</v>
+        <v>2721</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>2719</v>
+        <v>2722</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -12505,77 +12523,77 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5" t="s">
-        <v>2720</v>
+        <v>2723</v>
       </c>
       <c r="N44" s="5"/>
       <c r="O44" s="6" t="s">
-        <v>2721</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>2722</v>
+        <v>2725</v>
       </c>
       <c r="B45" t="s">
-        <v>2723</v>
+        <v>2726</v>
       </c>
       <c r="M45" t="s">
-        <v>2724</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>2725</v>
+        <v>2728</v>
       </c>
       <c r="B46" t="s">
-        <v>2726</v>
+        <v>2729</v>
       </c>
       <c r="M46" t="s">
-        <v>2727</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>2728</v>
+        <v>2731</v>
       </c>
       <c r="B47" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="M47" t="s">
-        <v>2639</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>2729</v>
+        <v>2732</v>
       </c>
       <c r="B48" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="M48" t="s">
-        <v>2730</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>2731</v>
+        <v>2734</v>
       </c>
       <c r="B49" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="M49" t="s">
-        <v>2732</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>2733</v>
+        <v>2736</v>
       </c>
       <c r="B50" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="M50" t="s">
-        <v>2734</v>
+        <v>2737</v>
       </c>
     </row>
   </sheetData>
@@ -12651,240 +12669,240 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>2735</v>
+        <v>2738</v>
       </c>
       <c r="B2" t="s">
-        <v>2736</v>
+        <v>2739</v>
       </c>
       <c r="M2" t="s">
-        <v>2737</v>
+        <v>2740</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>2738</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>2739</v>
+        <v>2742</v>
       </c>
       <c r="B3" t="s">
-        <v>2740</v>
+        <v>2743</v>
       </c>
       <c r="M3" t="s">
-        <v>2741</v>
+        <v>2744</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>2742</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>2743</v>
+        <v>2746</v>
       </c>
       <c r="B4" t="s">
-        <v>2744</v>
+        <v>2747</v>
       </c>
       <c r="M4" t="s">
-        <v>2745</v>
+        <v>2748</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>2746</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>2747</v>
+        <v>2750</v>
       </c>
       <c r="B5" t="s">
-        <v>2748</v>
+        <v>2751</v>
       </c>
       <c r="M5" t="s">
-        <v>2749</v>
+        <v>2752</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>2750</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>2751</v>
+        <v>2754</v>
       </c>
       <c r="B6" t="s">
-        <v>2752</v>
+        <v>2755</v>
       </c>
       <c r="M6" t="s">
-        <v>2753</v>
+        <v>2756</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>2754</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>2755</v>
+        <v>2758</v>
       </c>
       <c r="B7" t="s">
-        <v>2756</v>
+        <v>2759</v>
       </c>
       <c r="M7" t="s">
-        <v>2757</v>
+        <v>2760</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>2758</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>2759</v>
+        <v>2762</v>
       </c>
       <c r="B8" t="s">
-        <v>2760</v>
+        <v>2763</v>
       </c>
       <c r="M8" t="s">
-        <v>2761</v>
+        <v>2764</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>2762</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>2763</v>
+        <v>2766</v>
       </c>
       <c r="B9" t="s">
-        <v>2764</v>
+        <v>2767</v>
       </c>
       <c r="M9" t="s">
-        <v>2765</v>
+        <v>2768</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>2766</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>2767</v>
+        <v>2770</v>
       </c>
       <c r="B10" t="s">
-        <v>2768</v>
+        <v>2771</v>
       </c>
       <c r="M10" t="s">
-        <v>2769</v>
+        <v>2772</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>2770</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>2771</v>
+        <v>2774</v>
       </c>
       <c r="B11" t="s">
-        <v>2772</v>
+        <v>2775</v>
       </c>
       <c r="M11" t="s">
-        <v>2773</v>
+        <v>2776</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>2774</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>2775</v>
+        <v>2778</v>
       </c>
       <c r="B12" t="s">
-        <v>2776</v>
+        <v>2779</v>
       </c>
       <c r="M12" t="s">
-        <v>2777</v>
+        <v>2780</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>2778</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>2779</v>
+        <v>2782</v>
       </c>
       <c r="B13" t="s">
-        <v>2780</v>
+        <v>2783</v>
       </c>
       <c r="M13" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>2782</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>2783</v>
+        <v>2786</v>
       </c>
       <c r="B14" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="M14" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>2786</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>2787</v>
+        <v>2790</v>
       </c>
       <c r="B15" t="s">
-        <v>2788</v>
+        <v>2791</v>
       </c>
       <c r="M15" t="s">
-        <v>2789</v>
+        <v>2792</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>2790</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>2791</v>
+        <v>2794</v>
       </c>
       <c r="B16" t="s">
-        <v>2792</v>
+        <v>2795</v>
       </c>
       <c r="M16" t="s">
-        <v>2793</v>
+        <v>2796</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>2794</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>2795</v>
+        <v>2798</v>
       </c>
       <c r="B17" t="s">
-        <v>2796</v>
+        <v>2799</v>
       </c>
       <c r="M17" t="s">
-        <v>2797</v>
+        <v>2800</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>2798</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>2799</v>
+        <v>2802</v>
       </c>
       <c r="B18" t="s">
-        <v>2800</v>
+        <v>2803</v>
       </c>
       <c r="M18" t="s">
-        <v>2801</v>
+        <v>2804</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>2802</v>
+        <v>2805</v>
       </c>
     </row>
   </sheetData>
@@ -12961,86 +12979,86 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>2803</v>
+        <v>2806</v>
       </c>
       <c r="B2" t="s">
-        <v>2804</v>
+        <v>2807</v>
       </c>
       <c r="M2" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>2806</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>2807</v>
+        <v>2810</v>
       </c>
       <c r="B3" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="M3" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>2810</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>2811</v>
+        <v>2814</v>
       </c>
       <c r="B4" t="s">
-        <v>2812</v>
+        <v>2815</v>
       </c>
       <c r="M4" t="s">
-        <v>2813</v>
+        <v>2816</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>2814</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>2815</v>
+        <v>2818</v>
       </c>
       <c r="B5" t="s">
-        <v>2816</v>
+        <v>2819</v>
       </c>
       <c r="M5" t="s">
-        <v>2817</v>
+        <v>2820</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>2819</v>
+        <v>2822</v>
       </c>
       <c r="B6" t="s">
-        <v>2820</v>
+        <v>2823</v>
       </c>
       <c r="M6" t="s">
-        <v>2821</v>
+        <v>2824</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>2822</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>2823</v>
+        <v>2826</v>
       </c>
       <c r="B7" t="s">
-        <v>2824</v>
+        <v>2827</v>
       </c>
       <c r="M7" t="s">
-        <v>2825</v>
+        <v>2828</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>2826</v>
+        <v>2829</v>
       </c>
     </row>
   </sheetData>
@@ -13052,10 +13070,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -13112,145 +13130,156 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>2827</v>
+        <v>2830</v>
       </c>
       <c r="B2" t="s">
-        <v>2828</v>
+        <v>2831</v>
       </c>
       <c r="M2" t="s">
-        <v>2829</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>2830</v>
+        <v>2833</v>
       </c>
       <c r="B3" t="s">
-        <v>2831</v>
+        <v>2834</v>
       </c>
       <c r="M3" t="s">
-        <v>2832</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>2833</v>
+        <v>2836</v>
       </c>
       <c r="B4" t="s">
-        <v>2834</v>
+        <v>2837</v>
       </c>
       <c r="M4" t="s">
-        <v>2835</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>2836</v>
+        <v>2839</v>
       </c>
       <c r="B5" t="s">
-        <v>2837</v>
+        <v>2840</v>
       </c>
       <c r="M5" t="s">
-        <v>2838</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>2839</v>
+        <v>2842</v>
       </c>
       <c r="B6" t="s">
-        <v>2837</v>
+        <v>2840</v>
       </c>
       <c r="M6" t="s">
-        <v>2838</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>2840</v>
+        <v>2843</v>
       </c>
       <c r="B7" t="s">
-        <v>2841</v>
+        <v>2844</v>
       </c>
       <c r="M7" t="s">
-        <v>2842</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>2843</v>
+        <v>2846</v>
       </c>
       <c r="B8" t="s">
-        <v>2844</v>
+        <v>2847</v>
       </c>
       <c r="M8" t="s">
-        <v>2845</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>2846</v>
+        <v>2849</v>
       </c>
       <c r="B9" t="s">
-        <v>2847</v>
+        <v>2850</v>
       </c>
       <c r="M9" t="s">
-        <v>2848</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>2849</v>
+        <v>2852</v>
       </c>
       <c r="B10" t="s">
-        <v>2850</v>
+        <v>2853</v>
       </c>
       <c r="M10" t="s">
-        <v>2851</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>2852</v>
+        <v>2855</v>
       </c>
       <c r="B11" t="s">
-        <v>2853</v>
+        <v>2856</v>
       </c>
       <c r="M11" t="s">
-        <v>2854</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>2855</v>
+        <v>2858</v>
       </c>
       <c r="B12" t="s">
-        <v>2856</v>
+        <v>2859</v>
       </c>
       <c r="M12" t="s">
-        <v>2857</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>2858</v>
+        <v>2861</v>
       </c>
       <c r="B13" t="s">
-        <v>2859</v>
+        <v>2862</v>
       </c>
       <c r="M13" t="s">
-        <v>2860</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>2861</v>
+        <v>2864</v>
       </c>
       <c r="B14" t="s">
-        <v>2862</v>
+        <v>2865</v>
       </c>
       <c r="M14" t="s">
-        <v>2863</v>
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>2867</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2868</v>
+      </c>
+      <c r="M15" t="s">
+        <v>2869</v>
       </c>
     </row>
   </sheetData>
@@ -17687,7 +17716,7 @@
   <sheetPr/>
   <dimension ref="A1:Q904"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="G289" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="G289" workbookViewId="0">
       <selection activeCell="M305" sqref="M305"/>
     </sheetView>
   </sheetViews>
@@ -29318,8 +29347,8 @@
   <sheetPr/>
   <dimension ref="A1:Q904"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="M56" sqref="M56"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -30108,6 +30137,17 @@
         <v>1938</v>
       </c>
       <c r="O57" s="1"/>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1940</v>
+      </c>
+      <c r="M59" t="s">
+        <v>1941</v>
+      </c>
     </row>
     <row r="60" spans="15:15">
       <c r="O60" s="1"/>
@@ -32698,7 +32738,7 @@
   <sheetPr/>
   <dimension ref="A1:Q904"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B32" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A32" workbookViewId="0">
       <selection activeCell="M64" sqref="M64"/>
     </sheetView>
   </sheetViews>
@@ -32762,10 +32802,10 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="5" t="s">
-        <v>1939</v>
+        <v>1942</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1940</v>
+        <v>1943</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -32778,34 +32818,34 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5" t="s">
-        <v>1941</v>
+        <v>1944</v>
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="6" t="s">
-        <v>1942</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="5" t="s">
-        <v>1943</v>
+        <v>1946</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1944</v>
+        <v>1947</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>1945</v>
+        <v>1948</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="6" t="s">
-        <v>1946</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="5" t="s">
-        <v>1947</v>
+        <v>1950</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1948</v>
+        <v>1951</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -32818,19 +32858,19 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5" t="s">
-        <v>1949</v>
+        <v>1952</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="6" t="s">
-        <v>1950</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="5" t="s">
-        <v>1951</v>
+        <v>1954</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1952</v>
+        <v>1955</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -32843,19 +32883,19 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5" t="s">
-        <v>1953</v>
+        <v>1956</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="6" t="s">
-        <v>1954</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="5" t="s">
-        <v>1955</v>
+        <v>1958</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1956</v>
+        <v>1959</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -32868,19 +32908,19 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5" t="s">
-        <v>1957</v>
+        <v>1960</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="6" t="s">
-        <v>1958</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="5" t="s">
-        <v>1959</v>
+        <v>1962</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1960</v>
+        <v>1963</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -32893,19 +32933,19 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5" t="s">
-        <v>1961</v>
+        <v>1964</v>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="6" t="s">
-        <v>1962</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="5" t="s">
-        <v>1963</v>
+        <v>1966</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1964</v>
+        <v>1967</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -32918,19 +32958,19 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5" t="s">
-        <v>1965</v>
+        <v>1968</v>
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="6" t="s">
-        <v>1966</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="14" t="s">
-        <v>1967</v>
+        <v>1970</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>1968</v>
+        <v>1971</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -32943,19 +32983,19 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4" t="s">
-        <v>1969</v>
+        <v>1972</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4" t="s">
-        <v>1970</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="5" t="s">
-        <v>1971</v>
+        <v>1974</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1972</v>
+        <v>1975</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -32968,19 +33008,19 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5" t="s">
-        <v>1973</v>
+        <v>1976</v>
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="6" t="s">
-        <v>1974</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="5" t="s">
-        <v>1975</v>
+        <v>1978</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1976</v>
+        <v>1979</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -32993,19 +33033,19 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5" t="s">
-        <v>1977</v>
+        <v>1980</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="6" t="s">
-        <v>1978</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="5" t="s">
-        <v>1979</v>
+        <v>1982</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1980</v>
+        <v>1983</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -33018,19 +33058,19 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5" t="s">
-        <v>1981</v>
+        <v>1984</v>
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="6" t="s">
-        <v>1982</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="5" t="s">
-        <v>1983</v>
+        <v>1986</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1984</v>
+        <v>1987</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -33043,19 +33083,19 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5" t="s">
-        <v>1985</v>
+        <v>1988</v>
       </c>
       <c r="N13" s="5"/>
       <c r="O13" s="6" t="s">
-        <v>1986</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="5" t="s">
-        <v>1987</v>
+        <v>1990</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1988</v>
+        <v>1991</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -33068,19 +33108,19 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5" t="s">
-        <v>1989</v>
+        <v>1992</v>
       </c>
       <c r="N14" s="5"/>
       <c r="O14" s="6" t="s">
-        <v>1990</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="5" t="s">
-        <v>1991</v>
+        <v>1994</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1992</v>
+        <v>1995</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -33093,19 +33133,19 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5" t="s">
-        <v>1993</v>
+        <v>1996</v>
       </c>
       <c r="N15" s="5"/>
       <c r="O15" s="6" t="s">
-        <v>1994</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="5" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>1995</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>1992</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -33118,19 +33158,19 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5" t="s">
-        <v>1993</v>
+        <v>1996</v>
       </c>
       <c r="N16" s="5"/>
       <c r="O16" s="6" t="s">
-        <v>1994</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="5" t="s">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -33143,19 +33183,19 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5" t="s">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="N17" s="5"/>
       <c r="O17" s="6" t="s">
-        <v>1999</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="5" t="s">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -33168,19 +33208,19 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5" t="s">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="N18" s="5"/>
       <c r="O18" s="6" t="s">
-        <v>2003</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="5" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>2004</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>2001</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -33193,19 +33233,19 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5" t="s">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="N19" s="5"/>
       <c r="O19" s="6" t="s">
-        <v>2003</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="5" t="s">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -33218,19 +33258,19 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5" t="s">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="N20" s="5"/>
       <c r="O20" s="6" t="s">
-        <v>2008</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="5" t="s">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -33243,16 +33283,16 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5" t="s">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="5" t="s">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -33265,19 +33305,19 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5" t="s">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="N22" s="5"/>
       <c r="O22" s="6" t="s">
-        <v>2015</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="5" t="s">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -33290,7 +33330,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5" t="s">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="N23" s="5"/>
       <c r="O23" s="6" t="s">
@@ -33299,10 +33339,10 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="5" t="s">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -33315,19 +33355,19 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5" t="s">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="N24" s="5"/>
       <c r="O24" s="6" t="s">
-        <v>2022</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="5" t="s">
-        <v>2023</v>
+        <v>2026</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>2024</v>
+        <v>2027</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -33340,19 +33380,19 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5" t="s">
-        <v>2025</v>
+        <v>2028</v>
       </c>
       <c r="N25" s="5"/>
       <c r="O25" s="6" t="s">
-        <v>2026</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="5" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>2027</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>2024</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -33365,19 +33405,19 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5" t="s">
-        <v>2028</v>
+        <v>2031</v>
       </c>
       <c r="N26" s="5"/>
       <c r="O26" s="6" t="s">
-        <v>2026</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="5" t="s">
-        <v>2029</v>
+        <v>2032</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>2030</v>
+        <v>2033</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -33390,19 +33430,19 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5" t="s">
-        <v>2031</v>
+        <v>2034</v>
       </c>
       <c r="N27" s="5"/>
       <c r="O27" s="6" t="s">
-        <v>2032</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="5" t="s">
-        <v>2033</v>
+        <v>2036</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>2034</v>
+        <v>2037</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -33415,19 +33455,19 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5" t="s">
-        <v>2035</v>
+        <v>2038</v>
       </c>
       <c r="N28" s="5"/>
       <c r="O28" s="6" t="s">
-        <v>2036</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="5" t="s">
-        <v>2037</v>
+        <v>2040</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>2038</v>
+        <v>2041</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -33440,19 +33480,19 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5" t="s">
-        <v>2039</v>
+        <v>2042</v>
       </c>
       <c r="N29" s="5"/>
       <c r="O29" s="6" t="s">
-        <v>2040</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="5" t="s">
-        <v>2041</v>
+        <v>2044</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>2042</v>
+        <v>2045</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -33465,19 +33505,19 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5" t="s">
-        <v>2043</v>
+        <v>2046</v>
       </c>
       <c r="N30" s="5"/>
       <c r="O30" s="6" t="s">
-        <v>2044</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="5" t="s">
-        <v>2045</v>
+        <v>2048</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>2046</v>
+        <v>2049</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -33490,19 +33530,19 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5" t="s">
-        <v>2047</v>
+        <v>2050</v>
       </c>
       <c r="N31" s="5"/>
       <c r="O31" s="6" t="s">
-        <v>2048</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="5" t="s">
-        <v>2049</v>
+        <v>2052</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>2050</v>
+        <v>2053</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -33515,19 +33555,19 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5" t="s">
-        <v>2051</v>
+        <v>2054</v>
       </c>
       <c r="N32" s="5"/>
       <c r="O32" s="6" t="s">
-        <v>2052</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="5" t="s">
-        <v>2053</v>
+        <v>2056</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>2054</v>
+        <v>2057</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -33540,19 +33580,19 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5" t="s">
-        <v>2055</v>
+        <v>2058</v>
       </c>
       <c r="N33" s="5"/>
       <c r="O33" s="6" t="s">
-        <v>2056</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="5" t="s">
-        <v>2057</v>
+        <v>2060</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>2058</v>
+        <v>2061</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -33565,19 +33605,19 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5" t="s">
-        <v>2059</v>
+        <v>2062</v>
       </c>
       <c r="N34" s="5"/>
       <c r="O34" s="6" t="s">
-        <v>2060</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="5" t="s">
-        <v>2061</v>
+        <v>2064</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>2062</v>
+        <v>2065</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -33590,19 +33630,19 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5" t="s">
-        <v>2063</v>
+        <v>2066</v>
       </c>
       <c r="N35" s="5"/>
       <c r="O35" s="6" t="s">
-        <v>2064</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="5" t="s">
-        <v>2065</v>
+        <v>2068</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>2066</v>
+        <v>2069</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -33615,19 +33655,19 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5" t="s">
-        <v>2067</v>
+        <v>2070</v>
       </c>
       <c r="N36" s="5"/>
       <c r="O36" s="6" t="s">
-        <v>2068</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="5" t="s">
-        <v>2069</v>
+        <v>2072</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>2070</v>
+        <v>2073</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -33640,19 +33680,19 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5" t="s">
-        <v>2071</v>
+        <v>2074</v>
       </c>
       <c r="N37" s="5"/>
       <c r="O37" s="6" t="s">
-        <v>2072</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="5" t="s">
-        <v>2073</v>
+        <v>2076</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>2074</v>
+        <v>2077</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -33665,19 +33705,19 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5" t="s">
-        <v>2075</v>
+        <v>2078</v>
       </c>
       <c r="N38" s="5"/>
       <c r="O38" s="6" t="s">
-        <v>2076</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="5" t="s">
-        <v>2077</v>
+        <v>2080</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>2078</v>
+        <v>2081</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -33690,19 +33730,19 @@
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5" t="s">
-        <v>2079</v>
+        <v>2082</v>
       </c>
       <c r="N39" s="5"/>
       <c r="O39" s="6" t="s">
-        <v>2080</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="5" t="s">
-        <v>2081</v>
+        <v>2084</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>2082</v>
+        <v>2085</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -33715,19 +33755,19 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5" t="s">
-        <v>2083</v>
+        <v>2086</v>
       </c>
       <c r="N40" s="5"/>
       <c r="O40" s="6" t="s">
-        <v>2084</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="5" t="s">
-        <v>2085</v>
+        <v>2088</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>2086</v>
+        <v>2089</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -33740,19 +33780,19 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5" t="s">
-        <v>2087</v>
+        <v>2090</v>
       </c>
       <c r="N41" s="5"/>
       <c r="O41" s="6" t="s">
-        <v>2088</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="5" t="s">
-        <v>2089</v>
+        <v>2092</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>2090</v>
+        <v>2093</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -33765,19 +33805,19 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5" t="s">
-        <v>2091</v>
+        <v>2094</v>
       </c>
       <c r="N42" s="5"/>
       <c r="O42" s="6" t="s">
-        <v>2092</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="5" t="s">
-        <v>2093</v>
+        <v>2096</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>2094</v>
+        <v>2097</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -33790,19 +33830,19 @@
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5" t="s">
-        <v>2095</v>
+        <v>2098</v>
       </c>
       <c r="N43" s="5"/>
       <c r="O43" s="6" t="s">
-        <v>2096</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="5" t="s">
-        <v>2097</v>
+        <v>2100</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>2098</v>
+        <v>2101</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -33815,19 +33855,19 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5" t="s">
-        <v>2099</v>
+        <v>2102</v>
       </c>
       <c r="N44" s="5"/>
       <c r="O44" s="6" t="s">
-        <v>2100</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="5" t="s">
-        <v>2101</v>
+        <v>2104</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>2102</v>
+        <v>2105</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -33840,19 +33880,19 @@
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5" t="s">
-        <v>2103</v>
+        <v>2106</v>
       </c>
       <c r="N45" s="5"/>
       <c r="O45" s="6" t="s">
-        <v>2104</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="5" t="s">
-        <v>2105</v>
+        <v>2108</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>2106</v>
+        <v>2109</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -33865,19 +33905,19 @@
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5" t="s">
-        <v>2107</v>
+        <v>2110</v>
       </c>
       <c r="N46" s="5"/>
       <c r="O46" s="6" t="s">
-        <v>2108</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="5" t="s">
-        <v>2109</v>
+        <v>2112</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>2110</v>
+        <v>2113</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -33890,19 +33930,19 @@
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="5" t="s">
-        <v>2111</v>
+        <v>2114</v>
       </c>
       <c r="N47" s="5"/>
       <c r="O47" s="6" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="5" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -33915,19 +33955,19 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="N48" s="5"/>
       <c r="O48" s="6" t="s">
-        <v>2116</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="5" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -33940,19 +33980,19 @@
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
       <c r="M49" s="5" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="N49" s="5"/>
       <c r="O49" s="6" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="5" t="s">
-        <v>2121</v>
+        <v>2124</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -33965,19 +34005,19 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
       <c r="M50" s="5" t="s">
-        <v>2123</v>
+        <v>2126</v>
       </c>
       <c r="N50" s="5"/>
       <c r="O50" s="6" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="5" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>2126</v>
+        <v>2129</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -33990,19 +34030,19 @@
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="N51" s="5"/>
       <c r="O51" s="6" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="5" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>2130</v>
+        <v>2133</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -34015,19 +34055,19 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
       <c r="M52" s="5" t="s">
-        <v>2131</v>
+        <v>2134</v>
       </c>
       <c r="N52" s="5"/>
       <c r="O52" s="6" t="s">
-        <v>2132</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="5" t="s">
-        <v>2133</v>
+        <v>2136</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>2134</v>
+        <v>2137</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -34040,19 +34080,19 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
       <c r="M53" s="5" t="s">
-        <v>2135</v>
+        <v>2138</v>
       </c>
       <c r="N53" s="5"/>
       <c r="O53" s="6" t="s">
-        <v>2136</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="5" t="s">
-        <v>2137</v>
+        <v>2140</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>2138</v>
+        <v>2141</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -34065,19 +34105,19 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
       <c r="M54" s="5" t="s">
-        <v>2139</v>
+        <v>2142</v>
       </c>
       <c r="N54" s="5"/>
       <c r="O54" s="6" t="s">
-        <v>2140</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="5" t="s">
-        <v>2141</v>
+        <v>2144</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>2142</v>
+        <v>2145</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -34090,19 +34130,19 @@
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
       <c r="M55" s="5" t="s">
-        <v>2143</v>
+        <v>2146</v>
       </c>
       <c r="N55" s="5"/>
       <c r="O55" s="20" t="s">
-        <v>2144</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="5" t="s">
-        <v>2145</v>
+        <v>2148</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>2146</v>
+        <v>2149</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -34115,19 +34155,19 @@
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
       <c r="M56" s="5" t="s">
-        <v>2147</v>
+        <v>2150</v>
       </c>
       <c r="N56" s="5"/>
       <c r="O56" s="20" t="s">
-        <v>2148</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="5" t="s">
-        <v>2149</v>
+        <v>2152</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>2150</v>
+        <v>2153</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -34140,19 +34180,19 @@
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
       <c r="M57" s="5" t="s">
-        <v>2151</v>
+        <v>2154</v>
       </c>
       <c r="N57" s="5"/>
       <c r="O57" s="6" t="s">
-        <v>2152</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="5" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>2153</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>2150</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -34165,30 +34205,30 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
       <c r="M58" s="5" t="s">
-        <v>2151</v>
+        <v>2154</v>
       </c>
       <c r="N58" s="5"/>
       <c r="O58" s="6" t="s">
-        <v>2152</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>2154</v>
+        <v>2157</v>
       </c>
       <c r="B59" t="s">
-        <v>2155</v>
+        <v>2158</v>
       </c>
       <c r="M59" t="s">
-        <v>2156</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="5" t="s">
-        <v>2157</v>
+        <v>2160</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>2158</v>
+        <v>2161</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -34201,19 +34241,19 @@
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
       <c r="M60" s="5" t="s">
-        <v>2159</v>
+        <v>2162</v>
       </c>
       <c r="N60" s="5"/>
       <c r="O60" s="20" t="s">
-        <v>2160</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="5" t="s">
-        <v>2161</v>
+        <v>2164</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>2162</v>
+        <v>2165</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -34226,19 +34266,19 @@
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
       <c r="M61" s="5" t="s">
-        <v>2163</v>
+        <v>2166</v>
       </c>
       <c r="N61" s="5"/>
       <c r="O61" s="20" t="s">
-        <v>2164</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="5" t="s">
-        <v>2165</v>
+        <v>2168</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>2166</v>
+        <v>2169</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -34251,33 +34291,33 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
       <c r="M62" s="5" t="s">
-        <v>2167</v>
+        <v>2170</v>
       </c>
       <c r="N62" s="5"/>
       <c r="O62" s="5" t="s">
-        <v>2168</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>2169</v>
+        <v>2172</v>
       </c>
       <c r="B63" t="s">
-        <v>2170</v>
+        <v>2173</v>
       </c>
       <c r="M63" t="s">
-        <v>2171</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" t="s">
-        <v>2172</v>
+        <v>2175</v>
       </c>
       <c r="B64" t="s">
-        <v>2173</v>
+        <v>2176</v>
       </c>
       <c r="M64" t="s">
-        <v>2174</v>
+        <v>2177</v>
       </c>
       <c r="O64" s="1"/>
     </row>
@@ -36922,10 +36962,10 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="5" t="s">
-        <v>2175</v>
+        <v>2178</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1940</v>
+        <v>1943</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -36938,19 +36978,19 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5" t="s">
-        <v>1941</v>
+        <v>1944</v>
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="6" t="s">
-        <v>1942</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="5" t="s">
-        <v>2176</v>
+        <v>2179</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1944</v>
+        <v>1947</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -36963,19 +37003,19 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5" t="s">
-        <v>1945</v>
+        <v>1948</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="6" t="s">
-        <v>1946</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="5" t="s">
-        <v>2177</v>
+        <v>2180</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1944</v>
+        <v>1947</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -36988,19 +37028,19 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5" t="s">
-        <v>1945</v>
+        <v>1948</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="6" t="s">
-        <v>1946</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="5" t="s">
-        <v>2178</v>
+        <v>2181</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>2179</v>
+        <v>2182</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -37013,61 +37053,61 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5" t="s">
-        <v>2180</v>
+        <v>2183</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="6" t="s">
-        <v>2181</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="6" s="5" customFormat="1" spans="1:15">
       <c r="A6" s="5" t="s">
-        <v>2182</v>
+        <v>2185</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>2183</v>
+        <v>2186</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>2184</v>
+        <v>2187</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>2185</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="7" s="5" customFormat="1" spans="1:15">
       <c r="A7" s="5" t="s">
-        <v>2186</v>
+        <v>2189</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>2187</v>
+        <v>2190</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>1961</v>
+        <v>1964</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>2188</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="8" s="5" customFormat="1" spans="1:15">
       <c r="A8" s="5" t="s">
-        <v>2189</v>
+        <v>2192</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>2190</v>
+        <v>2193</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>1965</v>
+        <v>1968</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>2191</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="9" s="5" customFormat="1" spans="1:15">
       <c r="A9" s="14" t="s">
-        <v>2192</v>
+        <v>2195</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>2193</v>
+        <v>2196</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -37080,769 +37120,769 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4" t="s">
-        <v>2194</v>
+        <v>2197</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4" t="s">
-        <v>1970</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="10" s="5" customFormat="1" spans="1:15">
       <c r="A10" s="5" t="s">
-        <v>2195</v>
+        <v>2198</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>2196</v>
+        <v>2199</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>1973</v>
+        <v>1976</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>2197</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="11" s="5" customFormat="1" spans="1:15">
       <c r="A11" s="5" t="s">
-        <v>2198</v>
+        <v>2201</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>2199</v>
+        <v>2202</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>2200</v>
+        <v>2203</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>2201</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="12" s="5" customFormat="1" spans="1:15">
       <c r="A12" s="5" t="s">
-        <v>2202</v>
+        <v>2205</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>2203</v>
+        <v>2206</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>2180</v>
+        <v>2183</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>2204</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="13" s="5" customFormat="1" spans="1:15">
       <c r="A13" s="5" t="s">
-        <v>2205</v>
+        <v>2208</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>2206</v>
+        <v>2209</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>1985</v>
+        <v>1988</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>2207</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="14" s="5" customFormat="1" spans="1:15">
       <c r="A14" s="5" t="s">
-        <v>2208</v>
+        <v>2211</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1988</v>
+        <v>1991</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>1989</v>
+        <v>1992</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>1990</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="15" s="5" customFormat="1" spans="1:15">
       <c r="A15" s="5" t="s">
-        <v>2209</v>
+        <v>2212</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>2210</v>
+        <v>2213</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>2211</v>
+        <v>2214</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>2212</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="16" s="5" customFormat="1" spans="1:15">
       <c r="A16" s="5" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>2213</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>2210</v>
-      </c>
       <c r="M16" s="5" t="s">
-        <v>2211</v>
+        <v>2214</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>2212</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="17" s="5" customFormat="1" spans="1:15">
       <c r="A17" s="5" t="s">
-        <v>2214</v>
+        <v>2217</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>1999</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="18" s="5" customFormat="1" spans="1:15">
       <c r="A18" s="5" t="s">
-        <v>2215</v>
+        <v>2218</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>2003</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="19" s="5" customFormat="1" spans="1:15">
       <c r="A19" s="5" t="s">
-        <v>2216</v>
+        <v>2219</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>2003</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="20" s="5" customFormat="1" spans="1:15">
       <c r="A20" s="5" t="s">
-        <v>2217</v>
+        <v>2220</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>2008</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="21" s="5" customFormat="1" spans="1:13">
       <c r="A21" s="5" t="s">
-        <v>2218</v>
+        <v>2221</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>2011</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="22" s="5" customFormat="1" spans="1:15">
       <c r="A22" s="5" t="s">
-        <v>2219</v>
+        <v>2222</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>2015</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="23" s="5" customFormat="1" spans="1:15">
       <c r="A23" s="5" t="s">
-        <v>2220</v>
+        <v>2223</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>2221</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="24" s="5" customFormat="1" spans="1:15">
       <c r="A24" s="5" t="s">
-        <v>2222</v>
+        <v>2225</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>2022</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="25" s="5" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A25" s="5" t="s">
-        <v>2223</v>
+        <v>2226</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>2024</v>
+        <v>2027</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>2025</v>
+        <v>2028</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>2026</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="26" s="5" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A26" s="5" t="s">
-        <v>2224</v>
+        <v>2227</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>2024</v>
+        <v>2027</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>2028</v>
+        <v>2031</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>2026</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="27" s="5" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A27" s="5" t="s">
-        <v>2225</v>
+        <v>2228</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>2030</v>
+        <v>2033</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>2031</v>
+        <v>2034</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>2032</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="28" s="5" customFormat="1" spans="1:15">
       <c r="A28" s="5" t="s">
-        <v>2226</v>
+        <v>2229</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>2227</v>
+        <v>2230</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>2035</v>
+        <v>2038</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>2228</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="29" s="5" customFormat="1" spans="1:15">
       <c r="A29" s="5" t="s">
-        <v>2229</v>
+        <v>2232</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>2230</v>
+        <v>2233</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>2231</v>
+        <v>2234</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>2232</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="30" s="5" customFormat="1" spans="1:15">
       <c r="A30" s="5" t="s">
-        <v>2233</v>
+        <v>2236</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>2042</v>
+        <v>2045</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>2043</v>
+        <v>2046</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>2044</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="31" s="5" customFormat="1" spans="1:15">
       <c r="A31" s="5" t="s">
-        <v>2234</v>
+        <v>2237</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>2235</v>
+        <v>2238</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>2236</v>
+        <v>2239</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>2237</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="32" s="5" customFormat="1" spans="1:15">
       <c r="A32" s="5" t="s">
-        <v>2238</v>
+        <v>2241</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>2239</v>
+        <v>2242</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>2240</v>
+        <v>2243</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>2241</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="33" s="5" customFormat="1" spans="1:15">
       <c r="A33" s="5" t="s">
-        <v>2242</v>
+        <v>2245</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>2243</v>
+        <v>2246</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>2244</v>
+        <v>2247</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>2245</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="34" s="5" customFormat="1" spans="1:15">
       <c r="A34" s="5" t="s">
-        <v>2246</v>
+        <v>2249</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>2247</v>
+        <v>2250</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>2248</v>
+        <v>2251</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>2249</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="35" s="5" customFormat="1" spans="1:15">
       <c r="A35" s="5" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>2250</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>2247</v>
-      </c>
       <c r="M35" s="5" t="s">
-        <v>2248</v>
+        <v>2251</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>2249</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="36" s="5" customFormat="1" spans="1:15">
       <c r="A36" s="5" t="s">
-        <v>2251</v>
+        <v>2254</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>2066</v>
+        <v>2069</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>2067</v>
+        <v>2070</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>2068</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="37" s="5" customFormat="1" spans="1:15">
       <c r="A37" s="5" t="s">
-        <v>2252</v>
+        <v>2255</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>2253</v>
+        <v>2256</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>2254</v>
+        <v>2257</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>2255</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="38" s="5" customFormat="1" spans="1:15">
       <c r="A38" s="5" t="s">
-        <v>2256</v>
+        <v>2259</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>2257</v>
+        <v>2260</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>2258</v>
+        <v>2261</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>2259</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="39" s="5" customFormat="1" spans="1:15">
       <c r="A39" s="5" t="s">
-        <v>2260</v>
+        <v>2263</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>2261</v>
+        <v>2264</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>2262</v>
+        <v>2265</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>2263</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="40" s="5" customFormat="1" spans="1:15">
       <c r="A40" s="5" t="s">
-        <v>2264</v>
+        <v>2267</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>2265</v>
+        <v>2268</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>2266</v>
+        <v>2269</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>2267</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="41" s="5" customFormat="1" spans="1:15">
       <c r="A41" s="5" t="s">
-        <v>2268</v>
+        <v>2271</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>2086</v>
+        <v>2089</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>2269</v>
+        <v>2272</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>2088</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="42" s="5" customFormat="1" spans="1:15">
       <c r="A42" s="5" t="s">
-        <v>2270</v>
+        <v>2273</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>2090</v>
+        <v>2093</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>2091</v>
+        <v>2094</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>2092</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="43" s="5" customFormat="1" spans="1:15">
       <c r="A43" s="5" t="s">
-        <v>2271</v>
+        <v>2274</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>2272</v>
+        <v>2275</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>2273</v>
+        <v>2276</v>
       </c>
       <c r="O43" s="6" t="s">
-        <v>2274</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="44" s="5" customFormat="1" spans="1:15">
       <c r="A44" s="5" t="s">
-        <v>2275</v>
+        <v>2278</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>2098</v>
+        <v>2101</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>2099</v>
+        <v>2102</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>2100</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="45" s="5" customFormat="1" spans="1:15">
       <c r="A45" s="5" t="s">
-        <v>2276</v>
+        <v>2279</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>2277</v>
+        <v>2280</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>2103</v>
+        <v>2106</v>
       </c>
       <c r="O45" s="6" t="s">
-        <v>2278</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="46" s="5" customFormat="1" spans="1:15">
       <c r="A46" s="5" t="s">
-        <v>2279</v>
+        <v>2282</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>2280</v>
+        <v>2283</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>2281</v>
+        <v>2284</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>2282</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="47" s="5" customFormat="1" spans="1:15">
       <c r="A47" s="5" t="s">
-        <v>2283</v>
+        <v>2286</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>2110</v>
+        <v>2113</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>2111</v>
+        <v>2114</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="48" s="5" customFormat="1" spans="1:15">
       <c r="A48" s="5" t="s">
-        <v>2284</v>
+        <v>2287</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>2116</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="49" s="5" customFormat="1" spans="1:15">
       <c r="A49" s="5" t="s">
-        <v>2285</v>
+        <v>2288</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="O49" s="6" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="50" s="5" customFormat="1" spans="1:15">
       <c r="A50" s="5" t="s">
-        <v>2286</v>
+        <v>2289</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>2123</v>
+        <v>2126</v>
       </c>
       <c r="O50" s="6" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="51" s="5" customFormat="1" spans="1:15">
       <c r="A51" s="5" t="s">
-        <v>2287</v>
+        <v>2290</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>2126</v>
+        <v>2129</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>2288</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="52" s="5" customFormat="1" spans="1:15">
       <c r="A52" s="5" t="s">
-        <v>2289</v>
+        <v>2292</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>2130</v>
+        <v>2133</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>2131</v>
+        <v>2134</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>2132</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="53" s="5" customFormat="1" spans="1:15">
       <c r="A53" s="5" t="s">
-        <v>2290</v>
+        <v>2293</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>2134</v>
+        <v>2137</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>2135</v>
+        <v>2138</v>
       </c>
       <c r="O53" s="6" t="s">
-        <v>2136</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="54" s="5" customFormat="1" spans="1:15">
       <c r="A54" s="5" t="s">
-        <v>2291</v>
+        <v>2294</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>2138</v>
+        <v>2141</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>2139</v>
+        <v>2142</v>
       </c>
       <c r="O54" s="6" t="s">
-        <v>2140</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="55" s="5" customFormat="1" spans="1:15">
       <c r="A55" s="5" t="s">
-        <v>2292</v>
+        <v>2295</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>2142</v>
+        <v>2145</v>
       </c>
       <c r="M55" s="5" t="s">
-        <v>2143</v>
+        <v>2146</v>
       </c>
       <c r="O55" s="20" t="s">
-        <v>2144</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="56" s="5" customFormat="1" spans="1:15">
       <c r="A56" s="5" t="s">
-        <v>2293</v>
+        <v>2296</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>2146</v>
+        <v>2149</v>
       </c>
       <c r="M56" s="5" t="s">
-        <v>2147</v>
+        <v>2150</v>
       </c>
       <c r="O56" s="20" t="s">
-        <v>2148</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="57" s="5" customFormat="1" spans="1:15">
       <c r="A57" s="5" t="s">
-        <v>2294</v>
+        <v>2297</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>2150</v>
+        <v>2153</v>
       </c>
       <c r="M57" s="5" t="s">
-        <v>2151</v>
+        <v>2154</v>
       </c>
       <c r="O57" s="6" t="s">
-        <v>2152</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="58" s="5" customFormat="1" spans="1:15">
       <c r="A58" s="5" t="s">
-        <v>2295</v>
+        <v>2298</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>2150</v>
+        <v>2153</v>
       </c>
       <c r="M58" s="5" t="s">
-        <v>2151</v>
+        <v>2154</v>
       </c>
       <c r="O58" s="6" t="s">
-        <v>2152</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="59" s="5" customFormat="1" spans="1:13">
       <c r="A59" s="5" t="s">
-        <v>2296</v>
+        <v>2299</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>2155</v>
+        <v>2158</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>2156</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="60" s="5" customFormat="1" spans="1:15">
       <c r="A60" s="5" t="s">
-        <v>2297</v>
+        <v>2300</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>2158</v>
+        <v>2161</v>
       </c>
       <c r="M60" s="5" t="s">
-        <v>2159</v>
+        <v>2162</v>
       </c>
       <c r="O60" s="20" t="s">
-        <v>2160</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="61" s="5" customFormat="1" spans="1:15">
       <c r="A61" s="5" t="s">
-        <v>2298</v>
+        <v>2301</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>2299</v>
+        <v>2302</v>
       </c>
       <c r="M61" s="5" t="s">
-        <v>2300</v>
+        <v>2303</v>
       </c>
       <c r="O61" s="20" t="s">
-        <v>2164</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="62" s="5" customFormat="1" spans="1:15">
       <c r="A62" s="5" t="s">
-        <v>2301</v>
+        <v>2304</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>2166</v>
+        <v>2169</v>
       </c>
       <c r="M62" s="5" t="s">
-        <v>2167</v>
+        <v>2170</v>
       </c>
       <c r="O62" s="5" t="s">
-        <v>2302</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>2303</v>
+        <v>2306</v>
       </c>
       <c r="B63" t="s">
-        <v>2170</v>
+        <v>2173</v>
       </c>
       <c r="M63" t="s">
-        <v>2171</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>2304</v>
+        <v>2307</v>
       </c>
       <c r="B64" t="s">
-        <v>2173</v>
+        <v>2176</v>
       </c>
       <c r="M64" t="s">
-        <v>2305</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="66" spans="15:15">
@@ -40483,618 +40523,618 @@
     </row>
     <row r="2" ht="56.25" spans="1:15">
       <c r="A2" t="s">
-        <v>2306</v>
+        <v>2309</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>2307</v>
+        <v>2310</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>2308</v>
+        <v>2311</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>2309</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="3" ht="56.25" spans="1:15">
       <c r="A3" t="s">
-        <v>2310</v>
+        <v>2313</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>2312</v>
+        <v>2315</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>2313</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="4" ht="93.75" spans="1:15">
       <c r="A4" t="s">
-        <v>2314</v>
+        <v>2317</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>2315</v>
+        <v>2318</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>2316</v>
+        <v>2319</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>2317</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="5" ht="75" spans="1:15">
       <c r="A5" t="s">
-        <v>2318</v>
+        <v>2321</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2319</v>
+        <v>2322</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>2320</v>
+        <v>2323</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>2321</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="6" ht="56.25" spans="1:15">
       <c r="A6" t="s">
-        <v>2322</v>
+        <v>2325</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>2323</v>
+        <v>2326</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>2324</v>
+        <v>2327</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>2325</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="7" ht="112.5" spans="1:15">
       <c r="A7" t="s">
-        <v>2326</v>
+        <v>2329</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>2327</v>
+        <v>2330</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>2328</v>
+        <v>2331</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>2329</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="8" ht="168.75" spans="1:15">
       <c r="A8" t="s">
-        <v>2330</v>
+        <v>2333</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>2331</v>
+        <v>2334</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>2332</v>
+        <v>2335</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>2333</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="9" ht="150" spans="1:15">
       <c r="A9" t="s">
-        <v>2334</v>
+        <v>2337</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>2335</v>
+        <v>2338</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>2336</v>
+        <v>2339</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>2337</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="10" ht="37.5" spans="1:15">
       <c r="A10" t="s">
-        <v>2338</v>
+        <v>2341</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>2339</v>
+        <v>2342</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>2340</v>
+        <v>2343</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>2341</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="11" ht="56.25" spans="1:15">
       <c r="A11" t="s">
-        <v>2342</v>
+        <v>2345</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>2343</v>
+        <v>2346</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>2344</v>
+        <v>2347</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>2345</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="12" ht="112.5" spans="1:15">
       <c r="A12" t="s">
-        <v>2346</v>
+        <v>2349</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>2347</v>
+        <v>2350</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>2348</v>
+        <v>2351</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>2349</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="13" ht="409.5" spans="1:15">
       <c r="A13" t="s">
-        <v>2350</v>
+        <v>2353</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>2351</v>
+        <v>2354</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>2352</v>
+        <v>2355</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>2353</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="14" ht="131.25" spans="1:15">
       <c r="A14" t="s">
-        <v>2354</v>
+        <v>2357</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>2355</v>
+        <v>2358</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>2356</v>
+        <v>2359</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>2357</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="15" ht="56.25" spans="1:15">
       <c r="A15" t="s">
-        <v>2358</v>
+        <v>2361</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>2359</v>
+        <v>2362</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>2360</v>
+        <v>2363</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>2361</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="16" ht="150" spans="1:15">
       <c r="A16" t="s">
-        <v>2362</v>
+        <v>2365</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>2363</v>
+        <v>2366</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>2364</v>
+        <v>2367</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>2365</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="17" ht="131.25" spans="1:15">
       <c r="A17" t="s">
-        <v>2366</v>
+        <v>2369</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>2367</v>
+        <v>2370</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>2368</v>
+        <v>2371</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>2369</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="18" ht="206.25" spans="1:15">
       <c r="A18" t="s">
-        <v>2370</v>
+        <v>2373</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>2371</v>
+        <v>2374</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>2372</v>
+        <v>2375</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>2373</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="19" ht="131.25" spans="1:15">
       <c r="A19" t="s">
-        <v>2374</v>
+        <v>2377</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>2375</v>
+        <v>2378</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>2376</v>
+        <v>2379</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>2377</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="20" ht="187.5" spans="1:15">
       <c r="A20" t="s">
-        <v>2378</v>
+        <v>2381</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>2379</v>
+        <v>2382</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>2380</v>
+        <v>2383</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>2381</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="21" ht="225" spans="1:15">
       <c r="A21" t="s">
-        <v>2382</v>
+        <v>2385</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>2383</v>
+        <v>2386</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>2384</v>
+        <v>2387</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>2385</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="22" ht="75" spans="1:15">
       <c r="A22" t="s">
-        <v>2386</v>
+        <v>2389</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>2387</v>
+        <v>2390</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>2388</v>
+        <v>2391</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>2389</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="23" ht="112.5" spans="1:15">
       <c r="A23" t="s">
-        <v>2390</v>
+        <v>2393</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>2391</v>
+        <v>2394</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>2392</v>
+        <v>2395</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>2393</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="24" ht="93.75" spans="1:15">
       <c r="A24" t="s">
-        <v>2394</v>
+        <v>2397</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>2395</v>
+        <v>2398</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>2396</v>
+        <v>2399</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>2397</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="25" ht="131.25" spans="1:15">
       <c r="A25" t="s">
-        <v>2398</v>
+        <v>2401</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>2399</v>
+        <v>2402</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>2400</v>
+        <v>2403</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>2401</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="26" ht="150" spans="1:15">
       <c r="A26" t="s">
-        <v>2402</v>
+        <v>2405</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>2403</v>
+        <v>2406</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>2404</v>
+        <v>2407</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>2405</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="27" ht="93.75" spans="1:15">
       <c r="A27" t="s">
-        <v>2406</v>
+        <v>2409</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>2407</v>
+        <v>2410</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>2408</v>
+        <v>2411</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>2409</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="28" ht="93.75" spans="1:15">
       <c r="A28" t="s">
-        <v>2410</v>
+        <v>2413</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>2411</v>
+        <v>2414</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>2412</v>
+        <v>2415</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>2413</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="29" ht="206.25" spans="1:15">
       <c r="A29" t="s">
-        <v>2414</v>
+        <v>2417</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>2415</v>
+        <v>2418</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>2416</v>
+        <v>2419</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>2417</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="30" ht="75" spans="1:15">
       <c r="A30" t="s">
-        <v>2418</v>
+        <v>2421</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>2419</v>
+        <v>2422</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>2420</v>
+        <v>2423</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>2421</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="31" ht="168.75" spans="1:15">
       <c r="A31" t="s">
-        <v>2422</v>
+        <v>2425</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>2423</v>
+        <v>2426</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>2424</v>
+        <v>2427</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>2425</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="32" ht="262.5" spans="1:15">
       <c r="A32" t="s">
-        <v>2426</v>
+        <v>2429</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>2427</v>
+        <v>2430</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>2428</v>
+        <v>2431</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>2429</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="33" ht="112.5" spans="1:15">
       <c r="A33" t="s">
-        <v>2430</v>
+        <v>2433</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>2431</v>
+        <v>2434</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>2432</v>
+        <v>2435</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>2433</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="34" ht="150" spans="1:15">
       <c r="A34" t="s">
-        <v>2434</v>
+        <v>2437</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>2435</v>
+        <v>2438</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>2436</v>
+        <v>2439</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>2437</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="35" ht="150" spans="1:15">
       <c r="A35" t="s">
+        <v>2441</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>2438</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>2435</v>
-      </c>
       <c r="M35" s="7" t="s">
-        <v>2436</v>
+        <v>2439</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>2437</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="36" ht="93.75" spans="1:15">
       <c r="A36" t="s">
-        <v>2439</v>
+        <v>2442</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>2440</v>
+        <v>2443</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>2441</v>
+        <v>2444</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>2442</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="37" ht="56.25" spans="1:15">
       <c r="A37" t="s">
-        <v>2443</v>
+        <v>2446</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>2444</v>
+        <v>2447</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>2445</v>
+        <v>2448</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>2446</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" t="s">
-        <v>2447</v>
+        <v>2450</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>2448</v>
+        <v>2451</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>2449</v>
+        <v>2452</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>2450</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" t="s">
-        <v>2451</v>
+        <v>2454</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>2452</v>
+        <v>2455</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>2453</v>
+        <v>2456</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>2454</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="40" ht="262.5" spans="1:15">
       <c r="A40" t="s">
-        <v>2455</v>
+        <v>2458</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>2456</v>
+        <v>2459</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>2457</v>
+        <v>2460</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>2458</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="41" ht="112.5" spans="1:15">
       <c r="A41" t="s">
-        <v>2459</v>
+        <v>2462</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>2460</v>
+        <v>2463</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>2461</v>
+        <v>2464</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>2462</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="42" ht="93.75" spans="1:15">
       <c r="A42" t="s">
-        <v>2463</v>
+        <v>2466</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>2464</v>
+        <v>2467</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>2465</v>
+        <v>2468</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>2466</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="43" ht="93.75" spans="1:15">
       <c r="A43" t="s">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>2468</v>
+        <v>2471</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>2469</v>
+        <v>2472</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>2470</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="44" ht="187.5" spans="1:15">
       <c r="A44" t="s">
-        <v>2471</v>
+        <v>2474</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>2472</v>
+        <v>2475</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>2473</v>
+        <v>2476</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>2474</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="45" ht="56.25" spans="1:15">
       <c r="A45" t="s">
-        <v>2475</v>
+        <v>2478</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>2476</v>
+        <v>2479</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>2477</v>
+        <v>2480</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>2478</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="46" spans="2:15">
@@ -41104,38 +41144,38 @@
     </row>
     <row r="47" ht="75" spans="1:15">
       <c r="A47" t="s">
-        <v>2479</v>
+        <v>2482</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>2387</v>
+        <v>2390</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>2480</v>
+        <v>2483</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>2389</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="48" ht="112.5" spans="1:15">
       <c r="A48" t="s">
-        <v>2481</v>
+        <v>2484</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>2482</v>
+        <v>2485</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>2483</v>
+        <v>2486</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>2484</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="49" ht="75" customHeight="1" spans="1:15">
       <c r="A49" s="8" t="s">
-        <v>2485</v>
+        <v>2488</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>2486</v>
+        <v>2489</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -41148,19 +41188,19 @@
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
       <c r="M49" s="12" t="s">
-        <v>2487</v>
+        <v>2490</v>
       </c>
       <c r="N49" s="10"/>
       <c r="O49" s="12" t="s">
-        <v>2488</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="50" ht="75" customHeight="1" spans="1:13">
       <c r="A50" s="8" t="s">
-        <v>2489</v>
+        <v>2492</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -41173,217 +41213,217 @@
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="12" t="s">
-        <v>2490</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="51" s="5" customFormat="1" ht="168.75" spans="1:15">
       <c r="A51" s="5" t="s">
-        <v>2491</v>
+        <v>2494</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>2492</v>
+        <v>2495</v>
       </c>
       <c r="M51" s="11" t="s">
-        <v>2493</v>
+        <v>2496</v>
       </c>
       <c r="O51" s="6" t="s">
-        <v>2494</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="52" s="5" customFormat="1" ht="112.5" spans="1:15">
       <c r="A52" s="5" t="s">
-        <v>2495</v>
+        <v>2498</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>2496</v>
+        <v>2499</v>
       </c>
       <c r="M52" s="11" t="s">
-        <v>2497</v>
+        <v>2500</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>2498</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="53" s="5" customFormat="1" ht="168.75" spans="1:15">
       <c r="A53" s="5" t="s">
-        <v>2499</v>
+        <v>2502</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>2500</v>
+        <v>2503</v>
       </c>
       <c r="M53" s="11" t="s">
-        <v>2501</v>
+        <v>2504</v>
       </c>
       <c r="O53" s="6" t="s">
-        <v>2502</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="54" s="5" customFormat="1" ht="112.5" spans="1:15">
       <c r="A54" s="5" t="s">
-        <v>2503</v>
+        <v>2506</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>2504</v>
+        <v>2507</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>2505</v>
+        <v>2508</v>
       </c>
       <c r="O54" s="6" t="s">
-        <v>2506</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="55" s="5" customFormat="1" ht="143" customHeight="1" spans="1:15">
       <c r="A55" s="5" t="s">
-        <v>2507</v>
+        <v>2510</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>2508</v>
+        <v>2511</v>
       </c>
       <c r="M55" s="11" t="s">
-        <v>2509</v>
+        <v>2512</v>
       </c>
       <c r="O55" s="6" t="s">
-        <v>2510</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="56" s="5" customFormat="1" ht="93.75" spans="1:15">
       <c r="A56" s="5" t="s">
-        <v>2511</v>
+        <v>2514</v>
       </c>
       <c r="M56" s="11" t="s">
-        <v>2512</v>
+        <v>2515</v>
       </c>
       <c r="O56" s="6" t="s">
-        <v>2513</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="57" s="5" customFormat="1" ht="168.75" spans="1:15">
       <c r="A57" s="5" t="s">
-        <v>2514</v>
+        <v>2517</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>2515</v>
+        <v>2518</v>
       </c>
       <c r="M57" s="11" t="s">
-        <v>2516</v>
+        <v>2519</v>
       </c>
       <c r="O57" s="6" t="s">
-        <v>2517</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="58" s="5" customFormat="1" ht="168.75" spans="1:15">
       <c r="A58" s="5" t="s">
-        <v>2518</v>
+        <v>2521</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>2519</v>
+        <v>2522</v>
       </c>
       <c r="M58" s="11" t="s">
-        <v>2520</v>
+        <v>2523</v>
       </c>
       <c r="O58" s="13" t="s">
-        <v>2521</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="59" s="5" customFormat="1" ht="112.5" spans="1:15">
       <c r="A59" s="5" t="s">
-        <v>2522</v>
+        <v>2525</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>2523</v>
+        <v>2526</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>2524</v>
+        <v>2527</v>
       </c>
       <c r="O59" s="13" t="s">
-        <v>2525</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="60" s="5" customFormat="1" ht="243.75" spans="1:15">
       <c r="A60" s="5" t="s">
-        <v>2526</v>
+        <v>2529</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>2527</v>
+        <v>2530</v>
       </c>
       <c r="M60" s="11" t="s">
-        <v>2528</v>
+        <v>2531</v>
       </c>
       <c r="O60" s="13" t="s">
-        <v>2529</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="61" s="5" customFormat="1" spans="1:15">
       <c r="A61" s="5" t="s">
-        <v>2530</v>
+        <v>2533</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>2531</v>
+        <v>2534</v>
       </c>
       <c r="M61" s="11" t="s">
-        <v>2532</v>
+        <v>2535</v>
       </c>
       <c r="O61" s="6" t="s">
-        <v>2533</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="62" s="5" customFormat="1" spans="1:15">
       <c r="A62" s="5" t="s">
+        <v>2537</v>
+      </c>
+      <c r="B62" s="11" t="s">
         <v>2534</v>
       </c>
-      <c r="B62" s="11" t="s">
-        <v>2531</v>
-      </c>
       <c r="M62" s="11" t="s">
-        <v>2532</v>
+        <v>2535</v>
       </c>
       <c r="O62" s="6" t="s">
-        <v>2533</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="63" s="5" customFormat="1" ht="131.25" spans="1:13">
       <c r="A63" s="5" t="s">
-        <v>2535</v>
+        <v>2538</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="M63" s="11" t="s">
-        <v>2537</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="64" s="5" customFormat="1" spans="1:13">
       <c r="A64" s="5" t="s">
-        <v>2538</v>
+        <v>2541</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>2539</v>
+        <v>2542</v>
       </c>
       <c r="M64" s="5" t="s">
-        <v>2540</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="65" ht="93.75" spans="1:15">
       <c r="A65" t="s">
-        <v>2541</v>
+        <v>2544</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>2542</v>
+        <v>2545</v>
       </c>
       <c r="M65" s="7" t="s">
-        <v>2543</v>
+        <v>2546</v>
       </c>
       <c r="O65" s="1"/>
     </row>
     <row r="66" ht="56.25" spans="1:13">
       <c r="A66" t="s">
-        <v>2544</v>
+        <v>2547</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>2545</v>
+        <v>2548</v>
       </c>
       <c r="M66" s="7" t="s">
-        <v>2546</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="69" spans="15:15">
@@ -44021,218 +44061,218 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2547</v>
+        <v>2550</v>
       </c>
       <c r="B2" t="s">
-        <v>2548</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2549</v>
+        <v>2552</v>
       </c>
       <c r="B3" t="s">
-        <v>2550</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>2551</v>
+        <v>2554</v>
       </c>
       <c r="B4" t="s">
-        <v>2552</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>2553</v>
+        <v>2556</v>
       </c>
       <c r="B5" t="s">
-        <v>2554</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>2555</v>
+        <v>2558</v>
       </c>
       <c r="B6" t="s">
-        <v>2556</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>2557</v>
+        <v>2560</v>
       </c>
       <c r="B7" t="s">
-        <v>2558</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>2559</v>
+        <v>2562</v>
       </c>
       <c r="B8" t="s">
-        <v>2560</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>2561</v>
+        <v>2564</v>
       </c>
       <c r="B9" t="s">
-        <v>2562</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>2563</v>
+        <v>2566</v>
       </c>
       <c r="B10" t="s">
-        <v>2564</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>2565</v>
+        <v>2568</v>
       </c>
       <c r="B11" t="s">
-        <v>2566</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>2567</v>
+        <v>2570</v>
       </c>
       <c r="B12" t="s">
-        <v>2568</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>2569</v>
+        <v>2572</v>
       </c>
       <c r="B13" t="s">
-        <v>2570</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>2571</v>
+        <v>2574</v>
       </c>
       <c r="B14" t="s">
-        <v>2572</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>2573</v>
+        <v>2576</v>
       </c>
       <c r="B15" t="s">
-        <v>2574</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>2575</v>
+        <v>2578</v>
       </c>
       <c r="B16" t="s">
-        <v>2576</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>2577</v>
+        <v>2580</v>
       </c>
       <c r="B17" t="s">
-        <v>2578</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>2579</v>
+        <v>2582</v>
       </c>
       <c r="B18" t="s">
-        <v>2580</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>2581</v>
+        <v>2584</v>
       </c>
       <c r="B19" t="s">
-        <v>2582</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>2583</v>
+        <v>2586</v>
       </c>
       <c r="B20" t="s">
-        <v>2584</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>2585</v>
+        <v>2588</v>
       </c>
       <c r="B21" t="s">
-        <v>2586</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>2587</v>
+        <v>2590</v>
       </c>
       <c r="B22" t="s">
-        <v>2588</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>2589</v>
+        <v>2592</v>
       </c>
       <c r="B23" t="s">
-        <v>2590</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>2591</v>
+        <v>2594</v>
       </c>
       <c r="B24" t="s">
-        <v>2592</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>2593</v>
+        <v>2596</v>
       </c>
       <c r="B25" t="s">
-        <v>2594</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>2595</v>
+        <v>2598</v>
       </c>
       <c r="B26" t="s">
-        <v>2596</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>2597</v>
+        <v>2600</v>
       </c>
       <c r="B27" t="s">
-        <v>2598</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>2599</v>
+        <v>2602</v>
       </c>
       <c r="B28" t="s">
-        <v>2600</v>
+        <v>2603</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\opt\AmongUsMod\TheOtherRoles-GM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB6B5DC-00FF-453D-95FE-FF5EE9B7C792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154D38E1-E1B3-4DEB-923A-CF8F640AA833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HaomingText" sheetId="1" r:id="rId1"/>
@@ -17834,133 +17834,6 @@
     <t>creditsMain</t>
   </si>
   <si>
-    <t>Modded by &lt;color=#FCCE03FF&gt;Eisbison&lt;/color&gt;, &lt;color=#FCCE03FF&gt;Thunderstorm584&lt;/color&gt;, &lt;color=#FCCE03FF&gt;EndOfFile&lt;/color&gt; &amp; &lt;color=#FCCE03FF&gt;Mallöris&lt;/color&gt;_x005F_x000D_
-Design by &lt;color=#FCCE03FF&gt;Bavari&lt;/color&gt;, Customization by &lt;color=#c1a9ff&gt;Virtual_Dusk&lt;/color&gt; &amp; Haoming</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>MOD &lt;color=#FCCE03FF&gt;Eisbison&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;color=#FCCE03FF&gt;Thunderstorm584&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;color=#FCCE03FF&gt;EndOfFile&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;color=#FCCE03FF&gt;Mallöris&lt;/color&gt;_x005F_x000D_
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">デザイン </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;color=#FCCE03FF&gt;Bavari&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">、カスタマイズ・日本語訳 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;color=#c1a9ff&gt;Virtual_Dusk&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>、はおみん</t>
-    </r>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -18078,310 +17951,6 @@
     <t>creditsFull</t>
   </si>
   <si>
-    <t>&lt;size=80%&gt;Modded by &lt;color=#FCCE03FF&gt;Eisbison&lt;/color&gt;, &lt;color=#FCCE03FF&gt;EndOfFile&lt;/color&gt;_x005F_x000D_
-&lt;color=#FCCE03FF&gt;Thunderstorm584&lt;/color&gt; &amp; &lt;color=#FCCE03FF&gt;Mallöris&lt;/color&gt;_x005F_x000D_
-Button design by &lt;color=#FCCE03FF&gt;Bavari&lt;/color&gt;_x005F_x000D_
-Customization by &lt;color=#c1a9ff&gt;Virtual_Dusk&lt;/color&gt; &amp; Haoming&lt;/size&gt;</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;size=80%&gt;MOD &lt;color=#FCCE03FF&gt;Eisbison&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;color=#FCCE03FF&gt;EndOfFile&lt;/color&gt;_x005F_x000D_
-&lt;color=#FCCE03FF&gt;Thunderstorm584&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;color=#FCCE03FF&gt;Mallöris&lt;/color&gt;_x005F_x000D_
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">ボタンデザイン </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;color=#FCCE03FF&gt;Bavari&lt;/color&gt;_x005F_x000D_
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">カスタマイズ・日本語訳 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;color=#c1a9ff&gt;Virtual_Dusk&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>、はおみん</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;/size&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;size=80%&gt;模</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>组作者：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;color=#FCCE03FF&gt;Eisbison&lt;/color&gt;, &lt;color=#FCCE03FF&gt;EndOfFile&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">_x005F_x000D_
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;color=#FCCE03FF&gt;Thunderstorm584&lt;/color&gt; &amp; &lt;color=#FCCE03FF&gt;Mallöri</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>s&lt;/c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>olor&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">_x005F_x000D_
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>按键设计</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>： &lt;c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>olor=#FCCE03FF&gt;Bavari&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">_x005F_x000D_
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>模组定制：&lt;color=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>c1a9ff&gt;Virtual_Dusk&lt;/c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>l</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>r&gt; &amp; Haoming&lt;/size&gt;中文翻译：&lt;color=#FC0000FF&gt;123，氢氧则名&lt;/color&gt;</t>
-    </r>
-  </si>
-  <si>
     <t>creditsVersion</t>
   </si>
   <si>
@@ -18449,8 +18018,28 @@
     <t>updateButton</t>
   </si>
   <si>
-    <t>Update_x005F_x000D_
-The Other Roles GM</t>
+    <t>updatePleaseWait</t>
+  </si>
+  <si>
+    <t>updateManually</t>
+  </si>
+  <si>
+    <t>updateInProgress</t>
+  </si>
+  <si>
+    <t>アップデート実行中</t>
+  </si>
+  <si>
+    <t>正在更新</t>
+  </si>
+  <si>
+    <t>updateRestart</t>
+  </si>
+  <si>
+    <t>updateFailed</t>
+  </si>
+  <si>
+    <t>announcementUpdate</t>
   </si>
   <si>
     <r>
@@ -18460,16 +18049,16 @@
         <rFont val="Calibri"/>
         <charset val="1"/>
       </rPr>
-      <t>TOR GM-Haoming</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を</t>
+      <t>&lt;size=125%&gt;&lt;color=#FC0303&gt;TheOtherRoles GM-Haoming</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>エディション</t>
     </r>
     <r>
       <rPr>
@@ -18478,39 +18067,16 @@
         <rFont val="Calibri"/>
         <charset val="1"/>
       </rPr>
-      <t>_x005F_x005f_x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>000D_
-アップデート</t>
-    </r>
-  </si>
-  <si>
-    <t>更新GM-haoming_x005F_x000D_
-The Other Roles GM-rebuild</t>
-  </si>
-  <si>
-    <t>updatePleaseWait</t>
-  </si>
-  <si>
-    <t>Updating The Other Roles GM_x005F_x000D_
-Please wait...</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>アップデート中</t>
+      <t>&lt;/color&gt; v{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の更新があります</t>
     </r>
     <r>
       <rPr>
@@ -18519,452 +18085,7 @@
         <rFont val="Calibri"/>
         <charset val="1"/>
       </rPr>
-      <t>_x005F_x005f_x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>000D_
-少々お待ちください…</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>正在更新超多</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>职业</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>GMrebuidbyHaoming_x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>005</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>f_x005f_x000D_
-请稍后...</t>
-    </r>
-  </si>
-  <si>
-    <t>updateManually</t>
-  </si>
-  <si>
-    <t>Unable to auto-update._x005F_x000D_
-Please update manually.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>自動アップデートが</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>_x005F_x005f_x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>000D_
-できませんでした</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>_x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>005f_x005F_x000D_
-手動で更新してください</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>无法自</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>动更新</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>._x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>005f_x005f_x000D_
-请手动更新</t>
-    </r>
-  </si>
-  <si>
-    <t>updateInProgress</t>
-  </si>
-  <si>
-    <t>Update might already_x005F_x000D_
-be in progress.</t>
-  </si>
-  <si>
-    <t>アップデート実行中</t>
-  </si>
-  <si>
-    <t>正在更新</t>
-  </si>
-  <si>
-    <t>updateRestart</t>
-  </si>
-  <si>
-    <t>The Other Roles GM_x005F_x000D_
-updated successfully._x005F_x000D_
-Please restart the game.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>The Other Roles GM-Haoming</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>_x005F_x005f_x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>000D_
-アップデートが完了しました</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>_x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>005f_x005F_x000D_
-ゲームを再起動してください</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>The Other Roles GM-Haoming_x005F_x005f_x0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t xml:space="preserve">00D_
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>更新成功._x005F_x005f_x005f
-请重启游戏.</t>
-    </r>
-  </si>
-  <si>
-    <t>updateFailed</t>
-  </si>
-  <si>
-    <t>Update failed._x005F_x000D_
-Try again later,_x005F_x000D_
-or update manually.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>更新失</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>败</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>._x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>005f_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>x005f_x005F_x005f_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>0D_
-请稍后更新,_x005F_x005f_x005f
-或者手动更新.</t>
-    </r>
-  </si>
-  <si>
-    <t>announcementUpdate</t>
-  </si>
-  <si>
-    <t>&lt;size=150%&gt;A new &lt;color=#FC0303&gt;TheOtherRoles GM-Haoming Edition&lt;/color&gt; update to v{ver} is available:&lt;/size&gt;\n\n{1}</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;size=125%&gt;&lt;color=#FC0303&gt;TheOtherRoles GM-Haoming</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>エディション</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;/color&gt; v{0}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の更新があります</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
       <t>:&lt;/size&gt;\n\n{1}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;size=150%&gt;&lt;color=#FC0303&gt;超多</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>职业</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>模</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>组</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>GM-HaomingRebuild版&lt;/color&gt;已</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>经</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>可以更新至v{ver}:&lt;/size&gt;\n\n{1}</t>
     </r>
   </si>
   <si>
@@ -19135,55 +18256,6 @@
 They win the game as a solo if they get voted out during a meeting.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・人狼でいう『てるてる』</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>_x005F_x005f_x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>000D_
-・なにも能力を持たない</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>_x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>005f_x005F_x000D_
-・自身が吊られたときに勝利する</t>
-    </r>
-  </si>
-  <si>
     <t>小丑属于独立阵营，没有任务。
 如果小丑在会议中被投出，小丑单独获胜。</t>
   </si>
@@ -19239,182 +18311,6 @@
 "Use" button, you can double click on the tasks instead.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・ベントに入ることができる</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>_x005F_x005f_x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">00D_
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;color=#204</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>d42ff</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>エンジニア</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>color&gt;がベントに入っているとき、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;color=#ff1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>919ff&gt;インポスター</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>color&gt;陣営からはベントが</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>_x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>005f_x000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">D_
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　青く光って見える_x005F_x000D_
-・妨害を１回のみ一瞬で直せる能力を持つ</t>
-    </r>
-  </si>
-  <si>
     <t>工程师存活时每局游戏可以在任何位置修理若干次飞船破坏。
 工程师可以使用管道。如果工程师在管道内，内鬼阵营会看到地图上所有管道周围都有一圈蓝线，以此来警告他们。
 由于可以使用管道，工程师可能无法用“使用”键来进行任务。作为代替，工程师可以点击任务点进行任务。</t>
@@ -19427,14 +18323,26 @@
 If they try to kill a Crewmate, they die instead.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
+    <t>警长拥有击杀内鬼的能力。
+如果警长试图击杀一名船员，他会以死谢罪。</t>
+  </si>
+  <si>
+    <t>lighterFullDesc</t>
+  </si>
+  <si>
+    <t>The Lighter can turn on their Lighter every now and then,
+which increases their vision by a customizable amount.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・能力を使うと一定時間視界が広くなる
+・能力使用時、透明化中の</t>
     </r>
     <r>
       <rPr>
@@ -19452,7 +18360,7 @@
         <rFont val="游ゴシック"/>
         <charset val="128"/>
       </rPr>
-      <t>インポスター</t>
+      <t>ニンジャ</t>
     </r>
     <r>
       <rPr>
@@ -19470,7 +18378,29 @@
         <rFont val="游ゴシック"/>
         <charset val="128"/>
       </rPr>
-      <t>、</t>
+      <t>を視認できる</t>
+    </r>
+  </si>
+  <si>
+    <t>执灯人可以在任何时候点亮一盏灯，
+可以在一定的时间内扩大视野。</t>
+  </si>
+  <si>
+    <t>godfatherFullDesc</t>
+  </si>
+  <si>
+    <t>The Mafia are a group of three Impostors.
+The Godfather works like a normal Impostor.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
     </r>
     <r>
       <rPr>
@@ -19479,16 +18409,16 @@
         <rFont val="Calibri"/>
         <charset val="1"/>
       </rPr>
-      <t>&lt;color=#ffff00ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>その他陣営</t>
+      <t>&lt;color=#ff1919ff&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>マフィア</t>
     </r>
     <r>
       <rPr>
@@ -19506,7 +18436,8 @@
         <rFont val="游ゴシック"/>
         <charset val="128"/>
       </rPr>
-      <t>をキルすることができる</t>
+      <t>のトップ
+・必ず</t>
     </r>
     <r>
       <rPr>
@@ -19515,16 +18446,16 @@
         <rFont val="Calibri"/>
         <charset val="1"/>
       </rPr>
-      <t>_x005F_x005f_x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>0</t>
+      <t>&lt;color=#ff1919ff&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ゴッドファーザー</t>
     </r>
     <r>
       <rPr>
@@ -19533,17 +18464,16 @@
         <rFont val="Calibri"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">00D_
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、</t>
     </r>
     <r>
       <rPr>
@@ -19552,16 +18482,16 @@
         <rFont val="Calibri"/>
         <charset val="1"/>
       </rPr>
-      <t>&lt;color=#8cf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>fff</t>
+      <t>&lt;color=#ff1919ff&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>マフィオソ</t>
     </r>
     <r>
       <rPr>
@@ -19570,16 +18500,16 @@
         <rFont val="Calibri"/>
         <charset val="1"/>
       </rPr>
-      <t>ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>クルー</t>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、</t>
     </r>
     <r>
       <rPr>
@@ -19588,16 +18518,16 @@
         <rFont val="Calibri"/>
         <charset val="1"/>
       </rPr>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>color&gt;をキルしたら</t>
+      <t>&lt;color=#ff1919ff&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ジャニター</t>
     </r>
     <r>
       <rPr>
@@ -19606,16 +18536,17 @@
         <rFont val="Calibri"/>
         <charset val="1"/>
       </rPr>
-      <t>&lt;color=#f8c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>d46f</t>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の３人組として出現
+・通常</t>
     </r>
     <r>
       <rPr>
@@ -19624,16 +18555,16 @@
         <rFont val="Calibri"/>
         <charset val="1"/>
       </rPr>
-      <t>f&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>シェリフ</t>
+      <t>&lt;color=#ff1919ff&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>インポスター</t>
     </r>
     <r>
       <rPr>
@@ -19642,269 +18573,6 @@
         <rFont val="Calibri"/>
         <charset val="1"/>
       </rPr>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>color&gt;自身が死んでしまう</t>
-    </r>
-  </si>
-  <si>
-    <t>警长拥有击杀内鬼的能力。
-如果警长试图击杀一名船员，他会以死谢罪。</t>
-  </si>
-  <si>
-    <t>lighterFullDesc</t>
-  </si>
-  <si>
-    <t>The Lighter can turn on their Lighter every now and then,
-which increases their vision by a customizable amount.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・能力を使うと一定時間視界が広くなる
-・能力使用時、透明化中の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;color=#ff1919ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ニンジャ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>を視認できる</t>
-    </r>
-  </si>
-  <si>
-    <t>执灯人可以在任何时候点亮一盏灯，
-可以在一定的时间内扩大视野。</t>
-  </si>
-  <si>
-    <t>godfatherFullDesc</t>
-  </si>
-  <si>
-    <t>The Mafia are a group of three Impostors.
-The Godfather works like a normal Impostor.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;color=#ff1919ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>マフィア</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>のトップ
-・必ず</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;color=#ff1919ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ゴッドファーザー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;color=#ff1919ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>マフィオソ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;color=#ff1919ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ジャニター</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の３人組として出現
-・通常</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;color=#ff1919ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>インポスター</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
       <t>&lt;/color&gt;</t>
     </r>
     <r>
@@ -19927,507 +18595,6 @@
   <si>
     <t>The Mafia are a group of three Impostors.
 The Mafioso is an Impostor who cannot kill nor sabotage until the Godfather is dead.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;color=#ff1919ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>マフィア</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の一員</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>_x005F_x005f_x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">D_
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・必ず</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;color=#ff1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>919ff&gt;ゴッドファーザー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>olor&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;color=#ff1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>919ff</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>マフィオソ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>olor&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;color=#ff1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>919ff</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ジャニター</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>color&gt;の３人組として出現</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>_x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">05f_x005F_x000D_
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;colo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>r=#ff191</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>9ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ゴッドファーザー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>/color&gt;が追放</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>or</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>キルされた時に</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;colo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>r=#ff191</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>9ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ゴッドファーザー&lt;/co</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>lor&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>へと昇格する役職</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">_x005F_x000D_
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・&lt;color=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>#ff1919f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>f&gt;ゴッドファーザー&lt;/color&gt;が生きている場合はキルとサボタージュが出来ない</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>_x005F_x005f_x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>000D_
-　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;color=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>#ff1919ff&gt;インポスター&lt;/color&gt;陣営</t>
-    </r>
   </si>
   <si>
     <t>黑手党是三名内鬼组成的团伙。
@@ -20440,398 +18607,6 @@
     <t>The Mafia are a group of three Impostors.
 The Janitor is an Impostor who cannot kill nor sabotage,
 but they can hide dead bodies instead.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;color=#ff1919ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>マフィア</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の一員</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>_x005F_x005f_x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">D_
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・必ず</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;color=#ff1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>919ff&gt;ゴッドファーザー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>olor&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;color=#ff1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>919ff</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>マフィオソ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>olor&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;color=#ff1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>919ff</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ジャニター</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>color&gt;の３人組として出現</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>_x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>005f_x005F_x000D_
-・キルもサボタージュも出来ない</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;colo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>r=#ff1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>919ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>インポスター&lt;/color&gt;陣営だが、代わりに死体を消せる役職_x005f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">_x005F_x000D_
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・キルできないため、&lt;col</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>or=#ff19</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>19ff&gt;ジャニター</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>だけ生き残った場合は&lt;co</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>lor=#ff1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>919ff&gt;マフィア&lt;/color&gt;の敗北となる</t>
-    </r>
   </si>
   <si>
     <t>黑手党是三名内鬼组成的团伙。
@@ -20919,36 +18694,6 @@
 all players can place one garlic.
 If a victim is near a garlic, the "Bite Button" turns into the default "Kill Button"
 and the Vampire can only perform a normal kill.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・ニンニクのない場所だとすれ違ったタイミングで遠距離でキル出来る</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>_x005F_x005f_x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>000D_
-・ニンニクある場所だと通常キルしかできない</t>
-    </r>
   </si>
   <si>
     <t>吸血鬼属于内鬼阵营，拥有吸血的能力。被吸血的玩家在一定时间后死亡。
@@ -21548,128 +19293,6 @@
 players. Lights are automatically restored after a while.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・３つだけ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;color=#ff1919ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>トリックスター</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>専用のベントを設置できる</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>_x005F_x005f_x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>000D_
-・ベントは３つ置いた後の次の会議後に視認でき、使用できる</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>_x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>005f_x005F_x000D_
-・その専用ベントを置いた後に強制停電を起こせる</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">_x005F_x000D_
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・&lt;color</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>=#ff1919</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ff&gt;トリックスター&lt;/color&gt;の停電は誰にも直せない</t>
-    </r>
-  </si>
-  <si>
     <t>骗术师属于内鬼阵营，可以在地图上放置三个骗术箱。骗术箱在那轮会议结束前对其他玩家不可见。
 如果骗术师已经将所有骗术箱放置完毕，它们将变成仅供骗术师使用的管道网络，但它们对其他玩家可见。
 如果骗术箱已经形成了管道网络，骗术师将在那轮会议结束后获得新技能“关灯”。这个技能将限制非内鬼玩家的视野，并且不可以通过修复照明的方法解除。一定时间后，灯光将会恢复。</t>
@@ -21679,108 +19302,6 @@
   </si>
   <si>
     <t>The Cleaner is an Impostor who has the ability to clean up dead bodies.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・死体を消せる</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;color=#ff1919ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>インポスター</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;/color&gt;_x005F_x005f_x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>000D_
-・キルすることも可能だが</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;color=#ff1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>919ff</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>クリーナー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>color&gt;の能力とキルクールは同期している</t>
-    </r>
   </si>
   <si>
     <t>清理者属于内鬼阵营，可以将尸体隐藏。
@@ -21800,129 +19321,6 @@
 cooldown.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・誰か</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>人に呪いをかけることができる</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>_x005F_x005f_x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>000D_
-・呪われたプレイヤーの近くに誰かが近づくとキルボタンが点灯し、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>_x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>005f_x005F_x000D_
-　それを行うとその人が死んでしまう_x005F_x005f_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">x000D_
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・呪いで殺害した場合、&lt;colo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>r=#ff191</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>9ff&gt;ウォーロック</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;/color</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&gt;は一定時間動けない_x005F_x000D_
-・呪いは会議後にリセットされる</t>
-    </r>
-  </si>
-  <si>
     <t>术士属于内鬼阵营，可以诅咒其他玩家。被诅咒的玩家不会发现自己被诅咒。
 如果被诅咒的玩家站在另一名玩家身边，术士可以击杀后者，无论他距离前两者多远。
 那次击杀如果成功，被诅咒的玩家的诅咒会被解除，同时术士将在一定时间内无法行动。
@@ -21939,36 +19337,6 @@
 If the Bounty Hunter kills their target, their kill cooldown will be a lot less than usual.
 Killing a player that's not their current target results in an increased kill cooldown.
 Depending on the options, there'll be an arrow pointing towards the current target.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・標的をキルするとキルクールがすごく短くなる</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>_x005F_x005f_x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>000D_
-・標的以外をキルするとキルクールがすごく長くなる</t>
-    </r>
   </si>
   <si>
     <t>赏金猎人属于内鬼阵营，将持续获得一个悬赏目标。这名玩家不知道自己是悬赏目标。
@@ -22038,127 +19406,6 @@
 if they try to kill a shielded Impostor.
 The Medic's other feature shows when they report a corpse: they will see how long ago
 the player died.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・誰か</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>人にシールドを貼れる</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>_x005F_x005f_x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>000D_
-・シールドを貼られたプレイヤーはキルされたら、その人の画面が赤く点灯する</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>_x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">05f_x005F_x000D_
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;colo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>r=#7e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>fbc2ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>メディック&lt;/color&gt;が死ぬとシールドも壊れる</t>
-    </r>
   </si>
   <si>
     <t>医生每局游戏可以守护一名玩家。被守护的玩家将被一圈轮廓线高亮显示，并且无法被击杀。
@@ -22186,181 +19433,6 @@
 act like a Shifter.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・誰か</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>人の役職を奪える。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>_x005F_x005f_x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>000D_
-・奪った役職は会議後に反映される</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>_x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">05f_x005F_x000D_
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;colo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>r=#ff1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>919ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>インポスター</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>陣営、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;colo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>r=#ff</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>ff00ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>その他陣営&lt;/color&gt;の役職を奪うとシフター自身が会議後に死亡する</t>
-    </r>
-  </si>
-  <si>
     <t>交换师可以取代另一名船员阵营玩家的职业。被取代的玩家将变为普通船员。
 交换师的交换发生在使用技能的那轮会议结束后。交换师必须在会议以外的时间进行交换。
 即便交换师或被交换的玩家在会议前死亡，那次交换依然会成立。
@@ -22473,36 +19545,6 @@
 The Seer gets a blue flash on their screen, if a player dies somewhere on the map.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・誰かが死んだ瞬間に画面全体が青く光る</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>_x005F_x005f_x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>000D_
-・誰かが死んだ日の会議後に死体位置に行くと幽霊が見える</t>
-    </r>
-  </si>
-  <si>
     <t>灵媒师有两个能力（可以在房间设置中调整启用其中一个或两个都启用）。
 灵媒师可以看到在上一轮死去的玩家们的灵魂。灵魂会停留在它们死去的地方。灵魂会缓慢消失。
 如果有玩家在地图的某个地方死亡，灵媒师会在屏幕上看到一丝蓝色闪光。</t>
@@ -22516,55 +19558,6 @@
 Otherwise they see the same information as everyone else.
 Admin table: The Hacker can see the colors (or color types) of the players on the table.
 Vitals: The Hacker can see how long dead players have been dead for.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・能力を使うと、アドミンとバイタルでの情報がさらに多く手に入る</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>_x005F_x005f_x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>000D_
-・アドミンでは一定時間色まで見えるようになる</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>_x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>005f_x005F_x000D_
-・バイタルでは死んでからの秒数がわかる</t>
-    </r>
   </si>
   <si>
     <t>如果黑客黑入飞船系统，黑客能够在一段时间内从管理室的地图和生命监测装置上得到更多信息：
@@ -22591,327 +19584,6 @@
         <rFont val="游ゴシック"/>
         <charset val="128"/>
       </rPr>
-      <t>・見た目が小さい</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;color=#8cffffff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>クルーメイト</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;/color&gt;or&lt;color=#ff1919ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>インポスター</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;/color&gt;_x005F_x005f_x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>00D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>_
-・6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>7%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の確率で</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;color=#8cf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>fffff&gt;クルーメイト</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>color</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>陣営になる</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>_x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>05f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>_x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0D_
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>33%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の確率で</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;colo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>r=#ff1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>919ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>インポスター&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>陣営になる_x005F_x005f_x000D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">_
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>歳になるまではキルされない_x005F_x000D_
-・18歳に成長しきるまでに追放されたら即座に敗北してしまうので注意</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
       <t>迷你船员根据房间设置的概率可能加入船员阵营或内鬼阵营。
 迷你船员身形很小，因此所有船员都能看到他是迷你船员。
 迷你船员在长大到</t>
@@ -22966,328 +19638,6 @@
 While growing up the kill cooldown is doubled. When it's fully grown up its kill
 cooldown is 2/3 of the default one.
 If it gets thrown out of the ship, everything is fine.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・見た目が小さい</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;color=#8cffffff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>クルーメイト</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;/color&gt;or&lt;color=#ff1919ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>インポスター</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;/color&gt;_x005F_x005f_x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>00D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>_
-・6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>7%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の確率で</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;color=#8cf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>fffff&gt;クルーメイト</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>color</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>陣営になる</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>_x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>05f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>_x00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0D_
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>33%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の確率で</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;colo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>r=#ff1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>919ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>インポスター&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>陣営になる_x005F_x000D_
-・18歳に成長しきるまではキルクールがデフォルト設定の2/3となる_x005F_x000D_
-・18歳に成長しきるまでに追放されても敗北にはならない</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>_x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>005f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">_x005F_x000D_
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・&lt;color=#f8cd46ff&gt;シェリフ&lt;/color&gt;には成長しきるまでキルされない</t>
-    </r>
   </si>
   <si>
     <r>
@@ -23780,234 +20130,6 @@
 - The Impostors can kill the Spy but they can also kill their Impostor partner (if they
 mistake another Impostor for the Spy)
 You can set whether the Sheriff can kill the Spy or not (in order to keep the lie alive).</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;color=#8cffffff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>クルー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>陣営だが</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;color=#ff1919ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>インポスター</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>からは赤文字に見え、味方に見える</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>_x005F_x005f_x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">00D_
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;color=#ff1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>919</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>スパイ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>color</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>からは誰が</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;color=#ff1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>919ff&gt;インポスター</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>color&gt;かわからない</t>
-    </r>
   </si>
   <si>
     <r>
@@ -24087,36 +20209,6 @@
         <rFont val="游ゴシック"/>
         <charset val="128"/>
       </rPr>
-      <t>・ベントを塞ぐことができる</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>_x005F_x005f_x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>000D_
-・新しいカメラを設置することができる</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
       <t xml:space="preserve">保安属于船员阵营，拥有一定数量的螺丝。保安可以使用螺丝来封锁管道或安装摄像头。
 安装摄像头与封锁管道会消耗一定量的螺丝。
 根据房间设置，保安可以得到不同数量的螺丝。
@@ -24211,55 +20303,6 @@
 If the player that the Arsonist douses walks out of range, the cooldown will reset to 0.
 After dousing everyone alive the Arsonist can ignite all the players which results in
 an Arsonist win.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・全プレイヤーにガソリンを塗ることができる</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>_x005F_x005f_x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>000D_
-・全プレイヤーにガソリンを塗ることができたとき放火すると勝利する</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>_x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>005f_x005F_x000D_
-・死んだプレイヤーはカウントされない</t>
-    </r>
   </si>
   <si>
     <r>
@@ -24307,36 +20350,6 @@
 You can only shoot during the voting time.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・会議中に誰かの役職を選んで当てられればキルできる</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>_x005F_x005f_x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>000D_
-・失敗すれば自分が会議中に死んでしまう</t>
-    </r>
-  </si>
-  <si>
     <t>根据房间设置，赌怪可能属于船员阵营或者内鬼阵营。
 赌怪可以通过在会议中猜测一名玩家的身份来狙杀那名玩家。
 如果赌怪猜测错误，赌怪自己死亡。
@@ -24355,108 +20368,6 @@
 (you can configure a delay in the options).
 Additionally, the Bait can see if someone is inside a vent
 (depending on the options the exact vent gets an outline or all vents do).</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・誰かがベントを使うと、そのベントが黄色く光る</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>_x005F_x005f_x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">00D_
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;color=#ff1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>91</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>9ff&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>人外</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <charset val="128"/>
-      </rPr>
-      <t>color&gt;がベイトをキルするとキルした人が一定時間後に自動的にレポートする</t>
-    </r>
   </si>
   <si>
     <t>诱饵属于船员阵营。如果诱饵被杀害，凶手将在一定时间之后自动报告诱饵的尸体。
@@ -26707,12 +22618,218 @@
   <si>
     <t>Turquoise</t>
   </si>
+  <si>
+    <t>Modded by &lt;color=#FCCE03FF&gt;Eisbison&lt;/color&gt;, &lt;color=#FCCE03FF&gt;Thunderstorm584&lt;/color&gt;, &lt;color=#FCCE03FF&gt;EndOfFile&lt;/color&gt; &amp; &lt;color=#FCCE03FF&gt;Mallöris&lt;/color&gt;
+Design by &lt;color=#FCCE03FF&gt;Bavari&lt;/color&gt;, Customization by &lt;color=#c1a9ff&gt;Virtual_Dusk&lt;/color&gt; &amp; Haoming</t>
+  </si>
+  <si>
+    <t>MOD &lt;color=#FCCE03FF&gt;Eisbison&lt;/color&gt;、&lt;color=#FCCE03FF&gt;Thunderstorm584&lt;/color&gt;、&lt;color=#FCCE03FF&gt;EndOfFile&lt;/color&gt;、&lt;color=#FCCE03FF&gt;Mallöris&lt;/color&gt;
+デザイン &lt;color=#FCCE03FF&gt;Bavari&lt;/color&gt;、カスタマイズ・日本語訳 &lt;color=#c1a9ff&gt;Virtual_Dusk&lt;/color&gt;、はおみん</t>
+  </si>
+  <si>
+    <t>&lt;size=80%&gt;Modded by &lt;color=#FCCE03FF&gt;Eisbison&lt;/color&gt;, &lt;color=#FCCE03FF&gt;EndOfFile&lt;/color&gt;
+&lt;color=#FCCE03FF&gt;Thunderstorm584&lt;/color&gt; &amp; &lt;color=#FCCE03FF&gt;Mallöris&lt;/color&gt;
+Button design by &lt;color=#FCCE03FF&gt;Bavari&lt;/color&gt;
+Customization by &lt;color=#c1a9ff&gt;Virtual_Dusk&lt;/color&gt; &amp; Haoming&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>&lt;size=80%&gt;MOD &lt;color=#FCCE03FF&gt;Eisbison&lt;/color&gt;、&lt;color=#FCCE03FF&gt;EndOfFile&lt;/color&gt;
+&lt;color=#FCCE03FF&gt;Thunderstorm584&lt;/color&gt;、&lt;color=#FCCE03FF&gt;Mallöris&lt;/color&gt;
+ボタンデザイン &lt;color=#FCCE03FF&gt;Bavari&lt;/color&gt;
+カスタマイズ・日本語訳 &lt;color=#c1a9ff&gt;Virtual_Dusk&lt;/color&gt;、はおみん&lt;/size&gt;　</t>
+  </si>
+  <si>
+    <t>&lt;size=80%&gt;模组作者：&lt;color=#FCCE03FF&gt;Eisbison&lt;/color&gt;, &lt;color=#FCCE03FF&gt;EndOfFile&lt;/color&gt;
+&lt;color=#FCCE03FF&gt;Thunderstorm584&lt;/color&gt; &amp; &lt;color=#FCCE03FF&gt;Mallöris&lt;/color&gt;
+按键设计： &lt;color=#FCCE03FF&gt;Bavari&lt;/color&gt;
+模组定制：&lt;color=#c1a9ff&gt;Virtual_Dusk&lt;/color&gt; &amp; Haoming&lt;/size&gt;中文翻译：&lt;color=#FC0000FF&gt;123，氢氧则名&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Update
+The Other Roles GM</t>
+  </si>
+  <si>
+    <t>更新GM-haoming
+The Other Roles GM-rebuild</t>
+  </si>
+  <si>
+    <t>Updating The Other Roles GM
+Please wait...</t>
+  </si>
+  <si>
+    <t>Unable to auto-update.
+Please update manually.</t>
+  </si>
+  <si>
+    <t>Update might already
+be in progress.</t>
+  </si>
+  <si>
+    <t>The Other Roles GM
+updated successfully.
+Please restart the game.</t>
+  </si>
+  <si>
+    <t>Update failed.
+Try again later,
+or update manually.</t>
+  </si>
+  <si>
+    <t>TOR GM-Haomingを
+アップデート</t>
+  </si>
+  <si>
+    <t>アップデート中
+少々お待ちください…</t>
+  </si>
+  <si>
+    <t>正在更新超多职业GMrebuidbyHaoming_x000D_
+请稍后...</t>
+  </si>
+  <si>
+    <t>自動アップデートが
+できませんでした
+手動で更新してください</t>
+  </si>
+  <si>
+    <t>无法自动更新._x000D_
+请手动更新</t>
+  </si>
+  <si>
+    <t>The Other Roles GM-Haomingの
+アップデートが完了しました
+ゲームを再起動してください</t>
+  </si>
+  <si>
+    <t>The Other Roles GM-Haoming
+更新成功.
+请重启游戏.</t>
+  </si>
+  <si>
+    <t>更新失败.
+请稍后更新,
+或者手动更新.</t>
+  </si>
+  <si>
+    <t>・人狼でいう『てるてる』
+・なにも能力を持たない
+・自身が吊られたときに勝利する</t>
+  </si>
+  <si>
+    <t>・ベントに入ることができる
+・&lt;color=#204d42ff&gt;エンジニア&lt;/color&gt;がベントに入っているとき、&lt;color=#ff1919ff&gt;インポスター&lt;/color&gt;陣営からはベントが
+　青く光って見える
+・妨害を１回のみ一瞬で直せる能力を持つ</t>
+  </si>
+  <si>
+    <t>・&lt;color=#ff1919ff&gt;インポスター&lt;/color&gt;、&lt;color=#ffff00ff&gt;その他陣営&lt;/color&gt;をキルすることができる
+・&lt;color=#8cffffff&gt;クルー&lt;/color&gt;をキルしたら&lt;color=#f8cd46ff&gt;シェリフ&lt;/color&gt;自身が死んでしまう</t>
+  </si>
+  <si>
+    <t>・&lt;color=#ff1919ff&gt;マフィア&lt;/color&gt;の一員
+・必ず&lt;color=#ff1919ff&gt;ゴッドファーザー&lt;/color&gt;、&lt;color=#ff1919ff&gt;マフィオソ&lt;/color&gt;、&lt;color=#ff1919ff&gt;ジャニター&lt;/color&gt;の３人組として出現
+・&lt;color=#ff1919ff&gt;ゴッドファーザー&lt;/color&gt;が追放orキルされた時に&lt;color=#ff1919ff&gt;ゴッドファーザー&lt;/color&gt;へと昇格する役職
+・&lt;color=#ff1919ff&gt;ゴッドファーザー&lt;/color&gt;が生きている場合はキルとサボタージュが出来ない
+　&lt;color=#ff1919ff&gt;インポスター&lt;/color&gt;陣営</t>
+  </si>
+  <si>
+    <t>・&lt;color=#ff1919ff&gt;マフィア&lt;/color&gt;の一員
+・必ず&lt;color=#ff1919ff&gt;ゴッドファーザー&lt;/color&gt;、&lt;color=#ff1919ff&gt;マフィオソ&lt;/color&gt;、&lt;color=#ff1919ff&gt;ジャニター&lt;/color&gt;の３人組として出現
+・キルもサボタージュも出来ない&lt;color=#ff1919ff&gt;インポスター&lt;/color&gt;陣営だが、代わりに死体を消せる役職
+・キルできないため、&lt;color=#ff1919ff&gt;ジャニター&lt;/color&gt;だけ生き残った場合は&lt;color=#ff1919ff&gt;マフィア&lt;/color&gt;の敗北となる</t>
+  </si>
+  <si>
+    <t>・ニンニクのない場所だとすれ違ったタイミングで遠距離でキル出来る
+・ニンニクある場所だと通常キルしかできない</t>
+  </si>
+  <si>
+    <t>・３つだけ&lt;color=#ff1919ff&gt;トリックスター&lt;/color&gt;専用のベントを設置できる
+・ベントは３つ置いた後の次の会議後に視認でき、使用できる
+・その専用ベントを置いた後に強制停電を起こせる
+・&lt;color=#ff1919ff&gt;トリックスター&lt;/color&gt;の停電は誰にも直せない</t>
+  </si>
+  <si>
+    <t>・死体を消せる&lt;color=#ff1919ff&gt;インポスター&lt;/color&gt;
+・キルすることも可能だが&lt;color=#ff1919ff&gt;クリーナー&lt;/color&gt;の能力とキルクールは同期している</t>
+  </si>
+  <si>
+    <t>・誰か1人に呪いをかけることができる
+・呪われたプレイヤーの近くに誰かが近づくとキルボタンが点灯し、
+　それを行うとその人が死んでしまう
+・呪いで殺害した場合、&lt;color=#ff1919ff&gt;ウォーロック&lt;/color&gt;は一定時間動けない
+・呪いは会議後にリセットされる</t>
+  </si>
+  <si>
+    <t>・標的をキルするとキルクールがすごく短くなる
+・標的以外をキルするとキルクールがすごく長くなる</t>
+  </si>
+  <si>
+    <t>・誰か1人にシールドを貼れる
+・シールドを貼られたプレイヤーはキルされたら、その人の画面が赤く点灯する
+・&lt;color=#7efbc2ff&gt;メディック&lt;/color&gt;が死ぬとシールドも壊れる</t>
+  </si>
+  <si>
+    <t>・誰か1人の役職を奪える。
+・奪った役職は会議後に反映される
+・&lt;color=#ff1919ff&gt;インポスター&lt;/color&gt;陣営、&lt;color=#ffff00ff&gt;その他陣営&lt;/color&gt;の役職を奪うとシフター自身が会議後に死亡する</t>
+  </si>
+  <si>
+    <t>・誰かが死んだ瞬間に画面全体が青く光る
+・誰かが死んだ日の会議後に死体位置に行くと幽霊が見える</t>
+  </si>
+  <si>
+    <t>・能力を使うと、アドミンとバイタルでの情報がさらに多く手に入る
+・アドミンでは一定時間色まで見えるようになる
+・バイタルでは死んでからの秒数がわかる</t>
+  </si>
+  <si>
+    <t>・見た目が小さい&lt;color=#8cffffff&gt;クルーメイト&lt;/color&gt;or&lt;color=#ff1919ff&gt;インポスター&lt;/color&gt;
+・67%の確率で&lt;color=#8cffffff&gt;クルーメイト&lt;/color&gt;陣営になる
+・33%の確率で&lt;color=#ff1919ff&gt;インポスター&lt;/color&gt;陣営になる
+・18歳になるまではキルされない
+・18歳に成長しきるまでに追放されたら即座に敗北してしまうので注意</t>
+  </si>
+  <si>
+    <t>・見た目が小さい&lt;color=#8cffffff&gt;クルーメイト&lt;/color&gt;or&lt;color=#ff1919ff&gt;インポスター&lt;/color&gt;
+・67%の確率で&lt;color=#8cffffff&gt;クルーメイト&lt;/color&gt;陣営になる
+・33%の確率で&lt;color=#ff1919ff&gt;インポスター&lt;/color&gt;陣営になる
+・18歳に成長しきるまではキルクールがデフォルト設定の2/3となる
+・18歳に成長しきるまでに追放されても敗北にはならない
+・&lt;color=#f8cd46ff&gt;シェリフ&lt;/color&gt;には成長しきるまでキルされない</t>
+  </si>
+  <si>
+    <t>・&lt;color=#8cffffff&gt;クルー&lt;/color&gt;陣営だが&lt;color=#ff1919ff&gt;インポスター&lt;/color&gt;からは赤文字に見え、味方に見える
+・&lt;color=#ff1919ff&gt;スパイ&lt;/color&gt;からは誰が&lt;color=#ff1919ff&gt;インポスター&lt;/color&gt;かわからない</t>
+  </si>
+  <si>
+    <t>・ベントを塞ぐことができる
+・新しいカメラを設置することができる</t>
+  </si>
+  <si>
+    <t>・全プレイヤーにガソリンを塗ることができる
+・全プレイヤーにガソリンを塗ることができたとき放火すると勝利する
+・死んだプレイヤーはカウントされない</t>
+  </si>
+  <si>
+    <t>・会議中に誰かの役職を選んで当てられればキルできる
+・失敗すれば自分が会議中に死んでしまう</t>
+  </si>
+  <si>
+    <t>・誰かがベントを使うと、そのベントが黄色く光る
+・&lt;color=#ff1919ff&gt;人外&lt;/color&gt;がベイトをキルするとキルした人が一定時間後に自動的にレポートする</t>
+  </si>
+  <si>
+    <t>&lt;size=150%&gt;A new &lt;color=#FC0303&gt;TheOtherRoles GM-Haoming Edition&lt;/color&gt; update to v{0} is available:&lt;/size&gt;\n\n{1}</t>
+  </si>
+  <si>
+    <t>&lt;size=150%&gt;&lt;color=#FC0303&gt;超多职业模组GM-HaomingRebuild版&lt;/color&gt;已经可以更新至v{0}:&lt;/size&gt;\n\n{1}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -26750,22 +22867,15 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="6"/>
       <name val="游ゴシック"/>
-      <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
       <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -26790,7 +22900,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -26827,6 +22937,12 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -27146,7 +23262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q174"/>
   <sheetViews>
-    <sheetView topLeftCell="F143" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="F158" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M166" sqref="M166"/>
     </sheetView>
   </sheetViews>
@@ -29399,7 +25515,7 @@
     </row>
   </sheetData>
   <autoFilter ref="O1:O168" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -29413,8 +25529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q876"/>
   <sheetViews>
-    <sheetView topLeftCell="A295" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A310" sqref="A310"/>
+    <sheetView tabSelected="1" topLeftCell="A853" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B854" sqref="B854"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="18.75"/>
@@ -30737,7 +26853,7 @@
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="1" t="s">
-        <v>3324</v>
+        <v>3281</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>921</v>
@@ -31260,7 +27376,7 @@
     </row>
     <row r="189" spans="1:15">
       <c r="A189" s="1" t="s">
-        <v>3323</v>
+        <v>3280</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>1047</v>
@@ -32352,7 +28468,7 @@
     </row>
     <row r="310" spans="1:15">
       <c r="A310" s="1" t="s">
-        <v>3325</v>
+        <v>3282</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>1320</v>
@@ -33238,7 +29354,7 @@
     </row>
     <row r="402" spans="1:15">
       <c r="A402" s="1" t="s">
-        <v>3326</v>
+        <v>3283</v>
       </c>
       <c r="B402" s="1" t="s">
         <v>1551</v>
@@ -37857,275 +33973,275 @@
         <v>2689</v>
       </c>
       <c r="B853" s="23" t="s">
+        <v>3286</v>
+      </c>
+      <c r="M853" s="23" t="s">
+        <v>3287</v>
+      </c>
+      <c r="O853" s="4" t="s">
         <v>2690</v>
-      </c>
-      <c r="M853" s="23" t="s">
-        <v>2691</v>
-      </c>
-      <c r="O853" s="4" t="s">
-        <v>2692</v>
       </c>
     </row>
     <row r="854" spans="1:15" ht="168.75">
       <c r="A854" s="22" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
       <c r="B854" s="23" t="s">
-        <v>2694</v>
+        <v>3288</v>
       </c>
       <c r="M854" s="23" t="s">
-        <v>2695</v>
+        <v>3289</v>
       </c>
       <c r="O854" s="4" t="s">
-        <v>2696</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="855" spans="1:15">
       <c r="A855" s="1" t="s">
-        <v>2697</v>
+        <v>2692</v>
       </c>
       <c r="B855" s="1" t="s">
-        <v>2698</v>
+        <v>2693</v>
       </c>
       <c r="M855" s="1" t="s">
-        <v>2699</v>
+        <v>2694</v>
       </c>
       <c r="O855" s="1" t="s">
-        <v>2700</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="857" spans="1:15" ht="37.5">
       <c r="A857" s="1" t="s">
-        <v>2701</v>
+        <v>2696</v>
       </c>
       <c r="B857" s="9" t="s">
-        <v>2702</v>
+        <v>3291</v>
       </c>
       <c r="M857" s="9" t="s">
-        <v>2703</v>
+        <v>3298</v>
       </c>
       <c r="O857" s="4" t="s">
-        <v>2704</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="858" spans="1:15" ht="37.5">
       <c r="A858" s="1" t="s">
-        <v>2705</v>
-      </c>
-      <c r="B858" s="9" t="s">
-        <v>2706</v>
+        <v>2697</v>
+      </c>
+      <c r="B858" s="24" t="s">
+        <v>3293</v>
       </c>
       <c r="M858" s="4" t="s">
-        <v>2707</v>
+        <v>3299</v>
       </c>
       <c r="O858" s="4" t="s">
-        <v>2708</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="859" spans="1:15" ht="56.25">
       <c r="A859" s="1" t="s">
-        <v>2709</v>
+        <v>2698</v>
       </c>
       <c r="B859" s="9" t="s">
-        <v>2710</v>
+        <v>3294</v>
       </c>
       <c r="M859" s="4" t="s">
-        <v>2711</v>
+        <v>3301</v>
       </c>
       <c r="O859" s="4" t="s">
-        <v>2712</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="860" spans="1:15" ht="32.25">
       <c r="A860" s="1" t="s">
-        <v>2713</v>
+        <v>2699</v>
       </c>
       <c r="B860" s="9" t="s">
-        <v>2714</v>
+        <v>3295</v>
       </c>
       <c r="M860" t="s">
-        <v>2715</v>
+        <v>2700</v>
       </c>
       <c r="O860" s="11" t="s">
-        <v>2716</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="861" spans="1:15" ht="56.25">
       <c r="A861" s="1" t="s">
-        <v>2717</v>
+        <v>2702</v>
       </c>
       <c r="B861" s="9" t="s">
-        <v>2718</v>
+        <v>3296</v>
       </c>
       <c r="M861" s="9" t="s">
-        <v>2719</v>
+        <v>3303</v>
       </c>
       <c r="O861" s="4" t="s">
-        <v>2720</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="862" spans="1:15" ht="56.25">
       <c r="A862" s="1" t="s">
-        <v>2721</v>
+        <v>2703</v>
       </c>
       <c r="B862" s="9" t="s">
-        <v>2722</v>
-      </c>
-      <c r="M862" s="4" t="s">
-        <v>2711</v>
+        <v>3297</v>
+      </c>
+      <c r="M862" s="25" t="s">
+        <v>3301</v>
       </c>
       <c r="O862" s="4" t="s">
-        <v>2723</v>
-      </c>
-    </row>
-    <row r="863" spans="1:15" ht="37.5">
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="863" spans="1:15" ht="44.25" customHeight="1">
       <c r="A863" s="1" t="s">
-        <v>2724</v>
+        <v>2704</v>
       </c>
       <c r="B863" s="9" t="s">
-        <v>2725</v>
+        <v>3327</v>
       </c>
       <c r="M863" s="9" t="s">
-        <v>2726</v>
+        <v>2705</v>
       </c>
       <c r="O863" s="7" t="s">
-        <v>2727</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="864" spans="1:15" ht="37.5">
       <c r="A864" s="1" t="s">
-        <v>2728</v>
+        <v>2706</v>
       </c>
       <c r="B864" s="9" t="s">
-        <v>2729</v>
+        <v>2707</v>
       </c>
       <c r="M864" s="9" t="s">
-        <v>2730</v>
+        <v>2708</v>
       </c>
       <c r="O864" s="7" t="s">
-        <v>2731</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="866" spans="1:15">
       <c r="A866" t="s">
-        <v>2732</v>
+        <v>2710</v>
       </c>
       <c r="B866" t="s">
-        <v>2733</v>
+        <v>2711</v>
       </c>
       <c r="M866" t="s">
-        <v>2734</v>
+        <v>2712</v>
       </c>
       <c r="O866" s="4" t="s">
-        <v>2735</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="867" spans="1:15">
       <c r="A867" t="s">
-        <v>2736</v>
+        <v>2714</v>
       </c>
       <c r="B867" t="s">
-        <v>2737</v>
+        <v>2715</v>
       </c>
       <c r="M867" t="s">
-        <v>2737</v>
+        <v>2715</v>
       </c>
       <c r="O867" s="4" t="s">
-        <v>2735</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="869" spans="1:15">
       <c r="A869" t="s">
-        <v>3312</v>
+        <v>3269</v>
       </c>
       <c r="B869" t="s">
-        <v>3320</v>
+        <v>3277</v>
       </c>
       <c r="M869" t="s">
-        <v>2738</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="870" spans="1:15">
       <c r="A870" t="s">
-        <v>3313</v>
+        <v>3270</v>
       </c>
       <c r="B870" t="s">
-        <v>2739</v>
+        <v>2717</v>
       </c>
       <c r="M870" t="s">
-        <v>2740</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="871" spans="1:15">
       <c r="A871" t="s">
-        <v>3314</v>
+        <v>3271</v>
       </c>
       <c r="B871" t="s">
-        <v>2739</v>
+        <v>2717</v>
       </c>
       <c r="M871" t="s">
-        <v>2740</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="872" spans="1:15" ht="168.75">
       <c r="A872" t="s">
-        <v>3315</v>
+        <v>3272</v>
       </c>
       <c r="B872" s="4" t="s">
-        <v>3321</v>
+        <v>3278</v>
       </c>
       <c r="M872" s="4" t="s">
-        <v>2741</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="873" spans="1:15">
       <c r="A873" t="s">
-        <v>3316</v>
+        <v>3273</v>
       </c>
       <c r="B873" t="s">
-        <v>2742</v>
+        <v>2720</v>
       </c>
       <c r="M873" t="s">
-        <v>2743</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="874" spans="1:15">
       <c r="A874" t="s">
-        <v>3317</v>
+        <v>3274</v>
       </c>
       <c r="B874" t="s">
-        <v>3322</v>
+        <v>3279</v>
       </c>
       <c r="M874" t="s">
-        <v>2744</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="875" spans="1:15">
       <c r="A875" t="s">
-        <v>3318</v>
+        <v>3275</v>
       </c>
       <c r="B875" t="s">
-        <v>2745</v>
+        <v>2723</v>
       </c>
       <c r="M875" t="s">
-        <v>2746</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="876" spans="1:15">
       <c r="A876" t="s">
-        <v>3319</v>
+        <v>3276</v>
       </c>
       <c r="B876" t="s">
-        <v>2747</v>
+        <v>2725</v>
       </c>
       <c r="M876" t="s">
-        <v>2748</v>
+        <v>2726</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -38197,618 +34313,618 @@
     </row>
     <row r="2" spans="1:17" ht="56.25">
       <c r="A2" s="1" t="s">
-        <v>2749</v>
+        <v>2727</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>2750</v>
+        <v>2728</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>2751</v>
+        <v>3306</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>2752</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="56.25">
       <c r="A3" s="1" t="s">
-        <v>2753</v>
+        <v>2730</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>2754</v>
+        <v>2731</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>2755</v>
+        <v>2732</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>2756</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="112.5">
       <c r="A4" s="1" t="s">
-        <v>2757</v>
+        <v>2734</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>2758</v>
+        <v>2735</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>2759</v>
+        <v>3307</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>2760</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="75">
       <c r="A5" s="1" t="s">
-        <v>2761</v>
+        <v>2737</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>2762</v>
+        <v>2738</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>2763</v>
+        <v>3308</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>2764</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="56.25">
       <c r="A6" s="1" t="s">
-        <v>2765</v>
+        <v>2740</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>2766</v>
+        <v>2741</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>2767</v>
+        <v>2742</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>2768</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="112.5">
       <c r="A7" s="1" t="s">
-        <v>2769</v>
+        <v>2744</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>2770</v>
+        <v>2745</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>2771</v>
+        <v>2746</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>2772</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="187.5">
       <c r="A8" s="1" t="s">
-        <v>2773</v>
+        <v>2748</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>2774</v>
+        <v>2749</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>2775</v>
+        <v>3309</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>2776</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="187.5">
       <c r="A9" s="1" t="s">
-        <v>2777</v>
+        <v>2751</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>2778</v>
+        <v>2752</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>2779</v>
+        <v>3310</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>2780</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="37.5">
       <c r="A10" s="1" t="s">
-        <v>2781</v>
+        <v>2754</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>2782</v>
+        <v>2755</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>2783</v>
+        <v>2756</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>2784</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="56.25">
       <c r="A11" s="1" t="s">
-        <v>2785</v>
+        <v>2758</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>2786</v>
+        <v>2759</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>2787</v>
+        <v>2760</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>2788</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="112.5">
       <c r="A12" s="1" t="s">
-        <v>2789</v>
+        <v>2762</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>2790</v>
+        <v>2763</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>2791</v>
+        <v>3311</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>2792</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="409.5">
       <c r="A13" s="1" t="s">
-        <v>2793</v>
+        <v>2765</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>2794</v>
+        <v>2766</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>2795</v>
+        <v>2767</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>2796</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="131.25">
       <c r="A14" s="1" t="s">
-        <v>2797</v>
+        <v>2769</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>2798</v>
+        <v>2770</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>2799</v>
+        <v>3312</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>2800</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="75">
       <c r="A15" s="1" t="s">
-        <v>2801</v>
+        <v>2772</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>2802</v>
+        <v>2773</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>2803</v>
+        <v>3313</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>2804</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="131.25">
       <c r="A16" s="1" t="s">
-        <v>2805</v>
+        <v>2775</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>2806</v>
+        <v>2776</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>2807</v>
+        <v>3314</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>2808</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="131.25">
       <c r="A17" s="1" t="s">
-        <v>2809</v>
+        <v>2778</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>2810</v>
+        <v>2779</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>2811</v>
+        <v>3315</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>2812</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="225">
       <c r="A18" s="1" t="s">
-        <v>2813</v>
+        <v>2781</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>2814</v>
+        <v>2782</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>2815</v>
+        <v>2783</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>2816</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="131.25">
       <c r="A19" s="1" t="s">
-        <v>2817</v>
+        <v>2785</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>2818</v>
+        <v>2786</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>2819</v>
+        <v>2787</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>2820</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="187.5">
       <c r="A20" s="1" t="s">
-        <v>2821</v>
+        <v>2789</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>2822</v>
+        <v>2790</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>2823</v>
+        <v>3316</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>2824</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="225">
       <c r="A21" s="1" t="s">
-        <v>2825</v>
+        <v>2792</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>2826</v>
+        <v>2793</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>2827</v>
+        <v>3317</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>2828</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="75">
       <c r="A22" s="1" t="s">
-        <v>2829</v>
+        <v>2795</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>2830</v>
+        <v>2796</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>2831</v>
+        <v>2797</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>2832</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="112.5">
       <c r="A23" s="1" t="s">
-        <v>2833</v>
+        <v>2799</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>2834</v>
+        <v>2800</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>2835</v>
+        <v>3318</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>2836</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="93.75">
       <c r="A24" s="1" t="s">
-        <v>2837</v>
+        <v>2802</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>2838</v>
+        <v>2803</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>2839</v>
+        <v>3319</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>2840</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="168.75">
       <c r="A25" s="1" t="s">
-        <v>2841</v>
+        <v>2805</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>2842</v>
+        <v>2806</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>2843</v>
+        <v>3320</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>2844</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="225">
       <c r="A26" s="1" t="s">
-        <v>2845</v>
+        <v>2808</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>2846</v>
+        <v>2809</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>2847</v>
+        <v>3321</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>2848</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="93.75">
       <c r="A27" s="1" t="s">
-        <v>2849</v>
+        <v>2811</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>2850</v>
+        <v>2812</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>2851</v>
+        <v>2813</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>2852</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="93.75">
       <c r="A28" s="1" t="s">
-        <v>2853</v>
+        <v>2815</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>2854</v>
+        <v>2816</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>2855</v>
+        <v>2817</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>2856</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="206.25">
       <c r="A29" s="1" t="s">
-        <v>2857</v>
+        <v>2819</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>2858</v>
+        <v>2820</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>2859</v>
+        <v>2821</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>2860</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="75">
       <c r="A30" s="1" t="s">
-        <v>2861</v>
+        <v>2823</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>2862</v>
+        <v>2824</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>2863</v>
+        <v>2825</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>2864</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="168.75">
       <c r="A31" s="1" t="s">
-        <v>2865</v>
+        <v>2827</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>2866</v>
+        <v>2828</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>2867</v>
+        <v>3322</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>2868</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="262.5">
       <c r="A32" s="1" t="s">
-        <v>2869</v>
+        <v>2830</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>2870</v>
+        <v>2831</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>2871</v>
+        <v>3323</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>2872</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="112.5">
       <c r="A33" s="1" t="s">
-        <v>2873</v>
+        <v>2833</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>2874</v>
+        <v>2834</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>2875</v>
+        <v>3324</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>2876</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="150">
       <c r="A34" s="1" t="s">
-        <v>2877</v>
+        <v>2836</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>2878</v>
+        <v>2837</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>2879</v>
+        <v>3325</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>2880</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="150">
       <c r="A35" s="1" t="s">
-        <v>2881</v>
+        <v>2839</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>2878</v>
+        <v>2837</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>2879</v>
+        <v>3325</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>2880</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="93.75">
       <c r="A36" s="1" t="s">
-        <v>2882</v>
+        <v>2840</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>2883</v>
+        <v>2841</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>2884</v>
+        <v>3326</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>2885</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="56.25">
       <c r="A37" s="1" t="s">
-        <v>2886</v>
+        <v>2843</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>2887</v>
+        <v>2844</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>2888</v>
+        <v>2845</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>2889</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
-        <v>2890</v>
+        <v>2847</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>2891</v>
+        <v>2848</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>2892</v>
+        <v>2849</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>2893</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
-        <v>2894</v>
+        <v>2851</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>2895</v>
+        <v>2852</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>2896</v>
+        <v>2853</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>2897</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="262.5">
       <c r="A40" s="1" t="s">
-        <v>2898</v>
+        <v>2855</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>2899</v>
+        <v>2856</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>2900</v>
+        <v>2857</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>2901</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="93.75">
       <c r="A41" s="1" t="s">
-        <v>2902</v>
+        <v>2859</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>2903</v>
+        <v>2860</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>2904</v>
+        <v>2861</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>2905</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="93.75">
       <c r="A42" s="1" t="s">
-        <v>2906</v>
+        <v>2863</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>2907</v>
+        <v>2864</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>2908</v>
+        <v>2865</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>2909</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="93.75">
       <c r="A43" s="1" t="s">
-        <v>2910</v>
+        <v>2867</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>2911</v>
+        <v>2868</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>2912</v>
+        <v>2869</v>
       </c>
       <c r="O43" s="6" t="s">
-        <v>2913</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="187.5">
       <c r="A44" s="1" t="s">
-        <v>2914</v>
+        <v>2871</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>2915</v>
+        <v>2872</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>2916</v>
+        <v>2873</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>2917</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="56.25">
       <c r="A45" s="1" t="s">
-        <v>2918</v>
+        <v>2875</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>2919</v>
+        <v>2876</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>2920</v>
+        <v>2877</v>
       </c>
       <c r="O45" s="6" t="s">
-        <v>2921</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -38816,34 +34932,34 @@
     </row>
     <row r="47" spans="1:15" ht="75">
       <c r="A47" s="1" t="s">
-        <v>2922</v>
+        <v>2879</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>2830</v>
+        <v>2796</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>2923</v>
+        <v>2880</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>2832</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="112.5">
       <c r="A48" s="1" t="s">
-        <v>2924</v>
+        <v>2881</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>2925</v>
+        <v>2882</v>
       </c>
       <c r="M48" s="11" t="s">
-        <v>2926</v>
+        <v>2883</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>2927</v>
+        <v>2884</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -38917,482 +35033,482 @@
     </row>
     <row r="2" spans="1:17" ht="56.25">
       <c r="A2" s="1" t="s">
-        <v>2928</v>
+        <v>2885</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2929</v>
+        <v>2886</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>2930</v>
+        <v>2887</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>2931</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="62.25">
       <c r="A3" s="1" t="s">
-        <v>2932</v>
+        <v>2889</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>2933</v>
+        <v>2890</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>2934</v>
+        <v>2891</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>2756</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="75">
       <c r="A4" s="1" t="s">
-        <v>2935</v>
+        <v>2892</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2936</v>
+        <v>2893</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>2937</v>
+        <v>2894</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>2938</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="37.5">
       <c r="A5" s="1" t="s">
-        <v>2939</v>
+        <v>2896</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2940</v>
+        <v>2897</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>2941</v>
+        <v>2898</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>2942</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="56.25">
       <c r="A6" s="1" t="s">
-        <v>2943</v>
+        <v>2900</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2944</v>
+        <v>2901</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>2945</v>
+        <v>2902</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>2946</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="77.25">
       <c r="A7" s="1" t="s">
-        <v>2947</v>
+        <v>2904</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>2948</v>
+        <v>2905</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>2949</v>
+        <v>2906</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>2950</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="56.25">
       <c r="A8" s="1" t="s">
-        <v>2951</v>
+        <v>2908</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2952</v>
+        <v>2909</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>2953</v>
+        <v>2910</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>2954</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="37.5">
       <c r="A9" s="1" t="s">
-        <v>2955</v>
+        <v>2912</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2956</v>
+        <v>2913</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>2957</v>
+        <v>2914</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>2958</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="56.25">
       <c r="A10" s="1" t="s">
-        <v>2959</v>
+        <v>2916</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2960</v>
+        <v>2917</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>2961</v>
+        <v>2918</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>2962</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="56.25">
       <c r="A11" s="1" t="s">
-        <v>2963</v>
+        <v>2920</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>2964</v>
+        <v>2921</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>2965</v>
+        <v>2922</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>2966</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="37.5">
       <c r="A12" s="1" t="s">
-        <v>2967</v>
+        <v>2924</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>2968</v>
+        <v>2925</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>2969</v>
+        <v>2926</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>2970</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="56.25">
       <c r="A13" s="1" t="s">
-        <v>2971</v>
+        <v>2928</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2972</v>
+        <v>2929</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>2973</v>
+        <v>2930</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>2974</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="56.25">
       <c r="A14" s="1" t="s">
-        <v>2975</v>
+        <v>2932</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>2976</v>
+        <v>2933</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>2977</v>
+        <v>2934</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>2978</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="56.25">
       <c r="A15" s="1" t="s">
-        <v>2979</v>
+        <v>2936</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>2980</v>
+        <v>2937</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>2981</v>
+        <v>2938</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>2982</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="56.25">
       <c r="A16" s="1" t="s">
-        <v>2983</v>
+        <v>2940</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>2984</v>
+        <v>2941</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>2985</v>
+        <v>2942</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>2986</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="56.25">
       <c r="A17" s="1" t="s">
-        <v>2987</v>
+        <v>2944</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>2988</v>
+        <v>2945</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>2989</v>
+        <v>2946</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>2990</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="37.5">
       <c r="A18" s="1" t="s">
-        <v>2991</v>
+        <v>2948</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>2992</v>
+        <v>2949</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>2993</v>
+        <v>2950</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>2994</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="37.5">
       <c r="A19" s="1" t="s">
-        <v>2995</v>
+        <v>2952</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>2996</v>
+        <v>2953</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>2997</v>
+        <v>2954</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>2998</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="56.25">
       <c r="A20" s="1" t="s">
-        <v>2999</v>
+        <v>2956</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>3000</v>
+        <v>2957</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>3001</v>
+        <v>2958</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>3002</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="56.25">
       <c r="A21" s="1" t="s">
-        <v>3003</v>
+        <v>2960</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3004</v>
+        <v>2961</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>3005</v>
+        <v>2962</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>3006</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="56.25">
       <c r="A22" s="1" t="s">
-        <v>3007</v>
+        <v>2964</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3008</v>
+        <v>2965</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>3009</v>
+        <v>2966</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>3010</v>
+        <v>2967</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="37.5">
       <c r="A23" s="1" t="s">
-        <v>3011</v>
+        <v>2968</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>2802</v>
+        <v>2773</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>3012</v>
+        <v>2969</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>3013</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="56.25">
       <c r="A24" s="1" t="s">
-        <v>3014</v>
+        <v>2971</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>3015</v>
+        <v>2972</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>3016</v>
+        <v>2973</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>3017</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="37.5">
       <c r="A25" s="1" t="s">
-        <v>3018</v>
+        <v>2975</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3019</v>
+        <v>2976</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>3020</v>
+        <v>2977</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>3021</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="37.5">
       <c r="A26" s="1" t="s">
-        <v>3022</v>
+        <v>2979</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>3023</v>
+        <v>2980</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>3024</v>
+        <v>2981</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>2889</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="62.25">
       <c r="A27" s="1" t="s">
-        <v>3025</v>
+        <v>2982</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>3026</v>
+        <v>2983</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>3027</v>
+        <v>2984</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>3028</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="62.25">
       <c r="A28" s="1" t="s">
-        <v>3029</v>
+        <v>2986</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>3030</v>
+        <v>2987</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>3031</v>
+        <v>2988</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>3032</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="56.25">
       <c r="A29" s="1" t="s">
-        <v>3033</v>
+        <v>2990</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>3034</v>
+        <v>2991</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>3035</v>
+        <v>2992</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>3036</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="37.5">
       <c r="A30" s="1" t="s">
-        <v>3037</v>
+        <v>2994</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>3038</v>
+        <v>2995</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>3039</v>
+        <v>2996</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>3040</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="62.25">
       <c r="A31" s="1" t="s">
-        <v>3041</v>
+        <v>2998</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>3042</v>
+        <v>2999</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>3043</v>
+        <v>3000</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>3044</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="56.25">
       <c r="A32" s="1" t="s">
-        <v>3045</v>
+        <v>3002</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>3046</v>
+        <v>3003</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>3047</v>
+        <v>3004</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>3048</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="37.5">
       <c r="A33" s="1" t="s">
-        <v>3049</v>
+        <v>3006</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>3050</v>
+        <v>3007</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>3051</v>
+        <v>3008</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>3052</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="37.5">
       <c r="A34" s="1" t="s">
-        <v>3053</v>
+        <v>3010</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>3054</v>
+        <v>3011</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>3055</v>
+        <v>3012</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>3056</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="47.25">
       <c r="A35" s="1" t="s">
-        <v>3057</v>
+        <v>3014</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>3058</v>
+        <v>3015</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>3059</v>
+        <v>3016</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>3060</v>
+        <v>3017</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -39463,222 +35579,222 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>3061</v>
+        <v>3018</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3062</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>3063</v>
+        <v>3020</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3064</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>3065</v>
+        <v>3022</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3066</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>3067</v>
+        <v>3024</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3068</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>3069</v>
+        <v>3026</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3070</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
-        <v>3071</v>
+        <v>3028</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3072</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
-        <v>3073</v>
+        <v>3030</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3074</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
-        <v>3075</v>
+        <v>3032</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3076</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
-        <v>3077</v>
+        <v>3034</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3078</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
-        <v>3079</v>
+        <v>3036</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3080</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
-        <v>3081</v>
+        <v>3038</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3082</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
-        <v>3083</v>
+        <v>3040</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3084</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
-        <v>3085</v>
+        <v>3042</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3086</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
-        <v>3087</v>
+        <v>3044</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3088</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
-        <v>3089</v>
+        <v>3046</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3090</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>3091</v>
+        <v>3048</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3092</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>3093</v>
+        <v>3050</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3094</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>3095</v>
+        <v>3052</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3096</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>3097</v>
+        <v>3054</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>3098</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>3099</v>
+        <v>3056</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3100</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>3101</v>
+        <v>3058</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3102</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>3103</v>
+        <v>3060</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>3104</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>3105</v>
+        <v>3062</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>3106</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>3107</v>
+        <v>3064</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3108</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>3109</v>
+        <v>3066</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>3110</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>3111</v>
+        <v>3068</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>3112</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>3113</v>
+        <v>3070</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>3114</v>
+        <v>3071</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -39750,66 +35866,66 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>3115</v>
+        <v>3072</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3116</v>
+        <v>3073</v>
       </c>
       <c r="M2" t="s">
-        <v>3117</v>
+        <v>3074</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>3118</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>3119</v>
+        <v>3076</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3116</v>
+        <v>3073</v>
       </c>
       <c r="M3" t="s">
-        <v>3120</v>
+        <v>3077</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>3121</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>3122</v>
+        <v>3079</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3116</v>
+        <v>3073</v>
       </c>
       <c r="M4" t="s">
-        <v>3123</v>
+        <v>3080</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>3124</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>3125</v>
+        <v>3082</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3116</v>
+        <v>3073</v>
       </c>
       <c r="M5" t="s">
-        <v>3126</v>
+        <v>3083</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>3127</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>3128</v>
+        <v>3085</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3116</v>
+        <v>3073</v>
       </c>
       <c r="M6" t="s">
         <v>2586</v>
@@ -39820,69 +35936,69 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
-        <v>3129</v>
+        <v>3086</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3116</v>
+        <v>3073</v>
       </c>
       <c r="M7" t="s">
-        <v>3130</v>
+        <v>3087</v>
       </c>
       <c r="O7" s="15" t="s">
-        <v>3131</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
-        <v>3132</v>
+        <v>3089</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3116</v>
+        <v>3073</v>
       </c>
       <c r="M8" t="s">
-        <v>3133</v>
+        <v>3090</v>
       </c>
       <c r="O8" s="15" t="s">
-        <v>3134</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
-        <v>3135</v>
+        <v>3092</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3116</v>
+        <v>3073</v>
       </c>
       <c r="M9" t="s">
-        <v>3136</v>
+        <v>3093</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>3137</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
-        <v>3138</v>
+        <v>3095</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3116</v>
+        <v>3073</v>
       </c>
       <c r="M10" t="s">
-        <v>3139</v>
+        <v>3096</v>
       </c>
       <c r="O10" s="15" t="s">
-        <v>3140</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
-        <v>3141</v>
+        <v>3098</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3116</v>
+        <v>3073</v>
       </c>
       <c r="M11" t="s">
-        <v>3142</v>
+        <v>3099</v>
       </c>
       <c r="O11" s="15" t="s">
         <v>2577</v>
@@ -39890,125 +36006,125 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
-        <v>3143</v>
+        <v>3100</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3116</v>
+        <v>3073</v>
       </c>
       <c r="M12" t="s">
-        <v>3144</v>
+        <v>3101</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>3145</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
-        <v>3146</v>
+        <v>3103</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3116</v>
+        <v>3073</v>
       </c>
       <c r="M13" t="s">
-        <v>3147</v>
+        <v>3104</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>3148</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
-        <v>3149</v>
+        <v>3106</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3116</v>
+        <v>3073</v>
       </c>
       <c r="M14" t="s">
-        <v>3150</v>
+        <v>3107</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>3151</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
-        <v>3152</v>
+        <v>3109</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3116</v>
+        <v>3073</v>
       </c>
       <c r="M15" t="s">
-        <v>3153</v>
+        <v>3110</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>3154</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
-        <v>3155</v>
+        <v>3112</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3116</v>
+        <v>3073</v>
       </c>
       <c r="M16" t="s">
-        <v>3153</v>
+        <v>3110</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>3156</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>3157</v>
+        <v>3114</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>3073</v>
+      </c>
+      <c r="M17" t="s">
+        <v>3115</v>
+      </c>
+      <c r="O17" s="15" t="s">
         <v>3116</v>
-      </c>
-      <c r="M17" t="s">
-        <v>3158</v>
-      </c>
-      <c r="O17" s="15" t="s">
-        <v>3159</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>3160</v>
+        <v>3117</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3116</v>
+        <v>3073</v>
       </c>
       <c r="M18" t="s">
-        <v>3161</v>
+        <v>3118</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>3162</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>3163</v>
+        <v>3120</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3116</v>
+        <v>3073</v>
       </c>
       <c r="M19" t="s">
-        <v>3164</v>
+        <v>3121</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>3165</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>3166</v>
+        <v>3123</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>3116</v>
+        <v>3073</v>
       </c>
       <c r="M20" t="s">
-        <v>3167</v>
+        <v>3124</v>
       </c>
       <c r="O20" s="15" t="s">
         <v>1468</v>
@@ -40016,259 +36132,259 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>3168</v>
+        <v>3125</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3116</v>
+        <v>3073</v>
       </c>
       <c r="M21" t="s">
-        <v>3169</v>
+        <v>3126</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>3170</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>3171</v>
+        <v>3128</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3116</v>
+        <v>3073</v>
       </c>
       <c r="M22" t="s">
-        <v>3172</v>
+        <v>3129</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>3173</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>3174</v>
+        <v>3131</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>3116</v>
+        <v>3073</v>
       </c>
       <c r="M23" t="s">
         <v>1117</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>3175</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>3176</v>
+        <v>3133</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>3116</v>
+        <v>3073</v>
       </c>
       <c r="M24" t="s">
-        <v>3169</v>
+        <v>3126</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>3177</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
-        <v>3178</v>
+        <v>3135</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3116</v>
+        <v>3073</v>
       </c>
       <c r="M25" t="s">
-        <v>3179</v>
+        <v>3136</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>3180</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
-        <v>3181</v>
+        <v>3138</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>3116</v>
+        <v>3073</v>
       </c>
       <c r="M26" t="s">
-        <v>3182</v>
+        <v>3139</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>3183</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
-        <v>3184</v>
+        <v>3141</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>3116</v>
+        <v>3073</v>
       </c>
       <c r="M27" t="s">
-        <v>3185</v>
+        <v>3142</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>3186</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="1" t="s">
-        <v>3187</v>
+        <v>3144</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>3116</v>
+        <v>3073</v>
       </c>
       <c r="M28" t="s">
-        <v>3188</v>
+        <v>3145</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>3189</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
-        <v>3190</v>
+        <v>3147</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>3116</v>
+        <v>3073</v>
       </c>
       <c r="M29" t="s">
-        <v>3191</v>
+        <v>3148</v>
       </c>
       <c r="O29" s="15" t="s">
-        <v>3192</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="1" t="s">
-        <v>3193</v>
+        <v>3150</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>3116</v>
+        <v>3073</v>
       </c>
       <c r="M30" t="s">
-        <v>3194</v>
+        <v>3151</v>
       </c>
       <c r="O30" s="15" t="s">
-        <v>3195</v>
+        <v>3152</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
-        <v>3196</v>
+        <v>3153</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3116</v>
+        <v>3073</v>
       </c>
       <c r="M31" t="s">
-        <v>3197</v>
+        <v>3154</v>
       </c>
       <c r="O31" s="15" t="s">
-        <v>3198</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
-        <v>3199</v>
+        <v>3156</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>3116</v>
+        <v>3073</v>
       </c>
       <c r="M32" t="s">
-        <v>3200</v>
+        <v>3157</v>
       </c>
       <c r="O32" s="15" t="s">
-        <v>3201</v>
+        <v>3158</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
-        <v>3202</v>
+        <v>3159</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>3203</v>
+        <v>3160</v>
       </c>
       <c r="M33" t="s">
-        <v>3204</v>
+        <v>3161</v>
       </c>
       <c r="O33" s="15" t="s">
-        <v>3205</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
-        <v>3206</v>
+        <v>3163</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>3207</v>
+        <v>3164</v>
       </c>
       <c r="M34" t="s">
-        <v>3208</v>
+        <v>3165</v>
       </c>
       <c r="O34" s="15" t="s">
-        <v>3208</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
-        <v>3209</v>
+        <v>3166</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>3210</v>
+        <v>3167</v>
       </c>
       <c r="M35" t="s">
-        <v>3211</v>
+        <v>3168</v>
       </c>
       <c r="O35" s="15" t="s">
-        <v>3212</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="1" t="s">
-        <v>3213</v>
+        <v>3170</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>3214</v>
+        <v>3171</v>
       </c>
       <c r="M36" t="s">
-        <v>3215</v>
+        <v>3172</v>
       </c>
       <c r="O36" s="15" t="s">
-        <v>3205</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
-        <v>3216</v>
+        <v>3173</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>3217</v>
+        <v>3174</v>
       </c>
       <c r="M37" t="s">
-        <v>3218</v>
+        <v>3175</v>
       </c>
       <c r="O37" s="15" t="s">
-        <v>3208</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
-        <v>3219</v>
+        <v>3176</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>3073</v>
+      </c>
+      <c r="M38" t="s">
+        <v>3115</v>
+      </c>
+      <c r="O38" s="15" t="s">
         <v>3116</v>
-      </c>
-      <c r="M38" t="s">
-        <v>3158</v>
-      </c>
-      <c r="O38" s="15" t="s">
-        <v>3159</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
-        <v>3220</v>
+        <v>3177</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>2111</v>
@@ -40277,11 +36393,11 @@
         <v>2112</v>
       </c>
       <c r="O39" s="15" t="s">
-        <v>3221</v>
+        <v>3178</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -40291,7 +36407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -40353,244 +36469,244 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>3222</v>
+        <v>3179</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3223</v>
+        <v>3180</v>
       </c>
       <c r="M2" t="s">
-        <v>3224</v>
+        <v>3181</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>3225</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>3226</v>
+        <v>3183</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3227</v>
+        <v>3184</v>
       </c>
       <c r="M3" t="s">
-        <v>3228</v>
+        <v>3185</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>3229</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>3230</v>
+        <v>3187</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3231</v>
+        <v>3188</v>
       </c>
       <c r="M4" t="s">
-        <v>3232</v>
+        <v>3189</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>3233</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>3327</v>
+        <v>3284</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3328</v>
+        <v>3285</v>
       </c>
       <c r="M5" t="s">
-        <v>3234</v>
+        <v>3191</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>3235</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>3236</v>
+        <v>3193</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3237</v>
+        <v>3194</v>
       </c>
       <c r="M6" t="s">
-        <v>3238</v>
+        <v>3195</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>3239</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
-        <v>3240</v>
+        <v>3197</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3241</v>
+        <v>3198</v>
       </c>
       <c r="M7" t="s">
-        <v>3242</v>
+        <v>3199</v>
       </c>
       <c r="O7" s="15" t="s">
-        <v>3243</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
-        <v>3244</v>
+        <v>3201</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3245</v>
+        <v>3202</v>
       </c>
       <c r="M8" t="s">
-        <v>3246</v>
+        <v>3203</v>
       </c>
       <c r="O8" s="15" t="s">
-        <v>3247</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
-        <v>3248</v>
+        <v>3205</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3249</v>
+        <v>3206</v>
       </c>
       <c r="M9" t="s">
-        <v>3250</v>
+        <v>3207</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>3251</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
-        <v>3252</v>
+        <v>3209</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3253</v>
+        <v>3210</v>
       </c>
       <c r="M10" t="s">
-        <v>3254</v>
+        <v>3211</v>
       </c>
       <c r="O10" s="15" t="s">
-        <v>3255</v>
+        <v>3212</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
-        <v>3256</v>
+        <v>3213</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3257</v>
+        <v>3214</v>
       </c>
       <c r="M11" t="s">
-        <v>3258</v>
+        <v>3215</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>3259</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
-        <v>3260</v>
+        <v>3217</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3261</v>
+        <v>3218</v>
       </c>
       <c r="M12" t="s">
-        <v>3262</v>
+        <v>3219</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>3263</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
-        <v>3264</v>
+        <v>3221</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3265</v>
+        <v>3222</v>
       </c>
       <c r="M13" t="s">
-        <v>3266</v>
+        <v>3223</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>3267</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
-        <v>3268</v>
+        <v>3225</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3269</v>
+        <v>3226</v>
       </c>
       <c r="M14" t="s">
-        <v>3270</v>
+        <v>3227</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>3271</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
-        <v>3272</v>
+        <v>3229</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3273</v>
+        <v>3230</v>
       </c>
       <c r="M15" t="s">
-        <v>3274</v>
+        <v>3231</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>3275</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
-        <v>3276</v>
+        <v>3233</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3277</v>
+        <v>3234</v>
       </c>
       <c r="M16" t="s">
-        <v>3278</v>
+        <v>3235</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>3279</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>3280</v>
+        <v>3237</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3281</v>
+        <v>3238</v>
       </c>
       <c r="M17" t="s">
-        <v>3282</v>
+        <v>3239</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>3283</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>3284</v>
+        <v>3241</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3285</v>
+        <v>3242</v>
       </c>
       <c r="M18" t="s">
-        <v>3286</v>
+        <v>3243</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>3287</v>
+        <v>3244</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -40663,90 +36779,90 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>3288</v>
+        <v>3245</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3289</v>
+        <v>3246</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>3290</v>
+        <v>3247</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>3291</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>3292</v>
+        <v>3249</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3293</v>
+        <v>3250</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>3294</v>
+        <v>3251</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>3295</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>3296</v>
+        <v>3253</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3297</v>
+        <v>3254</v>
       </c>
       <c r="M4" t="s">
-        <v>3298</v>
+        <v>3255</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>3299</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>3300</v>
+        <v>3257</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3301</v>
+        <v>3258</v>
       </c>
       <c r="M5" t="s">
-        <v>3302</v>
+        <v>3259</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>3303</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>3304</v>
+        <v>3261</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3305</v>
+        <v>3262</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>3306</v>
+        <v>3263</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>3307</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
-        <v>3308</v>
+        <v>3265</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3309</v>
+        <v>3266</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>3310</v>
+        <v>3267</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>3311</v>
+        <v>3268</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="12720" tabRatio="819" firstSheet="4" activeTab="12"/>
+    <workbookView windowWidth="28695" windowHeight="13140" tabRatio="819" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="ModText" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2873">
   <si>
     <t>English</t>
   </si>
@@ -9137,6 +9137,15 @@
     <t>暗殺</t>
   </si>
   <si>
+    <t>mayorMeetingText</t>
+  </si>
+  <si>
+    <t>Emergency</t>
+  </si>
+  <si>
+    <t>緊急会議</t>
+  </si>
+  <si>
     <t>colorSalmon</t>
   </si>
   <si>
@@ -9538,8 +9547,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -9613,8 +9622,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9628,6 +9652,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="游ゴシック"/>
@@ -9635,31 +9674,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9675,7 +9714,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9689,53 +9728,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9749,9 +9744,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9778,25 +9787,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9814,19 +9841,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9838,7 +9859,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9850,13 +9913,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9868,37 +9931,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9910,55 +9961,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9969,6 +9978,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -9998,11 +10033,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10018,30 +10051,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10075,146 +10084,146 @@
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -10595,8 +10604,8 @@
   <sheetPr/>
   <dimension ref="A1:Q100"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -11843,10 +11852,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -12594,6 +12603,17 @@
       </c>
       <c r="M50" t="s">
         <v>2737</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" t="s">
+        <v>2738</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2739</v>
+      </c>
+      <c r="M51" t="s">
+        <v>2740</v>
       </c>
     </row>
   </sheetData>
@@ -12669,240 +12689,240 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>2738</v>
+        <v>2741</v>
       </c>
       <c r="B2" t="s">
-        <v>2739</v>
+        <v>2742</v>
       </c>
       <c r="M2" t="s">
-        <v>2740</v>
+        <v>2743</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>2741</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>2742</v>
+        <v>2745</v>
       </c>
       <c r="B3" t="s">
-        <v>2743</v>
+        <v>2746</v>
       </c>
       <c r="M3" t="s">
-        <v>2744</v>
+        <v>2747</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>2745</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>2746</v>
+        <v>2749</v>
       </c>
       <c r="B4" t="s">
-        <v>2747</v>
+        <v>2750</v>
       </c>
       <c r="M4" t="s">
-        <v>2748</v>
+        <v>2751</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>2749</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>2750</v>
+        <v>2753</v>
       </c>
       <c r="B5" t="s">
-        <v>2751</v>
+        <v>2754</v>
       </c>
       <c r="M5" t="s">
-        <v>2752</v>
+        <v>2755</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>2753</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>2754</v>
+        <v>2757</v>
       </c>
       <c r="B6" t="s">
-        <v>2755</v>
+        <v>2758</v>
       </c>
       <c r="M6" t="s">
-        <v>2756</v>
+        <v>2759</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>2757</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>2758</v>
+        <v>2761</v>
       </c>
       <c r="B7" t="s">
-        <v>2759</v>
+        <v>2762</v>
       </c>
       <c r="M7" t="s">
-        <v>2760</v>
+        <v>2763</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>2761</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>2762</v>
+        <v>2765</v>
       </c>
       <c r="B8" t="s">
-        <v>2763</v>
+        <v>2766</v>
       </c>
       <c r="M8" t="s">
-        <v>2764</v>
+        <v>2767</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>2765</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>2766</v>
+        <v>2769</v>
       </c>
       <c r="B9" t="s">
-        <v>2767</v>
+        <v>2770</v>
       </c>
       <c r="M9" t="s">
-        <v>2768</v>
+        <v>2771</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>2769</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>2770</v>
+        <v>2773</v>
       </c>
       <c r="B10" t="s">
-        <v>2771</v>
+        <v>2774</v>
       </c>
       <c r="M10" t="s">
-        <v>2772</v>
+        <v>2775</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>2773</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>2774</v>
+        <v>2777</v>
       </c>
       <c r="B11" t="s">
-        <v>2775</v>
+        <v>2778</v>
       </c>
       <c r="M11" t="s">
-        <v>2776</v>
+        <v>2779</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>2777</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>2778</v>
+        <v>2781</v>
       </c>
       <c r="B12" t="s">
-        <v>2779</v>
+        <v>2782</v>
       </c>
       <c r="M12" t="s">
-        <v>2780</v>
+        <v>2783</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>2782</v>
+        <v>2785</v>
       </c>
       <c r="B13" t="s">
-        <v>2783</v>
+        <v>2786</v>
       </c>
       <c r="M13" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>2786</v>
+        <v>2789</v>
       </c>
       <c r="B14" t="s">
-        <v>2787</v>
+        <v>2790</v>
       </c>
       <c r="M14" t="s">
-        <v>2788</v>
+        <v>2791</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>2789</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>2790</v>
+        <v>2793</v>
       </c>
       <c r="B15" t="s">
-        <v>2791</v>
+        <v>2794</v>
       </c>
       <c r="M15" t="s">
-        <v>2792</v>
+        <v>2795</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>2793</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>2794</v>
+        <v>2797</v>
       </c>
       <c r="B16" t="s">
-        <v>2795</v>
+        <v>2798</v>
       </c>
       <c r="M16" t="s">
-        <v>2796</v>
+        <v>2799</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>2797</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>2798</v>
+        <v>2801</v>
       </c>
       <c r="B17" t="s">
-        <v>2799</v>
+        <v>2802</v>
       </c>
       <c r="M17" t="s">
-        <v>2800</v>
+        <v>2803</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>2801</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>2802</v>
+        <v>2805</v>
       </c>
       <c r="B18" t="s">
-        <v>2803</v>
+        <v>2806</v>
       </c>
       <c r="M18" t="s">
-        <v>2804</v>
+        <v>2807</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
     </row>
   </sheetData>
@@ -12979,86 +12999,86 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>2806</v>
+        <v>2809</v>
       </c>
       <c r="B2" t="s">
-        <v>2807</v>
+        <v>2810</v>
       </c>
       <c r="M2" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>2810</v>
+        <v>2813</v>
       </c>
       <c r="B3" t="s">
-        <v>2811</v>
+        <v>2814</v>
       </c>
       <c r="M3" t="s">
-        <v>2812</v>
+        <v>2815</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>2813</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>2814</v>
+        <v>2817</v>
       </c>
       <c r="B4" t="s">
-        <v>2815</v>
+        <v>2818</v>
       </c>
       <c r="M4" t="s">
-        <v>2816</v>
+        <v>2819</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>2817</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
       <c r="B5" t="s">
-        <v>2819</v>
+        <v>2822</v>
       </c>
       <c r="M5" t="s">
-        <v>2820</v>
+        <v>2823</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>2821</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>2822</v>
+        <v>2825</v>
       </c>
       <c r="B6" t="s">
-        <v>2823</v>
+        <v>2826</v>
       </c>
       <c r="M6" t="s">
-        <v>2824</v>
+        <v>2827</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>2825</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>2826</v>
+        <v>2829</v>
       </c>
       <c r="B7" t="s">
-        <v>2827</v>
+        <v>2830</v>
       </c>
       <c r="M7" t="s">
-        <v>2828</v>
+        <v>2831</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>2829</v>
+        <v>2832</v>
       </c>
     </row>
   </sheetData>
@@ -13072,7 +13092,7 @@
   <sheetPr/>
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -13130,156 +13150,156 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>2830</v>
+        <v>2833</v>
       </c>
       <c r="B2" t="s">
-        <v>2831</v>
+        <v>2834</v>
       </c>
       <c r="M2" t="s">
-        <v>2832</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>2833</v>
+        <v>2836</v>
       </c>
       <c r="B3" t="s">
-        <v>2834</v>
+        <v>2837</v>
       </c>
       <c r="M3" t="s">
-        <v>2835</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>2836</v>
+        <v>2839</v>
       </c>
       <c r="B4" t="s">
-        <v>2837</v>
+        <v>2840</v>
       </c>
       <c r="M4" t="s">
-        <v>2838</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>2839</v>
+        <v>2842</v>
       </c>
       <c r="B5" t="s">
-        <v>2840</v>
+        <v>2843</v>
       </c>
       <c r="M5" t="s">
-        <v>2841</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>2842</v>
+        <v>2845</v>
       </c>
       <c r="B6" t="s">
-        <v>2840</v>
+        <v>2843</v>
       </c>
       <c r="M6" t="s">
-        <v>2841</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>2843</v>
+        <v>2846</v>
       </c>
       <c r="B7" t="s">
-        <v>2844</v>
+        <v>2847</v>
       </c>
       <c r="M7" t="s">
-        <v>2845</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>2846</v>
+        <v>2849</v>
       </c>
       <c r="B8" t="s">
-        <v>2847</v>
+        <v>2850</v>
       </c>
       <c r="M8" t="s">
-        <v>2848</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>2849</v>
+        <v>2852</v>
       </c>
       <c r="B9" t="s">
-        <v>2850</v>
+        <v>2853</v>
       </c>
       <c r="M9" t="s">
-        <v>2851</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>2852</v>
+        <v>2855</v>
       </c>
       <c r="B10" t="s">
-        <v>2853</v>
+        <v>2856</v>
       </c>
       <c r="M10" t="s">
-        <v>2854</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>2855</v>
+        <v>2858</v>
       </c>
       <c r="B11" t="s">
-        <v>2856</v>
+        <v>2859</v>
       </c>
       <c r="M11" t="s">
-        <v>2857</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>2858</v>
+        <v>2861</v>
       </c>
       <c r="B12" t="s">
-        <v>2859</v>
+        <v>2862</v>
       </c>
       <c r="M12" t="s">
-        <v>2860</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>2861</v>
+        <v>2864</v>
       </c>
       <c r="B13" t="s">
-        <v>2862</v>
+        <v>2865</v>
       </c>
       <c r="M13" t="s">
-        <v>2863</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>2864</v>
+        <v>2867</v>
       </c>
       <c r="B14" t="s">
-        <v>2865</v>
+        <v>2868</v>
       </c>
       <c r="M14" t="s">
-        <v>2866</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>2867</v>
+        <v>2870</v>
       </c>
       <c r="B15" t="s">
-        <v>2868</v>
+        <v>2871</v>
       </c>
       <c r="M15" t="s">
-        <v>2869</v>
+        <v>2872</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13140" tabRatio="819" activeTab="9"/>
+    <workbookView windowWidth="20430" windowHeight="12720" tabRatio="819" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="ModText" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2876">
   <si>
     <t>English</t>
   </si>
@@ -9533,13 +9533,22 @@
     <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.0.5.3&lt;/size&gt;&lt;size=70%&gt;\n&lt;size=70%&gt;やっほー。清盛だよ～\n今回のアップデートの内容はこんな感じさ！\n1.dlekS ehTのスポーンポイントを修正\n\n2.反転マップの設定を統一\n\nそれじゃーね～～～                       でこぼこの清盛&amp;麦茶&lt;/size&gt;</t>
   </si>
   <si>
+    <t>Ver.1.1.0</t>
+  </si>
+  <si>
+    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.1.0&lt;/size&gt;\n&lt;size=70%&gt;Please Read Github&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.1.0&lt;/size&gt;\n&lt;size=70%&gt;Githubのページを読んでください&lt;/size&gt;</t>
+  </si>
+  <si>
     <t>release</t>
   </si>
   <si>
-    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.1.0&lt;/size&gt;\n&lt;size=70%&gt;Please Read Github&lt;/size&gt;</t>
-  </si>
-  <si>
-    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.1.0&lt;/size&gt;\n&lt;size=70%&gt;Githubのページを読んでください&lt;/size&gt;</t>
+    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.1.0&lt;/size&gt;\n&lt;size=70%&gt;Fixed Some Bugs.&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.1.0&lt;/size&gt;\n&lt;size=70%&gt;バグを修正しました。&lt;/size&gt;</t>
   </si>
 </sst>
 </file>
@@ -9622,23 +9631,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9651,9 +9645,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9667,15 +9683,31 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="游ゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9698,30 +9730,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="游ゴシック"/>
       <charset val="134"/>
@@ -9736,16 +9752,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9753,16 +9761,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="游ゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9787,37 +9796,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9835,49 +9826,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9895,7 +9844,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9913,61 +9952,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9981,13 +9990,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10017,30 +10030,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -10051,15 +10040,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10078,13 +10058,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10093,137 +10102,137 @@
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11854,7 +11863,7 @@
   <sheetPr/>
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
@@ -13090,10 +13099,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -13300,6 +13309,17 @@
       </c>
       <c r="M15" t="s">
         <v>2872</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>2873</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2874</v>
+      </c>
+      <c r="M16" t="s">
+        <v>2875</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -5268,10 +5268,10 @@
     <t>pressTabForMore</t>
   </si>
   <si>
-    <t>Press tab for more...</t>
-  </si>
-  <si>
-    <t>Tabキーで次のページへ…</t>
+    <t>Press Tab to change page</t>
+  </si>
+  <si>
+    <t>Tab でページを変更します</t>
   </si>
   <si>
     <t>按Tab查看更多信息</t>
@@ -9600,7 +9600,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9613,23 +9613,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9642,23 +9628,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="游ゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9674,14 +9661,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="游ゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="游ゴシック"/>
       <charset val="134"/>
@@ -9712,9 +9721,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9728,16 +9736,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9764,7 +9764,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9776,49 +9920,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9830,121 +9938,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9955,6 +9955,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -9988,26 +10014,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10015,8 +10032,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10032,26 +10049,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10061,7 +10061,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10070,16 +10070,16 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10088,119 +10088,119 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -26219,8 +26219,8 @@
   <sheetPr/>
   <dimension ref="A1:Q894"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="M65" sqref="M65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13140" tabRatio="837" activeTab="3"/>
+    <workbookView windowWidth="28695" windowHeight="13140" tabRatio="837" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="ModText" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2877">
   <si>
     <t>English</t>
   </si>
@@ -9510,13 +9510,22 @@
     <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.1.0&lt;/size&gt;\n&lt;size=70%&gt;バグを修正しました。&lt;/size&gt;</t>
   </si>
   <si>
+    <t>Ver.1.1.2</t>
+  </si>
+  <si>
+    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.1.2&lt;/size&gt;&lt;size=70%&gt;\nHi! I'm Kiyomori!\nThis Update Contents is...\n1.Fixed Some Bugs\n2.Change to Modifiers\n  Opportunist\n  Watcher\n3.Add Modifier\n  Sunglasses\n\nSee you next Update~~~!                        DekoKiyo&amp;Mugicha&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.1.2&lt;/size&gt;&lt;size=70%&gt;\nやっふぉー。清盛だよ～\n今回のアップデートの内容はこんな感じさ！\n1.バグ修正\n2.以下の役職を属性扱いに変更しました\n  オポチュニスト\n  ウォッチャー\n3.属性追加\n  サングラス\n\nそれじゃーね～～～                       でこぼこの清盛&amp;麦茶&lt;/size&gt;</t>
+  </si>
+  <si>
     <t>release</t>
   </si>
   <si>
-    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.1.2&lt;/size&gt;&lt;size=70%&gt;\nHi! I'm Kiyomori!\nThis Update Contents is...\n1.Fixed Some Bugs\n2.Change to Modifiers\n  Opportunist\n  Watcher\n3.Add Modifier\n  Sunglasses\n\nSee you next Update~~~!                        DekoKiyo&amp;Mugicha&lt;/size&gt;</t>
-  </si>
-  <si>
-    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.1.2&lt;/size&gt;&lt;size=70%&gt;\nやっふぉー。清盛だよ～\n今回のアップデートの内容はこんな感じさ！\n1.バグ修正\n2.以下の役職を属性扱いに変更しました\n  オポチュニスト\n  ウォッチャー\n3.属性追加\n  サングラス\n\nそれじゃーね～～～                       でこぼこの清盛&amp;麦茶&lt;/size&gt;</t>
+    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.1.2&lt;/size&gt;&lt;size=70%&gt;\nHi! I'm Kiyomori!\nThis Update Contents is...\n1.Fixed Some Bugs\n\nSee you next Update~~~!                        DekoKiyo&amp;Mugicha&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.1.2&lt;/size&gt;&lt;size=70%&gt;\nやっふぉー。清盛だよ～\n今回のアップデートの内容はこんな感じさ！\n1.バグ修正\n\n\nそれじゃーね～～～                       でこぼこの清盛&amp;麦茶&lt;/size&gt;</t>
   </si>
 </sst>
 </file>
@@ -13337,10 +13346,10 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -13569,6 +13578,17 @@
       </c>
       <c r="M17" t="s">
         <v>2873</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>2874</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2875</v>
+      </c>
+      <c r="M18" t="s">
+        <v>2876</v>
       </c>
     </row>
   </sheetData>
@@ -26219,7 +26239,7 @@
   <sheetPr/>
   <dimension ref="A1:Q894"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A46" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M65" sqref="M65"/>
     </sheetView>
   </sheetViews>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13140" tabRatio="837" activeTab="14"/>
+    <workbookView windowWidth="28695" windowHeight="13140" tabRatio="837" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="ModText" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2885">
   <si>
     <t>English</t>
   </si>
@@ -9315,6 +9315,30 @@
     <t>GM版限定</t>
   </si>
   <si>
+    <t>YJWhite</t>
+  </si>
+  <si>
+    <t>YJ*Visors</t>
+  </si>
+  <si>
+    <t>YJ*Visors/白桜コレクション</t>
+  </si>
+  <si>
+    <t>YJBlack</t>
+  </si>
+  <si>
+    <t>YJ*Visors/黒桜コレクション</t>
+  </si>
+  <si>
+    <t>DekoKiyo</t>
+  </si>
+  <si>
+    <t>Kiyomori's Bad Picture</t>
+  </si>
+  <si>
+    <t>清盛の下手くそな絵</t>
+  </si>
+  <si>
     <t>antiTeleportPostfix</t>
   </si>
   <si>
@@ -9533,10 +9557,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -9615,8 +9639,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9630,17 +9699,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9652,6 +9715,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -9660,9 +9753,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9677,76 +9770,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9773,13 +9797,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9791,55 +9809,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9851,25 +9821,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9887,7 +9839,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9899,7 +9863,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9911,37 +9953,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9953,7 +9977,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9969,26 +9993,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10009,16 +10016,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10041,26 +10068,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10070,146 +10094,146 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -12895,13 +12919,13 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="14.5666666666667" customWidth="1"/>
@@ -13040,6 +13064,39 @@
       </c>
       <c r="O7" s="7" t="s">
         <v>2805</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>2806</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2807</v>
+      </c>
+      <c r="M8" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>2809</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2807</v>
+      </c>
+      <c r="M9" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>2811</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2812</v>
+      </c>
+      <c r="M10" t="s">
+        <v>2813</v>
       </c>
     </row>
   </sheetData>
@@ -13114,10 +13171,10 @@
     </row>
     <row r="2" s="4" customFormat="1" spans="1:15">
       <c r="A2" s="5" t="s">
-        <v>2806</v>
+        <v>2814</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2807</v>
+        <v>2815</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -13130,17 +13187,17 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6" t="s">
-        <v>2807</v>
+        <v>2815</v>
       </c>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
     </row>
     <row r="3" s="4" customFormat="1" spans="1:15">
       <c r="A3" s="5" t="s">
-        <v>2808</v>
+        <v>2816</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>2809</v>
+        <v>2817</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -13153,17 +13210,17 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6" t="s">
-        <v>2809</v>
+        <v>2817</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:15">
       <c r="A4" s="5" t="s">
-        <v>2810</v>
+        <v>2818</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>2811</v>
+        <v>2819</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -13176,14 +13233,14 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6" t="s">
-        <v>2811</v>
+        <v>2819</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>2812</v>
+        <v>2820</v>
       </c>
       <c r="B5" t="s">
         <v>364</v>
@@ -13194,13 +13251,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>2813</v>
+        <v>2821</v>
       </c>
       <c r="B6" t="s">
-        <v>2814</v>
+        <v>2822</v>
       </c>
       <c r="M6" t="s">
-        <v>2814</v>
+        <v>2822</v>
       </c>
     </row>
   </sheetData>
@@ -13272,18 +13329,18 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>2815</v>
+        <v>2823</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2816</v>
+        <v>2824</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>2817</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>2818</v>
+        <v>2826</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2099</v>
@@ -13295,22 +13352,22 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="1:15">
       <c r="A4" s="2" t="s">
-        <v>2819</v>
+        <v>2827</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2820</v>
+        <v>2828</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>2821</v>
+        <v>2829</v>
       </c>
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>2822</v>
+        <v>2830</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2823</v>
+        <v>2831</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -13323,18 +13380,18 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2" t="s">
-        <v>2824</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>2825</v>
+        <v>2833</v>
       </c>
       <c r="B6" t="s">
-        <v>2826</v>
+        <v>2834</v>
       </c>
       <c r="M6" t="s">
-        <v>2827</v>
+        <v>2835</v>
       </c>
     </row>
   </sheetData>
@@ -13348,7 +13405,7 @@
   <sheetPr/>
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
@@ -13406,189 +13463,189 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>2828</v>
+        <v>2836</v>
       </c>
       <c r="B2" t="s">
-        <v>2829</v>
+        <v>2837</v>
       </c>
       <c r="M2" t="s">
-        <v>2830</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>2831</v>
+        <v>2839</v>
       </c>
       <c r="B3" t="s">
-        <v>2832</v>
+        <v>2840</v>
       </c>
       <c r="M3" t="s">
-        <v>2833</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>2834</v>
+        <v>2842</v>
       </c>
       <c r="B4" t="s">
-        <v>2835</v>
+        <v>2843</v>
       </c>
       <c r="M4" t="s">
-        <v>2836</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>2837</v>
+        <v>2845</v>
       </c>
       <c r="B5" t="s">
-        <v>2838</v>
+        <v>2846</v>
       </c>
       <c r="M5" t="s">
-        <v>2839</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>2840</v>
+        <v>2848</v>
       </c>
       <c r="B6" t="s">
-        <v>2838</v>
+        <v>2846</v>
       </c>
       <c r="M6" t="s">
-        <v>2839</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>2841</v>
+        <v>2849</v>
       </c>
       <c r="B7" t="s">
-        <v>2842</v>
+        <v>2850</v>
       </c>
       <c r="M7" t="s">
-        <v>2843</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>2844</v>
+        <v>2852</v>
       </c>
       <c r="B8" t="s">
-        <v>2845</v>
+        <v>2853</v>
       </c>
       <c r="M8" t="s">
-        <v>2846</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>2847</v>
+        <v>2855</v>
       </c>
       <c r="B9" t="s">
-        <v>2848</v>
+        <v>2856</v>
       </c>
       <c r="M9" t="s">
-        <v>2849</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>2850</v>
+        <v>2858</v>
       </c>
       <c r="B10" t="s">
-        <v>2851</v>
+        <v>2859</v>
       </c>
       <c r="M10" t="s">
-        <v>2852</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>2853</v>
+        <v>2861</v>
       </c>
       <c r="B11" t="s">
-        <v>2854</v>
+        <v>2862</v>
       </c>
       <c r="M11" t="s">
-        <v>2855</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>2856</v>
+        <v>2864</v>
       </c>
       <c r="B12" t="s">
-        <v>2857</v>
+        <v>2865</v>
       </c>
       <c r="M12" t="s">
-        <v>2858</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>2859</v>
+        <v>2867</v>
       </c>
       <c r="B13" t="s">
-        <v>2860</v>
+        <v>2868</v>
       </c>
       <c r="M13" t="s">
-        <v>2861</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>2862</v>
+        <v>2870</v>
       </c>
       <c r="B14" t="s">
-        <v>2863</v>
+        <v>2871</v>
       </c>
       <c r="M14" t="s">
-        <v>2864</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>2865</v>
+        <v>2873</v>
       </c>
       <c r="B15" t="s">
-        <v>2866</v>
+        <v>2874</v>
       </c>
       <c r="M15" t="s">
-        <v>2867</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>2868</v>
+        <v>2876</v>
       </c>
       <c r="B16" t="s">
-        <v>2869</v>
+        <v>2877</v>
       </c>
       <c r="M16" t="s">
-        <v>2870</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>2871</v>
+        <v>2879</v>
       </c>
       <c r="B17" t="s">
-        <v>2872</v>
+        <v>2880</v>
       </c>
       <c r="M17" t="s">
-        <v>2873</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>2874</v>
+        <v>2882</v>
       </c>
       <c r="B18" t="s">
-        <v>2875</v>
+        <v>2883</v>
       </c>
       <c r="M18" t="s">
-        <v>2876</v>
+        <v>2884</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13140" tabRatio="837" activeTab="11"/>
+    <workbookView windowWidth="28695" windowHeight="13140" tabRatio="837" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="ModText" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2888">
   <si>
     <t>English</t>
   </si>
@@ -9543,13 +9543,22 @@
     <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.1.2&lt;/size&gt;&lt;size=70%&gt;\nやっふぉー。清盛だよ～\n今回のアップデートの内容はこんな感じさ！\n1.バグ修正\n2.以下の役職を属性扱いに変更しました\n  オポチュニスト\n  ウォッチャー\n3.属性追加\n  サングラス\n\nそれじゃーね～～～                       でこぼこの清盛&amp;麦茶&lt;/size&gt;</t>
   </si>
   <si>
+    <t>Ver.1.1.2.1</t>
+  </si>
+  <si>
+    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.1.2&lt;/size&gt;&lt;size=70%&gt;\nHi! I'm Kiyomori!\nThis Update Contents is...\n1.Fixed Some Bugs\n\nSee you next Update~~~!                        DekoKiyo&amp;Mugicha&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.1.2&lt;/size&gt;&lt;size=70%&gt;\nやっふぉー。清盛だよ～\n今回のアップデートの内容はこんな感じさ！\n1.バグ修正\n\n\nそれじゃーね～～～                       でこぼこの清盛&amp;麦茶&lt;/size&gt;</t>
+  </si>
+  <si>
     <t>release</t>
   </si>
   <si>
-    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.1.2&lt;/size&gt;&lt;size=70%&gt;\nHi! I'm Kiyomori!\nThis Update Contents is...\n1.Fixed Some Bugs\n\nSee you next Update~~~!                        DekoKiyo&amp;Mugicha&lt;/size&gt;</t>
-  </si>
-  <si>
-    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.1.2&lt;/size&gt;&lt;size=70%&gt;\nやっふぉー。清盛だよ～\n今回のアップデートの内容はこんな感じさ！\n1.バグ修正\n\n\nそれじゃーね～～～                       でこぼこの清盛&amp;麦茶&lt;/size&gt;</t>
+    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.1.2&lt;/size&gt;&lt;size=70%&gt;\nHi! I'm Kiyomori!\nThis Update Contents is...\n1.Add YJ Hats!\n2.Add mememura Hats!\n\nSee you next Update~~~!                        DekoKiyo&amp;Mugicha&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>&lt;size=110%&gt;&lt;color=#FC0303&gt;TOR GM KM Update!&lt;/color&gt;Ver1.1.2&lt;/size&gt;&lt;size=70%&gt;\nやっふぉー。清盛だよ～\n今回のアップデートの内容はこんな感じさ！\n1.YJ様のカスタムハットを追加!\n2.めめ村で実際に使用されているカスタムハットを追加!\n\nそれじゃーね～～～                       でこぼこの清盛&amp;麦茶&lt;/size&gt;</t>
   </si>
 </sst>
 </file>
@@ -9558,9 +9567,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -9639,8 +9648,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="游ゴシック"/>
       <charset val="134"/>
@@ -9648,7 +9672,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9677,47 +9709,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9738,39 +9739,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="游ゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="游ゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="游ゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="游ゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9797,19 +9806,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9827,7 +9902,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9839,7 +9920,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9851,7 +9968,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9863,121 +9986,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9991,11 +10000,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10015,28 +10030,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10069,22 +10082,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10094,146 +10103,146 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -12921,7 +12930,7 @@
   <sheetPr/>
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -13403,10 +13412,10 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -13646,6 +13655,17 @@
       </c>
       <c r="M18" t="s">
         <v>2884</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>2885</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2886</v>
+      </c>
+      <c r="M19" t="s">
+        <v>2887</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aoto\Desktop\AmongUsMod\TheOtherRolesGM-KiyoMugi-Edition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0A1155-FA69-424D-B69A-7BB8AC506C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56452346-B01D-400C-8026-2C4AF348504C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6195" yWindow="3285" windowWidth="21600" windowHeight="11385" tabRatio="882" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29820" yWindow="3000" windowWidth="21600" windowHeight="11370" tabRatio="882" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModText" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3708" uniqueCount="3174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3747" uniqueCount="3211">
   <si>
     <t>English</t>
   </si>
@@ -10799,6 +10799,204 @@
     <rPh sb="34" eb="35">
       <t>シ</t>
     </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>enableRandomWireTask</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Enable Random WireTask</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>配線の順番をランダムにする</t>
+    <rPh sb="0" eb="2">
+      <t>ハイセン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュンバン</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>numWireTask</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Num WireTask</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>配線の数</t>
+    <rPh sb="0" eb="2">
+      <t>ハイセン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>eater</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Eater</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>イーター</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>eaterEatCooldown</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Eat Cooldown</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>捕食クールダウン</t>
+    <rPh sb="0" eb="2">
+      <t>ホショク</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>eaterEatTime</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Eat Time</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>捕食時間</t>
+    <rPh sb="0" eb="2">
+      <t>ホショク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>eaterIntroDesc</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>存在を抹消しよう</t>
+    <rPh sb="0" eb="2">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>マッショウ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Let's wipe them out of existence.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>eaterShortDesc</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>eaterFullDesc</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>・捕食ボタンを押すと、死体をなくすかつキルができる。
+・だが、死体の上に設定秒数立っていないと死体を食べれない。</t>
+    <rPh sb="1" eb="3">
+      <t>ホショク</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Pressing the eat button will eliminate the corpse and make the kill.
+However, you have to stand on the corpse for a set number of seconds before you can eat the corpse.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Eat</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>捕食</t>
+    <rPh sb="0" eb="2">
+      <t>ホショク</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>EatText</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>enableAirshipVaultMeetingArchiveVent</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>enablePolusWeaponSpecimenOfficeVent</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Airship Vault-Meeting-Archive</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>エアーシップ 金庫室-ミーティングルーム-アーカイブ</t>
+    <rPh sb="7" eb="10">
+      <t>キンコシツ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Polus Weapon-Specimen-Office</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>ポーラス ウェポンルーム-標本室-オフィス</t>
+    <rPh sb="13" eb="16">
+      <t>ヒョウホンシツ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>enableMiraO2CommsYjiVent</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Mira O2-Comms-Y</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>ミラ O2-コミュ-Y字路中央</t>
+    <rPh sb="11" eb="12">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ロ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チュウオウ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>enableSkeldStorageAdminO2Vent</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Skeld Storage-Admin-O2</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>スケルド ストレージ-アドミン-O2</t>
     <phoneticPr fontId="15"/>
   </si>
 </sst>
@@ -12541,10 +12739,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+      <selection activeCell="Q66" sqref="Q66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -13380,6 +13578,17 @@
       </c>
       <c r="M58" s="39" t="s">
         <v>3139</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="39" t="s">
+        <v>3198</v>
+      </c>
+      <c r="B59" s="39" t="s">
+        <v>3196</v>
+      </c>
+      <c r="M59" s="39" t="s">
+        <v>3197</v>
       </c>
     </row>
   </sheetData>
@@ -14037,7 +14246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
@@ -14123,7 +14332,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="N27" sqref="N26:N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -14256,7 +14465,7 @@
   <dimension ref="A1:Q901"/>
   <sheetViews>
     <sheetView topLeftCell="A71" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M87" sqref="M87"/>
+      <selection activeCell="M88" sqref="M88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -16342,8 +16551,12 @@
       <c r="O87" s="6"/>
     </row>
     <row r="88" spans="1:15">
-      <c r="A88" s="15"/>
-      <c r="B88" s="17"/>
+      <c r="A88" s="15" t="s">
+        <v>3180</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>3181</v>
+      </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
@@ -16354,7 +16567,9 @@
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
-      <c r="M88" s="6"/>
+      <c r="M88" s="5" t="s">
+        <v>3182</v>
+      </c>
       <c r="N88" s="6"/>
       <c r="O88" s="6"/>
     </row>
@@ -18673,7 +18888,7 @@
   <dimension ref="A1:Q906"/>
   <sheetViews>
     <sheetView topLeftCell="A338" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B370" sqref="B370"/>
+      <selection activeCell="B364" sqref="B364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -25704,7 +25919,27 @@
       <c r="O362" s="1"/>
     </row>
     <row r="363" spans="1:15">
+      <c r="A363" s="39" t="s">
+        <v>3183</v>
+      </c>
+      <c r="B363" s="39" t="s">
+        <v>3184</v>
+      </c>
+      <c r="M363" s="39" t="s">
+        <v>3185</v>
+      </c>
       <c r="O363" s="1"/>
+    </row>
+    <row r="364" spans="1:15">
+      <c r="A364" s="39" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B364" s="39" t="s">
+        <v>3187</v>
+      </c>
+      <c r="M364" s="39" t="s">
+        <v>3188</v>
+      </c>
     </row>
     <row r="365" spans="1:15">
       <c r="O365" s="1"/>
@@ -27242,10 +27477,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q896"/>
+  <dimension ref="A1:Q894"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -28507,10 +28742,10 @@
     </row>
     <row r="94" spans="1:15" s="4" customFormat="1">
       <c r="A94" s="5" t="s">
-        <v>3102</v>
+        <v>3140</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>3103</v>
+        <v>3141</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -28523,14 +28758,18 @@
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
       <c r="M94" s="5" t="s">
-        <v>3104</v>
+        <v>3142</v>
       </c>
       <c r="N94" s="6"/>
       <c r="O94" s="6"/>
     </row>
     <row r="95" spans="1:15" s="4" customFormat="1">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
+      <c r="A95" s="5" t="s">
+        <v>3143</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>3144</v>
+      </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
@@ -28541,17 +28780,15 @@
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
-      <c r="M95" s="6"/>
+      <c r="M95" s="5" t="s">
+        <v>3145</v>
+      </c>
       <c r="N95" s="6"/>
       <c r="O95" s="6"/>
     </row>
     <row r="96" spans="1:15" s="4" customFormat="1">
-      <c r="A96" s="5" t="s">
-        <v>3140</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>3141</v>
-      </c>
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
@@ -28562,130 +28799,170 @@
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
-      <c r="M96" s="5" t="s">
-        <v>3142</v>
-      </c>
+      <c r="M96" s="6"/>
       <c r="N96" s="6"/>
       <c r="O96" s="6"/>
     </row>
     <row r="97" spans="1:15" s="4" customFormat="1">
       <c r="A97" s="5" t="s">
-        <v>3143</v>
+        <v>3174</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>3144</v>
-      </c>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
-      <c r="L97" s="6"/>
+        <v>3175</v>
+      </c>
       <c r="M97" s="5" t="s">
-        <v>3145</v>
-      </c>
-      <c r="N97" s="6"/>
-      <c r="O97" s="6"/>
-    </row>
-    <row r="98" spans="1:15" s="4" customFormat="1">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
-      <c r="L98" s="6"/>
-      <c r="M98" s="6"/>
-      <c r="N98" s="6"/>
-      <c r="O98" s="6"/>
-    </row>
-    <row r="99" spans="1:15" s="4" customFormat="1">
-      <c r="O99" s="27"/>
-    </row>
-    <row r="100" spans="1:15">
-      <c r="O100" s="1"/>
+        <v>3176</v>
+      </c>
+      <c r="O97" s="27"/>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" s="5" t="s">
+        <v>3177</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>3178</v>
+      </c>
+      <c r="M98" s="5" t="s">
+        <v>3179</v>
+      </c>
+      <c r="O98" s="1"/>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="O99" s="1"/>
+    </row>
+    <row r="100" spans="1:15" s="4" customFormat="1">
+      <c r="A100" s="5" t="s">
+        <v>3102</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>3103</v>
+      </c>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="5" t="s">
+        <v>3104</v>
+      </c>
+      <c r="N100" s="6"/>
+      <c r="O100" s="6"/>
     </row>
     <row r="101" spans="1:15">
-      <c r="O101" s="1"/>
+      <c r="A101" s="5" t="s">
+        <v>3199</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>3201</v>
+      </c>
+      <c r="M101" s="5" t="s">
+        <v>3202</v>
+      </c>
     </row>
     <row r="102" spans="1:15">
+      <c r="A102" s="5" t="s">
+        <v>3200</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>3203</v>
+      </c>
+      <c r="M102" s="5" t="s">
+        <v>3204</v>
+      </c>
       <c r="O102" s="1"/>
     </row>
+    <row r="103" spans="1:15">
+      <c r="A103" s="5" t="s">
+        <v>3205</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>3206</v>
+      </c>
+      <c r="M103" s="5" t="s">
+        <v>3207</v>
+      </c>
+      <c r="O103" s="1"/>
+    </row>
     <row r="104" spans="1:15">
+      <c r="A104" s="5" t="s">
+        <v>3208</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>3209</v>
+      </c>
+      <c r="M104" s="5" t="s">
+        <v>3210</v>
+      </c>
       <c r="O104" s="1"/>
     </row>
-    <row r="105" spans="1:15">
-      <c r="O105" s="1"/>
-    </row>
-    <row r="106" spans="1:15">
-      <c r="O106" s="1"/>
+    <row r="108" spans="1:15">
+      <c r="O108" s="1"/>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="O109" s="1"/>
     </row>
     <row r="110" spans="1:15">
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15">
-      <c r="O111" s="1"/>
-    </row>
     <row r="112" spans="1:15">
       <c r="O112" s="1"/>
     </row>
+    <row r="113" spans="15:15">
+      <c r="O113" s="1"/>
+    </row>
     <row r="114" spans="15:15">
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="15:15">
-      <c r="O115" s="1"/>
-    </row>
     <row r="116" spans="15:15">
       <c r="O116" s="1"/>
     </row>
-    <row r="118" spans="15:15">
-      <c r="O118" s="1"/>
+    <row r="120" spans="15:15">
+      <c r="O120" s="1"/>
+    </row>
+    <row r="121" spans="15:15">
+      <c r="O121" s="1"/>
     </row>
     <row r="122" spans="15:15">
       <c r="O122" s="1"/>
     </row>
-    <row r="123" spans="15:15">
-      <c r="O123" s="1"/>
-    </row>
     <row r="124" spans="15:15">
       <c r="O124" s="1"/>
     </row>
-    <row r="126" spans="15:15">
-      <c r="O126" s="1"/>
+    <row r="128" spans="15:15">
+      <c r="O128" s="1"/>
+    </row>
+    <row r="129" spans="15:15">
+      <c r="O129" s="1"/>
     </row>
     <row r="130" spans="15:15">
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="15:15">
-      <c r="O131" s="1"/>
-    </row>
     <row r="132" spans="15:15">
       <c r="O132" s="1"/>
     </row>
-    <row r="134" spans="15:15">
-      <c r="O134" s="1"/>
-    </row>
-    <row r="135" spans="15:15">
-      <c r="O135" s="1"/>
+    <row r="133" spans="15:15">
+      <c r="O133" s="1"/>
+    </row>
+    <row r="137" spans="15:15">
+      <c r="O137" s="1"/>
+    </row>
+    <row r="138" spans="15:15">
+      <c r="O138" s="1"/>
     </row>
     <row r="139" spans="15:15">
       <c r="O139" s="1"/>
     </row>
-    <row r="140" spans="15:15">
-      <c r="O140" s="1"/>
-    </row>
     <row r="141" spans="15:15">
       <c r="O141" s="1"/>
     </row>
+    <row r="142" spans="15:15">
+      <c r="O142" s="1"/>
+    </row>
     <row r="143" spans="15:15">
       <c r="O143" s="1"/>
     </row>
@@ -28695,56 +28972,56 @@
     <row r="145" spans="15:15">
       <c r="O145" s="1"/>
     </row>
-    <row r="146" spans="15:15">
-      <c r="O146" s="1"/>
-    </row>
-    <row r="147" spans="15:15">
-      <c r="O147" s="1"/>
+    <row r="149" spans="15:15">
+      <c r="O149" s="1"/>
     </row>
     <row r="151" spans="15:15">
       <c r="O151" s="1"/>
     </row>
+    <row r="152" spans="15:15">
+      <c r="O152" s="1"/>
+    </row>
     <row r="153" spans="15:15">
       <c r="O153" s="1"/>
     </row>
-    <row r="154" spans="15:15">
-      <c r="O154" s="1"/>
-    </row>
     <row r="155" spans="15:15">
       <c r="O155" s="1"/>
     </row>
+    <row r="156" spans="15:15">
+      <c r="O156" s="1"/>
+    </row>
     <row r="157" spans="15:15">
       <c r="O157" s="1"/>
     </row>
-    <row r="158" spans="15:15">
-      <c r="O158" s="1"/>
-    </row>
     <row r="159" spans="15:15">
       <c r="O159" s="1"/>
     </row>
-    <row r="161" spans="2:15">
-      <c r="O161" s="1"/>
-    </row>
-    <row r="162" spans="2:15">
-      <c r="O162" s="1"/>
+    <row r="160" spans="15:15">
+      <c r="O160" s="1"/>
+    </row>
+    <row r="164" spans="2:15">
+      <c r="O164" s="1"/>
+    </row>
+    <row r="165" spans="2:15">
+      <c r="O165" s="1"/>
     </row>
     <row r="166" spans="2:15">
       <c r="O166" s="1"/>
     </row>
     <row r="167" spans="2:15">
+      <c r="B167" s="8"/>
+      <c r="M167" s="8"/>
       <c r="O167" s="1"/>
     </row>
     <row r="168" spans="2:15">
+      <c r="B168" s="8"/>
+      <c r="M168" s="8"/>
       <c r="O168" s="1"/>
     </row>
     <row r="169" spans="2:15">
-      <c r="B169" s="8"/>
-      <c r="M169" s="8"/>
       <c r="O169" s="1"/>
     </row>
     <row r="170" spans="2:15">
-      <c r="B170" s="8"/>
-      <c r="M170" s="8"/>
       <c r="O170" s="1"/>
     </row>
     <row r="171" spans="2:15">
@@ -28765,24 +29042,24 @@
     <row r="176" spans="2:15">
       <c r="O176" s="1"/>
     </row>
-    <row r="177" spans="15:15">
-      <c r="O177" s="1"/>
-    </row>
-    <row r="178" spans="15:15">
-      <c r="O178" s="1"/>
+    <row r="180" spans="15:15">
+      <c r="O180" s="1"/>
     </row>
     <row r="182" spans="15:15">
       <c r="O182" s="1"/>
     </row>
+    <row r="183" spans="15:15">
+      <c r="O183" s="1"/>
+    </row>
     <row r="184" spans="15:15">
       <c r="O184" s="1"/>
     </row>
-    <row r="185" spans="15:15">
-      <c r="O185" s="1"/>
-    </row>
     <row r="186" spans="15:15">
       <c r="O186" s="1"/>
     </row>
+    <row r="187" spans="15:15">
+      <c r="O187" s="1"/>
+    </row>
     <row r="188" spans="15:15">
       <c r="O188" s="1"/>
     </row>
@@ -28802,30 +29079,30 @@
       <c r="O193" s="1"/>
     </row>
     <row r="194" spans="1:15">
+      <c r="A194" s="20"/>
       <c r="O194" s="1"/>
     </row>
     <row r="195" spans="1:15">
       <c r="O195" s="1"/>
     </row>
     <row r="196" spans="1:15">
-      <c r="A196" s="20"/>
       <c r="O196" s="1"/>
     </row>
     <row r="197" spans="1:15">
       <c r="O197" s="1"/>
     </row>
-    <row r="198" spans="1:15">
-      <c r="O198" s="1"/>
-    </row>
-    <row r="199" spans="1:15">
-      <c r="O199" s="1"/>
-    </row>
-    <row r="203" spans="1:15">
-      <c r="O203" s="1"/>
+    <row r="201" spans="1:15">
+      <c r="O201" s="1"/>
+    </row>
+    <row r="202" spans="1:15">
+      <c r="O202" s="1"/>
     </row>
     <row r="204" spans="1:15">
       <c r="O204" s="1"/>
     </row>
+    <row r="205" spans="1:15">
+      <c r="O205" s="1"/>
+    </row>
     <row r="206" spans="1:15">
       <c r="O206" s="1"/>
     </row>
@@ -28847,53 +29124,53 @@
     <row r="212" spans="15:15">
       <c r="O212" s="1"/>
     </row>
-    <row r="213" spans="15:15">
-      <c r="O213" s="1"/>
-    </row>
     <row r="214" spans="15:15">
       <c r="O214" s="1"/>
     </row>
-    <row r="216" spans="15:15">
-      <c r="O216" s="1"/>
-    </row>
-    <row r="217" spans="15:15">
-      <c r="O217" s="1"/>
+    <row r="215" spans="15:15">
+      <c r="O215" s="1"/>
+    </row>
+    <row r="219" spans="15:15">
+      <c r="O219" s="1"/>
+    </row>
+    <row r="220" spans="15:15">
+      <c r="O220" s="1"/>
     </row>
     <row r="221" spans="15:15">
       <c r="O221" s="1"/>
     </row>
-    <row r="222" spans="15:15">
-      <c r="O222" s="1"/>
-    </row>
     <row r="223" spans="15:15">
       <c r="O223" s="1"/>
     </row>
+    <row r="224" spans="15:15">
+      <c r="O224" s="1"/>
+    </row>
     <row r="225" spans="15:15">
       <c r="O225" s="1"/>
     </row>
-    <row r="226" spans="15:15">
-      <c r="O226" s="1"/>
-    </row>
-    <row r="227" spans="15:15">
-      <c r="O227" s="1"/>
+    <row r="229" spans="15:15">
+      <c r="O229" s="1"/>
+    </row>
+    <row r="230" spans="15:15">
+      <c r="O230" s="1"/>
     </row>
     <row r="231" spans="15:15">
       <c r="O231" s="1"/>
     </row>
-    <row r="232" spans="15:15">
-      <c r="O232" s="1"/>
-    </row>
     <row r="233" spans="15:15">
       <c r="O233" s="1"/>
     </row>
+    <row r="234" spans="15:15">
+      <c r="O234" s="1"/>
+    </row>
     <row r="235" spans="15:15">
       <c r="O235" s="1"/>
     </row>
-    <row r="236" spans="15:15">
-      <c r="O236" s="1"/>
-    </row>
-    <row r="237" spans="15:15">
-      <c r="O237" s="1"/>
+    <row r="239" spans="15:15">
+      <c r="O239" s="1"/>
+    </row>
+    <row r="240" spans="15:15">
+      <c r="O240" s="1"/>
     </row>
     <row r="241" spans="15:15">
       <c r="O241" s="1"/>
@@ -28901,21 +29178,21 @@
     <row r="242" spans="15:15">
       <c r="O242" s="1"/>
     </row>
-    <row r="243" spans="15:15">
-      <c r="O243" s="1"/>
-    </row>
     <row r="244" spans="15:15">
       <c r="O244" s="1"/>
     </row>
+    <row r="245" spans="15:15">
+      <c r="O245" s="1"/>
+    </row>
     <row r="246" spans="15:15">
       <c r="O246" s="1"/>
     </row>
-    <row r="247" spans="15:15">
-      <c r="O247" s="1"/>
-    </row>
     <row r="248" spans="15:15">
       <c r="O248" s="1"/>
     </row>
+    <row r="249" spans="15:15">
+      <c r="O249" s="1"/>
+    </row>
     <row r="250" spans="15:15">
       <c r="O250" s="1"/>
     </row>
@@ -28925,12 +29202,12 @@
     <row r="252" spans="15:15">
       <c r="O252" s="1"/>
     </row>
-    <row r="253" spans="15:15">
-      <c r="O253" s="1"/>
-    </row>
     <row r="254" spans="15:15">
       <c r="O254" s="1"/>
     </row>
+    <row r="255" spans="15:15">
+      <c r="O255" s="1"/>
+    </row>
     <row r="256" spans="15:15">
       <c r="O256" s="1"/>
     </row>
@@ -28943,39 +29220,39 @@
     <row r="259" spans="15:15">
       <c r="O259" s="1"/>
     </row>
-    <row r="260" spans="15:15">
-      <c r="O260" s="1"/>
-    </row>
-    <row r="261" spans="15:15">
-      <c r="O261" s="1"/>
+    <row r="263" spans="15:15">
+      <c r="O263" s="1"/>
+    </row>
+    <row r="264" spans="15:15">
+      <c r="O264" s="1"/>
     </row>
     <row r="265" spans="15:15">
       <c r="O265" s="1"/>
     </row>
-    <row r="266" spans="15:15">
-      <c r="O266" s="1"/>
-    </row>
     <row r="267" spans="15:15">
       <c r="O267" s="1"/>
     </row>
+    <row r="268" spans="15:15">
+      <c r="O268" s="1"/>
+    </row>
     <row r="269" spans="15:15">
       <c r="O269" s="1"/>
     </row>
-    <row r="270" spans="15:15">
-      <c r="O270" s="1"/>
-    </row>
     <row r="271" spans="15:15">
       <c r="O271" s="1"/>
     </row>
+    <row r="272" spans="15:15">
+      <c r="O272" s="1"/>
+    </row>
     <row r="273" spans="15:15">
       <c r="O273" s="1"/>
     </row>
-    <row r="274" spans="15:15">
-      <c r="O274" s="1"/>
-    </row>
     <row r="275" spans="15:15">
       <c r="O275" s="1"/>
     </row>
+    <row r="276" spans="15:15">
+      <c r="O276" s="1"/>
+    </row>
     <row r="277" spans="15:15">
       <c r="O277" s="1"/>
     </row>
@@ -28985,66 +29262,66 @@
     <row r="279" spans="15:15">
       <c r="O279" s="1"/>
     </row>
-    <row r="280" spans="15:15">
-      <c r="O280" s="1"/>
-    </row>
     <row r="281" spans="15:15">
       <c r="O281" s="1"/>
     </row>
-    <row r="283" spans="15:15">
-      <c r="O283" s="1"/>
+    <row r="284" spans="15:15">
+      <c r="O284" s="1"/>
+    </row>
+    <row r="285" spans="15:15">
+      <c r="O285" s="1"/>
     </row>
     <row r="286" spans="15:15">
       <c r="O286" s="1"/>
     </row>
-    <row r="287" spans="15:15">
-      <c r="O287" s="1"/>
-    </row>
     <row r="288" spans="15:15">
       <c r="O288" s="1"/>
     </row>
+    <row r="289" spans="15:15">
+      <c r="O289" s="1"/>
+    </row>
     <row r="290" spans="15:15">
       <c r="O290" s="1"/>
     </row>
-    <row r="291" spans="15:15">
-      <c r="O291" s="1"/>
-    </row>
-    <row r="292" spans="15:15">
-      <c r="O292" s="1"/>
+    <row r="294" spans="15:15">
+      <c r="O294" s="1"/>
+    </row>
+    <row r="295" spans="15:15">
+      <c r="O295" s="1"/>
     </row>
     <row r="296" spans="15:15">
       <c r="O296" s="1"/>
     </row>
-    <row r="297" spans="15:15">
-      <c r="O297" s="1"/>
-    </row>
     <row r="298" spans="15:15">
       <c r="O298" s="1"/>
     </row>
+    <row r="299" spans="15:15">
+      <c r="O299" s="1"/>
+    </row>
     <row r="300" spans="15:15">
       <c r="O300" s="1"/>
     </row>
     <row r="301" spans="15:15">
       <c r="O301" s="1"/>
     </row>
-    <row r="302" spans="15:15">
-      <c r="O302" s="1"/>
-    </row>
     <row r="303" spans="15:15">
       <c r="O303" s="1"/>
     </row>
-    <row r="305" spans="15:15">
-      <c r="O305" s="1"/>
+    <row r="307" spans="15:15">
+      <c r="O307" s="1"/>
+    </row>
+    <row r="308" spans="15:15">
+      <c r="O308" s="1"/>
     </row>
     <row r="309" spans="15:15">
       <c r="O309" s="1"/>
     </row>
-    <row r="310" spans="15:15">
-      <c r="O310" s="1"/>
-    </row>
     <row r="311" spans="15:15">
       <c r="O311" s="1"/>
     </row>
+    <row r="312" spans="15:15">
+      <c r="O312" s="1"/>
+    </row>
     <row r="313" spans="15:15">
       <c r="O313" s="1"/>
     </row>
@@ -29054,21 +29331,21 @@
     <row r="315" spans="15:15">
       <c r="O315" s="1"/>
     </row>
-    <row r="316" spans="15:15">
-      <c r="O316" s="1"/>
-    </row>
-    <row r="317" spans="15:15">
-      <c r="O317" s="1"/>
+    <row r="319" spans="15:15">
+      <c r="O319" s="1"/>
+    </row>
+    <row r="320" spans="15:15">
+      <c r="O320" s="1"/>
     </row>
     <row r="321" spans="15:15">
       <c r="O321" s="1"/>
     </row>
-    <row r="322" spans="15:15">
-      <c r="O322" s="1"/>
-    </row>
     <row r="323" spans="15:15">
       <c r="O323" s="1"/>
     </row>
+    <row r="324" spans="15:15">
+      <c r="O324" s="1"/>
+    </row>
     <row r="325" spans="15:15">
       <c r="O325" s="1"/>
     </row>
@@ -29078,12 +29355,12 @@
     <row r="327" spans="15:15">
       <c r="O327" s="1"/>
     </row>
-    <row r="328" spans="15:15">
-      <c r="O328" s="1"/>
-    </row>
     <row r="329" spans="15:15">
       <c r="O329" s="1"/>
     </row>
+    <row r="330" spans="15:15">
+      <c r="O330" s="1"/>
+    </row>
     <row r="331" spans="15:15">
       <c r="O331" s="1"/>
     </row>
@@ -29099,39 +29376,39 @@
     <row r="335" spans="15:15">
       <c r="O335" s="1"/>
     </row>
-    <row r="336" spans="15:15">
-      <c r="O336" s="1"/>
-    </row>
-    <row r="337" spans="15:15">
-      <c r="O337" s="1"/>
+    <row r="339" spans="15:15">
+      <c r="O339" s="1"/>
+    </row>
+    <row r="340" spans="15:15">
+      <c r="O340" s="1"/>
     </row>
     <row r="341" spans="15:15">
       <c r="O341" s="1"/>
     </row>
-    <row r="342" spans="15:15">
-      <c r="O342" s="1"/>
-    </row>
     <row r="343" spans="15:15">
       <c r="O343" s="1"/>
     </row>
+    <row r="344" spans="15:15">
+      <c r="O344" s="1"/>
+    </row>
     <row r="345" spans="15:15">
       <c r="O345" s="1"/>
     </row>
-    <row r="346" spans="15:15">
-      <c r="O346" s="1"/>
-    </row>
-    <row r="347" spans="15:15">
-      <c r="O347" s="1"/>
+    <row r="349" spans="15:15">
+      <c r="O349" s="1"/>
+    </row>
+    <row r="350" spans="15:15">
+      <c r="O350" s="1"/>
     </row>
     <row r="351" spans="15:15">
       <c r="O351" s="1"/>
     </row>
-    <row r="352" spans="15:15">
-      <c r="O352" s="1"/>
-    </row>
     <row r="353" spans="15:15">
       <c r="O353" s="1"/>
     </row>
+    <row r="354" spans="15:15">
+      <c r="O354" s="1"/>
+    </row>
     <row r="355" spans="15:15">
       <c r="O355" s="1"/>
     </row>
@@ -29147,60 +29424,60 @@
     <row r="359" spans="15:15">
       <c r="O359" s="1"/>
     </row>
-    <row r="360" spans="15:15">
-      <c r="O360" s="1"/>
-    </row>
     <row r="361" spans="15:15">
       <c r="O361" s="1"/>
     </row>
-    <row r="363" spans="15:15">
-      <c r="O363" s="1"/>
+    <row r="365" spans="15:15">
+      <c r="O365" s="1"/>
     </row>
     <row r="367" spans="15:15">
       <c r="O367" s="1"/>
     </row>
+    <row r="368" spans="15:15">
+      <c r="O368" s="1"/>
+    </row>
     <row r="369" spans="15:15">
       <c r="O369" s="1"/>
     </row>
-    <row r="370" spans="15:15">
-      <c r="O370" s="1"/>
-    </row>
     <row r="371" spans="15:15">
       <c r="O371" s="1"/>
     </row>
+    <row r="372" spans="15:15">
+      <c r="O372" s="1"/>
+    </row>
     <row r="373" spans="15:15">
       <c r="O373" s="1"/>
     </row>
-    <row r="374" spans="15:15">
-      <c r="O374" s="1"/>
-    </row>
     <row r="375" spans="15:15">
       <c r="O375" s="1"/>
     </row>
+    <row r="376" spans="15:15">
+      <c r="O376" s="1"/>
+    </row>
     <row r="377" spans="15:15">
       <c r="O377" s="1"/>
     </row>
     <row r="378" spans="15:15">
       <c r="O378" s="1"/>
     </row>
-    <row r="379" spans="15:15">
-      <c r="O379" s="1"/>
-    </row>
     <row r="380" spans="15:15">
       <c r="O380" s="1"/>
     </row>
-    <row r="382" spans="15:15">
-      <c r="O382" s="1"/>
+    <row r="384" spans="15:15">
+      <c r="O384" s="1"/>
+    </row>
+    <row r="385" spans="15:15">
+      <c r="O385" s="1"/>
     </row>
     <row r="386" spans="15:15">
       <c r="O386" s="1"/>
     </row>
-    <row r="387" spans="15:15">
-      <c r="O387" s="1"/>
-    </row>
     <row r="388" spans="15:15">
       <c r="O388" s="1"/>
     </row>
+    <row r="389" spans="15:15">
+      <c r="O389" s="1"/>
+    </row>
     <row r="390" spans="15:15">
       <c r="O390" s="1"/>
     </row>
@@ -29231,12 +29508,12 @@
     <row r="399" spans="15:15">
       <c r="O399" s="1"/>
     </row>
-    <row r="400" spans="15:15">
-      <c r="O400" s="1"/>
-    </row>
     <row r="401" spans="15:15">
       <c r="O401" s="1"/>
     </row>
+    <row r="402" spans="15:15">
+      <c r="O402" s="1"/>
+    </row>
     <row r="403" spans="15:15">
       <c r="O403" s="1"/>
     </row>
@@ -29249,24 +29526,24 @@
     <row r="406" spans="15:15">
       <c r="O406" s="1"/>
     </row>
-    <row r="407" spans="15:15">
-      <c r="O407" s="1"/>
-    </row>
     <row r="408" spans="15:15">
       <c r="O408" s="1"/>
     </row>
-    <row r="410" spans="15:15">
-      <c r="O410" s="1"/>
+    <row r="412" spans="15:15">
+      <c r="O412" s="1"/>
+    </row>
+    <row r="413" spans="15:15">
+      <c r="O413" s="1"/>
     </row>
     <row r="414" spans="15:15">
       <c r="O414" s="1"/>
     </row>
-    <row r="415" spans="15:15">
-      <c r="O415" s="1"/>
-    </row>
     <row r="416" spans="15:15">
       <c r="O416" s="1"/>
     </row>
+    <row r="417" spans="15:15">
+      <c r="O417" s="1"/>
+    </row>
     <row r="418" spans="15:15">
       <c r="O418" s="1"/>
     </row>
@@ -29276,60 +29553,60 @@
     <row r="420" spans="15:15">
       <c r="O420" s="1"/>
     </row>
-    <row r="421" spans="15:15">
-      <c r="O421" s="1"/>
-    </row>
-    <row r="422" spans="15:15">
-      <c r="O422" s="1"/>
+    <row r="424" spans="15:15">
+      <c r="O424" s="1"/>
+    </row>
+    <row r="425" spans="15:15">
+      <c r="O425" s="1"/>
     </row>
     <row r="426" spans="15:15">
       <c r="O426" s="1"/>
     </row>
-    <row r="427" spans="15:15">
-      <c r="O427" s="1"/>
-    </row>
     <row r="428" spans="15:15">
       <c r="O428" s="1"/>
     </row>
+    <row r="429" spans="15:15">
+      <c r="O429" s="1"/>
+    </row>
     <row r="430" spans="15:15">
       <c r="O430" s="1"/>
     </row>
-    <row r="431" spans="15:15">
-      <c r="O431" s="1"/>
-    </row>
-    <row r="432" spans="15:15">
-      <c r="O432" s="1"/>
+    <row r="434" spans="15:15">
+      <c r="O434" s="1"/>
+    </row>
+    <row r="435" spans="15:15">
+      <c r="O435" s="1"/>
     </row>
     <row r="436" spans="15:15">
       <c r="O436" s="1"/>
     </row>
-    <row r="437" spans="15:15">
-      <c r="O437" s="1"/>
-    </row>
     <row r="438" spans="15:15">
       <c r="O438" s="1"/>
     </row>
+    <row r="439" spans="15:15">
+      <c r="O439" s="1"/>
+    </row>
     <row r="440" spans="15:15">
       <c r="O440" s="1"/>
     </row>
     <row r="441" spans="15:15">
       <c r="O441" s="1"/>
     </row>
-    <row r="442" spans="15:15">
-      <c r="O442" s="1"/>
-    </row>
-    <row r="443" spans="15:15">
-      <c r="O443" s="1"/>
+    <row r="445" spans="15:15">
+      <c r="O445" s="1"/>
+    </row>
+    <row r="446" spans="15:15">
+      <c r="O446" s="1"/>
     </row>
     <row r="447" spans="15:15">
       <c r="O447" s="1"/>
     </row>
-    <row r="448" spans="15:15">
-      <c r="O448" s="1"/>
-    </row>
     <row r="449" spans="15:15">
       <c r="O449" s="1"/>
     </row>
+    <row r="450" spans="15:15">
+      <c r="O450" s="1"/>
+    </row>
     <row r="451" spans="15:15">
       <c r="O451" s="1"/>
     </row>
@@ -29348,42 +29625,42 @@
     <row r="456" spans="15:15">
       <c r="O456" s="1"/>
     </row>
-    <row r="457" spans="15:15">
-      <c r="O457" s="1"/>
-    </row>
     <row r="458" spans="15:15">
       <c r="O458" s="1"/>
     </row>
-    <row r="460" spans="15:15">
-      <c r="O460" s="1"/>
+    <row r="462" spans="15:15">
+      <c r="O462" s="1"/>
+    </row>
+    <row r="463" spans="15:15">
+      <c r="O463" s="1"/>
     </row>
     <row r="464" spans="15:15">
       <c r="O464" s="1"/>
     </row>
-    <row r="465" spans="15:15">
-      <c r="O465" s="1"/>
-    </row>
     <row r="466" spans="15:15">
       <c r="O466" s="1"/>
     </row>
+    <row r="467" spans="15:15">
+      <c r="O467" s="1"/>
+    </row>
     <row r="468" spans="15:15">
       <c r="O468" s="1"/>
     </row>
-    <row r="469" spans="15:15">
-      <c r="O469" s="1"/>
-    </row>
-    <row r="470" spans="15:15">
-      <c r="O470" s="1"/>
+    <row r="473" spans="15:15">
+      <c r="O473" s="1"/>
+    </row>
+    <row r="474" spans="15:15">
+      <c r="O474" s="1"/>
     </row>
     <row r="475" spans="15:15">
       <c r="O475" s="1"/>
     </row>
-    <row r="476" spans="15:15">
-      <c r="O476" s="1"/>
-    </row>
     <row r="477" spans="15:15">
       <c r="O477" s="1"/>
     </row>
+    <row r="478" spans="15:15">
+      <c r="O478" s="1"/>
+    </row>
     <row r="479" spans="15:15">
       <c r="O479" s="1"/>
     </row>
@@ -29396,12 +29673,12 @@
     <row r="482" spans="15:15">
       <c r="O482" s="1"/>
     </row>
-    <row r="483" spans="15:15">
-      <c r="O483" s="1"/>
-    </row>
     <row r="484" spans="15:15">
       <c r="O484" s="1"/>
     </row>
+    <row r="485" spans="15:15">
+      <c r="O485" s="1"/>
+    </row>
     <row r="486" spans="15:15">
       <c r="O486" s="1"/>
     </row>
@@ -29411,104 +29688,104 @@
     <row r="488" spans="15:15">
       <c r="O488" s="1"/>
     </row>
-    <row r="489" spans="15:15">
-      <c r="O489" s="1"/>
-    </row>
     <row r="490" spans="15:15">
       <c r="O490" s="1"/>
     </row>
+    <row r="491" spans="15:15">
+      <c r="O491" s="1"/>
+    </row>
     <row r="492" spans="15:15">
       <c r="O492" s="1"/>
     </row>
-    <row r="493" spans="15:15">
-      <c r="O493" s="1"/>
-    </row>
     <row r="494" spans="15:15">
       <c r="O494" s="1"/>
     </row>
-    <row r="496" spans="15:15">
-      <c r="O496" s="1"/>
+    <row r="498" spans="15:15">
+      <c r="O498" s="1"/>
+    </row>
+    <row r="499" spans="15:15">
+      <c r="O499" s="1"/>
     </row>
     <row r="500" spans="15:15">
       <c r="O500" s="1"/>
     </row>
-    <row r="501" spans="15:15">
-      <c r="O501" s="1"/>
-    </row>
-    <row r="502" spans="15:15">
-      <c r="O502" s="1"/>
+    <row r="504" spans="15:15">
+      <c r="O504" s="1"/>
+    </row>
+    <row r="505" spans="15:15">
+      <c r="O505" s="1"/>
     </row>
     <row r="506" spans="15:15">
       <c r="O506" s="1"/>
     </row>
-    <row r="507" spans="15:15">
-      <c r="O507" s="1"/>
-    </row>
     <row r="508" spans="15:15">
       <c r="O508" s="1"/>
     </row>
+    <row r="509" spans="15:15">
+      <c r="O509" s="1"/>
+    </row>
     <row r="510" spans="15:15">
       <c r="O510" s="1"/>
     </row>
     <row r="511" spans="15:15">
       <c r="O511" s="1"/>
     </row>
-    <row r="512" spans="15:15">
-      <c r="O512" s="1"/>
-    </row>
     <row r="513" spans="15:15">
       <c r="O513" s="1"/>
     </row>
-    <row r="515" spans="15:15">
-      <c r="O515" s="1"/>
+    <row r="517" spans="15:15">
+      <c r="O517" s="1"/>
+    </row>
+    <row r="518" spans="15:15">
+      <c r="O518" s="1"/>
     </row>
     <row r="519" spans="15:15">
       <c r="O519" s="1"/>
     </row>
-    <row r="520" spans="15:15">
-      <c r="O520" s="1"/>
-    </row>
     <row r="521" spans="15:15">
       <c r="O521" s="1"/>
     </row>
+    <row r="522" spans="15:15">
+      <c r="O522" s="1"/>
+    </row>
     <row r="523" spans="15:15">
       <c r="O523" s="1"/>
     </row>
-    <row r="524" spans="15:15">
-      <c r="O524" s="1"/>
-    </row>
     <row r="525" spans="15:15">
       <c r="O525" s="1"/>
     </row>
+    <row r="526" spans="15:15">
+      <c r="O526" s="1"/>
+    </row>
     <row r="527" spans="15:15">
       <c r="O527" s="1"/>
     </row>
     <row r="528" spans="15:15">
       <c r="O528" s="1"/>
     </row>
-    <row r="529" spans="2:15">
-      <c r="O529" s="1"/>
-    </row>
-    <row r="530" spans="2:15">
-      <c r="O530" s="1"/>
+    <row r="532" spans="2:15">
+      <c r="O532" s="1"/>
+    </row>
+    <row r="533" spans="2:15">
+      <c r="O533" s="1"/>
     </row>
     <row r="534" spans="2:15">
       <c r="O534" s="1"/>
     </row>
     <row r="535" spans="2:15">
+      <c r="B535" s="8"/>
+      <c r="M535" s="8"/>
       <c r="O535" s="1"/>
     </row>
     <row r="536" spans="2:15">
+      <c r="M536" s="8"/>
       <c r="O536" s="1"/>
     </row>
-    <row r="537" spans="2:15">
-      <c r="B537" s="8"/>
-      <c r="M537" s="8"/>
-      <c r="O537" s="1"/>
-    </row>
     <row r="538" spans="2:15">
-      <c r="M538" s="8"/>
       <c r="O538" s="1"/>
+    </row>
+    <row r="539" spans="2:15">
+      <c r="O539" s="1"/>
     </row>
     <row r="540" spans="2:15">
       <c r="O540" s="1"/>
@@ -29519,55 +29796,55 @@
     <row r="542" spans="2:15">
       <c r="O542" s="1"/>
     </row>
-    <row r="543" spans="2:15">
-      <c r="O543" s="1"/>
-    </row>
-    <row r="544" spans="2:15">
-      <c r="O544" s="1"/>
+    <row r="546" spans="2:15">
+      <c r="O546" s="1"/>
+    </row>
+    <row r="547" spans="2:15">
+      <c r="O547" s="1"/>
     </row>
     <row r="548" spans="2:15">
       <c r="O548" s="1"/>
     </row>
     <row r="549" spans="2:15">
+      <c r="B549" s="8"/>
+      <c r="M549" s="8"/>
       <c r="O549" s="1"/>
     </row>
     <row r="550" spans="2:15">
       <c r="O550" s="1"/>
     </row>
-    <row r="551" spans="2:15">
-      <c r="B551" s="8"/>
-      <c r="M551" s="8"/>
-      <c r="O551" s="1"/>
-    </row>
     <row r="552" spans="2:15">
       <c r="O552" s="1"/>
     </row>
-    <row r="554" spans="2:15">
-      <c r="O554" s="1"/>
+    <row r="553" spans="2:15">
+      <c r="O553" s="1"/>
     </row>
     <row r="555" spans="2:15">
       <c r="O555" s="1"/>
     </row>
-    <row r="557" spans="2:15">
-      <c r="O557" s="1"/>
+    <row r="559" spans="2:15">
+      <c r="O559" s="1"/>
+    </row>
+    <row r="560" spans="2:15">
+      <c r="O560" s="1"/>
     </row>
     <row r="561" spans="2:15">
       <c r="O561" s="1"/>
     </row>
     <row r="562" spans="2:15">
+      <c r="B562" s="8"/>
+      <c r="M562" s="8"/>
       <c r="O562" s="1"/>
     </row>
     <row r="563" spans="2:15">
+      <c r="M563" s="8"/>
       <c r="O563" s="1"/>
     </row>
-    <row r="564" spans="2:15">
-      <c r="B564" s="8"/>
-      <c r="M564" s="8"/>
-      <c r="O564" s="1"/>
-    </row>
     <row r="565" spans="2:15">
-      <c r="M565" s="8"/>
       <c r="O565" s="1"/>
+    </row>
+    <row r="566" spans="2:15">
+      <c r="O566" s="1"/>
     </row>
     <row r="567" spans="2:15">
       <c r="O567" s="1"/>
@@ -29581,19 +29858,23 @@
     <row r="570" spans="2:15">
       <c r="O570" s="1"/>
     </row>
-    <row r="571" spans="2:15">
-      <c r="O571" s="1"/>
-    </row>
-    <row r="572" spans="2:15">
-      <c r="O572" s="1"/>
+    <row r="574" spans="2:15">
+      <c r="O574" s="1"/>
+    </row>
+    <row r="575" spans="2:15">
+      <c r="O575" s="1"/>
     </row>
     <row r="576" spans="2:15">
       <c r="O576" s="1"/>
     </row>
     <row r="577" spans="2:15">
+      <c r="B577" s="8"/>
+      <c r="M577" s="8"/>
       <c r="O577" s="1"/>
     </row>
     <row r="578" spans="2:15">
+      <c r="B578" s="8"/>
+      <c r="M578" s="8"/>
       <c r="O578" s="1"/>
     </row>
     <row r="579" spans="2:15">
@@ -29622,8 +29903,6 @@
       <c r="O583" s="1"/>
     </row>
     <row r="584" spans="2:15">
-      <c r="B584" s="8"/>
-      <c r="M584" s="8"/>
       <c r="O584" s="1"/>
     </row>
     <row r="585" spans="2:15">
@@ -29631,93 +29910,95 @@
       <c r="M585" s="8"/>
       <c r="O585" s="1"/>
     </row>
-    <row r="586" spans="2:15">
-      <c r="O586" s="1"/>
-    </row>
-    <row r="587" spans="2:15">
-      <c r="B587" s="8"/>
-      <c r="M587" s="8"/>
-      <c r="O587" s="1"/>
+    <row r="589" spans="2:15">
+      <c r="O589" s="1"/>
+    </row>
+    <row r="590" spans="2:15">
+      <c r="O590" s="1"/>
     </row>
     <row r="591" spans="2:15">
       <c r="O591" s="1"/>
     </row>
     <row r="592" spans="2:15">
+      <c r="B592" s="8"/>
+      <c r="M592" s="8"/>
       <c r="O592" s="1"/>
     </row>
-    <row r="593" spans="2:15">
-      <c r="O593" s="1"/>
-    </row>
-    <row r="594" spans="2:15">
-      <c r="B594" s="8"/>
-      <c r="M594" s="8"/>
+    <row r="594" spans="15:15">
       <c r="O594" s="1"/>
     </row>
-    <row r="596" spans="2:15">
+    <row r="595" spans="15:15">
+      <c r="O595" s="1"/>
+    </row>
+    <row r="596" spans="15:15">
       <c r="O596" s="1"/>
     </row>
-    <row r="597" spans="2:15">
+    <row r="597" spans="15:15">
       <c r="O597" s="1"/>
     </row>
-    <row r="598" spans="2:15">
+    <row r="598" spans="15:15">
       <c r="O598" s="1"/>
     </row>
-    <row r="599" spans="2:15">
+    <row r="599" spans="15:15">
       <c r="O599" s="1"/>
     </row>
-    <row r="600" spans="2:15">
+    <row r="600" spans="15:15">
       <c r="O600" s="1"/>
     </row>
-    <row r="601" spans="2:15">
+    <row r="601" spans="15:15">
       <c r="O601" s="1"/>
     </row>
-    <row r="602" spans="2:15">
-      <c r="O602" s="1"/>
-    </row>
-    <row r="603" spans="2:15">
+    <row r="603" spans="15:15">
       <c r="O603" s="1"/>
     </row>
-    <row r="605" spans="2:15">
-      <c r="O605" s="1"/>
-    </row>
-    <row r="606" spans="2:15">
+    <row r="604" spans="15:15">
+      <c r="O604" s="1"/>
+    </row>
+    <row r="606" spans="15:15">
       <c r="O606" s="1"/>
     </row>
-    <row r="608" spans="2:15">
-      <c r="O608" s="1"/>
-    </row>
-    <row r="609" spans="13:15">
-      <c r="O609" s="1"/>
+    <row r="607" spans="15:15">
+      <c r="O607" s="1"/>
+    </row>
+    <row r="611" spans="13:15">
+      <c r="O611" s="1"/>
+    </row>
+    <row r="612" spans="13:15">
+      <c r="O612" s="1"/>
     </row>
     <row r="613" spans="13:15">
       <c r="O613" s="1"/>
     </row>
     <row r="614" spans="13:15">
+      <c r="M614" s="8"/>
       <c r="O614" s="1"/>
     </row>
-    <row r="615" spans="13:15">
-      <c r="O615" s="1"/>
-    </row>
     <row r="616" spans="13:15">
-      <c r="M616" s="8"/>
       <c r="O616" s="1"/>
+    </row>
+    <row r="617" spans="13:15">
+      <c r="O617" s="1"/>
     </row>
     <row r="618" spans="13:15">
       <c r="O618" s="1"/>
     </row>
-    <row r="619" spans="13:15">
-      <c r="O619" s="1"/>
-    </row>
-    <row r="620" spans="13:15">
-      <c r="O620" s="1"/>
+    <row r="622" spans="13:15">
+      <c r="O622" s="1"/>
+    </row>
+    <row r="623" spans="13:15">
+      <c r="O623" s="1"/>
     </row>
     <row r="624" spans="13:15">
       <c r="O624" s="1"/>
     </row>
     <row r="625" spans="2:15">
+      <c r="B625" s="8"/>
+      <c r="M625" s="8"/>
       <c r="O625" s="1"/>
     </row>
     <row r="626" spans="2:15">
+      <c r="B626" s="8"/>
+      <c r="M626" s="8"/>
       <c r="O626" s="1"/>
     </row>
     <row r="627" spans="2:15">
@@ -29738,101 +30019,97 @@
     <row r="630" spans="2:15">
       <c r="B630" s="8"/>
       <c r="M630" s="8"/>
-      <c r="O630" s="1"/>
-    </row>
-    <row r="631" spans="2:15">
-      <c r="B631" s="8"/>
-      <c r="M631" s="8"/>
-      <c r="O631" s="1"/>
-    </row>
-    <row r="632" spans="2:15">
-      <c r="B632" s="8"/>
-      <c r="M632" s="8"/>
-      <c r="O632" s="21"/>
+      <c r="O630" s="21"/>
+    </row>
+    <row r="634" spans="2:15">
+      <c r="O634" s="3"/>
+    </row>
+    <row r="635" spans="2:15">
+      <c r="O635" s="3"/>
     </row>
     <row r="636" spans="2:15">
       <c r="O636" s="3"/>
     </row>
     <row r="637" spans="2:15">
-      <c r="O637" s="3"/>
+      <c r="B637" s="8"/>
+      <c r="M637" s="8"/>
+      <c r="O637" s="14"/>
     </row>
     <row r="638" spans="2:15">
-      <c r="O638" s="3"/>
+      <c r="O638" s="21"/>
     </row>
     <row r="639" spans="2:15">
-      <c r="B639" s="8"/>
-      <c r="M639" s="8"/>
-      <c r="O639" s="14"/>
+      <c r="O639" s="21"/>
     </row>
     <row r="640" spans="2:15">
       <c r="O640" s="21"/>
     </row>
-    <row r="641" spans="15:15">
+    <row r="641" spans="2:15">
       <c r="O641" s="21"/>
     </row>
-    <row r="642" spans="15:15">
+    <row r="642" spans="2:15">
       <c r="O642" s="21"/>
     </row>
-    <row r="643" spans="15:15">
+    <row r="643" spans="2:15">
       <c r="O643" s="21"/>
     </row>
-    <row r="644" spans="15:15">
+    <row r="644" spans="2:15">
       <c r="O644" s="21"/>
     </row>
-    <row r="645" spans="15:15">
+    <row r="645" spans="2:15">
       <c r="O645" s="21"/>
     </row>
-    <row r="646" spans="15:15">
+    <row r="646" spans="2:15">
       <c r="O646" s="21"/>
     </row>
-    <row r="647" spans="15:15">
+    <row r="647" spans="2:15">
       <c r="O647" s="21"/>
     </row>
-    <row r="648" spans="15:15">
+    <row r="648" spans="2:15">
       <c r="O648" s="21"/>
     </row>
-    <row r="649" spans="15:15">
-      <c r="O649" s="21"/>
-    </row>
-    <row r="650" spans="15:15">
-      <c r="O650" s="21"/>
-    </row>
-    <row r="654" spans="15:15">
+    <row r="652" spans="2:15">
+      <c r="O652" s="21"/>
+    </row>
+    <row r="653" spans="2:15">
+      <c r="O653" s="21"/>
+    </row>
+    <row r="654" spans="2:15">
       <c r="O654" s="21"/>
     </row>
-    <row r="655" spans="15:15">
-      <c r="O655" s="21"/>
-    </row>
-    <row r="656" spans="15:15">
+    <row r="655" spans="2:15">
+      <c r="B655" s="8"/>
+      <c r="M655" s="8"/>
+      <c r="O655" s="14"/>
+    </row>
+    <row r="656" spans="2:15">
       <c r="O656" s="21"/>
     </row>
     <row r="657" spans="2:15">
-      <c r="B657" s="8"/>
-      <c r="M657" s="8"/>
-      <c r="O657" s="14"/>
-    </row>
-    <row r="658" spans="2:15">
-      <c r="O658" s="21"/>
-    </row>
-    <row r="659" spans="2:15">
-      <c r="O659" s="21"/>
+      <c r="O657" s="21"/>
+    </row>
+    <row r="661" spans="2:15">
+      <c r="O661" s="21"/>
+    </row>
+    <row r="662" spans="2:15">
+      <c r="O662" s="21"/>
     </row>
     <row r="663" spans="2:15">
       <c r="O663" s="21"/>
     </row>
     <row r="664" spans="2:15">
-      <c r="O664" s="21"/>
+      <c r="B664" s="8"/>
+      <c r="M664" s="8"/>
+      <c r="O664" s="14"/>
     </row>
     <row r="665" spans="2:15">
       <c r="O665" s="21"/>
     </row>
     <row r="666" spans="2:15">
-      <c r="B666" s="8"/>
-      <c r="M666" s="8"/>
-      <c r="O666" s="14"/>
+      <c r="O666" s="22"/>
     </row>
     <row r="667" spans="2:15">
-      <c r="O667" s="21"/>
+      <c r="O667" s="22"/>
     </row>
     <row r="668" spans="2:15">
       <c r="O668" s="22"/>
@@ -29850,13 +30127,13 @@
       <c r="O672" s="22"/>
     </row>
     <row r="673" spans="15:15">
-      <c r="O673" s="22"/>
+      <c r="O673" s="21"/>
     </row>
     <row r="674" spans="15:15">
       <c r="O674" s="22"/>
     </row>
     <row r="675" spans="15:15">
-      <c r="O675" s="21"/>
+      <c r="O675" s="22"/>
     </row>
     <row r="676" spans="15:15">
       <c r="O676" s="22"/>
@@ -29864,15 +30141,15 @@
     <row r="677" spans="15:15">
       <c r="O677" s="22"/>
     </row>
-    <row r="678" spans="15:15">
-      <c r="O678" s="22"/>
-    </row>
     <row r="679" spans="15:15">
-      <c r="O679" s="22"/>
+      <c r="O679" s="21"/>
     </row>
     <row r="681" spans="15:15">
       <c r="O681" s="21"/>
     </row>
+    <row r="682" spans="15:15">
+      <c r="O682" s="21"/>
+    </row>
     <row r="683" spans="15:15">
       <c r="O683" s="21"/>
     </row>
@@ -29888,77 +30165,77 @@
     <row r="687" spans="15:15">
       <c r="O687" s="21"/>
     </row>
-    <row r="688" spans="15:15">
-      <c r="O688" s="21"/>
-    </row>
-    <row r="689" spans="2:15">
-      <c r="O689" s="21"/>
+    <row r="691" spans="2:15">
+      <c r="O691" s="1"/>
     </row>
     <row r="693" spans="2:15">
       <c r="O693" s="1"/>
     </row>
+    <row r="694" spans="2:15">
+      <c r="O694" s="1"/>
+    </row>
     <row r="695" spans="2:15">
       <c r="O695" s="1"/>
     </row>
     <row r="696" spans="2:15">
+      <c r="B696" s="8"/>
+      <c r="M696" s="8"/>
       <c r="O696" s="1"/>
     </row>
-    <row r="697" spans="2:15">
-      <c r="O697" s="1"/>
-    </row>
     <row r="698" spans="2:15">
-      <c r="B698" s="8"/>
-      <c r="M698" s="8"/>
       <c r="O698" s="1"/>
+    </row>
+    <row r="699" spans="2:15">
+      <c r="O699" s="1"/>
     </row>
     <row r="700" spans="2:15">
       <c r="O700" s="1"/>
     </row>
     <row r="701" spans="2:15">
+      <c r="B701" s="8"/>
+      <c r="M701" s="8"/>
       <c r="O701" s="1"/>
     </row>
-    <row r="702" spans="2:15">
-      <c r="O702" s="1"/>
-    </row>
-    <row r="703" spans="2:15">
-      <c r="B703" s="8"/>
-      <c r="M703" s="8"/>
-      <c r="O703" s="1"/>
-    </row>
-    <row r="707" spans="2:15">
-      <c r="B707" s="8"/>
-      <c r="M707" s="8"/>
-    </row>
-    <row r="712" spans="2:15">
-      <c r="O712" s="7"/>
+    <row r="705" spans="2:15">
+      <c r="B705" s="8"/>
+      <c r="M705" s="8"/>
+    </row>
+    <row r="710" spans="2:15">
+      <c r="O710" s="7"/>
+    </row>
+    <row r="714" spans="2:15">
+      <c r="O714" s="7"/>
+    </row>
+    <row r="715" spans="2:15">
+      <c r="O715" s="7"/>
     </row>
     <row r="716" spans="2:15">
       <c r="O716" s="7"/>
     </row>
-    <row r="717" spans="2:15">
-      <c r="O717" s="7"/>
-    </row>
-    <row r="718" spans="2:15">
-      <c r="O718" s="7"/>
+    <row r="720" spans="2:15">
+      <c r="O720" s="7"/>
+    </row>
+    <row r="721" spans="15:15">
+      <c r="O721" s="7"/>
     </row>
     <row r="722" spans="15:15">
       <c r="O722" s="7"/>
     </row>
-    <row r="723" spans="15:15">
-      <c r="O723" s="7"/>
-    </row>
-    <row r="724" spans="15:15">
-      <c r="O724" s="7"/>
+    <row r="726" spans="15:15">
+      <c r="O726" s="7"/>
+    </row>
+    <row r="727" spans="15:15">
+      <c r="O727" s="7"/>
     </row>
     <row r="728" spans="15:15">
       <c r="O728" s="7"/>
     </row>
-    <row r="729" spans="15:15">
-      <c r="O729" s="7"/>
-    </row>
     <row r="730" spans="15:15">
       <c r="O730" s="7"/>
     </row>
+    <row r="731" spans="15:15">
+      <c r="O731" s="7"/>
+    </row>
     <row r="732" spans="15:15">
       <c r="O732" s="7"/>
     </row>
@@ -29975,13 +30252,13 @@
       <c r="O736" s="7"/>
     </row>
     <row r="737" spans="15:15">
-      <c r="O737" s="7"/>
-    </row>
-    <row r="738" spans="15:15">
-      <c r="O738" s="7"/>
+      <c r="O737" s="1"/>
     </row>
     <row r="739" spans="15:15">
-      <c r="O739" s="1"/>
+      <c r="O739" s="7"/>
+    </row>
+    <row r="740" spans="15:15">
+      <c r="O740" s="7"/>
     </row>
     <row r="741" spans="15:15">
       <c r="O741" s="7"/>
@@ -30004,12 +30281,12 @@
     <row r="747" spans="15:15">
       <c r="O747" s="7"/>
     </row>
-    <row r="748" spans="15:15">
-      <c r="O748" s="7"/>
-    </row>
     <row r="749" spans="15:15">
       <c r="O749" s="7"/>
     </row>
+    <row r="750" spans="15:15">
+      <c r="O750" s="7"/>
+    </row>
     <row r="751" spans="15:15">
       <c r="O751" s="7"/>
     </row>
@@ -30034,42 +30311,39 @@
     <row r="758" spans="15:15">
       <c r="O758" s="7"/>
     </row>
-    <row r="759" spans="15:15">
-      <c r="O759" s="7"/>
-    </row>
     <row r="760" spans="15:15">
       <c r="O760" s="7"/>
     </row>
+    <row r="761" spans="15:15">
+      <c r="O761" s="1"/>
+    </row>
     <row r="762" spans="15:15">
-      <c r="O762" s="7"/>
-    </row>
-    <row r="763" spans="15:15">
-      <c r="O763" s="1"/>
+      <c r="O762" s="1"/>
     </row>
     <row r="764" spans="15:15">
-      <c r="O764" s="1"/>
+      <c r="O764" s="21"/>
+    </row>
+    <row r="765" spans="15:15">
+      <c r="O765" s="21"/>
     </row>
     <row r="766" spans="15:15">
       <c r="O766" s="21"/>
     </row>
-    <row r="767" spans="15:15">
-      <c r="O767" s="21"/>
-    </row>
-    <row r="768" spans="15:15">
-      <c r="O768" s="21"/>
-    </row>
-    <row r="772" spans="15:15">
-      <c r="O772" s="7"/>
+    <row r="770" spans="15:15">
+      <c r="O770" s="7"/>
+    </row>
+    <row r="771" spans="15:15">
+      <c r="O771" s="7"/>
     </row>
     <row r="773" spans="15:15">
       <c r="O773" s="7"/>
     </row>
+    <row r="774" spans="15:15">
+      <c r="O774" s="7"/>
+    </row>
     <row r="775" spans="15:15">
       <c r="O775" s="7"/>
     </row>
-    <row r="776" spans="15:15">
-      <c r="O776" s="7"/>
-    </row>
     <row r="777" spans="15:15">
       <c r="O777" s="7"/>
     </row>
@@ -30079,6 +30353,9 @@
     <row r="781" spans="15:15">
       <c r="O781" s="7"/>
     </row>
+    <row r="782" spans="15:15">
+      <c r="O782" s="7"/>
+    </row>
     <row r="783" spans="15:15">
       <c r="O783" s="7"/>
     </row>
@@ -30089,9 +30366,33 @@
       <c r="O785" s="7"/>
     </row>
     <row r="786" spans="2:15">
+      <c r="B786" s="23"/>
+      <c r="C786" s="23"/>
+      <c r="D786" s="23"/>
+      <c r="E786" s="23"/>
+      <c r="F786" s="23"/>
+      <c r="G786" s="23"/>
+      <c r="H786" s="23"/>
+      <c r="I786" s="23"/>
+      <c r="J786" s="23"/>
+      <c r="K786" s="23"/>
+      <c r="L786" s="23"/>
+      <c r="M786" s="23"/>
       <c r="O786" s="7"/>
     </row>
     <row r="787" spans="2:15">
+      <c r="B787" s="23"/>
+      <c r="C787" s="23"/>
+      <c r="D787" s="23"/>
+      <c r="E787" s="23"/>
+      <c r="F787" s="23"/>
+      <c r="G787" s="23"/>
+      <c r="H787" s="23"/>
+      <c r="I787" s="23"/>
+      <c r="J787" s="23"/>
+      <c r="K787" s="23"/>
+      <c r="L787" s="23"/>
+      <c r="M787" s="23"/>
       <c r="O787" s="7"/>
     </row>
     <row r="788" spans="2:15">
@@ -30169,35 +30470,11 @@
       <c r="M792" s="23"/>
       <c r="O792" s="7"/>
     </row>
-    <row r="793" spans="2:15">
-      <c r="B793" s="23"/>
-      <c r="C793" s="23"/>
-      <c r="D793" s="23"/>
-      <c r="E793" s="23"/>
-      <c r="F793" s="23"/>
-      <c r="G793" s="23"/>
-      <c r="H793" s="23"/>
-      <c r="I793" s="23"/>
-      <c r="J793" s="23"/>
-      <c r="K793" s="23"/>
-      <c r="L793" s="23"/>
-      <c r="M793" s="23"/>
-      <c r="O793" s="7"/>
-    </row>
     <row r="794" spans="2:15">
-      <c r="B794" s="23"/>
-      <c r="C794" s="23"/>
-      <c r="D794" s="23"/>
-      <c r="E794" s="23"/>
-      <c r="F794" s="23"/>
-      <c r="G794" s="23"/>
-      <c r="H794" s="23"/>
-      <c r="I794" s="23"/>
-      <c r="J794" s="23"/>
-      <c r="K794" s="23"/>
-      <c r="L794" s="23"/>
-      <c r="M794" s="23"/>
       <c r="O794" s="7"/>
+    </row>
+    <row r="795" spans="2:15">
+      <c r="O795" s="7"/>
     </row>
     <row r="796" spans="2:15">
       <c r="O796" s="7"/>
@@ -30227,17 +30504,17 @@
       <c r="O804" s="7"/>
     </row>
     <row r="805" spans="15:15">
-      <c r="O805" s="7"/>
+      <c r="O805" s="1"/>
     </row>
     <row r="806" spans="15:15">
       <c r="O806" s="7"/>
     </row>
-    <row r="807" spans="15:15">
-      <c r="O807" s="1"/>
-    </row>
     <row r="808" spans="15:15">
       <c r="O808" s="7"/>
     </row>
+    <row r="809" spans="15:15">
+      <c r="O809" s="7"/>
+    </row>
     <row r="810" spans="15:15">
       <c r="O810" s="7"/>
     </row>
@@ -30263,13 +30540,13 @@
       <c r="O817" s="7"/>
     </row>
     <row r="818" spans="15:15">
-      <c r="O818" s="7"/>
-    </row>
-    <row r="819" spans="15:15">
-      <c r="O819" s="7"/>
+      <c r="O818" s="1"/>
     </row>
     <row r="820" spans="15:15">
-      <c r="O820" s="1"/>
+      <c r="O820" s="7"/>
+    </row>
+    <row r="821" spans="15:15">
+      <c r="O821" s="7"/>
     </row>
     <row r="822" spans="15:15">
       <c r="O822" s="7"/>
@@ -30280,11 +30557,11 @@
     <row r="824" spans="15:15">
       <c r="O824" s="7"/>
     </row>
-    <row r="825" spans="15:15">
-      <c r="O825" s="7"/>
-    </row>
-    <row r="826" spans="15:15">
-      <c r="O826" s="7"/>
+    <row r="828" spans="15:15">
+      <c r="O828" s="7"/>
+    </row>
+    <row r="829" spans="15:15">
+      <c r="O829" s="7"/>
     </row>
     <row r="830" spans="15:15">
       <c r="O830" s="7"/>
@@ -30296,9 +30573,33 @@
       <c r="O832" s="7"/>
     </row>
     <row r="833" spans="2:15">
+      <c r="B833" s="24"/>
+      <c r="C833" s="25"/>
+      <c r="D833" s="25"/>
+      <c r="E833" s="25"/>
+      <c r="F833" s="25"/>
+      <c r="G833" s="25"/>
+      <c r="H833" s="25"/>
+      <c r="I833" s="25"/>
+      <c r="J833" s="25"/>
+      <c r="K833" s="25"/>
+      <c r="L833" s="25"/>
+      <c r="M833" s="24"/>
       <c r="O833" s="7"/>
     </row>
     <row r="834" spans="2:15">
+      <c r="B834" s="24"/>
+      <c r="C834" s="25"/>
+      <c r="D834" s="25"/>
+      <c r="E834" s="25"/>
+      <c r="F834" s="25"/>
+      <c r="G834" s="25"/>
+      <c r="H834" s="25"/>
+      <c r="I834" s="25"/>
+      <c r="J834" s="25"/>
+      <c r="K834" s="25"/>
+      <c r="L834" s="25"/>
+      <c r="M834" s="24"/>
       <c r="O834" s="7"/>
     </row>
     <row r="835" spans="2:15">
@@ -30348,49 +30649,29 @@
     </row>
     <row r="838" spans="2:15">
       <c r="B838" s="24"/>
-      <c r="C838" s="25"/>
-      <c r="D838" s="25"/>
-      <c r="E838" s="25"/>
-      <c r="F838" s="25"/>
-      <c r="G838" s="25"/>
-      <c r="H838" s="25"/>
-      <c r="I838" s="25"/>
-      <c r="J838" s="25"/>
-      <c r="K838" s="25"/>
-      <c r="L838" s="25"/>
       <c r="M838" s="24"/>
       <c r="O838" s="7"/>
     </row>
     <row r="839" spans="2:15">
-      <c r="B839" s="24"/>
-      <c r="C839" s="25"/>
-      <c r="D839" s="25"/>
-      <c r="E839" s="25"/>
-      <c r="F839" s="25"/>
-      <c r="G839" s="25"/>
-      <c r="H839" s="25"/>
-      <c r="I839" s="25"/>
-      <c r="J839" s="25"/>
-      <c r="K839" s="25"/>
-      <c r="L839" s="25"/>
-      <c r="M839" s="24"/>
-      <c r="O839" s="7"/>
+      <c r="O839" s="1"/>
     </row>
     <row r="840" spans="2:15">
-      <c r="B840" s="24"/>
-      <c r="M840" s="24"/>
       <c r="O840" s="7"/>
     </row>
-    <row r="841" spans="2:15">
-      <c r="O841" s="1"/>
-    </row>
     <row r="842" spans="2:15">
+      <c r="B842" s="24"/>
+      <c r="M842" s="24"/>
       <c r="O842" s="7"/>
     </row>
     <row r="844" spans="2:15">
-      <c r="B844" s="24"/>
-      <c r="M844" s="24"/>
+      <c r="B844" s="8"/>
+      <c r="M844" s="8"/>
       <c r="O844" s="7"/>
+    </row>
+    <row r="845" spans="2:15">
+      <c r="B845" s="8"/>
+      <c r="M845" s="8"/>
+      <c r="O845" s="7"/>
     </row>
     <row r="846" spans="2:15">
       <c r="B846" s="8"/>
@@ -30407,41 +30688,37 @@
       <c r="M848" s="8"/>
       <c r="O848" s="7"/>
     </row>
-    <row r="849" spans="2:15">
-      <c r="B849" s="8"/>
-      <c r="M849" s="8"/>
-      <c r="O849" s="7"/>
-    </row>
-    <row r="850" spans="2:15">
-      <c r="B850" s="8"/>
-      <c r="M850" s="8"/>
-      <c r="O850" s="7"/>
-    </row>
-    <row r="853" spans="2:15">
+    <row r="851" spans="15:15">
+      <c r="O851" s="7"/>
+    </row>
+    <row r="852" spans="15:15">
+      <c r="O852" s="7"/>
+    </row>
+    <row r="853" spans="15:15">
       <c r="O853" s="7"/>
     </row>
-    <row r="854" spans="2:15">
+    <row r="854" spans="15:15">
       <c r="O854" s="7"/>
     </row>
-    <row r="855" spans="2:15">
-      <c r="O855" s="7"/>
-    </row>
-    <row r="856" spans="2:15">
+    <row r="856" spans="15:15">
       <c r="O856" s="7"/>
     </row>
-    <row r="858" spans="2:15">
-      <c r="O858" s="7"/>
-    </row>
-    <row r="859" spans="2:15">
+    <row r="857" spans="15:15">
+      <c r="O857" s="7"/>
+    </row>
+    <row r="859" spans="15:15">
       <c r="O859" s="7"/>
     </row>
-    <row r="861" spans="2:15">
+    <row r="861" spans="15:15">
       <c r="O861" s="7"/>
     </row>
-    <row r="863" spans="2:15">
+    <row r="862" spans="15:15">
+      <c r="O862" s="7"/>
+    </row>
+    <row r="863" spans="15:15">
       <c r="O863" s="7"/>
     </row>
-    <row r="864" spans="2:15">
+    <row r="864" spans="15:15">
       <c r="O864" s="7"/>
     </row>
     <row r="865" spans="2:15">
@@ -30463,27 +30740,31 @@
       <c r="O870" s="7"/>
     </row>
     <row r="871" spans="2:15">
+      <c r="B871" s="26"/>
       <c r="O871" s="7"/>
     </row>
-    <row r="872" spans="2:15">
-      <c r="O872" s="7"/>
-    </row>
     <row r="873" spans="2:15">
-      <c r="B873" s="26"/>
-      <c r="O873" s="7"/>
+      <c r="B873" s="8"/>
+      <c r="M873" s="8"/>
+      <c r="O873" s="1"/>
+    </row>
+    <row r="874" spans="2:15">
+      <c r="B874" s="8"/>
+      <c r="M874" s="8"/>
+      <c r="O874" s="1"/>
     </row>
     <row r="875" spans="2:15">
-      <c r="B875" s="8"/>
-      <c r="M875" s="8"/>
-      <c r="O875" s="1"/>
-    </row>
-    <row r="876" spans="2:15">
-      <c r="B876" s="8"/>
-      <c r="M876" s="8"/>
-      <c r="O876" s="1"/>
+      <c r="O875" s="7"/>
     </row>
     <row r="877" spans="2:15">
-      <c r="O877" s="7"/>
+      <c r="B877" s="8"/>
+      <c r="M877" s="8"/>
+      <c r="O877" s="1"/>
+    </row>
+    <row r="878" spans="2:15">
+      <c r="B878" s="8"/>
+      <c r="M878" s="8"/>
+      <c r="O878" s="1"/>
     </row>
     <row r="879" spans="2:15">
       <c r="B879" s="8"/>
@@ -30492,7 +30773,6 @@
     </row>
     <row r="880" spans="2:15">
       <c r="B880" s="8"/>
-      <c r="M880" s="8"/>
       <c r="O880" s="1"/>
     </row>
     <row r="881" spans="1:15">
@@ -30502,6 +30782,7 @@
     </row>
     <row r="882" spans="1:15">
       <c r="B882" s="8"/>
+      <c r="M882" s="8"/>
       <c r="O882" s="1"/>
     </row>
     <row r="883" spans="1:15">
@@ -30514,15 +30795,39 @@
       <c r="M884" s="8"/>
       <c r="O884" s="1"/>
     </row>
-    <row r="885" spans="1:15">
-      <c r="B885" s="8"/>
-      <c r="M885" s="8"/>
-      <c r="O885" s="1"/>
-    </row>
-    <row r="886" spans="1:15">
-      <c r="B886" s="8"/>
-      <c r="M886" s="8"/>
-      <c r="O886" s="1"/>
+    <row r="887" spans="1:15">
+      <c r="A887" s="2"/>
+      <c r="B887" s="2"/>
+      <c r="C887" s="2"/>
+      <c r="D887" s="2"/>
+      <c r="E887" s="2"/>
+      <c r="F887" s="2"/>
+      <c r="G887" s="2"/>
+      <c r="H887" s="2"/>
+      <c r="I887" s="2"/>
+      <c r="J887" s="2"/>
+      <c r="K887" s="2"/>
+      <c r="L887" s="2"/>
+      <c r="M887" s="2"/>
+      <c r="N887" s="2"/>
+      <c r="O887" s="2"/>
+    </row>
+    <row r="888" spans="1:15">
+      <c r="A888" s="2"/>
+      <c r="B888" s="2"/>
+      <c r="C888" s="2"/>
+      <c r="D888" s="2"/>
+      <c r="E888" s="2"/>
+      <c r="F888" s="2"/>
+      <c r="G888" s="2"/>
+      <c r="H888" s="2"/>
+      <c r="I888" s="2"/>
+      <c r="J888" s="2"/>
+      <c r="K888" s="2"/>
+      <c r="L888" s="2"/>
+      <c r="M888" s="2"/>
+      <c r="N888" s="2"/>
+      <c r="O888" s="2"/>
     </row>
     <row r="889" spans="1:15">
       <c r="A889" s="2"/>
@@ -30588,7 +30893,7 @@
       <c r="J892" s="2"/>
       <c r="K892" s="2"/>
       <c r="L892" s="2"/>
-      <c r="M892" s="2"/>
+      <c r="M892" s="12"/>
       <c r="N892" s="2"/>
       <c r="O892" s="2"/>
     </row>
@@ -30605,7 +30910,7 @@
       <c r="J893" s="2"/>
       <c r="K893" s="2"/>
       <c r="L893" s="2"/>
-      <c r="M893" s="2"/>
+      <c r="M893" s="12"/>
       <c r="N893" s="2"/>
       <c r="O893" s="2"/>
     </row>
@@ -30625,40 +30930,6 @@
       <c r="M894" s="12"/>
       <c r="N894" s="2"/>
       <c r="O894" s="2"/>
-    </row>
-    <row r="895" spans="1:15">
-      <c r="A895" s="2"/>
-      <c r="B895" s="2"/>
-      <c r="C895" s="2"/>
-      <c r="D895" s="2"/>
-      <c r="E895" s="2"/>
-      <c r="F895" s="2"/>
-      <c r="G895" s="2"/>
-      <c r="H895" s="2"/>
-      <c r="I895" s="2"/>
-      <c r="J895" s="2"/>
-      <c r="K895" s="2"/>
-      <c r="L895" s="2"/>
-      <c r="M895" s="12"/>
-      <c r="N895" s="2"/>
-      <c r="O895" s="2"/>
-    </row>
-    <row r="896" spans="1:15">
-      <c r="A896" s="2"/>
-      <c r="B896" s="2"/>
-      <c r="C896" s="2"/>
-      <c r="D896" s="2"/>
-      <c r="E896" s="2"/>
-      <c r="F896" s="2"/>
-      <c r="G896" s="2"/>
-      <c r="H896" s="2"/>
-      <c r="I896" s="2"/>
-      <c r="J896" s="2"/>
-      <c r="K896" s="2"/>
-      <c r="L896" s="2"/>
-      <c r="M896" s="12"/>
-      <c r="N896" s="2"/>
-      <c r="O896" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15"/>
@@ -34243,7 +34514,7 @@
   <dimension ref="A1:Q897"/>
   <sheetViews>
     <sheetView topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -35959,8 +36230,12 @@
       <c r="O76" s="3"/>
     </row>
     <row r="78" spans="1:15">
-      <c r="A78" s="15"/>
-      <c r="B78" s="15"/>
+      <c r="A78" s="15" t="s">
+        <v>3189</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>3191</v>
+      </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
@@ -35971,7 +36246,9 @@
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
-      <c r="M78" s="18"/>
+      <c r="M78" s="37" t="s">
+        <v>3190</v>
+      </c>
       <c r="N78" s="6"/>
       <c r="O78" s="6"/>
     </row>
@@ -38391,8 +38668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q896"/>
   <sheetViews>
-    <sheetView topLeftCell="B58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M77" sqref="M77"/>
+    <sheetView topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -39605,8 +39882,12 @@
       <c r="O78" s="6"/>
     </row>
     <row r="79" spans="1:15">
-      <c r="A79" s="15"/>
-      <c r="B79" s="15"/>
+      <c r="A79" s="15" t="s">
+        <v>3192</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>3191</v>
+      </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -39617,7 +39898,9 @@
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
-      <c r="M79" s="6"/>
+      <c r="M79" s="5" t="s">
+        <v>3190</v>
+      </c>
       <c r="N79" s="6"/>
       <c r="O79" s="6"/>
     </row>
@@ -42003,8 +42286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q897"/>
   <sheetViews>
-    <sheetView topLeftCell="B61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M83" sqref="M83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -43118,9 +43401,13 @@
       <c r="N75" s="2"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
+    <row r="76" spans="1:15" ht="56.25">
+      <c r="A76" s="40" t="s">
+        <v>3193</v>
+      </c>
+      <c r="B76" s="42" t="s">
+        <v>3195</v>
+      </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -43131,7 +43418,9 @@
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
+      <c r="M76" s="42" t="s">
+        <v>3194</v>
+      </c>
       <c r="N76" s="2"/>
       <c r="O76" s="3"/>
     </row>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\向野　蒼人\Desktop\among us mod\TheOtherRolesGM-KiyoMugiEdition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aoto\Desktop\AmongUsMod\TheOtherRolesGM-KiyoMugi-Edition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0383DC0-B9EC-4EBC-8A74-F2425EBF6E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303ADE89-F324-49B0-96F5-B81C41D6CB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="19320" windowHeight="12660" tabRatio="882" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36750" yWindow="2400" windowWidth="21600" windowHeight="11370" tabRatio="882" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModText" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3673" uniqueCount="3141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3706" uniqueCount="3174">
   <si>
     <t>English</t>
   </si>
@@ -10606,6 +10606,180 @@
     <t>サイレントキル</t>
     <phoneticPr fontId="15"/>
   </si>
+  <si>
+    <t>enableAirshipVaultMeetingArchiveVent</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Airship Vault-Meeting-Archive</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>エアーシップ 金庫-ミーティング-アーカイブ</t>
+    <rPh sb="7" eb="9">
+      <t>キンコ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>enablePolusWeaponSpecimenOfficeVent</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Polus Weapon-Sepecimen-Office</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>ポーラス ウェポン-スペシメン-オフィス</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>enableMiraO2CommsYjiVent</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Mira O2-Comms-Yji</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>ミラ O2-コミュ-Y字路中央</t>
+    <rPh sb="11" eb="12">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ロ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チュウオウ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>enableSkeldStorageAdminO2Vent</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Skeld Storage-Admin-O2</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>スケルド ストレージ-アドミン-O2</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>enableRandomWireTask</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Random Wire Task</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>配線の順番をランダムにする</t>
+    <rPh sb="0" eb="2">
+      <t>ハイセン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュンバン</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>numWireTask</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Num Wire Task</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>配線の数</t>
+    <rPh sb="0" eb="2">
+      <t>ハイセン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>airshipSettings</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>AirShip Settings</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>エアーシップの設定</t>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>oldAirShipAdmin</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Old AirShip Admin</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>旧アドミン仕様</t>
+    <rPh sb="0" eb="1">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>enableRecordsAdmin</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Enable Records Admin</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>アーカイブのアドミンを有効化</t>
+    <rPh sb="11" eb="14">
+      <t>ユウコウカ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>enableCockpitAdmin</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Enable Cockpit Admin</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>コックピットのアドミンを有効化</t>
+    <rPh sb="12" eb="15">
+      <t>ユウコウカ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>airshipAdminSettings</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>AirShip Admin Settings</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>エアーシップのアドミン設定</t>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
 </sst>
 </file>
 
@@ -10747,7 +10921,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -10820,6 +10994,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
@@ -13920,7 +14095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -18459,7 +18634,7 @@
   <dimension ref="A1:Q906"/>
   <sheetViews>
     <sheetView topLeftCell="A338" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A359" sqref="A359"/>
+      <selection activeCell="A360" sqref="A360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -27008,10 +27183,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q896"/>
+  <dimension ref="A1:Q897"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -28295,96 +28470,184 @@
       <c r="O94" s="6"/>
     </row>
     <row r="95" spans="1:15" s="4" customFormat="1">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
-      <c r="L95" s="6"/>
-      <c r="M95" s="6"/>
-      <c r="N95" s="6"/>
-      <c r="O95" s="6"/>
+      <c r="A95" s="40" t="s">
+        <v>3141</v>
+      </c>
+      <c r="B95" s="40" t="s">
+        <v>3142</v>
+      </c>
+      <c r="C95" s="40"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="40"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="40"/>
+      <c r="K95" s="40"/>
+      <c r="L95" s="40"/>
+      <c r="M95" s="40" t="s">
+        <v>3143</v>
+      </c>
+      <c r="N95" s="40"/>
+      <c r="O95" s="40"/>
     </row>
     <row r="96" spans="1:15" s="4" customFormat="1">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
-      <c r="L96" s="6"/>
-      <c r="M96" s="6"/>
-      <c r="N96" s="6"/>
-      <c r="O96" s="6"/>
+      <c r="A96" s="40" t="s">
+        <v>3144</v>
+      </c>
+      <c r="B96" s="40" t="s">
+        <v>3145</v>
+      </c>
+      <c r="C96" s="40"/>
+      <c r="D96" s="40"/>
+      <c r="E96" s="40"/>
+      <c r="F96" s="40"/>
+      <c r="G96" s="40"/>
+      <c r="H96" s="40"/>
+      <c r="I96" s="40"/>
+      <c r="J96" s="40"/>
+      <c r="K96" s="40"/>
+      <c r="L96" s="40"/>
+      <c r="M96" s="40" t="s">
+        <v>3146</v>
+      </c>
+      <c r="N96" s="40"/>
+      <c r="O96" s="40"/>
     </row>
     <row r="97" spans="1:15" s="4" customFormat="1">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
-      <c r="L97" s="6"/>
-      <c r="M97" s="6"/>
-      <c r="N97" s="6"/>
-      <c r="O97" s="6"/>
+      <c r="A97" s="40" t="s">
+        <v>3147</v>
+      </c>
+      <c r="B97" s="40" t="s">
+        <v>3148</v>
+      </c>
+      <c r="C97" s="40"/>
+      <c r="D97" s="40"/>
+      <c r="E97" s="40"/>
+      <c r="F97" s="40"/>
+      <c r="G97" s="40"/>
+      <c r="H97" s="40"/>
+      <c r="I97" s="40"/>
+      <c r="J97" s="40"/>
+      <c r="K97" s="40"/>
+      <c r="L97" s="40"/>
+      <c r="M97" s="40" t="s">
+        <v>3149</v>
+      </c>
+      <c r="N97" s="40"/>
+      <c r="O97" s="40"/>
     </row>
     <row r="98" spans="1:15" s="4" customFormat="1">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
-      <c r="L98" s="6"/>
-      <c r="M98" s="6"/>
-      <c r="N98" s="6"/>
-      <c r="O98" s="6"/>
+      <c r="A98" s="40" t="s">
+        <v>3150</v>
+      </c>
+      <c r="B98" s="40" t="s">
+        <v>3151</v>
+      </c>
+      <c r="C98" s="40"/>
+      <c r="D98" s="40"/>
+      <c r="E98" s="40"/>
+      <c r="F98" s="40"/>
+      <c r="G98" s="40"/>
+      <c r="H98" s="40"/>
+      <c r="I98" s="40"/>
+      <c r="J98" s="40"/>
+      <c r="K98" s="40"/>
+      <c r="L98" s="40"/>
+      <c r="M98" s="40" t="s">
+        <v>3152</v>
+      </c>
+      <c r="N98" s="40"/>
+      <c r="O98" s="40"/>
     </row>
     <row r="99" spans="1:15" s="4" customFormat="1">
       <c r="O99" s="27"/>
     </row>
     <row r="100" spans="1:15">
+      <c r="A100" s="40" t="s">
+        <v>3153</v>
+      </c>
+      <c r="B100" s="40" t="s">
+        <v>3154</v>
+      </c>
+      <c r="M100" s="40" t="s">
+        <v>3155</v>
+      </c>
       <c r="O100" s="1"/>
     </row>
     <row r="101" spans="1:15">
+      <c r="A101" s="40" t="s">
+        <v>3156</v>
+      </c>
+      <c r="B101" s="40" t="s">
+        <v>3157</v>
+      </c>
+      <c r="M101" s="40" t="s">
+        <v>3158</v>
+      </c>
       <c r="O101" s="1"/>
     </row>
     <row r="102" spans="1:15">
       <c r="O102" s="1"/>
     </row>
+    <row r="103" spans="1:15">
+      <c r="A103" s="40" t="s">
+        <v>3159</v>
+      </c>
+      <c r="B103" s="40" t="s">
+        <v>3160</v>
+      </c>
+      <c r="M103" s="40" t="s">
+        <v>3161</v>
+      </c>
+    </row>
     <row r="104" spans="1:15">
-      <c r="O104" s="1"/>
+      <c r="A104" s="40" t="s">
+        <v>3171</v>
+      </c>
+      <c r="B104" s="40" t="s">
+        <v>3172</v>
+      </c>
+      <c r="M104" s="40" t="s">
+        <v>3173</v>
+      </c>
     </row>
     <row r="105" spans="1:15">
+      <c r="A105" s="40" t="s">
+        <v>3162</v>
+      </c>
+      <c r="B105" s="40" t="s">
+        <v>3163</v>
+      </c>
+      <c r="M105" s="40" t="s">
+        <v>3164</v>
+      </c>
       <c r="O105" s="1"/>
     </row>
     <row r="106" spans="1:15">
+      <c r="A106" s="40" t="s">
+        <v>3165</v>
+      </c>
+      <c r="B106" s="40" t="s">
+        <v>3166</v>
+      </c>
+      <c r="M106" s="40" t="s">
+        <v>3167</v>
+      </c>
       <c r="O106" s="1"/>
     </row>
-    <row r="110" spans="1:15">
-      <c r="O110" s="1"/>
+    <row r="107" spans="1:15">
+      <c r="A107" s="40" t="s">
+        <v>3168</v>
+      </c>
+      <c r="B107" s="40" t="s">
+        <v>3169</v>
+      </c>
+      <c r="M107" s="40" t="s">
+        <v>3170</v>
+      </c>
+      <c r="O107" s="1"/>
     </row>
     <row r="111" spans="1:15">
       <c r="O111" s="1"/>
@@ -28392,8 +28655,8 @@
     <row r="112" spans="1:15">
       <c r="O112" s="1"/>
     </row>
-    <row r="114" spans="15:15">
-      <c r="O114" s="1"/>
+    <row r="113" spans="15:15">
+      <c r="O113" s="1"/>
     </row>
     <row r="115" spans="15:15">
       <c r="O115" s="1"/>
@@ -28401,11 +28664,11 @@
     <row r="116" spans="15:15">
       <c r="O116" s="1"/>
     </row>
-    <row r="118" spans="15:15">
-      <c r="O118" s="1"/>
-    </row>
-    <row r="122" spans="15:15">
-      <c r="O122" s="1"/>
+    <row r="117" spans="15:15">
+      <c r="O117" s="1"/>
+    </row>
+    <row r="119" spans="15:15">
+      <c r="O119" s="1"/>
     </row>
     <row r="123" spans="15:15">
       <c r="O123" s="1"/>
@@ -28413,11 +28676,11 @@
     <row r="124" spans="15:15">
       <c r="O124" s="1"/>
     </row>
-    <row r="126" spans="15:15">
-      <c r="O126" s="1"/>
-    </row>
-    <row r="130" spans="15:15">
-      <c r="O130" s="1"/>
+    <row r="125" spans="15:15">
+      <c r="O125" s="1"/>
+    </row>
+    <row r="127" spans="15:15">
+      <c r="O127" s="1"/>
     </row>
     <row r="131" spans="15:15">
       <c r="O131" s="1"/>
@@ -28425,14 +28688,14 @@
     <row r="132" spans="15:15">
       <c r="O132" s="1"/>
     </row>
-    <row r="134" spans="15:15">
-      <c r="O134" s="1"/>
+    <row r="133" spans="15:15">
+      <c r="O133" s="1"/>
     </row>
     <row r="135" spans="15:15">
       <c r="O135" s="1"/>
     </row>
-    <row r="139" spans="15:15">
-      <c r="O139" s="1"/>
+    <row r="136" spans="15:15">
+      <c r="O136" s="1"/>
     </row>
     <row r="140" spans="15:15">
       <c r="O140" s="1"/>
@@ -28440,8 +28703,8 @@
     <row r="141" spans="15:15">
       <c r="O141" s="1"/>
     </row>
-    <row r="143" spans="15:15">
-      <c r="O143" s="1"/>
+    <row r="142" spans="15:15">
+      <c r="O142" s="1"/>
     </row>
     <row r="144" spans="15:15">
       <c r="O144" s="1"/>
@@ -28455,11 +28718,11 @@
     <row r="147" spans="15:15">
       <c r="O147" s="1"/>
     </row>
-    <row r="151" spans="15:15">
-      <c r="O151" s="1"/>
-    </row>
-    <row r="153" spans="15:15">
-      <c r="O153" s="1"/>
+    <row r="148" spans="15:15">
+      <c r="O148" s="1"/>
+    </row>
+    <row r="152" spans="15:15">
+      <c r="O152" s="1"/>
     </row>
     <row r="154" spans="15:15">
       <c r="O154" s="1"/>
@@ -28467,8 +28730,8 @@
     <row r="155" spans="15:15">
       <c r="O155" s="1"/>
     </row>
-    <row r="157" spans="15:15">
-      <c r="O157" s="1"/>
+    <row r="156" spans="15:15">
+      <c r="O156" s="1"/>
     </row>
     <row r="158" spans="15:15">
       <c r="O158" s="1"/>
@@ -28476,14 +28739,14 @@
     <row r="159" spans="15:15">
       <c r="O159" s="1"/>
     </row>
-    <row r="161" spans="2:15">
-      <c r="O161" s="1"/>
+    <row r="160" spans="15:15">
+      <c r="O160" s="1"/>
     </row>
     <row r="162" spans="2:15">
       <c r="O162" s="1"/>
     </row>
-    <row r="166" spans="2:15">
-      <c r="O166" s="1"/>
+    <row r="163" spans="2:15">
+      <c r="O163" s="1"/>
     </row>
     <row r="167" spans="2:15">
       <c r="O167" s="1"/>
@@ -28492,8 +28755,6 @@
       <c r="O168" s="1"/>
     </row>
     <row r="169" spans="2:15">
-      <c r="B169" s="8"/>
-      <c r="M169" s="8"/>
       <c r="O169" s="1"/>
     </row>
     <row r="170" spans="2:15">
@@ -28502,6 +28763,8 @@
       <c r="O170" s="1"/>
     </row>
     <row r="171" spans="2:15">
+      <c r="B171" s="8"/>
+      <c r="M171" s="8"/>
       <c r="O171" s="1"/>
     </row>
     <row r="172" spans="2:15">
@@ -28525,11 +28788,11 @@
     <row r="178" spans="15:15">
       <c r="O178" s="1"/>
     </row>
-    <row r="182" spans="15:15">
-      <c r="O182" s="1"/>
-    </row>
-    <row r="184" spans="15:15">
-      <c r="O184" s="1"/>
+    <row r="179" spans="15:15">
+      <c r="O179" s="1"/>
+    </row>
+    <row r="183" spans="15:15">
+      <c r="O183" s="1"/>
     </row>
     <row r="185" spans="15:15">
       <c r="O185" s="1"/>
@@ -28537,8 +28800,8 @@
     <row r="186" spans="15:15">
       <c r="O186" s="1"/>
     </row>
-    <row r="188" spans="15:15">
-      <c r="O188" s="1"/>
+    <row r="187" spans="15:15">
+      <c r="O187" s="1"/>
     </row>
     <row r="189" spans="15:15">
       <c r="O189" s="1"/>
@@ -28562,10 +28825,10 @@
       <c r="O195" s="1"/>
     </row>
     <row r="196" spans="1:15">
-      <c r="A196" s="20"/>
       <c r="O196" s="1"/>
     </row>
     <row r="197" spans="1:15">
+      <c r="A197" s="20"/>
       <c r="O197" s="1"/>
     </row>
     <row r="198" spans="1:15">
@@ -28574,14 +28837,14 @@
     <row r="199" spans="1:15">
       <c r="O199" s="1"/>
     </row>
-    <row r="203" spans="1:15">
-      <c r="O203" s="1"/>
+    <row r="200" spans="1:15">
+      <c r="O200" s="1"/>
     </row>
     <row r="204" spans="1:15">
       <c r="O204" s="1"/>
     </row>
-    <row r="206" spans="1:15">
-      <c r="O206" s="1"/>
+    <row r="205" spans="1:15">
+      <c r="O205" s="1"/>
     </row>
     <row r="207" spans="1:15">
       <c r="O207" s="1"/>
@@ -28607,14 +28870,14 @@
     <row r="214" spans="15:15">
       <c r="O214" s="1"/>
     </row>
-    <row r="216" spans="15:15">
-      <c r="O216" s="1"/>
+    <row r="215" spans="15:15">
+      <c r="O215" s="1"/>
     </row>
     <row r="217" spans="15:15">
       <c r="O217" s="1"/>
     </row>
-    <row r="221" spans="15:15">
-      <c r="O221" s="1"/>
+    <row r="218" spans="15:15">
+      <c r="O218" s="1"/>
     </row>
     <row r="222" spans="15:15">
       <c r="O222" s="1"/>
@@ -28622,8 +28885,8 @@
     <row r="223" spans="15:15">
       <c r="O223" s="1"/>
     </row>
-    <row r="225" spans="15:15">
-      <c r="O225" s="1"/>
+    <row r="224" spans="15:15">
+      <c r="O224" s="1"/>
     </row>
     <row r="226" spans="15:15">
       <c r="O226" s="1"/>
@@ -28631,8 +28894,8 @@
     <row r="227" spans="15:15">
       <c r="O227" s="1"/>
     </row>
-    <row r="231" spans="15:15">
-      <c r="O231" s="1"/>
+    <row r="228" spans="15:15">
+      <c r="O228" s="1"/>
     </row>
     <row r="232" spans="15:15">
       <c r="O232" s="1"/>
@@ -28640,8 +28903,8 @@
     <row r="233" spans="15:15">
       <c r="O233" s="1"/>
     </row>
-    <row r="235" spans="15:15">
-      <c r="O235" s="1"/>
+    <row r="234" spans="15:15">
+      <c r="O234" s="1"/>
     </row>
     <row r="236" spans="15:15">
       <c r="O236" s="1"/>
@@ -28649,8 +28912,8 @@
     <row r="237" spans="15:15">
       <c r="O237" s="1"/>
     </row>
-    <row r="241" spans="15:15">
-      <c r="O241" s="1"/>
+    <row r="238" spans="15:15">
+      <c r="O238" s="1"/>
     </row>
     <row r="242" spans="15:15">
       <c r="O242" s="1"/>
@@ -28661,8 +28924,8 @@
     <row r="244" spans="15:15">
       <c r="O244" s="1"/>
     </row>
-    <row r="246" spans="15:15">
-      <c r="O246" s="1"/>
+    <row r="245" spans="15:15">
+      <c r="O245" s="1"/>
     </row>
     <row r="247" spans="15:15">
       <c r="O247" s="1"/>
@@ -28670,8 +28933,8 @@
     <row r="248" spans="15:15">
       <c r="O248" s="1"/>
     </row>
-    <row r="250" spans="15:15">
-      <c r="O250" s="1"/>
+    <row r="249" spans="15:15">
+      <c r="O249" s="1"/>
     </row>
     <row r="251" spans="15:15">
       <c r="O251" s="1"/>
@@ -28685,8 +28948,8 @@
     <row r="254" spans="15:15">
       <c r="O254" s="1"/>
     </row>
-    <row r="256" spans="15:15">
-      <c r="O256" s="1"/>
+    <row r="255" spans="15:15">
+      <c r="O255" s="1"/>
     </row>
     <row r="257" spans="15:15">
       <c r="O257" s="1"/>
@@ -28703,8 +28966,8 @@
     <row r="261" spans="15:15">
       <c r="O261" s="1"/>
     </row>
-    <row r="265" spans="15:15">
-      <c r="O265" s="1"/>
+    <row r="262" spans="15:15">
+      <c r="O262" s="1"/>
     </row>
     <row r="266" spans="15:15">
       <c r="O266" s="1"/>
@@ -28712,8 +28975,8 @@
     <row r="267" spans="15:15">
       <c r="O267" s="1"/>
     </row>
-    <row r="269" spans="15:15">
-      <c r="O269" s="1"/>
+    <row r="268" spans="15:15">
+      <c r="O268" s="1"/>
     </row>
     <row r="270" spans="15:15">
       <c r="O270" s="1"/>
@@ -28721,8 +28984,8 @@
     <row r="271" spans="15:15">
       <c r="O271" s="1"/>
     </row>
-    <row r="273" spans="15:15">
-      <c r="O273" s="1"/>
+    <row r="272" spans="15:15">
+      <c r="O272" s="1"/>
     </row>
     <row r="274" spans="15:15">
       <c r="O274" s="1"/>
@@ -28730,8 +28993,8 @@
     <row r="275" spans="15:15">
       <c r="O275" s="1"/>
     </row>
-    <row r="277" spans="15:15">
-      <c r="O277" s="1"/>
+    <row r="276" spans="15:15">
+      <c r="O276" s="1"/>
     </row>
     <row r="278" spans="15:15">
       <c r="O278" s="1"/>
@@ -28745,11 +29008,11 @@
     <row r="281" spans="15:15">
       <c r="O281" s="1"/>
     </row>
-    <row r="283" spans="15:15">
-      <c r="O283" s="1"/>
-    </row>
-    <row r="286" spans="15:15">
-      <c r="O286" s="1"/>
+    <row r="282" spans="15:15">
+      <c r="O282" s="1"/>
+    </row>
+    <row r="284" spans="15:15">
+      <c r="O284" s="1"/>
     </row>
     <row r="287" spans="15:15">
       <c r="O287" s="1"/>
@@ -28757,8 +29020,8 @@
     <row r="288" spans="15:15">
       <c r="O288" s="1"/>
     </row>
-    <row r="290" spans="15:15">
-      <c r="O290" s="1"/>
+    <row r="289" spans="15:15">
+      <c r="O289" s="1"/>
     </row>
     <row r="291" spans="15:15">
       <c r="O291" s="1"/>
@@ -28766,8 +29029,8 @@
     <row r="292" spans="15:15">
       <c r="O292" s="1"/>
     </row>
-    <row r="296" spans="15:15">
-      <c r="O296" s="1"/>
+    <row r="293" spans="15:15">
+      <c r="O293" s="1"/>
     </row>
     <row r="297" spans="15:15">
       <c r="O297" s="1"/>
@@ -28775,8 +29038,8 @@
     <row r="298" spans="15:15">
       <c r="O298" s="1"/>
     </row>
-    <row r="300" spans="15:15">
-      <c r="O300" s="1"/>
+    <row r="299" spans="15:15">
+      <c r="O299" s="1"/>
     </row>
     <row r="301" spans="15:15">
       <c r="O301" s="1"/>
@@ -28787,11 +29050,11 @@
     <row r="303" spans="15:15">
       <c r="O303" s="1"/>
     </row>
-    <row r="305" spans="15:15">
-      <c r="O305" s="1"/>
-    </row>
-    <row r="309" spans="15:15">
-      <c r="O309" s="1"/>
+    <row r="304" spans="15:15">
+      <c r="O304" s="1"/>
+    </row>
+    <row r="306" spans="15:15">
+      <c r="O306" s="1"/>
     </row>
     <row r="310" spans="15:15">
       <c r="O310" s="1"/>
@@ -28799,8 +29062,8 @@
     <row r="311" spans="15:15">
       <c r="O311" s="1"/>
     </row>
-    <row r="313" spans="15:15">
-      <c r="O313" s="1"/>
+    <row r="312" spans="15:15">
+      <c r="O312" s="1"/>
     </row>
     <row r="314" spans="15:15">
       <c r="O314" s="1"/>
@@ -28814,8 +29077,8 @@
     <row r="317" spans="15:15">
       <c r="O317" s="1"/>
     </row>
-    <row r="321" spans="15:15">
-      <c r="O321" s="1"/>
+    <row r="318" spans="15:15">
+      <c r="O318" s="1"/>
     </row>
     <row r="322" spans="15:15">
       <c r="O322" s="1"/>
@@ -28823,8 +29086,8 @@
     <row r="323" spans="15:15">
       <c r="O323" s="1"/>
     </row>
-    <row r="325" spans="15:15">
-      <c r="O325" s="1"/>
+    <row r="324" spans="15:15">
+      <c r="O324" s="1"/>
     </row>
     <row r="326" spans="15:15">
       <c r="O326" s="1"/>
@@ -28838,8 +29101,8 @@
     <row r="329" spans="15:15">
       <c r="O329" s="1"/>
     </row>
-    <row r="331" spans="15:15">
-      <c r="O331" s="1"/>
+    <row r="330" spans="15:15">
+      <c r="O330" s="1"/>
     </row>
     <row r="332" spans="15:15">
       <c r="O332" s="1"/>
@@ -28859,8 +29122,8 @@
     <row r="337" spans="15:15">
       <c r="O337" s="1"/>
     </row>
-    <row r="341" spans="15:15">
-      <c r="O341" s="1"/>
+    <row r="338" spans="15:15">
+      <c r="O338" s="1"/>
     </row>
     <row r="342" spans="15:15">
       <c r="O342" s="1"/>
@@ -28868,8 +29131,8 @@
     <row r="343" spans="15:15">
       <c r="O343" s="1"/>
     </row>
-    <row r="345" spans="15:15">
-      <c r="O345" s="1"/>
+    <row r="344" spans="15:15">
+      <c r="O344" s="1"/>
     </row>
     <row r="346" spans="15:15">
       <c r="O346" s="1"/>
@@ -28877,8 +29140,8 @@
     <row r="347" spans="15:15">
       <c r="O347" s="1"/>
     </row>
-    <row r="351" spans="15:15">
-      <c r="O351" s="1"/>
+    <row r="348" spans="15:15">
+      <c r="O348" s="1"/>
     </row>
     <row r="352" spans="15:15">
       <c r="O352" s="1"/>
@@ -28886,8 +29149,8 @@
     <row r="353" spans="15:15">
       <c r="O353" s="1"/>
     </row>
-    <row r="355" spans="15:15">
-      <c r="O355" s="1"/>
+    <row r="354" spans="15:15">
+      <c r="O354" s="1"/>
     </row>
     <row r="356" spans="15:15">
       <c r="O356" s="1"/>
@@ -28907,14 +29170,14 @@
     <row r="361" spans="15:15">
       <c r="O361" s="1"/>
     </row>
-    <row r="363" spans="15:15">
-      <c r="O363" s="1"/>
-    </row>
-    <row r="367" spans="15:15">
-      <c r="O367" s="1"/>
-    </row>
-    <row r="369" spans="15:15">
-      <c r="O369" s="1"/>
+    <row r="362" spans="15:15">
+      <c r="O362" s="1"/>
+    </row>
+    <row r="364" spans="15:15">
+      <c r="O364" s="1"/>
+    </row>
+    <row r="368" spans="15:15">
+      <c r="O368" s="1"/>
     </row>
     <row r="370" spans="15:15">
       <c r="O370" s="1"/>
@@ -28922,8 +29185,8 @@
     <row r="371" spans="15:15">
       <c r="O371" s="1"/>
     </row>
-    <row r="373" spans="15:15">
-      <c r="O373" s="1"/>
+    <row r="372" spans="15:15">
+      <c r="O372" s="1"/>
     </row>
     <row r="374" spans="15:15">
       <c r="O374" s="1"/>
@@ -28931,8 +29194,8 @@
     <row r="375" spans="15:15">
       <c r="O375" s="1"/>
     </row>
-    <row r="377" spans="15:15">
-      <c r="O377" s="1"/>
+    <row r="376" spans="15:15">
+      <c r="O376" s="1"/>
     </row>
     <row r="378" spans="15:15">
       <c r="O378" s="1"/>
@@ -28943,11 +29206,11 @@
     <row r="380" spans="15:15">
       <c r="O380" s="1"/>
     </row>
-    <row r="382" spans="15:15">
-      <c r="O382" s="1"/>
-    </row>
-    <row r="386" spans="15:15">
-      <c r="O386" s="1"/>
+    <row r="381" spans="15:15">
+      <c r="O381" s="1"/>
+    </row>
+    <row r="383" spans="15:15">
+      <c r="O383" s="1"/>
     </row>
     <row r="387" spans="15:15">
       <c r="O387" s="1"/>
@@ -28955,8 +29218,8 @@
     <row r="388" spans="15:15">
       <c r="O388" s="1"/>
     </row>
-    <row r="390" spans="15:15">
-      <c r="O390" s="1"/>
+    <row r="389" spans="15:15">
+      <c r="O389" s="1"/>
     </row>
     <row r="391" spans="15:15">
       <c r="O391" s="1"/>
@@ -28991,8 +29254,8 @@
     <row r="401" spans="15:15">
       <c r="O401" s="1"/>
     </row>
-    <row r="403" spans="15:15">
-      <c r="O403" s="1"/>
+    <row r="402" spans="15:15">
+      <c r="O402" s="1"/>
     </row>
     <row r="404" spans="15:15">
       <c r="O404" s="1"/>
@@ -29009,11 +29272,11 @@
     <row r="408" spans="15:15">
       <c r="O408" s="1"/>
     </row>
-    <row r="410" spans="15:15">
-      <c r="O410" s="1"/>
-    </row>
-    <row r="414" spans="15:15">
-      <c r="O414" s="1"/>
+    <row r="409" spans="15:15">
+      <c r="O409" s="1"/>
+    </row>
+    <row r="411" spans="15:15">
+      <c r="O411" s="1"/>
     </row>
     <row r="415" spans="15:15">
       <c r="O415" s="1"/>
@@ -29021,8 +29284,8 @@
     <row r="416" spans="15:15">
       <c r="O416" s="1"/>
     </row>
-    <row r="418" spans="15:15">
-      <c r="O418" s="1"/>
+    <row r="417" spans="15:15">
+      <c r="O417" s="1"/>
     </row>
     <row r="419" spans="15:15">
       <c r="O419" s="1"/>
@@ -29036,8 +29299,8 @@
     <row r="422" spans="15:15">
       <c r="O422" s="1"/>
     </row>
-    <row r="426" spans="15:15">
-      <c r="O426" s="1"/>
+    <row r="423" spans="15:15">
+      <c r="O423" s="1"/>
     </row>
     <row r="427" spans="15:15">
       <c r="O427" s="1"/>
@@ -29045,8 +29308,8 @@
     <row r="428" spans="15:15">
       <c r="O428" s="1"/>
     </row>
-    <row r="430" spans="15:15">
-      <c r="O430" s="1"/>
+    <row r="429" spans="15:15">
+      <c r="O429" s="1"/>
     </row>
     <row r="431" spans="15:15">
       <c r="O431" s="1"/>
@@ -29054,8 +29317,8 @@
     <row r="432" spans="15:15">
       <c r="O432" s="1"/>
     </row>
-    <row r="436" spans="15:15">
-      <c r="O436" s="1"/>
+    <row r="433" spans="15:15">
+      <c r="O433" s="1"/>
     </row>
     <row r="437" spans="15:15">
       <c r="O437" s="1"/>
@@ -29063,8 +29326,8 @@
     <row r="438" spans="15:15">
       <c r="O438" s="1"/>
     </row>
-    <row r="440" spans="15:15">
-      <c r="O440" s="1"/>
+    <row r="439" spans="15:15">
+      <c r="O439" s="1"/>
     </row>
     <row r="441" spans="15:15">
       <c r="O441" s="1"/>
@@ -29075,8 +29338,8 @@
     <row r="443" spans="15:15">
       <c r="O443" s="1"/>
     </row>
-    <row r="447" spans="15:15">
-      <c r="O447" s="1"/>
+    <row r="444" spans="15:15">
+      <c r="O444" s="1"/>
     </row>
     <row r="448" spans="15:15">
       <c r="O448" s="1"/>
@@ -29084,8 +29347,8 @@
     <row r="449" spans="15:15">
       <c r="O449" s="1"/>
     </row>
-    <row r="451" spans="15:15">
-      <c r="O451" s="1"/>
+    <row r="450" spans="15:15">
+      <c r="O450" s="1"/>
     </row>
     <row r="452" spans="15:15">
       <c r="O452" s="1"/>
@@ -29108,11 +29371,11 @@
     <row r="458" spans="15:15">
       <c r="O458" s="1"/>
     </row>
-    <row r="460" spans="15:15">
-      <c r="O460" s="1"/>
-    </row>
-    <row r="464" spans="15:15">
-      <c r="O464" s="1"/>
+    <row r="459" spans="15:15">
+      <c r="O459" s="1"/>
+    </row>
+    <row r="461" spans="15:15">
+      <c r="O461" s="1"/>
     </row>
     <row r="465" spans="15:15">
       <c r="O465" s="1"/>
@@ -29120,8 +29383,8 @@
     <row r="466" spans="15:15">
       <c r="O466" s="1"/>
     </row>
-    <row r="468" spans="15:15">
-      <c r="O468" s="1"/>
+    <row r="467" spans="15:15">
+      <c r="O467" s="1"/>
     </row>
     <row r="469" spans="15:15">
       <c r="O469" s="1"/>
@@ -29129,8 +29392,8 @@
     <row r="470" spans="15:15">
       <c r="O470" s="1"/>
     </row>
-    <row r="475" spans="15:15">
-      <c r="O475" s="1"/>
+    <row r="471" spans="15:15">
+      <c r="O471" s="1"/>
     </row>
     <row r="476" spans="15:15">
       <c r="O476" s="1"/>
@@ -29138,8 +29401,8 @@
     <row r="477" spans="15:15">
       <c r="O477" s="1"/>
     </row>
-    <row r="479" spans="15:15">
-      <c r="O479" s="1"/>
+    <row r="478" spans="15:15">
+      <c r="O478" s="1"/>
     </row>
     <row r="480" spans="15:15">
       <c r="O480" s="1"/>
@@ -29156,8 +29419,8 @@
     <row r="484" spans="15:15">
       <c r="O484" s="1"/>
     </row>
-    <row r="486" spans="15:15">
-      <c r="O486" s="1"/>
+    <row r="485" spans="15:15">
+      <c r="O485" s="1"/>
     </row>
     <row r="487" spans="15:15">
       <c r="O487" s="1"/>
@@ -29171,8 +29434,8 @@
     <row r="490" spans="15:15">
       <c r="O490" s="1"/>
     </row>
-    <row r="492" spans="15:15">
-      <c r="O492" s="1"/>
+    <row r="491" spans="15:15">
+      <c r="O491" s="1"/>
     </row>
     <row r="493" spans="15:15">
       <c r="O493" s="1"/>
@@ -29180,11 +29443,11 @@
     <row r="494" spans="15:15">
       <c r="O494" s="1"/>
     </row>
-    <row r="496" spans="15:15">
-      <c r="O496" s="1"/>
-    </row>
-    <row r="500" spans="15:15">
-      <c r="O500" s="1"/>
+    <row r="495" spans="15:15">
+      <c r="O495" s="1"/>
+    </row>
+    <row r="497" spans="15:15">
+      <c r="O497" s="1"/>
     </row>
     <row r="501" spans="15:15">
       <c r="O501" s="1"/>
@@ -29192,8 +29455,8 @@
     <row r="502" spans="15:15">
       <c r="O502" s="1"/>
     </row>
-    <row r="506" spans="15:15">
-      <c r="O506" s="1"/>
+    <row r="503" spans="15:15">
+      <c r="O503" s="1"/>
     </row>
     <row r="507" spans="15:15">
       <c r="O507" s="1"/>
@@ -29201,8 +29464,8 @@
     <row r="508" spans="15:15">
       <c r="O508" s="1"/>
     </row>
-    <row r="510" spans="15:15">
-      <c r="O510" s="1"/>
+    <row r="509" spans="15:15">
+      <c r="O509" s="1"/>
     </row>
     <row r="511" spans="15:15">
       <c r="O511" s="1"/>
@@ -29213,11 +29476,11 @@
     <row r="513" spans="15:15">
       <c r="O513" s="1"/>
     </row>
-    <row r="515" spans="15:15">
-      <c r="O515" s="1"/>
-    </row>
-    <row r="519" spans="15:15">
-      <c r="O519" s="1"/>
+    <row r="514" spans="15:15">
+      <c r="O514" s="1"/>
+    </row>
+    <row r="516" spans="15:15">
+      <c r="O516" s="1"/>
     </row>
     <row r="520" spans="15:15">
       <c r="O520" s="1"/>
@@ -29225,8 +29488,8 @@
     <row r="521" spans="15:15">
       <c r="O521" s="1"/>
     </row>
-    <row r="523" spans="15:15">
-      <c r="O523" s="1"/>
+    <row r="522" spans="15:15">
+      <c r="O522" s="1"/>
     </row>
     <row r="524" spans="15:15">
       <c r="O524" s="1"/>
@@ -29234,8 +29497,8 @@
     <row r="525" spans="15:15">
       <c r="O525" s="1"/>
     </row>
-    <row r="527" spans="15:15">
-      <c r="O527" s="1"/>
+    <row r="526" spans="15:15">
+      <c r="O526" s="1"/>
     </row>
     <row r="528" spans="15:15">
       <c r="O528" s="1"/>
@@ -29246,8 +29509,8 @@
     <row r="530" spans="2:15">
       <c r="O530" s="1"/>
     </row>
-    <row r="534" spans="2:15">
-      <c r="O534" s="1"/>
+    <row r="531" spans="2:15">
+      <c r="O531" s="1"/>
     </row>
     <row r="535" spans="2:15">
       <c r="O535" s="1"/>
@@ -29256,16 +29519,16 @@
       <c r="O536" s="1"/>
     </row>
     <row r="537" spans="2:15">
-      <c r="B537" s="8"/>
-      <c r="M537" s="8"/>
       <c r="O537" s="1"/>
     </row>
     <row r="538" spans="2:15">
+      <c r="B538" s="8"/>
       <c r="M538" s="8"/>
       <c r="O538" s="1"/>
     </row>
-    <row r="540" spans="2:15">
-      <c r="O540" s="1"/>
+    <row r="539" spans="2:15">
+      <c r="M539" s="8"/>
+      <c r="O539" s="1"/>
     </row>
     <row r="541" spans="2:15">
       <c r="O541" s="1"/>
@@ -29279,8 +29542,8 @@
     <row r="544" spans="2:15">
       <c r="O544" s="1"/>
     </row>
-    <row r="548" spans="2:15">
-      <c r="O548" s="1"/>
+    <row r="545" spans="2:15">
+      <c r="O545" s="1"/>
     </row>
     <row r="549" spans="2:15">
       <c r="O549" s="1"/>
@@ -29289,24 +29552,24 @@
       <c r="O550" s="1"/>
     </row>
     <row r="551" spans="2:15">
-      <c r="B551" s="8"/>
-      <c r="M551" s="8"/>
       <c r="O551" s="1"/>
     </row>
     <row r="552" spans="2:15">
+      <c r="B552" s="8"/>
+      <c r="M552" s="8"/>
       <c r="O552" s="1"/>
     </row>
-    <row r="554" spans="2:15">
-      <c r="O554" s="1"/>
+    <row r="553" spans="2:15">
+      <c r="O553" s="1"/>
     </row>
     <row r="555" spans="2:15">
       <c r="O555" s="1"/>
     </row>
-    <row r="557" spans="2:15">
-      <c r="O557" s="1"/>
-    </row>
-    <row r="561" spans="2:15">
-      <c r="O561" s="1"/>
+    <row r="556" spans="2:15">
+      <c r="O556" s="1"/>
+    </row>
+    <row r="558" spans="2:15">
+      <c r="O558" s="1"/>
     </row>
     <row r="562" spans="2:15">
       <c r="O562" s="1"/>
@@ -29315,16 +29578,16 @@
       <c r="O563" s="1"/>
     </row>
     <row r="564" spans="2:15">
-      <c r="B564" s="8"/>
-      <c r="M564" s="8"/>
       <c r="O564" s="1"/>
     </row>
     <row r="565" spans="2:15">
+      <c r="B565" s="8"/>
       <c r="M565" s="8"/>
       <c r="O565" s="1"/>
     </row>
-    <row r="567" spans="2:15">
-      <c r="O567" s="1"/>
+    <row r="566" spans="2:15">
+      <c r="M566" s="8"/>
+      <c r="O566" s="1"/>
     </row>
     <row r="568" spans="2:15">
       <c r="O568" s="1"/>
@@ -29341,8 +29604,8 @@
     <row r="572" spans="2:15">
       <c r="O572" s="1"/>
     </row>
-    <row r="576" spans="2:15">
-      <c r="O576" s="1"/>
+    <row r="573" spans="2:15">
+      <c r="O573" s="1"/>
     </row>
     <row r="577" spans="2:15">
       <c r="O577" s="1"/>
@@ -29351,8 +29614,6 @@
       <c r="O578" s="1"/>
     </row>
     <row r="579" spans="2:15">
-      <c r="B579" s="8"/>
-      <c r="M579" s="8"/>
       <c r="O579" s="1"/>
     </row>
     <row r="580" spans="2:15">
@@ -29386,15 +29647,17 @@
       <c r="O585" s="1"/>
     </row>
     <row r="586" spans="2:15">
+      <c r="B586" s="8"/>
+      <c r="M586" s="8"/>
       <c r="O586" s="1"/>
     </row>
     <row r="587" spans="2:15">
-      <c r="B587" s="8"/>
-      <c r="M587" s="8"/>
       <c r="O587" s="1"/>
     </row>
-    <row r="591" spans="2:15">
-      <c r="O591" s="1"/>
+    <row r="588" spans="2:15">
+      <c r="B588" s="8"/>
+      <c r="M588" s="8"/>
+      <c r="O588" s="1"/>
     </row>
     <row r="592" spans="2:15">
       <c r="O592" s="1"/>
@@ -29403,12 +29666,12 @@
       <c r="O593" s="1"/>
     </row>
     <row r="594" spans="2:15">
-      <c r="B594" s="8"/>
-      <c r="M594" s="8"/>
       <c r="O594" s="1"/>
     </row>
-    <row r="596" spans="2:15">
-      <c r="O596" s="1"/>
+    <row r="595" spans="2:15">
+      <c r="B595" s="8"/>
+      <c r="M595" s="8"/>
+      <c r="O595" s="1"/>
     </row>
     <row r="597" spans="2:15">
       <c r="O597" s="1"/>
@@ -29431,20 +29694,20 @@
     <row r="603" spans="2:15">
       <c r="O603" s="1"/>
     </row>
-    <row r="605" spans="2:15">
-      <c r="O605" s="1"/>
+    <row r="604" spans="2:15">
+      <c r="O604" s="1"/>
     </row>
     <row r="606" spans="2:15">
       <c r="O606" s="1"/>
     </row>
-    <row r="608" spans="2:15">
-      <c r="O608" s="1"/>
+    <row r="607" spans="2:15">
+      <c r="O607" s="1"/>
     </row>
     <row r="609" spans="13:15">
       <c r="O609" s="1"/>
     </row>
-    <row r="613" spans="13:15">
-      <c r="O613" s="1"/>
+    <row r="610" spans="13:15">
+      <c r="O610" s="1"/>
     </row>
     <row r="614" spans="13:15">
       <c r="O614" s="1"/>
@@ -29453,11 +29716,11 @@
       <c r="O615" s="1"/>
     </row>
     <row r="616" spans="13:15">
-      <c r="M616" s="8"/>
       <c r="O616" s="1"/>
     </row>
-    <row r="618" spans="13:15">
-      <c r="O618" s="1"/>
+    <row r="617" spans="13:15">
+      <c r="M617" s="8"/>
+      <c r="O617" s="1"/>
     </row>
     <row r="619" spans="13:15">
       <c r="O619" s="1"/>
@@ -29465,8 +29728,8 @@
     <row r="620" spans="13:15">
       <c r="O620" s="1"/>
     </row>
-    <row r="624" spans="13:15">
-      <c r="O624" s="1"/>
+    <row r="621" spans="13:15">
+      <c r="O621" s="1"/>
     </row>
     <row r="625" spans="2:15">
       <c r="O625" s="1"/>
@@ -29475,8 +29738,6 @@
       <c r="O626" s="1"/>
     </row>
     <row r="627" spans="2:15">
-      <c r="B627" s="8"/>
-      <c r="M627" s="8"/>
       <c r="O627" s="1"/>
     </row>
     <row r="628" spans="2:15">
@@ -29502,10 +29763,12 @@
     <row r="632" spans="2:15">
       <c r="B632" s="8"/>
       <c r="M632" s="8"/>
-      <c r="O632" s="21"/>
-    </row>
-    <row r="636" spans="2:15">
-      <c r="O636" s="3"/>
+      <c r="O632" s="1"/>
+    </row>
+    <row r="633" spans="2:15">
+      <c r="B633" s="8"/>
+      <c r="M633" s="8"/>
+      <c r="O633" s="21"/>
     </row>
     <row r="637" spans="2:15">
       <c r="O637" s="3"/>
@@ -29514,12 +29777,12 @@
       <c r="O638" s="3"/>
     </row>
     <row r="639" spans="2:15">
-      <c r="B639" s="8"/>
-      <c r="M639" s="8"/>
-      <c r="O639" s="14"/>
+      <c r="O639" s="3"/>
     </row>
     <row r="640" spans="2:15">
-      <c r="O640" s="21"/>
+      <c r="B640" s="8"/>
+      <c r="M640" s="8"/>
+      <c r="O640" s="14"/>
     </row>
     <row r="641" spans="15:15">
       <c r="O641" s="21"/>
@@ -29551,8 +29814,8 @@
     <row r="650" spans="15:15">
       <c r="O650" s="21"/>
     </row>
-    <row r="654" spans="15:15">
-      <c r="O654" s="21"/>
+    <row r="651" spans="15:15">
+      <c r="O651" s="21"/>
     </row>
     <row r="655" spans="15:15">
       <c r="O655" s="21"/>
@@ -29561,18 +29824,18 @@
       <c r="O656" s="21"/>
     </row>
     <row r="657" spans="2:15">
-      <c r="B657" s="8"/>
-      <c r="M657" s="8"/>
-      <c r="O657" s="14"/>
+      <c r="O657" s="21"/>
     </row>
     <row r="658" spans="2:15">
-      <c r="O658" s="21"/>
+      <c r="B658" s="8"/>
+      <c r="M658" s="8"/>
+      <c r="O658" s="14"/>
     </row>
     <row r="659" spans="2:15">
       <c r="O659" s="21"/>
     </row>
-    <row r="663" spans="2:15">
-      <c r="O663" s="21"/>
+    <row r="660" spans="2:15">
+      <c r="O660" s="21"/>
     </row>
     <row r="664" spans="2:15">
       <c r="O664" s="21"/>
@@ -29581,15 +29844,15 @@
       <c r="O665" s="21"/>
     </row>
     <row r="666" spans="2:15">
-      <c r="B666" s="8"/>
-      <c r="M666" s="8"/>
-      <c r="O666" s="14"/>
+      <c r="O666" s="21"/>
     </row>
     <row r="667" spans="2:15">
-      <c r="O667" s="21"/>
+      <c r="B667" s="8"/>
+      <c r="M667" s="8"/>
+      <c r="O667" s="14"/>
     </row>
     <row r="668" spans="2:15">
-      <c r="O668" s="22"/>
+      <c r="O668" s="21"/>
     </row>
     <row r="669" spans="2:15">
       <c r="O669" s="22"/>
@@ -29610,10 +29873,10 @@
       <c r="O674" s="22"/>
     </row>
     <row r="675" spans="15:15">
-      <c r="O675" s="21"/>
+      <c r="O675" s="22"/>
     </row>
     <row r="676" spans="15:15">
-      <c r="O676" s="22"/>
+      <c r="O676" s="21"/>
     </row>
     <row r="677" spans="15:15">
       <c r="O677" s="22"/>
@@ -29624,11 +29887,11 @@
     <row r="679" spans="15:15">
       <c r="O679" s="22"/>
     </row>
-    <row r="681" spans="15:15">
-      <c r="O681" s="21"/>
-    </row>
-    <row r="683" spans="15:15">
-      <c r="O683" s="21"/>
+    <row r="680" spans="15:15">
+      <c r="O680" s="22"/>
+    </row>
+    <row r="682" spans="15:15">
+      <c r="O682" s="21"/>
     </row>
     <row r="684" spans="15:15">
       <c r="O684" s="21"/>
@@ -29648,11 +29911,11 @@
     <row r="689" spans="2:15">
       <c r="O689" s="21"/>
     </row>
-    <row r="693" spans="2:15">
-      <c r="O693" s="1"/>
-    </row>
-    <row r="695" spans="2:15">
-      <c r="O695" s="1"/>
+    <row r="690" spans="2:15">
+      <c r="O690" s="21"/>
+    </row>
+    <row r="694" spans="2:15">
+      <c r="O694" s="1"/>
     </row>
     <row r="696" spans="2:15">
       <c r="O696" s="1"/>
@@ -29661,12 +29924,12 @@
       <c r="O697" s="1"/>
     </row>
     <row r="698" spans="2:15">
-      <c r="B698" s="8"/>
-      <c r="M698" s="8"/>
       <c r="O698" s="1"/>
     </row>
-    <row r="700" spans="2:15">
-      <c r="O700" s="1"/>
+    <row r="699" spans="2:15">
+      <c r="B699" s="8"/>
+      <c r="M699" s="8"/>
+      <c r="O699" s="1"/>
     </row>
     <row r="701" spans="2:15">
       <c r="O701" s="1"/>
@@ -29675,19 +29938,19 @@
       <c r="O702" s="1"/>
     </row>
     <row r="703" spans="2:15">
-      <c r="B703" s="8"/>
-      <c r="M703" s="8"/>
       <c r="O703" s="1"/>
     </row>
-    <row r="707" spans="2:15">
-      <c r="B707" s="8"/>
-      <c r="M707" s="8"/>
-    </row>
-    <row r="712" spans="2:15">
-      <c r="O712" s="7"/>
-    </row>
-    <row r="716" spans="2:15">
-      <c r="O716" s="7"/>
+    <row r="704" spans="2:15">
+      <c r="B704" s="8"/>
+      <c r="M704" s="8"/>
+      <c r="O704" s="1"/>
+    </row>
+    <row r="708" spans="2:15">
+      <c r="B708" s="8"/>
+      <c r="M708" s="8"/>
+    </row>
+    <row r="713" spans="2:15">
+      <c r="O713" s="7"/>
     </row>
     <row r="717" spans="2:15">
       <c r="O717" s="7"/>
@@ -29695,8 +29958,8 @@
     <row r="718" spans="2:15">
       <c r="O718" s="7"/>
     </row>
-    <row r="722" spans="15:15">
-      <c r="O722" s="7"/>
+    <row r="719" spans="2:15">
+      <c r="O719" s="7"/>
     </row>
     <row r="723" spans="15:15">
       <c r="O723" s="7"/>
@@ -29704,8 +29967,8 @@
     <row r="724" spans="15:15">
       <c r="O724" s="7"/>
     </row>
-    <row r="728" spans="15:15">
-      <c r="O728" s="7"/>
+    <row r="725" spans="15:15">
+      <c r="O725" s="7"/>
     </row>
     <row r="729" spans="15:15">
       <c r="O729" s="7"/>
@@ -29713,8 +29976,8 @@
     <row r="730" spans="15:15">
       <c r="O730" s="7"/>
     </row>
-    <row r="732" spans="15:15">
-      <c r="O732" s="7"/>
+    <row r="731" spans="15:15">
+      <c r="O731" s="7"/>
     </row>
     <row r="733" spans="15:15">
       <c r="O733" s="7"/>
@@ -29735,10 +29998,10 @@
       <c r="O738" s="7"/>
     </row>
     <row r="739" spans="15:15">
-      <c r="O739" s="1"/>
-    </row>
-    <row r="741" spans="15:15">
-      <c r="O741" s="7"/>
+      <c r="O739" s="7"/>
+    </row>
+    <row r="740" spans="15:15">
+      <c r="O740" s="1"/>
     </row>
     <row r="742" spans="15:15">
       <c r="O742" s="7"/>
@@ -29764,8 +30027,8 @@
     <row r="749" spans="15:15">
       <c r="O749" s="7"/>
     </row>
-    <row r="751" spans="15:15">
-      <c r="O751" s="7"/>
+    <row r="750" spans="15:15">
+      <c r="O750" s="7"/>
     </row>
     <row r="752" spans="15:15">
       <c r="O752" s="7"/>
@@ -29794,17 +30057,17 @@
     <row r="760" spans="15:15">
       <c r="O760" s="7"/>
     </row>
-    <row r="762" spans="15:15">
-      <c r="O762" s="7"/>
+    <row r="761" spans="15:15">
+      <c r="O761" s="7"/>
     </row>
     <row r="763" spans="15:15">
-      <c r="O763" s="1"/>
+      <c r="O763" s="7"/>
     </row>
     <row r="764" spans="15:15">
       <c r="O764" s="1"/>
     </row>
-    <row r="766" spans="15:15">
-      <c r="O766" s="21"/>
+    <row r="765" spans="15:15">
+      <c r="O765" s="1"/>
     </row>
     <row r="767" spans="15:15">
       <c r="O767" s="21"/>
@@ -29812,14 +30075,14 @@
     <row r="768" spans="15:15">
       <c r="O768" s="21"/>
     </row>
-    <row r="772" spans="15:15">
-      <c r="O772" s="7"/>
+    <row r="769" spans="15:15">
+      <c r="O769" s="21"/>
     </row>
     <row r="773" spans="15:15">
       <c r="O773" s="7"/>
     </row>
-    <row r="775" spans="15:15">
-      <c r="O775" s="7"/>
+    <row r="774" spans="15:15">
+      <c r="O774" s="7"/>
     </row>
     <row r="776" spans="15:15">
       <c r="O776" s="7"/>
@@ -29827,14 +30090,14 @@
     <row r="777" spans="15:15">
       <c r="O777" s="7"/>
     </row>
-    <row r="779" spans="15:15">
-      <c r="O779" s="7"/>
-    </row>
-    <row r="781" spans="15:15">
-      <c r="O781" s="7"/>
-    </row>
-    <row r="783" spans="15:15">
-      <c r="O783" s="7"/>
+    <row r="778" spans="15:15">
+      <c r="O778" s="7"/>
+    </row>
+    <row r="780" spans="15:15">
+      <c r="O780" s="7"/>
+    </row>
+    <row r="782" spans="15:15">
+      <c r="O782" s="7"/>
     </row>
     <row r="784" spans="15:15">
       <c r="O784" s="7"/>
@@ -29849,18 +30112,6 @@
       <c r="O787" s="7"/>
     </row>
     <row r="788" spans="2:15">
-      <c r="B788" s="23"/>
-      <c r="C788" s="23"/>
-      <c r="D788" s="23"/>
-      <c r="E788" s="23"/>
-      <c r="F788" s="23"/>
-      <c r="G788" s="23"/>
-      <c r="H788" s="23"/>
-      <c r="I788" s="23"/>
-      <c r="J788" s="23"/>
-      <c r="K788" s="23"/>
-      <c r="L788" s="23"/>
-      <c r="M788" s="23"/>
       <c r="O788" s="7"/>
     </row>
     <row r="789" spans="2:15">
@@ -29953,8 +30204,20 @@
       <c r="M794" s="23"/>
       <c r="O794" s="7"/>
     </row>
-    <row r="796" spans="2:15">
-      <c r="O796" s="7"/>
+    <row r="795" spans="2:15">
+      <c r="B795" s="23"/>
+      <c r="C795" s="23"/>
+      <c r="D795" s="23"/>
+      <c r="E795" s="23"/>
+      <c r="F795" s="23"/>
+      <c r="G795" s="23"/>
+      <c r="H795" s="23"/>
+      <c r="I795" s="23"/>
+      <c r="J795" s="23"/>
+      <c r="K795" s="23"/>
+      <c r="L795" s="23"/>
+      <c r="M795" s="23"/>
+      <c r="O795" s="7"/>
     </row>
     <row r="797" spans="2:15">
       <c r="O797" s="7"/>
@@ -29987,13 +30250,13 @@
       <c r="O806" s="7"/>
     </row>
     <row r="807" spans="15:15">
-      <c r="O807" s="1"/>
+      <c r="O807" s="7"/>
     </row>
     <row r="808" spans="15:15">
-      <c r="O808" s="7"/>
-    </row>
-    <row r="810" spans="15:15">
-      <c r="O810" s="7"/>
+      <c r="O808" s="1"/>
+    </row>
+    <row r="809" spans="15:15">
+      <c r="O809" s="7"/>
     </row>
     <row r="811" spans="15:15">
       <c r="O811" s="7"/>
@@ -30023,10 +30286,10 @@
       <c r="O819" s="7"/>
     </row>
     <row r="820" spans="15:15">
-      <c r="O820" s="1"/>
-    </row>
-    <row r="822" spans="15:15">
-      <c r="O822" s="7"/>
+      <c r="O820" s="7"/>
+    </row>
+    <row r="821" spans="15:15">
+      <c r="O821" s="1"/>
     </row>
     <row r="823" spans="15:15">
       <c r="O823" s="7"/>
@@ -30040,8 +30303,8 @@
     <row r="826" spans="15:15">
       <c r="O826" s="7"/>
     </row>
-    <row r="830" spans="15:15">
-      <c r="O830" s="7"/>
+    <row r="827" spans="15:15">
+      <c r="O827" s="7"/>
     </row>
     <row r="831" spans="15:15">
       <c r="O831" s="7"/>
@@ -30056,18 +30319,6 @@
       <c r="O834" s="7"/>
     </row>
     <row r="835" spans="2:15">
-      <c r="B835" s="24"/>
-      <c r="C835" s="25"/>
-      <c r="D835" s="25"/>
-      <c r="E835" s="25"/>
-      <c r="F835" s="25"/>
-      <c r="G835" s="25"/>
-      <c r="H835" s="25"/>
-      <c r="I835" s="25"/>
-      <c r="J835" s="25"/>
-      <c r="K835" s="25"/>
-      <c r="L835" s="25"/>
-      <c r="M835" s="24"/>
       <c r="O835" s="7"/>
     </row>
     <row r="836" spans="2:15">
@@ -30132,24 +30383,34 @@
     </row>
     <row r="840" spans="2:15">
       <c r="B840" s="24"/>
+      <c r="C840" s="25"/>
+      <c r="D840" s="25"/>
+      <c r="E840" s="25"/>
+      <c r="F840" s="25"/>
+      <c r="G840" s="25"/>
+      <c r="H840" s="25"/>
+      <c r="I840" s="25"/>
+      <c r="J840" s="25"/>
+      <c r="K840" s="25"/>
+      <c r="L840" s="25"/>
       <c r="M840" s="24"/>
       <c r="O840" s="7"/>
     </row>
     <row r="841" spans="2:15">
-      <c r="O841" s="1"/>
+      <c r="B841" s="24"/>
+      <c r="M841" s="24"/>
+      <c r="O841" s="7"/>
     </row>
     <row r="842" spans="2:15">
-      <c r="O842" s="7"/>
-    </row>
-    <row r="844" spans="2:15">
-      <c r="B844" s="24"/>
-      <c r="M844" s="24"/>
-      <c r="O844" s="7"/>
-    </row>
-    <row r="846" spans="2:15">
-      <c r="B846" s="8"/>
-      <c r="M846" s="8"/>
-      <c r="O846" s="7"/>
+      <c r="O842" s="1"/>
+    </row>
+    <row r="843" spans="2:15">
+      <c r="O843" s="7"/>
+    </row>
+    <row r="845" spans="2:15">
+      <c r="B845" s="24"/>
+      <c r="M845" s="24"/>
+      <c r="O845" s="7"/>
     </row>
     <row r="847" spans="2:15">
       <c r="B847" s="8"/>
@@ -30171,8 +30432,10 @@
       <c r="M850" s="8"/>
       <c r="O850" s="7"/>
     </row>
-    <row r="853" spans="2:15">
-      <c r="O853" s="7"/>
+    <row r="851" spans="2:15">
+      <c r="B851" s="8"/>
+      <c r="M851" s="8"/>
+      <c r="O851" s="7"/>
     </row>
     <row r="854" spans="2:15">
       <c r="O854" s="7"/>
@@ -30183,17 +30446,17 @@
     <row r="856" spans="2:15">
       <c r="O856" s="7"/>
     </row>
-    <row r="858" spans="2:15">
-      <c r="O858" s="7"/>
+    <row r="857" spans="2:15">
+      <c r="O857" s="7"/>
     </row>
     <row r="859" spans="2:15">
       <c r="O859" s="7"/>
     </row>
-    <row r="861" spans="2:15">
-      <c r="O861" s="7"/>
-    </row>
-    <row r="863" spans="2:15">
-      <c r="O863" s="7"/>
+    <row r="860" spans="2:15">
+      <c r="O860" s="7"/>
+    </row>
+    <row r="862" spans="2:15">
+      <c r="O862" s="7"/>
     </row>
     <row r="864" spans="2:15">
       <c r="O864" s="7"/>
@@ -30223,13 +30486,11 @@
       <c r="O872" s="7"/>
     </row>
     <row r="873" spans="2:15">
-      <c r="B873" s="26"/>
       <c r="O873" s="7"/>
     </row>
-    <row r="875" spans="2:15">
-      <c r="B875" s="8"/>
-      <c r="M875" s="8"/>
-      <c r="O875" s="1"/>
+    <row r="874" spans="2:15">
+      <c r="B874" s="26"/>
+      <c r="O874" s="7"/>
     </row>
     <row r="876" spans="2:15">
       <c r="B876" s="8"/>
@@ -30237,12 +30498,12 @@
       <c r="O876" s="1"/>
     </row>
     <row r="877" spans="2:15">
-      <c r="O877" s="7"/>
-    </row>
-    <row r="879" spans="2:15">
-      <c r="B879" s="8"/>
-      <c r="M879" s="8"/>
-      <c r="O879" s="1"/>
+      <c r="B877" s="8"/>
+      <c r="M877" s="8"/>
+      <c r="O877" s="1"/>
+    </row>
+    <row r="878" spans="2:15">
+      <c r="O878" s="7"/>
     </row>
     <row r="880" spans="2:15">
       <c r="B880" s="8"/>
@@ -30256,11 +30517,11 @@
     </row>
     <row r="882" spans="1:15">
       <c r="B882" s="8"/>
+      <c r="M882" s="8"/>
       <c r="O882" s="1"/>
     </row>
     <row r="883" spans="1:15">
       <c r="B883" s="8"/>
-      <c r="M883" s="8"/>
       <c r="O883" s="1"/>
     </row>
     <row r="884" spans="1:15">
@@ -30278,22 +30539,10 @@
       <c r="M886" s="8"/>
       <c r="O886" s="1"/>
     </row>
-    <row r="889" spans="1:15">
-      <c r="A889" s="2"/>
-      <c r="B889" s="2"/>
-      <c r="C889" s="2"/>
-      <c r="D889" s="2"/>
-      <c r="E889" s="2"/>
-      <c r="F889" s="2"/>
-      <c r="G889" s="2"/>
-      <c r="H889" s="2"/>
-      <c r="I889" s="2"/>
-      <c r="J889" s="2"/>
-      <c r="K889" s="2"/>
-      <c r="L889" s="2"/>
-      <c r="M889" s="2"/>
-      <c r="N889" s="2"/>
-      <c r="O889" s="2"/>
+    <row r="887" spans="1:15">
+      <c r="B887" s="8"/>
+      <c r="M887" s="8"/>
+      <c r="O887" s="1"/>
     </row>
     <row r="890" spans="1:15">
       <c r="A890" s="2"/>
@@ -30376,7 +30625,7 @@
       <c r="J894" s="2"/>
       <c r="K894" s="2"/>
       <c r="L894" s="2"/>
-      <c r="M894" s="12"/>
+      <c r="M894" s="2"/>
       <c r="N894" s="2"/>
       <c r="O894" s="2"/>
     </row>
@@ -30413,6 +30662,23 @@
       <c r="M896" s="12"/>
       <c r="N896" s="2"/>
       <c r="O896" s="2"/>
+    </row>
+    <row r="897" spans="1:15">
+      <c r="A897" s="2"/>
+      <c r="B897" s="2"/>
+      <c r="C897" s="2"/>
+      <c r="D897" s="2"/>
+      <c r="E897" s="2"/>
+      <c r="F897" s="2"/>
+      <c r="G897" s="2"/>
+      <c r="H897" s="2"/>
+      <c r="I897" s="2"/>
+      <c r="J897" s="2"/>
+      <c r="K897" s="2"/>
+      <c r="L897" s="2"/>
+      <c r="M897" s="12"/>
+      <c r="N897" s="2"/>
+      <c r="O897" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15"/>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aoto\Desktop\AmongUsMod\TheOtherRolesGM-KiyoMugi-Edition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303ADE89-F324-49B0-96F5-B81C41D6CB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D77377-8F3B-4416-AB2F-EAE0A14C60F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36750" yWindow="2400" windowWidth="21600" windowHeight="11370" tabRatio="882" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4230" yWindow="1680" windowWidth="21600" windowHeight="11370" tabRatio="882" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModText" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3706" uniqueCount="3174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3754" uniqueCount="3216">
   <si>
     <t>English</t>
   </si>
@@ -10780,6 +10780,201 @@
     </rPh>
     <phoneticPr fontId="15"/>
   </si>
+  <si>
+    <t>jammer</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Jammer</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>ジャマー</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>immortality</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Immortality</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>不死身</t>
+    <rPh sb="0" eb="3">
+      <t>フジミ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>jammerAliveFriendlyFire</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Jammer Alive Friendly Fire</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>生きているときにフレンドリファイアができる</t>
+    <rPh sb="0" eb="1">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>immortalityMeetingStartSuicideTime</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Meeting Start Suicide Time</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>ミーティング開始時から死ぬまでの時間</t>
+    <rPh sb="6" eb="9">
+      <t>カイシジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>eater</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Eater</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>イーター</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>eaterEatCooldown</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Eat Cooldown</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>捕食クールダウン</t>
+    <rPh sb="0" eb="2">
+      <t>ホショク</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>eaterEatTime</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Eat Time</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>捕食時間</t>
+    <rPh sb="0" eb="2">
+      <t>ホショク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>jammerIntroDesc</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Let's sabotage it.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>妨害しよう</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>immortalityIntroDesc</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>No need to worry about being killed!</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>殺されても安心！</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>eaterIntroDesc</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Let's wipe them out of existence.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>存在を抹消しよう</t>
+  </si>
+  <si>
+    <t>jammerShortDesc</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>immortalityShortDesc</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>eaterShortDesc</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>jammerFullDesc</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>While I am alive, the impostors are not visible to each other.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>・自分が生きている間は、インポスター同士が視認できなくなる。</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>immortalityFullDesc</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Once killed, they are resurrected.
+The next meeting after it is killed, it dies within a specified time.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>・一度殺されても復活する。
+・殺された次の会議は指定した時間内に死んでしまう。</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>eaterFullDesc</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Pressing the eat button eliminates corpses and kills.
+But you have to stand on the corpse for a set number of seconds before you can eat it.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>・捕食ボタンを押すと、死体をなくすかつキルができる。
+・だが、死体の上に設定秒数立っていないとしたいを食べれない。</t>
+    <phoneticPr fontId="15"/>
+  </si>
 </sst>
 </file>
 
@@ -10921,7 +11116,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -10995,6 +11190,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
@@ -14228,8 +14427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q901"/>
   <sheetViews>
-    <sheetView topLeftCell="C59" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H86" sqref="H86"/>
+    <sheetView topLeftCell="B74" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -16269,8 +16468,12 @@
       <c r="O85" s="18"/>
     </row>
     <row r="86" spans="1:15">
-      <c r="A86" s="15"/>
-      <c r="B86" s="16"/>
+      <c r="A86" s="15" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B86" s="16" t="s">
+        <v>3175</v>
+      </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
@@ -16281,13 +16484,19 @@
       <c r="J86" s="6"/>
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
-      <c r="M86" s="18"/>
+      <c r="M86" s="37" t="s">
+        <v>3176</v>
+      </c>
       <c r="N86" s="6"/>
       <c r="O86" s="18"/>
     </row>
     <row r="87" spans="1:15">
-      <c r="A87" s="15"/>
-      <c r="B87" s="15"/>
+      <c r="A87" s="15" t="s">
+        <v>3177</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>3178</v>
+      </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
@@ -16298,13 +16507,19 @@
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
-      <c r="M87" s="6"/>
+      <c r="M87" s="5" t="s">
+        <v>3179</v>
+      </c>
       <c r="N87" s="6"/>
       <c r="O87" s="6"/>
     </row>
     <row r="88" spans="1:15">
-      <c r="A88" s="15"/>
-      <c r="B88" s="17"/>
+      <c r="A88" s="15" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>3187</v>
+      </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
@@ -16315,7 +16530,9 @@
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
-      <c r="M88" s="6"/>
+      <c r="M88" s="5" t="s">
+        <v>3188</v>
+      </c>
       <c r="N88" s="6"/>
       <c r="O88" s="6"/>
     </row>
@@ -18633,8 +18850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q906"/>
   <sheetViews>
-    <sheetView topLeftCell="A338" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A360" sqref="A360"/>
+    <sheetView topLeftCell="C341" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H362" sqref="H362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -25638,10 +25855,50 @@
       </c>
       <c r="O357" s="1"/>
     </row>
+    <row r="359" spans="1:15">
+      <c r="A359" s="39" t="s">
+        <v>3180</v>
+      </c>
+      <c r="B359" s="39" t="s">
+        <v>3181</v>
+      </c>
+      <c r="M359" s="39" t="s">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="360" spans="1:15">
+      <c r="A360" s="39" t="s">
+        <v>3183</v>
+      </c>
+      <c r="B360" s="39" t="s">
+        <v>3184</v>
+      </c>
+      <c r="M360" s="39" t="s">
+        <v>3185</v>
+      </c>
+    </row>
     <row r="361" spans="1:15">
+      <c r="A361" s="39" t="s">
+        <v>3189</v>
+      </c>
+      <c r="B361" s="39" t="s">
+        <v>3190</v>
+      </c>
+      <c r="M361" s="39" t="s">
+        <v>3191</v>
+      </c>
       <c r="O361" s="1"/>
     </row>
     <row r="362" spans="1:15">
+      <c r="A362" s="39" t="s">
+        <v>3192</v>
+      </c>
+      <c r="B362" s="39" t="s">
+        <v>3193</v>
+      </c>
+      <c r="M362" s="39" t="s">
+        <v>3194</v>
+      </c>
       <c r="O362" s="1"/>
     </row>
     <row r="363" spans="1:15">
@@ -27185,7 +27442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q897"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
@@ -34260,10 +34517,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:Q897"/>
+  <dimension ref="A1:Q896"/>
   <sheetViews>
     <sheetView topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:XFD73"/>
+      <selection activeCell="A73" sqref="A73:XFD75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -35888,36 +36145,46 @@
       <c r="O71" s="3"/>
     </row>
     <row r="72" spans="1:15">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" s="3"/>
+      <c r="A72" s="39" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B72" s="39" t="s">
+        <v>3133</v>
+      </c>
+      <c r="M72" s="39" t="s">
+        <v>3134</v>
+      </c>
     </row>
     <row r="73" spans="1:15">
-      <c r="A73" s="39" t="s">
-        <v>3132</v>
-      </c>
-      <c r="B73" s="39" t="s">
-        <v>3133</v>
-      </c>
-      <c r="M73" s="39" t="s">
-        <v>3134</v>
-      </c>
+      <c r="A73" s="41" t="s">
+        <v>3195</v>
+      </c>
+      <c r="B73" s="41" t="s">
+        <v>3196</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="41" t="s">
+        <v>3197</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="3"/>
     </row>
     <row r="74" spans="1:15">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
+      <c r="A74" s="41" t="s">
+        <v>3198</v>
+      </c>
+      <c r="B74" s="41" t="s">
+        <v>3199</v>
+      </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -35928,13 +36195,19 @@
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
+      <c r="M74" s="41" t="s">
+        <v>3200</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" s="3"/>
     </row>
     <row r="75" spans="1:15">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
+      <c r="A75" s="41" t="s">
+        <v>3201</v>
+      </c>
+      <c r="B75" s="41" t="s">
+        <v>3202</v>
+      </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -35945,26 +36218,28 @@
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
+      <c r="M75" s="2" t="s">
+        <v>3203</v>
+      </c>
       <c r="N75" s="2"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" s="3"/>
+    <row r="77" spans="1:15">
+      <c r="A77" s="15"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="18"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="15"/>
@@ -35979,7 +36254,7 @@
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
-      <c r="M78" s="18"/>
+      <c r="M78" s="6"/>
       <c r="N78" s="6"/>
       <c r="O78" s="6"/>
     </row>
@@ -36002,7 +36277,7 @@
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="15"/>
-      <c r="B80" s="15"/>
+      <c r="B80" s="16"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
@@ -36013,9 +36288,9 @@
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
-      <c r="M80" s="6"/>
+      <c r="M80" s="18"/>
       <c r="N80" s="6"/>
-      <c r="O80" s="6"/>
+      <c r="O80" s="18"/>
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="15"/>
@@ -36036,7 +36311,7 @@
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="15"/>
-      <c r="B82" s="16"/>
+      <c r="B82" s="15"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -36047,13 +36322,13 @@
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
-      <c r="M82" s="18"/>
+      <c r="M82" s="6"/>
       <c r="N82" s="6"/>
-      <c r="O82" s="18"/>
+      <c r="O82" s="6"/>
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="15"/>
-      <c r="B83" s="15"/>
+      <c r="B83" s="17"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
@@ -36069,7 +36344,7 @@
       <c r="O83" s="6"/>
     </row>
     <row r="84" spans="1:15">
-      <c r="A84" s="15"/>
+      <c r="A84" s="17"/>
       <c r="B84" s="17"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -36086,8 +36361,8 @@
       <c r="O84" s="6"/>
     </row>
     <row r="85" spans="1:15">
-      <c r="A85" s="17"/>
-      <c r="B85" s="17"/>
+      <c r="A85" s="15"/>
+      <c r="B85" s="15"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -36100,7 +36375,7 @@
       <c r="L85" s="6"/>
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
-      <c r="O85" s="6"/>
+      <c r="O85" s="19"/>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="15"/>
@@ -36185,7 +36460,7 @@
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
       <c r="N90" s="6"/>
-      <c r="O90" s="19"/>
+      <c r="O90" s="6"/>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="15"/>
@@ -36222,8 +36497,8 @@
       <c r="O92" s="6"/>
     </row>
     <row r="93" spans="1:15">
-      <c r="A93" s="15"/>
-      <c r="B93" s="15"/>
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
@@ -36239,8 +36514,8 @@
       <c r="O93" s="6"/>
     </row>
     <row r="94" spans="1:15">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
+      <c r="A94" s="15"/>
+      <c r="B94" s="15"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
@@ -36270,7 +36545,7 @@
       <c r="L95" s="6"/>
       <c r="M95" s="6"/>
       <c r="N95" s="6"/>
-      <c r="O95" s="6"/>
+      <c r="O95" s="19"/>
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="15"/>
@@ -36321,24 +36596,10 @@
       <c r="L98" s="6"/>
       <c r="M98" s="6"/>
       <c r="N98" s="6"/>
-      <c r="O98" s="19"/>
-    </row>
-    <row r="99" spans="1:15">
-      <c r="A99" s="15"/>
-      <c r="B99" s="15"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
-      <c r="K99" s="6"/>
-      <c r="L99" s="6"/>
-      <c r="M99" s="6"/>
-      <c r="N99" s="6"/>
-      <c r="O99" s="6"/>
+      <c r="O98" s="6"/>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="O100" s="1"/>
     </row>
     <row r="101" spans="1:15">
       <c r="O101" s="1"/>
@@ -36346,8 +36607,8 @@
     <row r="102" spans="1:15">
       <c r="O102" s="1"/>
     </row>
-    <row r="103" spans="1:15">
-      <c r="O103" s="1"/>
+    <row r="104" spans="1:15">
+      <c r="O104" s="1"/>
     </row>
     <row r="105" spans="1:15">
       <c r="O105" s="1"/>
@@ -36355,8 +36616,8 @@
     <row r="106" spans="1:15">
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="1:15">
-      <c r="O107" s="1"/>
+    <row r="110" spans="1:15">
+      <c r="O110" s="1"/>
     </row>
     <row r="111" spans="1:15">
       <c r="O111" s="1"/>
@@ -36364,8 +36625,8 @@
     <row r="112" spans="1:15">
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="15:15">
-      <c r="O113" s="1"/>
+    <row r="114" spans="15:15">
+      <c r="O114" s="1"/>
     </row>
     <row r="115" spans="15:15">
       <c r="O115" s="1"/>
@@ -36373,11 +36634,11 @@
     <row r="116" spans="15:15">
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="15:15">
-      <c r="O117" s="1"/>
-    </row>
-    <row r="119" spans="15:15">
-      <c r="O119" s="1"/>
+    <row r="118" spans="15:15">
+      <c r="O118" s="1"/>
+    </row>
+    <row r="122" spans="15:15">
+      <c r="O122" s="1"/>
     </row>
     <row r="123" spans="15:15">
       <c r="O123" s="1"/>
@@ -36385,11 +36646,11 @@
     <row r="124" spans="15:15">
       <c r="O124" s="1"/>
     </row>
-    <row r="125" spans="15:15">
-      <c r="O125" s="1"/>
-    </row>
-    <row r="127" spans="15:15">
-      <c r="O127" s="1"/>
+    <row r="126" spans="15:15">
+      <c r="O126" s="1"/>
+    </row>
+    <row r="130" spans="15:15">
+      <c r="O130" s="1"/>
     </row>
     <row r="131" spans="15:15">
       <c r="O131" s="1"/>
@@ -36397,14 +36658,14 @@
     <row r="132" spans="15:15">
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="15:15">
-      <c r="O133" s="1"/>
+    <row r="134" spans="15:15">
+      <c r="O134" s="1"/>
     </row>
     <row r="135" spans="15:15">
       <c r="O135" s="1"/>
     </row>
-    <row r="136" spans="15:15">
-      <c r="O136" s="1"/>
+    <row r="139" spans="15:15">
+      <c r="O139" s="1"/>
     </row>
     <row r="140" spans="15:15">
       <c r="O140" s="1"/>
@@ -36412,8 +36673,8 @@
     <row r="141" spans="15:15">
       <c r="O141" s="1"/>
     </row>
-    <row r="142" spans="15:15">
-      <c r="O142" s="1"/>
+    <row r="143" spans="15:15">
+      <c r="O143" s="1"/>
     </row>
     <row r="144" spans="15:15">
       <c r="O144" s="1"/>
@@ -36427,11 +36688,11 @@
     <row r="147" spans="15:15">
       <c r="O147" s="1"/>
     </row>
-    <row r="148" spans="15:15">
-      <c r="O148" s="1"/>
-    </row>
-    <row r="152" spans="15:15">
-      <c r="O152" s="1"/>
+    <row r="151" spans="15:15">
+      <c r="O151" s="1"/>
+    </row>
+    <row r="153" spans="15:15">
+      <c r="O153" s="1"/>
     </row>
     <row r="154" spans="15:15">
       <c r="O154" s="1"/>
@@ -36439,8 +36700,8 @@
     <row r="155" spans="15:15">
       <c r="O155" s="1"/>
     </row>
-    <row r="156" spans="15:15">
-      <c r="O156" s="1"/>
+    <row r="157" spans="15:15">
+      <c r="O157" s="1"/>
     </row>
     <row r="158" spans="15:15">
       <c r="O158" s="1"/>
@@ -36448,14 +36709,14 @@
     <row r="159" spans="15:15">
       <c r="O159" s="1"/>
     </row>
-    <row r="160" spans="15:15">
-      <c r="O160" s="1"/>
+    <row r="161" spans="2:15">
+      <c r="O161" s="1"/>
     </row>
     <row r="162" spans="2:15">
       <c r="O162" s="1"/>
     </row>
-    <row r="163" spans="2:15">
-      <c r="O163" s="1"/>
+    <row r="166" spans="2:15">
+      <c r="O166" s="1"/>
     </row>
     <row r="167" spans="2:15">
       <c r="O167" s="1"/>
@@ -36464,6 +36725,8 @@
       <c r="O168" s="1"/>
     </row>
     <row r="169" spans="2:15">
+      <c r="B169" s="8"/>
+      <c r="M169" s="8"/>
       <c r="O169" s="1"/>
     </row>
     <row r="170" spans="2:15">
@@ -36472,8 +36735,6 @@
       <c r="O170" s="1"/>
     </row>
     <row r="171" spans="2:15">
-      <c r="B171" s="8"/>
-      <c r="M171" s="8"/>
       <c r="O171" s="1"/>
     </row>
     <row r="172" spans="2:15">
@@ -36497,11 +36758,11 @@
     <row r="178" spans="15:15">
       <c r="O178" s="1"/>
     </row>
-    <row r="179" spans="15:15">
-      <c r="O179" s="1"/>
-    </row>
-    <row r="183" spans="15:15">
-      <c r="O183" s="1"/>
+    <row r="182" spans="15:15">
+      <c r="O182" s="1"/>
+    </row>
+    <row r="184" spans="15:15">
+      <c r="O184" s="1"/>
     </row>
     <row r="185" spans="15:15">
       <c r="O185" s="1"/>
@@ -36509,8 +36770,8 @@
     <row r="186" spans="15:15">
       <c r="O186" s="1"/>
     </row>
-    <row r="187" spans="15:15">
-      <c r="O187" s="1"/>
+    <row r="188" spans="15:15">
+      <c r="O188" s="1"/>
     </row>
     <row r="189" spans="15:15">
       <c r="O189" s="1"/>
@@ -36534,10 +36795,10 @@
       <c r="O195" s="1"/>
     </row>
     <row r="196" spans="1:15">
+      <c r="A196" s="20"/>
       <c r="O196" s="1"/>
     </row>
     <row r="197" spans="1:15">
-      <c r="A197" s="20"/>
       <c r="O197" s="1"/>
     </row>
     <row r="198" spans="1:15">
@@ -36546,14 +36807,14 @@
     <row r="199" spans="1:15">
       <c r="O199" s="1"/>
     </row>
-    <row r="200" spans="1:15">
-      <c r="O200" s="1"/>
+    <row r="203" spans="1:15">
+      <c r="O203" s="1"/>
     </row>
     <row r="204" spans="1:15">
       <c r="O204" s="1"/>
     </row>
-    <row r="205" spans="1:15">
-      <c r="O205" s="1"/>
+    <row r="206" spans="1:15">
+      <c r="O206" s="1"/>
     </row>
     <row r="207" spans="1:15">
       <c r="O207" s="1"/>
@@ -36579,14 +36840,14 @@
     <row r="214" spans="15:15">
       <c r="O214" s="1"/>
     </row>
-    <row r="215" spans="15:15">
-      <c r="O215" s="1"/>
+    <row r="216" spans="15:15">
+      <c r="O216" s="1"/>
     </row>
     <row r="217" spans="15:15">
       <c r="O217" s="1"/>
     </row>
-    <row r="218" spans="15:15">
-      <c r="O218" s="1"/>
+    <row r="221" spans="15:15">
+      <c r="O221" s="1"/>
     </row>
     <row r="222" spans="15:15">
       <c r="O222" s="1"/>
@@ -36594,8 +36855,8 @@
     <row r="223" spans="15:15">
       <c r="O223" s="1"/>
     </row>
-    <row r="224" spans="15:15">
-      <c r="O224" s="1"/>
+    <row r="225" spans="15:15">
+      <c r="O225" s="1"/>
     </row>
     <row r="226" spans="15:15">
       <c r="O226" s="1"/>
@@ -36603,8 +36864,8 @@
     <row r="227" spans="15:15">
       <c r="O227" s="1"/>
     </row>
-    <row r="228" spans="15:15">
-      <c r="O228" s="1"/>
+    <row r="231" spans="15:15">
+      <c r="O231" s="1"/>
     </row>
     <row r="232" spans="15:15">
       <c r="O232" s="1"/>
@@ -36612,8 +36873,8 @@
     <row r="233" spans="15:15">
       <c r="O233" s="1"/>
     </row>
-    <row r="234" spans="15:15">
-      <c r="O234" s="1"/>
+    <row r="235" spans="15:15">
+      <c r="O235" s="1"/>
     </row>
     <row r="236" spans="15:15">
       <c r="O236" s="1"/>
@@ -36621,8 +36882,8 @@
     <row r="237" spans="15:15">
       <c r="O237" s="1"/>
     </row>
-    <row r="238" spans="15:15">
-      <c r="O238" s="1"/>
+    <row r="241" spans="15:15">
+      <c r="O241" s="1"/>
     </row>
     <row r="242" spans="15:15">
       <c r="O242" s="1"/>
@@ -36633,8 +36894,8 @@
     <row r="244" spans="15:15">
       <c r="O244" s="1"/>
     </row>
-    <row r="245" spans="15:15">
-      <c r="O245" s="1"/>
+    <row r="246" spans="15:15">
+      <c r="O246" s="1"/>
     </row>
     <row r="247" spans="15:15">
       <c r="O247" s="1"/>
@@ -36642,8 +36903,8 @@
     <row r="248" spans="15:15">
       <c r="O248" s="1"/>
     </row>
-    <row r="249" spans="15:15">
-      <c r="O249" s="1"/>
+    <row r="250" spans="15:15">
+      <c r="O250" s="1"/>
     </row>
     <row r="251" spans="15:15">
       <c r="O251" s="1"/>
@@ -36657,8 +36918,8 @@
     <row r="254" spans="15:15">
       <c r="O254" s="1"/>
     </row>
-    <row r="255" spans="15:15">
-      <c r="O255" s="1"/>
+    <row r="256" spans="15:15">
+      <c r="O256" s="1"/>
     </row>
     <row r="257" spans="15:15">
       <c r="O257" s="1"/>
@@ -36675,8 +36936,8 @@
     <row r="261" spans="15:15">
       <c r="O261" s="1"/>
     </row>
-    <row r="262" spans="15:15">
-      <c r="O262" s="1"/>
+    <row r="265" spans="15:15">
+      <c r="O265" s="1"/>
     </row>
     <row r="266" spans="15:15">
       <c r="O266" s="1"/>
@@ -36684,8 +36945,8 @@
     <row r="267" spans="15:15">
       <c r="O267" s="1"/>
     </row>
-    <row r="268" spans="15:15">
-      <c r="O268" s="1"/>
+    <row r="269" spans="15:15">
+      <c r="O269" s="1"/>
     </row>
     <row r="270" spans="15:15">
       <c r="O270" s="1"/>
@@ -36693,8 +36954,8 @@
     <row r="271" spans="15:15">
       <c r="O271" s="1"/>
     </row>
-    <row r="272" spans="15:15">
-      <c r="O272" s="1"/>
+    <row r="273" spans="15:15">
+      <c r="O273" s="1"/>
     </row>
     <row r="274" spans="15:15">
       <c r="O274" s="1"/>
@@ -36702,8 +36963,8 @@
     <row r="275" spans="15:15">
       <c r="O275" s="1"/>
     </row>
-    <row r="276" spans="15:15">
-      <c r="O276" s="1"/>
+    <row r="277" spans="15:15">
+      <c r="O277" s="1"/>
     </row>
     <row r="278" spans="15:15">
       <c r="O278" s="1"/>
@@ -36717,11 +36978,11 @@
     <row r="281" spans="15:15">
       <c r="O281" s="1"/>
     </row>
-    <row r="282" spans="15:15">
-      <c r="O282" s="1"/>
-    </row>
-    <row r="284" spans="15:15">
-      <c r="O284" s="1"/>
+    <row r="283" spans="15:15">
+      <c r="O283" s="1"/>
+    </row>
+    <row r="286" spans="15:15">
+      <c r="O286" s="1"/>
     </row>
     <row r="287" spans="15:15">
       <c r="O287" s="1"/>
@@ -36729,8 +36990,8 @@
     <row r="288" spans="15:15">
       <c r="O288" s="1"/>
     </row>
-    <row r="289" spans="15:15">
-      <c r="O289" s="1"/>
+    <row r="290" spans="15:15">
+      <c r="O290" s="1"/>
     </row>
     <row r="291" spans="15:15">
       <c r="O291" s="1"/>
@@ -36738,8 +36999,8 @@
     <row r="292" spans="15:15">
       <c r="O292" s="1"/>
     </row>
-    <row r="293" spans="15:15">
-      <c r="O293" s="1"/>
+    <row r="296" spans="15:15">
+      <c r="O296" s="1"/>
     </row>
     <row r="297" spans="15:15">
       <c r="O297" s="1"/>
@@ -36747,8 +37008,8 @@
     <row r="298" spans="15:15">
       <c r="O298" s="1"/>
     </row>
-    <row r="299" spans="15:15">
-      <c r="O299" s="1"/>
+    <row r="300" spans="15:15">
+      <c r="O300" s="1"/>
     </row>
     <row r="301" spans="15:15">
       <c r="O301" s="1"/>
@@ -36759,11 +37020,11 @@
     <row r="303" spans="15:15">
       <c r="O303" s="1"/>
     </row>
-    <row r="304" spans="15:15">
-      <c r="O304" s="1"/>
-    </row>
-    <row r="306" spans="15:15">
-      <c r="O306" s="1"/>
+    <row r="305" spans="15:15">
+      <c r="O305" s="1"/>
+    </row>
+    <row r="309" spans="15:15">
+      <c r="O309" s="1"/>
     </row>
     <row r="310" spans="15:15">
       <c r="O310" s="1"/>
@@ -36771,8 +37032,8 @@
     <row r="311" spans="15:15">
       <c r="O311" s="1"/>
     </row>
-    <row r="312" spans="15:15">
-      <c r="O312" s="1"/>
+    <row r="313" spans="15:15">
+      <c r="O313" s="1"/>
     </row>
     <row r="314" spans="15:15">
       <c r="O314" s="1"/>
@@ -36786,8 +37047,8 @@
     <row r="317" spans="15:15">
       <c r="O317" s="1"/>
     </row>
-    <row r="318" spans="15:15">
-      <c r="O318" s="1"/>
+    <row r="321" spans="15:15">
+      <c r="O321" s="1"/>
     </row>
     <row r="322" spans="15:15">
       <c r="O322" s="1"/>
@@ -36795,8 +37056,8 @@
     <row r="323" spans="15:15">
       <c r="O323" s="1"/>
     </row>
-    <row r="324" spans="15:15">
-      <c r="O324" s="1"/>
+    <row r="325" spans="15:15">
+      <c r="O325" s="1"/>
     </row>
     <row r="326" spans="15:15">
       <c r="O326" s="1"/>
@@ -36810,8 +37071,8 @@
     <row r="329" spans="15:15">
       <c r="O329" s="1"/>
     </row>
-    <row r="330" spans="15:15">
-      <c r="O330" s="1"/>
+    <row r="331" spans="15:15">
+      <c r="O331" s="1"/>
     </row>
     <row r="332" spans="15:15">
       <c r="O332" s="1"/>
@@ -36831,8 +37092,8 @@
     <row r="337" spans="15:15">
       <c r="O337" s="1"/>
     </row>
-    <row r="338" spans="15:15">
-      <c r="O338" s="1"/>
+    <row r="341" spans="15:15">
+      <c r="O341" s="1"/>
     </row>
     <row r="342" spans="15:15">
       <c r="O342" s="1"/>
@@ -36840,8 +37101,8 @@
     <row r="343" spans="15:15">
       <c r="O343" s="1"/>
     </row>
-    <row r="344" spans="15:15">
-      <c r="O344" s="1"/>
+    <row r="345" spans="15:15">
+      <c r="O345" s="1"/>
     </row>
     <row r="346" spans="15:15">
       <c r="O346" s="1"/>
@@ -36849,8 +37110,8 @@
     <row r="347" spans="15:15">
       <c r="O347" s="1"/>
     </row>
-    <row r="348" spans="15:15">
-      <c r="O348" s="1"/>
+    <row r="351" spans="15:15">
+      <c r="O351" s="1"/>
     </row>
     <row r="352" spans="15:15">
       <c r="O352" s="1"/>
@@ -36858,8 +37119,8 @@
     <row r="353" spans="15:15">
       <c r="O353" s="1"/>
     </row>
-    <row r="354" spans="15:15">
-      <c r="O354" s="1"/>
+    <row r="355" spans="15:15">
+      <c r="O355" s="1"/>
     </row>
     <row r="356" spans="15:15">
       <c r="O356" s="1"/>
@@ -36879,14 +37140,14 @@
     <row r="361" spans="15:15">
       <c r="O361" s="1"/>
     </row>
-    <row r="362" spans="15:15">
-      <c r="O362" s="1"/>
-    </row>
-    <row r="364" spans="15:15">
-      <c r="O364" s="1"/>
-    </row>
-    <row r="368" spans="15:15">
-      <c r="O368" s="1"/>
+    <row r="363" spans="15:15">
+      <c r="O363" s="1"/>
+    </row>
+    <row r="367" spans="15:15">
+      <c r="O367" s="1"/>
+    </row>
+    <row r="369" spans="15:15">
+      <c r="O369" s="1"/>
     </row>
     <row r="370" spans="15:15">
       <c r="O370" s="1"/>
@@ -36894,8 +37155,8 @@
     <row r="371" spans="15:15">
       <c r="O371" s="1"/>
     </row>
-    <row r="372" spans="15:15">
-      <c r="O372" s="1"/>
+    <row r="373" spans="15:15">
+      <c r="O373" s="1"/>
     </row>
     <row r="374" spans="15:15">
       <c r="O374" s="1"/>
@@ -36903,8 +37164,8 @@
     <row r="375" spans="15:15">
       <c r="O375" s="1"/>
     </row>
-    <row r="376" spans="15:15">
-      <c r="O376" s="1"/>
+    <row r="377" spans="15:15">
+      <c r="O377" s="1"/>
     </row>
     <row r="378" spans="15:15">
       <c r="O378" s="1"/>
@@ -36915,11 +37176,11 @@
     <row r="380" spans="15:15">
       <c r="O380" s="1"/>
     </row>
-    <row r="381" spans="15:15">
-      <c r="O381" s="1"/>
-    </row>
-    <row r="383" spans="15:15">
-      <c r="O383" s="1"/>
+    <row r="382" spans="15:15">
+      <c r="O382" s="1"/>
+    </row>
+    <row r="386" spans="15:15">
+      <c r="O386" s="1"/>
     </row>
     <row r="387" spans="15:15">
       <c r="O387" s="1"/>
@@ -36927,8 +37188,8 @@
     <row r="388" spans="15:15">
       <c r="O388" s="1"/>
     </row>
-    <row r="389" spans="15:15">
-      <c r="O389" s="1"/>
+    <row r="390" spans="15:15">
+      <c r="O390" s="1"/>
     </row>
     <row r="391" spans="15:15">
       <c r="O391" s="1"/>
@@ -36963,8 +37224,8 @@
     <row r="401" spans="15:15">
       <c r="O401" s="1"/>
     </row>
-    <row r="402" spans="15:15">
-      <c r="O402" s="1"/>
+    <row r="403" spans="15:15">
+      <c r="O403" s="1"/>
     </row>
     <row r="404" spans="15:15">
       <c r="O404" s="1"/>
@@ -36981,11 +37242,11 @@
     <row r="408" spans="15:15">
       <c r="O408" s="1"/>
     </row>
-    <row r="409" spans="15:15">
-      <c r="O409" s="1"/>
-    </row>
-    <row r="411" spans="15:15">
-      <c r="O411" s="1"/>
+    <row r="410" spans="15:15">
+      <c r="O410" s="1"/>
+    </row>
+    <row r="414" spans="15:15">
+      <c r="O414" s="1"/>
     </row>
     <row r="415" spans="15:15">
       <c r="O415" s="1"/>
@@ -36993,8 +37254,8 @@
     <row r="416" spans="15:15">
       <c r="O416" s="1"/>
     </row>
-    <row r="417" spans="15:15">
-      <c r="O417" s="1"/>
+    <row r="418" spans="15:15">
+      <c r="O418" s="1"/>
     </row>
     <row r="419" spans="15:15">
       <c r="O419" s="1"/>
@@ -37008,8 +37269,8 @@
     <row r="422" spans="15:15">
       <c r="O422" s="1"/>
     </row>
-    <row r="423" spans="15:15">
-      <c r="O423" s="1"/>
+    <row r="426" spans="15:15">
+      <c r="O426" s="1"/>
     </row>
     <row r="427" spans="15:15">
       <c r="O427" s="1"/>
@@ -37017,8 +37278,8 @@
     <row r="428" spans="15:15">
       <c r="O428" s="1"/>
     </row>
-    <row r="429" spans="15:15">
-      <c r="O429" s="1"/>
+    <row r="430" spans="15:15">
+      <c r="O430" s="1"/>
     </row>
     <row r="431" spans="15:15">
       <c r="O431" s="1"/>
@@ -37026,8 +37287,8 @@
     <row r="432" spans="15:15">
       <c r="O432" s="1"/>
     </row>
-    <row r="433" spans="15:15">
-      <c r="O433" s="1"/>
+    <row r="436" spans="15:15">
+      <c r="O436" s="1"/>
     </row>
     <row r="437" spans="15:15">
       <c r="O437" s="1"/>
@@ -37035,8 +37296,8 @@
     <row r="438" spans="15:15">
       <c r="O438" s="1"/>
     </row>
-    <row r="439" spans="15:15">
-      <c r="O439" s="1"/>
+    <row r="440" spans="15:15">
+      <c r="O440" s="1"/>
     </row>
     <row r="441" spans="15:15">
       <c r="O441" s="1"/>
@@ -37047,8 +37308,8 @@
     <row r="443" spans="15:15">
       <c r="O443" s="1"/>
     </row>
-    <row r="444" spans="15:15">
-      <c r="O444" s="1"/>
+    <row r="447" spans="15:15">
+      <c r="O447" s="1"/>
     </row>
     <row r="448" spans="15:15">
       <c r="O448" s="1"/>
@@ -37056,8 +37317,8 @@
     <row r="449" spans="15:15">
       <c r="O449" s="1"/>
     </row>
-    <row r="450" spans="15:15">
-      <c r="O450" s="1"/>
+    <row r="451" spans="15:15">
+      <c r="O451" s="1"/>
     </row>
     <row r="452" spans="15:15">
       <c r="O452" s="1"/>
@@ -37080,11 +37341,11 @@
     <row r="458" spans="15:15">
       <c r="O458" s="1"/>
     </row>
-    <row r="459" spans="15:15">
-      <c r="O459" s="1"/>
-    </row>
-    <row r="461" spans="15:15">
-      <c r="O461" s="1"/>
+    <row r="460" spans="15:15">
+      <c r="O460" s="1"/>
+    </row>
+    <row r="464" spans="15:15">
+      <c r="O464" s="1"/>
     </row>
     <row r="465" spans="15:15">
       <c r="O465" s="1"/>
@@ -37092,8 +37353,8 @@
     <row r="466" spans="15:15">
       <c r="O466" s="1"/>
     </row>
-    <row r="467" spans="15:15">
-      <c r="O467" s="1"/>
+    <row r="468" spans="15:15">
+      <c r="O468" s="1"/>
     </row>
     <row r="469" spans="15:15">
       <c r="O469" s="1"/>
@@ -37101,8 +37362,8 @@
     <row r="470" spans="15:15">
       <c r="O470" s="1"/>
     </row>
-    <row r="471" spans="15:15">
-      <c r="O471" s="1"/>
+    <row r="475" spans="15:15">
+      <c r="O475" s="1"/>
     </row>
     <row r="476" spans="15:15">
       <c r="O476" s="1"/>
@@ -37110,8 +37371,8 @@
     <row r="477" spans="15:15">
       <c r="O477" s="1"/>
     </row>
-    <row r="478" spans="15:15">
-      <c r="O478" s="1"/>
+    <row r="479" spans="15:15">
+      <c r="O479" s="1"/>
     </row>
     <row r="480" spans="15:15">
       <c r="O480" s="1"/>
@@ -37128,8 +37389,8 @@
     <row r="484" spans="15:15">
       <c r="O484" s="1"/>
     </row>
-    <row r="485" spans="15:15">
-      <c r="O485" s="1"/>
+    <row r="486" spans="15:15">
+      <c r="O486" s="1"/>
     </row>
     <row r="487" spans="15:15">
       <c r="O487" s="1"/>
@@ -37143,8 +37404,8 @@
     <row r="490" spans="15:15">
       <c r="O490" s="1"/>
     </row>
-    <row r="491" spans="15:15">
-      <c r="O491" s="1"/>
+    <row r="492" spans="15:15">
+      <c r="O492" s="1"/>
     </row>
     <row r="493" spans="15:15">
       <c r="O493" s="1"/>
@@ -37152,11 +37413,11 @@
     <row r="494" spans="15:15">
       <c r="O494" s="1"/>
     </row>
-    <row r="495" spans="15:15">
-      <c r="O495" s="1"/>
-    </row>
-    <row r="497" spans="15:15">
-      <c r="O497" s="1"/>
+    <row r="496" spans="15:15">
+      <c r="O496" s="1"/>
+    </row>
+    <row r="500" spans="15:15">
+      <c r="O500" s="1"/>
     </row>
     <row r="501" spans="15:15">
       <c r="O501" s="1"/>
@@ -37164,8 +37425,8 @@
     <row r="502" spans="15:15">
       <c r="O502" s="1"/>
     </row>
-    <row r="503" spans="15:15">
-      <c r="O503" s="1"/>
+    <row r="506" spans="15:15">
+      <c r="O506" s="1"/>
     </row>
     <row r="507" spans="15:15">
       <c r="O507" s="1"/>
@@ -37173,8 +37434,8 @@
     <row r="508" spans="15:15">
       <c r="O508" s="1"/>
     </row>
-    <row r="509" spans="15:15">
-      <c r="O509" s="1"/>
+    <row r="510" spans="15:15">
+      <c r="O510" s="1"/>
     </row>
     <row r="511" spans="15:15">
       <c r="O511" s="1"/>
@@ -37185,11 +37446,11 @@
     <row r="513" spans="15:15">
       <c r="O513" s="1"/>
     </row>
-    <row r="514" spans="15:15">
-      <c r="O514" s="1"/>
-    </row>
-    <row r="516" spans="15:15">
-      <c r="O516" s="1"/>
+    <row r="515" spans="15:15">
+      <c r="O515" s="1"/>
+    </row>
+    <row r="519" spans="15:15">
+      <c r="O519" s="1"/>
     </row>
     <row r="520" spans="15:15">
       <c r="O520" s="1"/>
@@ -37197,8 +37458,8 @@
     <row r="521" spans="15:15">
       <c r="O521" s="1"/>
     </row>
-    <row r="522" spans="15:15">
-      <c r="O522" s="1"/>
+    <row r="523" spans="15:15">
+      <c r="O523" s="1"/>
     </row>
     <row r="524" spans="15:15">
       <c r="O524" s="1"/>
@@ -37206,8 +37467,8 @@
     <row r="525" spans="15:15">
       <c r="O525" s="1"/>
     </row>
-    <row r="526" spans="15:15">
-      <c r="O526" s="1"/>
+    <row r="527" spans="15:15">
+      <c r="O527" s="1"/>
     </row>
     <row r="528" spans="15:15">
       <c r="O528" s="1"/>
@@ -37218,8 +37479,8 @@
     <row r="530" spans="2:15">
       <c r="O530" s="1"/>
     </row>
-    <row r="531" spans="2:15">
-      <c r="O531" s="1"/>
+    <row r="534" spans="2:15">
+      <c r="O534" s="1"/>
     </row>
     <row r="535" spans="2:15">
       <c r="O535" s="1"/>
@@ -37228,16 +37489,16 @@
       <c r="O536" s="1"/>
     </row>
     <row r="537" spans="2:15">
+      <c r="B537" s="8"/>
+      <c r="M537" s="8"/>
       <c r="O537" s="1"/>
     </row>
     <row r="538" spans="2:15">
-      <c r="B538" s="8"/>
       <c r="M538" s="8"/>
       <c r="O538" s="1"/>
     </row>
-    <row r="539" spans="2:15">
-      <c r="M539" s="8"/>
-      <c r="O539" s="1"/>
+    <row r="540" spans="2:15">
+      <c r="O540" s="1"/>
     </row>
     <row r="541" spans="2:15">
       <c r="O541" s="1"/>
@@ -37251,8 +37512,8 @@
     <row r="544" spans="2:15">
       <c r="O544" s="1"/>
     </row>
-    <row r="545" spans="2:15">
-      <c r="O545" s="1"/>
+    <row r="548" spans="2:15">
+      <c r="O548" s="1"/>
     </row>
     <row r="549" spans="2:15">
       <c r="O549" s="1"/>
@@ -37261,24 +37522,24 @@
       <c r="O550" s="1"/>
     </row>
     <row r="551" spans="2:15">
+      <c r="B551" s="8"/>
+      <c r="M551" s="8"/>
       <c r="O551" s="1"/>
     </row>
     <row r="552" spans="2:15">
-      <c r="B552" s="8"/>
-      <c r="M552" s="8"/>
       <c r="O552" s="1"/>
     </row>
-    <row r="553" spans="2:15">
-      <c r="O553" s="1"/>
+    <row r="554" spans="2:15">
+      <c r="O554" s="1"/>
     </row>
     <row r="555" spans="2:15">
       <c r="O555" s="1"/>
     </row>
-    <row r="556" spans="2:15">
-      <c r="O556" s="1"/>
-    </row>
-    <row r="558" spans="2:15">
-      <c r="O558" s="1"/>
+    <row r="557" spans="2:15">
+      <c r="O557" s="1"/>
+    </row>
+    <row r="561" spans="2:15">
+      <c r="O561" s="1"/>
     </row>
     <row r="562" spans="2:15">
       <c r="O562" s="1"/>
@@ -37287,16 +37548,16 @@
       <c r="O563" s="1"/>
     </row>
     <row r="564" spans="2:15">
+      <c r="B564" s="8"/>
+      <c r="M564" s="8"/>
       <c r="O564" s="1"/>
     </row>
     <row r="565" spans="2:15">
-      <c r="B565" s="8"/>
       <c r="M565" s="8"/>
       <c r="O565" s="1"/>
     </row>
-    <row r="566" spans="2:15">
-      <c r="M566" s="8"/>
-      <c r="O566" s="1"/>
+    <row r="567" spans="2:15">
+      <c r="O567" s="1"/>
     </row>
     <row r="568" spans="2:15">
       <c r="O568" s="1"/>
@@ -37313,8 +37574,8 @@
     <row r="572" spans="2:15">
       <c r="O572" s="1"/>
     </row>
-    <row r="573" spans="2:15">
-      <c r="O573" s="1"/>
+    <row r="576" spans="2:15">
+      <c r="O576" s="1"/>
     </row>
     <row r="577" spans="2:15">
       <c r="O577" s="1"/>
@@ -37323,6 +37584,8 @@
       <c r="O578" s="1"/>
     </row>
     <row r="579" spans="2:15">
+      <c r="B579" s="8"/>
+      <c r="M579" s="8"/>
       <c r="O579" s="1"/>
     </row>
     <row r="580" spans="2:15">
@@ -37356,17 +37619,15 @@
       <c r="O585" s="1"/>
     </row>
     <row r="586" spans="2:15">
-      <c r="B586" s="8"/>
-      <c r="M586" s="8"/>
       <c r="O586" s="1"/>
     </row>
     <row r="587" spans="2:15">
+      <c r="B587" s="8"/>
+      <c r="M587" s="8"/>
       <c r="O587" s="1"/>
     </row>
-    <row r="588" spans="2:15">
-      <c r="B588" s="8"/>
-      <c r="M588" s="8"/>
-      <c r="O588" s="1"/>
+    <row r="591" spans="2:15">
+      <c r="O591" s="1"/>
     </row>
     <row r="592" spans="2:15">
       <c r="O592" s="1"/>
@@ -37375,12 +37636,12 @@
       <c r="O593" s="1"/>
     </row>
     <row r="594" spans="2:15">
+      <c r="B594" s="8"/>
+      <c r="M594" s="8"/>
       <c r="O594" s="1"/>
     </row>
-    <row r="595" spans="2:15">
-      <c r="B595" s="8"/>
-      <c r="M595" s="8"/>
-      <c r="O595" s="1"/>
+    <row r="596" spans="2:15">
+      <c r="O596" s="1"/>
     </row>
     <row r="597" spans="2:15">
       <c r="O597" s="1"/>
@@ -37403,20 +37664,20 @@
     <row r="603" spans="2:15">
       <c r="O603" s="1"/>
     </row>
-    <row r="604" spans="2:15">
-      <c r="O604" s="1"/>
+    <row r="605" spans="2:15">
+      <c r="O605" s="1"/>
     </row>
     <row r="606" spans="2:15">
       <c r="O606" s="1"/>
     </row>
-    <row r="607" spans="2:15">
-      <c r="O607" s="1"/>
+    <row r="608" spans="2:15">
+      <c r="O608" s="1"/>
     </row>
     <row r="609" spans="13:15">
       <c r="O609" s="1"/>
     </row>
-    <row r="610" spans="13:15">
-      <c r="O610" s="1"/>
+    <row r="613" spans="13:15">
+      <c r="O613" s="1"/>
     </row>
     <row r="614" spans="13:15">
       <c r="O614" s="1"/>
@@ -37425,11 +37686,11 @@
       <c r="O615" s="1"/>
     </row>
     <row r="616" spans="13:15">
+      <c r="M616" s="8"/>
       <c r="O616" s="1"/>
     </row>
-    <row r="617" spans="13:15">
-      <c r="M617" s="8"/>
-      <c r="O617" s="1"/>
+    <row r="618" spans="13:15">
+      <c r="O618" s="1"/>
     </row>
     <row r="619" spans="13:15">
       <c r="O619" s="1"/>
@@ -37437,8 +37698,8 @@
     <row r="620" spans="13:15">
       <c r="O620" s="1"/>
     </row>
-    <row r="621" spans="13:15">
-      <c r="O621" s="1"/>
+    <row r="624" spans="13:15">
+      <c r="O624" s="1"/>
     </row>
     <row r="625" spans="2:15">
       <c r="O625" s="1"/>
@@ -37447,6 +37708,8 @@
       <c r="O626" s="1"/>
     </row>
     <row r="627" spans="2:15">
+      <c r="B627" s="8"/>
+      <c r="M627" s="8"/>
       <c r="O627" s="1"/>
     </row>
     <row r="628" spans="2:15">
@@ -37472,12 +37735,10 @@
     <row r="632" spans="2:15">
       <c r="B632" s="8"/>
       <c r="M632" s="8"/>
-      <c r="O632" s="1"/>
-    </row>
-    <row r="633" spans="2:15">
-      <c r="B633" s="8"/>
-      <c r="M633" s="8"/>
-      <c r="O633" s="21"/>
+      <c r="O632" s="21"/>
+    </row>
+    <row r="636" spans="2:15">
+      <c r="O636" s="3"/>
     </row>
     <row r="637" spans="2:15">
       <c r="O637" s="3"/>
@@ -37486,12 +37747,12 @@
       <c r="O638" s="3"/>
     </row>
     <row r="639" spans="2:15">
-      <c r="O639" s="3"/>
+      <c r="B639" s="8"/>
+      <c r="M639" s="8"/>
+      <c r="O639" s="14"/>
     </row>
     <row r="640" spans="2:15">
-      <c r="B640" s="8"/>
-      <c r="M640" s="8"/>
-      <c r="O640" s="14"/>
+      <c r="O640" s="21"/>
     </row>
     <row r="641" spans="15:15">
       <c r="O641" s="21"/>
@@ -37523,8 +37784,8 @@
     <row r="650" spans="15:15">
       <c r="O650" s="21"/>
     </row>
-    <row r="651" spans="15:15">
-      <c r="O651" s="21"/>
+    <row r="654" spans="15:15">
+      <c r="O654" s="21"/>
     </row>
     <row r="655" spans="15:15">
       <c r="O655" s="21"/>
@@ -37533,18 +37794,18 @@
       <c r="O656" s="21"/>
     </row>
     <row r="657" spans="2:15">
-      <c r="O657" s="21"/>
+      <c r="B657" s="8"/>
+      <c r="M657" s="8"/>
+      <c r="O657" s="14"/>
     </row>
     <row r="658" spans="2:15">
-      <c r="B658" s="8"/>
-      <c r="M658" s="8"/>
-      <c r="O658" s="14"/>
+      <c r="O658" s="21"/>
     </row>
     <row r="659" spans="2:15">
       <c r="O659" s="21"/>
     </row>
-    <row r="660" spans="2:15">
-      <c r="O660" s="21"/>
+    <row r="663" spans="2:15">
+      <c r="O663" s="21"/>
     </row>
     <row r="664" spans="2:15">
       <c r="O664" s="21"/>
@@ -37553,15 +37814,15 @@
       <c r="O665" s="21"/>
     </row>
     <row r="666" spans="2:15">
-      <c r="O666" s="21"/>
+      <c r="B666" s="8"/>
+      <c r="M666" s="8"/>
+      <c r="O666" s="14"/>
     </row>
     <row r="667" spans="2:15">
-      <c r="B667" s="8"/>
-      <c r="M667" s="8"/>
-      <c r="O667" s="14"/>
+      <c r="O667" s="21"/>
     </row>
     <row r="668" spans="2:15">
-      <c r="O668" s="21"/>
+      <c r="O668" s="22"/>
     </row>
     <row r="669" spans="2:15">
       <c r="O669" s="22"/>
@@ -37582,10 +37843,10 @@
       <c r="O674" s="22"/>
     </row>
     <row r="675" spans="15:15">
-      <c r="O675" s="22"/>
+      <c r="O675" s="21"/>
     </row>
     <row r="676" spans="15:15">
-      <c r="O676" s="21"/>
+      <c r="O676" s="22"/>
     </row>
     <row r="677" spans="15:15">
       <c r="O677" s="22"/>
@@ -37596,11 +37857,11 @@
     <row r="679" spans="15:15">
       <c r="O679" s="22"/>
     </row>
-    <row r="680" spans="15:15">
-      <c r="O680" s="22"/>
-    </row>
-    <row r="682" spans="15:15">
-      <c r="O682" s="21"/>
+    <row r="681" spans="15:15">
+      <c r="O681" s="21"/>
+    </row>
+    <row r="683" spans="15:15">
+      <c r="O683" s="21"/>
     </row>
     <row r="684" spans="15:15">
       <c r="O684" s="21"/>
@@ -37620,11 +37881,11 @@
     <row r="689" spans="2:15">
       <c r="O689" s="21"/>
     </row>
-    <row r="690" spans="2:15">
-      <c r="O690" s="21"/>
-    </row>
-    <row r="694" spans="2:15">
-      <c r="O694" s="1"/>
+    <row r="693" spans="2:15">
+      <c r="O693" s="1"/>
+    </row>
+    <row r="695" spans="2:15">
+      <c r="O695" s="1"/>
     </row>
     <row r="696" spans="2:15">
       <c r="O696" s="1"/>
@@ -37633,12 +37894,12 @@
       <c r="O697" s="1"/>
     </row>
     <row r="698" spans="2:15">
+      <c r="B698" s="8"/>
+      <c r="M698" s="8"/>
       <c r="O698" s="1"/>
     </row>
-    <row r="699" spans="2:15">
-      <c r="B699" s="8"/>
-      <c r="M699" s="8"/>
-      <c r="O699" s="1"/>
+    <row r="700" spans="2:15">
+      <c r="O700" s="1"/>
     </row>
     <row r="701" spans="2:15">
       <c r="O701" s="1"/>
@@ -37647,19 +37908,19 @@
       <c r="O702" s="1"/>
     </row>
     <row r="703" spans="2:15">
+      <c r="B703" s="8"/>
+      <c r="M703" s="8"/>
       <c r="O703" s="1"/>
     </row>
-    <row r="704" spans="2:15">
-      <c r="B704" s="8"/>
-      <c r="M704" s="8"/>
-      <c r="O704" s="1"/>
-    </row>
-    <row r="708" spans="2:15">
-      <c r="B708" s="8"/>
-      <c r="M708" s="8"/>
-    </row>
-    <row r="713" spans="2:15">
-      <c r="O713" s="7"/>
+    <row r="707" spans="2:15">
+      <c r="B707" s="8"/>
+      <c r="M707" s="8"/>
+    </row>
+    <row r="712" spans="2:15">
+      <c r="O712" s="7"/>
+    </row>
+    <row r="716" spans="2:15">
+      <c r="O716" s="7"/>
     </row>
     <row r="717" spans="2:15">
       <c r="O717" s="7"/>
@@ -37667,8 +37928,8 @@
     <row r="718" spans="2:15">
       <c r="O718" s="7"/>
     </row>
-    <row r="719" spans="2:15">
-      <c r="O719" s="7"/>
+    <row r="722" spans="15:15">
+      <c r="O722" s="7"/>
     </row>
     <row r="723" spans="15:15">
       <c r="O723" s="7"/>
@@ -37676,8 +37937,8 @@
     <row r="724" spans="15:15">
       <c r="O724" s="7"/>
     </row>
-    <row r="725" spans="15:15">
-      <c r="O725" s="7"/>
+    <row r="728" spans="15:15">
+      <c r="O728" s="7"/>
     </row>
     <row r="729" spans="15:15">
       <c r="O729" s="7"/>
@@ -37685,8 +37946,8 @@
     <row r="730" spans="15:15">
       <c r="O730" s="7"/>
     </row>
-    <row r="731" spans="15:15">
-      <c r="O731" s="7"/>
+    <row r="732" spans="15:15">
+      <c r="O732" s="7"/>
     </row>
     <row r="733" spans="15:15">
       <c r="O733" s="7"/>
@@ -37707,10 +37968,10 @@
       <c r="O738" s="7"/>
     </row>
     <row r="739" spans="15:15">
-      <c r="O739" s="7"/>
-    </row>
-    <row r="740" spans="15:15">
-      <c r="O740" s="1"/>
+      <c r="O739" s="1"/>
+    </row>
+    <row r="741" spans="15:15">
+      <c r="O741" s="7"/>
     </row>
     <row r="742" spans="15:15">
       <c r="O742" s="7"/>
@@ -37736,8 +37997,8 @@
     <row r="749" spans="15:15">
       <c r="O749" s="7"/>
     </row>
-    <row r="750" spans="15:15">
-      <c r="O750" s="7"/>
+    <row r="751" spans="15:15">
+      <c r="O751" s="7"/>
     </row>
     <row r="752" spans="15:15">
       <c r="O752" s="7"/>
@@ -37766,17 +38027,17 @@
     <row r="760" spans="15:15">
       <c r="O760" s="7"/>
     </row>
-    <row r="761" spans="15:15">
-      <c r="O761" s="7"/>
+    <row r="762" spans="15:15">
+      <c r="O762" s="7"/>
     </row>
     <row r="763" spans="15:15">
-      <c r="O763" s="7"/>
+      <c r="O763" s="1"/>
     </row>
     <row r="764" spans="15:15">
       <c r="O764" s="1"/>
     </row>
-    <row r="765" spans="15:15">
-      <c r="O765" s="1"/>
+    <row r="766" spans="15:15">
+      <c r="O766" s="21"/>
     </row>
     <row r="767" spans="15:15">
       <c r="O767" s="21"/>
@@ -37784,14 +38045,14 @@
     <row r="768" spans="15:15">
       <c r="O768" s="21"/>
     </row>
-    <row r="769" spans="15:15">
-      <c r="O769" s="21"/>
+    <row r="772" spans="15:15">
+      <c r="O772" s="7"/>
     </row>
     <row r="773" spans="15:15">
       <c r="O773" s="7"/>
     </row>
-    <row r="774" spans="15:15">
-      <c r="O774" s="7"/>
+    <row r="775" spans="15:15">
+      <c r="O775" s="7"/>
     </row>
     <row r="776" spans="15:15">
       <c r="O776" s="7"/>
@@ -37799,14 +38060,14 @@
     <row r="777" spans="15:15">
       <c r="O777" s="7"/>
     </row>
-    <row r="778" spans="15:15">
-      <c r="O778" s="7"/>
-    </row>
-    <row r="780" spans="15:15">
-      <c r="O780" s="7"/>
-    </row>
-    <row r="782" spans="15:15">
-      <c r="O782" s="7"/>
+    <row r="779" spans="15:15">
+      <c r="O779" s="7"/>
+    </row>
+    <row r="781" spans="15:15">
+      <c r="O781" s="7"/>
+    </row>
+    <row r="783" spans="15:15">
+      <c r="O783" s="7"/>
     </row>
     <row r="784" spans="15:15">
       <c r="O784" s="7"/>
@@ -37821,6 +38082,18 @@
       <c r="O787" s="7"/>
     </row>
     <row r="788" spans="2:15">
+      <c r="B788" s="23"/>
+      <c r="C788" s="23"/>
+      <c r="D788" s="23"/>
+      <c r="E788" s="23"/>
+      <c r="F788" s="23"/>
+      <c r="G788" s="23"/>
+      <c r="H788" s="23"/>
+      <c r="I788" s="23"/>
+      <c r="J788" s="23"/>
+      <c r="K788" s="23"/>
+      <c r="L788" s="23"/>
+      <c r="M788" s="23"/>
       <c r="O788" s="7"/>
     </row>
     <row r="789" spans="2:15">
@@ -37913,20 +38186,8 @@
       <c r="M794" s="23"/>
       <c r="O794" s="7"/>
     </row>
-    <row r="795" spans="2:15">
-      <c r="B795" s="23"/>
-      <c r="C795" s="23"/>
-      <c r="D795" s="23"/>
-      <c r="E795" s="23"/>
-      <c r="F795" s="23"/>
-      <c r="G795" s="23"/>
-      <c r="H795" s="23"/>
-      <c r="I795" s="23"/>
-      <c r="J795" s="23"/>
-      <c r="K795" s="23"/>
-      <c r="L795" s="23"/>
-      <c r="M795" s="23"/>
-      <c r="O795" s="7"/>
+    <row r="796" spans="2:15">
+      <c r="O796" s="7"/>
     </row>
     <row r="797" spans="2:15">
       <c r="O797" s="7"/>
@@ -37959,13 +38220,13 @@
       <c r="O806" s="7"/>
     </row>
     <row r="807" spans="15:15">
-      <c r="O807" s="7"/>
+      <c r="O807" s="1"/>
     </row>
     <row r="808" spans="15:15">
-      <c r="O808" s="1"/>
-    </row>
-    <row r="809" spans="15:15">
-      <c r="O809" s="7"/>
+      <c r="O808" s="7"/>
+    </row>
+    <row r="810" spans="15:15">
+      <c r="O810" s="7"/>
     </row>
     <row r="811" spans="15:15">
       <c r="O811" s="7"/>
@@ -37995,10 +38256,10 @@
       <c r="O819" s="7"/>
     </row>
     <row r="820" spans="15:15">
-      <c r="O820" s="7"/>
-    </row>
-    <row r="821" spans="15:15">
-      <c r="O821" s="1"/>
+      <c r="O820" s="1"/>
+    </row>
+    <row r="822" spans="15:15">
+      <c r="O822" s="7"/>
     </row>
     <row r="823" spans="15:15">
       <c r="O823" s="7"/>
@@ -38012,8 +38273,8 @@
     <row r="826" spans="15:15">
       <c r="O826" s="7"/>
     </row>
-    <row r="827" spans="15:15">
-      <c r="O827" s="7"/>
+    <row r="830" spans="15:15">
+      <c r="O830" s="7"/>
     </row>
     <row r="831" spans="15:15">
       <c r="O831" s="7"/>
@@ -38028,6 +38289,18 @@
       <c r="O834" s="7"/>
     </row>
     <row r="835" spans="2:15">
+      <c r="B835" s="24"/>
+      <c r="C835" s="25"/>
+      <c r="D835" s="25"/>
+      <c r="E835" s="25"/>
+      <c r="F835" s="25"/>
+      <c r="G835" s="25"/>
+      <c r="H835" s="25"/>
+      <c r="I835" s="25"/>
+      <c r="J835" s="25"/>
+      <c r="K835" s="25"/>
+      <c r="L835" s="25"/>
+      <c r="M835" s="24"/>
       <c r="O835" s="7"/>
     </row>
     <row r="836" spans="2:15">
@@ -38092,34 +38365,24 @@
     </row>
     <row r="840" spans="2:15">
       <c r="B840" s="24"/>
-      <c r="C840" s="25"/>
-      <c r="D840" s="25"/>
-      <c r="E840" s="25"/>
-      <c r="F840" s="25"/>
-      <c r="G840" s="25"/>
-      <c r="H840" s="25"/>
-      <c r="I840" s="25"/>
-      <c r="J840" s="25"/>
-      <c r="K840" s="25"/>
-      <c r="L840" s="25"/>
       <c r="M840" s="24"/>
       <c r="O840" s="7"/>
     </row>
     <row r="841" spans="2:15">
-      <c r="B841" s="24"/>
-      <c r="M841" s="24"/>
-      <c r="O841" s="7"/>
+      <c r="O841" s="1"/>
     </row>
     <row r="842" spans="2:15">
-      <c r="O842" s="1"/>
-    </row>
-    <row r="843" spans="2:15">
-      <c r="O843" s="7"/>
-    </row>
-    <row r="845" spans="2:15">
-      <c r="B845" s="24"/>
-      <c r="M845" s="24"/>
-      <c r="O845" s="7"/>
+      <c r="O842" s="7"/>
+    </row>
+    <row r="844" spans="2:15">
+      <c r="B844" s="24"/>
+      <c r="M844" s="24"/>
+      <c r="O844" s="7"/>
+    </row>
+    <row r="846" spans="2:15">
+      <c r="B846" s="8"/>
+      <c r="M846" s="8"/>
+      <c r="O846" s="7"/>
     </row>
     <row r="847" spans="2:15">
       <c r="B847" s="8"/>
@@ -38141,10 +38404,8 @@
       <c r="M850" s="8"/>
       <c r="O850" s="7"/>
     </row>
-    <row r="851" spans="2:15">
-      <c r="B851" s="8"/>
-      <c r="M851" s="8"/>
-      <c r="O851" s="7"/>
+    <row r="853" spans="2:15">
+      <c r="O853" s="7"/>
     </row>
     <row r="854" spans="2:15">
       <c r="O854" s="7"/>
@@ -38155,17 +38416,17 @@
     <row r="856" spans="2:15">
       <c r="O856" s="7"/>
     </row>
-    <row r="857" spans="2:15">
-      <c r="O857" s="7"/>
+    <row r="858" spans="2:15">
+      <c r="O858" s="7"/>
     </row>
     <row r="859" spans="2:15">
       <c r="O859" s="7"/>
     </row>
-    <row r="860" spans="2:15">
-      <c r="O860" s="7"/>
-    </row>
-    <row r="862" spans="2:15">
-      <c r="O862" s="7"/>
+    <row r="861" spans="2:15">
+      <c r="O861" s="7"/>
+    </row>
+    <row r="863" spans="2:15">
+      <c r="O863" s="7"/>
     </row>
     <row r="864" spans="2:15">
       <c r="O864" s="7"/>
@@ -38195,11 +38456,13 @@
       <c r="O872" s="7"/>
     </row>
     <row r="873" spans="2:15">
+      <c r="B873" s="26"/>
       <c r="O873" s="7"/>
     </row>
-    <row r="874" spans="2:15">
-      <c r="B874" s="26"/>
-      <c r="O874" s="7"/>
+    <row r="875" spans="2:15">
+      <c r="B875" s="8"/>
+      <c r="M875" s="8"/>
+      <c r="O875" s="1"/>
     </row>
     <row r="876" spans="2:15">
       <c r="B876" s="8"/>
@@ -38207,12 +38470,12 @@
       <c r="O876" s="1"/>
     </row>
     <row r="877" spans="2:15">
-      <c r="B877" s="8"/>
-      <c r="M877" s="8"/>
-      <c r="O877" s="1"/>
-    </row>
-    <row r="878" spans="2:15">
-      <c r="O878" s="7"/>
+      <c r="O877" s="7"/>
+    </row>
+    <row r="879" spans="2:15">
+      <c r="B879" s="8"/>
+      <c r="M879" s="8"/>
+      <c r="O879" s="1"/>
     </row>
     <row r="880" spans="2:15">
       <c r="B880" s="8"/>
@@ -38226,11 +38489,11 @@
     </row>
     <row r="882" spans="1:15">
       <c r="B882" s="8"/>
-      <c r="M882" s="8"/>
       <c r="O882" s="1"/>
     </row>
     <row r="883" spans="1:15">
       <c r="B883" s="8"/>
+      <c r="M883" s="8"/>
       <c r="O883" s="1"/>
     </row>
     <row r="884" spans="1:15">
@@ -38248,10 +38511,22 @@
       <c r="M886" s="8"/>
       <c r="O886" s="1"/>
     </row>
-    <row r="887" spans="1:15">
-      <c r="B887" s="8"/>
-      <c r="M887" s="8"/>
-      <c r="O887" s="1"/>
+    <row r="889" spans="1:15">
+      <c r="A889" s="2"/>
+      <c r="B889" s="2"/>
+      <c r="C889" s="2"/>
+      <c r="D889" s="2"/>
+      <c r="E889" s="2"/>
+      <c r="F889" s="2"/>
+      <c r="G889" s="2"/>
+      <c r="H889" s="2"/>
+      <c r="I889" s="2"/>
+      <c r="J889" s="2"/>
+      <c r="K889" s="2"/>
+      <c r="L889" s="2"/>
+      <c r="M889" s="2"/>
+      <c r="N889" s="2"/>
+      <c r="O889" s="2"/>
     </row>
     <row r="890" spans="1:15">
       <c r="A890" s="2"/>
@@ -38334,7 +38609,7 @@
       <c r="J894" s="2"/>
       <c r="K894" s="2"/>
       <c r="L894" s="2"/>
-      <c r="M894" s="2"/>
+      <c r="M894" s="12"/>
       <c r="N894" s="2"/>
       <c r="O894" s="2"/>
     </row>
@@ -38372,23 +38647,6 @@
       <c r="N896" s="2"/>
       <c r="O896" s="2"/>
     </row>
-    <row r="897" spans="1:15">
-      <c r="A897" s="2"/>
-      <c r="B897" s="2"/>
-      <c r="C897" s="2"/>
-      <c r="D897" s="2"/>
-      <c r="E897" s="2"/>
-      <c r="F897" s="2"/>
-      <c r="G897" s="2"/>
-      <c r="H897" s="2"/>
-      <c r="I897" s="2"/>
-      <c r="J897" s="2"/>
-      <c r="K897" s="2"/>
-      <c r="L897" s="2"/>
-      <c r="M897" s="12"/>
-      <c r="N897" s="2"/>
-      <c r="O897" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="15"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38399,8 +38657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q896"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:XFD74"/>
+    <sheetView topLeftCell="G58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -39545,8 +39803,12 @@
       </c>
     </row>
     <row r="75" spans="1:15">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
+      <c r="A75" s="41" t="s">
+        <v>3204</v>
+      </c>
+      <c r="B75" s="41" t="s">
+        <v>3196</v>
+      </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -39557,26 +39819,57 @@
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
+      <c r="M75" s="41" t="s">
+        <v>3197</v>
+      </c>
       <c r="N75" s="2"/>
       <c r="O75" s="3"/>
     </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="41" t="s">
+        <v>3205</v>
+      </c>
+      <c r="B76" s="41" t="s">
+        <v>3199</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="41" t="s">
+        <v>3200</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="3"/>
+    </row>
     <row r="77" spans="1:15">
-      <c r="A77" s="15"/>
-      <c r="B77" s="15"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
-      <c r="M77" s="18"/>
-      <c r="N77" s="6"/>
-      <c r="O77" s="6"/>
+      <c r="A77" s="41" t="s">
+        <v>3206</v>
+      </c>
+      <c r="B77" s="41" t="s">
+        <v>3202</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2" t="s">
+        <v>3203</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="3"/>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="15"/>
@@ -41994,8 +42287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q897"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView tabSelected="1" topLeftCell="G65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M73" sqref="M73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -43066,8 +43359,12 @@
       </c>
     </row>
     <row r="74" spans="1:15">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
+      <c r="A74" s="41" t="s">
+        <v>3207</v>
+      </c>
+      <c r="B74" s="41" t="s">
+        <v>3208</v>
+      </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -43078,13 +43375,19 @@
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
+      <c r="M74" s="12" t="s">
+        <v>3209</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
+    <row r="75" spans="1:15" ht="37.5">
+      <c r="A75" s="41" t="s">
+        <v>3210</v>
+      </c>
+      <c r="B75" s="42" t="s">
+        <v>3211</v>
+      </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -43095,13 +43398,19 @@
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
+      <c r="M75" s="42" t="s">
+        <v>3212</v>
+      </c>
       <c r="N75" s="2"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
+    <row r="76" spans="1:15" ht="37.5">
+      <c r="A76" s="41" t="s">
+        <v>3213</v>
+      </c>
+      <c r="B76" s="42" t="s">
+        <v>3214</v>
+      </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -43112,7 +43421,9 @@
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
+      <c r="M76" s="42" t="s">
+        <v>3215</v>
+      </c>
       <c r="N76" s="2"/>
       <c r="O76" s="3"/>
     </row>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aoto\Desktop\AmongUsMod\TheOtherRolesGM-KiyoMugi-Edition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D77377-8F3B-4416-AB2F-EAE0A14C60F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4BB3F6-38F7-4870-B3AC-48261757B9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="1680" windowWidth="21600" windowHeight="11370" tabRatio="882" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="882" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModText" sheetId="1" r:id="rId1"/>
@@ -24,17 +24,18 @@
     <sheet name="Images" sheetId="2" r:id="rId9"/>
     <sheet name="Button Text" sheetId="7" r:id="rId10"/>
     <sheet name="Colors" sheetId="4" r:id="rId11"/>
-    <sheet name="Hats &amp; Visors" sheetId="5" r:id="rId12"/>
-    <sheet name="ModifierPostfix" sheetId="16" r:id="rId13"/>
-    <sheet name="UpdateMessage" sheetId="15" r:id="rId14"/>
-    <sheet name="ModifierText" sheetId="17" r:id="rId15"/>
+    <sheet name="HawkColor" sheetId="18" r:id="rId12"/>
+    <sheet name="Hats &amp; Visors" sheetId="5" r:id="rId13"/>
+    <sheet name="ModifierPostfix" sheetId="16" r:id="rId14"/>
+    <sheet name="UpdateMessage" sheetId="15" r:id="rId15"/>
+    <sheet name="ModifierText" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3754" uniqueCount="3216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3905" uniqueCount="3334">
   <si>
     <t>English</t>
   </si>
@@ -9627,12 +9628,6 @@
     <t>colorTurqoise</t>
   </si>
   <si>
-    <t>Turqoise</t>
-  </si>
-  <si>
-    <t>ターコイズ</t>
-  </si>
-  <si>
     <t>绿松石色</t>
   </si>
   <si>
@@ -10975,12 +10970,642 @@
 ・だが、死体の上に設定秒数立っていないとしたいを食べれない。</t>
     <phoneticPr fontId="15"/>
   </si>
+  <si>
+    <t>Red</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>真っ赤</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Orange</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Yellow</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>橙</t>
+    <rPh sb="0" eb="1">
+      <t>ダイダイ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>黄色</t>
+    <rPh sb="0" eb="2">
+      <t>キイロ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Lime</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Green</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>緑</t>
+    <rPh sb="0" eb="1">
+      <t>ミドリ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Turquoise</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>ターコイズ(Hawk版)</t>
+    <rPh sb="10" eb="11">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Turquoise(Hawk ver)</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Cyan</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>水色</t>
+    <rPh sb="0" eb="2">
+      <t>ミズイロ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Azur</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>紺碧</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Blue</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>青</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Purple</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>紫</t>
+    <rPh sb="0" eb="1">
+      <t>ムラサキ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Magenta</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>マゼンタ</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Plum</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>梅</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>LightRed</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Light Red</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>浅紅</t>
+    <rPh sb="0" eb="2">
+      <t>アサベニ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>ライム</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>LightOrange</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Light Orange</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>薄黄色</t>
+    <rPh sb="0" eb="1">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>キイロ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>LightYellow</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Light Yellow</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>LightLime</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Light Lime</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>薄ライム</t>
+    <rPh sb="0" eb="1">
+      <t>ウス</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>LightGreen</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Light Green</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>薄緑</t>
+    <rPh sb="0" eb="1">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ミドリ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>LightTurquoise</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Light Turquoise</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>薄ターコイズ</t>
+    <rPh sb="0" eb="1">
+      <t>ウス</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>LightCyan</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Light Cyan</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>薄水色</t>
+    <rPh sb="0" eb="3">
+      <t>ウスミズイロ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>LightAzur</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Light Azur</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>薄紺碧</t>
+    <rPh sb="0" eb="1">
+      <t>ウス</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>LightBlue</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Light Blue</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>薄青</t>
+    <rPh sb="0" eb="1">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>アオ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>LightPurple</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Light Purple</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>薄紫</t>
+    <rPh sb="0" eb="1">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ムラサキ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>LightMagenta</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Light Magenta</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>薄マゼンタ</t>
+    <rPh sb="0" eb="1">
+      <t>ウス</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>LightPlum</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Light Plum</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>薄梅</t>
+    <rPh sb="0" eb="1">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ウメ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>DarkRed</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Dark Red</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>濃い赤</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>DarkOrange</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Dark Orange</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>薄橙</t>
+    <rPh sb="0" eb="1">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ダイダイ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>濃い橙</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダイダイ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>DarkYellow</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Dark Yellow</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>濃い黄色</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キイロ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>DarkLime</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Dark Lime</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>濃いライム</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>DarkGreen</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Dark Green</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>濃い緑</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミドリ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>DarkTurquoise</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Dark Turquoise</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>濃いターコイズ</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>DarkCyan</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Dark Cyan</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>濃い水色</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ミズイロ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>DarkAzur</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Dark Azur</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>濃い紺碧</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>DarkBlue</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Dark Blue</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>濃い青</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アオ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>DarkPurple</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Dark Purple</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>濃い紫</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ムラサキ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>DarkMagenta</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Dark Magenta</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>濃いマゼンタ</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>DarkPlum</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Dark Plum</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>濃い梅</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウメ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Vermilion</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>ヴァーミリオン</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Yamabuki</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>山吹</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマブキ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Emerald</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>エメラルド</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Iris</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>アイリス</t>
+  </si>
+  <si>
+    <t>Turqoise(TOR ver)</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>ターコイズ(TOR版)</t>
+    <rPh sb="9" eb="10">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>darkHero</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Dark Hero</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>ダークヒーロー</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>darkHeroKillCooldown</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Cooldown</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>クールダウン</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>darkHeroIntroDesc</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Let's move quietly.</t>
+  </si>
+  <si>
+    <t>ひっそりと動こう</t>
+    <rPh sb="5" eb="6">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>darkHeroShortDesc</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>darkHeroFullDesc</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Kills can be made only during power outages.
+Instead, the cooldown is shorter.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>・停電中だけキルができる。
+・その代わり、クールダウンが短くなる。</t>
+    <phoneticPr fontId="15"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11094,6 +11719,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -11116,7 +11748,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -11192,6 +11824,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -12715,8 +13351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -13523,35 +14159,35 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="33" t="s">
-        <v>3085</v>
+        <v>3083</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>3086</v>
+        <v>3084</v>
       </c>
       <c r="M56" s="33" t="s">
-        <v>3095</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="33" t="s">
+        <v>3121</v>
+      </c>
+      <c r="B57" s="33" t="s">
+        <v>3122</v>
+      </c>
+      <c r="M57" s="33" t="s">
         <v>3123</v>
-      </c>
-      <c r="B57" s="33" t="s">
-        <v>3124</v>
-      </c>
-      <c r="M57" s="33" t="s">
-        <v>3125</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="39" t="s">
+        <v>3136</v>
+      </c>
+      <c r="B58" s="39" t="s">
+        <v>3137</v>
+      </c>
+      <c r="M58" s="39" t="s">
         <v>3138</v>
-      </c>
-      <c r="B58" s="39" t="s">
-        <v>3139</v>
-      </c>
-      <c r="M58" s="39" t="s">
-        <v>3140</v>
       </c>
     </row>
   </sheetData>
@@ -13564,8 +14200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -13670,196 +14306,196 @@
       <c r="A5" t="s">
         <v>2901</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="39" t="s">
+        <v>3319</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>3320</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>2902</v>
-      </c>
-      <c r="M5" t="s">
-        <v>2903</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>2904</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
+        <v>2903</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2904</v>
+      </c>
+      <c r="M6" t="s">
         <v>2905</v>
       </c>
-      <c r="B6" t="s">
+      <c r="O6" s="7" t="s">
         <v>2906</v>
-      </c>
-      <c r="M6" t="s">
-        <v>2907</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>2908</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
+        <v>2907</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2908</v>
+      </c>
+      <c r="M7" t="s">
         <v>2909</v>
       </c>
-      <c r="B7" t="s">
+      <c r="O7" s="7" t="s">
         <v>2910</v>
-      </c>
-      <c r="M7" t="s">
-        <v>2911</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>2912</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
+        <v>2911</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2912</v>
+      </c>
+      <c r="M8" t="s">
         <v>2913</v>
       </c>
-      <c r="B8" t="s">
+      <c r="O8" s="7" t="s">
         <v>2914</v>
-      </c>
-      <c r="M8" t="s">
-        <v>2915</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>2916</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
+        <v>2915</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2916</v>
+      </c>
+      <c r="M9" t="s">
         <v>2917</v>
       </c>
-      <c r="B9" t="s">
+      <c r="O9" s="7" t="s">
         <v>2918</v>
-      </c>
-      <c r="M9" t="s">
-        <v>2919</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>2920</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
+        <v>2919</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2920</v>
+      </c>
+      <c r="M10" t="s">
         <v>2921</v>
       </c>
-      <c r="B10" t="s">
+      <c r="O10" s="7" t="s">
         <v>2922</v>
-      </c>
-      <c r="M10" t="s">
-        <v>2923</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>2924</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
+        <v>2923</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2924</v>
+      </c>
+      <c r="M11" t="s">
         <v>2925</v>
       </c>
-      <c r="B11" t="s">
+      <c r="O11" s="7" t="s">
         <v>2926</v>
-      </c>
-      <c r="M11" t="s">
-        <v>2927</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>2928</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
+        <v>2927</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2928</v>
+      </c>
+      <c r="M12" t="s">
         <v>2929</v>
       </c>
-      <c r="B12" t="s">
+      <c r="O12" s="7" t="s">
         <v>2930</v>
-      </c>
-      <c r="M12" t="s">
-        <v>2931</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>2932</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
+        <v>2931</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2932</v>
+      </c>
+      <c r="M13" t="s">
         <v>2933</v>
       </c>
-      <c r="B13" t="s">
+      <c r="O13" s="7" t="s">
         <v>2934</v>
-      </c>
-      <c r="M13" t="s">
-        <v>2935</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>2936</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
+        <v>2935</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2936</v>
+      </c>
+      <c r="M14" t="s">
         <v>2937</v>
       </c>
-      <c r="B14" t="s">
+      <c r="O14" s="7" t="s">
         <v>2938</v>
-      </c>
-      <c r="M14" t="s">
-        <v>2939</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>2940</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
+        <v>2939</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2940</v>
+      </c>
+      <c r="M15" t="s">
         <v>2941</v>
       </c>
-      <c r="B15" t="s">
+      <c r="O15" s="7" t="s">
         <v>2942</v>
-      </c>
-      <c r="M15" t="s">
-        <v>2943</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>2944</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
+        <v>2943</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2944</v>
+      </c>
+      <c r="M16" t="s">
         <v>2945</v>
       </c>
-      <c r="B16" t="s">
+      <c r="O16" s="7" t="s">
         <v>2946</v>
-      </c>
-      <c r="M16" t="s">
-        <v>2947</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>2948</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
+        <v>2947</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2948</v>
+      </c>
+      <c r="M17" t="s">
         <v>2949</v>
       </c>
-      <c r="B17" t="s">
+      <c r="O17" s="7" t="s">
         <v>2950</v>
-      </c>
-      <c r="M17" t="s">
-        <v>2951</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>2952</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
+        <v>2951</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2952</v>
+      </c>
+      <c r="M18" t="s">
         <v>2953</v>
       </c>
-      <c r="B18" t="s">
+      <c r="O18" s="7" t="s">
         <v>2954</v>
-      </c>
-      <c r="M18" t="s">
-        <v>2955</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>2956</v>
       </c>
     </row>
   </sheetData>
@@ -13869,6 +14505,517 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818D007A-209A-4529-963D-B1FAA54B6953}">
+  <dimension ref="A1:Q41"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="36.875" customWidth="1"/>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="13" max="13" width="25.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="39" t="s">
+        <v>3214</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>3214</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="39" t="s">
+        <v>3216</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>3216</v>
+      </c>
+      <c r="M3" s="39" t="s">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="39" t="s">
+        <v>3217</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>3217</v>
+      </c>
+      <c r="M4" s="39" t="s">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="39" t="s">
+        <v>3220</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>3220</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="39" t="s">
+        <v>3221</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>3221</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="39" t="s">
+        <v>3223</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>3225</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="39" t="s">
+        <v>3226</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>3226</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="39" t="s">
+        <v>3228</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>3228</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="39" t="s">
+        <v>3230</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>3230</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="39" t="s">
+        <v>3232</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>3232</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="39" t="s">
+        <v>3234</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>3234</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="39" t="s">
+        <v>3236</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>3236</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="39" t="s">
+        <v>3238</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>3239</v>
+      </c>
+      <c r="M14" s="43" t="s">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="39" t="s">
+        <v>3242</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>3243</v>
+      </c>
+      <c r="M15" s="39" t="s">
+        <v>3279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="39" t="s">
+        <v>3245</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>3246</v>
+      </c>
+      <c r="M16" s="39" t="s">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="39" t="s">
+        <v>3247</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>3248</v>
+      </c>
+      <c r="M17" s="39" t="s">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="39" t="s">
+        <v>3250</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>3251</v>
+      </c>
+      <c r="M18" s="39" t="s">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="39" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>3254</v>
+      </c>
+      <c r="M19" s="39" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="39" t="s">
+        <v>3256</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>3257</v>
+      </c>
+      <c r="M20" s="39" t="s">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="39" t="s">
+        <v>3259</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>3260</v>
+      </c>
+      <c r="M21" s="39" t="s">
+        <v>3261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="39" t="s">
+        <v>3262</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>3263</v>
+      </c>
+      <c r="M22" s="39" t="s">
+        <v>3264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="39" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>3266</v>
+      </c>
+      <c r="M23" s="39" t="s">
+        <v>3267</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="39" t="s">
+        <v>3268</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>3269</v>
+      </c>
+      <c r="M24" s="39" t="s">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="39" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>3272</v>
+      </c>
+      <c r="M25" s="39" t="s">
+        <v>3273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="39" t="s">
+        <v>3274</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>3275</v>
+      </c>
+      <c r="M26" s="39" t="s">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="39" t="s">
+        <v>3277</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>3278</v>
+      </c>
+      <c r="M27" s="39" t="s">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="39" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>3282</v>
+      </c>
+      <c r="M28" s="39" t="s">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="39" t="s">
+        <v>3284</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>3285</v>
+      </c>
+      <c r="M29" s="39" t="s">
+        <v>3286</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="39" t="s">
+        <v>3287</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>3288</v>
+      </c>
+      <c r="M30" s="39" t="s">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="39" t="s">
+        <v>3290</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>3291</v>
+      </c>
+      <c r="M31" s="39" t="s">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="39" t="s">
+        <v>3293</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>3294</v>
+      </c>
+      <c r="M32" s="39" t="s">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="39" t="s">
+        <v>3296</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>3297</v>
+      </c>
+      <c r="M33" s="39" t="s">
+        <v>3298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="39" t="s">
+        <v>3299</v>
+      </c>
+      <c r="B34" s="39" t="s">
+        <v>3300</v>
+      </c>
+      <c r="M34" s="39" t="s">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="39" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>3303</v>
+      </c>
+      <c r="M35" s="39" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="39" t="s">
+        <v>3305</v>
+      </c>
+      <c r="B36" s="39" t="s">
+        <v>3306</v>
+      </c>
+      <c r="M36" s="39" t="s">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="39" t="s">
+        <v>3308</v>
+      </c>
+      <c r="B37" s="39" t="s">
+        <v>3309</v>
+      </c>
+      <c r="M37" s="39" t="s">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="39" t="s">
+        <v>3311</v>
+      </c>
+      <c r="B38" s="39" t="s">
+        <v>3311</v>
+      </c>
+      <c r="M38" s="39" t="s">
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="39" t="s">
+        <v>3313</v>
+      </c>
+      <c r="B39" s="39" t="s">
+        <v>3313</v>
+      </c>
+      <c r="M39" s="39" t="s">
+        <v>3314</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="39" t="s">
+        <v>3315</v>
+      </c>
+      <c r="B40" s="39" t="s">
+        <v>3315</v>
+      </c>
+      <c r="M40" s="39" t="s">
+        <v>3316</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="39" t="s">
+        <v>3317</v>
+      </c>
+      <c r="B41" s="39" t="s">
+        <v>3317</v>
+      </c>
+      <c r="M41" t="s">
+        <v>3318</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="15"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
@@ -13935,108 +15082,108 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
+        <v>2955</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2956</v>
+      </c>
+      <c r="M2" t="s">
         <v>2957</v>
       </c>
-      <c r="B2" t="s">
+      <c r="O2" s="7" t="s">
         <v>2958</v>
-      </c>
-      <c r="M2" t="s">
-        <v>2959</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>2960</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2960</v>
+      </c>
+      <c r="M3" t="s">
         <v>2961</v>
       </c>
-      <c r="B3" t="s">
+      <c r="O3" s="7" t="s">
         <v>2962</v>
-      </c>
-      <c r="M3" t="s">
-        <v>2963</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>2964</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
+        <v>2963</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2964</v>
+      </c>
+      <c r="M4" t="s">
         <v>2965</v>
       </c>
-      <c r="B4" t="s">
+      <c r="O4" s="7" t="s">
         <v>2966</v>
-      </c>
-      <c r="M4" t="s">
-        <v>2967</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>2968</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
+        <v>2967</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2968</v>
+      </c>
+      <c r="M5" t="s">
         <v>2969</v>
       </c>
-      <c r="B5" t="s">
+      <c r="O5" s="7" t="s">
         <v>2970</v>
-      </c>
-      <c r="M5" t="s">
-        <v>2971</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>2972</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
+        <v>2971</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2972</v>
+      </c>
+      <c r="M6" t="s">
         <v>2973</v>
       </c>
-      <c r="B6" t="s">
+      <c r="O6" s="7" t="s">
         <v>2974</v>
-      </c>
-      <c r="M6" t="s">
-        <v>2975</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>2976</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
+        <v>2975</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2976</v>
+      </c>
+      <c r="M7" t="s">
         <v>2977</v>
       </c>
-      <c r="B7" t="s">
+      <c r="O7" s="7" t="s">
         <v>2978</v>
-      </c>
-      <c r="M7" t="s">
-        <v>2979</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>2980</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
+        <v>2979</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2980</v>
+      </c>
+      <c r="M8" t="s">
         <v>2981</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2982</v>
-      </c>
-      <c r="M8" t="s">
-        <v>2983</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
+        <v>2982</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2983</v>
+      </c>
+      <c r="M10" t="s">
         <v>2984</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2985</v>
-      </c>
-      <c r="M10" t="s">
-        <v>2986</v>
       </c>
     </row>
   </sheetData>
@@ -14045,7 +15192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
@@ -14110,10 +15257,10 @@
     </row>
     <row r="2" spans="1:17" s="4" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>2987</v>
+        <v>2985</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2988</v>
+        <v>2986</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -14126,17 +15273,17 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6" t="s">
-        <v>2988</v>
+        <v>2986</v>
       </c>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:17" s="4" customFormat="1">
       <c r="A3" s="5" t="s">
-        <v>2989</v>
+        <v>2987</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>2990</v>
+        <v>2988</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -14149,17 +15296,17 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6" t="s">
-        <v>2990</v>
+        <v>2988</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:17" s="4" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>2991</v>
+        <v>2989</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>2992</v>
+        <v>2990</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -14172,14 +15319,14 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6" t="s">
-        <v>2992</v>
+        <v>2990</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>2993</v>
+        <v>2991</v>
       </c>
       <c r="B5" t="s">
         <v>360</v>
@@ -14190,13 +15337,13 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>2994</v>
+        <v>2992</v>
       </c>
       <c r="B6" t="s">
-        <v>2995</v>
+        <v>2993</v>
       </c>
       <c r="M6" t="s">
-        <v>2995</v>
+        <v>2993</v>
       </c>
     </row>
   </sheetData>
@@ -14205,7 +15352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
@@ -14267,21 +15414,21 @@
     </row>
     <row r="2" spans="1:17">
       <c r="B2" t="s">
-        <v>3009</v>
+        <v>3007</v>
       </c>
       <c r="M2" t="s">
-        <v>3010</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
+        <v>3009</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3010</v>
+      </c>
+      <c r="M3" t="s">
         <v>3011</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3012</v>
-      </c>
-      <c r="M3" t="s">
-        <v>3013</v>
       </c>
     </row>
   </sheetData>
@@ -14290,7 +15437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
@@ -14352,18 +15499,18 @@
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
+        <v>2994</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2995</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>2996</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2997</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>2998</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>2999</v>
+        <v>2997</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2193</v>
@@ -14375,22 +15522,22 @@
     </row>
     <row r="4" spans="1:17" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
+        <v>2998</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2999</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>3000</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3001</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>3002</v>
       </c>
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -14403,18 +15550,18 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2" t="s">
-        <v>3005</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3005</v>
+      </c>
+      <c r="M6" t="s">
         <v>3006</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3007</v>
-      </c>
-      <c r="M6" t="s">
-        <v>3008</v>
       </c>
     </row>
   </sheetData>
@@ -14427,8 +15574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q901"/>
   <sheetViews>
-    <sheetView topLeftCell="B74" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView topLeftCell="A74" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -16343,10 +17490,10 @@
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="2" t="s">
-        <v>3014</v>
+        <v>3012</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>3015</v>
+        <v>3013</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -16359,28 +17506,28 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2" t="s">
-        <v>3016</v>
+        <v>3014</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="3"/>
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="35" t="s">
+        <v>3031</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>3032</v>
+      </c>
+      <c r="M81" s="2" t="s">
         <v>3033</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>3034</v>
-      </c>
-      <c r="M81" s="2" t="s">
-        <v>3035</v>
       </c>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="17" t="s">
-        <v>3046</v>
+        <v>3044</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -16393,17 +17540,17 @@
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
       <c r="M82" s="37" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="N82" s="6"/>
       <c r="O82" s="6"/>
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="17" t="s">
-        <v>3076</v>
+        <v>3074</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>3077</v>
+        <v>3075</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -16416,17 +17563,17 @@
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
       <c r="M83" s="5" t="s">
-        <v>3078</v>
+        <v>3076</v>
       </c>
       <c r="N83" s="6"/>
       <c r="O83" s="6"/>
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="17" t="s">
-        <v>3096</v>
+        <v>3094</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>3097</v>
+        <v>3095</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -16439,17 +17586,17 @@
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
       <c r="M84" s="5" t="s">
-        <v>3098</v>
+        <v>3096</v>
       </c>
       <c r="N84" s="6"/>
       <c r="O84" s="6"/>
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="15" t="s">
-        <v>3126</v>
+        <v>3124</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>3127</v>
+        <v>3125</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -16462,17 +17609,17 @@
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
       <c r="M85" s="37" t="s">
-        <v>3128</v>
+        <v>3126</v>
       </c>
       <c r="N85" s="6"/>
       <c r="O85" s="18"/>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="15" t="s">
-        <v>3174</v>
+        <v>3172</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>3175</v>
+        <v>3173</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -16485,17 +17632,17 @@
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
       <c r="M86" s="37" t="s">
-        <v>3176</v>
+        <v>3174</v>
       </c>
       <c r="N86" s="6"/>
       <c r="O86" s="18"/>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="15" t="s">
-        <v>3177</v>
+        <v>3175</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>3178</v>
+        <v>3176</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -16508,17 +17655,17 @@
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
       <c r="M87" s="5" t="s">
-        <v>3179</v>
+        <v>3177</v>
       </c>
       <c r="N87" s="6"/>
       <c r="O87" s="6"/>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="15" t="s">
-        <v>3186</v>
+        <v>3184</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>3187</v>
+        <v>3185</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -16531,14 +17678,18 @@
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
       <c r="M88" s="5" t="s">
-        <v>3188</v>
+        <v>3186</v>
       </c>
       <c r="N88" s="6"/>
       <c r="O88" s="6"/>
     </row>
     <row r="89" spans="1:15">
-      <c r="A89" s="17"/>
-      <c r="B89" s="17"/>
+      <c r="A89" s="15" t="s">
+        <v>3321</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>3322</v>
+      </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
@@ -16549,7 +17700,9 @@
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
-      <c r="M89" s="6"/>
+      <c r="M89" s="5" t="s">
+        <v>3323</v>
+      </c>
       <c r="N89" s="6"/>
       <c r="O89" s="6"/>
     </row>
@@ -18850,8 +20003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q906"/>
   <sheetViews>
-    <sheetView topLeftCell="C341" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H362" sqref="H362"/>
+    <sheetView topLeftCell="A341" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F366" sqref="F366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -25717,25 +26870,25 @@
     </row>
     <row r="342" spans="1:15">
       <c r="A342" s="33" t="s">
-        <v>3031</v>
+        <v>3029</v>
       </c>
       <c r="B342" s="33" t="s">
-        <v>3017</v>
+        <v>3015</v>
       </c>
       <c r="M342" s="33" t="s">
-        <v>3018</v>
+        <v>3016</v>
       </c>
       <c r="O342" s="1"/>
     </row>
     <row r="343" spans="1:15">
       <c r="A343" s="33" t="s">
-        <v>3032</v>
+        <v>3030</v>
       </c>
       <c r="B343" s="33" t="s">
-        <v>3019</v>
+        <v>3017</v>
       </c>
       <c r="M343" s="33" t="s">
-        <v>3020</v>
+        <v>3018</v>
       </c>
       <c r="O343" s="1"/>
     </row>
@@ -25744,13 +26897,13 @@
     </row>
     <row r="345" spans="1:15">
       <c r="A345" s="33" t="s">
+        <v>3034</v>
+      </c>
+      <c r="B345" s="33" t="s">
+        <v>3035</v>
+      </c>
+      <c r="M345" s="33" t="s">
         <v>3036</v>
-      </c>
-      <c r="B345" s="33" t="s">
-        <v>3037</v>
-      </c>
-      <c r="M345" s="33" t="s">
-        <v>3038</v>
       </c>
       <c r="O345" s="1"/>
     </row>
@@ -25759,46 +26912,46 @@
     </row>
     <row r="347" spans="1:15">
       <c r="A347" s="33" t="s">
+        <v>3062</v>
+      </c>
+      <c r="B347" s="33" t="s">
+        <v>3063</v>
+      </c>
+      <c r="M347" s="33" t="s">
         <v>3064</v>
-      </c>
-      <c r="B347" s="33" t="s">
-        <v>3065</v>
-      </c>
-      <c r="M347" s="33" t="s">
-        <v>3066</v>
       </c>
     </row>
     <row r="348" spans="1:15">
       <c r="A348" s="33" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B348" s="33" t="s">
+        <v>3113</v>
+      </c>
+      <c r="M348" s="33" t="s">
         <v>3114</v>
-      </c>
-      <c r="B348" s="33" t="s">
-        <v>3115</v>
-      </c>
-      <c r="M348" s="33" t="s">
-        <v>3116</v>
       </c>
     </row>
     <row r="350" spans="1:15">
       <c r="A350" s="33" t="s">
+        <v>3077</v>
+      </c>
+      <c r="B350" s="33" t="s">
         <v>3079</v>
       </c>
-      <c r="B350" s="33" t="s">
-        <v>3081</v>
-      </c>
       <c r="M350" s="33" t="s">
-        <v>3080</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="351" spans="1:15">
       <c r="A351" s="33" t="s">
+        <v>3080</v>
+      </c>
+      <c r="B351" s="33" t="s">
+        <v>3081</v>
+      </c>
+      <c r="M351" s="33" t="s">
         <v>3082</v>
-      </c>
-      <c r="B351" s="33" t="s">
-        <v>3083</v>
-      </c>
-      <c r="M351" s="33" t="s">
-        <v>3084</v>
       </c>
       <c r="O351" s="1"/>
     </row>
@@ -25807,36 +26960,36 @@
     </row>
     <row r="353" spans="1:15">
       <c r="A353" s="33" t="s">
+        <v>3097</v>
+      </c>
+      <c r="B353" s="33" t="s">
+        <v>3098</v>
+      </c>
+      <c r="M353" s="33" t="s">
         <v>3099</v>
-      </c>
-      <c r="B353" s="33" t="s">
-        <v>3100</v>
-      </c>
-      <c r="M353" s="33" t="s">
-        <v>3101</v>
       </c>
       <c r="O353" s="1"/>
     </row>
     <row r="354" spans="1:15">
       <c r="A354" s="33" t="s">
+        <v>3115</v>
+      </c>
+      <c r="B354" s="33" t="s">
+        <v>3116</v>
+      </c>
+      <c r="M354" s="33" t="s">
         <v>3117</v>
-      </c>
-      <c r="B354" s="33" t="s">
-        <v>3118</v>
-      </c>
-      <c r="M354" s="33" t="s">
-        <v>3119</v>
       </c>
     </row>
     <row r="355" spans="1:15">
       <c r="A355" s="33" t="s">
+        <v>3118</v>
+      </c>
+      <c r="B355" s="33" t="s">
+        <v>3119</v>
+      </c>
+      <c r="M355" s="33" t="s">
         <v>3120</v>
-      </c>
-      <c r="B355" s="33" t="s">
-        <v>3121</v>
-      </c>
-      <c r="M355" s="33" t="s">
-        <v>3122</v>
       </c>
       <c r="O355" s="1"/>
     </row>
@@ -25845,63 +26998,72 @@
     </row>
     <row r="357" spans="1:15">
       <c r="A357" s="39" t="s">
+        <v>3127</v>
+      </c>
+      <c r="B357" s="39" t="s">
+        <v>3128</v>
+      </c>
+      <c r="M357" s="39" t="s">
         <v>3129</v>
-      </c>
-      <c r="B357" s="39" t="s">
-        <v>3130</v>
-      </c>
-      <c r="M357" s="39" t="s">
-        <v>3131</v>
       </c>
       <c r="O357" s="1"/>
     </row>
     <row r="359" spans="1:15">
       <c r="A359" s="39" t="s">
+        <v>3178</v>
+      </c>
+      <c r="B359" s="39" t="s">
+        <v>3179</v>
+      </c>
+      <c r="M359" s="39" t="s">
         <v>3180</v>
-      </c>
-      <c r="B359" s="39" t="s">
-        <v>3181</v>
-      </c>
-      <c r="M359" s="39" t="s">
-        <v>3182</v>
       </c>
     </row>
     <row r="360" spans="1:15">
       <c r="A360" s="39" t="s">
+        <v>3181</v>
+      </c>
+      <c r="B360" s="39" t="s">
+        <v>3182</v>
+      </c>
+      <c r="M360" s="39" t="s">
         <v>3183</v>
-      </c>
-      <c r="B360" s="39" t="s">
-        <v>3184</v>
-      </c>
-      <c r="M360" s="39" t="s">
-        <v>3185</v>
       </c>
     </row>
     <row r="361" spans="1:15">
       <c r="A361" s="39" t="s">
+        <v>3187</v>
+      </c>
+      <c r="B361" s="39" t="s">
+        <v>3188</v>
+      </c>
+      <c r="M361" s="39" t="s">
         <v>3189</v>
-      </c>
-      <c r="B361" s="39" t="s">
-        <v>3190</v>
-      </c>
-      <c r="M361" s="39" t="s">
-        <v>3191</v>
       </c>
       <c r="O361" s="1"/>
     </row>
     <row r="362" spans="1:15">
       <c r="A362" s="39" t="s">
+        <v>3190</v>
+      </c>
+      <c r="B362" s="39" t="s">
+        <v>3191</v>
+      </c>
+      <c r="M362" s="39" t="s">
         <v>3192</v>
       </c>
-      <c r="B362" s="39" t="s">
-        <v>3193</v>
-      </c>
-      <c r="M362" s="39" t="s">
-        <v>3194</v>
-      </c>
       <c r="O362" s="1"/>
     </row>
     <row r="363" spans="1:15">
+      <c r="A363" s="39" t="s">
+        <v>3324</v>
+      </c>
+      <c r="B363" s="39" t="s">
+        <v>3325</v>
+      </c>
+      <c r="M363" s="39" t="s">
+        <v>3326</v>
+      </c>
       <c r="O363" s="1"/>
     </row>
     <row r="365" spans="1:15">
@@ -28705,10 +29867,10 @@
     </row>
     <row r="94" spans="1:15" s="4" customFormat="1">
       <c r="A94" s="5" t="s">
-        <v>3102</v>
+        <v>3100</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>3103</v>
+        <v>3101</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -28721,17 +29883,17 @@
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
       <c r="M94" s="5" t="s">
-        <v>3104</v>
+        <v>3102</v>
       </c>
       <c r="N94" s="6"/>
       <c r="O94" s="6"/>
     </row>
     <row r="95" spans="1:15" s="4" customFormat="1">
       <c r="A95" s="40" t="s">
-        <v>3141</v>
+        <v>3139</v>
       </c>
       <c r="B95" s="40" t="s">
-        <v>3142</v>
+        <v>3140</v>
       </c>
       <c r="C95" s="40"/>
       <c r="D95" s="40"/>
@@ -28744,17 +29906,17 @@
       <c r="K95" s="40"/>
       <c r="L95" s="40"/>
       <c r="M95" s="40" t="s">
-        <v>3143</v>
+        <v>3141</v>
       </c>
       <c r="N95" s="40"/>
       <c r="O95" s="40"/>
     </row>
     <row r="96" spans="1:15" s="4" customFormat="1">
       <c r="A96" s="40" t="s">
-        <v>3144</v>
+        <v>3142</v>
       </c>
       <c r="B96" s="40" t="s">
-        <v>3145</v>
+        <v>3143</v>
       </c>
       <c r="C96" s="40"/>
       <c r="D96" s="40"/>
@@ -28767,17 +29929,17 @@
       <c r="K96" s="40"/>
       <c r="L96" s="40"/>
       <c r="M96" s="40" t="s">
-        <v>3146</v>
+        <v>3144</v>
       </c>
       <c r="N96" s="40"/>
       <c r="O96" s="40"/>
     </row>
     <row r="97" spans="1:15" s="4" customFormat="1">
       <c r="A97" s="40" t="s">
-        <v>3147</v>
+        <v>3145</v>
       </c>
       <c r="B97" s="40" t="s">
-        <v>3148</v>
+        <v>3146</v>
       </c>
       <c r="C97" s="40"/>
       <c r="D97" s="40"/>
@@ -28790,17 +29952,17 @@
       <c r="K97" s="40"/>
       <c r="L97" s="40"/>
       <c r="M97" s="40" t="s">
-        <v>3149</v>
+        <v>3147</v>
       </c>
       <c r="N97" s="40"/>
       <c r="O97" s="40"/>
     </row>
     <row r="98" spans="1:15" s="4" customFormat="1">
       <c r="A98" s="40" t="s">
-        <v>3150</v>
+        <v>3148</v>
       </c>
       <c r="B98" s="40" t="s">
-        <v>3151</v>
+        <v>3149</v>
       </c>
       <c r="C98" s="40"/>
       <c r="D98" s="40"/>
@@ -28813,7 +29975,7 @@
       <c r="K98" s="40"/>
       <c r="L98" s="40"/>
       <c r="M98" s="40" t="s">
-        <v>3152</v>
+        <v>3150</v>
       </c>
       <c r="N98" s="40"/>
       <c r="O98" s="40"/>
@@ -28823,25 +29985,25 @@
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="40" t="s">
+        <v>3151</v>
+      </c>
+      <c r="B100" s="40" t="s">
+        <v>3152</v>
+      </c>
+      <c r="M100" s="40" t="s">
         <v>3153</v>
-      </c>
-      <c r="B100" s="40" t="s">
-        <v>3154</v>
-      </c>
-      <c r="M100" s="40" t="s">
-        <v>3155</v>
       </c>
       <c r="O100" s="1"/>
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="40" t="s">
+        <v>3154</v>
+      </c>
+      <c r="B101" s="40" t="s">
+        <v>3155</v>
+      </c>
+      <c r="M101" s="40" t="s">
         <v>3156</v>
-      </c>
-      <c r="B101" s="40" t="s">
-        <v>3157</v>
-      </c>
-      <c r="M101" s="40" t="s">
-        <v>3158</v>
       </c>
       <c r="O101" s="1"/>
     </row>
@@ -28850,59 +30012,59 @@
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="40" t="s">
+        <v>3157</v>
+      </c>
+      <c r="B103" s="40" t="s">
+        <v>3158</v>
+      </c>
+      <c r="M103" s="40" t="s">
         <v>3159</v>
-      </c>
-      <c r="B103" s="40" t="s">
-        <v>3160</v>
-      </c>
-      <c r="M103" s="40" t="s">
-        <v>3161</v>
       </c>
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="40" t="s">
+        <v>3169</v>
+      </c>
+      <c r="B104" s="40" t="s">
+        <v>3170</v>
+      </c>
+      <c r="M104" s="40" t="s">
         <v>3171</v>
-      </c>
-      <c r="B104" s="40" t="s">
-        <v>3172</v>
-      </c>
-      <c r="M104" s="40" t="s">
-        <v>3173</v>
       </c>
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="40" t="s">
+        <v>3160</v>
+      </c>
+      <c r="B105" s="40" t="s">
+        <v>3161</v>
+      </c>
+      <c r="M105" s="40" t="s">
         <v>3162</v>
-      </c>
-      <c r="B105" s="40" t="s">
-        <v>3163</v>
-      </c>
-      <c r="M105" s="40" t="s">
-        <v>3164</v>
       </c>
       <c r="O105" s="1"/>
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="40" t="s">
+        <v>3163</v>
+      </c>
+      <c r="B106" s="40" t="s">
+        <v>3164</v>
+      </c>
+      <c r="M106" s="40" t="s">
         <v>3165</v>
-      </c>
-      <c r="B106" s="40" t="s">
-        <v>3166</v>
-      </c>
-      <c r="M106" s="40" t="s">
-        <v>3167</v>
       </c>
       <c r="O106" s="1"/>
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="40" t="s">
+        <v>3166</v>
+      </c>
+      <c r="B107" s="40" t="s">
+        <v>3167</v>
+      </c>
+      <c r="M107" s="40" t="s">
         <v>3168</v>
-      </c>
-      <c r="B107" s="40" t="s">
-        <v>3169</v>
-      </c>
-      <c r="M107" s="40" t="s">
-        <v>3170</v>
       </c>
       <c r="O107" s="1"/>
     </row>
@@ -31927,34 +33089,34 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="33" t="s">
+        <v>3047</v>
+      </c>
+      <c r="B75" s="33" t="s">
+        <v>3048</v>
+      </c>
+      <c r="M75" s="33" t="s">
         <v>3049</v>
-      </c>
-      <c r="B75" s="33" t="s">
-        <v>3050</v>
-      </c>
-      <c r="M75" s="33" t="s">
-        <v>3051</v>
       </c>
       <c r="O75" s="1"/>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="33" t="s">
-        <v>3052</v>
+        <v>3050</v>
       </c>
       <c r="B76" s="33" t="s">
-        <v>3062</v>
+        <v>3060</v>
       </c>
       <c r="M76" s="33" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
       <c r="O76" s="1"/>
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="35" t="s">
-        <v>3067</v>
+        <v>3065</v>
       </c>
       <c r="B77" s="35" t="s">
-        <v>3068</v>
+        <v>3066</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -31967,17 +33129,17 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="35" t="s">
-        <v>3069</v>
+        <v>3067</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="3"/>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="35" t="s">
-        <v>3070</v>
+        <v>3068</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>3071</v>
+        <v>3069</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -31990,17 +33152,17 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
       <c r="M78" s="35" t="s">
-        <v>3072</v>
+        <v>3070</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="3"/>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="35" t="s">
-        <v>3073</v>
+        <v>3071</v>
       </c>
       <c r="B79" s="35" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -32013,7 +33175,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
       <c r="M79" s="35" t="s">
-        <v>3075</v>
+        <v>3073</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="3"/>
@@ -34519,8 +35681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q896"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:XFD75"/>
+    <sheetView topLeftCell="B58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M83" sqref="M83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -36064,46 +37226,46 @@
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="33" t="s">
+        <v>3019</v>
+      </c>
+      <c r="B67" s="33" t="s">
         <v>3021</v>
       </c>
-      <c r="B67" s="33" t="s">
-        <v>3023</v>
-      </c>
       <c r="M67" s="33" t="s">
-        <v>3024</v>
+        <v>3022</v>
       </c>
       <c r="O67" s="1"/>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="33" t="s">
+        <v>3037</v>
+      </c>
+      <c r="B68" s="33" t="s">
+        <v>3038</v>
+      </c>
+      <c r="M68" s="33" t="s">
         <v>3039</v>
-      </c>
-      <c r="B68" s="33" t="s">
-        <v>3040</v>
-      </c>
-      <c r="M68" s="33" t="s">
-        <v>3041</v>
       </c>
       <c r="O68" s="1"/>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="33" t="s">
+        <v>3051</v>
+      </c>
+      <c r="B69" s="33" t="s">
         <v>3053</v>
       </c>
-      <c r="B69" s="33" t="s">
-        <v>3055</v>
-      </c>
       <c r="M69" s="33" t="s">
-        <v>3056</v>
+        <v>3054</v>
       </c>
       <c r="O69" s="1"/>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="35" t="s">
+        <v>3085</v>
+      </c>
+      <c r="B70" s="35" t="s">
         <v>3087</v>
-      </c>
-      <c r="B70" s="35" t="s">
-        <v>3089</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -36116,17 +37278,17 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
       <c r="M70" s="35" t="s">
-        <v>3090</v>
+        <v>3088</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="3"/>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="35" t="s">
+        <v>3103</v>
+      </c>
+      <c r="B71" s="35" t="s">
         <v>3105</v>
-      </c>
-      <c r="B71" s="35" t="s">
-        <v>3107</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -36139,28 +37301,28 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
       <c r="M71" s="35" t="s">
-        <v>3108</v>
+        <v>3106</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="3"/>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="39" t="s">
+        <v>3130</v>
+      </c>
+      <c r="B72" s="39" t="s">
+        <v>3131</v>
+      </c>
+      <c r="M72" s="39" t="s">
         <v>3132</v>
-      </c>
-      <c r="B72" s="39" t="s">
-        <v>3133</v>
-      </c>
-      <c r="M72" s="39" t="s">
-        <v>3134</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="41" t="s">
-        <v>3195</v>
+        <v>3193</v>
       </c>
       <c r="B73" s="41" t="s">
-        <v>3196</v>
+        <v>3194</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -36173,17 +37335,17 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
       <c r="M73" s="41" t="s">
-        <v>3197</v>
+        <v>3195</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="3"/>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="41" t="s">
-        <v>3198</v>
+        <v>3196</v>
       </c>
       <c r="B74" s="41" t="s">
-        <v>3199</v>
+        <v>3197</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -36196,17 +37358,17 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" s="41" t="s">
-        <v>3200</v>
+        <v>3198</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="3"/>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="41" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
       <c r="B75" s="41" t="s">
-        <v>3202</v>
+        <v>3200</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -36219,10 +37381,21 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2" t="s">
-        <v>3203</v>
+        <v>3201</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="41" t="s">
+        <v>3327</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3328</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>3329</v>
+      </c>
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="15"/>
@@ -38657,8 +39830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q896"/>
   <sheetViews>
-    <sheetView topLeftCell="G58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M78" sqref="M78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -39672,22 +40845,22 @@
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="33" t="s">
-        <v>3025</v>
+        <v>3023</v>
       </c>
       <c r="B68" t="s">
-        <v>3022</v>
+        <v>3020</v>
       </c>
       <c r="M68" s="33" t="s">
-        <v>3026</v>
+        <v>3024</v>
       </c>
       <c r="O68" s="1"/>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="35" t="s">
-        <v>3042</v>
+        <v>3040</v>
       </c>
       <c r="B69" s="35" t="s">
-        <v>3040</v>
+        <v>3038</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -39700,17 +40873,17 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
       <c r="M69" s="35" t="s">
-        <v>3041</v>
+        <v>3039</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="3"/>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="35" t="s">
-        <v>3057</v>
+        <v>3055</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>3054</v>
+        <v>3052</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -39723,17 +40896,17 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
       <c r="M70" s="35" t="s">
-        <v>3058</v>
+        <v>3056</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="3"/>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="35" t="s">
-        <v>3091</v>
+        <v>3089</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>3088</v>
+        <v>3086</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -39746,17 +40919,17 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
       <c r="M71" s="35" t="s">
-        <v>3090</v>
+        <v>3088</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="3"/>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="35" t="s">
-        <v>3113</v>
+        <v>3111</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>3106</v>
+        <v>3104</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -39769,7 +40942,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" s="35" t="s">
-        <v>3109</v>
+        <v>3107</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="12"/>
@@ -39793,21 +40966,21 @@
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="39" t="s">
+        <v>3130</v>
+      </c>
+      <c r="B74" s="39" t="s">
+        <v>3131</v>
+      </c>
+      <c r="M74" s="39" t="s">
         <v>3132</v>
-      </c>
-      <c r="B74" s="39" t="s">
-        <v>3133</v>
-      </c>
-      <c r="M74" s="39" t="s">
-        <v>3134</v>
       </c>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="41" t="s">
-        <v>3204</v>
+        <v>3202</v>
       </c>
       <c r="B75" s="41" t="s">
-        <v>3196</v>
+        <v>3194</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -39820,17 +40993,17 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
       <c r="M75" s="41" t="s">
-        <v>3197</v>
+        <v>3195</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="3"/>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="41" t="s">
-        <v>3205</v>
+        <v>3203</v>
       </c>
       <c r="B76" s="41" t="s">
-        <v>3199</v>
+        <v>3197</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -39843,17 +41016,17 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
       <c r="M76" s="41" t="s">
-        <v>3200</v>
+        <v>3198</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="3"/>
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="41" t="s">
-        <v>3206</v>
+        <v>3204</v>
       </c>
       <c r="B77" s="41" t="s">
-        <v>3202</v>
+        <v>3200</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -39866,14 +41039,18 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2" t="s">
-        <v>3203</v>
+        <v>3201</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="3"/>
     </row>
     <row r="78" spans="1:15">
-      <c r="A78" s="15"/>
-      <c r="B78" s="15"/>
+      <c r="A78" s="15" t="s">
+        <v>3330</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>3328</v>
+      </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
@@ -39884,7 +41061,9 @@
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
-      <c r="M78" s="6"/>
+      <c r="M78" s="5" t="s">
+        <v>3329</v>
+      </c>
       <c r="N78" s="6"/>
       <c r="O78" s="6"/>
     </row>
@@ -42287,8 +43466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q897"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M73" sqref="M73"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -43247,7 +44426,7 @@
         <v>2660</v>
       </c>
       <c r="B67" s="33" t="s">
-        <v>3027</v>
+        <v>3025</v>
       </c>
       <c r="M67" s="8" t="s">
         <v>2661</v>
@@ -43256,34 +44435,34 @@
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="33" t="s">
+        <v>3026</v>
+      </c>
+      <c r="B68" s="33" t="s">
+        <v>3027</v>
+      </c>
+      <c r="M68" s="34" t="s">
         <v>3028</v>
-      </c>
-      <c r="B68" s="33" t="s">
-        <v>3029</v>
-      </c>
-      <c r="M68" s="34" t="s">
-        <v>3030</v>
       </c>
       <c r="O68" s="1"/>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="33" t="s">
+        <v>3041</v>
+      </c>
+      <c r="B69" s="33" t="s">
+        <v>3042</v>
+      </c>
+      <c r="M69" s="36" t="s">
         <v>3043</v>
-      </c>
-      <c r="B69" s="33" t="s">
-        <v>3044</v>
-      </c>
-      <c r="M69" s="36" t="s">
-        <v>3045</v>
       </c>
       <c r="O69" s="1"/>
     </row>
     <row r="70" spans="1:15" ht="37.5">
       <c r="A70" s="35" t="s">
+        <v>3057</v>
+      </c>
+      <c r="B70" s="38" t="s">
         <v>3059</v>
-      </c>
-      <c r="B70" s="38" t="s">
-        <v>3061</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -43296,17 +44475,17 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
       <c r="M70" s="38" t="s">
-        <v>3060</v>
+        <v>3058</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="3"/>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="35" t="s">
+        <v>3090</v>
+      </c>
+      <c r="B71" s="35" t="s">
         <v>3092</v>
-      </c>
-      <c r="B71" s="35" t="s">
-        <v>3094</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -43319,17 +44498,17 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
       <c r="M71" s="38" t="s">
-        <v>3093</v>
+        <v>3091</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="3"/>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="35" t="s">
+        <v>3108</v>
+      </c>
+      <c r="B72" s="35" t="s">
         <v>3110</v>
-      </c>
-      <c r="B72" s="35" t="s">
-        <v>3112</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -43342,28 +44521,28 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" s="38" t="s">
-        <v>3111</v>
+        <v>3109</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="3"/>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="39" t="s">
+        <v>3133</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>3134</v>
+      </c>
+      <c r="M73" s="8" t="s">
         <v>3135</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>3136</v>
-      </c>
-      <c r="M73" s="8" t="s">
-        <v>3137</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="41" t="s">
-        <v>3207</v>
+        <v>3205</v>
       </c>
       <c r="B74" s="41" t="s">
-        <v>3208</v>
+        <v>3206</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -43376,17 +44555,17 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" s="12" t="s">
-        <v>3209</v>
+        <v>3207</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="3"/>
     </row>
     <row r="75" spans="1:15" ht="37.5">
       <c r="A75" s="41" t="s">
-        <v>3210</v>
+        <v>3208</v>
       </c>
       <c r="B75" s="42" t="s">
-        <v>3211</v>
+        <v>3209</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -43399,17 +44578,17 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
       <c r="M75" s="42" t="s">
-        <v>3212</v>
+        <v>3210</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="3"/>
     </row>
     <row r="76" spans="1:15" ht="37.5">
       <c r="A76" s="41" t="s">
-        <v>3213</v>
+        <v>3211</v>
       </c>
       <c r="B76" s="42" t="s">
-        <v>3214</v>
+        <v>3212</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -43422,10 +44601,21 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
       <c r="M76" s="42" t="s">
-        <v>3215</v>
+        <v>3213</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="1:15" ht="37.5">
+      <c r="A77" s="41" t="s">
+        <v>3331</v>
+      </c>
+      <c r="B77" s="44" t="s">
+        <v>3332</v>
+      </c>
+      <c r="M77" s="44" t="s">
+        <v>3333</v>
+      </c>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="15"/>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shota\Desktop\TheOtherRolesGM KM\TheOtherRolesGM-KiyoMugi-Edition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AE3F10-BAF2-44FF-B5DF-E6001E1A26EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A16C022-3C23-41A7-B160-165B389595E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="882" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="882" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModText" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3925" uniqueCount="3354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3931" uniqueCount="3360">
   <si>
     <t>English</t>
   </si>
@@ -11712,6 +11712,36 @@
     <rPh sb="4" eb="6">
       <t>ヤクショク</t>
     </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>vanillaOptionsText</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>modOptionsText</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>AmongUsの設定</t>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>TORGM KMの設定</t>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>AmongUs Options</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>TORGM KM's Options</t>
     <phoneticPr fontId="15"/>
   </si>
 </sst>
@@ -12222,8 +12252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q100"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -13432,25 +13462,40 @@
       <c r="O95" s="1"/>
     </row>
     <row r="96" spans="1:15">
-      <c r="B96" s="8"/>
-      <c r="M96" s="8"/>
+      <c r="A96" s="39" t="s">
+        <v>3354</v>
+      </c>
+      <c r="B96" s="44" t="s">
+        <v>3358</v>
+      </c>
+      <c r="M96" s="44" t="s">
+        <v>3356</v>
+      </c>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="2:15">
-      <c r="B97" s="8"/>
+    <row r="97" spans="1:15">
+      <c r="A97" s="39" t="s">
+        <v>3355</v>
+      </c>
+      <c r="B97" s="44" t="s">
+        <v>3359</v>
+      </c>
+      <c r="M97" s="39" t="s">
+        <v>3357</v>
+      </c>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="2:15">
+    <row r="98" spans="1:15">
       <c r="B98" s="8"/>
       <c r="M98" s="8"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="2:15">
+    <row r="99" spans="1:15">
       <c r="B99" s="8"/>
       <c r="M99" s="8"/>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="2:15">
+    <row r="100" spans="1:15">
       <c r="B100" s="8"/>
       <c r="M100" s="8"/>
       <c r="O100" s="1"/>
@@ -28726,7 +28771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q897"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aoto\Desktop\AmongUsMod\TheOtherRolesGM-KiyoMugi-Edition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4BB3F6-38F7-4870-B3AC-48261757B9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30685BDA-C460-4960-BBCF-5B6C2A9532EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="882" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10725" yWindow="1215" windowWidth="19245" windowHeight="13065" tabRatio="882" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModText" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3905" uniqueCount="3334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3911" uniqueCount="3338">
   <si>
     <t>English</t>
   </si>
@@ -11598,6 +11598,25 @@
   <si>
     <t>・停電中だけキルができる。
 ・その代わり、クールダウンが短くなる。</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Sakura</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>桜</t>
+    <rPh sb="0" eb="1">
+      <t>サクラ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Night</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>ナイト</t>
     <phoneticPr fontId="15"/>
   </si>
 </sst>
@@ -14506,10 +14525,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818D007A-209A-4529-963D-B1FAA54B6953}">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -15007,6 +15026,28 @@
       </c>
       <c r="M41" t="s">
         <v>3318</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="39" t="s">
+        <v>3334</v>
+      </c>
+      <c r="B42" s="39" t="s">
+        <v>3334</v>
+      </c>
+      <c r="M42" s="39" t="s">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="39" t="s">
+        <v>3336</v>
+      </c>
+      <c r="B43" s="39" t="s">
+        <v>3336</v>
+      </c>
+      <c r="M43" s="39" t="s">
+        <v>3337</v>
       </c>
     </row>
   </sheetData>
@@ -43466,7 +43507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q897"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shota\Desktop\TheOtherRolesGM KM\TheOtherRolesGM-KiyoMugi-Edition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A16C022-3C23-41A7-B160-165B389595E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5631CD76-1714-4126-9B8A-FB37B4AF819D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="882" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12253,7 +12253,7 @@
   <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shota\Desktop\TheOtherRolesGM KM\TheOtherRolesGM-KiyoMugi-Edition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aoto\Desktop\AmongUsMod\TheOtherRolesGM-KiyoMugi-Edition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5631CD76-1714-4126-9B8A-FB37B4AF819D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F7927D-6E38-4CF1-BBF0-F0664A419723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="882" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3660" yWindow="2535" windowWidth="19245" windowHeight="13065" tabRatio="882" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModText" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3931" uniqueCount="3360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3937" uniqueCount="3364">
   <si>
     <t>English</t>
   </si>
@@ -11742,6 +11742,25 @@
   </si>
   <si>
     <t>TORGM KM's Options</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Sakura</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>桜</t>
+    <rPh sb="0" eb="1">
+      <t>サクラ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Night</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>ナイト</t>
     <phoneticPr fontId="15"/>
   </si>
 </sst>
@@ -12252,8 +12271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -14665,10 +14684,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818D007A-209A-4529-963D-B1FAA54B6953}">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -15166,6 +15185,28 @@
       </c>
       <c r="M41" t="s">
         <v>3317</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="39" t="s">
+        <v>3360</v>
+      </c>
+      <c r="B42" s="39" t="s">
+        <v>3360</v>
+      </c>
+      <c r="M42" s="39" t="s">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="39" t="s">
+        <v>3362</v>
+      </c>
+      <c r="B43" s="39" t="s">
+        <v>3362</v>
+      </c>
+      <c r="M43" s="39" t="s">
+        <v>3363</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aoto\Desktop\AmongUsMod\TheOtherRolesGM-KiyoMugi-Edition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F7927D-6E38-4CF1-BBF0-F0664A419723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE7AF13-3B70-439C-B7EE-2ADC1377D4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="2535" windowWidth="19245" windowHeight="13065" tabRatio="882" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4365" yWindow="1155" windowWidth="19245" windowHeight="13065" tabRatio="882" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModText" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3937" uniqueCount="3364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3970" uniqueCount="3395">
   <si>
     <t>English</t>
   </si>
@@ -5869,15 +5869,9 @@
     <t>充能: {0}/{1}</t>
   </si>
   <si>
-    <t>medicReport</t>
-  </si>
-  <si>
     <t>Body Report: Killed {0}s ago!</t>
   </si>
   <si>
-    <t>検査の結果、{0}秒前に殺されたみたい！</t>
-  </si>
-  <si>
     <t>尸检报告:死者在{0}秒前遇害！</t>
   </si>
   <si>
@@ -6079,13 +6073,7 @@
     <t>{0}是{1}</t>
   </si>
   <si>
-    <t>divineMessageRole</t>
-  </si>
-  <si>
     <t>{0}'s role is {1}</t>
-  </si>
-  <si>
-    <t>{0} のロールは「{1}」</t>
   </si>
   <si>
     <t>{0}的职业是{1}</t>
@@ -11761,6 +11749,188 @@
   </si>
   <si>
     <t>ナイト</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>prophet</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Prophet</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>預言者</t>
+    <rPh sb="0" eb="3">
+      <t>ヨゲンシャ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>prophetProphecyNum</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>prophetMultipleProphecy</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>預言可能回数</t>
+    <rPh sb="0" eb="2">
+      <t>ヨゲン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>1回の会議で複数名の預言が可能</t>
+    <rPh sb="1" eb="2">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>フクスウメイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨゲン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>prophetBlackWhite</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>陣営のみ表示</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>impostorText</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>neutralText</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>crewText</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>prophetText</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>{0} の役職は {1} です。</t>
+    <rPh sb="5" eb="7">
+      <t>ヤクショク</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>prophetIntroDesc</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>I'll tell you who he is.</t>
+  </si>
+  <si>
+    <t>奴の正体を預言しよう</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>prophetShortDesc</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>prophetFullDesc</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>・預言者は、会議中に選択したプレイヤーの役職を確認することができる。
+・能力を使い切ると、会議明け直後に死亡する。
+注意：
+役職はチャットに表示される。他のプレイヤーは見ることができない。
+能力を使い切った預言者は、死体がマップ上に残らず既に死亡済みのプレイヤーとして扱われる。
+陣営のみ表示が有効の場合、クルーメイト/インポスター/ニュートラルのいずれかが表示される。</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>The prophet can see the player's role selected during the meeting.
+If the ability is spent, you will die just after the end of the meeting.
+NOTES:
+The role is shown in the chat. Other players cannot see it.
+Once you have spent the ability, you will be treated as a already dead player, with no body left on the map.
+If Show only teams is active, either Crewmate, Imposter, or Neutral will be shown.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Maximum prophesy count</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Prophesy multiple players in one meeting</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Show only teams</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>{0} のロールは「{1}」</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>divineMessageRole</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>検査の結果、{0}秒前に殺されたみたい！</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>medicReport</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>{0}'s team is the Impostor.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>{0}'s team is the Crewmate.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>{0}'s team is the Neutral.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>{0}'s role is the {1}.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>{0} の陣営はインポスターです。</t>
+    <rPh sb="5" eb="7">
+      <t>ジンエイ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>{0} の陣営はニュートラルです。</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>{0} の陣営はクルーメイトです。</t>
     <phoneticPr fontId="15"/>
   </si>
 </sst>
@@ -13482,25 +13652,25 @@
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="39" t="s">
+        <v>3350</v>
+      </c>
+      <c r="B96" s="44" t="s">
         <v>3354</v>
       </c>
-      <c r="B96" s="44" t="s">
-        <v>3358</v>
-      </c>
       <c r="M96" s="44" t="s">
-        <v>3356</v>
+        <v>3352</v>
       </c>
       <c r="O96" s="1"/>
     </row>
     <row r="97" spans="1:15">
       <c r="A97" s="39" t="s">
+        <v>3351</v>
+      </c>
+      <c r="B97" s="44" t="s">
         <v>3355</v>
       </c>
-      <c r="B97" s="44" t="s">
-        <v>3359</v>
-      </c>
       <c r="M97" s="39" t="s">
-        <v>3357</v>
+        <v>3353</v>
       </c>
       <c r="O97" s="1"/>
     </row>
@@ -13591,66 +13761,66 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>2715</v>
+        <v>2711</v>
       </c>
       <c r="B2" t="s">
-        <v>2716</v>
+        <v>2712</v>
       </c>
       <c r="M2" t="s">
-        <v>2717</v>
+        <v>2713</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>2718</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>2719</v>
+        <v>2715</v>
       </c>
       <c r="B3" t="s">
-        <v>2720</v>
+        <v>2716</v>
       </c>
       <c r="M3" t="s">
-        <v>2721</v>
+        <v>2717</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>2722</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>2723</v>
+        <v>2719</v>
       </c>
       <c r="B4" t="s">
-        <v>2724</v>
+        <v>2720</v>
       </c>
       <c r="M4" t="s">
-        <v>2725</v>
+        <v>2721</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>2726</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>2727</v>
+        <v>2723</v>
       </c>
       <c r="B5" t="s">
-        <v>2728</v>
+        <v>2724</v>
       </c>
       <c r="M5" t="s">
-        <v>2729</v>
+        <v>2725</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>2730</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>2731</v>
+        <v>2727</v>
       </c>
       <c r="B6" t="s">
-        <v>2732</v>
+        <v>2728</v>
       </c>
       <c r="M6" t="s">
         <v>161</v>
@@ -13661,69 +13831,69 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>2733</v>
+        <v>2729</v>
       </c>
       <c r="B7" t="s">
-        <v>2734</v>
+        <v>2730</v>
       </c>
       <c r="M7" t="s">
-        <v>2735</v>
+        <v>2731</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>2736</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>2737</v>
+        <v>2733</v>
       </c>
       <c r="B8" t="s">
-        <v>2738</v>
+        <v>2734</v>
       </c>
       <c r="M8" t="s">
-        <v>2739</v>
+        <v>2735</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>2740</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>2741</v>
+        <v>2737</v>
       </c>
       <c r="B9" t="s">
-        <v>2742</v>
+        <v>2738</v>
       </c>
       <c r="M9" t="s">
-        <v>2743</v>
+        <v>2739</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>2744</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>2745</v>
+        <v>2741</v>
       </c>
       <c r="B10" t="s">
-        <v>2746</v>
+        <v>2742</v>
       </c>
       <c r="M10" t="s">
-        <v>2747</v>
+        <v>2743</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>2748</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>2749</v>
+        <v>2745</v>
       </c>
       <c r="B11" t="s">
-        <v>2750</v>
+        <v>2746</v>
       </c>
       <c r="M11" t="s">
-        <v>2751</v>
+        <v>2747</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>150</v>
@@ -13731,125 +13901,125 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>2752</v>
+        <v>2748</v>
       </c>
       <c r="B12" t="s">
-        <v>2753</v>
+        <v>2749</v>
       </c>
       <c r="M12" t="s">
-        <v>2754</v>
+        <v>2750</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>2755</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>2756</v>
+        <v>2752</v>
       </c>
       <c r="B13" t="s">
+        <v>2749</v>
+      </c>
+      <c r="M13" t="s">
         <v>2753</v>
       </c>
-      <c r="M13" t="s">
-        <v>2757</v>
-      </c>
       <c r="O13" s="7" t="s">
-        <v>2758</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>2759</v>
+        <v>2755</v>
       </c>
       <c r="B14" t="s">
-        <v>2760</v>
+        <v>2756</v>
       </c>
       <c r="M14" t="s">
-        <v>2761</v>
+        <v>2757</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>2762</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>2763</v>
+        <v>2759</v>
       </c>
       <c r="B15" t="s">
-        <v>2764</v>
+        <v>2760</v>
       </c>
       <c r="M15" t="s">
-        <v>2765</v>
+        <v>2761</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>2766</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>2767</v>
+        <v>2763</v>
       </c>
       <c r="B16" t="s">
+        <v>2760</v>
+      </c>
+      <c r="M16" t="s">
+        <v>2761</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>2764</v>
-      </c>
-      <c r="M16" t="s">
-        <v>2765</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>2768</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>2769</v>
+        <v>2765</v>
       </c>
       <c r="B17" t="s">
-        <v>2770</v>
+        <v>2766</v>
       </c>
       <c r="M17" t="s">
-        <v>2771</v>
+        <v>2767</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>2772</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>2773</v>
+        <v>2769</v>
       </c>
       <c r="B18" t="s">
-        <v>2774</v>
+        <v>2770</v>
       </c>
       <c r="M18" t="s">
-        <v>2775</v>
+        <v>2771</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>2776</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>2777</v>
+        <v>2773</v>
       </c>
       <c r="B19" t="s">
-        <v>2778</v>
+        <v>2774</v>
       </c>
       <c r="M19" t="s">
-        <v>2779</v>
+        <v>2775</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>2780</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>2781</v>
+        <v>2777</v>
       </c>
       <c r="B20" t="s">
-        <v>2782</v>
+        <v>2778</v>
       </c>
       <c r="M20" t="s">
-        <v>2783</v>
+        <v>2779</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>455</v>
@@ -13857,259 +14027,259 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>2784</v>
+        <v>2780</v>
       </c>
       <c r="B21" t="s">
-        <v>2785</v>
+        <v>2781</v>
       </c>
       <c r="M21" t="s">
-        <v>2786</v>
+        <v>2782</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>2787</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>2788</v>
+        <v>2784</v>
       </c>
       <c r="B22" t="s">
-        <v>2789</v>
+        <v>2785</v>
       </c>
       <c r="M22" t="s">
-        <v>2790</v>
+        <v>2786</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>2791</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>2792</v>
+        <v>2788</v>
       </c>
       <c r="B23" t="s">
-        <v>2793</v>
+        <v>2789</v>
       </c>
       <c r="M23" t="s">
         <v>561</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>2794</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>2795</v>
+        <v>2791</v>
       </c>
       <c r="B24" t="s">
-        <v>2785</v>
+        <v>2781</v>
       </c>
       <c r="M24" t="s">
-        <v>2786</v>
+        <v>2782</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>2796</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>2797</v>
+        <v>2793</v>
       </c>
       <c r="B25" t="s">
-        <v>2798</v>
+        <v>2794</v>
       </c>
       <c r="M25" t="s">
-        <v>2799</v>
+        <v>2795</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>2800</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>2801</v>
+        <v>2797</v>
       </c>
       <c r="B26" t="s">
-        <v>2802</v>
+        <v>2798</v>
       </c>
       <c r="M26" t="s">
-        <v>2803</v>
+        <v>2799</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>2804</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>2805</v>
+        <v>2801</v>
       </c>
       <c r="B27" t="s">
-        <v>2806</v>
+        <v>2802</v>
       </c>
       <c r="M27" t="s">
-        <v>2807</v>
+        <v>2803</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>2808</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>2809</v>
+        <v>2805</v>
       </c>
       <c r="B28" t="s">
-        <v>2810</v>
+        <v>2806</v>
       </c>
       <c r="M28" t="s">
-        <v>2811</v>
+        <v>2807</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>2812</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>2813</v>
+        <v>2809</v>
       </c>
       <c r="B29" t="s">
-        <v>2814</v>
+        <v>2810</v>
       </c>
       <c r="M29" t="s">
-        <v>2815</v>
+        <v>2811</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>2816</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>2817</v>
+        <v>2813</v>
       </c>
       <c r="B30" t="s">
+        <v>2810</v>
+      </c>
+      <c r="M30" t="s">
         <v>2814</v>
       </c>
-      <c r="M30" t="s">
-        <v>2818</v>
-      </c>
       <c r="O30" s="7" t="s">
-        <v>2819</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>2820</v>
+        <v>2816</v>
       </c>
       <c r="B31" t="s">
-        <v>2814</v>
+        <v>2810</v>
       </c>
       <c r="M31" t="s">
-        <v>2821</v>
+        <v>2817</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>2822</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" t="s">
-        <v>2823</v>
+        <v>2819</v>
       </c>
       <c r="B32" t="s">
-        <v>2814</v>
+        <v>2810</v>
       </c>
       <c r="M32" t="s">
-        <v>2824</v>
+        <v>2820</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>2825</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" t="s">
-        <v>2826</v>
+        <v>2822</v>
       </c>
       <c r="B33" t="s">
-        <v>2827</v>
+        <v>2823</v>
       </c>
       <c r="M33" t="s">
-        <v>2828</v>
+        <v>2824</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>2829</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" t="s">
-        <v>2830</v>
+        <v>2826</v>
       </c>
       <c r="B34" t="s">
-        <v>2831</v>
+        <v>2827</v>
       </c>
       <c r="M34" t="s">
-        <v>2832</v>
+        <v>2828</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>2832</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" t="s">
-        <v>2833</v>
+        <v>2829</v>
       </c>
       <c r="B35" t="s">
-        <v>2834</v>
+        <v>2830</v>
       </c>
       <c r="M35" t="s">
-        <v>2835</v>
+        <v>2831</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>2836</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" t="s">
-        <v>2837</v>
+        <v>2833</v>
       </c>
       <c r="B36" t="s">
-        <v>2838</v>
+        <v>2834</v>
       </c>
       <c r="M36" t="s">
-        <v>2839</v>
+        <v>2835</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>2829</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" t="s">
-        <v>2840</v>
+        <v>2836</v>
       </c>
       <c r="B37" t="s">
-        <v>2841</v>
+        <v>2837</v>
       </c>
       <c r="M37" t="s">
-        <v>2842</v>
+        <v>2838</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>2832</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" t="s">
-        <v>2843</v>
+        <v>2839</v>
       </c>
       <c r="B38" t="s">
-        <v>2770</v>
+        <v>2766</v>
       </c>
       <c r="M38" t="s">
-        <v>2771</v>
+        <v>2767</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>2772</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" t="s">
-        <v>2844</v>
+        <v>2840</v>
       </c>
       <c r="B39" t="s">
         <v>529</v>
@@ -14118,12 +14288,12 @@
         <v>530</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>2845</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="5" t="s">
-        <v>2846</v>
+        <v>2842</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>481</v>
@@ -14144,32 +14314,32 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" t="s">
-        <v>2847</v>
+        <v>2843</v>
       </c>
       <c r="B41" t="s">
-        <v>2848</v>
+        <v>2844</v>
       </c>
       <c r="M41" t="s">
-        <v>2849</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" t="s">
-        <v>2850</v>
+        <v>2846</v>
       </c>
       <c r="B42" t="s">
-        <v>2851</v>
+        <v>2847</v>
       </c>
       <c r="M42" t="s">
-        <v>2832</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="2" t="s">
-        <v>2852</v>
+        <v>2848</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>2732</v>
+        <v>2728</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -14182,19 +14352,19 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2" t="s">
-        <v>2853</v>
+        <v>2849</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="3" t="s">
-        <v>2854</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="2" t="s">
-        <v>2855</v>
+        <v>2851</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>2856</v>
+        <v>2852</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -14207,165 +14377,165 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2" t="s">
-        <v>2857</v>
+        <v>2853</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="3" t="s">
-        <v>2858</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" t="s">
-        <v>2859</v>
+        <v>2855</v>
       </c>
       <c r="B45" t="s">
-        <v>2860</v>
+        <v>2856</v>
       </c>
       <c r="M45" t="s">
-        <v>2861</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" t="s">
-        <v>2862</v>
+        <v>2858</v>
       </c>
       <c r="B46" t="s">
-        <v>2863</v>
+        <v>2859</v>
       </c>
       <c r="M46" t="s">
-        <v>2864</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" t="s">
-        <v>2865</v>
+        <v>2861</v>
       </c>
       <c r="B47" t="s">
-        <v>2814</v>
+        <v>2810</v>
       </c>
       <c r="M47" t="s">
-        <v>2765</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" t="s">
-        <v>2866</v>
+        <v>2862</v>
       </c>
       <c r="B48" t="s">
-        <v>2814</v>
+        <v>2810</v>
       </c>
       <c r="M48" t="s">
-        <v>2867</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>2868</v>
+        <v>2864</v>
       </c>
       <c r="B49" t="s">
-        <v>2869</v>
+        <v>2865</v>
       </c>
       <c r="M49" t="s">
-        <v>2870</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>2871</v>
+        <v>2867</v>
       </c>
       <c r="B50" t="s">
-        <v>2732</v>
+        <v>2728</v>
       </c>
       <c r="M50" t="s">
-        <v>2872</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>2873</v>
+        <v>2869</v>
       </c>
       <c r="B51" t="s">
-        <v>2874</v>
+        <v>2870</v>
       </c>
       <c r="M51" t="s">
-        <v>2875</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>2876</v>
+        <v>2872</v>
       </c>
       <c r="B52" t="s">
-        <v>2877</v>
+        <v>2873</v>
       </c>
       <c r="M52" t="s">
-        <v>2878</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>2879</v>
+        <v>2875</v>
       </c>
       <c r="B53" t="s">
-        <v>2880</v>
+        <v>2876</v>
       </c>
       <c r="M53" t="s">
-        <v>2881</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>2882</v>
+        <v>2878</v>
       </c>
       <c r="B54" t="s">
-        <v>2883</v>
+        <v>2879</v>
       </c>
       <c r="M54" t="s">
-        <v>2884</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>2885</v>
+        <v>2881</v>
       </c>
       <c r="B55" t="s">
-        <v>2886</v>
+        <v>2882</v>
       </c>
       <c r="M55" t="s">
-        <v>2887</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="33" t="s">
-        <v>3082</v>
+        <v>3078</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>3083</v>
+        <v>3079</v>
       </c>
       <c r="M56" s="33" t="s">
-        <v>3092</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="33" t="s">
-        <v>3120</v>
+        <v>3116</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>3121</v>
+        <v>3117</v>
       </c>
       <c r="M57" s="33" t="s">
-        <v>3122</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="39" t="s">
-        <v>3135</v>
+        <v>3131</v>
       </c>
       <c r="B58" s="39" t="s">
-        <v>3136</v>
+        <v>3132</v>
       </c>
       <c r="M58" s="39" t="s">
-        <v>3137</v>
+        <v>3133</v>
       </c>
     </row>
   </sheetData>
@@ -14440,240 +14610,240 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>2888</v>
+        <v>2884</v>
       </c>
       <c r="B2" t="s">
-        <v>2889</v>
+        <v>2885</v>
       </c>
       <c r="M2" t="s">
-        <v>2890</v>
+        <v>2886</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>2891</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>2892</v>
+        <v>2888</v>
       </c>
       <c r="B3" t="s">
-        <v>2893</v>
+        <v>2889</v>
       </c>
       <c r="M3" t="s">
-        <v>2894</v>
+        <v>2890</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>2895</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>2896</v>
+        <v>2892</v>
       </c>
       <c r="B4" t="s">
-        <v>2897</v>
+        <v>2893</v>
       </c>
       <c r="M4" t="s">
-        <v>2898</v>
+        <v>2894</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>2899</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>2900</v>
+        <v>2896</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>3318</v>
+        <v>3314</v>
       </c>
       <c r="M5" s="39" t="s">
-        <v>3319</v>
+        <v>3315</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>2901</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>2902</v>
+        <v>2898</v>
       </c>
       <c r="B6" t="s">
-        <v>2903</v>
+        <v>2899</v>
       </c>
       <c r="M6" t="s">
-        <v>2904</v>
+        <v>2900</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>2905</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>2906</v>
+        <v>2902</v>
       </c>
       <c r="B7" t="s">
-        <v>2907</v>
+        <v>2903</v>
       </c>
       <c r="M7" t="s">
-        <v>2908</v>
+        <v>2904</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>2909</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>2910</v>
+        <v>2906</v>
       </c>
       <c r="B8" t="s">
-        <v>2911</v>
+        <v>2907</v>
       </c>
       <c r="M8" t="s">
-        <v>2912</v>
+        <v>2908</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>2913</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>2914</v>
+        <v>2910</v>
       </c>
       <c r="B9" t="s">
-        <v>2915</v>
+        <v>2911</v>
       </c>
       <c r="M9" t="s">
-        <v>2916</v>
+        <v>2912</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>2917</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>2918</v>
+        <v>2914</v>
       </c>
       <c r="B10" t="s">
-        <v>2919</v>
+        <v>2915</v>
       </c>
       <c r="M10" t="s">
-        <v>2920</v>
+        <v>2916</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>2921</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>2922</v>
+        <v>2918</v>
       </c>
       <c r="B11" t="s">
-        <v>2923</v>
+        <v>2919</v>
       </c>
       <c r="M11" t="s">
-        <v>2924</v>
+        <v>2920</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>2925</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>2926</v>
+        <v>2922</v>
       </c>
       <c r="B12" t="s">
-        <v>2927</v>
+        <v>2923</v>
       </c>
       <c r="M12" t="s">
-        <v>2928</v>
+        <v>2924</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>2929</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>2930</v>
+        <v>2926</v>
       </c>
       <c r="B13" t="s">
-        <v>2931</v>
+        <v>2927</v>
       </c>
       <c r="M13" t="s">
-        <v>2932</v>
+        <v>2928</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>2933</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>2934</v>
+        <v>2930</v>
       </c>
       <c r="B14" t="s">
-        <v>2935</v>
+        <v>2931</v>
       </c>
       <c r="M14" t="s">
-        <v>2936</v>
+        <v>2932</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>2937</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>2938</v>
+        <v>2934</v>
       </c>
       <c r="B15" t="s">
-        <v>2939</v>
+        <v>2935</v>
       </c>
       <c r="M15" t="s">
-        <v>2940</v>
+        <v>2936</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>2941</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>2942</v>
+        <v>2938</v>
       </c>
       <c r="B16" t="s">
-        <v>2943</v>
+        <v>2939</v>
       </c>
       <c r="M16" t="s">
-        <v>2944</v>
+        <v>2940</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>2945</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>2946</v>
+        <v>2942</v>
       </c>
       <c r="B17" t="s">
-        <v>2947</v>
+        <v>2943</v>
       </c>
       <c r="M17" t="s">
-        <v>2948</v>
+        <v>2944</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>2949</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>2950</v>
+        <v>2946</v>
       </c>
       <c r="B18" t="s">
-        <v>2951</v>
+        <v>2947</v>
       </c>
       <c r="M18" t="s">
-        <v>2952</v>
+        <v>2948</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>2953</v>
+        <v>2949</v>
       </c>
     </row>
   </sheetData>
@@ -14686,7 +14856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818D007A-209A-4529-963D-B1FAA54B6953}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
@@ -14749,464 +14919,464 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="39" t="s">
-        <v>3213</v>
+        <v>3209</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>3213</v>
+        <v>3209</v>
       </c>
       <c r="M2" s="39" t="s">
-        <v>3214</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="39" t="s">
-        <v>3215</v>
+        <v>3211</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>3215</v>
+        <v>3211</v>
       </c>
       <c r="M3" s="39" t="s">
-        <v>3217</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="39" t="s">
-        <v>3216</v>
+        <v>3212</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>3216</v>
+        <v>3212</v>
       </c>
       <c r="M4" s="39" t="s">
-        <v>3218</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="39" t="s">
-        <v>3219</v>
+        <v>3215</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>3219</v>
+        <v>3215</v>
       </c>
       <c r="M5" s="39" t="s">
-        <v>3240</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="39" t="s">
-        <v>3220</v>
+        <v>3216</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>3220</v>
+        <v>3216</v>
       </c>
       <c r="M6" s="39" t="s">
-        <v>3221</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="39" t="s">
-        <v>3222</v>
+        <v>3218</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>3224</v>
+        <v>3220</v>
       </c>
       <c r="M7" s="39" t="s">
-        <v>3223</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="39" t="s">
-        <v>3225</v>
+        <v>3221</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>3225</v>
+        <v>3221</v>
       </c>
       <c r="M8" s="39" t="s">
-        <v>3226</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="39" t="s">
-        <v>3227</v>
+        <v>3223</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>3227</v>
+        <v>3223</v>
       </c>
       <c r="M9" s="39" t="s">
-        <v>3228</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="39" t="s">
-        <v>3229</v>
+        <v>3225</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>3229</v>
+        <v>3225</v>
       </c>
       <c r="M10" s="39" t="s">
-        <v>3230</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="39" t="s">
-        <v>3231</v>
+        <v>3227</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>3231</v>
+        <v>3227</v>
       </c>
       <c r="M11" s="39" t="s">
-        <v>3232</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="39" t="s">
-        <v>3233</v>
+        <v>3229</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>3233</v>
+        <v>3229</v>
       </c>
       <c r="M12" s="39" t="s">
-        <v>3234</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="39" t="s">
-        <v>3235</v>
+        <v>3231</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>3235</v>
+        <v>3231</v>
       </c>
       <c r="M13" s="39" t="s">
-        <v>3236</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="39" t="s">
-        <v>3237</v>
+        <v>3233</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>3238</v>
+        <v>3234</v>
       </c>
       <c r="M14" s="43" t="s">
-        <v>3239</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="39" t="s">
-        <v>3241</v>
+        <v>3237</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>3242</v>
+        <v>3238</v>
       </c>
       <c r="M15" s="39" t="s">
-        <v>3278</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="39" t="s">
-        <v>3244</v>
+        <v>3240</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>3245</v>
+        <v>3241</v>
       </c>
       <c r="M16" s="39" t="s">
-        <v>3243</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="39" t="s">
-        <v>3246</v>
+        <v>3242</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>3247</v>
+        <v>3243</v>
       </c>
       <c r="M17" s="39" t="s">
-        <v>3248</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="39" t="s">
-        <v>3249</v>
+        <v>3245</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>3250</v>
+        <v>3246</v>
       </c>
       <c r="M18" s="39" t="s">
-        <v>3251</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="39" t="s">
-        <v>3252</v>
+        <v>3248</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>3253</v>
+        <v>3249</v>
       </c>
       <c r="M19" s="39" t="s">
-        <v>3254</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="39" t="s">
-        <v>3255</v>
+        <v>3251</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>3256</v>
+        <v>3252</v>
       </c>
       <c r="M20" s="39" t="s">
-        <v>3257</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="39" t="s">
-        <v>3258</v>
+        <v>3254</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>3259</v>
+        <v>3255</v>
       </c>
       <c r="M21" s="39" t="s">
-        <v>3260</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="39" t="s">
-        <v>3261</v>
+        <v>3257</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>3262</v>
+        <v>3258</v>
       </c>
       <c r="M22" s="39" t="s">
-        <v>3263</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="39" t="s">
-        <v>3264</v>
+        <v>3260</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>3265</v>
+        <v>3261</v>
       </c>
       <c r="M23" s="39" t="s">
-        <v>3266</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="39" t="s">
-        <v>3267</v>
+        <v>3263</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>3268</v>
+        <v>3264</v>
       </c>
       <c r="M24" s="39" t="s">
-        <v>3269</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="39" t="s">
-        <v>3270</v>
+        <v>3266</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>3271</v>
+        <v>3267</v>
       </c>
       <c r="M25" s="39" t="s">
-        <v>3272</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="39" t="s">
-        <v>3273</v>
+        <v>3269</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>3274</v>
+        <v>3270</v>
       </c>
       <c r="M26" s="39" t="s">
-        <v>3275</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="39" t="s">
-        <v>3276</v>
+        <v>3272</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>3277</v>
+        <v>3273</v>
       </c>
       <c r="M27" s="39" t="s">
-        <v>3279</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="39" t="s">
-        <v>3280</v>
+        <v>3276</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>3281</v>
+        <v>3277</v>
       </c>
       <c r="M28" s="39" t="s">
-        <v>3282</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="39" t="s">
-        <v>3283</v>
+        <v>3279</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>3284</v>
+        <v>3280</v>
       </c>
       <c r="M29" s="39" t="s">
-        <v>3285</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="39" t="s">
-        <v>3286</v>
+        <v>3282</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>3287</v>
+        <v>3283</v>
       </c>
       <c r="M30" s="39" t="s">
-        <v>3288</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="39" t="s">
-        <v>3289</v>
+        <v>3285</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>3290</v>
+        <v>3286</v>
       </c>
       <c r="M31" s="39" t="s">
-        <v>3291</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="39" t="s">
-        <v>3292</v>
+        <v>3288</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>3293</v>
+        <v>3289</v>
       </c>
       <c r="M32" s="39" t="s">
-        <v>3294</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="39" t="s">
-        <v>3295</v>
+        <v>3291</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>3296</v>
+        <v>3292</v>
       </c>
       <c r="M33" s="39" t="s">
-        <v>3297</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="39" t="s">
-        <v>3298</v>
+        <v>3294</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>3299</v>
+        <v>3295</v>
       </c>
       <c r="M34" s="39" t="s">
-        <v>3300</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="39" t="s">
-        <v>3301</v>
+        <v>3297</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>3302</v>
+        <v>3298</v>
       </c>
       <c r="M35" s="39" t="s">
-        <v>3303</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="39" t="s">
-        <v>3304</v>
+        <v>3300</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>3305</v>
+        <v>3301</v>
       </c>
       <c r="M36" s="39" t="s">
-        <v>3306</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="39" t="s">
-        <v>3307</v>
+        <v>3303</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>3308</v>
+        <v>3304</v>
       </c>
       <c r="M37" s="39" t="s">
-        <v>3309</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="39" t="s">
-        <v>3310</v>
+        <v>3306</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>3310</v>
+        <v>3306</v>
       </c>
       <c r="M38" s="39" t="s">
-        <v>3311</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="39" t="s">
-        <v>3312</v>
+        <v>3308</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>3312</v>
+        <v>3308</v>
       </c>
       <c r="M39" s="39" t="s">
-        <v>3313</v>
+        <v>3309</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="39" t="s">
-        <v>3314</v>
+        <v>3310</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>3314</v>
+        <v>3310</v>
       </c>
       <c r="M40" s="39" t="s">
-        <v>3315</v>
+        <v>3311</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="39" t="s">
-        <v>3316</v>
+        <v>3312</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>3316</v>
+        <v>3312</v>
       </c>
       <c r="M41" t="s">
-        <v>3317</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="39" t="s">
-        <v>3360</v>
+        <v>3356</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>3360</v>
+        <v>3356</v>
       </c>
       <c r="M42" s="39" t="s">
-        <v>3361</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="39" t="s">
-        <v>3362</v>
+        <v>3358</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>3362</v>
+        <v>3358</v>
       </c>
       <c r="M43" s="39" t="s">
-        <v>3363</v>
+        <v>3359</v>
       </c>
     </row>
   </sheetData>
@@ -15282,108 +15452,108 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>2954</v>
+        <v>2950</v>
       </c>
       <c r="B2" t="s">
-        <v>2955</v>
+        <v>2951</v>
       </c>
       <c r="M2" t="s">
-        <v>2956</v>
+        <v>2952</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>2957</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>2958</v>
+        <v>2954</v>
       </c>
       <c r="B3" t="s">
-        <v>2959</v>
+        <v>2955</v>
       </c>
       <c r="M3" t="s">
-        <v>2960</v>
+        <v>2956</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>2961</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>2962</v>
+        <v>2958</v>
       </c>
       <c r="B4" t="s">
-        <v>2963</v>
+        <v>2959</v>
       </c>
       <c r="M4" t="s">
-        <v>2964</v>
+        <v>2960</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>2965</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>2966</v>
+        <v>2962</v>
       </c>
       <c r="B5" t="s">
-        <v>2967</v>
+        <v>2963</v>
       </c>
       <c r="M5" t="s">
-        <v>2968</v>
+        <v>2964</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>2969</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>2970</v>
+        <v>2966</v>
       </c>
       <c r="B6" t="s">
-        <v>2971</v>
+        <v>2967</v>
       </c>
       <c r="M6" t="s">
-        <v>2972</v>
+        <v>2968</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>2973</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>2974</v>
+        <v>2970</v>
       </c>
       <c r="B7" t="s">
-        <v>2975</v>
+        <v>2971</v>
       </c>
       <c r="M7" t="s">
-        <v>2976</v>
+        <v>2972</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>2977</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>2978</v>
+        <v>2974</v>
       </c>
       <c r="B8" t="s">
-        <v>2979</v>
+        <v>2975</v>
       </c>
       <c r="M8" t="s">
-        <v>2980</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>2981</v>
+        <v>2977</v>
       </c>
       <c r="B10" t="s">
-        <v>2982</v>
+        <v>2978</v>
       </c>
       <c r="M10" t="s">
-        <v>2983</v>
+        <v>2979</v>
       </c>
     </row>
   </sheetData>
@@ -15457,10 +15627,10 @@
     </row>
     <row r="2" spans="1:17" s="4" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>2984</v>
+        <v>2980</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>2985</v>
+        <v>2981</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -15473,17 +15643,17 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6" t="s">
-        <v>2985</v>
+        <v>2981</v>
       </c>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:17" s="4" customFormat="1">
       <c r="A3" s="5" t="s">
-        <v>2986</v>
+        <v>2982</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>2987</v>
+        <v>2983</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -15496,17 +15666,17 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6" t="s">
-        <v>2987</v>
+        <v>2983</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:17" s="4" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>2988</v>
+        <v>2984</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>2989</v>
+        <v>2985</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -15519,14 +15689,14 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6" t="s">
-        <v>2989</v>
+        <v>2985</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>2990</v>
+        <v>2986</v>
       </c>
       <c r="B5" t="s">
         <v>360</v>
@@ -15537,13 +15707,13 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>2991</v>
+        <v>2987</v>
       </c>
       <c r="B6" t="s">
-        <v>2992</v>
+        <v>2988</v>
       </c>
       <c r="M6" t="s">
-        <v>2992</v>
+        <v>2988</v>
       </c>
     </row>
   </sheetData>
@@ -15614,29 +15784,29 @@
     </row>
     <row r="2" spans="1:17">
       <c r="B2" t="s">
-        <v>3006</v>
+        <v>3002</v>
       </c>
       <c r="M2" t="s">
-        <v>3007</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="B3" t="s">
-        <v>3009</v>
+        <v>3005</v>
       </c>
       <c r="M3" t="s">
-        <v>3010</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>3008</v>
+        <v>3004</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>3333</v>
+        <v>3329</v>
       </c>
       <c r="M4" s="39" t="s">
-        <v>3334</v>
+        <v>3330</v>
       </c>
     </row>
   </sheetData>
@@ -15707,45 +15877,45 @@
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>2993</v>
+        <v>2989</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2994</v>
+        <v>2990</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>2995</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>2996</v>
+        <v>2992</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2192</v>
+        <v>2188</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>2193</v>
+        <v>2189</v>
       </c>
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:17" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>2997</v>
+        <v>2993</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2998</v>
+        <v>2994</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>2999</v>
+        <v>2995</v>
       </c>
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>3000</v>
+        <v>2996</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3001</v>
+        <v>2997</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -15758,18 +15928,18 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2" t="s">
-        <v>3002</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>3003</v>
+        <v>2999</v>
       </c>
       <c r="B6" t="s">
-        <v>3004</v>
+        <v>3000</v>
       </c>
       <c r="M6" t="s">
-        <v>3005</v>
+        <v>3001</v>
       </c>
     </row>
   </sheetData>
@@ -15783,7 +15953,7 @@
   <dimension ref="A1:Q901"/>
   <sheetViews>
     <sheetView topLeftCell="A74" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+      <selection activeCell="M94" sqref="M94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -17698,10 +17868,10 @@
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="2" t="s">
-        <v>3011</v>
+        <v>3007</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>3012</v>
+        <v>3008</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -17714,28 +17884,28 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2" t="s">
-        <v>3013</v>
+        <v>3009</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="3"/>
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="35" t="s">
-        <v>3030</v>
+        <v>3026</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>3031</v>
+        <v>3027</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>3032</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="17" t="s">
-        <v>3043</v>
+        <v>3039</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>3044</v>
+        <v>3040</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -17748,17 +17918,17 @@
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
       <c r="M82" s="37" t="s">
-        <v>3045</v>
+        <v>3041</v>
       </c>
       <c r="N82" s="6"/>
       <c r="O82" s="6"/>
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="17" t="s">
-        <v>3073</v>
+        <v>3069</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>3074</v>
+        <v>3070</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -17771,17 +17941,17 @@
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
       <c r="M83" s="5" t="s">
-        <v>3075</v>
+        <v>3071</v>
       </c>
       <c r="N83" s="6"/>
       <c r="O83" s="6"/>
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="17" t="s">
-        <v>3093</v>
+        <v>3089</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>3094</v>
+        <v>3090</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -17794,17 +17964,17 @@
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
       <c r="M84" s="5" t="s">
-        <v>3095</v>
+        <v>3091</v>
       </c>
       <c r="N84" s="6"/>
       <c r="O84" s="6"/>
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="15" t="s">
-        <v>3123</v>
+        <v>3119</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>3124</v>
+        <v>3120</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -17817,17 +17987,17 @@
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
       <c r="M85" s="37" t="s">
-        <v>3125</v>
+        <v>3121</v>
       </c>
       <c r="N85" s="6"/>
       <c r="O85" s="18"/>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="15" t="s">
-        <v>3171</v>
+        <v>3167</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>3172</v>
+        <v>3168</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
@@ -17840,17 +18010,17 @@
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
       <c r="M86" s="37" t="s">
-        <v>3173</v>
+        <v>3169</v>
       </c>
       <c r="N86" s="6"/>
       <c r="O86" s="18"/>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="15" t="s">
-        <v>3174</v>
+        <v>3170</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>3175</v>
+        <v>3171</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -17863,17 +18033,17 @@
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
       <c r="M87" s="5" t="s">
-        <v>3176</v>
+        <v>3172</v>
       </c>
       <c r="N87" s="6"/>
       <c r="O87" s="6"/>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="15" t="s">
-        <v>3183</v>
+        <v>3179</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>3184</v>
+        <v>3180</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -17886,17 +18056,17 @@
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
       <c r="M88" s="5" t="s">
-        <v>3185</v>
+        <v>3181</v>
       </c>
       <c r="N88" s="6"/>
       <c r="O88" s="6"/>
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="15" t="s">
-        <v>3320</v>
+        <v>3316</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>3321</v>
+        <v>3317</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -17909,14 +18079,18 @@
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
       <c r="M89" s="5" t="s">
-        <v>3322</v>
+        <v>3318</v>
       </c>
       <c r="N89" s="6"/>
       <c r="O89" s="6"/>
     </row>
     <row r="90" spans="1:15">
-      <c r="A90" s="15"/>
-      <c r="B90" s="15"/>
+      <c r="A90" s="15" t="s">
+        <v>3360</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>3361</v>
+      </c>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
@@ -17927,7 +18101,9 @@
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
       <c r="L90" s="6"/>
-      <c r="M90" s="6"/>
+      <c r="M90" s="5" t="s">
+        <v>3362</v>
+      </c>
       <c r="N90" s="6"/>
       <c r="O90" s="19"/>
     </row>
@@ -20211,8 +20387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q906"/>
   <sheetViews>
-    <sheetView topLeftCell="A278" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F366" sqref="F366"/>
+    <sheetView topLeftCell="A344" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B356" sqref="B356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -27078,25 +27254,25 @@
     </row>
     <row r="342" spans="1:15">
       <c r="A342" s="33" t="s">
-        <v>3028</v>
+        <v>3024</v>
       </c>
       <c r="B342" s="33" t="s">
-        <v>3014</v>
+        <v>3010</v>
       </c>
       <c r="M342" s="33" t="s">
-        <v>3015</v>
+        <v>3011</v>
       </c>
       <c r="O342" s="1"/>
     </row>
     <row r="343" spans="1:15">
       <c r="A343" s="33" t="s">
-        <v>3029</v>
+        <v>3025</v>
       </c>
       <c r="B343" s="33" t="s">
-        <v>3016</v>
+        <v>3012</v>
       </c>
       <c r="M343" s="33" t="s">
-        <v>3017</v>
+        <v>3013</v>
       </c>
       <c r="O343" s="1"/>
     </row>
@@ -27105,13 +27281,13 @@
     </row>
     <row r="345" spans="1:15">
       <c r="A345" s="33" t="s">
-        <v>3033</v>
+        <v>3029</v>
       </c>
       <c r="B345" s="33" t="s">
-        <v>3034</v>
+        <v>3030</v>
       </c>
       <c r="M345" s="33" t="s">
-        <v>3035</v>
+        <v>3031</v>
       </c>
       <c r="O345" s="1"/>
     </row>
@@ -27120,46 +27296,46 @@
     </row>
     <row r="347" spans="1:15">
       <c r="A347" s="33" t="s">
-        <v>3061</v>
+        <v>3057</v>
       </c>
       <c r="B347" s="33" t="s">
-        <v>3062</v>
+        <v>3058</v>
       </c>
       <c r="M347" s="33" t="s">
-        <v>3063</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="348" spans="1:15">
       <c r="A348" s="33" t="s">
-        <v>3111</v>
+        <v>3107</v>
       </c>
       <c r="B348" s="33" t="s">
-        <v>3112</v>
+        <v>3108</v>
       </c>
       <c r="M348" s="33" t="s">
-        <v>3113</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="350" spans="1:15">
       <c r="A350" s="33" t="s">
-        <v>3076</v>
+        <v>3072</v>
       </c>
       <c r="B350" s="33" t="s">
-        <v>3078</v>
+        <v>3074</v>
       </c>
       <c r="M350" s="33" t="s">
-        <v>3077</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="351" spans="1:15">
       <c r="A351" s="33" t="s">
-        <v>3079</v>
+        <v>3075</v>
       </c>
       <c r="B351" s="33" t="s">
-        <v>3080</v>
+        <v>3076</v>
       </c>
       <c r="M351" s="33" t="s">
-        <v>3081</v>
+        <v>3077</v>
       </c>
       <c r="O351" s="1"/>
     </row>
@@ -27168,36 +27344,36 @@
     </row>
     <row r="353" spans="1:15">
       <c r="A353" s="33" t="s">
-        <v>3096</v>
+        <v>3092</v>
       </c>
       <c r="B353" s="33" t="s">
-        <v>3097</v>
+        <v>3093</v>
       </c>
       <c r="M353" s="33" t="s">
-        <v>3098</v>
+        <v>3094</v>
       </c>
       <c r="O353" s="1"/>
     </row>
     <row r="354" spans="1:15">
       <c r="A354" s="33" t="s">
-        <v>3114</v>
+        <v>3110</v>
       </c>
       <c r="B354" s="33" t="s">
-        <v>3115</v>
+        <v>3111</v>
       </c>
       <c r="M354" s="33" t="s">
-        <v>3116</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="355" spans="1:15">
       <c r="A355" s="33" t="s">
-        <v>3117</v>
+        <v>3113</v>
       </c>
       <c r="B355" s="33" t="s">
-        <v>3118</v>
+        <v>3114</v>
       </c>
       <c r="M355" s="33" t="s">
-        <v>3119</v>
+        <v>3115</v>
       </c>
       <c r="O355" s="1"/>
     </row>
@@ -27206,81 +27382,108 @@
     </row>
     <row r="357" spans="1:15">
       <c r="A357" s="39" t="s">
-        <v>3126</v>
+        <v>3122</v>
       </c>
       <c r="B357" s="39" t="s">
-        <v>3127</v>
+        <v>3123</v>
       </c>
       <c r="M357" s="39" t="s">
-        <v>3128</v>
+        <v>3124</v>
       </c>
       <c r="O357" s="1"/>
     </row>
     <row r="359" spans="1:15">
       <c r="A359" s="39" t="s">
-        <v>3177</v>
+        <v>3173</v>
       </c>
       <c r="B359" s="39" t="s">
-        <v>3178</v>
+        <v>3174</v>
       </c>
       <c r="M359" s="39" t="s">
-        <v>3179</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="360" spans="1:15">
       <c r="A360" s="39" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
       <c r="B360" s="39" t="s">
-        <v>3181</v>
+        <v>3177</v>
       </c>
       <c r="M360" s="39" t="s">
-        <v>3182</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="361" spans="1:15">
       <c r="A361" s="39" t="s">
-        <v>3186</v>
+        <v>3182</v>
       </c>
       <c r="B361" s="39" t="s">
-        <v>3187</v>
+        <v>3183</v>
       </c>
       <c r="M361" s="39" t="s">
-        <v>3188</v>
+        <v>3184</v>
       </c>
       <c r="O361" s="1"/>
     </row>
     <row r="362" spans="1:15">
       <c r="A362" s="39" t="s">
-        <v>3189</v>
+        <v>3185</v>
       </c>
       <c r="B362" s="39" t="s">
-        <v>3190</v>
+        <v>3186</v>
       </c>
       <c r="M362" s="39" t="s">
-        <v>3191</v>
+        <v>3187</v>
       </c>
       <c r="O362" s="1"/>
     </row>
     <row r="363" spans="1:15">
       <c r="A363" s="39" t="s">
-        <v>3323</v>
+        <v>3319</v>
       </c>
       <c r="B363" s="39" t="s">
-        <v>3324</v>
+        <v>3320</v>
       </c>
       <c r="M363" s="39" t="s">
-        <v>3325</v>
+        <v>3321</v>
       </c>
       <c r="O363" s="1"/>
     </row>
     <row r="365" spans="1:15">
+      <c r="A365" s="39" t="s">
+        <v>3363</v>
+      </c>
+      <c r="B365" s="39" t="s">
+        <v>3381</v>
+      </c>
+      <c r="M365" s="39" t="s">
+        <v>3365</v>
+      </c>
       <c r="O365" s="1"/>
     </row>
     <row r="366" spans="1:15">
+      <c r="A366" s="39" t="s">
+        <v>3364</v>
+      </c>
+      <c r="B366" s="39" t="s">
+        <v>3382</v>
+      </c>
+      <c r="M366" s="39" t="s">
+        <v>3366</v>
+      </c>
       <c r="O366" s="1"/>
     </row>
     <row r="367" spans="1:15">
+      <c r="A367" s="39" t="s">
+        <v>3367</v>
+      </c>
+      <c r="B367" s="39" t="s">
+        <v>3383</v>
+      </c>
+      <c r="M367" s="39" t="s">
+        <v>3368</v>
+      </c>
       <c r="O367" s="1"/>
     </row>
     <row r="368" spans="1:15">
@@ -28812,7 +29015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q897"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -29083,7 +29286,7 @@
     </row>
     <row r="18" spans="1:15" s="2" customFormat="1">
       <c r="A18" s="41" t="s">
-        <v>3335</v>
+        <v>3331</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>1669</v>
@@ -30075,10 +30278,10 @@
     </row>
     <row r="94" spans="1:15" s="4" customFormat="1">
       <c r="A94" s="5" t="s">
-        <v>3099</v>
+        <v>3095</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>3100</v>
+        <v>3096</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -30091,17 +30294,17 @@
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
       <c r="M94" s="5" t="s">
-        <v>3101</v>
+        <v>3097</v>
       </c>
       <c r="N94" s="6"/>
       <c r="O94" s="6"/>
     </row>
     <row r="95" spans="1:15" s="4" customFormat="1">
       <c r="A95" s="40" t="s">
-        <v>3138</v>
+        <v>3134</v>
       </c>
       <c r="B95" s="40" t="s">
-        <v>3139</v>
+        <v>3135</v>
       </c>
       <c r="C95" s="40"/>
       <c r="D95" s="40"/>
@@ -30114,17 +30317,17 @@
       <c r="K95" s="40"/>
       <c r="L95" s="40"/>
       <c r="M95" s="40" t="s">
-        <v>3140</v>
+        <v>3136</v>
       </c>
       <c r="N95" s="40"/>
       <c r="O95" s="40"/>
     </row>
     <row r="96" spans="1:15" s="4" customFormat="1">
       <c r="A96" s="40" t="s">
-        <v>3141</v>
+        <v>3137</v>
       </c>
       <c r="B96" s="40" t="s">
-        <v>3142</v>
+        <v>3138</v>
       </c>
       <c r="C96" s="40"/>
       <c r="D96" s="40"/>
@@ -30137,17 +30340,17 @@
       <c r="K96" s="40"/>
       <c r="L96" s="40"/>
       <c r="M96" s="40" t="s">
-        <v>3143</v>
+        <v>3139</v>
       </c>
       <c r="N96" s="40"/>
       <c r="O96" s="40"/>
     </row>
     <row r="97" spans="1:15" s="4" customFormat="1">
       <c r="A97" s="40" t="s">
-        <v>3144</v>
+        <v>3140</v>
       </c>
       <c r="B97" s="40" t="s">
-        <v>3145</v>
+        <v>3141</v>
       </c>
       <c r="C97" s="40"/>
       <c r="D97" s="40"/>
@@ -30160,17 +30363,17 @@
       <c r="K97" s="40"/>
       <c r="L97" s="40"/>
       <c r="M97" s="40" t="s">
-        <v>3146</v>
+        <v>3142</v>
       </c>
       <c r="N97" s="40"/>
       <c r="O97" s="40"/>
     </row>
     <row r="98" spans="1:15" s="4" customFormat="1">
       <c r="A98" s="40" t="s">
-        <v>3147</v>
+        <v>3143</v>
       </c>
       <c r="B98" s="40" t="s">
-        <v>3148</v>
+        <v>3144</v>
       </c>
       <c r="C98" s="40"/>
       <c r="D98" s="40"/>
@@ -30183,7 +30386,7 @@
       <c r="K98" s="40"/>
       <c r="L98" s="40"/>
       <c r="M98" s="40" t="s">
-        <v>3149</v>
+        <v>3145</v>
       </c>
       <c r="N98" s="40"/>
       <c r="O98" s="40"/>
@@ -30193,25 +30396,25 @@
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="40" t="s">
-        <v>3150</v>
+        <v>3146</v>
       </c>
       <c r="B100" s="40" t="s">
-        <v>3151</v>
+        <v>3147</v>
       </c>
       <c r="M100" s="40" t="s">
-        <v>3152</v>
+        <v>3148</v>
       </c>
       <c r="O100" s="1"/>
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="40" t="s">
-        <v>3153</v>
+        <v>3149</v>
       </c>
       <c r="B101" s="40" t="s">
-        <v>3154</v>
+        <v>3150</v>
       </c>
       <c r="M101" s="40" t="s">
-        <v>3155</v>
+        <v>3151</v>
       </c>
       <c r="O101" s="1"/>
     </row>
@@ -30220,129 +30423,129 @@
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="40" t="s">
-        <v>3156</v>
+        <v>3152</v>
       </c>
       <c r="B103" s="40" t="s">
-        <v>3157</v>
+        <v>3153</v>
       </c>
       <c r="M103" s="40" t="s">
-        <v>3158</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="40" t="s">
-        <v>3168</v>
+        <v>3164</v>
       </c>
       <c r="B104" s="40" t="s">
-        <v>3169</v>
+        <v>3165</v>
       </c>
       <c r="M104" s="40" t="s">
-        <v>3170</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="40" t="s">
-        <v>3159</v>
+        <v>3155</v>
       </c>
       <c r="B105" s="40" t="s">
-        <v>3160</v>
+        <v>3156</v>
       </c>
       <c r="M105" s="40" t="s">
-        <v>3161</v>
+        <v>3157</v>
       </c>
       <c r="O105" s="1"/>
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="40" t="s">
-        <v>3162</v>
+        <v>3158</v>
       </c>
       <c r="B106" s="40" t="s">
-        <v>3163</v>
+        <v>3159</v>
       </c>
       <c r="M106" s="40" t="s">
-        <v>3164</v>
+        <v>3160</v>
       </c>
       <c r="O106" s="1"/>
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="40" t="s">
-        <v>3165</v>
+        <v>3161</v>
       </c>
       <c r="B107" s="40" t="s">
-        <v>3166</v>
+        <v>3162</v>
       </c>
       <c r="M107" s="40" t="s">
-        <v>3167</v>
+        <v>3163</v>
       </c>
       <c r="O107" s="1"/>
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="40" t="s">
-        <v>3336</v>
+        <v>3332</v>
       </c>
       <c r="B109" s="40" t="s">
-        <v>3342</v>
+        <v>3338</v>
       </c>
       <c r="M109" s="40" t="s">
-        <v>3349</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="110" spans="1:15">
       <c r="A110" s="40" t="s">
-        <v>3337</v>
+        <v>3333</v>
       </c>
       <c r="B110" s="40" t="s">
-        <v>3343</v>
+        <v>3339</v>
       </c>
       <c r="M110" s="40" t="s">
-        <v>3350</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="40" t="s">
-        <v>3338</v>
+        <v>3334</v>
       </c>
       <c r="B111" s="40" t="s">
-        <v>3344</v>
+        <v>3340</v>
       </c>
       <c r="M111" s="40" t="s">
-        <v>3351</v>
+        <v>3347</v>
       </c>
       <c r="O111" s="1"/>
     </row>
     <row r="112" spans="1:15">
       <c r="A112" s="40" t="s">
-        <v>3339</v>
+        <v>3335</v>
       </c>
       <c r="B112" s="40" t="s">
-        <v>3345</v>
+        <v>3341</v>
       </c>
       <c r="M112" s="40" t="s">
-        <v>3352</v>
+        <v>3348</v>
       </c>
       <c r="O112" s="1"/>
     </row>
     <row r="113" spans="1:15">
       <c r="A113" s="40" t="s">
-        <v>3340</v>
+        <v>3336</v>
       </c>
       <c r="B113" s="40" t="s">
-        <v>3346</v>
+        <v>3342</v>
       </c>
       <c r="M113" s="40" t="s">
-        <v>3353</v>
+        <v>3349</v>
       </c>
       <c r="O113" s="1"/>
     </row>
     <row r="114" spans="1:15">
       <c r="A114" s="40" t="s">
-        <v>3341</v>
+        <v>3337</v>
       </c>
       <c r="B114" s="40" t="s">
-        <v>3347</v>
+        <v>3343</v>
       </c>
       <c r="M114" s="39" t="s">
-        <v>3348</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="115" spans="1:15">
@@ -32377,8 +32580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q904"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" topLeftCell="G70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N83" sqref="N83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -32805,17 +33008,17 @@
       </c>
     </row>
     <row r="23" spans="1:15" s="2" customFormat="1">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="41" t="s">
+        <v>3387</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>1934</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="M23" s="41" t="s">
+        <v>3386</v>
+      </c>
+      <c r="O23" s="3" t="s">
         <v>1935</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>1936</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>1937</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -32823,13 +33026,13 @@
     </row>
     <row r="25" spans="1:15" s="2" customFormat="1">
       <c r="A25" s="2" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1937</v>
+      </c>
+      <c r="M25" s="2" t="s">
         <v>1938</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>1939</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>1940</v>
       </c>
       <c r="O25" s="3" t="s">
         <v>1906</v>
@@ -32840,27 +33043,27 @@
     </row>
     <row r="27" spans="1:15" s="2" customFormat="1">
       <c r="A27" s="2" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1940</v>
+      </c>
+      <c r="M27" s="2" t="s">
         <v>1941</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="O27" s="3" t="s">
         <v>1942</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>1943</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>1944</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="2" customFormat="1">
       <c r="A29" s="2" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1944</v>
+      </c>
+      <c r="M29" s="2" t="s">
         <v>1945</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>1946</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>1947</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -32868,72 +33071,72 @@
     </row>
     <row r="31" spans="1:15" s="2" customFormat="1">
       <c r="A31" s="2" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>21</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="33" spans="1:15" s="2" customFormat="1">
       <c r="A33" s="2" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>1950</v>
+      </c>
+      <c r="M33" s="2" t="s">
         <v>1951</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="O33" s="3" t="s">
         <v>1952</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>1953</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>1954</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="2" customFormat="1">
       <c r="A34" s="2" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>1954</v>
+      </c>
+      <c r="M34" s="2" t="s">
         <v>1955</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="O34" s="3" t="s">
         <v>1956</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>1957</v>
-      </c>
-      <c r="O34" s="3" t="s">
-        <v>1958</v>
       </c>
     </row>
     <row r="35" spans="1:15" s="2" customFormat="1">
       <c r="A35" s="2" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>1958</v>
+      </c>
+      <c r="M35" s="2" t="s">
         <v>1959</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="O35" s="3" t="s">
         <v>1960</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>1961</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>1962</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="2" customFormat="1">
       <c r="A36" s="2" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>1962</v>
+      </c>
+      <c r="M36" s="2" t="s">
         <v>1963</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="O36" s="3" t="s">
         <v>1964</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>1965</v>
-      </c>
-      <c r="O36" s="3" t="s">
-        <v>1966</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -32941,38 +33144,38 @@
     </row>
     <row r="38" spans="1:15" s="2" customFormat="1">
       <c r="A38" s="2" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>1966</v>
+      </c>
+      <c r="M38" s="2" t="s">
         <v>1967</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="O38" s="3" t="s">
         <v>1968</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>1969</v>
-      </c>
-      <c r="O38" s="3" t="s">
-        <v>1970</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="2" customFormat="1">
       <c r="A39" s="2" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>174</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="40" spans="1:15" s="2" customFormat="1">
       <c r="A40" s="2" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>174</v>
@@ -32983,21 +33186,21 @@
     </row>
     <row r="41" spans="1:15" s="2" customFormat="1">
       <c r="A41" s="2" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>21</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="2" customFormat="1">
       <c r="A43" s="2" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>152</v>
@@ -33006,7 +33209,7 @@
         <v>153</v>
       </c>
       <c r="O43" s="21" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -33014,7 +33217,7 @@
     </row>
     <row r="45" spans="1:15" s="2" customFormat="1">
       <c r="A45" s="2" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>140</v>
@@ -33028,16 +33231,16 @@
     </row>
     <row r="46" spans="1:15" s="2" customFormat="1">
       <c r="A46" s="2" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>1981</v>
+      </c>
+      <c r="M46" s="2" t="s">
         <v>1982</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="O46" s="21" t="s">
         <v>1983</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>1984</v>
-      </c>
-      <c r="O46" s="21" t="s">
-        <v>1985</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -33045,7 +33248,7 @@
     </row>
     <row r="48" spans="1:15" s="2" customFormat="1">
       <c r="A48" s="2" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>552</v>
@@ -33059,21 +33262,21 @@
     </row>
     <row r="49" spans="1:15" s="2" customFormat="1">
       <c r="A49" s="2" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>1986</v>
+      </c>
+      <c r="M49" s="2" t="s">
         <v>1987</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="O49" s="21" t="s">
         <v>1988</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>1989</v>
-      </c>
-      <c r="O49" s="21" t="s">
-        <v>1990</v>
       </c>
     </row>
     <row r="50" spans="1:15" s="2" customFormat="1">
       <c r="A50" s="2" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>548</v>
@@ -33087,58 +33290,58 @@
     </row>
     <row r="51" spans="1:15" s="2" customFormat="1">
       <c r="A51" s="2" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>1991</v>
+      </c>
+      <c r="M51" s="2" t="s">
         <v>1992</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="O51" s="21" t="s">
         <v>1993</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>1994</v>
-      </c>
-      <c r="O51" s="21" t="s">
-        <v>1995</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="2" customFormat="1">
       <c r="A52" s="2" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>1995</v>
+      </c>
+      <c r="M52" s="2" t="s">
         <v>1996</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="O52" s="21" t="s">
         <v>1997</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>1998</v>
-      </c>
-      <c r="O52" s="21" t="s">
-        <v>1999</v>
       </c>
     </row>
     <row r="53" spans="1:15" s="2" customFormat="1">
       <c r="A53" s="2" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>1999</v>
+      </c>
+      <c r="M53" s="2" t="s">
         <v>2000</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="O53" s="21" t="s">
         <v>2001</v>
       </c>
-      <c r="M53" s="2" t="s">
+    </row>
+    <row r="54" spans="1:15" s="2" customFormat="1">
+      <c r="A54" s="41" t="s">
+        <v>3385</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>2002</v>
       </c>
-      <c r="O53" s="21" t="s">
+      <c r="M54" s="41" t="s">
+        <v>3384</v>
+      </c>
+      <c r="O54" s="21" t="s">
         <v>2003</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" s="2" customFormat="1">
-      <c r="A54" s="2" t="s">
-        <v>2004</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>2005</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>2006</v>
-      </c>
-      <c r="O54" s="21" t="s">
-        <v>2007</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -33146,37 +33349,37 @@
     </row>
     <row r="56" spans="1:15">
       <c r="A56" t="s">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="B56" t="s">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="M56" t="s">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="O56" s="1"/>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" t="s">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="B57" t="s">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="M57" t="s">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="O57" s="1"/>
     </row>
     <row r="59" spans="1:15" s="2" customFormat="1">
       <c r="A59" s="2" t="s">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>314</v>
@@ -33184,13 +33387,13 @@
     </row>
     <row r="60" spans="1:15" s="2" customFormat="1">
       <c r="A60" s="2" t="s">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>318</v>
@@ -33198,13 +33401,13 @@
     </row>
     <row r="61" spans="1:15" s="2" customFormat="1">
       <c r="A61" s="2" t="s">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="O61" s="3" t="s">
         <v>322</v>
@@ -33215,42 +33418,42 @@
     </row>
     <row r="63" spans="1:15">
       <c r="A63" t="s">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="B63" t="s">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="M63" t="s">
-        <v>2021</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" t="s">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B64" t="s">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="M64" t="s">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="O64" s="1"/>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" t="s">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="B65" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="M65" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="O65" s="1"/>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" t="s">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>1905</v>
@@ -33285,10 +33488,10 @@
     </row>
     <row r="69" spans="1:15">
       <c r="A69" t="s">
-        <v>2026</v>
+        <v>2022</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>2027</v>
+        <v>2023</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -33301,54 +33504,54 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
       <c r="M69" s="2" t="s">
-        <v>2028</v>
+        <v>2024</v>
       </c>
       <c r="O69" s="1"/>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" t="s">
-        <v>2029</v>
+        <v>2025</v>
       </c>
       <c r="B70" t="s">
-        <v>2030</v>
+        <v>2026</v>
       </c>
       <c r="M70" t="s">
-        <v>2031</v>
+        <v>2027</v>
       </c>
       <c r="O70" s="1"/>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" t="s">
-        <v>2032</v>
+        <v>2028</v>
       </c>
       <c r="B71" t="s">
-        <v>2033</v>
+        <v>2029</v>
       </c>
       <c r="M71" t="s">
-        <v>2034</v>
+        <v>2030</v>
       </c>
       <c r="O71" s="1"/>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" t="s">
-        <v>2035</v>
+        <v>2031</v>
       </c>
       <c r="B72" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="M72" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" t="s">
-        <v>2038</v>
+        <v>2034</v>
       </c>
       <c r="B73" t="s">
-        <v>2039</v>
+        <v>2035</v>
       </c>
       <c r="M73" t="s">
-        <v>2040</v>
+        <v>2036</v>
       </c>
       <c r="O73" s="1"/>
     </row>
@@ -33357,34 +33560,34 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="33" t="s">
-        <v>3046</v>
+        <v>3042</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>3047</v>
+        <v>3043</v>
       </c>
       <c r="M75" s="33" t="s">
-        <v>3048</v>
+        <v>3044</v>
       </c>
       <c r="O75" s="1"/>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="33" t="s">
-        <v>3049</v>
+        <v>3045</v>
       </c>
       <c r="B76" s="33" t="s">
-        <v>3059</v>
+        <v>3055</v>
       </c>
       <c r="M76" s="33" t="s">
-        <v>3060</v>
+        <v>3056</v>
       </c>
       <c r="O76" s="1"/>
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="35" t="s">
-        <v>3064</v>
+        <v>3060</v>
       </c>
       <c r="B77" s="35" t="s">
-        <v>3065</v>
+        <v>3061</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -33397,17 +33600,17 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="35" t="s">
-        <v>3066</v>
+        <v>3062</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="3"/>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="35" t="s">
-        <v>3067</v>
+        <v>3063</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>3068</v>
+        <v>3064</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -33420,17 +33623,17 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
       <c r="M78" s="35" t="s">
-        <v>3069</v>
+        <v>3065</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="3"/>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="35" t="s">
-        <v>3070</v>
+        <v>3066</v>
       </c>
       <c r="B79" s="35" t="s">
-        <v>3071</v>
+        <v>3067</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -33443,7 +33646,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
       <c r="M79" s="35" t="s">
-        <v>3072</v>
+        <v>3068</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="3"/>
@@ -33466,8 +33669,12 @@
       <c r="O80" s="12"/>
     </row>
     <row r="81" spans="1:15">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
+      <c r="A81" s="2" t="s">
+        <v>3369</v>
+      </c>
+      <c r="B81" s="41" t="s">
+        <v>3388</v>
+      </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -33478,13 +33685,19 @@
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
+      <c r="M81" s="41" t="s">
+        <v>3392</v>
+      </c>
       <c r="N81" s="2"/>
       <c r="O81" s="3"/>
     </row>
     <row r="82" spans="1:15">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
+      <c r="A82" s="2" t="s">
+        <v>3370</v>
+      </c>
+      <c r="B82" s="41" t="s">
+        <v>3390</v>
+      </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -33495,13 +33708,19 @@
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
+      <c r="M82" s="41" t="s">
+        <v>3393</v>
+      </c>
       <c r="N82" s="2"/>
       <c r="O82" s="3"/>
     </row>
     <row r="83" spans="1:15">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
+      <c r="A83" s="2" t="s">
+        <v>3371</v>
+      </c>
+      <c r="B83" s="41" t="s">
+        <v>3389</v>
+      </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -33512,9 +33731,22 @@
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
+      <c r="M83" s="41" t="s">
+        <v>3394</v>
+      </c>
       <c r="N83" s="2"/>
       <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" s="2" t="s">
+        <v>3372</v>
+      </c>
+      <c r="B84" s="41" t="s">
+        <v>3391</v>
+      </c>
+      <c r="M84" s="41" t="s">
+        <v>3373</v>
+      </c>
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="15"/>
@@ -35949,8 +36181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q896"/>
   <sheetViews>
-    <sheetView topLeftCell="B58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M83" sqref="M83"/>
+    <sheetView topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L79" sqref="L79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -36013,10 +36245,10 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>2041</v>
+        <v>2037</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2042</v>
+        <v>2038</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -36029,34 +36261,34 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>2043</v>
+        <v>2039</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="3" t="s">
-        <v>2044</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>2045</v>
+        <v>2041</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2046</v>
+        <v>2042</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>2047</v>
+        <v>2043</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="3" t="s">
-        <v>2048</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2050</v>
+        <v>2046</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -36069,19 +36301,19 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2" t="s">
-        <v>2051</v>
+        <v>2047</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="3" t="s">
-        <v>2052</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
-        <v>2053</v>
+        <v>2049</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2054</v>
+        <v>2050</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -36094,19 +36326,19 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2" t="s">
-        <v>2055</v>
+        <v>2051</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="3" t="s">
-        <v>2056</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
-        <v>2057</v>
+        <v>2053</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -36119,19 +36351,19 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
-        <v>2059</v>
+        <v>2055</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="3" t="s">
-        <v>2060</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2" t="s">
-        <v>2061</v>
+        <v>2057</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>2062</v>
+        <v>2058</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -36144,19 +36376,19 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
-        <v>2063</v>
+        <v>2059</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="3" t="s">
-        <v>2064</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2" t="s">
-        <v>2065</v>
+        <v>2061</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>2066</v>
+        <v>2062</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -36169,19 +36401,19 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2" t="s">
-        <v>2067</v>
+        <v>2063</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="3" t="s">
-        <v>2068</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="15" t="s">
-        <v>2069</v>
+        <v>2065</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>2070</v>
+        <v>2066</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -36194,19 +36426,19 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6" t="s">
-        <v>2072</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2" t="s">
-        <v>2073</v>
+        <v>2069</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2074</v>
+        <v>2070</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -36219,19 +36451,19 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2" t="s">
-        <v>2075</v>
+        <v>2071</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="3" t="s">
-        <v>2076</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2" t="s">
-        <v>2077</v>
+        <v>2073</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>2078</v>
+        <v>2074</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -36244,19 +36476,19 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2" t="s">
-        <v>2079</v>
+        <v>2075</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="3" t="s">
-        <v>2080</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2" t="s">
-        <v>2081</v>
+        <v>2077</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>2082</v>
+        <v>2078</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -36269,19 +36501,19 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2" t="s">
-        <v>2083</v>
+        <v>2079</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="3" t="s">
-        <v>2084</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2" t="s">
-        <v>2085</v>
+        <v>2081</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>2086</v>
+        <v>2082</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -36294,19 +36526,19 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2" t="s">
-        <v>2087</v>
+        <v>2083</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="3" t="s">
-        <v>2088</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2" t="s">
-        <v>2089</v>
+        <v>2085</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>2090</v>
+        <v>2086</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -36319,19 +36551,19 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
-        <v>2091</v>
+        <v>2087</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="3" t="s">
-        <v>2092</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2" t="s">
-        <v>2093</v>
+        <v>2089</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2094</v>
+        <v>2090</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -36344,19 +36576,19 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
-        <v>2095</v>
+        <v>2091</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="3" t="s">
-        <v>2096</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2" t="s">
-        <v>2097</v>
+        <v>2093</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>2098</v>
+        <v>2094</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -36369,19 +36601,19 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2" t="s">
-        <v>2099</v>
+        <v>2095</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="3" t="s">
-        <v>2100</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="2" t="s">
-        <v>2101</v>
+        <v>2097</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>2098</v>
+        <v>2094</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -36394,19 +36626,19 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2" t="s">
-        <v>2099</v>
+        <v>2095</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="3" t="s">
-        <v>2100</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="2" t="s">
-        <v>2102</v>
+        <v>2098</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>2103</v>
+        <v>2099</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -36419,19 +36651,19 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2" t="s">
-        <v>2104</v>
+        <v>2100</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="3" t="s">
-        <v>2105</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="2" t="s">
-        <v>2106</v>
+        <v>2102</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>2107</v>
+        <v>2103</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -36444,19 +36676,19 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2" t="s">
-        <v>2108</v>
+        <v>2104</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="3" t="s">
-        <v>2109</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
-        <v>2110</v>
+        <v>2106</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>2111</v>
+        <v>2107</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -36469,7 +36701,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2" t="s">
-        <v>2112</v>
+        <v>2108</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="3" t="s">
@@ -36478,10 +36710,10 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="2" t="s">
-        <v>2113</v>
+        <v>2109</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>2114</v>
+        <v>2110</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -36494,19 +36726,19 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2" t="s">
-        <v>2115</v>
+        <v>2111</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="3" t="s">
-        <v>2116</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="2" t="s">
-        <v>2117</v>
+        <v>2113</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>2118</v>
+        <v>2114</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -36519,19 +36751,19 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2" t="s">
-        <v>2119</v>
+        <v>2115</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="3" t="s">
-        <v>2120</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="2" t="s">
-        <v>2121</v>
+        <v>2117</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>2118</v>
+        <v>2114</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -36544,19 +36776,19 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2" t="s">
-        <v>2122</v>
+        <v>2118</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="3" t="s">
-        <v>2120</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="2" t="s">
-        <v>2123</v>
+        <v>2119</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>2124</v>
+        <v>2120</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -36569,19 +36801,19 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2" t="s">
-        <v>2125</v>
+        <v>2121</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="3" t="s">
-        <v>2126</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="2" t="s">
-        <v>2127</v>
+        <v>2123</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>2128</v>
+        <v>2124</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -36594,19 +36826,19 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2" t="s">
-        <v>2129</v>
+        <v>2125</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="3" t="s">
-        <v>2130</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="2" t="s">
-        <v>2131</v>
+        <v>2127</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>2132</v>
+        <v>2128</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -36619,19 +36851,19 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2" t="s">
-        <v>2133</v>
+        <v>2129</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="3" t="s">
-        <v>2134</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="2" t="s">
-        <v>2135</v>
+        <v>2131</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>2136</v>
+        <v>2132</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -36644,19 +36876,19 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2" t="s">
-        <v>2137</v>
+        <v>2133</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="3" t="s">
-        <v>2138</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="2" t="s">
-        <v>2139</v>
+        <v>2135</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>2140</v>
+        <v>2136</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -36669,19 +36901,19 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2" t="s">
-        <v>2141</v>
+        <v>2137</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="3" t="s">
-        <v>2142</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="2" t="s">
-        <v>2143</v>
+        <v>2139</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>2144</v>
+        <v>2140</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -36694,19 +36926,19 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2" t="s">
-        <v>2145</v>
+        <v>2141</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="3" t="s">
-        <v>2146</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="2" t="s">
-        <v>2147</v>
+        <v>2143</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>2148</v>
+        <v>2144</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -36719,19 +36951,19 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2" t="s">
-        <v>2149</v>
+        <v>2145</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="3" t="s">
-        <v>2150</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="2" t="s">
-        <v>2151</v>
+        <v>2147</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>2152</v>
+        <v>2148</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -36744,19 +36976,19 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2" t="s">
-        <v>2153</v>
+        <v>2149</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="3" t="s">
-        <v>2154</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="2" t="s">
-        <v>2155</v>
+        <v>2151</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>2156</v>
+        <v>2152</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -36769,19 +37001,19 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2" t="s">
-        <v>2157</v>
+        <v>2153</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="3" t="s">
-        <v>2158</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="2" t="s">
-        <v>2159</v>
+        <v>2155</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>2160</v>
+        <v>2156</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -36794,19 +37026,19 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2" t="s">
-        <v>2161</v>
+        <v>2157</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="3" t="s">
-        <v>2162</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="2" t="s">
-        <v>2163</v>
+        <v>2159</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>2164</v>
+        <v>2160</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -36819,19 +37051,19 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2" t="s">
-        <v>2165</v>
+        <v>2161</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="3" t="s">
-        <v>2166</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="2" t="s">
-        <v>2167</v>
+        <v>2163</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>2168</v>
+        <v>2164</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -36844,19 +37076,19 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2" t="s">
-        <v>2169</v>
+        <v>2165</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="3" t="s">
-        <v>2170</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="2" t="s">
-        <v>2171</v>
+        <v>2167</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>2172</v>
+        <v>2168</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -36869,19 +37101,19 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2" t="s">
-        <v>2173</v>
+        <v>2169</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="3" t="s">
-        <v>2174</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="2" t="s">
-        <v>2175</v>
+        <v>2171</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>2176</v>
+        <v>2172</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -36894,19 +37126,19 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2" t="s">
-        <v>2177</v>
+        <v>2173</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="3" t="s">
-        <v>2178</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="2" t="s">
-        <v>2179</v>
+        <v>2175</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>2180</v>
+        <v>2176</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -36919,19 +37151,19 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2" t="s">
-        <v>2181</v>
+        <v>2177</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="3" t="s">
-        <v>2182</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="2" t="s">
-        <v>2183</v>
+        <v>2179</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>2184</v>
+        <v>2180</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -36944,19 +37176,19 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2" t="s">
-        <v>2185</v>
+        <v>2181</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="3" t="s">
-        <v>2186</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="2" t="s">
-        <v>2187</v>
+        <v>2183</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>2188</v>
+        <v>2184</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -36969,19 +37201,19 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2" t="s">
-        <v>2189</v>
+        <v>2185</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="3" t="s">
-        <v>2190</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="2" t="s">
-        <v>2191</v>
+        <v>2187</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>2192</v>
+        <v>2188</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -36994,19 +37226,19 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2" t="s">
-        <v>2193</v>
+        <v>2189</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="3" t="s">
-        <v>2194</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="2" t="s">
-        <v>2195</v>
+        <v>2191</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>2196</v>
+        <v>2192</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -37019,19 +37251,19 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2" t="s">
-        <v>2197</v>
+        <v>2193</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="3" t="s">
-        <v>2198</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="2" t="s">
-        <v>2199</v>
+        <v>2195</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>2200</v>
+        <v>2196</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -37044,19 +37276,19 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2" t="s">
-        <v>2201</v>
+        <v>2197</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="3" t="s">
-        <v>2202</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="2" t="s">
-        <v>2203</v>
+        <v>2199</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>2204</v>
+        <v>2200</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -37069,19 +37301,19 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2" t="s">
-        <v>2205</v>
+        <v>2201</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="3" t="s">
-        <v>2206</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="2" t="s">
-        <v>2207</v>
+        <v>2203</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>2208</v>
+        <v>2204</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -37094,19 +37326,19 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2" t="s">
-        <v>2209</v>
+        <v>2205</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="3" t="s">
-        <v>2210</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="2" t="s">
-        <v>2211</v>
+        <v>2207</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>2212</v>
+        <v>2208</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -37119,19 +37351,19 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2" t="s">
-        <v>2213</v>
+        <v>2209</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="3" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="2" t="s">
-        <v>2215</v>
+        <v>2211</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>2216</v>
+        <v>2212</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -37144,19 +37376,19 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2" t="s">
-        <v>2217</v>
+        <v>2213</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="3" t="s">
-        <v>2218</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="2" t="s">
-        <v>2219</v>
+        <v>2215</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>2220</v>
+        <v>2216</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -37169,19 +37401,19 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2" t="s">
-        <v>2221</v>
+        <v>2217</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="3" t="s">
-        <v>2222</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="2" t="s">
-        <v>2223</v>
+        <v>2219</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>2224</v>
+        <v>2220</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -37194,19 +37426,19 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2" t="s">
-        <v>2225</v>
+        <v>2221</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="3" t="s">
-        <v>2226</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="2" t="s">
-        <v>2227</v>
+        <v>2223</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>2228</v>
+        <v>2224</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -37219,19 +37451,19 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2" t="s">
-        <v>2229</v>
+        <v>2225</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="3" t="s">
-        <v>2230</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="2" t="s">
-        <v>2231</v>
+        <v>2227</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>2232</v>
+        <v>2228</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -37244,19 +37476,19 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2" t="s">
-        <v>2233</v>
+        <v>2229</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="3" t="s">
-        <v>2234</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="2" t="s">
-        <v>2235</v>
+        <v>2231</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>2236</v>
+        <v>2232</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -37269,19 +37501,19 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2" t="s">
-        <v>2237</v>
+        <v>2233</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="21" t="s">
-        <v>2238</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="2" t="s">
-        <v>2239</v>
+        <v>2235</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>2240</v>
+        <v>2236</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -37294,30 +37526,30 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2" t="s">
-        <v>2241</v>
+        <v>2237</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="21" t="s">
-        <v>2242</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" t="s">
-        <v>2243</v>
+        <v>2239</v>
       </c>
       <c r="B54" t="s">
-        <v>2244</v>
+        <v>2240</v>
       </c>
       <c r="M54" t="s">
-        <v>2245</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="2" t="s">
-        <v>2246</v>
+        <v>2242</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>2247</v>
+        <v>2243</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -37330,19 +37562,19 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2" t="s">
-        <v>2248</v>
+        <v>2244</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="21" t="s">
-        <v>2249</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="2" t="s">
-        <v>2250</v>
+        <v>2246</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>2251</v>
+        <v>2247</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -37355,19 +37587,19 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2" t="s">
-        <v>2252</v>
+        <v>2248</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="21" t="s">
-        <v>2253</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="2" t="s">
-        <v>2254</v>
+        <v>2250</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>2255</v>
+        <v>2251</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -37380,160 +37612,160 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2" t="s">
-        <v>2256</v>
+        <v>2252</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2" t="s">
-        <v>2257</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" t="s">
-        <v>2258</v>
+        <v>2254</v>
       </c>
       <c r="B58" t="s">
-        <v>2259</v>
+        <v>2255</v>
       </c>
       <c r="M58" t="s">
-        <v>2260</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" t="s">
-        <v>2261</v>
+        <v>2257</v>
       </c>
       <c r="B59" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="M59" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
       <c r="O59" s="1"/>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" t="s">
-        <v>2264</v>
+        <v>2260</v>
       </c>
       <c r="B60" t="s">
-        <v>2265</v>
+        <v>2261</v>
       </c>
       <c r="M60" t="s">
-        <v>2266</v>
+        <v>2262</v>
       </c>
       <c r="O60" s="1"/>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" t="s">
-        <v>2267</v>
+        <v>2263</v>
       </c>
       <c r="B61" t="s">
-        <v>2268</v>
+        <v>2264</v>
       </c>
       <c r="M61" t="s">
-        <v>2269</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" t="s">
-        <v>2270</v>
+        <v>2266</v>
       </c>
       <c r="B62" t="s">
-        <v>2271</v>
+        <v>2267</v>
       </c>
       <c r="M62" t="s">
-        <v>2272</v>
+        <v>2268</v>
       </c>
       <c r="O62" s="1"/>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" t="s">
-        <v>2273</v>
+        <v>2269</v>
       </c>
       <c r="B63" t="s">
-        <v>2274</v>
+        <v>2270</v>
       </c>
       <c r="M63" t="s">
-        <v>2275</v>
+        <v>2271</v>
       </c>
       <c r="O63" s="1"/>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" t="s">
-        <v>2276</v>
+        <v>2272</v>
       </c>
       <c r="B64" t="s">
-        <v>2277</v>
+        <v>2273</v>
       </c>
       <c r="M64" t="s">
-        <v>2278</v>
+        <v>2274</v>
       </c>
       <c r="O64" s="1"/>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" t="s">
-        <v>2279</v>
+        <v>2275</v>
       </c>
       <c r="B65" t="s">
-        <v>2280</v>
+        <v>2276</v>
       </c>
       <c r="M65" t="s">
-        <v>2281</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
       <c r="B66" t="s">
-        <v>2283</v>
+        <v>2279</v>
       </c>
       <c r="M66" t="s">
-        <v>2284</v>
+        <v>2280</v>
       </c>
       <c r="O66" s="1"/>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="33" t="s">
-        <v>3018</v>
+        <v>3014</v>
       </c>
       <c r="B67" s="33" t="s">
-        <v>3020</v>
+        <v>3016</v>
       </c>
       <c r="M67" s="33" t="s">
-        <v>3021</v>
+        <v>3017</v>
       </c>
       <c r="O67" s="1"/>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="33" t="s">
-        <v>3036</v>
+        <v>3032</v>
       </c>
       <c r="B68" s="33" t="s">
-        <v>3037</v>
+        <v>3033</v>
       </c>
       <c r="M68" s="33" t="s">
-        <v>3038</v>
+        <v>3034</v>
       </c>
       <c r="O68" s="1"/>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="33" t="s">
-        <v>3050</v>
+        <v>3046</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>3052</v>
+        <v>3048</v>
       </c>
       <c r="M69" s="33" t="s">
-        <v>3053</v>
+        <v>3049</v>
       </c>
       <c r="O69" s="1"/>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="35" t="s">
-        <v>3084</v>
+        <v>3080</v>
       </c>
       <c r="B70" s="35" t="s">
-        <v>3086</v>
+        <v>3082</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -37546,17 +37778,17 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
       <c r="M70" s="35" t="s">
-        <v>3087</v>
+        <v>3083</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="3"/>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="35" t="s">
-        <v>3102</v>
+        <v>3098</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>3104</v>
+        <v>3100</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -37569,28 +37801,28 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
       <c r="M71" s="35" t="s">
-        <v>3105</v>
+        <v>3101</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="3"/>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="39" t="s">
-        <v>3129</v>
+        <v>3125</v>
       </c>
       <c r="B72" s="39" t="s">
-        <v>3130</v>
+        <v>3126</v>
       </c>
       <c r="M72" s="39" t="s">
-        <v>3131</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="41" t="s">
-        <v>3192</v>
+        <v>3188</v>
       </c>
       <c r="B73" s="41" t="s">
-        <v>3193</v>
+        <v>3189</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -37603,17 +37835,17 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
       <c r="M73" s="41" t="s">
-        <v>3194</v>
+        <v>3190</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="3"/>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="41" t="s">
-        <v>3195</v>
+        <v>3191</v>
       </c>
       <c r="B74" s="41" t="s">
-        <v>3196</v>
+        <v>3192</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -37626,17 +37858,17 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" s="41" t="s">
-        <v>3197</v>
+        <v>3193</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="3"/>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="41" t="s">
-        <v>3198</v>
+        <v>3194</v>
       </c>
       <c r="B75" s="41" t="s">
-        <v>3199</v>
+        <v>3195</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -37649,25 +37881,29 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2" t="s">
-        <v>3200</v>
+        <v>3196</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="3"/>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="41" t="s">
-        <v>3326</v>
+        <v>3322</v>
       </c>
       <c r="B76" t="s">
-        <v>3327</v>
+        <v>3323</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>3328</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="77" spans="1:15">
-      <c r="A77" s="15"/>
-      <c r="B77" s="15"/>
+      <c r="A77" s="15" t="s">
+        <v>3374</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>3375</v>
+      </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
@@ -37678,7 +37914,9 @@
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
-      <c r="M77" s="18"/>
+      <c r="M77" s="37" t="s">
+        <v>3376</v>
+      </c>
       <c r="N77" s="6"/>
       <c r="O77" s="6"/>
     </row>
@@ -40098,8 +40336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q896"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M78" sqref="M78"/>
+    <sheetView topLeftCell="G61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M83" sqref="M83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -40162,10 +40400,10 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>2285</v>
+        <v>2281</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2042</v>
+        <v>2038</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -40178,19 +40416,19 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>2043</v>
+        <v>2039</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="3" t="s">
-        <v>2044</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>2286</v>
+        <v>2282</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2046</v>
+        <v>2042</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -40203,19 +40441,19 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2" t="s">
-        <v>2047</v>
+        <v>2043</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="3" t="s">
-        <v>2048</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
-        <v>2287</v>
+        <v>2283</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2046</v>
+        <v>2042</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -40228,19 +40466,19 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2" t="s">
-        <v>2047</v>
+        <v>2043</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="3" t="s">
-        <v>2048</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
-        <v>2288</v>
+        <v>2284</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2289</v>
+        <v>2285</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -40253,61 +40491,61 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2" t="s">
-        <v>2290</v>
+        <v>2286</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="3" t="s">
-        <v>2291</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="2" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>2292</v>
+        <v>2288</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2293</v>
+        <v>2289</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>2294</v>
+        <v>2290</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>2295</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="2" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>2296</v>
+        <v>2292</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>2297</v>
+        <v>2293</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>2063</v>
+        <v>2059</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>2298</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="2" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>2299</v>
+        <v>2295</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>2300</v>
+        <v>2296</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>2067</v>
+        <v>2063</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>2301</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="2" customFormat="1">
       <c r="A9" s="15" t="s">
-        <v>2302</v>
+        <v>2298</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>2303</v>
+        <v>2299</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -40320,815 +40558,815 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6" t="s">
-        <v>2304</v>
+        <v>2300</v>
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6" t="s">
-        <v>2072</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="2" customFormat="1">
       <c r="A10" s="2" t="s">
-        <v>2305</v>
+        <v>2301</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2306</v>
+        <v>2302</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>2075</v>
+        <v>2071</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>2307</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="2" customFormat="1">
       <c r="A11" s="2" t="s">
-        <v>2308</v>
+        <v>2304</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>2309</v>
+        <v>2305</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>2310</v>
+        <v>2306</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>2311</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
-        <v>2312</v>
+        <v>2308</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>2313</v>
+        <v>2309</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>2290</v>
+        <v>2286</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>2314</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="2" customFormat="1">
       <c r="A13" s="2" t="s">
-        <v>2315</v>
+        <v>2311</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>2316</v>
+        <v>2312</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>2087</v>
+        <v>2083</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>2317</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="2" customFormat="1">
       <c r="A14" s="2" t="s">
-        <v>2318</v>
+        <v>2314</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>2090</v>
+        <v>2086</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>2091</v>
+        <v>2087</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>2092</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="15" spans="1:17" s="2" customFormat="1">
       <c r="A15" s="2" t="s">
-        <v>2319</v>
+        <v>2315</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2094</v>
+        <v>2090</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>2095</v>
+        <v>2091</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>2096</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="2" customFormat="1">
       <c r="A16" s="2" t="s">
-        <v>2320</v>
+        <v>2316</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>2098</v>
+        <v>2094</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>2099</v>
+        <v>2095</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>2100</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="2" customFormat="1">
       <c r="A17" s="2" t="s">
-        <v>2321</v>
+        <v>2317</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>2098</v>
+        <v>2094</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>2099</v>
+        <v>2095</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>2100</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="2" customFormat="1">
       <c r="A18" s="2" t="s">
-        <v>2322</v>
+        <v>2318</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>2103</v>
+        <v>2099</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>2104</v>
+        <v>2100</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>2105</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="2" customFormat="1">
       <c r="A19" s="2" t="s">
-        <v>2323</v>
+        <v>2319</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>2324</v>
+        <v>2320</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>2325</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="2" customFormat="1">
       <c r="A20" s="2" t="s">
-        <v>2326</v>
+        <v>2322</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>2107</v>
+        <v>2103</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>2108</v>
+        <v>2104</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>2109</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="2" customFormat="1">
       <c r="A21" s="2" t="s">
-        <v>2327</v>
+        <v>2323</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>2111</v>
+        <v>2107</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>2112</v>
+        <v>2108</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>2328</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="2" customFormat="1">
       <c r="A22" s="2" t="s">
-        <v>2329</v>
+        <v>2325</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>2114</v>
+        <v>2110</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>2115</v>
+        <v>2111</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>2116</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="2" customFormat="1" ht="18.95" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>2330</v>
+        <v>2326</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>2118</v>
+        <v>2114</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>2119</v>
+        <v>2115</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>2120</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="2" customFormat="1" ht="18.95" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>2331</v>
+        <v>2327</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>2114</v>
+      </c>
+      <c r="M24" s="2" t="s">
         <v>2118</v>
       </c>
-      <c r="M24" s="2" t="s">
-        <v>2122</v>
-      </c>
       <c r="O24" s="3" t="s">
-        <v>2120</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="2" customFormat="1" ht="18.95" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>2332</v>
+        <v>2328</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>2124</v>
+        <v>2120</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>2125</v>
+        <v>2121</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>2126</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="2" customFormat="1">
       <c r="A26" s="2" t="s">
-        <v>2333</v>
+        <v>2329</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>2334</v>
+        <v>2330</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>2129</v>
+        <v>2125</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>2335</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="2" customFormat="1">
       <c r="A27" s="2" t="s">
-        <v>2336</v>
+        <v>2332</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>2337</v>
+        <v>2333</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>2338</v>
+        <v>2334</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>2339</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="2" customFormat="1">
       <c r="A28" s="2" t="s">
-        <v>2340</v>
+        <v>2336</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>2136</v>
+        <v>2132</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>2137</v>
+        <v>2133</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>2138</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="2" customFormat="1">
       <c r="A29" s="2" t="s">
-        <v>2341</v>
+        <v>2337</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>2342</v>
+        <v>2338</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>2343</v>
+        <v>2339</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>2344</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="2" customFormat="1">
       <c r="A30" s="2" t="s">
-        <v>2345</v>
+        <v>2341</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>2346</v>
+        <v>2342</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>2347</v>
+        <v>2343</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>2348</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="2" customFormat="1">
       <c r="A31" s="2" t="s">
-        <v>2349</v>
+        <v>2345</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>2350</v>
+        <v>2346</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>2351</v>
+        <v>2347</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>2352</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="2" customFormat="1">
       <c r="A32" s="2" t="s">
-        <v>2353</v>
+        <v>2349</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>2354</v>
+        <v>2350</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>2355</v>
+        <v>2351</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>2356</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="33" spans="1:15" s="2" customFormat="1">
       <c r="A33" s="2" t="s">
-        <v>2357</v>
+        <v>2353</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>2354</v>
+        <v>2350</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>2355</v>
+        <v>2351</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>2356</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="2" customFormat="1">
       <c r="A34" s="2" t="s">
-        <v>2358</v>
+        <v>2354</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>2160</v>
+        <v>2156</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>2161</v>
+        <v>2157</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>2162</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="35" spans="1:15" s="2" customFormat="1">
       <c r="A35" s="2" t="s">
-        <v>2359</v>
+        <v>2355</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>2360</v>
+        <v>2356</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>2361</v>
+        <v>2357</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>2362</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="2" customFormat="1">
       <c r="A36" s="2" t="s">
-        <v>2363</v>
+        <v>2359</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>2364</v>
+        <v>2360</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>2365</v>
+        <v>2361</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>2366</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="37" spans="1:15" s="2" customFormat="1">
       <c r="A37" s="2" t="s">
-        <v>2367</v>
+        <v>2363</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>2368</v>
+        <v>2364</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>2369</v>
+        <v>2365</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>2370</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="38" spans="1:15" s="2" customFormat="1">
       <c r="A38" s="2" t="s">
-        <v>2371</v>
+        <v>2367</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>2372</v>
+        <v>2368</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>2373</v>
+        <v>2369</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>2374</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="2" customFormat="1">
       <c r="A39" s="2" t="s">
-        <v>2375</v>
+        <v>2371</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>2180</v>
+        <v>2176</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>2376</v>
+        <v>2372</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>2182</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="40" spans="1:15" s="2" customFormat="1">
       <c r="A40" s="2" t="s">
-        <v>2377</v>
+        <v>2373</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>2184</v>
+        <v>2180</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>2185</v>
+        <v>2181</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>2186</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="41" spans="1:15" s="2" customFormat="1">
       <c r="A41" s="2" t="s">
-        <v>2378</v>
+        <v>2374</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>2379</v>
+        <v>2375</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>2380</v>
+        <v>2376</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>2381</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="2" customFormat="1">
       <c r="A42" s="2" t="s">
-        <v>2382</v>
+        <v>2378</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>2192</v>
+        <v>2188</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>2193</v>
+        <v>2189</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>2194</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="2" customFormat="1">
       <c r="A43" s="2" t="s">
-        <v>2383</v>
+        <v>2379</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>2384</v>
+        <v>2380</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>2197</v>
+        <v>2193</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>2385</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="44" spans="1:15" s="2" customFormat="1">
       <c r="A44" s="2" t="s">
-        <v>2386</v>
+        <v>2382</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>2387</v>
+        <v>2383</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>2388</v>
+        <v>2384</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>2389</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="45" spans="1:15" s="2" customFormat="1">
       <c r="A45" s="2" t="s">
-        <v>2390</v>
+        <v>2386</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>2204</v>
+        <v>2200</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>2205</v>
+        <v>2201</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>2206</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="2" customFormat="1">
       <c r="A46" s="2" t="s">
-        <v>2391</v>
+        <v>2387</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>2208</v>
+        <v>2204</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>2209</v>
+        <v>2205</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>2210</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="47" spans="1:15" s="2" customFormat="1">
       <c r="A47" s="2" t="s">
-        <v>2392</v>
+        <v>2388</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>2212</v>
+        <v>2208</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>2213</v>
+        <v>2209</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="48" spans="1:15" s="2" customFormat="1">
       <c r="A48" s="2" t="s">
-        <v>2393</v>
+        <v>2389</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>2216</v>
+        <v>2212</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>2217</v>
+        <v>2213</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>2218</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="49" spans="1:15" s="2" customFormat="1">
       <c r="A49" s="2" t="s">
-        <v>2394</v>
+        <v>2390</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>2220</v>
+        <v>2216</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>2221</v>
+        <v>2217</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>2395</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="50" spans="1:15" s="2" customFormat="1">
       <c r="A50" s="2" t="s">
-        <v>2396</v>
+        <v>2392</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>2224</v>
+        <v>2220</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>2225</v>
+        <v>2221</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>2226</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="51" spans="1:15" s="2" customFormat="1">
       <c r="A51" s="2" t="s">
-        <v>2397</v>
+        <v>2393</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>2228</v>
+        <v>2224</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>2229</v>
+        <v>2225</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>2230</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="2" customFormat="1">
       <c r="A52" s="2" t="s">
-        <v>2398</v>
+        <v>2394</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>2232</v>
+        <v>2228</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>2233</v>
+        <v>2229</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>2234</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="53" spans="1:15" s="2" customFormat="1">
       <c r="A53" s="2" t="s">
-        <v>2399</v>
+        <v>2395</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>2236</v>
+        <v>2232</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>2237</v>
+        <v>2233</v>
       </c>
       <c r="O53" s="21" t="s">
-        <v>2238</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="54" spans="1:15" s="2" customFormat="1">
       <c r="A54" s="2" t="s">
-        <v>2400</v>
+        <v>2396</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>2240</v>
+        <v>2236</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>2241</v>
+        <v>2237</v>
       </c>
       <c r="O54" s="21" t="s">
-        <v>2242</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="55" spans="1:15" s="2" customFormat="1">
       <c r="A55" s="2" t="s">
-        <v>2401</v>
+        <v>2397</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>2244</v>
+        <v>2240</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>2245</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="56" spans="1:15" s="2" customFormat="1">
       <c r="A56" s="2" t="s">
-        <v>2402</v>
+        <v>2398</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>2247</v>
+        <v>2243</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>2248</v>
+        <v>2244</v>
       </c>
       <c r="O56" s="21" t="s">
-        <v>2249</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="57" spans="1:15" s="2" customFormat="1">
       <c r="A57" s="2" t="s">
-        <v>2403</v>
+        <v>2399</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>2404</v>
+        <v>2400</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>2405</v>
+        <v>2401</v>
       </c>
       <c r="O57" s="21" t="s">
-        <v>2253</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="58" spans="1:15" s="2" customFormat="1">
       <c r="A58" s="2" t="s">
-        <v>2406</v>
+        <v>2402</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>2255</v>
+        <v>2251</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>2256</v>
+        <v>2252</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>2407</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" t="s">
-        <v>2408</v>
+        <v>2404</v>
       </c>
       <c r="B59" t="s">
-        <v>2259</v>
+        <v>2255</v>
       </c>
       <c r="M59" t="s">
-        <v>2260</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" t="s">
-        <v>2409</v>
+        <v>2405</v>
       </c>
       <c r="B60" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
       <c r="M60" t="s">
-        <v>2410</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" t="s">
-        <v>2411</v>
+        <v>2407</v>
       </c>
       <c r="B61" t="s">
-        <v>2265</v>
+        <v>2261</v>
       </c>
       <c r="M61" t="s">
-        <v>2266</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" t="s">
-        <v>2412</v>
+        <v>2408</v>
       </c>
       <c r="B62" t="s">
-        <v>2268</v>
+        <v>2264</v>
       </c>
       <c r="M62" t="s">
-        <v>2269</v>
+        <v>2265</v>
       </c>
       <c r="O62" s="1"/>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" t="s">
-        <v>2413</v>
+        <v>2409</v>
       </c>
       <c r="B63" t="s">
-        <v>2271</v>
+        <v>2267</v>
       </c>
       <c r="M63" t="s">
-        <v>2272</v>
+        <v>2268</v>
       </c>
       <c r="O63" s="1"/>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" t="s">
-        <v>2414</v>
+        <v>2410</v>
       </c>
       <c r="B64" t="s">
-        <v>2274</v>
+        <v>2270</v>
       </c>
       <c r="M64" t="s">
-        <v>2275</v>
+        <v>2271</v>
       </c>
       <c r="O64" s="1"/>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" t="s">
-        <v>2415</v>
+        <v>2411</v>
       </c>
       <c r="B65" t="s">
-        <v>2277</v>
+        <v>2273</v>
       </c>
       <c r="M65" t="s">
-        <v>2278</v>
+        <v>2274</v>
       </c>
       <c r="O65" s="1"/>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" t="s">
-        <v>2416</v>
+        <v>2412</v>
       </c>
       <c r="B66" t="s">
-        <v>2280</v>
+        <v>2276</v>
       </c>
       <c r="M66" t="s">
-        <v>2281</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" t="s">
-        <v>2417</v>
+        <v>2413</v>
       </c>
       <c r="B67" t="s">
-        <v>2418</v>
+        <v>2414</v>
       </c>
       <c r="M67" t="s">
-        <v>2419</v>
+        <v>2415</v>
       </c>
       <c r="O67" s="1"/>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="33" t="s">
-        <v>3022</v>
+        <v>3018</v>
       </c>
       <c r="B68" t="s">
+        <v>3015</v>
+      </c>
+      <c r="M68" s="33" t="s">
         <v>3019</v>
-      </c>
-      <c r="M68" s="33" t="s">
-        <v>3023</v>
       </c>
       <c r="O68" s="1"/>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="35" t="s">
-        <v>3039</v>
+        <v>3035</v>
       </c>
       <c r="B69" s="35" t="s">
-        <v>3037</v>
+        <v>3033</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -41141,17 +41379,17 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
       <c r="M69" s="35" t="s">
-        <v>3038</v>
+        <v>3034</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="3"/>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="35" t="s">
-        <v>3054</v>
+        <v>3050</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>3051</v>
+        <v>3047</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -41164,17 +41402,17 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
       <c r="M70" s="35" t="s">
-        <v>3055</v>
+        <v>3051</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="3"/>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="35" t="s">
-        <v>3088</v>
+        <v>3084</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>3085</v>
+        <v>3081</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -41187,17 +41425,17 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
       <c r="M71" s="35" t="s">
-        <v>3087</v>
+        <v>3083</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="3"/>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="35" t="s">
-        <v>3110</v>
+        <v>3106</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>3103</v>
+        <v>3099</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -41210,7 +41448,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" s="35" t="s">
-        <v>3106</v>
+        <v>3102</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="12"/>
@@ -41234,21 +41472,21 @@
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="39" t="s">
-        <v>3129</v>
+        <v>3125</v>
       </c>
       <c r="B74" s="39" t="s">
-        <v>3130</v>
+        <v>3126</v>
       </c>
       <c r="M74" s="39" t="s">
-        <v>3131</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="41" t="s">
-        <v>3201</v>
+        <v>3197</v>
       </c>
       <c r="B75" s="41" t="s">
-        <v>3193</v>
+        <v>3189</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -41261,17 +41499,17 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
       <c r="M75" s="41" t="s">
-        <v>3194</v>
+        <v>3190</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="3"/>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="41" t="s">
-        <v>3202</v>
+        <v>3198</v>
       </c>
       <c r="B76" s="41" t="s">
-        <v>3196</v>
+        <v>3192</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -41284,17 +41522,17 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
       <c r="M76" s="41" t="s">
-        <v>3197</v>
+        <v>3193</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="3"/>
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="41" t="s">
-        <v>3203</v>
+        <v>3199</v>
       </c>
       <c r="B77" s="41" t="s">
-        <v>3199</v>
+        <v>3195</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -41307,17 +41545,17 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2" t="s">
-        <v>3200</v>
+        <v>3196</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="3"/>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="15" t="s">
-        <v>3329</v>
+        <v>3325</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>3327</v>
+        <v>3323</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -41330,14 +41568,18 @@
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
       <c r="M78" s="5" t="s">
-        <v>3328</v>
+        <v>3324</v>
       </c>
       <c r="N78" s="6"/>
       <c r="O78" s="6"/>
     </row>
     <row r="79" spans="1:15">
-      <c r="A79" s="15"/>
-      <c r="B79" s="15"/>
+      <c r="A79" s="15" t="s">
+        <v>3377</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>3375</v>
+      </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -41348,7 +41590,9 @@
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
-      <c r="M79" s="6"/>
+      <c r="M79" s="5" t="s">
+        <v>3376</v>
+      </c>
       <c r="N79" s="6"/>
       <c r="O79" s="6"/>
     </row>
@@ -43734,8 +43978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q897"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G91" sqref="G91"/>
+    <sheetView topLeftCell="G75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -43798,626 +44042,626 @@
     </row>
     <row r="2" spans="1:17" ht="56.25">
       <c r="A2" t="s">
-        <v>2420</v>
+        <v>2416</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>2421</v>
+        <v>2417</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>2422</v>
+        <v>2418</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>2423</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="56.25">
       <c r="A3" t="s">
-        <v>2424</v>
+        <v>2420</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>2425</v>
+        <v>2421</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>2426</v>
+        <v>2422</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>2427</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="93.75">
       <c r="A4" t="s">
-        <v>2428</v>
+        <v>2424</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>2429</v>
+        <v>2425</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>2430</v>
+        <v>2426</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>2431</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="75">
       <c r="A5" t="s">
-        <v>2432</v>
+        <v>2428</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2433</v>
+        <v>2429</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>2434</v>
+        <v>2430</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>2435</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="56.25">
       <c r="A6" t="s">
-        <v>2436</v>
+        <v>2432</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>2437</v>
+        <v>2433</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>2438</v>
+        <v>2434</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>2439</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="112.5">
       <c r="A7" t="s">
-        <v>2440</v>
+        <v>2436</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>2441</v>
+        <v>2437</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>2442</v>
+        <v>2438</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>2443</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="168.75">
       <c r="A8" t="s">
-        <v>2444</v>
+        <v>2440</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>2445</v>
+        <v>2441</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>2446</v>
+        <v>2442</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>2447</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="150">
       <c r="A9" t="s">
-        <v>2448</v>
+        <v>2444</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>2449</v>
+        <v>2445</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>2450</v>
+        <v>2446</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>2451</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="37.5">
       <c r="A10" t="s">
-        <v>2452</v>
+        <v>2448</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>2453</v>
+        <v>2449</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>2454</v>
+        <v>2450</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>2455</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="56.25">
       <c r="A11" t="s">
-        <v>2456</v>
+        <v>2452</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>2457</v>
+        <v>2453</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>2458</v>
+        <v>2454</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>2459</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="112.5">
       <c r="A12" t="s">
-        <v>2460</v>
+        <v>2456</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>2461</v>
+        <v>2457</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>2462</v>
+        <v>2458</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>2463</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="409.5">
       <c r="A13" t="s">
-        <v>2464</v>
+        <v>2460</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>2465</v>
+        <v>2461</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>2466</v>
+        <v>2462</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>2467</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="131.25">
       <c r="A14" t="s">
-        <v>2468</v>
+        <v>2464</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>2469</v>
+        <v>2465</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>2470</v>
+        <v>2466</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>2471</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="56.25">
       <c r="A15" t="s">
-        <v>2472</v>
+        <v>2468</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>2473</v>
+        <v>2469</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>2474</v>
+        <v>2470</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>2475</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="150">
       <c r="A16" t="s">
-        <v>2476</v>
+        <v>2472</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>2477</v>
+        <v>2473</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>2478</v>
+        <v>2474</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>2479</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="131.25">
       <c r="A17" t="s">
-        <v>2480</v>
+        <v>2476</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>2481</v>
+        <v>2477</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>2482</v>
+        <v>2478</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>2483</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="206.25">
       <c r="A18" t="s">
-        <v>2484</v>
+        <v>2480</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>2485</v>
+        <v>2481</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>2486</v>
+        <v>2482</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>2487</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="131.25">
       <c r="A19" t="s">
-        <v>2488</v>
+        <v>2484</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>2489</v>
+        <v>2485</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>2490</v>
+        <v>2486</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>2491</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="187.5">
       <c r="A20" t="s">
-        <v>2492</v>
+        <v>2488</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>2493</v>
+        <v>2489</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>2494</v>
+        <v>2490</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>2495</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="225">
       <c r="A21" t="s">
-        <v>2496</v>
+        <v>2492</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>2497</v>
+        <v>2493</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>2498</v>
+        <v>2494</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>2499</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="75">
       <c r="A22" t="s">
-        <v>2500</v>
+        <v>2496</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>2501</v>
+        <v>2497</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>2502</v>
+        <v>2498</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>2503</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="112.5">
       <c r="A23" t="s">
-        <v>2504</v>
+        <v>2500</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>2505</v>
+        <v>2501</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>2506</v>
+        <v>2502</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>2507</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="93.75">
       <c r="A24" t="s">
-        <v>2508</v>
+        <v>2504</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>2509</v>
+        <v>2505</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>2510</v>
+        <v>2506</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>2511</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="93.75">
       <c r="A25" t="s">
-        <v>2512</v>
+        <v>2508</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>2513</v>
+        <v>2509</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>2514</v>
+        <v>2510</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>2515</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="93.75">
       <c r="A26" t="s">
-        <v>2516</v>
+        <v>2512</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>2517</v>
+        <v>2513</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>2518</v>
+        <v>2514</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>2519</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="206.25">
       <c r="A27" t="s">
-        <v>2520</v>
+        <v>2516</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>2521</v>
+        <v>2517</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>2522</v>
+        <v>2518</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>2523</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="75">
       <c r="A28" t="s">
-        <v>2524</v>
+        <v>2520</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>2525</v>
+        <v>2521</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>2526</v>
+        <v>2522</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>2527</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="168.75">
       <c r="A29" t="s">
-        <v>2528</v>
+        <v>2524</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>2529</v>
+        <v>2525</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>2530</v>
+        <v>2526</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>2531</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="262.5">
       <c r="A30" t="s">
-        <v>2532</v>
+        <v>2528</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>2533</v>
+        <v>2529</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>2534</v>
+        <v>2530</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>2535</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="112.5">
       <c r="A31" t="s">
-        <v>2536</v>
+        <v>2532</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>2537</v>
+        <v>2533</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>2538</v>
+        <v>2534</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>2539</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="150">
       <c r="A32" t="s">
-        <v>2540</v>
+        <v>2536</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>2541</v>
+        <v>2537</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>2542</v>
+        <v>2538</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>2543</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="150">
       <c r="A33" t="s">
-        <v>2544</v>
+        <v>2540</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>2541</v>
+        <v>2537</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>2542</v>
+        <v>2538</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>2543</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="93.75">
       <c r="A34" t="s">
-        <v>2545</v>
+        <v>2541</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>2546</v>
+        <v>2542</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>2547</v>
+        <v>2543</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>2548</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="56.25">
       <c r="A35" t="s">
-        <v>2549</v>
+        <v>2545</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>2550</v>
+        <v>2546</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>2551</v>
+        <v>2547</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>2552</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" t="s">
-        <v>2553</v>
+        <v>2549</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>2554</v>
+        <v>2550</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>2555</v>
+        <v>2551</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>2556</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" t="s">
-        <v>2557</v>
+        <v>2553</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>2558</v>
+        <v>2554</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>2559</v>
+        <v>2555</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>2560</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="262.5">
       <c r="A38" t="s">
-        <v>2561</v>
+        <v>2557</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>2562</v>
+        <v>2558</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>2563</v>
+        <v>2559</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>2564</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="112.5">
       <c r="A39" t="s">
-        <v>2565</v>
+        <v>2561</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>2566</v>
+        <v>2562</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>2567</v>
+        <v>2563</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>2568</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="93.75">
       <c r="A40" t="s">
-        <v>2569</v>
+        <v>2565</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>2570</v>
+        <v>2566</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>2571</v>
+        <v>2567</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>2572</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="93.75">
       <c r="A41" t="s">
-        <v>2573</v>
+        <v>2569</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>2574</v>
+        <v>2570</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>2575</v>
+        <v>2571</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>2576</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="187.5">
       <c r="A42" t="s">
-        <v>2577</v>
+        <v>2573</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>2578</v>
+        <v>2574</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>2579</v>
+        <v>2575</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>2580</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="56.25">
       <c r="A43" t="s">
-        <v>2581</v>
+        <v>2577</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>2582</v>
+        <v>2578</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>2583</v>
+        <v>2579</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>2584</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="75">
       <c r="A44" t="s">
-        <v>2585</v>
+        <v>2581</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>2501</v>
+        <v>2497</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>2586</v>
+        <v>2582</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>2503</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="112.5">
       <c r="A45" t="s">
-        <v>2587</v>
+        <v>2583</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>2588</v>
+        <v>2584</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>2589</v>
+        <v>2585</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>2590</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="75" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>2591</v>
+        <v>2587</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>2592</v>
+        <v>2588</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
@@ -44430,307 +44674,307 @@
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>
       <c r="M46" s="13" t="s">
-        <v>2593</v>
+        <v>2589</v>
       </c>
       <c r="N46" s="11"/>
       <c r="O46" s="13" t="s">
-        <v>2594</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="47" spans="1:15" s="2" customFormat="1" ht="168.75">
       <c r="A47" s="2" t="s">
-        <v>2595</v>
+        <v>2591</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>2596</v>
+        <v>2592</v>
       </c>
       <c r="M47" s="12" t="s">
-        <v>2597</v>
+        <v>2593</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>2598</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="48" spans="1:15" s="2" customFormat="1" ht="112.5">
       <c r="A48" s="2" t="s">
-        <v>2599</v>
+        <v>2595</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>2600</v>
+        <v>2596</v>
       </c>
       <c r="M48" s="12" t="s">
-        <v>2601</v>
+        <v>2597</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>2602</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="49" spans="1:15" s="2" customFormat="1" ht="168.75">
       <c r="A49" s="2" t="s">
-        <v>2603</v>
+        <v>2599</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>2604</v>
+        <v>2600</v>
       </c>
       <c r="M49" s="12" t="s">
-        <v>2605</v>
+        <v>2601</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>2606</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="50" spans="1:15" s="2" customFormat="1" ht="112.5">
       <c r="A50" s="2" t="s">
-        <v>2607</v>
+        <v>2603</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>2608</v>
+        <v>2604</v>
       </c>
       <c r="M50" s="12" t="s">
-        <v>2609</v>
+        <v>2605</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>2610</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="51" spans="1:15" s="2" customFormat="1" ht="143.1" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>2611</v>
+        <v>2607</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>2612</v>
+        <v>2608</v>
       </c>
       <c r="M51" s="12" t="s">
-        <v>2613</v>
+        <v>2609</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>2614</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="2" customFormat="1" ht="93.75">
       <c r="A52" s="2" t="s">
-        <v>2615</v>
+        <v>2611</v>
       </c>
       <c r="M52" s="12" t="s">
-        <v>2616</v>
+        <v>2612</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>2617</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="53" spans="1:15" s="2" customFormat="1" ht="168.75">
       <c r="A53" s="2" t="s">
-        <v>2618</v>
+        <v>2614</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>2619</v>
+        <v>2615</v>
       </c>
       <c r="M53" s="12" t="s">
-        <v>2620</v>
+        <v>2616</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>2621</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="54" spans="1:15" s="2" customFormat="1" ht="168.75">
       <c r="A54" s="2" t="s">
-        <v>2622</v>
+        <v>2618</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>2623</v>
+        <v>2619</v>
       </c>
       <c r="M54" s="12" t="s">
-        <v>2624</v>
+        <v>2620</v>
       </c>
       <c r="O54" s="14" t="s">
-        <v>2625</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="55" spans="1:15" s="2" customFormat="1" ht="112.5">
       <c r="A55" s="2" t="s">
-        <v>2626</v>
+        <v>2622</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>2627</v>
+        <v>2623</v>
       </c>
       <c r="M55" s="12" t="s">
-        <v>2628</v>
+        <v>2624</v>
       </c>
       <c r="O55" s="14" t="s">
-        <v>2629</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="56" spans="1:15" s="2" customFormat="1" ht="243.75">
       <c r="A56" s="2" t="s">
-        <v>2630</v>
+        <v>2626</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>2631</v>
+        <v>2627</v>
       </c>
       <c r="M56" s="12" t="s">
-        <v>2632</v>
+        <v>2628</v>
       </c>
       <c r="O56" s="14" t="s">
-        <v>2633</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="57" spans="1:15" s="2" customFormat="1" ht="131.25">
       <c r="A57" s="2" t="s">
-        <v>2634</v>
+        <v>2630</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>2635</v>
+        <v>2631</v>
       </c>
       <c r="M57" s="12" t="s">
-        <v>2636</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="58" spans="1:15" s="2" customFormat="1">
       <c r="A58" s="2" t="s">
-        <v>2637</v>
+        <v>2633</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>2638</v>
+        <v>2634</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>2639</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="93.75">
       <c r="A59" t="s">
-        <v>2640</v>
+        <v>2636</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>2641</v>
+        <v>2637</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>2642</v>
+        <v>2638</v>
       </c>
       <c r="O59" s="1"/>
     </row>
     <row r="60" spans="1:15" ht="56.25">
       <c r="A60" t="s">
-        <v>2643</v>
+        <v>2639</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>2644</v>
+        <v>2640</v>
       </c>
       <c r="M60" s="8" t="s">
-        <v>2645</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" t="s">
-        <v>2646</v>
+        <v>2642</v>
       </c>
       <c r="B61" t="s">
-        <v>2265</v>
+        <v>2261</v>
       </c>
       <c r="M61" t="s">
-        <v>2266</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" t="s">
-        <v>2647</v>
+        <v>2643</v>
       </c>
       <c r="B62" t="s">
-        <v>2648</v>
+        <v>2644</v>
       </c>
       <c r="M62" t="s">
-        <v>2649</v>
+        <v>2645</v>
       </c>
       <c r="O62" s="1"/>
     </row>
     <row r="63" spans="1:15" ht="37.5">
       <c r="A63" t="s">
-        <v>2650</v>
+        <v>2646</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>2651</v>
+        <v>2647</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>2652</v>
+        <v>2648</v>
       </c>
       <c r="O63" s="1"/>
     </row>
     <row r="64" spans="1:15" ht="37.5">
       <c r="A64" t="s">
-        <v>2653</v>
+        <v>2649</v>
       </c>
       <c r="B64" t="s">
-        <v>2274</v>
+        <v>2270</v>
       </c>
       <c r="M64" s="8" t="s">
-        <v>2654</v>
+        <v>2650</v>
       </c>
       <c r="O64" s="1"/>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" t="s">
-        <v>2655</v>
+        <v>2651</v>
       </c>
       <c r="B65" t="s">
-        <v>2277</v>
+        <v>2273</v>
       </c>
       <c r="M65" t="s">
-        <v>2656</v>
+        <v>2652</v>
       </c>
       <c r="O65" s="1"/>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" t="s">
-        <v>2657</v>
+        <v>2653</v>
       </c>
       <c r="B66" t="s">
-        <v>2280</v>
+        <v>2276</v>
       </c>
       <c r="M66" t="s">
-        <v>2658</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="75">
       <c r="A67" t="s">
-        <v>2659</v>
+        <v>2655</v>
       </c>
       <c r="B67" s="33" t="s">
-        <v>3024</v>
+        <v>3020</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>2660</v>
+        <v>2656</v>
       </c>
       <c r="O67" s="1"/>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="33" t="s">
-        <v>3025</v>
+        <v>3021</v>
       </c>
       <c r="B68" s="33" t="s">
-        <v>3026</v>
+        <v>3022</v>
       </c>
       <c r="M68" s="34" t="s">
-        <v>3027</v>
+        <v>3023</v>
       </c>
       <c r="O68" s="1"/>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="33" t="s">
-        <v>3040</v>
+        <v>3036</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>3041</v>
+        <v>3037</v>
       </c>
       <c r="M69" s="36" t="s">
-        <v>3042</v>
+        <v>3038</v>
       </c>
       <c r="O69" s="1"/>
     </row>
     <row r="70" spans="1:15" ht="37.5">
       <c r="A70" s="35" t="s">
-        <v>3056</v>
+        <v>3052</v>
       </c>
       <c r="B70" s="38" t="s">
-        <v>3058</v>
+        <v>3054</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -44743,17 +44987,17 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
       <c r="M70" s="38" t="s">
-        <v>3057</v>
+        <v>3053</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="3"/>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="35" t="s">
-        <v>3089</v>
+        <v>3085</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>3091</v>
+        <v>3087</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -44766,17 +45010,17 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
       <c r="M71" s="38" t="s">
-        <v>3090</v>
+        <v>3086</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="3"/>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="35" t="s">
-        <v>3107</v>
+        <v>3103</v>
       </c>
       <c r="B72" s="35" t="s">
-        <v>3109</v>
+        <v>3105</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -44789,28 +45033,28 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" s="38" t="s">
-        <v>3108</v>
+        <v>3104</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="3"/>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="39" t="s">
-        <v>3132</v>
+        <v>3128</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>3133</v>
+        <v>3129</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>3134</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="41" t="s">
-        <v>3204</v>
+        <v>3200</v>
       </c>
       <c r="B74" s="41" t="s">
-        <v>3205</v>
+        <v>3201</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -44823,17 +45067,17 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" s="12" t="s">
-        <v>3206</v>
+        <v>3202</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="3"/>
     </row>
     <row r="75" spans="1:15" ht="37.5">
       <c r="A75" s="41" t="s">
-        <v>3207</v>
+        <v>3203</v>
       </c>
       <c r="B75" s="42" t="s">
-        <v>3208</v>
+        <v>3204</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -44846,17 +45090,17 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
       <c r="M75" s="42" t="s">
-        <v>3209</v>
+        <v>3205</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="3"/>
     </row>
     <row r="76" spans="1:15" ht="37.5">
       <c r="A76" s="41" t="s">
-        <v>3210</v>
+        <v>3206</v>
       </c>
       <c r="B76" s="42" t="s">
-        <v>3211</v>
+        <v>3207</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -44869,25 +45113,29 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
       <c r="M76" s="42" t="s">
-        <v>3212</v>
+        <v>3208</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="3"/>
     </row>
     <row r="77" spans="1:15" ht="37.5">
       <c r="A77" s="41" t="s">
-        <v>3330</v>
+        <v>3326</v>
       </c>
       <c r="B77" s="44" t="s">
-        <v>3331</v>
+        <v>3327</v>
       </c>
       <c r="M77" s="44" t="s">
-        <v>3332</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
-      <c r="A78" s="15"/>
-      <c r="B78" s="15"/>
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="206.25">
+      <c r="A78" s="15" t="s">
+        <v>3378</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>3380</v>
+      </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
@@ -44898,7 +45146,9 @@
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
-      <c r="M78" s="18"/>
+      <c r="M78" s="37" t="s">
+        <v>3379</v>
+      </c>
       <c r="N78" s="6"/>
       <c r="O78" s="6"/>
     </row>
@@ -47379,218 +47629,218 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>2661</v>
+        <v>2657</v>
       </c>
       <c r="B2" t="s">
-        <v>2662</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>2663</v>
+        <v>2659</v>
       </c>
       <c r="B3" t="s">
-        <v>2664</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>2665</v>
+        <v>2661</v>
       </c>
       <c r="B4" t="s">
-        <v>2666</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>2667</v>
+        <v>2663</v>
       </c>
       <c r="B5" t="s">
-        <v>2668</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>2669</v>
+        <v>2665</v>
       </c>
       <c r="B6" t="s">
-        <v>2670</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>2671</v>
+        <v>2667</v>
       </c>
       <c r="B7" t="s">
-        <v>2672</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>2673</v>
+        <v>2669</v>
       </c>
       <c r="B8" t="s">
-        <v>2674</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>2675</v>
+        <v>2671</v>
       </c>
       <c r="B9" t="s">
-        <v>2676</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>2677</v>
+        <v>2673</v>
       </c>
       <c r="B10" t="s">
-        <v>2678</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>2679</v>
+        <v>2675</v>
       </c>
       <c r="B11" t="s">
-        <v>2680</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>2681</v>
+        <v>2677</v>
       </c>
       <c r="B12" t="s">
-        <v>2682</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>2683</v>
+        <v>2679</v>
       </c>
       <c r="B13" t="s">
-        <v>2684</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>2685</v>
+        <v>2681</v>
       </c>
       <c r="B14" t="s">
-        <v>2686</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>2687</v>
+        <v>2683</v>
       </c>
       <c r="B15" t="s">
-        <v>2688</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>2689</v>
+        <v>2685</v>
       </c>
       <c r="B16" t="s">
-        <v>2690</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>2691</v>
+        <v>2687</v>
       </c>
       <c r="B17" t="s">
-        <v>2692</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>2693</v>
+        <v>2689</v>
       </c>
       <c r="B18" t="s">
-        <v>2694</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>2695</v>
+        <v>2691</v>
       </c>
       <c r="B19" t="s">
-        <v>2696</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>2697</v>
+        <v>2693</v>
       </c>
       <c r="B20" t="s">
-        <v>2698</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>2699</v>
+        <v>2695</v>
       </c>
       <c r="B21" t="s">
-        <v>2700</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>2701</v>
+        <v>2697</v>
       </c>
       <c r="B22" t="s">
-        <v>2702</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>2703</v>
+        <v>2699</v>
       </c>
       <c r="B23" t="s">
-        <v>2704</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>2705</v>
+        <v>2701</v>
       </c>
       <c r="B24" t="s">
-        <v>2706</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>2707</v>
+        <v>2703</v>
       </c>
       <c r="B25" t="s">
-        <v>2708</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>2709</v>
+        <v>2705</v>
       </c>
       <c r="B26" t="s">
-        <v>2710</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>2711</v>
+        <v>2707</v>
       </c>
       <c r="B27" t="s">
-        <v>2712</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>2713</v>
+        <v>2709</v>
       </c>
       <c r="B28" t="s">
-        <v>2714</v>
+        <v>2710</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aoto\Desktop\AmongUsMod\TheOtherRolesGM-KiyoMugi-Edition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FBDD8D-E6B0-4D3E-9DB6-6709E2A591D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B8A145-933B-4A78-8DA8-44247660A37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="1155" windowWidth="19245" windowHeight="13065" tabRatio="882" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4365" yWindow="1155" windowWidth="19245" windowHeight="13065" tabRatio="882" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModText" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3970" uniqueCount="3395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3973" uniqueCount="3398">
   <si>
     <t>English</t>
   </si>
@@ -11931,6 +11931,27 @@
   </si>
   <si>
     <t>{0} の陣営はクルーメイトです。</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>tricksterBoxLimit</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Box Limit</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>設置できる箱の最大数</t>
+    <rPh sb="0" eb="2">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>サイダイスウ</t>
+    </rPh>
     <phoneticPr fontId="15"/>
   </si>
 </sst>
@@ -20385,10 +20406,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q906"/>
+  <dimension ref="A1:Q907"/>
   <sheetViews>
-    <sheetView topLeftCell="A344" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B356" sqref="B356"/>
+    <sheetView tabSelected="1" topLeftCell="C37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -21580,67 +21601,65 @@
       </c>
     </row>
     <row r="54" spans="1:15">
-      <c r="O54" s="1"/>
+      <c r="A54" s="2" t="s">
+        <v>3395</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>3396</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="41" t="s">
+        <v>3397</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="3"/>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="2" t="s">
+      <c r="O55" s="1"/>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2" t="s">
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="3" t="s">
+      <c r="N56" s="2"/>
+      <c r="O56" s="3" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
-      <c r="O56" s="1"/>
-    </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="3" t="s">
-        <v>775</v>
-      </c>
+      <c r="O57" s="1"/>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="2" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -21653,44 +21672,44 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="3" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="3" t="s">
         <v>779</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
-      <c r="A60" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="3" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="2" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -21703,19 +21722,19 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="2" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -21728,19 +21747,19 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="3" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="2" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -21753,19 +21772,19 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="3" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -21778,47 +21797,47 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="3" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
-      <c r="O65" s="1"/>
-    </row>
     <row r="66" spans="1:15">
-      <c r="A66" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="3" t="s">
-        <v>803</v>
-      </c>
+      <c r="O66" s="1"/>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="2" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -21831,44 +21850,44 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="3" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="3" t="s">
         <v>807</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
-      <c r="A69" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2" t="s">
-        <v>810</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="3" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="2" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -21881,19 +21900,19 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
       <c r="M70" s="2" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="3" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="2" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -21906,19 +21925,19 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
       <c r="M71" s="2" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="3" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="2" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -21931,19 +21950,19 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="3" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="2" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -21956,19 +21975,19 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="3" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="2" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -21981,19 +22000,19 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="3" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="2" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -22006,19 +22025,19 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="2" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -22031,45 +22050,47 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="3" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
-      <c r="O77" s="1"/>
-    </row>
     <row r="78" spans="1:15">
-      <c r="A78" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="3"/>
+      <c r="O78" s="1"/>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -22082,50 +22103,54 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
       <c r="M79" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="3"/>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="3" t="s">
+      <c r="N80" s="2"/>
+      <c r="O80" s="3" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
-      <c r="A80" t="s">
+    <row r="81" spans="1:15">
+      <c r="A81" t="s">
         <v>846</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>847</v>
       </c>
-      <c r="M80" t="s">
+      <c r="M81" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
-      <c r="A81" s="2" t="s">
+    <row r="82" spans="1:15">
+      <c r="A82" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="1:15">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -22136,17 +22161,15 @@
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
+      <c r="M82" s="2" t="s">
+        <v>851</v>
+      </c>
       <c r="N82" s="2"/>
       <c r="O82" s="3"/>
     </row>
     <row r="83" spans="1:15">
-      <c r="A83" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>853</v>
-      </c>
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -22157,20 +22180,16 @@
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
-      <c r="M83" s="2" t="s">
-        <v>802</v>
-      </c>
+      <c r="M83" s="2"/>
       <c r="N83" s="2"/>
-      <c r="O83" s="3" t="s">
-        <v>854</v>
-      </c>
+      <c r="O83" s="3"/>
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="2" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -22183,19 +22202,19 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2" t="s">
-        <v>857</v>
+        <v>802</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="3" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="2" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -22208,19 +22227,19 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="3" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="2" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -22233,19 +22252,19 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
       <c r="M86" s="2" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="3" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="2" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -22258,19 +22277,19 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="3" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="2" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -22283,19 +22302,19 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
       <c r="M88" s="2" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="3" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="2" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -22308,19 +22327,19 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="3" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="2" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -22333,19 +22352,19 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="3" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="2" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -22358,61 +22377,61 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="3" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="3" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
-      <c r="A92" s="15"/>
-      <c r="B92" s="17"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
-      <c r="L92" s="6"/>
-      <c r="M92" s="6"/>
-      <c r="N92" s="6"/>
-      <c r="O92" s="6"/>
-    </row>
     <row r="93" spans="1:15">
-      <c r="A93" s="2" t="s">
-        <v>887</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>888</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
-      <c r="M93" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="N93" s="2"/>
-      <c r="O93" s="3" t="s">
-        <v>890</v>
-      </c>
+      <c r="A93" s="15"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
+      <c r="O93" s="6"/>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="2" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>707</v>
+        <v>888</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -22425,19 +22444,19 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
       <c r="M94" s="2" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="3" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="2" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>895</v>
+        <v>707</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -22450,61 +22469,61 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
       <c r="M95" s="2" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="3" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="3" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
-      <c r="A96" s="15"/>
-      <c r="B96" s="15"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
-      <c r="L96" s="6"/>
-      <c r="M96" s="6"/>
-      <c r="N96" s="6"/>
-      <c r="O96" s="19"/>
-    </row>
     <row r="97" spans="1:15">
-      <c r="A97" s="2" t="s">
-        <v>898</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>899</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
-      <c r="M97" s="2" t="s">
-        <v>900</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" s="3" t="s">
-        <v>901</v>
-      </c>
+      <c r="A97" s="15"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+      <c r="O97" s="19"/>
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="2" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -22517,19 +22536,19 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
       <c r="M98" s="2" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="3" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="2" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -22542,61 +22561,61 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
       <c r="M99" s="2" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="3" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" s="3" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
-      <c r="A100" s="15"/>
-      <c r="B100" s="15"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
-      <c r="K100" s="6"/>
-      <c r="L100" s="6"/>
-      <c r="M100" s="6"/>
-      <c r="N100" s="6"/>
-      <c r="O100" s="6"/>
-    </row>
     <row r="101" spans="1:15">
-      <c r="A101" s="2" t="s">
-        <v>910</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>911</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2" t="s">
-        <v>912</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" s="3" t="s">
-        <v>913</v>
-      </c>
+      <c r="A101" s="15"/>
+      <c r="B101" s="15"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
+      <c r="M101" s="6"/>
+      <c r="N101" s="6"/>
+      <c r="O101" s="6"/>
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="2" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -22613,15 +22632,15 @@
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="3" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="2" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -22634,61 +22653,61 @@
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
       <c r="M103" s="2" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="3" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" s="3" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="104" spans="1:15">
-      <c r="A104" s="15"/>
-      <c r="B104" s="15"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
-      <c r="I104" s="6"/>
-      <c r="J104" s="6"/>
-      <c r="K104" s="6"/>
-      <c r="L104" s="6"/>
-      <c r="M104" s="6"/>
-      <c r="N104" s="6"/>
-      <c r="O104" s="19"/>
-    </row>
     <row r="105" spans="1:15">
-      <c r="A105" s="2" t="s">
-        <v>921</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
-      <c r="K105" s="2"/>
-      <c r="L105" s="2"/>
-      <c r="M105" s="2" t="s">
-        <v>922</v>
-      </c>
-      <c r="N105" s="2"/>
-      <c r="O105" s="3" t="s">
-        <v>923</v>
-      </c>
+      <c r="A105" s="15"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="6"/>
+      <c r="N105" s="6"/>
+      <c r="O105" s="19"/>
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="2" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>925</v>
+        <v>672</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -22701,19 +22720,19 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
       <c r="M106" s="2" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="3" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="2" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -22726,19 +22745,19 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
       <c r="M107" s="2" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="3" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="2" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>895</v>
+        <v>929</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -22751,19 +22770,19 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
       <c r="M108" s="2" t="s">
-        <v>896</v>
+        <v>930</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="3" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="2" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>935</v>
+        <v>895</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -22776,16 +22795,20 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
       <c r="M109" s="2" t="s">
-        <v>936</v>
+        <v>896</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="3" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
     </row>
     <row r="110" spans="1:15">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
+      <c r="A110" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>935</v>
+      </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -22796,17 +22819,17 @@
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
-      <c r="M110" s="2"/>
+      <c r="M110" s="2" t="s">
+        <v>936</v>
+      </c>
       <c r="N110" s="2"/>
-      <c r="O110" s="2"/>
+      <c r="O110" s="3" t="s">
+        <v>937</v>
+      </c>
     </row>
     <row r="111" spans="1:15">
-      <c r="A111" s="2" t="s">
-        <v>938</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>939</v>
-      </c>
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -22817,20 +22840,16 @@
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
-      <c r="M111" s="2" t="s">
-        <v>940</v>
-      </c>
+      <c r="M111" s="2"/>
       <c r="N111" s="2"/>
-      <c r="O111" s="3" t="s">
-        <v>941</v>
-      </c>
+      <c r="O111" s="2"/>
     </row>
     <row r="112" spans="1:15">
       <c r="A112" s="2" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -22843,19 +22862,19 @@
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
       <c r="M112" s="2" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="3" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
     </row>
     <row r="113" spans="1:15">
       <c r="A113" s="2" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -22868,19 +22887,19 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
       <c r="M113" s="2" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="3" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
     </row>
     <row r="114" spans="1:15">
       <c r="A114" s="2" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -22893,19 +22912,19 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
       <c r="M114" s="2" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="3" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
     </row>
     <row r="115" spans="1:15">
       <c r="A115" s="2" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -22918,19 +22937,19 @@
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
       <c r="M115" s="2" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="3" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
     </row>
     <row r="116" spans="1:15">
       <c r="A116" s="2" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -22943,44 +22962,44 @@
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
       <c r="M116" s="2" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="3" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="A117" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="N117" s="2"/>
+      <c r="O117" s="3" t="s">
         <v>961</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15">
-      <c r="A118" s="2" t="s">
-        <v>962</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
-      <c r="J118" s="2"/>
-      <c r="K118" s="2"/>
-      <c r="L118" s="2"/>
-      <c r="M118" s="2" t="s">
-        <v>964</v>
-      </c>
-      <c r="N118" s="2"/>
-      <c r="O118" s="3" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="119" spans="1:15">
       <c r="A119" s="2" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -22993,19 +23012,19 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
       <c r="M119" s="2" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="3" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
     </row>
     <row r="120" spans="1:15">
       <c r="A120" s="2" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -23018,19 +23037,19 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
       <c r="M120" s="2" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="3" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="121" spans="1:15">
       <c r="A121" s="2" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -23043,19 +23062,19 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
       <c r="M121" s="2" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="3" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="122" spans="1:15">
       <c r="A122" s="2" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -23068,47 +23087,47 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
       <c r="M122" s="2" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="3" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="A123" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+      <c r="L123" s="2"/>
+      <c r="M123" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="N123" s="2"/>
+      <c r="O123" s="3" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="123" spans="1:15">
-      <c r="O123" s="1"/>
-    </row>
     <row r="124" spans="1:15">
-      <c r="A124" s="2" t="s">
-        <v>982</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>983</v>
-      </c>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
-      <c r="J124" s="2"/>
-      <c r="K124" s="2"/>
-      <c r="L124" s="2"/>
-      <c r="M124" s="2" t="s">
-        <v>984</v>
-      </c>
-      <c r="N124" s="2"/>
-      <c r="O124" s="3" t="s">
-        <v>985</v>
-      </c>
+      <c r="O124" s="1"/>
     </row>
     <row r="125" spans="1:15">
       <c r="A125" s="2" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -23121,19 +23140,19 @@
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
       <c r="M125" s="2" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="3" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="126" spans="1:15">
       <c r="A126" s="2" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -23146,47 +23165,47 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
       <c r="M126" s="2" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="3" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="2"/>
+      <c r="M127" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="N127" s="2"/>
+      <c r="O127" s="3" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="127" spans="1:15">
-      <c r="O127" s="1"/>
-    </row>
     <row r="128" spans="1:15">
-      <c r="A128" s="2" t="s">
-        <v>994</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
-      <c r="I128" s="2"/>
-      <c r="J128" s="2"/>
-      <c r="K128" s="2"/>
-      <c r="L128" s="2"/>
-      <c r="M128" s="2" t="s">
-        <v>922</v>
-      </c>
-      <c r="N128" s="2"/>
-      <c r="O128" s="3" t="s">
-        <v>995</v>
-      </c>
+      <c r="O128" s="1"/>
     </row>
     <row r="129" spans="1:15">
       <c r="A129" s="2" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>856</v>
+        <v>672</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -23199,19 +23218,19 @@
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
       <c r="M129" s="2" t="s">
-        <v>857</v>
+        <v>922</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="3" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="2" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>999</v>
+        <v>856</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -23224,19 +23243,19 @@
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
       <c r="M130" s="2" t="s">
-        <v>1000</v>
+        <v>857</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="3" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
     </row>
     <row r="131" spans="1:15">
       <c r="A131" s="2" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -23249,47 +23268,47 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
       <c r="M131" s="2" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="3" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
+      <c r="A132" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
+      <c r="M132" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="N132" s="2"/>
+      <c r="O132" s="3" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="132" spans="1:15">
-      <c r="O132" s="1"/>
-    </row>
     <row r="133" spans="1:15">
-      <c r="A133" s="2" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
-      <c r="I133" s="2"/>
-      <c r="J133" s="2"/>
-      <c r="K133" s="2"/>
-      <c r="L133" s="2"/>
-      <c r="M133" s="2" t="s">
-        <v>1008</v>
-      </c>
-      <c r="N133" s="2"/>
-      <c r="O133" s="3" t="s">
-        <v>1009</v>
-      </c>
+      <c r="O133" s="1"/>
     </row>
     <row r="134" spans="1:15">
       <c r="A134" s="2" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -23302,19 +23321,19 @@
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
       <c r="M134" s="2" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" s="3" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="2" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -23327,19 +23346,19 @@
       <c r="K135" s="2"/>
       <c r="L135" s="2"/>
       <c r="M135" s="2" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="3" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="2" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -23352,19 +23371,19 @@
       <c r="K136" s="2"/>
       <c r="L136" s="2"/>
       <c r="M136" s="2" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" s="3" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="2" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -23377,44 +23396,44 @@
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
       <c r="M137" s="2" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="3" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="A138" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="2"/>
+      <c r="K138" s="2"/>
+      <c r="L138" s="2"/>
+      <c r="M138" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="N138" s="2"/>
+      <c r="O138" s="3" t="s">
         <v>1025</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15">
-      <c r="A139" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
-      <c r="I139" s="2"/>
-      <c r="J139" s="2"/>
-      <c r="K139" s="2"/>
-      <c r="L139" s="2"/>
-      <c r="M139" s="2" t="s">
-        <v>1028</v>
-      </c>
-      <c r="N139" s="2"/>
-      <c r="O139" s="3" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="140" spans="1:15">
       <c r="A140" s="2" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
@@ -23427,19 +23446,19 @@
       <c r="K140" s="2"/>
       <c r="L140" s="2"/>
       <c r="M140" s="2" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="3" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="141" spans="1:15">
       <c r="A141" s="2" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -23452,19 +23471,19 @@
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
       <c r="M141" s="2" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" s="3" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="142" spans="1:15">
       <c r="A142" s="2" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -23477,19 +23496,19 @@
       <c r="K142" s="2"/>
       <c r="L142" s="2"/>
       <c r="M142" s="2" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="3" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="2" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
@@ -23502,47 +23521,47 @@
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
       <c r="M143" s="2" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" s="3" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
+      <c r="A144" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
+      <c r="L144" s="2"/>
+      <c r="M144" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="N144" s="2"/>
+      <c r="O144" s="3" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="144" spans="1:15">
-      <c r="O144" s="1"/>
-    </row>
     <row r="145" spans="1:15">
-      <c r="A145" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
-      <c r="I145" s="2"/>
-      <c r="J145" s="2"/>
-      <c r="K145" s="2"/>
-      <c r="L145" s="2"/>
-      <c r="M145" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="N145" s="2"/>
-      <c r="O145" s="3" t="s">
-        <v>1049</v>
-      </c>
+      <c r="O145" s="1"/>
     </row>
     <row r="146" spans="1:15">
       <c r="A146" s="2" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -23555,19 +23574,19 @@
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
       <c r="M146" s="2" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" s="3" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="147" spans="1:15">
       <c r="A147" s="2" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
@@ -23580,47 +23599,47 @@
       <c r="K147" s="2"/>
       <c r="L147" s="2"/>
       <c r="M147" s="2" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" s="3" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
+      <c r="A148" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
+      <c r="L148" s="2"/>
+      <c r="M148" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="N148" s="2"/>
+      <c r="O148" s="3" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="148" spans="1:15">
-      <c r="O148" s="1"/>
-    </row>
     <row r="149" spans="1:15">
-      <c r="A149" s="2" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
-      <c r="F149" s="2"/>
-      <c r="G149" s="2"/>
-      <c r="H149" s="2"/>
-      <c r="I149" s="2"/>
-      <c r="J149" s="2"/>
-      <c r="K149" s="2"/>
-      <c r="L149" s="2"/>
-      <c r="M149" s="2" t="s">
-        <v>1060</v>
-      </c>
-      <c r="N149" s="2"/>
-      <c r="O149" s="3" t="s">
-        <v>1061</v>
-      </c>
+      <c r="O149" s="1"/>
     </row>
     <row r="150" spans="1:15">
       <c r="A150" s="2" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>437</v>
+        <v>1059</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -23633,19 +23652,19 @@
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
       <c r="M150" s="2" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" s="3" t="s">
-        <v>439</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="151" spans="1:15">
       <c r="A151" s="2" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1065</v>
+        <v>437</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -23658,19 +23677,19 @@
       <c r="K151" s="2"/>
       <c r="L151" s="2"/>
       <c r="M151" s="2" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="3" t="s">
-        <v>1067</v>
+        <v>439</v>
       </c>
     </row>
     <row r="152" spans="1:15">
       <c r="A152" s="2" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -23683,19 +23702,19 @@
       <c r="K152" s="2"/>
       <c r="L152" s="2"/>
       <c r="M152" s="2" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="3" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="153" spans="1:15">
       <c r="A153" s="2" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -23708,19 +23727,19 @@
       <c r="K153" s="2"/>
       <c r="L153" s="2"/>
       <c r="M153" s="2" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" s="3" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="154" spans="1:15">
       <c r="A154" s="2" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -23733,19 +23752,19 @@
       <c r="K154" s="2"/>
       <c r="L154" s="2"/>
       <c r="M154" s="2" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="3" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="155" spans="1:15">
       <c r="A155" s="2" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -23758,47 +23777,47 @@
       <c r="K155" s="2"/>
       <c r="L155" s="2"/>
       <c r="M155" s="2" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" s="3" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
+      <c r="A156" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
+      <c r="J156" s="2"/>
+      <c r="K156" s="2"/>
+      <c r="L156" s="2"/>
+      <c r="M156" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="N156" s="2"/>
+      <c r="O156" s="3" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="156" spans="1:15">
-      <c r="O156" s="1"/>
-    </row>
     <row r="157" spans="1:15">
-      <c r="A157" s="2" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
-      <c r="G157" s="2"/>
-      <c r="H157" s="2"/>
-      <c r="I157" s="2"/>
-      <c r="J157" s="2"/>
-      <c r="K157" s="2"/>
-      <c r="L157" s="2"/>
-      <c r="M157" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="N157" s="2"/>
-      <c r="O157" s="3" t="s">
-        <v>1086</v>
-      </c>
+      <c r="O157" s="1"/>
     </row>
     <row r="158" spans="1:15">
       <c r="A158" s="2" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>888</v>
+        <v>1085</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -23811,19 +23830,19 @@
       <c r="K158" s="2"/>
       <c r="L158" s="2"/>
       <c r="M158" s="2" t="s">
-        <v>889</v>
+        <v>802</v>
       </c>
       <c r="N158" s="2"/>
       <c r="O158" s="3" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="159" spans="1:15">
       <c r="A159" s="2" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>1090</v>
+        <v>888</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -23836,19 +23855,19 @@
       <c r="K159" s="2"/>
       <c r="L159" s="2"/>
       <c r="M159" s="2" t="s">
-        <v>1091</v>
+        <v>889</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="3" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="160" spans="1:15">
       <c r="A160" s="2" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -23861,44 +23880,44 @@
       <c r="K160" s="2"/>
       <c r="L160" s="2"/>
       <c r="M160" s="2" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="3" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
+      <c r="A161" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
+      <c r="H161" s="2"/>
+      <c r="I161" s="2"/>
+      <c r="J161" s="2"/>
+      <c r="K161" s="2"/>
+      <c r="L161" s="2"/>
+      <c r="M161" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="N161" s="2"/>
+      <c r="O161" s="3" t="s">
         <v>1096</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15">
-      <c r="A162" s="2" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
-      <c r="F162" s="2"/>
-      <c r="G162" s="2"/>
-      <c r="H162" s="2"/>
-      <c r="I162" s="2"/>
-      <c r="J162" s="2"/>
-      <c r="K162" s="2"/>
-      <c r="L162" s="2"/>
-      <c r="M162" s="2" t="s">
-        <v>1099</v>
-      </c>
-      <c r="N162" s="2"/>
-      <c r="O162" s="3" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="163" spans="1:15">
       <c r="A163" s="2" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -23911,19 +23930,19 @@
       <c r="K163" s="2"/>
       <c r="L163" s="2"/>
       <c r="M163" s="2" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" s="3" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="164" spans="1:15">
       <c r="A164" s="2" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
@@ -23936,19 +23955,19 @@
       <c r="K164" s="2"/>
       <c r="L164" s="2"/>
       <c r="M164" s="2" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" s="3" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="165" spans="1:15">
       <c r="A165" s="2" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -23961,19 +23980,19 @@
       <c r="K165" s="2"/>
       <c r="L165" s="2"/>
       <c r="M165" s="2" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" s="3" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="166" spans="1:15">
       <c r="A166" s="2" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
@@ -23986,19 +24005,19 @@
       <c r="K166" s="2"/>
       <c r="L166" s="2"/>
       <c r="M166" s="2" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" s="3" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="167" spans="1:15">
       <c r="A167" s="2" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
@@ -24011,47 +24030,47 @@
       <c r="K167" s="2"/>
       <c r="L167" s="2"/>
       <c r="M167" s="2" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="3" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15">
+      <c r="A168" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2"/>
+      <c r="J168" s="2"/>
+      <c r="K168" s="2"/>
+      <c r="L168" s="2"/>
+      <c r="M168" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="N168" s="2"/>
+      <c r="O168" s="3" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="168" spans="1:15">
-      <c r="O168" s="1"/>
-    </row>
     <row r="169" spans="1:15">
-      <c r="A169" s="2" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
-      <c r="F169" s="2"/>
-      <c r="G169" s="2"/>
-      <c r="H169" s="2"/>
-      <c r="I169" s="2"/>
-      <c r="J169" s="2"/>
-      <c r="K169" s="2"/>
-      <c r="L169" s="2"/>
-      <c r="M169" s="2" t="s">
-        <v>1123</v>
-      </c>
-      <c r="N169" s="2"/>
-      <c r="O169" s="3" t="s">
-        <v>1124</v>
-      </c>
+      <c r="O169" s="1"/>
     </row>
     <row r="170" spans="1:15">
       <c r="A170" s="2" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -24064,19 +24083,19 @@
       <c r="K170" s="2"/>
       <c r="L170" s="2"/>
       <c r="M170" s="2" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" s="3" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="171" spans="1:15">
       <c r="A171" s="2" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -24089,19 +24108,19 @@
       <c r="K171" s="2"/>
       <c r="L171" s="2"/>
       <c r="M171" s="2" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" s="3" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="172" spans="1:15">
       <c r="A172" s="2" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
@@ -24114,19 +24133,19 @@
       <c r="K172" s="2"/>
       <c r="L172" s="2"/>
       <c r="M172" s="2" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" s="3" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="173" spans="1:15">
       <c r="A173" s="2" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -24139,19 +24158,19 @@
       <c r="K173" s="2"/>
       <c r="L173" s="2"/>
       <c r="M173" s="2" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" s="3" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="174" spans="1:15">
       <c r="A174" s="2" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
@@ -24164,47 +24183,47 @@
       <c r="K174" s="2"/>
       <c r="L174" s="2"/>
       <c r="M174" s="2" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="N174" s="2"/>
       <c r="O174" s="3" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15">
+      <c r="A175" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
+      <c r="H175" s="2"/>
+      <c r="I175" s="2"/>
+      <c r="J175" s="2"/>
+      <c r="K175" s="2"/>
+      <c r="L175" s="2"/>
+      <c r="M175" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="N175" s="2"/>
+      <c r="O175" s="3" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="175" spans="1:15">
-      <c r="O175" s="1"/>
-    </row>
     <row r="176" spans="1:15">
-      <c r="A176" s="2" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C176" s="2"/>
-      <c r="D176" s="2"/>
-      <c r="E176" s="2"/>
-      <c r="F176" s="2"/>
-      <c r="G176" s="2"/>
-      <c r="H176" s="2"/>
-      <c r="I176" s="2"/>
-      <c r="J176" s="2"/>
-      <c r="K176" s="2"/>
-      <c r="L176" s="2"/>
-      <c r="M176" s="2" t="s">
-        <v>1147</v>
-      </c>
-      <c r="N176" s="2"/>
-      <c r="O176" s="3" t="s">
-        <v>1148</v>
-      </c>
+      <c r="O176" s="1"/>
     </row>
     <row r="177" spans="1:15">
       <c r="A177" s="2" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
@@ -24217,19 +24236,19 @@
       <c r="K177" s="2"/>
       <c r="L177" s="2"/>
       <c r="M177" s="2" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" s="3" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="178" spans="1:15">
       <c r="A178" s="2" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
@@ -24242,19 +24261,19 @@
       <c r="K178" s="2"/>
       <c r="L178" s="2"/>
       <c r="M178" s="2" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" s="3" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="179" spans="1:15">
       <c r="A179" s="2" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
@@ -24267,19 +24286,19 @@
       <c r="K179" s="2"/>
       <c r="L179" s="2"/>
       <c r="M179" s="2" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="N179" s="2"/>
       <c r="O179" s="3" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="180" spans="1:15">
       <c r="A180" s="2" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
@@ -24292,47 +24311,47 @@
       <c r="K180" s="2"/>
       <c r="L180" s="2"/>
       <c r="M180" s="2" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15">
+      <c r="A181" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
+      <c r="H181" s="2"/>
+      <c r="I181" s="2"/>
+      <c r="J181" s="2"/>
+      <c r="K181" s="2"/>
+      <c r="L181" s="2"/>
+      <c r="M181" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="N181" s="2"/>
+      <c r="O181" s="3" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="181" spans="1:15">
-      <c r="O181" s="1"/>
-    </row>
     <row r="182" spans="1:15">
-      <c r="A182" s="2" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C182" s="2"/>
-      <c r="D182" s="2"/>
-      <c r="E182" s="2"/>
-      <c r="F182" s="2"/>
-      <c r="G182" s="2"/>
-      <c r="H182" s="2"/>
-      <c r="I182" s="2"/>
-      <c r="J182" s="2"/>
-      <c r="K182" s="2"/>
-      <c r="L182" s="2"/>
-      <c r="M182" s="2" t="s">
-        <v>1167</v>
-      </c>
-      <c r="N182" s="2"/>
-      <c r="O182" s="3" t="s">
-        <v>1168</v>
-      </c>
+      <c r="O182" s="1"/>
     </row>
     <row r="183" spans="1:15">
       <c r="A183" s="2" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
@@ -24345,19 +24364,19 @@
       <c r="K183" s="2"/>
       <c r="L183" s="2"/>
       <c r="M183" s="2" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" s="3" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="184" spans="1:15">
       <c r="A184" s="2" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
@@ -24370,47 +24389,47 @@
       <c r="K184" s="2"/>
       <c r="L184" s="2"/>
       <c r="M184" s="2" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="N184" s="2"/>
       <c r="O184" s="3" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15">
+      <c r="A185" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+      <c r="H185" s="2"/>
+      <c r="I185" s="2"/>
+      <c r="J185" s="2"/>
+      <c r="K185" s="2"/>
+      <c r="L185" s="2"/>
+      <c r="M185" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="N185" s="2"/>
+      <c r="O185" s="3" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="185" spans="1:15">
-      <c r="O185" s="1"/>
-    </row>
     <row r="186" spans="1:15">
-      <c r="A186" s="2" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C186" s="2"/>
-      <c r="D186" s="2"/>
-      <c r="E186" s="2"/>
-      <c r="F186" s="2"/>
-      <c r="G186" s="2"/>
-      <c r="H186" s="2"/>
-      <c r="I186" s="2"/>
-      <c r="J186" s="2"/>
-      <c r="K186" s="2"/>
-      <c r="L186" s="2"/>
-      <c r="M186" s="2" t="s">
-        <v>1179</v>
-      </c>
-      <c r="N186" s="2"/>
-      <c r="O186" s="3" t="s">
-        <v>1180</v>
-      </c>
+      <c r="O186" s="1"/>
     </row>
     <row r="187" spans="1:15">
       <c r="A187" s="2" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
@@ -24423,19 +24442,19 @@
       <c r="K187" s="2"/>
       <c r="L187" s="2"/>
       <c r="M187" s="2" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" s="3" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="188" spans="1:15">
       <c r="A188" s="2" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
@@ -24448,19 +24467,19 @@
       <c r="K188" s="2"/>
       <c r="L188" s="2"/>
       <c r="M188" s="2" t="s">
-        <v>930</v>
+        <v>1183</v>
       </c>
       <c r="N188" s="2"/>
       <c r="O188" s="3" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="189" spans="1:15">
       <c r="A189" s="2" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>895</v>
+        <v>1186</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
@@ -24473,44 +24492,44 @@
       <c r="K189" s="2"/>
       <c r="L189" s="2"/>
       <c r="M189" s="2" t="s">
-        <v>896</v>
+        <v>930</v>
       </c>
       <c r="N189" s="2"/>
       <c r="O189" s="3" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15">
+      <c r="A190" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2"/>
+      <c r="E190" s="2"/>
+      <c r="F190" s="2"/>
+      <c r="G190" s="2"/>
+      <c r="H190" s="2"/>
+      <c r="I190" s="2"/>
+      <c r="J190" s="2"/>
+      <c r="K190" s="2"/>
+      <c r="L190" s="2"/>
+      <c r="M190" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="N190" s="2"/>
+      <c r="O190" s="3" t="s">
         <v>1189</v>
-      </c>
-    </row>
-    <row r="191" spans="1:15">
-      <c r="A191" s="2" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C191" s="2"/>
-      <c r="D191" s="2"/>
-      <c r="E191" s="2"/>
-      <c r="F191" s="2"/>
-      <c r="G191" s="2"/>
-      <c r="H191" s="2"/>
-      <c r="I191" s="2"/>
-      <c r="J191" s="2"/>
-      <c r="K191" s="2"/>
-      <c r="L191" s="2"/>
-      <c r="M191" s="2" t="s">
-        <v>1192</v>
-      </c>
-      <c r="N191" s="2"/>
-      <c r="O191" s="3" t="s">
-        <v>1193</v>
       </c>
     </row>
     <row r="192" spans="1:15">
       <c r="A192" s="2" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
@@ -24523,19 +24542,19 @@
       <c r="K192" s="2"/>
       <c r="L192" s="2"/>
       <c r="M192" s="2" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" s="3" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="193" spans="1:15">
       <c r="A193" s="2" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
@@ -24548,19 +24567,19 @@
       <c r="K193" s="2"/>
       <c r="L193" s="2"/>
       <c r="M193" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="N193" s="2"/>
       <c r="O193" s="3" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="194" spans="1:15">
       <c r="A194" s="2" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
@@ -24573,19 +24592,19 @@
       <c r="K194" s="2"/>
       <c r="L194" s="2"/>
       <c r="M194" s="2" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="N194" s="2"/>
       <c r="O194" s="3" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="195" spans="1:15">
       <c r="A195" s="2" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
@@ -24598,19 +24617,19 @@
       <c r="K195" s="2"/>
       <c r="L195" s="2"/>
       <c r="M195" s="2" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="N195" s="2"/>
       <c r="O195" s="3" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="196" spans="1:15">
       <c r="A196" s="2" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>1134</v>
+        <v>1207</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
@@ -24623,19 +24642,19 @@
       <c r="K196" s="2"/>
       <c r="L196" s="2"/>
       <c r="M196" s="2" t="s">
-        <v>1135</v>
+        <v>1208</v>
       </c>
       <c r="N196" s="2"/>
       <c r="O196" s="3" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="197" spans="1:15">
       <c r="A197" s="2" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
@@ -24648,19 +24667,19 @@
       <c r="K197" s="2"/>
       <c r="L197" s="2"/>
       <c r="M197" s="2" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" s="3" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="2" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>1215</v>
+        <v>1138</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
@@ -24673,47 +24692,47 @@
       <c r="K198" s="2"/>
       <c r="L198" s="2"/>
       <c r="M198" s="2" t="s">
-        <v>1216</v>
+        <v>1139</v>
       </c>
       <c r="N198" s="2"/>
       <c r="O198" s="3" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15">
+      <c r="A199" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
+      <c r="G199" s="2"/>
+      <c r="H199" s="2"/>
+      <c r="I199" s="2"/>
+      <c r="J199" s="2"/>
+      <c r="K199" s="2"/>
+      <c r="L199" s="2"/>
+      <c r="M199" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="N199" s="2"/>
+      <c r="O199" s="3" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="199" spans="1:15">
-      <c r="O199" s="1"/>
-    </row>
     <row r="200" spans="1:15">
-      <c r="A200" s="2" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>1219</v>
-      </c>
-      <c r="C200" s="2"/>
-      <c r="D200" s="2"/>
-      <c r="E200" s="2"/>
-      <c r="F200" s="2"/>
-      <c r="G200" s="2"/>
-      <c r="H200" s="2"/>
-      <c r="I200" s="2"/>
-      <c r="J200" s="2"/>
-      <c r="K200" s="2"/>
-      <c r="L200" s="2"/>
-      <c r="M200" s="2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="N200" s="2"/>
-      <c r="O200" s="3" t="s">
-        <v>1221</v>
-      </c>
+      <c r="O200" s="1"/>
     </row>
     <row r="201" spans="1:15">
       <c r="A201" s="2" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
@@ -24726,19 +24745,19 @@
       <c r="K201" s="2"/>
       <c r="L201" s="2"/>
       <c r="M201" s="2" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="N201" s="2"/>
       <c r="O201" s="3" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="202" spans="1:15">
       <c r="A202" s="2" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
@@ -24751,47 +24770,47 @@
       <c r="K202" s="2"/>
       <c r="L202" s="2"/>
       <c r="M202" s="2" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="N202" s="2"/>
       <c r="O202" s="3" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15">
+      <c r="A203" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
+      <c r="H203" s="2"/>
+      <c r="I203" s="2"/>
+      <c r="J203" s="2"/>
+      <c r="K203" s="2"/>
+      <c r="L203" s="2"/>
+      <c r="M203" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="N203" s="2"/>
+      <c r="O203" s="3" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="203" spans="1:15">
-      <c r="O203" s="1"/>
-    </row>
     <row r="204" spans="1:15">
-      <c r="A204" s="2" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C204" s="2"/>
-      <c r="D204" s="2"/>
-      <c r="E204" s="2"/>
-      <c r="F204" s="2"/>
-      <c r="G204" s="2"/>
-      <c r="H204" s="2"/>
-      <c r="I204" s="2"/>
-      <c r="J204" s="2"/>
-      <c r="K204" s="2"/>
-      <c r="L204" s="2"/>
-      <c r="M204" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="N204" s="2"/>
-      <c r="O204" s="3" t="s">
-        <v>1231</v>
-      </c>
+      <c r="O204" s="1"/>
     </row>
     <row r="205" spans="1:15">
       <c r="A205" s="2" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>1186</v>
+        <v>1178</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
@@ -24804,19 +24823,19 @@
       <c r="K205" s="2"/>
       <c r="L205" s="2"/>
       <c r="M205" s="2" t="s">
-        <v>930</v>
+        <v>696</v>
       </c>
       <c r="N205" s="2"/>
       <c r="O205" s="3" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="206" spans="1:15">
       <c r="A206" s="2" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>895</v>
+        <v>1186</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
@@ -24829,19 +24848,19 @@
       <c r="K206" s="2"/>
       <c r="L206" s="2"/>
       <c r="M206" s="2" t="s">
-        <v>896</v>
+        <v>930</v>
       </c>
       <c r="N206" s="2"/>
       <c r="O206" s="3" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="207" spans="1:15">
       <c r="A207" s="2" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>707</v>
+        <v>895</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
@@ -24854,19 +24873,19 @@
       <c r="K207" s="2"/>
       <c r="L207" s="2"/>
       <c r="M207" s="2" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="N207" s="2"/>
       <c r="O207" s="3" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="208" spans="1:15">
       <c r="A208" s="2" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
@@ -24879,19 +24898,19 @@
       <c r="K208" s="2"/>
       <c r="L208" s="2"/>
       <c r="M208" s="2" t="s">
-        <v>1239</v>
+        <v>892</v>
       </c>
       <c r="N208" s="2"/>
       <c r="O208" s="3" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="209" spans="1:15">
       <c r="A209" s="2" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>1242</v>
+        <v>711</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
@@ -24904,16 +24923,20 @@
       <c r="K209" s="2"/>
       <c r="L209" s="2"/>
       <c r="M209" s="2" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="N209" s="2"/>
       <c r="O209" s="3" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="210" spans="1:15">
-      <c r="A210" s="2"/>
-      <c r="B210" s="2"/>
+      <c r="A210" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>1242</v>
+      </c>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -24924,17 +24947,17 @@
       <c r="J210" s="2"/>
       <c r="K210" s="2"/>
       <c r="L210" s="2"/>
-      <c r="M210" s="2"/>
+      <c r="M210" s="2" t="s">
+        <v>1243</v>
+      </c>
       <c r="N210" s="2"/>
-      <c r="O210" s="2"/>
+      <c r="O210" s="3" t="s">
+        <v>1244</v>
+      </c>
     </row>
     <row r="211" spans="1:15">
-      <c r="A211" s="2" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>1246</v>
-      </c>
+      <c r="A211" s="2"/>
+      <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
@@ -24945,20 +24968,16 @@
       <c r="J211" s="2"/>
       <c r="K211" s="2"/>
       <c r="L211" s="2"/>
-      <c r="M211" s="2" t="s">
-        <v>1247</v>
-      </c>
+      <c r="M211" s="2"/>
       <c r="N211" s="2"/>
-      <c r="O211" s="3" t="s">
-        <v>1248</v>
-      </c>
+      <c r="O211" s="2"/>
     </row>
     <row r="212" spans="1:15">
       <c r="A212" s="2" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
@@ -24971,19 +24990,19 @@
       <c r="K212" s="2"/>
       <c r="L212" s="2"/>
       <c r="M212" s="2" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="N212" s="2"/>
       <c r="O212" s="3" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="213" spans="1:15">
       <c r="A213" s="2" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
@@ -24996,19 +25015,19 @@
       <c r="K213" s="2"/>
       <c r="L213" s="2"/>
       <c r="M213" s="2" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="N213" s="2"/>
       <c r="O213" s="3" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="214" spans="1:15">
       <c r="A214" s="2" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
@@ -25021,19 +25040,19 @@
       <c r="K214" s="2"/>
       <c r="L214" s="2"/>
       <c r="M214" s="2" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="N214" s="2"/>
       <c r="O214" s="3" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="215" spans="1:15">
       <c r="A215" s="2" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
@@ -25046,16 +25065,20 @@
       <c r="K215" s="2"/>
       <c r="L215" s="2"/>
       <c r="M215" s="2" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="N215" s="2"/>
       <c r="O215" s="3" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="216" spans="1:15">
-      <c r="A216" s="2"/>
-      <c r="B216" s="2"/>
+      <c r="A216" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>1262</v>
+      </c>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -25066,17 +25089,17 @@
       <c r="J216" s="2"/>
       <c r="K216" s="2"/>
       <c r="L216" s="2"/>
-      <c r="M216" s="2"/>
+      <c r="M216" s="2" t="s">
+        <v>1263</v>
+      </c>
       <c r="N216" s="2"/>
-      <c r="O216" s="2"/>
+      <c r="O216" s="3" t="s">
+        <v>1264</v>
+      </c>
     </row>
     <row r="217" spans="1:15">
-      <c r="A217" s="2" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>1266</v>
-      </c>
+      <c r="A217" s="2"/>
+      <c r="B217" s="2"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -25087,20 +25110,16 @@
       <c r="J217" s="2"/>
       <c r="K217" s="2"/>
       <c r="L217" s="2"/>
-      <c r="M217" s="2" t="s">
-        <v>1267</v>
-      </c>
+      <c r="M217" s="2"/>
       <c r="N217" s="2"/>
-      <c r="O217" s="3" t="s">
-        <v>1268</v>
-      </c>
+      <c r="O217" s="2"/>
     </row>
     <row r="218" spans="1:15">
       <c r="A218" s="2" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
@@ -25113,19 +25132,19 @@
       <c r="K218" s="2"/>
       <c r="L218" s="2"/>
       <c r="M218" s="2" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="N218" s="2"/>
       <c r="O218" s="3" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="219" spans="1:15">
       <c r="A219" s="2" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
@@ -25138,16 +25157,20 @@
       <c r="K219" s="2"/>
       <c r="L219" s="2"/>
       <c r="M219" s="2" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="N219" s="2"/>
       <c r="O219" s="3" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="220" spans="1:15">
-      <c r="A220" s="2"/>
-      <c r="B220" s="2"/>
+      <c r="A220" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>1274</v>
+      </c>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -25158,17 +25181,17 @@
       <c r="J220" s="2"/>
       <c r="K220" s="2"/>
       <c r="L220" s="2"/>
-      <c r="M220" s="2"/>
+      <c r="M220" s="2" t="s">
+        <v>1275</v>
+      </c>
       <c r="N220" s="2"/>
-      <c r="O220" s="2"/>
+      <c r="O220" s="3" t="s">
+        <v>1276</v>
+      </c>
     </row>
     <row r="221" spans="1:15">
-      <c r="A221" s="2" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>1278</v>
-      </c>
+      <c r="A221" s="2"/>
+      <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -25179,20 +25202,16 @@
       <c r="J221" s="2"/>
       <c r="K221" s="2"/>
       <c r="L221" s="2"/>
-      <c r="M221" s="2" t="s">
-        <v>1279</v>
-      </c>
+      <c r="M221" s="2"/>
       <c r="N221" s="2"/>
-      <c r="O221" s="3" t="s">
-        <v>1280</v>
-      </c>
+      <c r="O221" s="2"/>
     </row>
     <row r="222" spans="1:15">
       <c r="A222" s="2" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
@@ -25205,19 +25224,19 @@
       <c r="K222" s="2"/>
       <c r="L222" s="2"/>
       <c r="M222" s="2" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="N222" s="2"/>
       <c r="O222" s="3" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="223" spans="1:15">
       <c r="A223" s="2" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>929</v>
+        <v>1282</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
@@ -25230,19 +25249,19 @@
       <c r="K223" s="2"/>
       <c r="L223" s="2"/>
       <c r="M223" s="2" t="s">
-        <v>930</v>
+        <v>1283</v>
       </c>
       <c r="N223" s="2"/>
       <c r="O223" s="3" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="224" spans="1:15">
       <c r="A224" s="2" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>1288</v>
+        <v>929</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
@@ -25255,47 +25274,47 @@
       <c r="K224" s="2"/>
       <c r="L224" s="2"/>
       <c r="M224" s="2" t="s">
-        <v>1289</v>
+        <v>930</v>
       </c>
       <c r="N224" s="2"/>
       <c r="O224" s="3" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15">
+      <c r="A225" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C225" s="2"/>
+      <c r="D225" s="2"/>
+      <c r="E225" s="2"/>
+      <c r="F225" s="2"/>
+      <c r="G225" s="2"/>
+      <c r="H225" s="2"/>
+      <c r="I225" s="2"/>
+      <c r="J225" s="2"/>
+      <c r="K225" s="2"/>
+      <c r="L225" s="2"/>
+      <c r="M225" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="N225" s="2"/>
+      <c r="O225" s="3" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="225" spans="1:15">
-      <c r="O225" s="1"/>
-    </row>
     <row r="226" spans="1:15">
-      <c r="A226" s="2" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C226" s="2"/>
-      <c r="D226" s="2"/>
-      <c r="E226" s="2"/>
-      <c r="F226" s="2"/>
-      <c r="G226" s="2"/>
-      <c r="H226" s="2"/>
-      <c r="I226" s="2"/>
-      <c r="J226" s="2"/>
-      <c r="K226" s="2"/>
-      <c r="L226" s="2"/>
-      <c r="M226" s="2" t="s">
-        <v>1293</v>
-      </c>
-      <c r="N226" s="2"/>
-      <c r="O226" s="3" t="s">
-        <v>1294</v>
-      </c>
+      <c r="O226" s="1"/>
     </row>
     <row r="227" spans="1:15">
       <c r="A227" s="2" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
@@ -25308,19 +25327,19 @@
       <c r="K227" s="2"/>
       <c r="L227" s="2"/>
       <c r="M227" s="2" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="N227" s="2"/>
       <c r="O227" s="3" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="228" spans="1:15">
       <c r="A228" s="2" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
@@ -25333,44 +25352,44 @@
       <c r="K228" s="2"/>
       <c r="L228" s="2"/>
       <c r="M228" s="2" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="N228" s="2"/>
       <c r="O228" s="3" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15">
+      <c r="A229" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C229" s="2"/>
+      <c r="D229" s="2"/>
+      <c r="E229" s="2"/>
+      <c r="F229" s="2"/>
+      <c r="G229" s="2"/>
+      <c r="H229" s="2"/>
+      <c r="I229" s="2"/>
+      <c r="J229" s="2"/>
+      <c r="K229" s="2"/>
+      <c r="L229" s="2"/>
+      <c r="M229" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="N229" s="2"/>
+      <c r="O229" s="3" t="s">
         <v>1302</v>
-      </c>
-    </row>
-    <row r="230" spans="1:15">
-      <c r="A230" s="2" t="s">
-        <v>1303</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C230" s="2"/>
-      <c r="D230" s="2"/>
-      <c r="E230" s="2"/>
-      <c r="F230" s="2"/>
-      <c r="G230" s="2"/>
-      <c r="H230" s="2"/>
-      <c r="I230" s="2"/>
-      <c r="J230" s="2"/>
-      <c r="K230" s="2"/>
-      <c r="L230" s="2"/>
-      <c r="M230" s="2" t="s">
-        <v>1305</v>
-      </c>
-      <c r="N230" s="2"/>
-      <c r="O230" s="3" t="s">
-        <v>1306</v>
       </c>
     </row>
     <row r="231" spans="1:15">
       <c r="A231" s="2" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
@@ -25383,19 +25402,19 @@
       <c r="K231" s="2"/>
       <c r="L231" s="2"/>
       <c r="M231" s="2" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="N231" s="2"/>
       <c r="O231" s="3" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="232" spans="1:15">
       <c r="A232" s="2" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
@@ -25408,19 +25427,19 @@
       <c r="K232" s="2"/>
       <c r="L232" s="2"/>
       <c r="M232" s="2" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="N232" s="2"/>
       <c r="O232" s="3" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="233" spans="1:15">
       <c r="A233" s="2" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
@@ -25433,19 +25452,19 @@
       <c r="K233" s="2"/>
       <c r="L233" s="2"/>
       <c r="M233" s="2" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="N233" s="2"/>
       <c r="O233" s="3" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="234" spans="1:15">
       <c r="A234" s="2" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
@@ -25458,47 +25477,47 @@
       <c r="K234" s="2"/>
       <c r="L234" s="2"/>
       <c r="M234" s="2" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="N234" s="2"/>
       <c r="O234" s="3" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15">
+      <c r="A235" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C235" s="2"/>
+      <c r="D235" s="2"/>
+      <c r="E235" s="2"/>
+      <c r="F235" s="2"/>
+      <c r="G235" s="2"/>
+      <c r="H235" s="2"/>
+      <c r="I235" s="2"/>
+      <c r="J235" s="2"/>
+      <c r="K235" s="2"/>
+      <c r="L235" s="2"/>
+      <c r="M235" s="2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="N235" s="2"/>
+      <c r="O235" s="3" t="s">
         <v>1322</v>
       </c>
     </row>
-    <row r="235" spans="1:15">
-      <c r="O235" s="1"/>
-    </row>
     <row r="236" spans="1:15">
-      <c r="A236" s="2" t="s">
-        <v>1323</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>1324</v>
-      </c>
-      <c r="C236" s="2"/>
-      <c r="D236" s="2"/>
-      <c r="E236" s="2"/>
-      <c r="F236" s="2"/>
-      <c r="G236" s="2"/>
-      <c r="H236" s="2"/>
-      <c r="I236" s="2"/>
-      <c r="J236" s="2"/>
-      <c r="K236" s="2"/>
-      <c r="L236" s="2"/>
-      <c r="M236" s="2" t="s">
-        <v>1325</v>
-      </c>
-      <c r="N236" s="2"/>
-      <c r="O236" s="3" t="s">
-        <v>1326</v>
-      </c>
+      <c r="O236" s="1"/>
     </row>
     <row r="237" spans="1:15">
       <c r="A237" s="2" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
@@ -25511,44 +25530,44 @@
       <c r="K237" s="2"/>
       <c r="L237" s="2"/>
       <c r="M237" s="2" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="N237" s="2"/>
       <c r="O237" s="3" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15">
+      <c r="A238" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C238" s="2"/>
+      <c r="D238" s="2"/>
+      <c r="E238" s="2"/>
+      <c r="F238" s="2"/>
+      <c r="G238" s="2"/>
+      <c r="H238" s="2"/>
+      <c r="I238" s="2"/>
+      <c r="J238" s="2"/>
+      <c r="K238" s="2"/>
+      <c r="L238" s="2"/>
+      <c r="M238" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="N238" s="2"/>
+      <c r="O238" s="3" t="s">
         <v>1330</v>
-      </c>
-    </row>
-    <row r="239" spans="1:15">
-      <c r="A239" s="2" t="s">
-        <v>1331</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C239" s="2"/>
-      <c r="D239" s="2"/>
-      <c r="E239" s="2"/>
-      <c r="F239" s="2"/>
-      <c r="G239" s="2"/>
-      <c r="H239" s="2"/>
-      <c r="I239" s="2"/>
-      <c r="J239" s="2"/>
-      <c r="K239" s="2"/>
-      <c r="L239" s="2"/>
-      <c r="M239" s="2" t="s">
-        <v>1333</v>
-      </c>
-      <c r="N239" s="2"/>
-      <c r="O239" s="3" t="s">
-        <v>1334</v>
       </c>
     </row>
     <row r="240" spans="1:15">
       <c r="A240" s="2" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
@@ -25561,19 +25580,19 @@
       <c r="K240" s="2"/>
       <c r="L240" s="2"/>
       <c r="M240" s="2" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="N240" s="2"/>
       <c r="O240" s="3" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="241" spans="1:15">
       <c r="A241" s="2" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
@@ -25586,19 +25605,19 @@
       <c r="K241" s="2"/>
       <c r="L241" s="2"/>
       <c r="M241" s="2" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="N241" s="2"/>
       <c r="O241" s="3" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="242" spans="1:15">
       <c r="A242" s="2" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
@@ -25611,19 +25630,19 @@
       <c r="K242" s="2"/>
       <c r="L242" s="2"/>
       <c r="M242" s="2" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="N242" s="2"/>
       <c r="O242" s="3" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="243" spans="1:15">
       <c r="A243" s="2" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
@@ -25636,19 +25655,19 @@
       <c r="K243" s="2"/>
       <c r="L243" s="2"/>
       <c r="M243" s="2" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="N243" s="2"/>
       <c r="O243" s="3" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="244" spans="1:15">
       <c r="A244" s="2" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
@@ -25661,47 +25680,47 @@
       <c r="K244" s="2"/>
       <c r="L244" s="2"/>
       <c r="M244" s="2" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="N244" s="2"/>
       <c r="O244" s="3" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15">
+      <c r="A245" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C245" s="2"/>
+      <c r="D245" s="2"/>
+      <c r="E245" s="2"/>
+      <c r="F245" s="2"/>
+      <c r="G245" s="2"/>
+      <c r="H245" s="2"/>
+      <c r="I245" s="2"/>
+      <c r="J245" s="2"/>
+      <c r="K245" s="2"/>
+      <c r="L245" s="2"/>
+      <c r="M245" s="2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="N245" s="2"/>
+      <c r="O245" s="3" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="245" spans="1:15">
-      <c r="O245" s="1"/>
-    </row>
     <row r="246" spans="1:15">
-      <c r="A246" s="2" t="s">
-        <v>1355</v>
-      </c>
-      <c r="B246" s="12" t="s">
-        <v>1356</v>
-      </c>
-      <c r="C246" s="2"/>
-      <c r="D246" s="2"/>
-      <c r="E246" s="2"/>
-      <c r="F246" s="2"/>
-      <c r="G246" s="2"/>
-      <c r="H246" s="2"/>
-      <c r="I246" s="2"/>
-      <c r="J246" s="2"/>
-      <c r="K246" s="2"/>
-      <c r="L246" s="2"/>
-      <c r="M246" s="12" t="s">
-        <v>1357</v>
-      </c>
-      <c r="N246" s="2"/>
-      <c r="O246" s="3" t="s">
-        <v>1358</v>
-      </c>
+      <c r="O246" s="1"/>
     </row>
     <row r="247" spans="1:15">
       <c r="A247" s="2" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="B247" s="12" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
@@ -25714,19 +25733,19 @@
       <c r="K247" s="2"/>
       <c r="L247" s="2"/>
       <c r="M247" s="12" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="N247" s="2"/>
       <c r="O247" s="3" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="248" spans="1:15">
       <c r="A248" s="2" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="B248" s="12" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
@@ -25739,19 +25758,19 @@
       <c r="K248" s="2"/>
       <c r="L248" s="2"/>
       <c r="M248" s="12" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="N248" s="2"/>
       <c r="O248" s="3" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="249" spans="1:15">
       <c r="A249" s="2" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="B249" s="12" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
@@ -25764,19 +25783,19 @@
       <c r="K249" s="2"/>
       <c r="L249" s="2"/>
       <c r="M249" s="12" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="N249" s="2"/>
       <c r="O249" s="3" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="250" spans="1:15">
       <c r="A250" s="2" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="B250" s="12" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
@@ -25789,19 +25808,19 @@
       <c r="K250" s="2"/>
       <c r="L250" s="2"/>
       <c r="M250" s="12" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="N250" s="2"/>
       <c r="O250" s="3" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="251" spans="1:15">
       <c r="A251" s="2" t="s">
-        <v>1375</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>929</v>
+        <v>1371</v>
+      </c>
+      <c r="B251" s="12" t="s">
+        <v>1372</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
@@ -25813,20 +25832,20 @@
       <c r="J251" s="2"/>
       <c r="K251" s="2"/>
       <c r="L251" s="2"/>
-      <c r="M251" s="2" t="s">
-        <v>930</v>
+      <c r="M251" s="12" t="s">
+        <v>1373</v>
       </c>
       <c r="N251" s="2"/>
       <c r="O251" s="3" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="252" spans="1:15">
       <c r="A252" s="2" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B252" s="12" t="s">
-        <v>1378</v>
+        <v>1375</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
@@ -25838,48 +25857,48 @@
       <c r="J252" s="2"/>
       <c r="K252" s="2"/>
       <c r="L252" s="2"/>
-      <c r="M252" s="12" t="s">
-        <v>1379</v>
+      <c r="M252" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="N252" s="2"/>
       <c r="O252" s="3" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15">
+      <c r="A253" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B253" s="12" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C253" s="2"/>
+      <c r="D253" s="2"/>
+      <c r="E253" s="2"/>
+      <c r="F253" s="2"/>
+      <c r="G253" s="2"/>
+      <c r="H253" s="2"/>
+      <c r="I253" s="2"/>
+      <c r="J253" s="2"/>
+      <c r="K253" s="2"/>
+      <c r="L253" s="2"/>
+      <c r="M253" s="12" t="s">
+        <v>1379</v>
+      </c>
+      <c r="N253" s="2"/>
+      <c r="O253" s="3" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="253" spans="1:15">
-      <c r="O253" s="1"/>
-    </row>
     <row r="254" spans="1:15">
-      <c r="A254" s="2" t="s">
-        <v>1381</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>1382</v>
-      </c>
-      <c r="C254" s="2"/>
-      <c r="D254" s="2"/>
-      <c r="E254" s="2"/>
-      <c r="F254" s="2"/>
-      <c r="G254" s="2"/>
-      <c r="H254" s="2"/>
-      <c r="I254" s="2"/>
-      <c r="J254" s="2"/>
-      <c r="K254" s="2"/>
-      <c r="L254" s="2"/>
-      <c r="M254" s="2" t="s">
-        <v>1383</v>
-      </c>
-      <c r="N254" s="2"/>
-      <c r="O254" s="3" t="s">
-        <v>1384</v>
-      </c>
+      <c r="O254" s="1"/>
     </row>
     <row r="255" spans="1:15">
       <c r="A255" s="2" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
@@ -25892,19 +25911,19 @@
       <c r="K255" s="2"/>
       <c r="L255" s="2"/>
       <c r="M255" s="2" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="N255" s="2"/>
       <c r="O255" s="3" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="256" spans="1:15">
       <c r="A256" s="2" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
@@ -25917,19 +25936,19 @@
       <c r="K256" s="2"/>
       <c r="L256" s="2"/>
       <c r="M256" s="2" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="N256" s="2"/>
       <c r="O256" s="3" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="257" spans="1:15">
       <c r="A257" s="2" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
@@ -25942,19 +25961,19 @@
       <c r="K257" s="2"/>
       <c r="L257" s="2"/>
       <c r="M257" s="2" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="N257" s="2"/>
       <c r="O257" s="3" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="258" spans="1:15">
       <c r="A258" s="2" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
@@ -25967,19 +25986,19 @@
       <c r="K258" s="2"/>
       <c r="L258" s="2"/>
       <c r="M258" s="2" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="N258" s="2"/>
       <c r="O258" s="3" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="259" spans="1:15">
       <c r="A259" s="2" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
@@ -25992,19 +26011,19 @@
       <c r="K259" s="2"/>
       <c r="L259" s="2"/>
       <c r="M259" s="2" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="N259" s="2"/>
       <c r="O259" s="3" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="260" spans="1:15">
       <c r="A260" s="2" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
@@ -26017,19 +26036,19 @@
       <c r="K260" s="2"/>
       <c r="L260" s="2"/>
       <c r="M260" s="2" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="N260" s="2"/>
       <c r="O260" s="3" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="261" spans="1:15">
       <c r="A261" s="2" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
@@ -26042,47 +26061,47 @@
       <c r="K261" s="2"/>
       <c r="L261" s="2"/>
       <c r="M261" s="2" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="N261" s="2"/>
       <c r="O261" s="3" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15">
+      <c r="A262" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C262" s="2"/>
+      <c r="D262" s="2"/>
+      <c r="E262" s="2"/>
+      <c r="F262" s="2"/>
+      <c r="G262" s="2"/>
+      <c r="H262" s="2"/>
+      <c r="I262" s="2"/>
+      <c r="J262" s="2"/>
+      <c r="K262" s="2"/>
+      <c r="L262" s="2"/>
+      <c r="M262" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="N262" s="2"/>
+      <c r="O262" s="3" t="s">
         <v>1412</v>
       </c>
     </row>
-    <row r="262" spans="1:15">
-      <c r="O262" s="1"/>
-    </row>
     <row r="263" spans="1:15">
-      <c r="A263" s="2" t="s">
-        <v>1413</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="C263" s="2"/>
-      <c r="D263" s="2"/>
-      <c r="E263" s="2"/>
-      <c r="F263" s="2"/>
-      <c r="G263" s="2"/>
-      <c r="H263" s="2"/>
-      <c r="I263" s="2"/>
-      <c r="J263" s="2"/>
-      <c r="K263" s="2"/>
-      <c r="L263" s="2"/>
-      <c r="M263" s="2" t="s">
-        <v>922</v>
-      </c>
-      <c r="N263" s="2"/>
-      <c r="O263" s="3" t="s">
-        <v>1414</v>
-      </c>
+      <c r="O263" s="1"/>
     </row>
     <row r="264" spans="1:15">
       <c r="A264" s="2" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>1416</v>
+        <v>672</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
@@ -26095,19 +26114,19 @@
       <c r="K264" s="2"/>
       <c r="L264" s="2"/>
       <c r="M264" s="2" t="s">
-        <v>1417</v>
+        <v>922</v>
       </c>
       <c r="N264" s="2"/>
       <c r="O264" s="3" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="265" spans="1:15">
       <c r="A265" s="2" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
@@ -26120,47 +26139,47 @@
       <c r="K265" s="2"/>
       <c r="L265" s="2"/>
       <c r="M265" s="2" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="N265" s="2"/>
       <c r="O265" s="3" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15">
+      <c r="A266" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C266" s="2"/>
+      <c r="D266" s="2"/>
+      <c r="E266" s="2"/>
+      <c r="F266" s="2"/>
+      <c r="G266" s="2"/>
+      <c r="H266" s="2"/>
+      <c r="I266" s="2"/>
+      <c r="J266" s="2"/>
+      <c r="K266" s="2"/>
+      <c r="L266" s="2"/>
+      <c r="M266" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="N266" s="2"/>
+      <c r="O266" s="3" t="s">
         <v>1422</v>
       </c>
     </row>
-    <row r="266" spans="1:15">
-      <c r="O266" s="1"/>
-    </row>
     <row r="267" spans="1:15">
-      <c r="A267" s="2" t="s">
-        <v>1423</v>
-      </c>
-      <c r="B267" s="12" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C267" s="2"/>
-      <c r="D267" s="2"/>
-      <c r="E267" s="2"/>
-      <c r="F267" s="2"/>
-      <c r="G267" s="2"/>
-      <c r="H267" s="2"/>
-      <c r="I267" s="2"/>
-      <c r="J267" s="2"/>
-      <c r="K267" s="2"/>
-      <c r="L267" s="2"/>
-      <c r="M267" s="12" t="s">
-        <v>1425</v>
-      </c>
-      <c r="N267" s="2"/>
-      <c r="O267" s="3" t="s">
-        <v>1426</v>
-      </c>
+      <c r="O267" s="1"/>
     </row>
     <row r="268" spans="1:15">
       <c r="A268" s="2" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="B268" s="12" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
@@ -26173,19 +26192,19 @@
       <c r="K268" s="2"/>
       <c r="L268" s="2"/>
       <c r="M268" s="12" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="N268" s="2"/>
       <c r="O268" s="3" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="269" spans="1:15">
       <c r="A269" s="2" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="B269" s="12" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
@@ -26198,19 +26217,19 @@
       <c r="K269" s="2"/>
       <c r="L269" s="2"/>
       <c r="M269" s="12" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="N269" s="2"/>
       <c r="O269" s="3" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="270" spans="1:15">
       <c r="A270" s="2" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="B270" s="12" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
@@ -26223,44 +26242,44 @@
       <c r="K270" s="2"/>
       <c r="L270" s="2"/>
       <c r="M270" s="12" t="s">
+        <v>1433</v>
+      </c>
+      <c r="N270" s="2"/>
+      <c r="O270" s="3" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15">
+      <c r="A271" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B271" s="12" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C271" s="2"/>
+      <c r="D271" s="2"/>
+      <c r="E271" s="2"/>
+      <c r="F271" s="2"/>
+      <c r="G271" s="2"/>
+      <c r="H271" s="2"/>
+      <c r="I271" s="2"/>
+      <c r="J271" s="2"/>
+      <c r="K271" s="2"/>
+      <c r="L271" s="2"/>
+      <c r="M271" s="12" t="s">
         <v>1437</v>
       </c>
-      <c r="N270" s="2"/>
-      <c r="O270" s="21" t="s">
+      <c r="N271" s="2"/>
+      <c r="O271" s="21" t="s">
         <v>1438</v>
-      </c>
-    </row>
-    <row r="272" spans="1:15">
-      <c r="A272" s="2" t="s">
-        <v>1439</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>1440</v>
-      </c>
-      <c r="C272" s="2"/>
-      <c r="D272" s="2"/>
-      <c r="E272" s="2"/>
-      <c r="F272" s="2"/>
-      <c r="G272" s="2"/>
-      <c r="H272" s="2"/>
-      <c r="I272" s="2"/>
-      <c r="J272" s="2"/>
-      <c r="K272" s="2"/>
-      <c r="L272" s="2"/>
-      <c r="M272" s="2" t="s">
-        <v>1441</v>
-      </c>
-      <c r="N272" s="2"/>
-      <c r="O272" s="21" t="s">
-        <v>1442</v>
       </c>
     </row>
     <row r="273" spans="1:15">
       <c r="A273" s="2" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
@@ -26273,19 +26292,19 @@
       <c r="K273" s="2"/>
       <c r="L273" s="2"/>
       <c r="M273" s="2" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="N273" s="2"/>
       <c r="O273" s="21" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="274" spans="1:15">
       <c r="A274" s="2" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
@@ -26298,19 +26317,19 @@
       <c r="K274" s="2"/>
       <c r="L274" s="2"/>
       <c r="M274" s="2" t="s">
-        <v>732</v>
+        <v>1445</v>
       </c>
       <c r="N274" s="2"/>
       <c r="O274" s="21" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="275" spans="1:15">
       <c r="A275" s="2" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
@@ -26323,19 +26342,19 @@
       <c r="K275" s="2"/>
       <c r="L275" s="2"/>
       <c r="M275" s="2" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="N275" s="2"/>
       <c r="O275" s="21" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="276" spans="1:15">
       <c r="A276" s="2" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
@@ -26348,19 +26367,19 @@
       <c r="K276" s="2"/>
       <c r="L276" s="2"/>
       <c r="M276" s="2" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="N276" s="2"/>
       <c r="O276" s="21" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="277" spans="1:15">
       <c r="A277" s="2" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>1356</v>
+        <v>1454</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
@@ -26373,19 +26392,19 @@
       <c r="K277" s="2"/>
       <c r="L277" s="2"/>
       <c r="M277" s="2" t="s">
-        <v>1457</v>
+        <v>736</v>
       </c>
       <c r="N277" s="2"/>
       <c r="O277" s="21" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="278" spans="1:15">
       <c r="A278" s="2" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
@@ -26398,19 +26417,19 @@
       <c r="K278" s="2"/>
       <c r="L278" s="2"/>
       <c r="M278" s="2" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="N278" s="2"/>
       <c r="O278" s="21" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="279" spans="1:15">
       <c r="A279" s="2" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>1463</v>
+        <v>1360</v>
       </c>
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
@@ -26423,19 +26442,19 @@
       <c r="K279" s="2"/>
       <c r="L279" s="2"/>
       <c r="M279" s="2" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="N279" s="2"/>
       <c r="O279" s="21" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="280" spans="1:15">
       <c r="A280" s="2" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
@@ -26448,19 +26467,19 @@
       <c r="K280" s="2"/>
       <c r="L280" s="2"/>
       <c r="M280" s="2" t="s">
-        <v>984</v>
+        <v>1464</v>
       </c>
       <c r="N280" s="2"/>
       <c r="O280" s="21" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="281" spans="1:15">
       <c r="A281" s="2" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
@@ -26473,47 +26492,47 @@
       <c r="K281" s="2"/>
       <c r="L281" s="2"/>
       <c r="M281" s="2" t="s">
-        <v>1471</v>
+        <v>984</v>
       </c>
       <c r="N281" s="2"/>
       <c r="O281" s="21" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15">
+      <c r="A282" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C282" s="2"/>
+      <c r="D282" s="2"/>
+      <c r="E282" s="2"/>
+      <c r="F282" s="2"/>
+      <c r="G282" s="2"/>
+      <c r="H282" s="2"/>
+      <c r="I282" s="2"/>
+      <c r="J282" s="2"/>
+      <c r="K282" s="2"/>
+      <c r="L282" s="2"/>
+      <c r="M282" s="2" t="s">
+        <v>1471</v>
+      </c>
+      <c r="N282" s="2"/>
+      <c r="O282" s="21" t="s">
         <v>1472</v>
       </c>
     </row>
-    <row r="282" spans="1:15">
-      <c r="O282" s="1"/>
-    </row>
     <row r="283" spans="1:15">
-      <c r="A283" s="2" t="s">
-        <v>1473</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C283" s="2"/>
-      <c r="D283" s="2"/>
-      <c r="E283" s="2"/>
-      <c r="F283" s="2"/>
-      <c r="G283" s="2"/>
-      <c r="H283" s="2"/>
-      <c r="I283" s="2"/>
-      <c r="J283" s="2"/>
-      <c r="K283" s="2"/>
-      <c r="L283" s="2"/>
-      <c r="M283" s="2" t="s">
-        <v>1475</v>
-      </c>
-      <c r="N283" s="2"/>
-      <c r="O283" s="22" t="s">
-        <v>1476</v>
-      </c>
+      <c r="O283" s="1"/>
     </row>
     <row r="284" spans="1:15">
       <c r="A284" s="2" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
@@ -26526,19 +26545,19 @@
       <c r="K284" s="2"/>
       <c r="L284" s="2"/>
       <c r="M284" s="2" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="N284" s="2"/>
       <c r="O284" s="22" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="285" spans="1:15">
       <c r="A285" s="2" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
@@ -26551,19 +26570,19 @@
       <c r="K285" s="2"/>
       <c r="L285" s="2"/>
       <c r="M285" s="2" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="N285" s="2"/>
       <c r="O285" s="22" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="286" spans="1:15">
       <c r="A286" s="2" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
@@ -26576,19 +26595,19 @@
       <c r="K286" s="2"/>
       <c r="L286" s="2"/>
       <c r="M286" s="2" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="N286" s="2"/>
       <c r="O286" s="22" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="287" spans="1:15">
       <c r="A287" s="2" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
@@ -26601,19 +26620,19 @@
       <c r="K287" s="2"/>
       <c r="L287" s="2"/>
       <c r="M287" s="2" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="N287" s="2"/>
       <c r="O287" s="22" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="288" spans="1:15">
       <c r="A288" s="2" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
@@ -26626,19 +26645,19 @@
       <c r="K288" s="2"/>
       <c r="L288" s="2"/>
       <c r="M288" s="2" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="N288" s="2"/>
       <c r="O288" s="22" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="289" spans="1:15">
       <c r="A289" s="2" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
@@ -26651,16 +26670,20 @@
       <c r="K289" s="2"/>
       <c r="L289" s="2"/>
       <c r="M289" s="2" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="N289" s="2"/>
       <c r="O289" s="22" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="290" spans="1:15">
-      <c r="A290" s="2"/>
-      <c r="B290" s="2"/>
+      <c r="A290" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>1498</v>
+      </c>
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
@@ -26671,17 +26694,17 @@
       <c r="J290" s="2"/>
       <c r="K290" s="2"/>
       <c r="L290" s="2"/>
-      <c r="M290" s="2"/>
+      <c r="M290" s="2" t="s">
+        <v>1499</v>
+      </c>
       <c r="N290" s="2"/>
-      <c r="O290" s="21"/>
+      <c r="O290" s="22" t="s">
+        <v>1500</v>
+      </c>
     </row>
     <row r="291" spans="1:15">
-      <c r="A291" s="2" t="s">
-        <v>1501</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>1502</v>
-      </c>
+      <c r="A291" s="2"/>
+      <c r="B291" s="2"/>
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -26692,20 +26715,16 @@
       <c r="J291" s="2"/>
       <c r="K291" s="2"/>
       <c r="L291" s="2"/>
-      <c r="M291" s="2" t="s">
-        <v>1503</v>
-      </c>
+      <c r="M291" s="2"/>
       <c r="N291" s="2"/>
-      <c r="O291" s="22" t="s">
-        <v>1504</v>
-      </c>
+      <c r="O291" s="21"/>
     </row>
     <row r="292" spans="1:15">
       <c r="A292" s="2" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
@@ -26718,40 +26737,44 @@
       <c r="K292" s="2"/>
       <c r="L292" s="2"/>
       <c r="M292" s="2" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="N292" s="2"/>
       <c r="O292" s="22" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="293" spans="1:15">
+      <c r="A293" s="2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C293" s="2"/>
+      <c r="D293" s="2"/>
+      <c r="E293" s="2"/>
+      <c r="F293" s="2"/>
+      <c r="G293" s="2"/>
+      <c r="H293" s="2"/>
+      <c r="I293" s="2"/>
+      <c r="J293" s="2"/>
+      <c r="K293" s="2"/>
+      <c r="L293" s="2"/>
+      <c r="M293" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="N293" s="2"/>
+      <c r="O293" s="22" t="s">
         <v>1508</v>
-      </c>
-    </row>
-    <row r="294" spans="1:15">
-      <c r="A294" s="2" t="s">
-        <v>1509</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>1510</v>
-      </c>
-      <c r="C294" s="2"/>
-      <c r="D294" s="2"/>
-      <c r="E294" s="2"/>
-      <c r="F294" s="2"/>
-      <c r="G294" s="2"/>
-      <c r="H294" s="2"/>
-      <c r="I294" s="2"/>
-      <c r="J294" s="2"/>
-      <c r="K294" s="2"/>
-      <c r="L294" s="2"/>
-      <c r="M294" s="2" t="s">
-        <v>1511</v>
       </c>
     </row>
     <row r="295" spans="1:15">
       <c r="A295" s="2" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
@@ -26764,16 +26787,15 @@
       <c r="K295" s="2"/>
       <c r="L295" s="2"/>
       <c r="M295" s="2" t="s">
-        <v>1514</v>
-      </c>
-      <c r="O295" s="1"/>
+        <v>1511</v>
+      </c>
     </row>
     <row r="296" spans="1:15">
       <c r="A296" s="2" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
@@ -26786,44 +26808,41 @@
       <c r="K296" s="2"/>
       <c r="L296" s="2"/>
       <c r="M296" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="O296" s="1"/>
+    </row>
+    <row r="297" spans="1:15">
+      <c r="A297" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C297" s="2"/>
+      <c r="D297" s="2"/>
+      <c r="E297" s="2"/>
+      <c r="F297" s="2"/>
+      <c r="G297" s="2"/>
+      <c r="H297" s="2"/>
+      <c r="I297" s="2"/>
+      <c r="J297" s="2"/>
+      <c r="K297" s="2"/>
+      <c r="L297" s="2"/>
+      <c r="M297" s="2" t="s">
         <v>1517</v>
       </c>
-      <c r="O296" s="1"/>
-    </row>
-    <row r="297" spans="1:15">
       <c r="O297" s="1"/>
     </row>
     <row r="298" spans="1:15">
-      <c r="A298" s="2" t="s">
-        <v>1518</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C298" s="2"/>
-      <c r="D298" s="2"/>
-      <c r="E298" s="2"/>
-      <c r="F298" s="2"/>
-      <c r="G298" s="2"/>
-      <c r="H298" s="2"/>
-      <c r="I298" s="2"/>
-      <c r="J298" s="2"/>
-      <c r="K298" s="2"/>
-      <c r="L298" s="2"/>
-      <c r="M298" s="12" t="s">
-        <v>1520</v>
-      </c>
-      <c r="N298" s="2"/>
-      <c r="O298" s="2" t="s">
-        <v>1521</v>
-      </c>
+      <c r="O298" s="1"/>
     </row>
     <row r="299" spans="1:15">
       <c r="A299" s="2" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
@@ -26836,19 +26855,19 @@
       <c r="K299" s="2"/>
       <c r="L299" s="2"/>
       <c r="M299" s="12" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="N299" s="2"/>
       <c r="O299" s="2" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="300" spans="1:15">
       <c r="A300" s="2" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
@@ -26861,632 +26880,654 @@
       <c r="K300" s="2"/>
       <c r="L300" s="2"/>
       <c r="M300" s="12" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="N300" s="2"/>
       <c r="O300" s="2" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15">
+      <c r="A301" s="2" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C301" s="2"/>
+      <c r="D301" s="2"/>
+      <c r="E301" s="2"/>
+      <c r="F301" s="2"/>
+      <c r="G301" s="2"/>
+      <c r="H301" s="2"/>
+      <c r="I301" s="2"/>
+      <c r="J301" s="2"/>
+      <c r="K301" s="2"/>
+      <c r="L301" s="2"/>
+      <c r="M301" s="12" t="s">
+        <v>1528</v>
+      </c>
+      <c r="N301" s="2"/>
+      <c r="O301" s="2" t="s">
         <v>1529</v>
       </c>
     </row>
-    <row r="301" spans="1:15">
-      <c r="O301" s="1"/>
-    </row>
     <row r="302" spans="1:15">
-      <c r="A302" t="s">
-        <v>1530</v>
-      </c>
-      <c r="B302" t="s">
-        <v>1191</v>
-      </c>
-      <c r="M302" t="s">
-        <v>1192</v>
-      </c>
+      <c r="O302" s="1"/>
     </row>
     <row r="303" spans="1:15">
       <c r="A303" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B303" t="s">
-        <v>1532</v>
+        <v>1191</v>
       </c>
       <c r="M303" t="s">
-        <v>1533</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="304" spans="1:15">
       <c r="A304" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="B304" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="M304" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="305" spans="1:15">
       <c r="A305" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="B305" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="M305" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="306" spans="1:15">
       <c r="A306" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1538</v>
+      </c>
+      <c r="M306" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15">
+      <c r="A307" t="s">
         <v>1540</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B307" t="s">
         <v>1541</v>
       </c>
-      <c r="M306" t="s">
+      <c r="M307" t="s">
         <v>1542</v>
       </c>
-      <c r="O306" s="1"/>
-    </row>
-    <row r="307" spans="1:15">
       <c r="O307" s="1"/>
     </row>
     <row r="308" spans="1:15">
-      <c r="A308" t="s">
-        <v>1543</v>
-      </c>
-      <c r="B308" t="s">
-        <v>1191</v>
-      </c>
-      <c r="M308" t="s">
-        <v>1192</v>
-      </c>
       <c r="O308" s="1"/>
     </row>
     <row r="309" spans="1:15">
       <c r="A309" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B309" t="s">
-        <v>1545</v>
+        <v>1191</v>
       </c>
       <c r="M309" t="s">
-        <v>1546</v>
-      </c>
+        <v>1192</v>
+      </c>
+      <c r="O309" s="1"/>
     </row>
     <row r="310" spans="1:15">
       <c r="A310" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="B310" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="M310" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="311" spans="1:15">
       <c r="A311" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="B311" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="M311" t="s">
-        <v>1552</v>
-      </c>
-      <c r="O311" s="1"/>
+        <v>1549</v>
+      </c>
     </row>
     <row r="312" spans="1:15">
       <c r="A312" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B312" t="s">
+        <v>1551</v>
+      </c>
+      <c r="M312" t="s">
+        <v>1552</v>
+      </c>
+      <c r="O312" s="1"/>
+    </row>
+    <row r="313" spans="1:15">
+      <c r="A313" t="s">
         <v>1553</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B313" t="s">
         <v>1554</v>
       </c>
-      <c r="M312" t="s">
+      <c r="M313" t="s">
         <v>1555</v>
       </c>
-      <c r="O312" s="1"/>
-    </row>
-    <row r="314" spans="1:15">
-      <c r="A314" t="s">
+      <c r="O313" s="1"/>
+    </row>
+    <row r="315" spans="1:15">
+      <c r="A315" t="s">
         <v>1556</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B315" t="s">
         <v>1557</v>
       </c>
-      <c r="M314" t="s">
+      <c r="M315" t="s">
         <v>1558</v>
       </c>
-      <c r="O314" s="1"/>
-    </row>
-    <row r="316" spans="1:15">
-      <c r="A316" t="s">
-        <v>1559</v>
-      </c>
-      <c r="B316" t="s">
-        <v>672</v>
-      </c>
-      <c r="M316" t="s">
-        <v>922</v>
-      </c>
+      <c r="O315" s="1"/>
     </row>
     <row r="317" spans="1:15">
       <c r="A317" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B317" t="s">
-        <v>929</v>
+        <v>672</v>
       </c>
       <c r="M317" t="s">
-        <v>1517</v>
+        <v>922</v>
       </c>
     </row>
     <row r="318" spans="1:15">
       <c r="A318" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B318" t="s">
+        <v>929</v>
+      </c>
+      <c r="M318" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="319" spans="1:15">
+      <c r="A319" t="s">
         <v>1561</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B319" t="s">
         <v>707</v>
       </c>
-      <c r="M318" t="s">
+      <c r="M319" t="s">
         <v>1562</v>
       </c>
-      <c r="O318" s="1"/>
-    </row>
-    <row r="319" spans="1:15">
       <c r="O319" s="1"/>
     </row>
     <row r="320" spans="1:15">
-      <c r="A320" t="s">
+      <c r="O320" s="1"/>
+    </row>
+    <row r="321" spans="1:15">
+      <c r="A321" t="s">
         <v>1563</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B321" t="s">
         <v>1564</v>
       </c>
-      <c r="M320" t="s">
+      <c r="M321" t="s">
         <v>1565</v>
       </c>
-      <c r="O320" s="1"/>
-    </row>
-    <row r="322" spans="1:15">
-      <c r="A322" t="s">
-        <v>1566</v>
-      </c>
-      <c r="B322" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M322" t="s">
-        <v>1568</v>
-      </c>
-      <c r="O322" s="1"/>
+      <c r="O321" s="1"/>
     </row>
     <row r="323" spans="1:15">
       <c r="A323" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="B323" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="M323" t="s">
-        <v>1192</v>
+        <v>1568</v>
       </c>
       <c r="O323" s="1"/>
     </row>
     <row r="324" spans="1:15">
       <c r="A324" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="B324" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="M324" t="s">
-        <v>1573</v>
+        <v>1192</v>
       </c>
       <c r="O324" s="1"/>
     </row>
     <row r="325" spans="1:15">
       <c r="A325" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="B325" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="M325" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="O325" s="1"/>
     </row>
     <row r="326" spans="1:15">
       <c r="A326" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="B326" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="M326" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="O326" s="1"/>
     </row>
     <row r="327" spans="1:15">
       <c r="A327" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="B327" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="M327" t="s">
-        <v>1582</v>
-      </c>
+        <v>1579</v>
+      </c>
+      <c r="O327" s="1"/>
     </row>
     <row r="328" spans="1:15">
       <c r="A328" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="B328" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="M328" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="329" spans="1:15">
       <c r="A329" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="B329" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="M329" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="330" spans="1:15">
       <c r="A330" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="B330" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="M330" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="331" spans="1:15">
       <c r="A331" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="B331" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="M331" t="s">
-        <v>1594</v>
-      </c>
-      <c r="O331" s="1"/>
+        <v>1591</v>
+      </c>
     </row>
     <row r="332" spans="1:15">
       <c r="A332" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1593</v>
+      </c>
+      <c r="M332" t="s">
+        <v>1594</v>
+      </c>
+      <c r="O332" s="1"/>
+    </row>
+    <row r="333" spans="1:15">
+      <c r="A333" t="s">
         <v>1595</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B333" t="s">
         <v>1596</v>
       </c>
-      <c r="M332" t="s">
+      <c r="M333" t="s">
         <v>1597</v>
       </c>
-      <c r="O332" s="1"/>
-    </row>
-    <row r="334" spans="1:15">
-      <c r="A334" t="s">
-        <v>1598</v>
-      </c>
-      <c r="B334" t="s">
-        <v>672</v>
-      </c>
-      <c r="M334" t="s">
-        <v>922</v>
-      </c>
-      <c r="O334" s="1"/>
+      <c r="O333" s="1"/>
     </row>
     <row r="335" spans="1:15">
       <c r="A335" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B335" t="s">
-        <v>999</v>
+        <v>672</v>
       </c>
       <c r="M335" t="s">
-        <v>1600</v>
+        <v>922</v>
       </c>
       <c r="O335" s="1"/>
     </row>
     <row r="336" spans="1:15">
       <c r="A336" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="B336" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="M336" t="s">
-        <v>1004</v>
+        <v>1600</v>
       </c>
       <c r="O336" s="1"/>
     </row>
     <row r="337" spans="1:15">
       <c r="A337" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="B337" t="s">
-        <v>1603</v>
+        <v>1003</v>
       </c>
       <c r="M337" t="s">
-        <v>1604</v>
+        <v>1004</v>
       </c>
       <c r="O337" s="1"/>
     </row>
     <row r="338" spans="1:15">
       <c r="A338" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1603</v>
+      </c>
+      <c r="M338" t="s">
+        <v>1604</v>
+      </c>
+      <c r="O338" s="1"/>
+    </row>
+    <row r="339" spans="1:15">
+      <c r="A339" t="s">
         <v>1605</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B339" t="s">
         <v>1606</v>
       </c>
-      <c r="M338" t="s">
+      <c r="M339" t="s">
         <v>1607</v>
       </c>
-      <c r="O338" s="1"/>
-    </row>
-    <row r="340" spans="1:15">
-      <c r="A340" t="s">
+      <c r="O339" s="1"/>
+    </row>
+    <row r="341" spans="1:15">
+      <c r="A341" t="s">
         <v>1608</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B341" t="s">
         <v>1609</v>
       </c>
-      <c r="M340" t="s">
+      <c r="M341" t="s">
         <v>1610</v>
       </c>
-      <c r="O340" s="1"/>
-    </row>
-    <row r="341" spans="1:15">
       <c r="O341" s="1"/>
     </row>
     <row r="342" spans="1:15">
-      <c r="A342" s="33" t="s">
-        <v>3024</v>
-      </c>
-      <c r="B342" s="33" t="s">
-        <v>3010</v>
-      </c>
-      <c r="M342" s="33" t="s">
-        <v>3011</v>
-      </c>
       <c r="O342" s="1"/>
     </row>
     <row r="343" spans="1:15">
       <c r="A343" s="33" t="s">
+        <v>3024</v>
+      </c>
+      <c r="B343" s="33" t="s">
+        <v>3010</v>
+      </c>
+      <c r="M343" s="33" t="s">
+        <v>3011</v>
+      </c>
+      <c r="O343" s="1"/>
+    </row>
+    <row r="344" spans="1:15">
+      <c r="A344" s="33" t="s">
         <v>3025</v>
       </c>
-      <c r="B343" s="33" t="s">
+      <c r="B344" s="33" t="s">
         <v>3012</v>
       </c>
-      <c r="M343" s="33" t="s">
+      <c r="M344" s="33" t="s">
         <v>3013</v>
       </c>
-      <c r="O343" s="1"/>
-    </row>
-    <row r="344" spans="1:15">
       <c r="O344" s="1"/>
     </row>
     <row r="345" spans="1:15">
-      <c r="A345" s="33" t="s">
+      <c r="O345" s="1"/>
+    </row>
+    <row r="346" spans="1:15">
+      <c r="A346" s="33" t="s">
         <v>3029</v>
       </c>
-      <c r="B345" s="33" t="s">
+      <c r="B346" s="33" t="s">
         <v>3030</v>
       </c>
-      <c r="M345" s="33" t="s">
+      <c r="M346" s="33" t="s">
         <v>3031</v>
       </c>
-      <c r="O345" s="1"/>
-    </row>
-    <row r="346" spans="1:15">
       <c r="O346" s="1"/>
     </row>
     <row r="347" spans="1:15">
-      <c r="A347" s="33" t="s">
-        <v>3057</v>
-      </c>
-      <c r="B347" s="33" t="s">
-        <v>3058</v>
-      </c>
-      <c r="M347" s="33" t="s">
-        <v>3059</v>
-      </c>
+      <c r="O347" s="1"/>
     </row>
     <row r="348" spans="1:15">
       <c r="A348" s="33" t="s">
+        <v>3057</v>
+      </c>
+      <c r="B348" s="33" t="s">
+        <v>3058</v>
+      </c>
+      <c r="M348" s="33" t="s">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="349" spans="1:15">
+      <c r="A349" s="33" t="s">
         <v>3107</v>
       </c>
-      <c r="B348" s="33" t="s">
+      <c r="B349" s="33" t="s">
         <v>3108</v>
       </c>
-      <c r="M348" s="33" t="s">
+      <c r="M349" s="33" t="s">
         <v>3109</v>
-      </c>
-    </row>
-    <row r="350" spans="1:15">
-      <c r="A350" s="33" t="s">
-        <v>3072</v>
-      </c>
-      <c r="B350" s="33" t="s">
-        <v>3074</v>
-      </c>
-      <c r="M350" s="33" t="s">
-        <v>3073</v>
       </c>
     </row>
     <row r="351" spans="1:15">
       <c r="A351" s="33" t="s">
+        <v>3072</v>
+      </c>
+      <c r="B351" s="33" t="s">
+        <v>3074</v>
+      </c>
+      <c r="M351" s="33" t="s">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="352" spans="1:15">
+      <c r="A352" s="33" t="s">
         <v>3075</v>
       </c>
-      <c r="B351" s="33" t="s">
+      <c r="B352" s="33" t="s">
         <v>3076</v>
       </c>
-      <c r="M351" s="33" t="s">
+      <c r="M352" s="33" t="s">
         <v>3077</v>
       </c>
-      <c r="O351" s="1"/>
-    </row>
-    <row r="352" spans="1:15">
       <c r="O352" s="1"/>
     </row>
     <row r="353" spans="1:15">
-      <c r="A353" s="33" t="s">
-        <v>3092</v>
-      </c>
-      <c r="B353" s="33" t="s">
-        <v>3093</v>
-      </c>
-      <c r="M353" s="33" t="s">
-        <v>3094</v>
-      </c>
       <c r="O353" s="1"/>
     </row>
     <row r="354" spans="1:15">
       <c r="A354" s="33" t="s">
-        <v>3110</v>
+        <v>3092</v>
       </c>
       <c r="B354" s="33" t="s">
-        <v>3111</v>
+        <v>3093</v>
       </c>
       <c r="M354" s="33" t="s">
-        <v>3112</v>
-      </c>
+        <v>3094</v>
+      </c>
+      <c r="O354" s="1"/>
     </row>
     <row r="355" spans="1:15">
       <c r="A355" s="33" t="s">
+        <v>3110</v>
+      </c>
+      <c r="B355" s="33" t="s">
+        <v>3111</v>
+      </c>
+      <c r="M355" s="33" t="s">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="356" spans="1:15">
+      <c r="A356" s="33" t="s">
         <v>3113</v>
       </c>
-      <c r="B355" s="33" t="s">
+      <c r="B356" s="33" t="s">
         <v>3114</v>
       </c>
-      <c r="M355" s="33" t="s">
+      <c r="M356" s="33" t="s">
         <v>3115</v>
       </c>
-      <c r="O355" s="1"/>
-    </row>
-    <row r="356" spans="1:15">
       <c r="O356" s="1"/>
     </row>
     <row r="357" spans="1:15">
-      <c r="A357" s="39" t="s">
+      <c r="O357" s="1"/>
+    </row>
+    <row r="358" spans="1:15">
+      <c r="A358" s="39" t="s">
         <v>3122</v>
       </c>
-      <c r="B357" s="39" t="s">
+      <c r="B358" s="39" t="s">
         <v>3123</v>
       </c>
-      <c r="M357" s="39" t="s">
+      <c r="M358" s="39" t="s">
         <v>3124</v>
       </c>
-      <c r="O357" s="1"/>
-    </row>
-    <row r="359" spans="1:15">
-      <c r="A359" s="39" t="s">
-        <v>3173</v>
-      </c>
-      <c r="B359" s="39" t="s">
-        <v>3174</v>
-      </c>
-      <c r="M359" s="39" t="s">
-        <v>3175</v>
-      </c>
+      <c r="O358" s="1"/>
     </row>
     <row r="360" spans="1:15">
       <c r="A360" s="39" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="B360" s="39" t="s">
-        <v>3177</v>
+        <v>3174</v>
       </c>
       <c r="M360" s="39" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="361" spans="1:15">
       <c r="A361" s="39" t="s">
-        <v>3182</v>
+        <v>3176</v>
       </c>
       <c r="B361" s="39" t="s">
-        <v>3183</v>
+        <v>3177</v>
       </c>
       <c r="M361" s="39" t="s">
-        <v>3184</v>
-      </c>
-      <c r="O361" s="1"/>
+        <v>3178</v>
+      </c>
     </row>
     <row r="362" spans="1:15">
       <c r="A362" s="39" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="B362" s="39" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="M362" s="39" t="s">
-        <v>3187</v>
+        <v>3184</v>
       </c>
       <c r="O362" s="1"/>
     </row>
     <row r="363" spans="1:15">
       <c r="A363" s="39" t="s">
+        <v>3185</v>
+      </c>
+      <c r="B363" s="39" t="s">
+        <v>3186</v>
+      </c>
+      <c r="M363" s="39" t="s">
+        <v>3187</v>
+      </c>
+      <c r="O363" s="1"/>
+    </row>
+    <row r="364" spans="1:15">
+      <c r="A364" s="39" t="s">
         <v>3319</v>
       </c>
-      <c r="B363" s="39" t="s">
+      <c r="B364" s="39" t="s">
         <v>3320</v>
       </c>
-      <c r="M363" s="39" t="s">
+      <c r="M364" s="39" t="s">
         <v>3321</v>
       </c>
-      <c r="O363" s="1"/>
-    </row>
-    <row r="365" spans="1:15">
-      <c r="A365" s="39" t="s">
-        <v>3363</v>
-      </c>
-      <c r="B365" s="39" t="s">
-        <v>3381</v>
-      </c>
-      <c r="M365" s="39" t="s">
-        <v>3365</v>
-      </c>
-      <c r="O365" s="1"/>
+      <c r="O364" s="1"/>
     </row>
     <row r="366" spans="1:15">
       <c r="A366" s="39" t="s">
-        <v>3364</v>
+        <v>3363</v>
       </c>
       <c r="B366" s="39" t="s">
-        <v>3382</v>
+        <v>3381</v>
       </c>
       <c r="M366" s="39" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="O366" s="1"/>
     </row>
     <row r="367" spans="1:15">
       <c r="A367" s="39" t="s">
+        <v>3364</v>
+      </c>
+      <c r="B367" s="39" t="s">
+        <v>3382</v>
+      </c>
+      <c r="M367" s="39" t="s">
+        <v>3366</v>
+      </c>
+      <c r="O367" s="1"/>
+    </row>
+    <row r="368" spans="1:15">
+      <c r="A368" s="39" t="s">
         <v>3367</v>
       </c>
-      <c r="B367" s="39" t="s">
+      <c r="B368" s="39" t="s">
         <v>3383</v>
       </c>
-      <c r="M367" s="39" t="s">
+      <c r="M368" s="39" t="s">
         <v>3368</v>
       </c>
-      <c r="O367" s="1"/>
-    </row>
-    <row r="368" spans="1:15">
       <c r="O368" s="1"/>
     </row>
     <row r="369" spans="15:15">
@@ -27498,14 +27539,14 @@
     <row r="371" spans="15:15">
       <c r="O371" s="1"/>
     </row>
-    <row r="373" spans="15:15">
-      <c r="O373" s="1"/>
-    </row>
-    <row r="377" spans="15:15">
-      <c r="O377" s="1"/>
-    </row>
-    <row r="379" spans="15:15">
-      <c r="O379" s="1"/>
+    <row r="372" spans="15:15">
+      <c r="O372" s="1"/>
+    </row>
+    <row r="374" spans="15:15">
+      <c r="O374" s="1"/>
+    </row>
+    <row r="378" spans="15:15">
+      <c r="O378" s="1"/>
     </row>
     <row r="380" spans="15:15">
       <c r="O380" s="1"/>
@@ -27513,8 +27554,8 @@
     <row r="381" spans="15:15">
       <c r="O381" s="1"/>
     </row>
-    <row r="383" spans="15:15">
-      <c r="O383" s="1"/>
+    <row r="382" spans="15:15">
+      <c r="O382" s="1"/>
     </row>
     <row r="384" spans="15:15">
       <c r="O384" s="1"/>
@@ -27522,8 +27563,8 @@
     <row r="385" spans="15:15">
       <c r="O385" s="1"/>
     </row>
-    <row r="387" spans="15:15">
-      <c r="O387" s="1"/>
+    <row r="386" spans="15:15">
+      <c r="O386" s="1"/>
     </row>
     <row r="388" spans="15:15">
       <c r="O388" s="1"/>
@@ -27534,11 +27575,11 @@
     <row r="390" spans="15:15">
       <c r="O390" s="1"/>
     </row>
-    <row r="392" spans="15:15">
-      <c r="O392" s="1"/>
-    </row>
-    <row r="396" spans="15:15">
-      <c r="O396" s="1"/>
+    <row r="391" spans="15:15">
+      <c r="O391" s="1"/>
+    </row>
+    <row r="393" spans="15:15">
+      <c r="O393" s="1"/>
     </row>
     <row r="397" spans="15:15">
       <c r="O397" s="1"/>
@@ -27546,8 +27587,8 @@
     <row r="398" spans="15:15">
       <c r="O398" s="1"/>
     </row>
-    <row r="400" spans="15:15">
-      <c r="O400" s="1"/>
+    <row r="399" spans="15:15">
+      <c r="O399" s="1"/>
     </row>
     <row r="401" spans="15:15">
       <c r="O401" s="1"/>
@@ -27582,8 +27623,8 @@
     <row r="411" spans="15:15">
       <c r="O411" s="1"/>
     </row>
-    <row r="413" spans="15:15">
-      <c r="O413" s="1"/>
+    <row r="412" spans="15:15">
+      <c r="O412" s="1"/>
     </row>
     <row r="414" spans="15:15">
       <c r="O414" s="1"/>
@@ -27600,11 +27641,11 @@
     <row r="418" spans="15:15">
       <c r="O418" s="1"/>
     </row>
-    <row r="420" spans="15:15">
-      <c r="O420" s="1"/>
-    </row>
-    <row r="424" spans="15:15">
-      <c r="O424" s="1"/>
+    <row r="419" spans="15:15">
+      <c r="O419" s="1"/>
+    </row>
+    <row r="421" spans="15:15">
+      <c r="O421" s="1"/>
     </row>
     <row r="425" spans="15:15">
       <c r="O425" s="1"/>
@@ -27612,8 +27653,8 @@
     <row r="426" spans="15:15">
       <c r="O426" s="1"/>
     </row>
-    <row r="428" spans="15:15">
-      <c r="O428" s="1"/>
+    <row r="427" spans="15:15">
+      <c r="O427" s="1"/>
     </row>
     <row r="429" spans="15:15">
       <c r="O429" s="1"/>
@@ -27627,8 +27668,8 @@
     <row r="432" spans="15:15">
       <c r="O432" s="1"/>
     </row>
-    <row r="436" spans="15:15">
-      <c r="O436" s="1"/>
+    <row r="433" spans="15:15">
+      <c r="O433" s="1"/>
     </row>
     <row r="437" spans="15:15">
       <c r="O437" s="1"/>
@@ -27636,8 +27677,8 @@
     <row r="438" spans="15:15">
       <c r="O438" s="1"/>
     </row>
-    <row r="440" spans="15:15">
-      <c r="O440" s="1"/>
+    <row r="439" spans="15:15">
+      <c r="O439" s="1"/>
     </row>
     <row r="441" spans="15:15">
       <c r="O441" s="1"/>
@@ -27645,8 +27686,8 @@
     <row r="442" spans="15:15">
       <c r="O442" s="1"/>
     </row>
-    <row r="446" spans="15:15">
-      <c r="O446" s="1"/>
+    <row r="443" spans="15:15">
+      <c r="O443" s="1"/>
     </row>
     <row r="447" spans="15:15">
       <c r="O447" s="1"/>
@@ -27654,8 +27695,8 @@
     <row r="448" spans="15:15">
       <c r="O448" s="1"/>
     </row>
-    <row r="450" spans="15:15">
-      <c r="O450" s="1"/>
+    <row r="449" spans="15:15">
+      <c r="O449" s="1"/>
     </row>
     <row r="451" spans="15:15">
       <c r="O451" s="1"/>
@@ -27666,8 +27707,8 @@
     <row r="453" spans="15:15">
       <c r="O453" s="1"/>
     </row>
-    <row r="457" spans="15:15">
-      <c r="O457" s="1"/>
+    <row r="454" spans="15:15">
+      <c r="O454" s="1"/>
     </row>
     <row r="458" spans="15:15">
       <c r="O458" s="1"/>
@@ -27675,8 +27716,8 @@
     <row r="459" spans="15:15">
       <c r="O459" s="1"/>
     </row>
-    <row r="461" spans="15:15">
-      <c r="O461" s="1"/>
+    <row r="460" spans="15:15">
+      <c r="O460" s="1"/>
     </row>
     <row r="462" spans="15:15">
       <c r="O462" s="1"/>
@@ -27699,11 +27740,11 @@
     <row r="468" spans="15:15">
       <c r="O468" s="1"/>
     </row>
-    <row r="470" spans="15:15">
-      <c r="O470" s="1"/>
-    </row>
-    <row r="474" spans="15:15">
-      <c r="O474" s="1"/>
+    <row r="469" spans="15:15">
+      <c r="O469" s="1"/>
+    </row>
+    <row r="471" spans="15:15">
+      <c r="O471" s="1"/>
     </row>
     <row r="475" spans="15:15">
       <c r="O475" s="1"/>
@@ -27711,8 +27752,8 @@
     <row r="476" spans="15:15">
       <c r="O476" s="1"/>
     </row>
-    <row r="478" spans="15:15">
-      <c r="O478" s="1"/>
+    <row r="477" spans="15:15">
+      <c r="O477" s="1"/>
     </row>
     <row r="479" spans="15:15">
       <c r="O479" s="1"/>
@@ -27720,8 +27761,8 @@
     <row r="480" spans="15:15">
       <c r="O480" s="1"/>
     </row>
-    <row r="485" spans="15:15">
-      <c r="O485" s="1"/>
+    <row r="481" spans="15:15">
+      <c r="O481" s="1"/>
     </row>
     <row r="486" spans="15:15">
       <c r="O486" s="1"/>
@@ -27729,8 +27770,8 @@
     <row r="487" spans="15:15">
       <c r="O487" s="1"/>
     </row>
-    <row r="489" spans="15:15">
-      <c r="O489" s="1"/>
+    <row r="488" spans="15:15">
+      <c r="O488" s="1"/>
     </row>
     <row r="490" spans="15:15">
       <c r="O490" s="1"/>
@@ -27747,8 +27788,8 @@
     <row r="494" spans="15:15">
       <c r="O494" s="1"/>
     </row>
-    <row r="496" spans="15:15">
-      <c r="O496" s="1"/>
+    <row r="495" spans="15:15">
+      <c r="O495" s="1"/>
     </row>
     <row r="497" spans="15:15">
       <c r="O497" s="1"/>
@@ -27762,8 +27803,8 @@
     <row r="500" spans="15:15">
       <c r="O500" s="1"/>
     </row>
-    <row r="502" spans="15:15">
-      <c r="O502" s="1"/>
+    <row r="501" spans="15:15">
+      <c r="O501" s="1"/>
     </row>
     <row r="503" spans="15:15">
       <c r="O503" s="1"/>
@@ -27771,11 +27812,11 @@
     <row r="504" spans="15:15">
       <c r="O504" s="1"/>
     </row>
-    <row r="506" spans="15:15">
-      <c r="O506" s="1"/>
-    </row>
-    <row r="510" spans="15:15">
-      <c r="O510" s="1"/>
+    <row r="505" spans="15:15">
+      <c r="O505" s="1"/>
+    </row>
+    <row r="507" spans="15:15">
+      <c r="O507" s="1"/>
     </row>
     <row r="511" spans="15:15">
       <c r="O511" s="1"/>
@@ -27783,8 +27824,8 @@
     <row r="512" spans="15:15">
       <c r="O512" s="1"/>
     </row>
-    <row r="516" spans="15:15">
-      <c r="O516" s="1"/>
+    <row r="513" spans="15:15">
+      <c r="O513" s="1"/>
     </row>
     <row r="517" spans="15:15">
       <c r="O517" s="1"/>
@@ -27792,8 +27833,8 @@
     <row r="518" spans="15:15">
       <c r="O518" s="1"/>
     </row>
-    <row r="520" spans="15:15">
-      <c r="O520" s="1"/>
+    <row r="519" spans="15:15">
+      <c r="O519" s="1"/>
     </row>
     <row r="521" spans="15:15">
       <c r="O521" s="1"/>
@@ -27804,11 +27845,11 @@
     <row r="523" spans="15:15">
       <c r="O523" s="1"/>
     </row>
-    <row r="525" spans="15:15">
-      <c r="O525" s="1"/>
-    </row>
-    <row r="529" spans="15:15">
-      <c r="O529" s="1"/>
+    <row r="524" spans="15:15">
+      <c r="O524" s="1"/>
+    </row>
+    <row r="526" spans="15:15">
+      <c r="O526" s="1"/>
     </row>
     <row r="530" spans="15:15">
       <c r="O530" s="1"/>
@@ -27816,8 +27857,8 @@
     <row r="531" spans="15:15">
       <c r="O531" s="1"/>
     </row>
-    <row r="533" spans="15:15">
-      <c r="O533" s="1"/>
+    <row r="532" spans="15:15">
+      <c r="O532" s="1"/>
     </row>
     <row r="534" spans="15:15">
       <c r="O534" s="1"/>
@@ -27825,8 +27866,8 @@
     <row r="535" spans="15:15">
       <c r="O535" s="1"/>
     </row>
-    <row r="537" spans="15:15">
-      <c r="O537" s="1"/>
+    <row r="536" spans="15:15">
+      <c r="O536" s="1"/>
     </row>
     <row r="538" spans="15:15">
       <c r="O538" s="1"/>
@@ -27837,8 +27878,8 @@
     <row r="540" spans="15:15">
       <c r="O540" s="1"/>
     </row>
-    <row r="544" spans="15:15">
-      <c r="O544" s="1"/>
+    <row r="541" spans="15:15">
+      <c r="O541" s="1"/>
     </row>
     <row r="545" spans="2:15">
       <c r="O545" s="1"/>
@@ -27847,16 +27888,16 @@
       <c r="O546" s="1"/>
     </row>
     <row r="547" spans="2:15">
-      <c r="B547" s="8"/>
-      <c r="M547" s="8"/>
       <c r="O547" s="1"/>
     </row>
     <row r="548" spans="2:15">
+      <c r="B548" s="8"/>
       <c r="M548" s="8"/>
       <c r="O548" s="1"/>
     </row>
-    <row r="550" spans="2:15">
-      <c r="O550" s="1"/>
+    <row r="549" spans="2:15">
+      <c r="M549" s="8"/>
+      <c r="O549" s="1"/>
     </row>
     <row r="551" spans="2:15">
       <c r="O551" s="1"/>
@@ -27870,8 +27911,8 @@
     <row r="554" spans="2:15">
       <c r="O554" s="1"/>
     </row>
-    <row r="558" spans="2:15">
-      <c r="O558" s="1"/>
+    <row r="555" spans="2:15">
+      <c r="O555" s="1"/>
     </row>
     <row r="559" spans="2:15">
       <c r="O559" s="1"/>
@@ -27880,24 +27921,24 @@
       <c r="O560" s="1"/>
     </row>
     <row r="561" spans="2:15">
-      <c r="B561" s="8"/>
-      <c r="M561" s="8"/>
       <c r="O561" s="1"/>
     </row>
     <row r="562" spans="2:15">
+      <c r="B562" s="8"/>
+      <c r="M562" s="8"/>
       <c r="O562" s="1"/>
     </row>
-    <row r="564" spans="2:15">
-      <c r="O564" s="1"/>
+    <row r="563" spans="2:15">
+      <c r="O563" s="1"/>
     </row>
     <row r="565" spans="2:15">
       <c r="O565" s="1"/>
     </row>
-    <row r="567" spans="2:15">
-      <c r="O567" s="1"/>
-    </row>
-    <row r="571" spans="2:15">
-      <c r="O571" s="1"/>
+    <row r="566" spans="2:15">
+      <c r="O566" s="1"/>
+    </row>
+    <row r="568" spans="2:15">
+      <c r="O568" s="1"/>
     </row>
     <row r="572" spans="2:15">
       <c r="O572" s="1"/>
@@ -27906,16 +27947,16 @@
       <c r="O573" s="1"/>
     </row>
     <row r="574" spans="2:15">
-      <c r="B574" s="8"/>
-      <c r="M574" s="8"/>
       <c r="O574" s="1"/>
     </row>
     <row r="575" spans="2:15">
+      <c r="B575" s="8"/>
       <c r="M575" s="8"/>
       <c r="O575" s="1"/>
     </row>
-    <row r="577" spans="2:15">
-      <c r="O577" s="1"/>
+    <row r="576" spans="2:15">
+      <c r="M576" s="8"/>
+      <c r="O576" s="1"/>
     </row>
     <row r="578" spans="2:15">
       <c r="O578" s="1"/>
@@ -27932,8 +27973,8 @@
     <row r="582" spans="2:15">
       <c r="O582" s="1"/>
     </row>
-    <row r="586" spans="2:15">
-      <c r="O586" s="1"/>
+    <row r="583" spans="2:15">
+      <c r="O583" s="1"/>
     </row>
     <row r="587" spans="2:15">
       <c r="O587" s="1"/>
@@ -27942,8 +27983,6 @@
       <c r="O588" s="1"/>
     </row>
     <row r="589" spans="2:15">
-      <c r="B589" s="8"/>
-      <c r="M589" s="8"/>
       <c r="O589" s="1"/>
     </row>
     <row r="590" spans="2:15">
@@ -27977,15 +28016,17 @@
       <c r="O595" s="1"/>
     </row>
     <row r="596" spans="2:15">
+      <c r="B596" s="8"/>
+      <c r="M596" s="8"/>
       <c r="O596" s="1"/>
     </row>
     <row r="597" spans="2:15">
-      <c r="B597" s="8"/>
-      <c r="M597" s="8"/>
       <c r="O597" s="1"/>
     </row>
-    <row r="601" spans="2:15">
-      <c r="O601" s="1"/>
+    <row r="598" spans="2:15">
+      <c r="B598" s="8"/>
+      <c r="M598" s="8"/>
+      <c r="O598" s="1"/>
     </row>
     <row r="602" spans="2:15">
       <c r="O602" s="1"/>
@@ -27994,12 +28035,12 @@
       <c r="O603" s="1"/>
     </row>
     <row r="604" spans="2:15">
-      <c r="B604" s="8"/>
-      <c r="M604" s="8"/>
       <c r="O604" s="1"/>
     </row>
-    <row r="606" spans="2:15">
-      <c r="O606" s="1"/>
+    <row r="605" spans="2:15">
+      <c r="B605" s="8"/>
+      <c r="M605" s="8"/>
+      <c r="O605" s="1"/>
     </row>
     <row r="607" spans="2:15">
       <c r="O607" s="1"/>
@@ -28022,20 +28063,20 @@
     <row r="613" spans="15:15">
       <c r="O613" s="1"/>
     </row>
-    <row r="615" spans="15:15">
-      <c r="O615" s="1"/>
+    <row r="614" spans="15:15">
+      <c r="O614" s="1"/>
     </row>
     <row r="616" spans="15:15">
       <c r="O616" s="1"/>
     </row>
-    <row r="618" spans="15:15">
-      <c r="O618" s="1"/>
+    <row r="617" spans="15:15">
+      <c r="O617" s="1"/>
     </row>
     <row r="619" spans="15:15">
       <c r="O619" s="1"/>
     </row>
-    <row r="623" spans="15:15">
-      <c r="O623" s="1"/>
+    <row r="620" spans="15:15">
+      <c r="O620" s="1"/>
     </row>
     <row r="624" spans="15:15">
       <c r="O624" s="1"/>
@@ -28044,11 +28085,11 @@
       <c r="O625" s="1"/>
     </row>
     <row r="626" spans="2:15">
-      <c r="M626" s="8"/>
       <c r="O626" s="1"/>
     </row>
-    <row r="628" spans="2:15">
-      <c r="O628" s="1"/>
+    <row r="627" spans="2:15">
+      <c r="M627" s="8"/>
+      <c r="O627" s="1"/>
     </row>
     <row r="629" spans="2:15">
       <c r="O629" s="1"/>
@@ -28056,8 +28097,8 @@
     <row r="630" spans="2:15">
       <c r="O630" s="1"/>
     </row>
-    <row r="634" spans="2:15">
-      <c r="O634" s="1"/>
+    <row r="631" spans="2:15">
+      <c r="O631" s="1"/>
     </row>
     <row r="635" spans="2:15">
       <c r="O635" s="1"/>
@@ -28066,8 +28107,6 @@
       <c r="O636" s="1"/>
     </row>
     <row r="637" spans="2:15">
-      <c r="B637" s="8"/>
-      <c r="M637" s="8"/>
       <c r="O637" s="1"/>
     </row>
     <row r="638" spans="2:15">
@@ -28093,10 +28132,12 @@
     <row r="642" spans="2:15">
       <c r="B642" s="8"/>
       <c r="M642" s="8"/>
-      <c r="O642" s="21"/>
-    </row>
-    <row r="646" spans="2:15">
-      <c r="O646" s="3"/>
+      <c r="O642" s="1"/>
+    </row>
+    <row r="643" spans="2:15">
+      <c r="B643" s="8"/>
+      <c r="M643" s="8"/>
+      <c r="O643" s="21"/>
     </row>
     <row r="647" spans="2:15">
       <c r="O647" s="3"/>
@@ -28105,12 +28146,12 @@
       <c r="O648" s="3"/>
     </row>
     <row r="649" spans="2:15">
-      <c r="B649" s="8"/>
-      <c r="M649" s="8"/>
-      <c r="O649" s="14"/>
+      <c r="O649" s="3"/>
     </row>
     <row r="650" spans="2:15">
-      <c r="O650" s="21"/>
+      <c r="B650" s="8"/>
+      <c r="M650" s="8"/>
+      <c r="O650" s="14"/>
     </row>
     <row r="651" spans="2:15">
       <c r="O651" s="21"/>
@@ -28142,8 +28183,8 @@
     <row r="660" spans="2:15">
       <c r="O660" s="21"/>
     </row>
-    <row r="664" spans="2:15">
-      <c r="O664" s="21"/>
+    <row r="661" spans="2:15">
+      <c r="O661" s="21"/>
     </row>
     <row r="665" spans="2:15">
       <c r="O665" s="21"/>
@@ -28152,18 +28193,18 @@
       <c r="O666" s="21"/>
     </row>
     <row r="667" spans="2:15">
-      <c r="B667" s="8"/>
-      <c r="M667" s="8"/>
-      <c r="O667" s="14"/>
+      <c r="O667" s="21"/>
     </row>
     <row r="668" spans="2:15">
-      <c r="O668" s="21"/>
+      <c r="B668" s="8"/>
+      <c r="M668" s="8"/>
+      <c r="O668" s="14"/>
     </row>
     <row r="669" spans="2:15">
       <c r="O669" s="21"/>
     </row>
-    <row r="673" spans="2:15">
-      <c r="O673" s="21"/>
+    <row r="670" spans="2:15">
+      <c r="O670" s="21"/>
     </row>
     <row r="674" spans="2:15">
       <c r="O674" s="21"/>
@@ -28172,15 +28213,15 @@
       <c r="O675" s="21"/>
     </row>
     <row r="676" spans="2:15">
-      <c r="B676" s="8"/>
-      <c r="M676" s="8"/>
-      <c r="O676" s="14"/>
+      <c r="O676" s="21"/>
     </row>
     <row r="677" spans="2:15">
-      <c r="O677" s="21"/>
+      <c r="B677" s="8"/>
+      <c r="M677" s="8"/>
+      <c r="O677" s="14"/>
     </row>
     <row r="678" spans="2:15">
-      <c r="O678" s="22"/>
+      <c r="O678" s="21"/>
     </row>
     <row r="679" spans="2:15">
       <c r="O679" s="22"/>
@@ -28201,10 +28242,10 @@
       <c r="O684" s="22"/>
     </row>
     <row r="685" spans="2:15">
-      <c r="O685" s="21"/>
+      <c r="O685" s="22"/>
     </row>
     <row r="686" spans="2:15">
-      <c r="O686" s="22"/>
+      <c r="O686" s="21"/>
     </row>
     <row r="687" spans="2:15">
       <c r="O687" s="22"/>
@@ -28215,11 +28256,11 @@
     <row r="689" spans="15:15">
       <c r="O689" s="22"/>
     </row>
-    <row r="691" spans="15:15">
-      <c r="O691" s="21"/>
-    </row>
-    <row r="693" spans="15:15">
-      <c r="O693" s="21"/>
+    <row r="690" spans="15:15">
+      <c r="O690" s="22"/>
+    </row>
+    <row r="692" spans="15:15">
+      <c r="O692" s="21"/>
     </row>
     <row r="694" spans="15:15">
       <c r="O694" s="21"/>
@@ -28239,11 +28280,11 @@
     <row r="699" spans="15:15">
       <c r="O699" s="21"/>
     </row>
-    <row r="703" spans="15:15">
-      <c r="O703" s="1"/>
-    </row>
-    <row r="705" spans="2:15">
-      <c r="O705" s="1"/>
+    <row r="700" spans="15:15">
+      <c r="O700" s="21"/>
+    </row>
+    <row r="704" spans="15:15">
+      <c r="O704" s="1"/>
     </row>
     <row r="706" spans="2:15">
       <c r="O706" s="1"/>
@@ -28252,12 +28293,12 @@
       <c r="O707" s="1"/>
     </row>
     <row r="708" spans="2:15">
-      <c r="B708" s="8"/>
-      <c r="M708" s="8"/>
       <c r="O708" s="1"/>
     </row>
-    <row r="710" spans="2:15">
-      <c r="O710" s="1"/>
+    <row r="709" spans="2:15">
+      <c r="B709" s="8"/>
+      <c r="M709" s="8"/>
+      <c r="O709" s="1"/>
     </row>
     <row r="711" spans="2:15">
       <c r="O711" s="1"/>
@@ -28266,19 +28307,19 @@
       <c r="O712" s="1"/>
     </row>
     <row r="713" spans="2:15">
-      <c r="B713" s="8"/>
-      <c r="M713" s="8"/>
       <c r="O713" s="1"/>
     </row>
-    <row r="717" spans="2:15">
-      <c r="B717" s="8"/>
-      <c r="M717" s="8"/>
-    </row>
-    <row r="722" spans="15:15">
-      <c r="O722" s="7"/>
-    </row>
-    <row r="726" spans="15:15">
-      <c r="O726" s="7"/>
+    <row r="714" spans="2:15">
+      <c r="B714" s="8"/>
+      <c r="M714" s="8"/>
+      <c r="O714" s="1"/>
+    </row>
+    <row r="718" spans="2:15">
+      <c r="B718" s="8"/>
+      <c r="M718" s="8"/>
+    </row>
+    <row r="723" spans="15:15">
+      <c r="O723" s="7"/>
     </row>
     <row r="727" spans="15:15">
       <c r="O727" s="7"/>
@@ -28286,8 +28327,8 @@
     <row r="728" spans="15:15">
       <c r="O728" s="7"/>
     </row>
-    <row r="732" spans="15:15">
-      <c r="O732" s="7"/>
+    <row r="729" spans="15:15">
+      <c r="O729" s="7"/>
     </row>
     <row r="733" spans="15:15">
       <c r="O733" s="7"/>
@@ -28295,8 +28336,8 @@
     <row r="734" spans="15:15">
       <c r="O734" s="7"/>
     </row>
-    <row r="738" spans="15:15">
-      <c r="O738" s="7"/>
+    <row r="735" spans="15:15">
+      <c r="O735" s="7"/>
     </row>
     <row r="739" spans="15:15">
       <c r="O739" s="7"/>
@@ -28304,8 +28345,8 @@
     <row r="740" spans="15:15">
       <c r="O740" s="7"/>
     </row>
-    <row r="742" spans="15:15">
-      <c r="O742" s="7"/>
+    <row r="741" spans="15:15">
+      <c r="O741" s="7"/>
     </row>
     <row r="743" spans="15:15">
       <c r="O743" s="7"/>
@@ -28326,10 +28367,10 @@
       <c r="O748" s="7"/>
     </row>
     <row r="749" spans="15:15">
-      <c r="O749" s="1"/>
-    </row>
-    <row r="751" spans="15:15">
-      <c r="O751" s="7"/>
+      <c r="O749" s="7"/>
+    </row>
+    <row r="750" spans="15:15">
+      <c r="O750" s="1"/>
     </row>
     <row r="752" spans="15:15">
       <c r="O752" s="7"/>
@@ -28355,8 +28396,8 @@
     <row r="759" spans="15:15">
       <c r="O759" s="7"/>
     </row>
-    <row r="761" spans="15:15">
-      <c r="O761" s="7"/>
+    <row r="760" spans="15:15">
+      <c r="O760" s="7"/>
     </row>
     <row r="762" spans="15:15">
       <c r="O762" s="7"/>
@@ -28385,17 +28426,17 @@
     <row r="770" spans="15:15">
       <c r="O770" s="7"/>
     </row>
-    <row r="772" spans="15:15">
-      <c r="O772" s="7"/>
+    <row r="771" spans="15:15">
+      <c r="O771" s="7"/>
     </row>
     <row r="773" spans="15:15">
-      <c r="O773" s="1"/>
+      <c r="O773" s="7"/>
     </row>
     <row r="774" spans="15:15">
       <c r="O774" s="1"/>
     </row>
-    <row r="776" spans="15:15">
-      <c r="O776" s="21"/>
+    <row r="775" spans="15:15">
+      <c r="O775" s="1"/>
     </row>
     <row r="777" spans="15:15">
       <c r="O777" s="21"/>
@@ -28403,14 +28444,14 @@
     <row r="778" spans="15:15">
       <c r="O778" s="21"/>
     </row>
-    <row r="782" spans="15:15">
-      <c r="O782" s="7"/>
+    <row r="779" spans="15:15">
+      <c r="O779" s="21"/>
     </row>
     <row r="783" spans="15:15">
       <c r="O783" s="7"/>
     </row>
-    <row r="785" spans="2:15">
-      <c r="O785" s="7"/>
+    <row r="784" spans="15:15">
+      <c r="O784" s="7"/>
     </row>
     <row r="786" spans="2:15">
       <c r="O786" s="7"/>
@@ -28418,14 +28459,14 @@
     <row r="787" spans="2:15">
       <c r="O787" s="7"/>
     </row>
-    <row r="789" spans="2:15">
-      <c r="O789" s="7"/>
-    </row>
-    <row r="791" spans="2:15">
-      <c r="O791" s="7"/>
-    </row>
-    <row r="793" spans="2:15">
-      <c r="O793" s="7"/>
+    <row r="788" spans="2:15">
+      <c r="O788" s="7"/>
+    </row>
+    <row r="790" spans="2:15">
+      <c r="O790" s="7"/>
+    </row>
+    <row r="792" spans="2:15">
+      <c r="O792" s="7"/>
     </row>
     <row r="794" spans="2:15">
       <c r="O794" s="7"/>
@@ -28440,18 +28481,6 @@
       <c r="O797" s="7"/>
     </row>
     <row r="798" spans="2:15">
-      <c r="B798" s="23"/>
-      <c r="C798" s="23"/>
-      <c r="D798" s="23"/>
-      <c r="E798" s="23"/>
-      <c r="F798" s="23"/>
-      <c r="G798" s="23"/>
-      <c r="H798" s="23"/>
-      <c r="I798" s="23"/>
-      <c r="J798" s="23"/>
-      <c r="K798" s="23"/>
-      <c r="L798" s="23"/>
-      <c r="M798" s="23"/>
       <c r="O798" s="7"/>
     </row>
     <row r="799" spans="2:15">
@@ -28544,8 +28573,20 @@
       <c r="M804" s="23"/>
       <c r="O804" s="7"/>
     </row>
-    <row r="806" spans="2:15">
-      <c r="O806" s="7"/>
+    <row r="805" spans="2:15">
+      <c r="B805" s="23"/>
+      <c r="C805" s="23"/>
+      <c r="D805" s="23"/>
+      <c r="E805" s="23"/>
+      <c r="F805" s="23"/>
+      <c r="G805" s="23"/>
+      <c r="H805" s="23"/>
+      <c r="I805" s="23"/>
+      <c r="J805" s="23"/>
+      <c r="K805" s="23"/>
+      <c r="L805" s="23"/>
+      <c r="M805" s="23"/>
+      <c r="O805" s="7"/>
     </row>
     <row r="807" spans="2:15">
       <c r="O807" s="7"/>
@@ -28578,13 +28619,13 @@
       <c r="O816" s="7"/>
     </row>
     <row r="817" spans="15:15">
-      <c r="O817" s="1"/>
+      <c r="O817" s="7"/>
     </row>
     <row r="818" spans="15:15">
-      <c r="O818" s="7"/>
-    </row>
-    <row r="820" spans="15:15">
-      <c r="O820" s="7"/>
+      <c r="O818" s="1"/>
+    </row>
+    <row r="819" spans="15:15">
+      <c r="O819" s="7"/>
     </row>
     <row r="821" spans="15:15">
       <c r="O821" s="7"/>
@@ -28614,10 +28655,10 @@
       <c r="O829" s="7"/>
     </row>
     <row r="830" spans="15:15">
-      <c r="O830" s="1"/>
-    </row>
-    <row r="832" spans="15:15">
-      <c r="O832" s="7"/>
+      <c r="O830" s="7"/>
+    </row>
+    <row r="831" spans="15:15">
+      <c r="O831" s="1"/>
     </row>
     <row r="833" spans="2:15">
       <c r="O833" s="7"/>
@@ -28631,8 +28672,8 @@
     <row r="836" spans="2:15">
       <c r="O836" s="7"/>
     </row>
-    <row r="840" spans="2:15">
-      <c r="O840" s="7"/>
+    <row r="837" spans="2:15">
+      <c r="O837" s="7"/>
     </row>
     <row r="841" spans="2:15">
       <c r="O841" s="7"/>
@@ -28647,18 +28688,6 @@
       <c r="O844" s="7"/>
     </row>
     <row r="845" spans="2:15">
-      <c r="B845" s="24"/>
-      <c r="C845" s="25"/>
-      <c r="D845" s="25"/>
-      <c r="E845" s="25"/>
-      <c r="F845" s="25"/>
-      <c r="G845" s="25"/>
-      <c r="H845" s="25"/>
-      <c r="I845" s="25"/>
-      <c r="J845" s="25"/>
-      <c r="K845" s="25"/>
-      <c r="L845" s="25"/>
-      <c r="M845" s="24"/>
       <c r="O845" s="7"/>
     </row>
     <row r="846" spans="2:15">
@@ -28723,24 +28752,34 @@
     </row>
     <row r="850" spans="2:15">
       <c r="B850" s="24"/>
+      <c r="C850" s="25"/>
+      <c r="D850" s="25"/>
+      <c r="E850" s="25"/>
+      <c r="F850" s="25"/>
+      <c r="G850" s="25"/>
+      <c r="H850" s="25"/>
+      <c r="I850" s="25"/>
+      <c r="J850" s="25"/>
+      <c r="K850" s="25"/>
+      <c r="L850" s="25"/>
       <c r="M850" s="24"/>
       <c r="O850" s="7"/>
     </row>
     <row r="851" spans="2:15">
-      <c r="O851" s="1"/>
+      <c r="B851" s="24"/>
+      <c r="M851" s="24"/>
+      <c r="O851" s="7"/>
     </row>
     <row r="852" spans="2:15">
-      <c r="O852" s="7"/>
-    </row>
-    <row r="854" spans="2:15">
-      <c r="B854" s="24"/>
-      <c r="M854" s="24"/>
-      <c r="O854" s="7"/>
-    </row>
-    <row r="856" spans="2:15">
-      <c r="B856" s="8"/>
-      <c r="M856" s="8"/>
-      <c r="O856" s="7"/>
+      <c r="O852" s="1"/>
+    </row>
+    <row r="853" spans="2:15">
+      <c r="O853" s="7"/>
+    </row>
+    <row r="855" spans="2:15">
+      <c r="B855" s="24"/>
+      <c r="M855" s="24"/>
+      <c r="O855" s="7"/>
     </row>
     <row r="857" spans="2:15">
       <c r="B857" s="8"/>
@@ -28762,8 +28801,10 @@
       <c r="M860" s="8"/>
       <c r="O860" s="7"/>
     </row>
-    <row r="863" spans="2:15">
-      <c r="O863" s="7"/>
+    <row r="861" spans="2:15">
+      <c r="B861" s="8"/>
+      <c r="M861" s="8"/>
+      <c r="O861" s="7"/>
     </row>
     <row r="864" spans="2:15">
       <c r="O864" s="7"/>
@@ -28774,17 +28815,17 @@
     <row r="866" spans="15:15">
       <c r="O866" s="7"/>
     </row>
-    <row r="868" spans="15:15">
-      <c r="O868" s="7"/>
+    <row r="867" spans="15:15">
+      <c r="O867" s="7"/>
     </row>
     <row r="869" spans="15:15">
       <c r="O869" s="7"/>
     </row>
-    <row r="871" spans="15:15">
-      <c r="O871" s="7"/>
-    </row>
-    <row r="873" spans="15:15">
-      <c r="O873" s="7"/>
+    <row r="870" spans="15:15">
+      <c r="O870" s="7"/>
+    </row>
+    <row r="872" spans="15:15">
+      <c r="O872" s="7"/>
     </row>
     <row r="874" spans="15:15">
       <c r="O874" s="7"/>
@@ -28814,13 +28855,11 @@
       <c r="O882" s="7"/>
     </row>
     <row r="883" spans="2:15">
-      <c r="B883" s="26"/>
       <c r="O883" s="7"/>
     </row>
-    <row r="885" spans="2:15">
-      <c r="B885" s="8"/>
-      <c r="M885" s="8"/>
-      <c r="O885" s="1"/>
+    <row r="884" spans="2:15">
+      <c r="B884" s="26"/>
+      <c r="O884" s="7"/>
     </row>
     <row r="886" spans="2:15">
       <c r="B886" s="8"/>
@@ -28828,12 +28867,12 @@
       <c r="O886" s="1"/>
     </row>
     <row r="887" spans="2:15">
-      <c r="O887" s="7"/>
-    </row>
-    <row r="889" spans="2:15">
-      <c r="B889" s="8"/>
-      <c r="M889" s="8"/>
-      <c r="O889" s="1"/>
+      <c r="B887" s="8"/>
+      <c r="M887" s="8"/>
+      <c r="O887" s="1"/>
+    </row>
+    <row r="888" spans="2:15">
+      <c r="O888" s="7"/>
     </row>
     <row r="890" spans="2:15">
       <c r="B890" s="8"/>
@@ -28847,11 +28886,11 @@
     </row>
     <row r="892" spans="2:15">
       <c r="B892" s="8"/>
+      <c r="M892" s="8"/>
       <c r="O892" s="1"/>
     </row>
     <row r="893" spans="2:15">
       <c r="B893" s="8"/>
-      <c r="M893" s="8"/>
       <c r="O893" s="1"/>
     </row>
     <row r="894" spans="2:15">
@@ -28869,22 +28908,10 @@
       <c r="M896" s="8"/>
       <c r="O896" s="1"/>
     </row>
-    <row r="899" spans="1:15">
-      <c r="A899" s="2"/>
-      <c r="B899" s="2"/>
-      <c r="C899" s="2"/>
-      <c r="D899" s="2"/>
-      <c r="E899" s="2"/>
-      <c r="F899" s="2"/>
-      <c r="G899" s="2"/>
-      <c r="H899" s="2"/>
-      <c r="I899" s="2"/>
-      <c r="J899" s="2"/>
-      <c r="K899" s="2"/>
-      <c r="L899" s="2"/>
-      <c r="M899" s="2"/>
-      <c r="N899" s="2"/>
-      <c r="O899" s="2"/>
+    <row r="897" spans="1:15">
+      <c r="B897" s="8"/>
+      <c r="M897" s="8"/>
+      <c r="O897" s="1"/>
     </row>
     <row r="900" spans="1:15">
       <c r="A900" s="2"/>
@@ -28967,7 +28994,7 @@
       <c r="J904" s="2"/>
       <c r="K904" s="2"/>
       <c r="L904" s="2"/>
-      <c r="M904" s="12"/>
+      <c r="M904" s="2"/>
       <c r="N904" s="2"/>
       <c r="O904" s="2"/>
     </row>
@@ -29004,6 +29031,23 @@
       <c r="M906" s="12"/>
       <c r="N906" s="2"/>
       <c r="O906" s="2"/>
+    </row>
+    <row r="907" spans="1:15">
+      <c r="A907" s="2"/>
+      <c r="B907" s="2"/>
+      <c r="C907" s="2"/>
+      <c r="D907" s="2"/>
+      <c r="E907" s="2"/>
+      <c r="F907" s="2"/>
+      <c r="G907" s="2"/>
+      <c r="H907" s="2"/>
+      <c r="I907" s="2"/>
+      <c r="J907" s="2"/>
+      <c r="K907" s="2"/>
+      <c r="L907" s="2"/>
+      <c r="M907" s="12"/>
+      <c r="N907" s="2"/>
+      <c r="O907" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15"/>
@@ -32580,8 +32624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q904"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M93" sqref="M93"/>
+    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M81" sqref="M81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aoto\Desktop\AmongUsMod\TheOtherRolesGM-KiyoMugi-Edition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B8A145-933B-4A78-8DA8-44247660A37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513188F4-0B94-4F4B-8EF1-45975ECF9B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4365" yWindow="1155" windowWidth="19245" windowHeight="13065" tabRatio="882" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3973" uniqueCount="3398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3976" uniqueCount="3401">
   <si>
     <t>English</t>
   </si>
@@ -11951,6 +11951,30 @@
     </rPh>
     <rPh sb="7" eb="10">
       <t>サイダイスウ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>tricksterBoxNormalVentSprite</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Box Sprite Change Normal Vent</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>箱の表示を普通のベント表示にする</t>
+    <rPh sb="0" eb="1">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="15"/>
   </si>
@@ -20406,10 +20430,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q907"/>
+  <dimension ref="A1:Q908"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M55" sqref="M55"/>
+    <sheetView tabSelected="1" topLeftCell="C31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -21624,67 +21648,65 @@
       <c r="O54" s="3"/>
     </row>
     <row r="55" spans="1:15">
-      <c r="O55" s="1"/>
+      <c r="A55" s="2" t="s">
+        <v>3398</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>3399</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="41" t="s">
+        <v>3400</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="3"/>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="2" t="s">
+      <c r="O56" s="1"/>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2" t="s">
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="3" t="s">
+      <c r="N57" s="2"/>
+      <c r="O57" s="3" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
-      <c r="O57" s="1"/>
-    </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="3" t="s">
-        <v>775</v>
-      </c>
+      <c r="O58" s="1"/>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="2" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -21697,44 +21719,44 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="3" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="3" t="s">
         <v>779</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
-      <c r="A61" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="3" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="2" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -21747,19 +21769,19 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="3" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="2" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -21772,19 +21794,19 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="3" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="2" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -21797,19 +21819,19 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="3" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -21822,47 +21844,47 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="3" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
-      <c r="O66" s="1"/>
-    </row>
     <row r="67" spans="1:15">
-      <c r="A67" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="3" t="s">
-        <v>803</v>
-      </c>
+      <c r="O67" s="1"/>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="2" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -21875,44 +21897,44 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="3" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="3" t="s">
         <v>807</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
-      <c r="A70" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2" t="s">
-        <v>810</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="3" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="2" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -21925,19 +21947,19 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
       <c r="M71" s="2" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="3" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="2" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -21950,19 +21972,19 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="3" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="2" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -21975,19 +21997,19 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="3" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="2" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -22000,19 +22022,19 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="3" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="2" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -22025,19 +22047,19 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="3" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="2" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -22050,19 +22072,19 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="3" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="2" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -22075,45 +22097,47 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="3" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
-      <c r="O78" s="1"/>
-    </row>
     <row r="79" spans="1:15">
-      <c r="A79" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="3"/>
+      <c r="O79" s="1"/>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -22126,50 +22150,54 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="3"/>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="3" t="s">
+      <c r="N81" s="2"/>
+      <c r="O81" s="3" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
-      <c r="A81" t="s">
+    <row r="82" spans="1:15">
+      <c r="A82" t="s">
         <v>846</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>847</v>
       </c>
-      <c r="M81" t="s">
+      <c r="M82" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
-      <c r="A82" s="2" t="s">
+    <row r="83" spans="1:15">
+      <c r="A83" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B83" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-      <c r="M82" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="1:15">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -22180,17 +22208,15 @@
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
+      <c r="M83" s="2" t="s">
+        <v>851</v>
+      </c>
       <c r="N83" s="2"/>
       <c r="O83" s="3"/>
     </row>
     <row r="84" spans="1:15">
-      <c r="A84" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>853</v>
-      </c>
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -22201,20 +22227,16 @@
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
-      <c r="M84" s="2" t="s">
-        <v>802</v>
-      </c>
+      <c r="M84" s="2"/>
       <c r="N84" s="2"/>
-      <c r="O84" s="3" t="s">
-        <v>854</v>
-      </c>
+      <c r="O84" s="3"/>
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="2" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -22227,19 +22249,19 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2" t="s">
-        <v>857</v>
+        <v>802</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="3" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="2" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -22252,19 +22274,19 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
       <c r="M86" s="2" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="3" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="2" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -22277,19 +22299,19 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="3" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="2" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -22302,19 +22324,19 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
       <c r="M88" s="2" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="3" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="2" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -22327,19 +22349,19 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="3" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="2" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -22352,19 +22374,19 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="3" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="2" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -22377,19 +22399,19 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="3" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="2" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -22402,61 +22424,61 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="3" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="3" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
-      <c r="A93" s="15"/>
-      <c r="B93" s="17"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
-      <c r="L93" s="6"/>
-      <c r="M93" s="6"/>
-      <c r="N93" s="6"/>
-      <c r="O93" s="6"/>
-    </row>
     <row r="94" spans="1:15">
-      <c r="A94" s="2" t="s">
-        <v>887</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>888</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
-      <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
-      <c r="M94" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="N94" s="2"/>
-      <c r="O94" s="3" t="s">
-        <v>890</v>
-      </c>
+      <c r="A94" s="15"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
+      <c r="O94" s="6"/>
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="2" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>707</v>
+        <v>888</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -22469,19 +22491,19 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
       <c r="M95" s="2" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="3" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="2" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>895</v>
+        <v>707</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -22494,61 +22516,61 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
       <c r="M96" s="2" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="3" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="3" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
-      <c r="A97" s="15"/>
-      <c r="B97" s="15"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
-      <c r="L97" s="6"/>
-      <c r="M97" s="6"/>
-      <c r="N97" s="6"/>
-      <c r="O97" s="19"/>
-    </row>
     <row r="98" spans="1:15">
-      <c r="A98" s="2" t="s">
-        <v>898</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>899</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
-      <c r="L98" s="2"/>
-      <c r="M98" s="2" t="s">
-        <v>900</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" s="3" t="s">
-        <v>901</v>
-      </c>
+      <c r="A98" s="15"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
+      <c r="O98" s="19"/>
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="2" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -22561,19 +22583,19 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
       <c r="M99" s="2" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="3" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="2" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -22586,61 +22608,61 @@
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
       <c r="M100" s="2" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="3" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" s="3" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="101" spans="1:15">
-      <c r="A101" s="15"/>
-      <c r="B101" s="15"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="6"/>
-      <c r="J101" s="6"/>
-      <c r="K101" s="6"/>
-      <c r="L101" s="6"/>
-      <c r="M101" s="6"/>
-      <c r="N101" s="6"/>
-      <c r="O101" s="6"/>
-    </row>
     <row r="102" spans="1:15">
-      <c r="A102" s="2" t="s">
-        <v>910</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>911</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
-      <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
-      <c r="M102" s="2" t="s">
-        <v>912</v>
-      </c>
-      <c r="N102" s="2"/>
-      <c r="O102" s="3" t="s">
-        <v>913</v>
-      </c>
+      <c r="A102" s="15"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+      <c r="M102" s="6"/>
+      <c r="N102" s="6"/>
+      <c r="O102" s="6"/>
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="2" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -22657,15 +22679,15 @@
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="3" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="2" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -22678,61 +22700,61 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
       <c r="M104" s="2" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="3" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="N105" s="2"/>
+      <c r="O105" s="3" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="105" spans="1:15">
-      <c r="A105" s="15"/>
-      <c r="B105" s="15"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
-      <c r="I105" s="6"/>
-      <c r="J105" s="6"/>
-      <c r="K105" s="6"/>
-      <c r="L105" s="6"/>
-      <c r="M105" s="6"/>
-      <c r="N105" s="6"/>
-      <c r="O105" s="19"/>
-    </row>
     <row r="106" spans="1:15">
-      <c r="A106" s="2" t="s">
-        <v>921</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
-      <c r="K106" s="2"/>
-      <c r="L106" s="2"/>
-      <c r="M106" s="2" t="s">
-        <v>922</v>
-      </c>
-      <c r="N106" s="2"/>
-      <c r="O106" s="3" t="s">
-        <v>923</v>
-      </c>
+      <c r="A106" s="15"/>
+      <c r="B106" s="15"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="6"/>
+      <c r="M106" s="6"/>
+      <c r="N106" s="6"/>
+      <c r="O106" s="19"/>
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="2" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>925</v>
+        <v>672</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -22745,19 +22767,19 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
       <c r="M107" s="2" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="3" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="2" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -22770,19 +22792,19 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
       <c r="M108" s="2" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="3" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="2" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>895</v>
+        <v>929</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -22795,19 +22817,19 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
       <c r="M109" s="2" t="s">
-        <v>896</v>
+        <v>930</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="3" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="110" spans="1:15">
       <c r="A110" s="2" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>935</v>
+        <v>895</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -22820,16 +22842,20 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
       <c r="M110" s="2" t="s">
-        <v>936</v>
+        <v>896</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="3" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
     </row>
     <row r="111" spans="1:15">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
+      <c r="A111" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>935</v>
+      </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -22840,17 +22866,17 @@
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
-      <c r="M111" s="2"/>
+      <c r="M111" s="2" t="s">
+        <v>936</v>
+      </c>
       <c r="N111" s="2"/>
-      <c r="O111" s="2"/>
+      <c r="O111" s="3" t="s">
+        <v>937</v>
+      </c>
     </row>
     <row r="112" spans="1:15">
-      <c r="A112" s="2" t="s">
-        <v>938</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>939</v>
-      </c>
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -22861,20 +22887,16 @@
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
-      <c r="M112" s="2" t="s">
-        <v>940</v>
-      </c>
+      <c r="M112" s="2"/>
       <c r="N112" s="2"/>
-      <c r="O112" s="3" t="s">
-        <v>941</v>
-      </c>
+      <c r="O112" s="2"/>
     </row>
     <row r="113" spans="1:15">
       <c r="A113" s="2" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -22887,19 +22909,19 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
       <c r="M113" s="2" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="3" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
     </row>
     <row r="114" spans="1:15">
       <c r="A114" s="2" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -22912,19 +22934,19 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
       <c r="M114" s="2" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="3" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
     </row>
     <row r="115" spans="1:15">
       <c r="A115" s="2" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -22937,19 +22959,19 @@
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
       <c r="M115" s="2" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="3" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
     </row>
     <row r="116" spans="1:15">
       <c r="A116" s="2" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -22962,19 +22984,19 @@
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
       <c r="M116" s="2" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="3" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
     </row>
     <row r="117" spans="1:15">
       <c r="A117" s="2" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -22987,44 +23009,44 @@
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
       <c r="M117" s="2" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="3" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="N118" s="2"/>
+      <c r="O118" s="3" t="s">
         <v>961</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15">
-      <c r="A119" s="2" t="s">
-        <v>962</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="2"/>
-      <c r="J119" s="2"/>
-      <c r="K119" s="2"/>
-      <c r="L119" s="2"/>
-      <c r="M119" s="2" t="s">
-        <v>964</v>
-      </c>
-      <c r="N119" s="2"/>
-      <c r="O119" s="3" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="120" spans="1:15">
       <c r="A120" s="2" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -23037,19 +23059,19 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
       <c r="M120" s="2" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="3" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
     </row>
     <row r="121" spans="1:15">
       <c r="A121" s="2" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -23062,19 +23084,19 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
       <c r="M121" s="2" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="3" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="122" spans="1:15">
       <c r="A122" s="2" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -23087,19 +23109,19 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
       <c r="M122" s="2" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="3" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="123" spans="1:15">
       <c r="A123" s="2" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -23112,47 +23134,47 @@
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
       <c r="M123" s="2" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="3" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="A124" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="2"/>
+      <c r="L124" s="2"/>
+      <c r="M124" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="N124" s="2"/>
+      <c r="O124" s="3" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="124" spans="1:15">
-      <c r="O124" s="1"/>
-    </row>
     <row r="125" spans="1:15">
-      <c r="A125" s="2" t="s">
-        <v>982</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>983</v>
-      </c>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="2"/>
-      <c r="J125" s="2"/>
-      <c r="K125" s="2"/>
-      <c r="L125" s="2"/>
-      <c r="M125" s="2" t="s">
-        <v>984</v>
-      </c>
-      <c r="N125" s="2"/>
-      <c r="O125" s="3" t="s">
-        <v>985</v>
-      </c>
+      <c r="O125" s="1"/>
     </row>
     <row r="126" spans="1:15">
       <c r="A126" s="2" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -23165,19 +23187,19 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
       <c r="M126" s="2" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="3" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="127" spans="1:15">
       <c r="A127" s="2" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -23190,47 +23212,47 @@
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
       <c r="M127" s="2" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="3" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="A128" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
+      <c r="L128" s="2"/>
+      <c r="M128" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="N128" s="2"/>
+      <c r="O128" s="3" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="128" spans="1:15">
-      <c r="O128" s="1"/>
-    </row>
     <row r="129" spans="1:15">
-      <c r="A129" s="2" t="s">
-        <v>994</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
-      <c r="I129" s="2"/>
-      <c r="J129" s="2"/>
-      <c r="K129" s="2"/>
-      <c r="L129" s="2"/>
-      <c r="M129" s="2" t="s">
-        <v>922</v>
-      </c>
-      <c r="N129" s="2"/>
-      <c r="O129" s="3" t="s">
-        <v>995</v>
-      </c>
+      <c r="O129" s="1"/>
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="2" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>856</v>
+        <v>672</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -23243,19 +23265,19 @@
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
       <c r="M130" s="2" t="s">
-        <v>857</v>
+        <v>922</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="3" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="131" spans="1:15">
       <c r="A131" s="2" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>999</v>
+        <v>856</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -23268,19 +23290,19 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
       <c r="M131" s="2" t="s">
-        <v>1000</v>
+        <v>857</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="3" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
     </row>
     <row r="132" spans="1:15">
       <c r="A132" s="2" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -23293,47 +23315,47 @@
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
       <c r="M132" s="2" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="3" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
+      <c r="A133" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2"/>
+      <c r="L133" s="2"/>
+      <c r="M133" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="N133" s="2"/>
+      <c r="O133" s="3" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="133" spans="1:15">
-      <c r="O133" s="1"/>
-    </row>
     <row r="134" spans="1:15">
-      <c r="A134" s="2" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
-      <c r="G134" s="2"/>
-      <c r="H134" s="2"/>
-      <c r="I134" s="2"/>
-      <c r="J134" s="2"/>
-      <c r="K134" s="2"/>
-      <c r="L134" s="2"/>
-      <c r="M134" s="2" t="s">
-        <v>1008</v>
-      </c>
-      <c r="N134" s="2"/>
-      <c r="O134" s="3" t="s">
-        <v>1009</v>
-      </c>
+      <c r="O134" s="1"/>
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="2" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -23346,19 +23368,19 @@
       <c r="K135" s="2"/>
       <c r="L135" s="2"/>
       <c r="M135" s="2" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="3" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="2" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -23371,19 +23393,19 @@
       <c r="K136" s="2"/>
       <c r="L136" s="2"/>
       <c r="M136" s="2" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" s="3" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="2" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -23396,19 +23418,19 @@
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
       <c r="M137" s="2" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="3" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="2" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -23421,44 +23443,44 @@
       <c r="K138" s="2"/>
       <c r="L138" s="2"/>
       <c r="M138" s="2" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" s="3" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
+      <c r="A139" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+      <c r="J139" s="2"/>
+      <c r="K139" s="2"/>
+      <c r="L139" s="2"/>
+      <c r="M139" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="N139" s="2"/>
+      <c r="O139" s="3" t="s">
         <v>1025</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15">
-      <c r="A140" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-      <c r="F140" s="2"/>
-      <c r="G140" s="2"/>
-      <c r="H140" s="2"/>
-      <c r="I140" s="2"/>
-      <c r="J140" s="2"/>
-      <c r="K140" s="2"/>
-      <c r="L140" s="2"/>
-      <c r="M140" s="2" t="s">
-        <v>1028</v>
-      </c>
-      <c r="N140" s="2"/>
-      <c r="O140" s="3" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="141" spans="1:15">
       <c r="A141" s="2" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -23471,19 +23493,19 @@
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
       <c r="M141" s="2" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" s="3" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="142" spans="1:15">
       <c r="A142" s="2" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -23496,19 +23518,19 @@
       <c r="K142" s="2"/>
       <c r="L142" s="2"/>
       <c r="M142" s="2" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="3" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="2" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
@@ -23521,19 +23543,19 @@
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
       <c r="M143" s="2" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" s="3" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="144" spans="1:15">
       <c r="A144" s="2" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -23546,47 +23568,47 @@
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
       <c r="M144" s="2" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" s="3" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
+      <c r="A145" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
+      <c r="K145" s="2"/>
+      <c r="L145" s="2"/>
+      <c r="M145" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="N145" s="2"/>
+      <c r="O145" s="3" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="145" spans="1:15">
-      <c r="O145" s="1"/>
-    </row>
     <row r="146" spans="1:15">
-      <c r="A146" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
-      <c r="F146" s="2"/>
-      <c r="G146" s="2"/>
-      <c r="H146" s="2"/>
-      <c r="I146" s="2"/>
-      <c r="J146" s="2"/>
-      <c r="K146" s="2"/>
-      <c r="L146" s="2"/>
-      <c r="M146" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="N146" s="2"/>
-      <c r="O146" s="3" t="s">
-        <v>1049</v>
-      </c>
+      <c r="O146" s="1"/>
     </row>
     <row r="147" spans="1:15">
       <c r="A147" s="2" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
@@ -23599,19 +23621,19 @@
       <c r="K147" s="2"/>
       <c r="L147" s="2"/>
       <c r="M147" s="2" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" s="3" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="148" spans="1:15">
       <c r="A148" s="2" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -23624,47 +23646,47 @@
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
       <c r="M148" s="2" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" s="3" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
+      <c r="A149" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
+      <c r="I149" s="2"/>
+      <c r="J149" s="2"/>
+      <c r="K149" s="2"/>
+      <c r="L149" s="2"/>
+      <c r="M149" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="N149" s="2"/>
+      <c r="O149" s="3" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="149" spans="1:15">
-      <c r="O149" s="1"/>
-    </row>
     <row r="150" spans="1:15">
-      <c r="A150" s="2" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
-      <c r="G150" s="2"/>
-      <c r="H150" s="2"/>
-      <c r="I150" s="2"/>
-      <c r="J150" s="2"/>
-      <c r="K150" s="2"/>
-      <c r="L150" s="2"/>
-      <c r="M150" s="2" t="s">
-        <v>1060</v>
-      </c>
-      <c r="N150" s="2"/>
-      <c r="O150" s="3" t="s">
-        <v>1061</v>
-      </c>
+      <c r="O150" s="1"/>
     </row>
     <row r="151" spans="1:15">
       <c r="A151" s="2" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>437</v>
+        <v>1059</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -23677,19 +23699,19 @@
       <c r="K151" s="2"/>
       <c r="L151" s="2"/>
       <c r="M151" s="2" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="3" t="s">
-        <v>439</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="152" spans="1:15">
       <c r="A152" s="2" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>1065</v>
+        <v>437</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -23702,19 +23724,19 @@
       <c r="K152" s="2"/>
       <c r="L152" s="2"/>
       <c r="M152" s="2" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="3" t="s">
-        <v>1067</v>
+        <v>439</v>
       </c>
     </row>
     <row r="153" spans="1:15">
       <c r="A153" s="2" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -23727,19 +23749,19 @@
       <c r="K153" s="2"/>
       <c r="L153" s="2"/>
       <c r="M153" s="2" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" s="3" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="154" spans="1:15">
       <c r="A154" s="2" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -23752,19 +23774,19 @@
       <c r="K154" s="2"/>
       <c r="L154" s="2"/>
       <c r="M154" s="2" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="3" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="155" spans="1:15">
       <c r="A155" s="2" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -23777,19 +23799,19 @@
       <c r="K155" s="2"/>
       <c r="L155" s="2"/>
       <c r="M155" s="2" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" s="3" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="156" spans="1:15">
       <c r="A156" s="2" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -23802,47 +23824,47 @@
       <c r="K156" s="2"/>
       <c r="L156" s="2"/>
       <c r="M156" s="2" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" s="3" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
+      <c r="A157" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
+      <c r="I157" s="2"/>
+      <c r="J157" s="2"/>
+      <c r="K157" s="2"/>
+      <c r="L157" s="2"/>
+      <c r="M157" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="N157" s="2"/>
+      <c r="O157" s="3" t="s">
         <v>1083</v>
       </c>
     </row>
-    <row r="157" spans="1:15">
-      <c r="O157" s="1"/>
-    </row>
     <row r="158" spans="1:15">
-      <c r="A158" s="2" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
-      <c r="F158" s="2"/>
-      <c r="G158" s="2"/>
-      <c r="H158" s="2"/>
-      <c r="I158" s="2"/>
-      <c r="J158" s="2"/>
-      <c r="K158" s="2"/>
-      <c r="L158" s="2"/>
-      <c r="M158" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="N158" s="2"/>
-      <c r="O158" s="3" t="s">
-        <v>1086</v>
-      </c>
+      <c r="O158" s="1"/>
     </row>
     <row r="159" spans="1:15">
       <c r="A159" s="2" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>888</v>
+        <v>1085</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -23855,19 +23877,19 @@
       <c r="K159" s="2"/>
       <c r="L159" s="2"/>
       <c r="M159" s="2" t="s">
-        <v>889</v>
+        <v>802</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="3" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="160" spans="1:15">
       <c r="A160" s="2" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>1090</v>
+        <v>888</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -23880,19 +23902,19 @@
       <c r="K160" s="2"/>
       <c r="L160" s="2"/>
       <c r="M160" s="2" t="s">
-        <v>1091</v>
+        <v>889</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="3" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="161" spans="1:15">
       <c r="A161" s="2" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -23905,44 +23927,44 @@
       <c r="K161" s="2"/>
       <c r="L161" s="2"/>
       <c r="M161" s="2" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" s="3" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15">
+      <c r="A162" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+      <c r="H162" s="2"/>
+      <c r="I162" s="2"/>
+      <c r="J162" s="2"/>
+      <c r="K162" s="2"/>
+      <c r="L162" s="2"/>
+      <c r="M162" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="N162" s="2"/>
+      <c r="O162" s="3" t="s">
         <v>1096</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15">
-      <c r="A163" s="2" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-      <c r="E163" s="2"/>
-      <c r="F163" s="2"/>
-      <c r="G163" s="2"/>
-      <c r="H163" s="2"/>
-      <c r="I163" s="2"/>
-      <c r="J163" s="2"/>
-      <c r="K163" s="2"/>
-      <c r="L163" s="2"/>
-      <c r="M163" s="2" t="s">
-        <v>1099</v>
-      </c>
-      <c r="N163" s="2"/>
-      <c r="O163" s="3" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="164" spans="1:15">
       <c r="A164" s="2" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
@@ -23955,19 +23977,19 @@
       <c r="K164" s="2"/>
       <c r="L164" s="2"/>
       <c r="M164" s="2" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" s="3" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="165" spans="1:15">
       <c r="A165" s="2" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -23980,19 +24002,19 @@
       <c r="K165" s="2"/>
       <c r="L165" s="2"/>
       <c r="M165" s="2" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" s="3" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="166" spans="1:15">
       <c r="A166" s="2" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
@@ -24005,19 +24027,19 @@
       <c r="K166" s="2"/>
       <c r="L166" s="2"/>
       <c r="M166" s="2" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" s="3" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="167" spans="1:15">
       <c r="A167" s="2" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
@@ -24030,19 +24052,19 @@
       <c r="K167" s="2"/>
       <c r="L167" s="2"/>
       <c r="M167" s="2" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="3" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="168" spans="1:15">
       <c r="A168" s="2" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -24055,47 +24077,47 @@
       <c r="K168" s="2"/>
       <c r="L168" s="2"/>
       <c r="M168" s="2" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" s="3" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15">
+      <c r="A169" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
+      <c r="J169" s="2"/>
+      <c r="K169" s="2"/>
+      <c r="L169" s="2"/>
+      <c r="M169" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="N169" s="2"/>
+      <c r="O169" s="3" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="169" spans="1:15">
-      <c r="O169" s="1"/>
-    </row>
     <row r="170" spans="1:15">
-      <c r="A170" s="2" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C170" s="2"/>
-      <c r="D170" s="2"/>
-      <c r="E170" s="2"/>
-      <c r="F170" s="2"/>
-      <c r="G170" s="2"/>
-      <c r="H170" s="2"/>
-      <c r="I170" s="2"/>
-      <c r="J170" s="2"/>
-      <c r="K170" s="2"/>
-      <c r="L170" s="2"/>
-      <c r="M170" s="2" t="s">
-        <v>1123</v>
-      </c>
-      <c r="N170" s="2"/>
-      <c r="O170" s="3" t="s">
-        <v>1124</v>
-      </c>
+      <c r="O170" s="1"/>
     </row>
     <row r="171" spans="1:15">
       <c r="A171" s="2" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -24108,19 +24130,19 @@
       <c r="K171" s="2"/>
       <c r="L171" s="2"/>
       <c r="M171" s="2" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" s="3" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="172" spans="1:15">
       <c r="A172" s="2" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
@@ -24133,19 +24155,19 @@
       <c r="K172" s="2"/>
       <c r="L172" s="2"/>
       <c r="M172" s="2" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" s="3" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="173" spans="1:15">
       <c r="A173" s="2" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -24158,19 +24180,19 @@
       <c r="K173" s="2"/>
       <c r="L173" s="2"/>
       <c r="M173" s="2" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" s="3" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="174" spans="1:15">
       <c r="A174" s="2" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
@@ -24183,19 +24205,19 @@
       <c r="K174" s="2"/>
       <c r="L174" s="2"/>
       <c r="M174" s="2" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="N174" s="2"/>
       <c r="O174" s="3" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="175" spans="1:15">
       <c r="A175" s="2" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
@@ -24208,47 +24230,47 @@
       <c r="K175" s="2"/>
       <c r="L175" s="2"/>
       <c r="M175" s="2" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="N175" s="2"/>
       <c r="O175" s="3" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15">
+      <c r="A176" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="2"/>
+      <c r="H176" s="2"/>
+      <c r="I176" s="2"/>
+      <c r="J176" s="2"/>
+      <c r="K176" s="2"/>
+      <c r="L176" s="2"/>
+      <c r="M176" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="N176" s="2"/>
+      <c r="O176" s="3" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="176" spans="1:15">
-      <c r="O176" s="1"/>
-    </row>
     <row r="177" spans="1:15">
-      <c r="A177" s="2" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C177" s="2"/>
-      <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
-      <c r="F177" s="2"/>
-      <c r="G177" s="2"/>
-      <c r="H177" s="2"/>
-      <c r="I177" s="2"/>
-      <c r="J177" s="2"/>
-      <c r="K177" s="2"/>
-      <c r="L177" s="2"/>
-      <c r="M177" s="2" t="s">
-        <v>1147</v>
-      </c>
-      <c r="N177" s="2"/>
-      <c r="O177" s="3" t="s">
-        <v>1148</v>
-      </c>
+      <c r="O177" s="1"/>
     </row>
     <row r="178" spans="1:15">
       <c r="A178" s="2" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
@@ -24261,19 +24283,19 @@
       <c r="K178" s="2"/>
       <c r="L178" s="2"/>
       <c r="M178" s="2" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" s="3" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="179" spans="1:15">
       <c r="A179" s="2" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
@@ -24286,19 +24308,19 @@
       <c r="K179" s="2"/>
       <c r="L179" s="2"/>
       <c r="M179" s="2" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="N179" s="2"/>
       <c r="O179" s="3" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="180" spans="1:15">
       <c r="A180" s="2" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
@@ -24311,19 +24333,19 @@
       <c r="K180" s="2"/>
       <c r="L180" s="2"/>
       <c r="M180" s="2" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" s="3" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="181" spans="1:15">
       <c r="A181" s="2" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
@@ -24336,47 +24358,47 @@
       <c r="K181" s="2"/>
       <c r="L181" s="2"/>
       <c r="M181" s="2" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="N181" s="2"/>
       <c r="O181" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15">
+      <c r="A182" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+      <c r="H182" s="2"/>
+      <c r="I182" s="2"/>
+      <c r="J182" s="2"/>
+      <c r="K182" s="2"/>
+      <c r="L182" s="2"/>
+      <c r="M182" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="N182" s="2"/>
+      <c r="O182" s="3" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="182" spans="1:15">
-      <c r="O182" s="1"/>
-    </row>
     <row r="183" spans="1:15">
-      <c r="A183" s="2" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C183" s="2"/>
-      <c r="D183" s="2"/>
-      <c r="E183" s="2"/>
-      <c r="F183" s="2"/>
-      <c r="G183" s="2"/>
-      <c r="H183" s="2"/>
-      <c r="I183" s="2"/>
-      <c r="J183" s="2"/>
-      <c r="K183" s="2"/>
-      <c r="L183" s="2"/>
-      <c r="M183" s="2" t="s">
-        <v>1167</v>
-      </c>
-      <c r="N183" s="2"/>
-      <c r="O183" s="3" t="s">
-        <v>1168</v>
-      </c>
+      <c r="O183" s="1"/>
     </row>
     <row r="184" spans="1:15">
       <c r="A184" s="2" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
@@ -24389,19 +24411,19 @@
       <c r="K184" s="2"/>
       <c r="L184" s="2"/>
       <c r="M184" s="2" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="N184" s="2"/>
       <c r="O184" s="3" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="185" spans="1:15">
       <c r="A185" s="2" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
@@ -24414,47 +24436,47 @@
       <c r="K185" s="2"/>
       <c r="L185" s="2"/>
       <c r="M185" s="2" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="N185" s="2"/>
       <c r="O185" s="3" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15">
+      <c r="A186" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+      <c r="G186" s="2"/>
+      <c r="H186" s="2"/>
+      <c r="I186" s="2"/>
+      <c r="J186" s="2"/>
+      <c r="K186" s="2"/>
+      <c r="L186" s="2"/>
+      <c r="M186" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="N186" s="2"/>
+      <c r="O186" s="3" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="186" spans="1:15">
-      <c r="O186" s="1"/>
-    </row>
     <row r="187" spans="1:15">
-      <c r="A187" s="2" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C187" s="2"/>
-      <c r="D187" s="2"/>
-      <c r="E187" s="2"/>
-      <c r="F187" s="2"/>
-      <c r="G187" s="2"/>
-      <c r="H187" s="2"/>
-      <c r="I187" s="2"/>
-      <c r="J187" s="2"/>
-      <c r="K187" s="2"/>
-      <c r="L187" s="2"/>
-      <c r="M187" s="2" t="s">
-        <v>1179</v>
-      </c>
-      <c r="N187" s="2"/>
-      <c r="O187" s="3" t="s">
-        <v>1180</v>
-      </c>
+      <c r="O187" s="1"/>
     </row>
     <row r="188" spans="1:15">
       <c r="A188" s="2" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
@@ -24467,19 +24489,19 @@
       <c r="K188" s="2"/>
       <c r="L188" s="2"/>
       <c r="M188" s="2" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="N188" s="2"/>
       <c r="O188" s="3" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="189" spans="1:15">
       <c r="A189" s="2" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
@@ -24492,19 +24514,19 @@
       <c r="K189" s="2"/>
       <c r="L189" s="2"/>
       <c r="M189" s="2" t="s">
-        <v>930</v>
+        <v>1183</v>
       </c>
       <c r="N189" s="2"/>
       <c r="O189" s="3" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="190" spans="1:15">
       <c r="A190" s="2" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>895</v>
+        <v>1186</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
@@ -24517,44 +24539,44 @@
       <c r="K190" s="2"/>
       <c r="L190" s="2"/>
       <c r="M190" s="2" t="s">
-        <v>896</v>
+        <v>930</v>
       </c>
       <c r="N190" s="2"/>
       <c r="O190" s="3" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15">
+      <c r="A191" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
+      <c r="H191" s="2"/>
+      <c r="I191" s="2"/>
+      <c r="J191" s="2"/>
+      <c r="K191" s="2"/>
+      <c r="L191" s="2"/>
+      <c r="M191" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="N191" s="2"/>
+      <c r="O191" s="3" t="s">
         <v>1189</v>
-      </c>
-    </row>
-    <row r="192" spans="1:15">
-      <c r="A192" s="2" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C192" s="2"/>
-      <c r="D192" s="2"/>
-      <c r="E192" s="2"/>
-      <c r="F192" s="2"/>
-      <c r="G192" s="2"/>
-      <c r="H192" s="2"/>
-      <c r="I192" s="2"/>
-      <c r="J192" s="2"/>
-      <c r="K192" s="2"/>
-      <c r="L192" s="2"/>
-      <c r="M192" s="2" t="s">
-        <v>1192</v>
-      </c>
-      <c r="N192" s="2"/>
-      <c r="O192" s="3" t="s">
-        <v>1193</v>
       </c>
     </row>
     <row r="193" spans="1:15">
       <c r="A193" s="2" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
@@ -24567,19 +24589,19 @@
       <c r="K193" s="2"/>
       <c r="L193" s="2"/>
       <c r="M193" s="2" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="N193" s="2"/>
       <c r="O193" s="3" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="194" spans="1:15">
       <c r="A194" s="2" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
@@ -24592,19 +24614,19 @@
       <c r="K194" s="2"/>
       <c r="L194" s="2"/>
       <c r="M194" s="2" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="N194" s="2"/>
       <c r="O194" s="3" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="195" spans="1:15">
       <c r="A195" s="2" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
@@ -24617,19 +24639,19 @@
       <c r="K195" s="2"/>
       <c r="L195" s="2"/>
       <c r="M195" s="2" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="N195" s="2"/>
       <c r="O195" s="3" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="196" spans="1:15">
       <c r="A196" s="2" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
@@ -24642,19 +24664,19 @@
       <c r="K196" s="2"/>
       <c r="L196" s="2"/>
       <c r="M196" s="2" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="N196" s="2"/>
       <c r="O196" s="3" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="197" spans="1:15">
       <c r="A197" s="2" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>1134</v>
+        <v>1207</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
@@ -24667,19 +24689,19 @@
       <c r="K197" s="2"/>
       <c r="L197" s="2"/>
       <c r="M197" s="2" t="s">
-        <v>1135</v>
+        <v>1208</v>
       </c>
       <c r="N197" s="2"/>
       <c r="O197" s="3" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="2" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
@@ -24692,19 +24714,19 @@
       <c r="K198" s="2"/>
       <c r="L198" s="2"/>
       <c r="M198" s="2" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="N198" s="2"/>
       <c r="O198" s="3" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="199" spans="1:15">
       <c r="A199" s="2" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>1215</v>
+        <v>1138</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
@@ -24717,47 +24739,47 @@
       <c r="K199" s="2"/>
       <c r="L199" s="2"/>
       <c r="M199" s="2" t="s">
-        <v>1216</v>
+        <v>1139</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" s="3" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15">
+      <c r="A200" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="2"/>
+      <c r="H200" s="2"/>
+      <c r="I200" s="2"/>
+      <c r="J200" s="2"/>
+      <c r="K200" s="2"/>
+      <c r="L200" s="2"/>
+      <c r="M200" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="N200" s="2"/>
+      <c r="O200" s="3" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="200" spans="1:15">
-      <c r="O200" s="1"/>
-    </row>
     <row r="201" spans="1:15">
-      <c r="A201" s="2" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>1219</v>
-      </c>
-      <c r="C201" s="2"/>
-      <c r="D201" s="2"/>
-      <c r="E201" s="2"/>
-      <c r="F201" s="2"/>
-      <c r="G201" s="2"/>
-      <c r="H201" s="2"/>
-      <c r="I201" s="2"/>
-      <c r="J201" s="2"/>
-      <c r="K201" s="2"/>
-      <c r="L201" s="2"/>
-      <c r="M201" s="2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="N201" s="2"/>
-      <c r="O201" s="3" t="s">
-        <v>1221</v>
-      </c>
+      <c r="O201" s="1"/>
     </row>
     <row r="202" spans="1:15">
       <c r="A202" s="2" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
@@ -24770,19 +24792,19 @@
       <c r="K202" s="2"/>
       <c r="L202" s="2"/>
       <c r="M202" s="2" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="N202" s="2"/>
       <c r="O202" s="3" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="203" spans="1:15">
       <c r="A203" s="2" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
@@ -24795,47 +24817,47 @@
       <c r="K203" s="2"/>
       <c r="L203" s="2"/>
       <c r="M203" s="2" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="N203" s="2"/>
       <c r="O203" s="3" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15">
+      <c r="A204" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C204" s="2"/>
+      <c r="D204" s="2"/>
+      <c r="E204" s="2"/>
+      <c r="F204" s="2"/>
+      <c r="G204" s="2"/>
+      <c r="H204" s="2"/>
+      <c r="I204" s="2"/>
+      <c r="J204" s="2"/>
+      <c r="K204" s="2"/>
+      <c r="L204" s="2"/>
+      <c r="M204" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="N204" s="2"/>
+      <c r="O204" s="3" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="204" spans="1:15">
-      <c r="O204" s="1"/>
-    </row>
     <row r="205" spans="1:15">
-      <c r="A205" s="2" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C205" s="2"/>
-      <c r="D205" s="2"/>
-      <c r="E205" s="2"/>
-      <c r="F205" s="2"/>
-      <c r="G205" s="2"/>
-      <c r="H205" s="2"/>
-      <c r="I205" s="2"/>
-      <c r="J205" s="2"/>
-      <c r="K205" s="2"/>
-      <c r="L205" s="2"/>
-      <c r="M205" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="N205" s="2"/>
-      <c r="O205" s="3" t="s">
-        <v>1231</v>
-      </c>
+      <c r="O205" s="1"/>
     </row>
     <row r="206" spans="1:15">
       <c r="A206" s="2" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>1186</v>
+        <v>1178</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
@@ -24848,19 +24870,19 @@
       <c r="K206" s="2"/>
       <c r="L206" s="2"/>
       <c r="M206" s="2" t="s">
-        <v>930</v>
+        <v>696</v>
       </c>
       <c r="N206" s="2"/>
       <c r="O206" s="3" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="207" spans="1:15">
       <c r="A207" s="2" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>895</v>
+        <v>1186</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
@@ -24873,19 +24895,19 @@
       <c r="K207" s="2"/>
       <c r="L207" s="2"/>
       <c r="M207" s="2" t="s">
-        <v>896</v>
+        <v>930</v>
       </c>
       <c r="N207" s="2"/>
       <c r="O207" s="3" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="208" spans="1:15">
       <c r="A208" s="2" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>707</v>
+        <v>895</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
@@ -24898,19 +24920,19 @@
       <c r="K208" s="2"/>
       <c r="L208" s="2"/>
       <c r="M208" s="2" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="N208" s="2"/>
       <c r="O208" s="3" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="209" spans="1:15">
       <c r="A209" s="2" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
@@ -24923,19 +24945,19 @@
       <c r="K209" s="2"/>
       <c r="L209" s="2"/>
       <c r="M209" s="2" t="s">
-        <v>1239</v>
+        <v>892</v>
       </c>
       <c r="N209" s="2"/>
       <c r="O209" s="3" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="210" spans="1:15">
       <c r="A210" s="2" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>1242</v>
+        <v>711</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
@@ -24948,16 +24970,20 @@
       <c r="K210" s="2"/>
       <c r="L210" s="2"/>
       <c r="M210" s="2" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="N210" s="2"/>
       <c r="O210" s="3" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="211" spans="1:15">
-      <c r="A211" s="2"/>
-      <c r="B211" s="2"/>
+      <c r="A211" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>1242</v>
+      </c>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
@@ -24968,17 +24994,17 @@
       <c r="J211" s="2"/>
       <c r="K211" s="2"/>
       <c r="L211" s="2"/>
-      <c r="M211" s="2"/>
+      <c r="M211" s="2" t="s">
+        <v>1243</v>
+      </c>
       <c r="N211" s="2"/>
-      <c r="O211" s="2"/>
+      <c r="O211" s="3" t="s">
+        <v>1244</v>
+      </c>
     </row>
     <row r="212" spans="1:15">
-      <c r="A212" s="2" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>1246</v>
-      </c>
+      <c r="A212" s="2"/>
+      <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
@@ -24989,20 +25015,16 @@
       <c r="J212" s="2"/>
       <c r="K212" s="2"/>
       <c r="L212" s="2"/>
-      <c r="M212" s="2" t="s">
-        <v>1247</v>
-      </c>
+      <c r="M212" s="2"/>
       <c r="N212" s="2"/>
-      <c r="O212" s="3" t="s">
-        <v>1248</v>
-      </c>
+      <c r="O212" s="2"/>
     </row>
     <row r="213" spans="1:15">
       <c r="A213" s="2" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
@@ -25015,19 +25037,19 @@
       <c r="K213" s="2"/>
       <c r="L213" s="2"/>
       <c r="M213" s="2" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="N213" s="2"/>
       <c r="O213" s="3" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="214" spans="1:15">
       <c r="A214" s="2" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
@@ -25040,19 +25062,19 @@
       <c r="K214" s="2"/>
       <c r="L214" s="2"/>
       <c r="M214" s="2" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="N214" s="2"/>
       <c r="O214" s="3" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="215" spans="1:15">
       <c r="A215" s="2" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
@@ -25065,19 +25087,19 @@
       <c r="K215" s="2"/>
       <c r="L215" s="2"/>
       <c r="M215" s="2" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="N215" s="2"/>
       <c r="O215" s="3" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="216" spans="1:15">
       <c r="A216" s="2" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
@@ -25090,16 +25112,20 @@
       <c r="K216" s="2"/>
       <c r="L216" s="2"/>
       <c r="M216" s="2" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="N216" s="2"/>
       <c r="O216" s="3" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="217" spans="1:15">
-      <c r="A217" s="2"/>
-      <c r="B217" s="2"/>
+      <c r="A217" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>1262</v>
+      </c>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -25110,17 +25136,17 @@
       <c r="J217" s="2"/>
       <c r="K217" s="2"/>
       <c r="L217" s="2"/>
-      <c r="M217" s="2"/>
+      <c r="M217" s="2" t="s">
+        <v>1263</v>
+      </c>
       <c r="N217" s="2"/>
-      <c r="O217" s="2"/>
+      <c r="O217" s="3" t="s">
+        <v>1264</v>
+      </c>
     </row>
     <row r="218" spans="1:15">
-      <c r="A218" s="2" t="s">
-        <v>1265</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>1266</v>
-      </c>
+      <c r="A218" s="2"/>
+      <c r="B218" s="2"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -25131,20 +25157,16 @@
       <c r="J218" s="2"/>
       <c r="K218" s="2"/>
       <c r="L218" s="2"/>
-      <c r="M218" s="2" t="s">
-        <v>1267</v>
-      </c>
+      <c r="M218" s="2"/>
       <c r="N218" s="2"/>
-      <c r="O218" s="3" t="s">
-        <v>1268</v>
-      </c>
+      <c r="O218" s="2"/>
     </row>
     <row r="219" spans="1:15">
       <c r="A219" s="2" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
@@ -25157,19 +25179,19 @@
       <c r="K219" s="2"/>
       <c r="L219" s="2"/>
       <c r="M219" s="2" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="N219" s="2"/>
       <c r="O219" s="3" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="220" spans="1:15">
       <c r="A220" s="2" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
@@ -25182,16 +25204,20 @@
       <c r="K220" s="2"/>
       <c r="L220" s="2"/>
       <c r="M220" s="2" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="N220" s="2"/>
       <c r="O220" s="3" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="221" spans="1:15">
-      <c r="A221" s="2"/>
-      <c r="B221" s="2"/>
+      <c r="A221" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>1274</v>
+      </c>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -25202,17 +25228,17 @@
       <c r="J221" s="2"/>
       <c r="K221" s="2"/>
       <c r="L221" s="2"/>
-      <c r="M221" s="2"/>
+      <c r="M221" s="2" t="s">
+        <v>1275</v>
+      </c>
       <c r="N221" s="2"/>
-      <c r="O221" s="2"/>
+      <c r="O221" s="3" t="s">
+        <v>1276</v>
+      </c>
     </row>
     <row r="222" spans="1:15">
-      <c r="A222" s="2" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>1278</v>
-      </c>
+      <c r="A222" s="2"/>
+      <c r="B222" s="2"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -25223,20 +25249,16 @@
       <c r="J222" s="2"/>
       <c r="K222" s="2"/>
       <c r="L222" s="2"/>
-      <c r="M222" s="2" t="s">
-        <v>1279</v>
-      </c>
+      <c r="M222" s="2"/>
       <c r="N222" s="2"/>
-      <c r="O222" s="3" t="s">
-        <v>1280</v>
-      </c>
+      <c r="O222" s="2"/>
     </row>
     <row r="223" spans="1:15">
       <c r="A223" s="2" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
@@ -25249,19 +25271,19 @@
       <c r="K223" s="2"/>
       <c r="L223" s="2"/>
       <c r="M223" s="2" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="N223" s="2"/>
       <c r="O223" s="3" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="224" spans="1:15">
       <c r="A224" s="2" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>929</v>
+        <v>1282</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
@@ -25274,19 +25296,19 @@
       <c r="K224" s="2"/>
       <c r="L224" s="2"/>
       <c r="M224" s="2" t="s">
-        <v>930</v>
+        <v>1283</v>
       </c>
       <c r="N224" s="2"/>
       <c r="O224" s="3" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="225" spans="1:15">
       <c r="A225" s="2" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>1288</v>
+        <v>929</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
@@ -25299,47 +25321,47 @@
       <c r="K225" s="2"/>
       <c r="L225" s="2"/>
       <c r="M225" s="2" t="s">
-        <v>1289</v>
+        <v>930</v>
       </c>
       <c r="N225" s="2"/>
       <c r="O225" s="3" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15">
+      <c r="A226" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C226" s="2"/>
+      <c r="D226" s="2"/>
+      <c r="E226" s="2"/>
+      <c r="F226" s="2"/>
+      <c r="G226" s="2"/>
+      <c r="H226" s="2"/>
+      <c r="I226" s="2"/>
+      <c r="J226" s="2"/>
+      <c r="K226" s="2"/>
+      <c r="L226" s="2"/>
+      <c r="M226" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="N226" s="2"/>
+      <c r="O226" s="3" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="226" spans="1:15">
-      <c r="O226" s="1"/>
-    </row>
     <row r="227" spans="1:15">
-      <c r="A227" s="2" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>1292</v>
-      </c>
-      <c r="C227" s="2"/>
-      <c r="D227" s="2"/>
-      <c r="E227" s="2"/>
-      <c r="F227" s="2"/>
-      <c r="G227" s="2"/>
-      <c r="H227" s="2"/>
-      <c r="I227" s="2"/>
-      <c r="J227" s="2"/>
-      <c r="K227" s="2"/>
-      <c r="L227" s="2"/>
-      <c r="M227" s="2" t="s">
-        <v>1293</v>
-      </c>
-      <c r="N227" s="2"/>
-      <c r="O227" s="3" t="s">
-        <v>1294</v>
-      </c>
+      <c r="O227" s="1"/>
     </row>
     <row r="228" spans="1:15">
       <c r="A228" s="2" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
@@ -25352,19 +25374,19 @@
       <c r="K228" s="2"/>
       <c r="L228" s="2"/>
       <c r="M228" s="2" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="N228" s="2"/>
       <c r="O228" s="3" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="229" spans="1:15">
       <c r="A229" s="2" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
@@ -25377,44 +25399,44 @@
       <c r="K229" s="2"/>
       <c r="L229" s="2"/>
       <c r="M229" s="2" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="N229" s="2"/>
       <c r="O229" s="3" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15">
+      <c r="A230" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C230" s="2"/>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="2"/>
+      <c r="G230" s="2"/>
+      <c r="H230" s="2"/>
+      <c r="I230" s="2"/>
+      <c r="J230" s="2"/>
+      <c r="K230" s="2"/>
+      <c r="L230" s="2"/>
+      <c r="M230" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="N230" s="2"/>
+      <c r="O230" s="3" t="s">
         <v>1302</v>
-      </c>
-    </row>
-    <row r="231" spans="1:15">
-      <c r="A231" s="2" t="s">
-        <v>1303</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C231" s="2"/>
-      <c r="D231" s="2"/>
-      <c r="E231" s="2"/>
-      <c r="F231" s="2"/>
-      <c r="G231" s="2"/>
-      <c r="H231" s="2"/>
-      <c r="I231" s="2"/>
-      <c r="J231" s="2"/>
-      <c r="K231" s="2"/>
-      <c r="L231" s="2"/>
-      <c r="M231" s="2" t="s">
-        <v>1305</v>
-      </c>
-      <c r="N231" s="2"/>
-      <c r="O231" s="3" t="s">
-        <v>1306</v>
       </c>
     </row>
     <row r="232" spans="1:15">
       <c r="A232" s="2" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
@@ -25427,19 +25449,19 @@
       <c r="K232" s="2"/>
       <c r="L232" s="2"/>
       <c r="M232" s="2" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="N232" s="2"/>
       <c r="O232" s="3" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="233" spans="1:15">
       <c r="A233" s="2" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
@@ -25452,19 +25474,19 @@
       <c r="K233" s="2"/>
       <c r="L233" s="2"/>
       <c r="M233" s="2" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="N233" s="2"/>
       <c r="O233" s="3" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="234" spans="1:15">
       <c r="A234" s="2" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
@@ -25477,19 +25499,19 @@
       <c r="K234" s="2"/>
       <c r="L234" s="2"/>
       <c r="M234" s="2" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="N234" s="2"/>
       <c r="O234" s="3" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="235" spans="1:15">
       <c r="A235" s="2" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
@@ -25502,47 +25524,47 @@
       <c r="K235" s="2"/>
       <c r="L235" s="2"/>
       <c r="M235" s="2" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="N235" s="2"/>
       <c r="O235" s="3" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15">
+      <c r="A236" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C236" s="2"/>
+      <c r="D236" s="2"/>
+      <c r="E236" s="2"/>
+      <c r="F236" s="2"/>
+      <c r="G236" s="2"/>
+      <c r="H236" s="2"/>
+      <c r="I236" s="2"/>
+      <c r="J236" s="2"/>
+      <c r="K236" s="2"/>
+      <c r="L236" s="2"/>
+      <c r="M236" s="2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="N236" s="2"/>
+      <c r="O236" s="3" t="s">
         <v>1322</v>
       </c>
     </row>
-    <row r="236" spans="1:15">
-      <c r="O236" s="1"/>
-    </row>
     <row r="237" spans="1:15">
-      <c r="A237" s="2" t="s">
-        <v>1323</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>1324</v>
-      </c>
-      <c r="C237" s="2"/>
-      <c r="D237" s="2"/>
-      <c r="E237" s="2"/>
-      <c r="F237" s="2"/>
-      <c r="G237" s="2"/>
-      <c r="H237" s="2"/>
-      <c r="I237" s="2"/>
-      <c r="J237" s="2"/>
-      <c r="K237" s="2"/>
-      <c r="L237" s="2"/>
-      <c r="M237" s="2" t="s">
-        <v>1325</v>
-      </c>
-      <c r="N237" s="2"/>
-      <c r="O237" s="3" t="s">
-        <v>1326</v>
-      </c>
+      <c r="O237" s="1"/>
     </row>
     <row r="238" spans="1:15">
       <c r="A238" s="2" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
@@ -25555,44 +25577,44 @@
       <c r="K238" s="2"/>
       <c r="L238" s="2"/>
       <c r="M238" s="2" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="N238" s="2"/>
       <c r="O238" s="3" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15">
+      <c r="A239" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C239" s="2"/>
+      <c r="D239" s="2"/>
+      <c r="E239" s="2"/>
+      <c r="F239" s="2"/>
+      <c r="G239" s="2"/>
+      <c r="H239" s="2"/>
+      <c r="I239" s="2"/>
+      <c r="J239" s="2"/>
+      <c r="K239" s="2"/>
+      <c r="L239" s="2"/>
+      <c r="M239" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="N239" s="2"/>
+      <c r="O239" s="3" t="s">
         <v>1330</v>
-      </c>
-    </row>
-    <row r="240" spans="1:15">
-      <c r="A240" s="2" t="s">
-        <v>1331</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C240" s="2"/>
-      <c r="D240" s="2"/>
-      <c r="E240" s="2"/>
-      <c r="F240" s="2"/>
-      <c r="G240" s="2"/>
-      <c r="H240" s="2"/>
-      <c r="I240" s="2"/>
-      <c r="J240" s="2"/>
-      <c r="K240" s="2"/>
-      <c r="L240" s="2"/>
-      <c r="M240" s="2" t="s">
-        <v>1333</v>
-      </c>
-      <c r="N240" s="2"/>
-      <c r="O240" s="3" t="s">
-        <v>1334</v>
       </c>
     </row>
     <row r="241" spans="1:15">
       <c r="A241" s="2" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
@@ -25605,19 +25627,19 @@
       <c r="K241" s="2"/>
       <c r="L241" s="2"/>
       <c r="M241" s="2" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="N241" s="2"/>
       <c r="O241" s="3" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="242" spans="1:15">
       <c r="A242" s="2" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
@@ -25630,19 +25652,19 @@
       <c r="K242" s="2"/>
       <c r="L242" s="2"/>
       <c r="M242" s="2" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="N242" s="2"/>
       <c r="O242" s="3" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="243" spans="1:15">
       <c r="A243" s="2" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
@@ -25655,19 +25677,19 @@
       <c r="K243" s="2"/>
       <c r="L243" s="2"/>
       <c r="M243" s="2" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="N243" s="2"/>
       <c r="O243" s="3" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="244" spans="1:15">
       <c r="A244" s="2" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
@@ -25680,19 +25702,19 @@
       <c r="K244" s="2"/>
       <c r="L244" s="2"/>
       <c r="M244" s="2" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="N244" s="2"/>
       <c r="O244" s="3" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="245" spans="1:15">
       <c r="A245" s="2" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
@@ -25705,47 +25727,47 @@
       <c r="K245" s="2"/>
       <c r="L245" s="2"/>
       <c r="M245" s="2" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="N245" s="2"/>
       <c r="O245" s="3" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15">
+      <c r="A246" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C246" s="2"/>
+      <c r="D246" s="2"/>
+      <c r="E246" s="2"/>
+      <c r="F246" s="2"/>
+      <c r="G246" s="2"/>
+      <c r="H246" s="2"/>
+      <c r="I246" s="2"/>
+      <c r="J246" s="2"/>
+      <c r="K246" s="2"/>
+      <c r="L246" s="2"/>
+      <c r="M246" s="2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="N246" s="2"/>
+      <c r="O246" s="3" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="246" spans="1:15">
-      <c r="O246" s="1"/>
-    </row>
     <row r="247" spans="1:15">
-      <c r="A247" s="2" t="s">
-        <v>1355</v>
-      </c>
-      <c r="B247" s="12" t="s">
-        <v>1356</v>
-      </c>
-      <c r="C247" s="2"/>
-      <c r="D247" s="2"/>
-      <c r="E247" s="2"/>
-      <c r="F247" s="2"/>
-      <c r="G247" s="2"/>
-      <c r="H247" s="2"/>
-      <c r="I247" s="2"/>
-      <c r="J247" s="2"/>
-      <c r="K247" s="2"/>
-      <c r="L247" s="2"/>
-      <c r="M247" s="12" t="s">
-        <v>1357</v>
-      </c>
-      <c r="N247" s="2"/>
-      <c r="O247" s="3" t="s">
-        <v>1358</v>
-      </c>
+      <c r="O247" s="1"/>
     </row>
     <row r="248" spans="1:15">
       <c r="A248" s="2" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="B248" s="12" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
@@ -25758,19 +25780,19 @@
       <c r="K248" s="2"/>
       <c r="L248" s="2"/>
       <c r="M248" s="12" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="N248" s="2"/>
       <c r="O248" s="3" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="249" spans="1:15">
       <c r="A249" s="2" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="B249" s="12" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
@@ -25783,19 +25805,19 @@
       <c r="K249" s="2"/>
       <c r="L249" s="2"/>
       <c r="M249" s="12" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="N249" s="2"/>
       <c r="O249" s="3" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="250" spans="1:15">
       <c r="A250" s="2" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="B250" s="12" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
@@ -25808,19 +25830,19 @@
       <c r="K250" s="2"/>
       <c r="L250" s="2"/>
       <c r="M250" s="12" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="N250" s="2"/>
       <c r="O250" s="3" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="251" spans="1:15">
       <c r="A251" s="2" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="B251" s="12" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
@@ -25833,19 +25855,19 @@
       <c r="K251" s="2"/>
       <c r="L251" s="2"/>
       <c r="M251" s="12" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="N251" s="2"/>
       <c r="O251" s="3" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="252" spans="1:15">
       <c r="A252" s="2" t="s">
-        <v>1375</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>929</v>
+        <v>1371</v>
+      </c>
+      <c r="B252" s="12" t="s">
+        <v>1372</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
@@ -25857,20 +25879,20 @@
       <c r="J252" s="2"/>
       <c r="K252" s="2"/>
       <c r="L252" s="2"/>
-      <c r="M252" s="2" t="s">
-        <v>930</v>
+      <c r="M252" s="12" t="s">
+        <v>1373</v>
       </c>
       <c r="N252" s="2"/>
       <c r="O252" s="3" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="253" spans="1:15">
       <c r="A253" s="2" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B253" s="12" t="s">
-        <v>1378</v>
+        <v>1375</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>929</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
@@ -25882,48 +25904,48 @@
       <c r="J253" s="2"/>
       <c r="K253" s="2"/>
       <c r="L253" s="2"/>
-      <c r="M253" s="12" t="s">
-        <v>1379</v>
+      <c r="M253" s="2" t="s">
+        <v>930</v>
       </c>
       <c r="N253" s="2"/>
       <c r="O253" s="3" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15">
+      <c r="A254" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B254" s="12" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C254" s="2"/>
+      <c r="D254" s="2"/>
+      <c r="E254" s="2"/>
+      <c r="F254" s="2"/>
+      <c r="G254" s="2"/>
+      <c r="H254" s="2"/>
+      <c r="I254" s="2"/>
+      <c r="J254" s="2"/>
+      <c r="K254" s="2"/>
+      <c r="L254" s="2"/>
+      <c r="M254" s="12" t="s">
+        <v>1379</v>
+      </c>
+      <c r="N254" s="2"/>
+      <c r="O254" s="3" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="254" spans="1:15">
-      <c r="O254" s="1"/>
-    </row>
     <row r="255" spans="1:15">
-      <c r="A255" s="2" t="s">
-        <v>1381</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>1382</v>
-      </c>
-      <c r="C255" s="2"/>
-      <c r="D255" s="2"/>
-      <c r="E255" s="2"/>
-      <c r="F255" s="2"/>
-      <c r="G255" s="2"/>
-      <c r="H255" s="2"/>
-      <c r="I255" s="2"/>
-      <c r="J255" s="2"/>
-      <c r="K255" s="2"/>
-      <c r="L255" s="2"/>
-      <c r="M255" s="2" t="s">
-        <v>1383</v>
-      </c>
-      <c r="N255" s="2"/>
-      <c r="O255" s="3" t="s">
-        <v>1384</v>
-      </c>
+      <c r="O255" s="1"/>
     </row>
     <row r="256" spans="1:15">
       <c r="A256" s="2" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
@@ -25936,19 +25958,19 @@
       <c r="K256" s="2"/>
       <c r="L256" s="2"/>
       <c r="M256" s="2" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="N256" s="2"/>
       <c r="O256" s="3" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="257" spans="1:15">
       <c r="A257" s="2" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
@@ -25961,19 +25983,19 @@
       <c r="K257" s="2"/>
       <c r="L257" s="2"/>
       <c r="M257" s="2" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="N257" s="2"/>
       <c r="O257" s="3" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="258" spans="1:15">
       <c r="A258" s="2" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
@@ -25986,19 +26008,19 @@
       <c r="K258" s="2"/>
       <c r="L258" s="2"/>
       <c r="M258" s="2" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="N258" s="2"/>
       <c r="O258" s="3" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="259" spans="1:15">
       <c r="A259" s="2" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
@@ -26011,19 +26033,19 @@
       <c r="K259" s="2"/>
       <c r="L259" s="2"/>
       <c r="M259" s="2" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="N259" s="2"/>
       <c r="O259" s="3" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="260" spans="1:15">
       <c r="A260" s="2" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
@@ -26036,19 +26058,19 @@
       <c r="K260" s="2"/>
       <c r="L260" s="2"/>
       <c r="M260" s="2" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="N260" s="2"/>
       <c r="O260" s="3" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="261" spans="1:15">
       <c r="A261" s="2" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
@@ -26061,19 +26083,19 @@
       <c r="K261" s="2"/>
       <c r="L261" s="2"/>
       <c r="M261" s="2" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="N261" s="2"/>
       <c r="O261" s="3" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="262" spans="1:15">
       <c r="A262" s="2" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
@@ -26086,47 +26108,47 @@
       <c r="K262" s="2"/>
       <c r="L262" s="2"/>
       <c r="M262" s="2" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="N262" s="2"/>
       <c r="O262" s="3" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15">
+      <c r="A263" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C263" s="2"/>
+      <c r="D263" s="2"/>
+      <c r="E263" s="2"/>
+      <c r="F263" s="2"/>
+      <c r="G263" s="2"/>
+      <c r="H263" s="2"/>
+      <c r="I263" s="2"/>
+      <c r="J263" s="2"/>
+      <c r="K263" s="2"/>
+      <c r="L263" s="2"/>
+      <c r="M263" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="N263" s="2"/>
+      <c r="O263" s="3" t="s">
         <v>1412</v>
       </c>
     </row>
-    <row r="263" spans="1:15">
-      <c r="O263" s="1"/>
-    </row>
     <row r="264" spans="1:15">
-      <c r="A264" s="2" t="s">
-        <v>1413</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="C264" s="2"/>
-      <c r="D264" s="2"/>
-      <c r="E264" s="2"/>
-      <c r="F264" s="2"/>
-      <c r="G264" s="2"/>
-      <c r="H264" s="2"/>
-      <c r="I264" s="2"/>
-      <c r="J264" s="2"/>
-      <c r="K264" s="2"/>
-      <c r="L264" s="2"/>
-      <c r="M264" s="2" t="s">
-        <v>922</v>
-      </c>
-      <c r="N264" s="2"/>
-      <c r="O264" s="3" t="s">
-        <v>1414</v>
-      </c>
+      <c r="O264" s="1"/>
     </row>
     <row r="265" spans="1:15">
       <c r="A265" s="2" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>1416</v>
+        <v>672</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
@@ -26139,19 +26161,19 @@
       <c r="K265" s="2"/>
       <c r="L265" s="2"/>
       <c r="M265" s="2" t="s">
-        <v>1417</v>
+        <v>922</v>
       </c>
       <c r="N265" s="2"/>
       <c r="O265" s="3" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="266" spans="1:15">
       <c r="A266" s="2" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
@@ -26164,47 +26186,47 @@
       <c r="K266" s="2"/>
       <c r="L266" s="2"/>
       <c r="M266" s="2" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="N266" s="2"/>
       <c r="O266" s="3" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15">
+      <c r="A267" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C267" s="2"/>
+      <c r="D267" s="2"/>
+      <c r="E267" s="2"/>
+      <c r="F267" s="2"/>
+      <c r="G267" s="2"/>
+      <c r="H267" s="2"/>
+      <c r="I267" s="2"/>
+      <c r="J267" s="2"/>
+      <c r="K267" s="2"/>
+      <c r="L267" s="2"/>
+      <c r="M267" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="N267" s="2"/>
+      <c r="O267" s="3" t="s">
         <v>1422</v>
       </c>
     </row>
-    <row r="267" spans="1:15">
-      <c r="O267" s="1"/>
-    </row>
     <row r="268" spans="1:15">
-      <c r="A268" s="2" t="s">
-        <v>1423</v>
-      </c>
-      <c r="B268" s="12" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C268" s="2"/>
-      <c r="D268" s="2"/>
-      <c r="E268" s="2"/>
-      <c r="F268" s="2"/>
-      <c r="G268" s="2"/>
-      <c r="H268" s="2"/>
-      <c r="I268" s="2"/>
-      <c r="J268" s="2"/>
-      <c r="K268" s="2"/>
-      <c r="L268" s="2"/>
-      <c r="M268" s="12" t="s">
-        <v>1425</v>
-      </c>
-      <c r="N268" s="2"/>
-      <c r="O268" s="3" t="s">
-        <v>1426</v>
-      </c>
+      <c r="O268" s="1"/>
     </row>
     <row r="269" spans="1:15">
       <c r="A269" s="2" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="B269" s="12" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
@@ -26217,19 +26239,19 @@
       <c r="K269" s="2"/>
       <c r="L269" s="2"/>
       <c r="M269" s="12" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="N269" s="2"/>
       <c r="O269" s="3" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="270" spans="1:15">
       <c r="A270" s="2" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="B270" s="12" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
@@ -26242,19 +26264,19 @@
       <c r="K270" s="2"/>
       <c r="L270" s="2"/>
       <c r="M270" s="12" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="N270" s="2"/>
       <c r="O270" s="3" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="271" spans="1:15">
       <c r="A271" s="2" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="B271" s="12" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
@@ -26267,44 +26289,44 @@
       <c r="K271" s="2"/>
       <c r="L271" s="2"/>
       <c r="M271" s="12" t="s">
+        <v>1433</v>
+      </c>
+      <c r="N271" s="2"/>
+      <c r="O271" s="3" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15">
+      <c r="A272" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B272" s="12" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C272" s="2"/>
+      <c r="D272" s="2"/>
+      <c r="E272" s="2"/>
+      <c r="F272" s="2"/>
+      <c r="G272" s="2"/>
+      <c r="H272" s="2"/>
+      <c r="I272" s="2"/>
+      <c r="J272" s="2"/>
+      <c r="K272" s="2"/>
+      <c r="L272" s="2"/>
+      <c r="M272" s="12" t="s">
         <v>1437</v>
       </c>
-      <c r="N271" s="2"/>
-      <c r="O271" s="21" t="s">
+      <c r="N272" s="2"/>
+      <c r="O272" s="21" t="s">
         <v>1438</v>
-      </c>
-    </row>
-    <row r="273" spans="1:15">
-      <c r="A273" s="2" t="s">
-        <v>1439</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>1440</v>
-      </c>
-      <c r="C273" s="2"/>
-      <c r="D273" s="2"/>
-      <c r="E273" s="2"/>
-      <c r="F273" s="2"/>
-      <c r="G273" s="2"/>
-      <c r="H273" s="2"/>
-      <c r="I273" s="2"/>
-      <c r="J273" s="2"/>
-      <c r="K273" s="2"/>
-      <c r="L273" s="2"/>
-      <c r="M273" s="2" t="s">
-        <v>1441</v>
-      </c>
-      <c r="N273" s="2"/>
-      <c r="O273" s="21" t="s">
-        <v>1442</v>
       </c>
     </row>
     <row r="274" spans="1:15">
       <c r="A274" s="2" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
@@ -26317,19 +26339,19 @@
       <c r="K274" s="2"/>
       <c r="L274" s="2"/>
       <c r="M274" s="2" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="N274" s="2"/>
       <c r="O274" s="21" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="275" spans="1:15">
       <c r="A275" s="2" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
@@ -26342,19 +26364,19 @@
       <c r="K275" s="2"/>
       <c r="L275" s="2"/>
       <c r="M275" s="2" t="s">
-        <v>732</v>
+        <v>1445</v>
       </c>
       <c r="N275" s="2"/>
       <c r="O275" s="21" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="276" spans="1:15">
       <c r="A276" s="2" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
@@ -26367,19 +26389,19 @@
       <c r="K276" s="2"/>
       <c r="L276" s="2"/>
       <c r="M276" s="2" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="N276" s="2"/>
       <c r="O276" s="21" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="277" spans="1:15">
       <c r="A277" s="2" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
@@ -26392,19 +26414,19 @@
       <c r="K277" s="2"/>
       <c r="L277" s="2"/>
       <c r="M277" s="2" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="N277" s="2"/>
       <c r="O277" s="21" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="278" spans="1:15">
       <c r="A278" s="2" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>1356</v>
+        <v>1454</v>
       </c>
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
@@ -26417,19 +26439,19 @@
       <c r="K278" s="2"/>
       <c r="L278" s="2"/>
       <c r="M278" s="2" t="s">
-        <v>1457</v>
+        <v>736</v>
       </c>
       <c r="N278" s="2"/>
       <c r="O278" s="21" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="279" spans="1:15">
       <c r="A279" s="2" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
@@ -26442,19 +26464,19 @@
       <c r="K279" s="2"/>
       <c r="L279" s="2"/>
       <c r="M279" s="2" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="N279" s="2"/>
       <c r="O279" s="21" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="280" spans="1:15">
       <c r="A280" s="2" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>1463</v>
+        <v>1360</v>
       </c>
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
@@ -26467,19 +26489,19 @@
       <c r="K280" s="2"/>
       <c r="L280" s="2"/>
       <c r="M280" s="2" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="N280" s="2"/>
       <c r="O280" s="21" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="281" spans="1:15">
       <c r="A281" s="2" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
@@ -26492,19 +26514,19 @@
       <c r="K281" s="2"/>
       <c r="L281" s="2"/>
       <c r="M281" s="2" t="s">
-        <v>984</v>
+        <v>1464</v>
       </c>
       <c r="N281" s="2"/>
       <c r="O281" s="21" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="282" spans="1:15">
       <c r="A282" s="2" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
@@ -26517,47 +26539,47 @@
       <c r="K282" s="2"/>
       <c r="L282" s="2"/>
       <c r="M282" s="2" t="s">
-        <v>1471</v>
+        <v>984</v>
       </c>
       <c r="N282" s="2"/>
       <c r="O282" s="21" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15">
+      <c r="A283" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C283" s="2"/>
+      <c r="D283" s="2"/>
+      <c r="E283" s="2"/>
+      <c r="F283" s="2"/>
+      <c r="G283" s="2"/>
+      <c r="H283" s="2"/>
+      <c r="I283" s="2"/>
+      <c r="J283" s="2"/>
+      <c r="K283" s="2"/>
+      <c r="L283" s="2"/>
+      <c r="M283" s="2" t="s">
+        <v>1471</v>
+      </c>
+      <c r="N283" s="2"/>
+      <c r="O283" s="21" t="s">
         <v>1472</v>
       </c>
     </row>
-    <row r="283" spans="1:15">
-      <c r="O283" s="1"/>
-    </row>
     <row r="284" spans="1:15">
-      <c r="A284" s="2" t="s">
-        <v>1473</v>
-      </c>
-      <c r="B284" s="2" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C284" s="2"/>
-      <c r="D284" s="2"/>
-      <c r="E284" s="2"/>
-      <c r="F284" s="2"/>
-      <c r="G284" s="2"/>
-      <c r="H284" s="2"/>
-      <c r="I284" s="2"/>
-      <c r="J284" s="2"/>
-      <c r="K284" s="2"/>
-      <c r="L284" s="2"/>
-      <c r="M284" s="2" t="s">
-        <v>1475</v>
-      </c>
-      <c r="N284" s="2"/>
-      <c r="O284" s="22" t="s">
-        <v>1476</v>
-      </c>
+      <c r="O284" s="1"/>
     </row>
     <row r="285" spans="1:15">
       <c r="A285" s="2" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
@@ -26570,19 +26592,19 @@
       <c r="K285" s="2"/>
       <c r="L285" s="2"/>
       <c r="M285" s="2" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="N285" s="2"/>
       <c r="O285" s="22" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="286" spans="1:15">
       <c r="A286" s="2" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
@@ -26595,19 +26617,19 @@
       <c r="K286" s="2"/>
       <c r="L286" s="2"/>
       <c r="M286" s="2" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="N286" s="2"/>
       <c r="O286" s="22" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="287" spans="1:15">
       <c r="A287" s="2" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
@@ -26620,19 +26642,19 @@
       <c r="K287" s="2"/>
       <c r="L287" s="2"/>
       <c r="M287" s="2" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="N287" s="2"/>
       <c r="O287" s="22" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="288" spans="1:15">
       <c r="A288" s="2" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
@@ -26645,19 +26667,19 @@
       <c r="K288" s="2"/>
       <c r="L288" s="2"/>
       <c r="M288" s="2" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="N288" s="2"/>
       <c r="O288" s="22" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="289" spans="1:15">
       <c r="A289" s="2" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
@@ -26670,19 +26692,19 @@
       <c r="K289" s="2"/>
       <c r="L289" s="2"/>
       <c r="M289" s="2" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="N289" s="2"/>
       <c r="O289" s="22" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="290" spans="1:15">
       <c r="A290" s="2" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
@@ -26695,16 +26717,20 @@
       <c r="K290" s="2"/>
       <c r="L290" s="2"/>
       <c r="M290" s="2" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="N290" s="2"/>
       <c r="O290" s="22" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="291" spans="1:15">
-      <c r="A291" s="2"/>
-      <c r="B291" s="2"/>
+      <c r="A291" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>1498</v>
+      </c>
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -26715,17 +26741,17 @@
       <c r="J291" s="2"/>
       <c r="K291" s="2"/>
       <c r="L291" s="2"/>
-      <c r="M291" s="2"/>
+      <c r="M291" s="2" t="s">
+        <v>1499</v>
+      </c>
       <c r="N291" s="2"/>
-      <c r="O291" s="21"/>
+      <c r="O291" s="22" t="s">
+        <v>1500</v>
+      </c>
     </row>
     <row r="292" spans="1:15">
-      <c r="A292" s="2" t="s">
-        <v>1501</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>1502</v>
-      </c>
+      <c r="A292" s="2"/>
+      <c r="B292" s="2"/>
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
@@ -26736,20 +26762,16 @@
       <c r="J292" s="2"/>
       <c r="K292" s="2"/>
       <c r="L292" s="2"/>
-      <c r="M292" s="2" t="s">
-        <v>1503</v>
-      </c>
+      <c r="M292" s="2"/>
       <c r="N292" s="2"/>
-      <c r="O292" s="22" t="s">
-        <v>1504</v>
-      </c>
+      <c r="O292" s="21"/>
     </row>
     <row r="293" spans="1:15">
       <c r="A293" s="2" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
@@ -26762,40 +26784,44 @@
       <c r="K293" s="2"/>
       <c r="L293" s="2"/>
       <c r="M293" s="2" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="N293" s="2"/>
       <c r="O293" s="22" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15">
+      <c r="A294" s="2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C294" s="2"/>
+      <c r="D294" s="2"/>
+      <c r="E294" s="2"/>
+      <c r="F294" s="2"/>
+      <c r="G294" s="2"/>
+      <c r="H294" s="2"/>
+      <c r="I294" s="2"/>
+      <c r="J294" s="2"/>
+      <c r="K294" s="2"/>
+      <c r="L294" s="2"/>
+      <c r="M294" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="N294" s="2"/>
+      <c r="O294" s="22" t="s">
         <v>1508</v>
-      </c>
-    </row>
-    <row r="295" spans="1:15">
-      <c r="A295" s="2" t="s">
-        <v>1509</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>1510</v>
-      </c>
-      <c r="C295" s="2"/>
-      <c r="D295" s="2"/>
-      <c r="E295" s="2"/>
-      <c r="F295" s="2"/>
-      <c r="G295" s="2"/>
-      <c r="H295" s="2"/>
-      <c r="I295" s="2"/>
-      <c r="J295" s="2"/>
-      <c r="K295" s="2"/>
-      <c r="L295" s="2"/>
-      <c r="M295" s="2" t="s">
-        <v>1511</v>
       </c>
     </row>
     <row r="296" spans="1:15">
       <c r="A296" s="2" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
@@ -26808,16 +26834,15 @@
       <c r="K296" s="2"/>
       <c r="L296" s="2"/>
       <c r="M296" s="2" t="s">
-        <v>1514</v>
-      </c>
-      <c r="O296" s="1"/>
+        <v>1511</v>
+      </c>
     </row>
     <row r="297" spans="1:15">
       <c r="A297" s="2" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
@@ -26830,44 +26855,41 @@
       <c r="K297" s="2"/>
       <c r="L297" s="2"/>
       <c r="M297" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="O297" s="1"/>
+    </row>
+    <row r="298" spans="1:15">
+      <c r="A298" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C298" s="2"/>
+      <c r="D298" s="2"/>
+      <c r="E298" s="2"/>
+      <c r="F298" s="2"/>
+      <c r="G298" s="2"/>
+      <c r="H298" s="2"/>
+      <c r="I298" s="2"/>
+      <c r="J298" s="2"/>
+      <c r="K298" s="2"/>
+      <c r="L298" s="2"/>
+      <c r="M298" s="2" t="s">
         <v>1517</v>
       </c>
-      <c r="O297" s="1"/>
-    </row>
-    <row r="298" spans="1:15">
       <c r="O298" s="1"/>
     </row>
     <row r="299" spans="1:15">
-      <c r="A299" s="2" t="s">
-        <v>1518</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C299" s="2"/>
-      <c r="D299" s="2"/>
-      <c r="E299" s="2"/>
-      <c r="F299" s="2"/>
-      <c r="G299" s="2"/>
-      <c r="H299" s="2"/>
-      <c r="I299" s="2"/>
-      <c r="J299" s="2"/>
-      <c r="K299" s="2"/>
-      <c r="L299" s="2"/>
-      <c r="M299" s="12" t="s">
-        <v>1520</v>
-      </c>
-      <c r="N299" s="2"/>
-      <c r="O299" s="2" t="s">
-        <v>1521</v>
-      </c>
+      <c r="O299" s="1"/>
     </row>
     <row r="300" spans="1:15">
       <c r="A300" s="2" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
@@ -26880,19 +26902,19 @@
       <c r="K300" s="2"/>
       <c r="L300" s="2"/>
       <c r="M300" s="12" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="N300" s="2"/>
       <c r="O300" s="2" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="301" spans="1:15">
       <c r="A301" s="2" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
@@ -26905,660 +26927,682 @@
       <c r="K301" s="2"/>
       <c r="L301" s="2"/>
       <c r="M301" s="12" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="N301" s="2"/>
       <c r="O301" s="2" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15">
+      <c r="A302" s="2" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C302" s="2"/>
+      <c r="D302" s="2"/>
+      <c r="E302" s="2"/>
+      <c r="F302" s="2"/>
+      <c r="G302" s="2"/>
+      <c r="H302" s="2"/>
+      <c r="I302" s="2"/>
+      <c r="J302" s="2"/>
+      <c r="K302" s="2"/>
+      <c r="L302" s="2"/>
+      <c r="M302" s="12" t="s">
+        <v>1528</v>
+      </c>
+      <c r="N302" s="2"/>
+      <c r="O302" s="2" t="s">
         <v>1529</v>
       </c>
     </row>
-    <row r="302" spans="1:15">
-      <c r="O302" s="1"/>
-    </row>
     <row r="303" spans="1:15">
-      <c r="A303" t="s">
-        <v>1530</v>
-      </c>
-      <c r="B303" t="s">
-        <v>1191</v>
-      </c>
-      <c r="M303" t="s">
-        <v>1192</v>
-      </c>
+      <c r="O303" s="1"/>
     </row>
     <row r="304" spans="1:15">
       <c r="A304" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B304" t="s">
-        <v>1532</v>
+        <v>1191</v>
       </c>
       <c r="M304" t="s">
-        <v>1533</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="305" spans="1:15">
       <c r="A305" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="B305" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="M305" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="306" spans="1:15">
       <c r="A306" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="B306" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="M306" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="307" spans="1:15">
       <c r="A307" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B307" t="s">
+        <v>1538</v>
+      </c>
+      <c r="M307" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15">
+      <c r="A308" t="s">
         <v>1540</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B308" t="s">
         <v>1541</v>
       </c>
-      <c r="M307" t="s">
+      <c r="M308" t="s">
         <v>1542</v>
       </c>
-      <c r="O307" s="1"/>
-    </row>
-    <row r="308" spans="1:15">
       <c r="O308" s="1"/>
     </row>
     <row r="309" spans="1:15">
-      <c r="A309" t="s">
-        <v>1543</v>
-      </c>
-      <c r="B309" t="s">
-        <v>1191</v>
-      </c>
-      <c r="M309" t="s">
-        <v>1192</v>
-      </c>
       <c r="O309" s="1"/>
     </row>
     <row r="310" spans="1:15">
       <c r="A310" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B310" t="s">
-        <v>1545</v>
+        <v>1191</v>
       </c>
       <c r="M310" t="s">
-        <v>1546</v>
-      </c>
+        <v>1192</v>
+      </c>
+      <c r="O310" s="1"/>
     </row>
     <row r="311" spans="1:15">
       <c r="A311" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="B311" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="M311" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="312" spans="1:15">
       <c r="A312" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="B312" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="M312" t="s">
-        <v>1552</v>
-      </c>
-      <c r="O312" s="1"/>
+        <v>1549</v>
+      </c>
     </row>
     <row r="313" spans="1:15">
       <c r="A313" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1551</v>
+      </c>
+      <c r="M313" t="s">
+        <v>1552</v>
+      </c>
+      <c r="O313" s="1"/>
+    </row>
+    <row r="314" spans="1:15">
+      <c r="A314" t="s">
         <v>1553</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B314" t="s">
         <v>1554</v>
       </c>
-      <c r="M313" t="s">
+      <c r="M314" t="s">
         <v>1555</v>
       </c>
-      <c r="O313" s="1"/>
-    </row>
-    <row r="315" spans="1:15">
-      <c r="A315" t="s">
+      <c r="O314" s="1"/>
+    </row>
+    <row r="316" spans="1:15">
+      <c r="A316" t="s">
         <v>1556</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B316" t="s">
         <v>1557</v>
       </c>
-      <c r="M315" t="s">
+      <c r="M316" t="s">
         <v>1558</v>
       </c>
-      <c r="O315" s="1"/>
-    </row>
-    <row r="317" spans="1:15">
-      <c r="A317" t="s">
-        <v>1559</v>
-      </c>
-      <c r="B317" t="s">
-        <v>672</v>
-      </c>
-      <c r="M317" t="s">
-        <v>922</v>
-      </c>
+      <c r="O316" s="1"/>
     </row>
     <row r="318" spans="1:15">
       <c r="A318" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B318" t="s">
-        <v>929</v>
+        <v>672</v>
       </c>
       <c r="M318" t="s">
-        <v>1517</v>
+        <v>922</v>
       </c>
     </row>
     <row r="319" spans="1:15">
       <c r="A319" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B319" t="s">
+        <v>929</v>
+      </c>
+      <c r="M319" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15">
+      <c r="A320" t="s">
         <v>1561</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B320" t="s">
         <v>707</v>
       </c>
-      <c r="M319" t="s">
+      <c r="M320" t="s">
         <v>1562</v>
       </c>
-      <c r="O319" s="1"/>
-    </row>
-    <row r="320" spans="1:15">
       <c r="O320" s="1"/>
     </row>
     <row r="321" spans="1:15">
-      <c r="A321" t="s">
+      <c r="O321" s="1"/>
+    </row>
+    <row r="322" spans="1:15">
+      <c r="A322" t="s">
         <v>1563</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B322" t="s">
         <v>1564</v>
       </c>
-      <c r="M321" t="s">
+      <c r="M322" t="s">
         <v>1565</v>
       </c>
-      <c r="O321" s="1"/>
-    </row>
-    <row r="323" spans="1:15">
-      <c r="A323" t="s">
-        <v>1566</v>
-      </c>
-      <c r="B323" t="s">
-        <v>1567</v>
-      </c>
-      <c r="M323" t="s">
-        <v>1568</v>
-      </c>
-      <c r="O323" s="1"/>
+      <c r="O322" s="1"/>
     </row>
     <row r="324" spans="1:15">
       <c r="A324" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="B324" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="M324" t="s">
-        <v>1192</v>
+        <v>1568</v>
       </c>
       <c r="O324" s="1"/>
     </row>
     <row r="325" spans="1:15">
       <c r="A325" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="B325" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="M325" t="s">
-        <v>1573</v>
+        <v>1192</v>
       </c>
       <c r="O325" s="1"/>
     </row>
     <row r="326" spans="1:15">
       <c r="A326" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="B326" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="M326" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="O326" s="1"/>
     </row>
     <row r="327" spans="1:15">
       <c r="A327" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="B327" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="M327" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="O327" s="1"/>
     </row>
     <row r="328" spans="1:15">
       <c r="A328" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="B328" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="M328" t="s">
-        <v>1582</v>
-      </c>
+        <v>1579</v>
+      </c>
+      <c r="O328" s="1"/>
     </row>
     <row r="329" spans="1:15">
       <c r="A329" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="B329" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="M329" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="330" spans="1:15">
       <c r="A330" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="B330" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="M330" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="331" spans="1:15">
       <c r="A331" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="B331" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="M331" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="332" spans="1:15">
       <c r="A332" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="B332" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="M332" t="s">
-        <v>1594</v>
-      </c>
-      <c r="O332" s="1"/>
+        <v>1591</v>
+      </c>
     </row>
     <row r="333" spans="1:15">
       <c r="A333" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1593</v>
+      </c>
+      <c r="M333" t="s">
+        <v>1594</v>
+      </c>
+      <c r="O333" s="1"/>
+    </row>
+    <row r="334" spans="1:15">
+      <c r="A334" t="s">
         <v>1595</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B334" t="s">
         <v>1596</v>
       </c>
-      <c r="M333" t="s">
+      <c r="M334" t="s">
         <v>1597</v>
       </c>
-      <c r="O333" s="1"/>
-    </row>
-    <row r="335" spans="1:15">
-      <c r="A335" t="s">
-        <v>1598</v>
-      </c>
-      <c r="B335" t="s">
-        <v>672</v>
-      </c>
-      <c r="M335" t="s">
-        <v>922</v>
-      </c>
-      <c r="O335" s="1"/>
+      <c r="O334" s="1"/>
     </row>
     <row r="336" spans="1:15">
       <c r="A336" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B336" t="s">
-        <v>999</v>
+        <v>672</v>
       </c>
       <c r="M336" t="s">
-        <v>1600</v>
+        <v>922</v>
       </c>
       <c r="O336" s="1"/>
     </row>
     <row r="337" spans="1:15">
       <c r="A337" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="B337" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="M337" t="s">
-        <v>1004</v>
+        <v>1600</v>
       </c>
       <c r="O337" s="1"/>
     </row>
     <row r="338" spans="1:15">
       <c r="A338" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="B338" t="s">
-        <v>1603</v>
+        <v>1003</v>
       </c>
       <c r="M338" t="s">
-        <v>1604</v>
+        <v>1004</v>
       </c>
       <c r="O338" s="1"/>
     </row>
     <row r="339" spans="1:15">
       <c r="A339" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1603</v>
+      </c>
+      <c r="M339" t="s">
+        <v>1604</v>
+      </c>
+      <c r="O339" s="1"/>
+    </row>
+    <row r="340" spans="1:15">
+      <c r="A340" t="s">
         <v>1605</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B340" t="s">
         <v>1606</v>
       </c>
-      <c r="M339" t="s">
+      <c r="M340" t="s">
         <v>1607</v>
       </c>
-      <c r="O339" s="1"/>
-    </row>
-    <row r="341" spans="1:15">
-      <c r="A341" t="s">
+      <c r="O340" s="1"/>
+    </row>
+    <row r="342" spans="1:15">
+      <c r="A342" t="s">
         <v>1608</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B342" t="s">
         <v>1609</v>
       </c>
-      <c r="M341" t="s">
+      <c r="M342" t="s">
         <v>1610</v>
       </c>
-      <c r="O341" s="1"/>
-    </row>
-    <row r="342" spans="1:15">
       <c r="O342" s="1"/>
     </row>
     <row r="343" spans="1:15">
-      <c r="A343" s="33" t="s">
-        <v>3024</v>
-      </c>
-      <c r="B343" s="33" t="s">
-        <v>3010</v>
-      </c>
-      <c r="M343" s="33" t="s">
-        <v>3011</v>
-      </c>
       <c r="O343" s="1"/>
     </row>
     <row r="344" spans="1:15">
       <c r="A344" s="33" t="s">
+        <v>3024</v>
+      </c>
+      <c r="B344" s="33" t="s">
+        <v>3010</v>
+      </c>
+      <c r="M344" s="33" t="s">
+        <v>3011</v>
+      </c>
+      <c r="O344" s="1"/>
+    </row>
+    <row r="345" spans="1:15">
+      <c r="A345" s="33" t="s">
         <v>3025</v>
       </c>
-      <c r="B344" s="33" t="s">
+      <c r="B345" s="33" t="s">
         <v>3012</v>
       </c>
-      <c r="M344" s="33" t="s">
+      <c r="M345" s="33" t="s">
         <v>3013</v>
       </c>
-      <c r="O344" s="1"/>
-    </row>
-    <row r="345" spans="1:15">
       <c r="O345" s="1"/>
     </row>
     <row r="346" spans="1:15">
-      <c r="A346" s="33" t="s">
+      <c r="O346" s="1"/>
+    </row>
+    <row r="347" spans="1:15">
+      <c r="A347" s="33" t="s">
         <v>3029</v>
       </c>
-      <c r="B346" s="33" t="s">
+      <c r="B347" s="33" t="s">
         <v>3030</v>
       </c>
-      <c r="M346" s="33" t="s">
+      <c r="M347" s="33" t="s">
         <v>3031</v>
       </c>
-      <c r="O346" s="1"/>
-    </row>
-    <row r="347" spans="1:15">
       <c r="O347" s="1"/>
     </row>
     <row r="348" spans="1:15">
-      <c r="A348" s="33" t="s">
-        <v>3057</v>
-      </c>
-      <c r="B348" s="33" t="s">
-        <v>3058</v>
-      </c>
-      <c r="M348" s="33" t="s">
-        <v>3059</v>
-      </c>
+      <c r="O348" s="1"/>
     </row>
     <row r="349" spans="1:15">
       <c r="A349" s="33" t="s">
+        <v>3057</v>
+      </c>
+      <c r="B349" s="33" t="s">
+        <v>3058</v>
+      </c>
+      <c r="M349" s="33" t="s">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="350" spans="1:15">
+      <c r="A350" s="33" t="s">
         <v>3107</v>
       </c>
-      <c r="B349" s="33" t="s">
+      <c r="B350" s="33" t="s">
         <v>3108</v>
       </c>
-      <c r="M349" s="33" t="s">
+      <c r="M350" s="33" t="s">
         <v>3109</v>
-      </c>
-    </row>
-    <row r="351" spans="1:15">
-      <c r="A351" s="33" t="s">
-        <v>3072</v>
-      </c>
-      <c r="B351" s="33" t="s">
-        <v>3074</v>
-      </c>
-      <c r="M351" s="33" t="s">
-        <v>3073</v>
       </c>
     </row>
     <row r="352" spans="1:15">
       <c r="A352" s="33" t="s">
+        <v>3072</v>
+      </c>
+      <c r="B352" s="33" t="s">
+        <v>3074</v>
+      </c>
+      <c r="M352" s="33" t="s">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="353" spans="1:15">
+      <c r="A353" s="33" t="s">
         <v>3075</v>
       </c>
-      <c r="B352" s="33" t="s">
+      <c r="B353" s="33" t="s">
         <v>3076</v>
       </c>
-      <c r="M352" s="33" t="s">
+      <c r="M353" s="33" t="s">
         <v>3077</v>
       </c>
-      <c r="O352" s="1"/>
-    </row>
-    <row r="353" spans="1:15">
       <c r="O353" s="1"/>
     </row>
     <row r="354" spans="1:15">
-      <c r="A354" s="33" t="s">
-        <v>3092</v>
-      </c>
-      <c r="B354" s="33" t="s">
-        <v>3093</v>
-      </c>
-      <c r="M354" s="33" t="s">
-        <v>3094</v>
-      </c>
       <c r="O354" s="1"/>
     </row>
     <row r="355" spans="1:15">
       <c r="A355" s="33" t="s">
-        <v>3110</v>
+        <v>3092</v>
       </c>
       <c r="B355" s="33" t="s">
-        <v>3111</v>
+        <v>3093</v>
       </c>
       <c r="M355" s="33" t="s">
-        <v>3112</v>
-      </c>
+        <v>3094</v>
+      </c>
+      <c r="O355" s="1"/>
     </row>
     <row r="356" spans="1:15">
       <c r="A356" s="33" t="s">
+        <v>3110</v>
+      </c>
+      <c r="B356" s="33" t="s">
+        <v>3111</v>
+      </c>
+      <c r="M356" s="33" t="s">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="357" spans="1:15">
+      <c r="A357" s="33" t="s">
         <v>3113</v>
       </c>
-      <c r="B356" s="33" t="s">
+      <c r="B357" s="33" t="s">
         <v>3114</v>
       </c>
-      <c r="M356" s="33" t="s">
+      <c r="M357" s="33" t="s">
         <v>3115</v>
       </c>
-      <c r="O356" s="1"/>
-    </row>
-    <row r="357" spans="1:15">
       <c r="O357" s="1"/>
     </row>
     <row r="358" spans="1:15">
-      <c r="A358" s="39" t="s">
+      <c r="O358" s="1"/>
+    </row>
+    <row r="359" spans="1:15">
+      <c r="A359" s="39" t="s">
         <v>3122</v>
       </c>
-      <c r="B358" s="39" t="s">
+      <c r="B359" s="39" t="s">
         <v>3123</v>
       </c>
-      <c r="M358" s="39" t="s">
+      <c r="M359" s="39" t="s">
         <v>3124</v>
       </c>
-      <c r="O358" s="1"/>
-    </row>
-    <row r="360" spans="1:15">
-      <c r="A360" s="39" t="s">
-        <v>3173</v>
-      </c>
-      <c r="B360" s="39" t="s">
-        <v>3174</v>
-      </c>
-      <c r="M360" s="39" t="s">
-        <v>3175</v>
-      </c>
+      <c r="O359" s="1"/>
     </row>
     <row r="361" spans="1:15">
       <c r="A361" s="39" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="B361" s="39" t="s">
-        <v>3177</v>
+        <v>3174</v>
       </c>
       <c r="M361" s="39" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="362" spans="1:15">
       <c r="A362" s="39" t="s">
-        <v>3182</v>
+        <v>3176</v>
       </c>
       <c r="B362" s="39" t="s">
-        <v>3183</v>
+        <v>3177</v>
       </c>
       <c r="M362" s="39" t="s">
-        <v>3184</v>
-      </c>
-      <c r="O362" s="1"/>
+        <v>3178</v>
+      </c>
     </row>
     <row r="363" spans="1:15">
       <c r="A363" s="39" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="B363" s="39" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="M363" s="39" t="s">
-        <v>3187</v>
+        <v>3184</v>
       </c>
       <c r="O363" s="1"/>
     </row>
     <row r="364" spans="1:15">
       <c r="A364" s="39" t="s">
+        <v>3185</v>
+      </c>
+      <c r="B364" s="39" t="s">
+        <v>3186</v>
+      </c>
+      <c r="M364" s="39" t="s">
+        <v>3187</v>
+      </c>
+      <c r="O364" s="1"/>
+    </row>
+    <row r="365" spans="1:15">
+      <c r="A365" s="39" t="s">
         <v>3319</v>
       </c>
-      <c r="B364" s="39" t="s">
+      <c r="B365" s="39" t="s">
         <v>3320</v>
       </c>
-      <c r="M364" s="39" t="s">
+      <c r="M365" s="39" t="s">
         <v>3321</v>
       </c>
-      <c r="O364" s="1"/>
-    </row>
-    <row r="366" spans="1:15">
-      <c r="A366" s="39" t="s">
-        <v>3363</v>
-      </c>
-      <c r="B366" s="39" t="s">
-        <v>3381</v>
-      </c>
-      <c r="M366" s="39" t="s">
-        <v>3365</v>
-      </c>
-      <c r="O366" s="1"/>
+      <c r="O365" s="1"/>
     </row>
     <row r="367" spans="1:15">
       <c r="A367" s="39" t="s">
-        <v>3364</v>
+        <v>3363</v>
       </c>
       <c r="B367" s="39" t="s">
-        <v>3382</v>
+        <v>3381</v>
       </c>
       <c r="M367" s="39" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="O367" s="1"/>
     </row>
     <row r="368" spans="1:15">
       <c r="A368" s="39" t="s">
+        <v>3364</v>
+      </c>
+      <c r="B368" s="39" t="s">
+        <v>3382</v>
+      </c>
+      <c r="M368" s="39" t="s">
+        <v>3366</v>
+      </c>
+      <c r="O368" s="1"/>
+    </row>
+    <row r="369" spans="1:15">
+      <c r="A369" s="39" t="s">
         <v>3367</v>
       </c>
-      <c r="B368" s="39" t="s">
+      <c r="B369" s="39" t="s">
         <v>3383</v>
       </c>
-      <c r="M368" s="39" t="s">
+      <c r="M369" s="39" t="s">
         <v>3368</v>
       </c>
-      <c r="O368" s="1"/>
-    </row>
-    <row r="369" spans="15:15">
       <c r="O369" s="1"/>
     </row>
-    <row r="370" spans="15:15">
+    <row r="370" spans="1:15">
       <c r="O370" s="1"/>
     </row>
-    <row r="371" spans="15:15">
+    <row r="371" spans="1:15">
       <c r="O371" s="1"/>
     </row>
-    <row r="372" spans="15:15">
+    <row r="372" spans="1:15">
       <c r="O372" s="1"/>
     </row>
-    <row r="374" spans="15:15">
-      <c r="O374" s="1"/>
-    </row>
-    <row r="378" spans="15:15">
-      <c r="O378" s="1"/>
-    </row>
-    <row r="380" spans="15:15">
-      <c r="O380" s="1"/>
-    </row>
-    <row r="381" spans="15:15">
+    <row r="373" spans="1:15">
+      <c r="O373" s="1"/>
+    </row>
+    <row r="375" spans="1:15">
+      <c r="O375" s="1"/>
+    </row>
+    <row r="379" spans="1:15">
+      <c r="O379" s="1"/>
+    </row>
+    <row r="381" spans="1:15">
       <c r="O381" s="1"/>
     </row>
-    <row r="382" spans="15:15">
+    <row r="382" spans="1:15">
       <c r="O382" s="1"/>
     </row>
-    <row r="384" spans="15:15">
-      <c r="O384" s="1"/>
+    <row r="383" spans="1:15">
+      <c r="O383" s="1"/>
     </row>
     <row r="385" spans="15:15">
       <c r="O385" s="1"/>
@@ -27566,8 +27610,8 @@
     <row r="386" spans="15:15">
       <c r="O386" s="1"/>
     </row>
-    <row r="388" spans="15:15">
-      <c r="O388" s="1"/>
+    <row r="387" spans="15:15">
+      <c r="O387" s="1"/>
     </row>
     <row r="389" spans="15:15">
       <c r="O389" s="1"/>
@@ -27578,11 +27622,11 @@
     <row r="391" spans="15:15">
       <c r="O391" s="1"/>
     </row>
-    <row r="393" spans="15:15">
-      <c r="O393" s="1"/>
-    </row>
-    <row r="397" spans="15:15">
-      <c r="O397" s="1"/>
+    <row r="392" spans="15:15">
+      <c r="O392" s="1"/>
+    </row>
+    <row r="394" spans="15:15">
+      <c r="O394" s="1"/>
     </row>
     <row r="398" spans="15:15">
       <c r="O398" s="1"/>
@@ -27590,8 +27634,8 @@
     <row r="399" spans="15:15">
       <c r="O399" s="1"/>
     </row>
-    <row r="401" spans="15:15">
-      <c r="O401" s="1"/>
+    <row r="400" spans="15:15">
+      <c r="O400" s="1"/>
     </row>
     <row r="402" spans="15:15">
       <c r="O402" s="1"/>
@@ -27626,8 +27670,8 @@
     <row r="412" spans="15:15">
       <c r="O412" s="1"/>
     </row>
-    <row r="414" spans="15:15">
-      <c r="O414" s="1"/>
+    <row r="413" spans="15:15">
+      <c r="O413" s="1"/>
     </row>
     <row r="415" spans="15:15">
       <c r="O415" s="1"/>
@@ -27644,11 +27688,11 @@
     <row r="419" spans="15:15">
       <c r="O419" s="1"/>
     </row>
-    <row r="421" spans="15:15">
-      <c r="O421" s="1"/>
-    </row>
-    <row r="425" spans="15:15">
-      <c r="O425" s="1"/>
+    <row r="420" spans="15:15">
+      <c r="O420" s="1"/>
+    </row>
+    <row r="422" spans="15:15">
+      <c r="O422" s="1"/>
     </row>
     <row r="426" spans="15:15">
       <c r="O426" s="1"/>
@@ -27656,8 +27700,8 @@
     <row r="427" spans="15:15">
       <c r="O427" s="1"/>
     </row>
-    <row r="429" spans="15:15">
-      <c r="O429" s="1"/>
+    <row r="428" spans="15:15">
+      <c r="O428" s="1"/>
     </row>
     <row r="430" spans="15:15">
       <c r="O430" s="1"/>
@@ -27671,8 +27715,8 @@
     <row r="433" spans="15:15">
       <c r="O433" s="1"/>
     </row>
-    <row r="437" spans="15:15">
-      <c r="O437" s="1"/>
+    <row r="434" spans="15:15">
+      <c r="O434" s="1"/>
     </row>
     <row r="438" spans="15:15">
       <c r="O438" s="1"/>
@@ -27680,8 +27724,8 @@
     <row r="439" spans="15:15">
       <c r="O439" s="1"/>
     </row>
-    <row r="441" spans="15:15">
-      <c r="O441" s="1"/>
+    <row r="440" spans="15:15">
+      <c r="O440" s="1"/>
     </row>
     <row r="442" spans="15:15">
       <c r="O442" s="1"/>
@@ -27689,8 +27733,8 @@
     <row r="443" spans="15:15">
       <c r="O443" s="1"/>
     </row>
-    <row r="447" spans="15:15">
-      <c r="O447" s="1"/>
+    <row r="444" spans="15:15">
+      <c r="O444" s="1"/>
     </row>
     <row r="448" spans="15:15">
       <c r="O448" s="1"/>
@@ -27698,8 +27742,8 @@
     <row r="449" spans="15:15">
       <c r="O449" s="1"/>
     </row>
-    <row r="451" spans="15:15">
-      <c r="O451" s="1"/>
+    <row r="450" spans="15:15">
+      <c r="O450" s="1"/>
     </row>
     <row r="452" spans="15:15">
       <c r="O452" s="1"/>
@@ -27710,8 +27754,8 @@
     <row r="454" spans="15:15">
       <c r="O454" s="1"/>
     </row>
-    <row r="458" spans="15:15">
-      <c r="O458" s="1"/>
+    <row r="455" spans="15:15">
+      <c r="O455" s="1"/>
     </row>
     <row r="459" spans="15:15">
       <c r="O459" s="1"/>
@@ -27719,8 +27763,8 @@
     <row r="460" spans="15:15">
       <c r="O460" s="1"/>
     </row>
-    <row r="462" spans="15:15">
-      <c r="O462" s="1"/>
+    <row r="461" spans="15:15">
+      <c r="O461" s="1"/>
     </row>
     <row r="463" spans="15:15">
       <c r="O463" s="1"/>
@@ -27743,11 +27787,11 @@
     <row r="469" spans="15:15">
       <c r="O469" s="1"/>
     </row>
-    <row r="471" spans="15:15">
-      <c r="O471" s="1"/>
-    </row>
-    <row r="475" spans="15:15">
-      <c r="O475" s="1"/>
+    <row r="470" spans="15:15">
+      <c r="O470" s="1"/>
+    </row>
+    <row r="472" spans="15:15">
+      <c r="O472" s="1"/>
     </row>
     <row r="476" spans="15:15">
       <c r="O476" s="1"/>
@@ -27755,8 +27799,8 @@
     <row r="477" spans="15:15">
       <c r="O477" s="1"/>
     </row>
-    <row r="479" spans="15:15">
-      <c r="O479" s="1"/>
+    <row r="478" spans="15:15">
+      <c r="O478" s="1"/>
     </row>
     <row r="480" spans="15:15">
       <c r="O480" s="1"/>
@@ -27764,8 +27808,8 @@
     <row r="481" spans="15:15">
       <c r="O481" s="1"/>
     </row>
-    <row r="486" spans="15:15">
-      <c r="O486" s="1"/>
+    <row r="482" spans="15:15">
+      <c r="O482" s="1"/>
     </row>
     <row r="487" spans="15:15">
       <c r="O487" s="1"/>
@@ -27773,8 +27817,8 @@
     <row r="488" spans="15:15">
       <c r="O488" s="1"/>
     </row>
-    <row r="490" spans="15:15">
-      <c r="O490" s="1"/>
+    <row r="489" spans="15:15">
+      <c r="O489" s="1"/>
     </row>
     <row r="491" spans="15:15">
       <c r="O491" s="1"/>
@@ -27791,8 +27835,8 @@
     <row r="495" spans="15:15">
       <c r="O495" s="1"/>
     </row>
-    <row r="497" spans="15:15">
-      <c r="O497" s="1"/>
+    <row r="496" spans="15:15">
+      <c r="O496" s="1"/>
     </row>
     <row r="498" spans="15:15">
       <c r="O498" s="1"/>
@@ -27806,8 +27850,8 @@
     <row r="501" spans="15:15">
       <c r="O501" s="1"/>
     </row>
-    <row r="503" spans="15:15">
-      <c r="O503" s="1"/>
+    <row r="502" spans="15:15">
+      <c r="O502" s="1"/>
     </row>
     <row r="504" spans="15:15">
       <c r="O504" s="1"/>
@@ -27815,11 +27859,11 @@
     <row r="505" spans="15:15">
       <c r="O505" s="1"/>
     </row>
-    <row r="507" spans="15:15">
-      <c r="O507" s="1"/>
-    </row>
-    <row r="511" spans="15:15">
-      <c r="O511" s="1"/>
+    <row r="506" spans="15:15">
+      <c r="O506" s="1"/>
+    </row>
+    <row r="508" spans="15:15">
+      <c r="O508" s="1"/>
     </row>
     <row r="512" spans="15:15">
       <c r="O512" s="1"/>
@@ -27827,8 +27871,8 @@
     <row r="513" spans="15:15">
       <c r="O513" s="1"/>
     </row>
-    <row r="517" spans="15:15">
-      <c r="O517" s="1"/>
+    <row r="514" spans="15:15">
+      <c r="O514" s="1"/>
     </row>
     <row r="518" spans="15:15">
       <c r="O518" s="1"/>
@@ -27836,8 +27880,8 @@
     <row r="519" spans="15:15">
       <c r="O519" s="1"/>
     </row>
-    <row r="521" spans="15:15">
-      <c r="O521" s="1"/>
+    <row r="520" spans="15:15">
+      <c r="O520" s="1"/>
     </row>
     <row r="522" spans="15:15">
       <c r="O522" s="1"/>
@@ -27848,11 +27892,11 @@
     <row r="524" spans="15:15">
       <c r="O524" s="1"/>
     </row>
-    <row r="526" spans="15:15">
-      <c r="O526" s="1"/>
-    </row>
-    <row r="530" spans="15:15">
-      <c r="O530" s="1"/>
+    <row r="525" spans="15:15">
+      <c r="O525" s="1"/>
+    </row>
+    <row r="527" spans="15:15">
+      <c r="O527" s="1"/>
     </row>
     <row r="531" spans="15:15">
       <c r="O531" s="1"/>
@@ -27860,8 +27904,8 @@
     <row r="532" spans="15:15">
       <c r="O532" s="1"/>
     </row>
-    <row r="534" spans="15:15">
-      <c r="O534" s="1"/>
+    <row r="533" spans="15:15">
+      <c r="O533" s="1"/>
     </row>
     <row r="535" spans="15:15">
       <c r="O535" s="1"/>
@@ -27869,8 +27913,8 @@
     <row r="536" spans="15:15">
       <c r="O536" s="1"/>
     </row>
-    <row r="538" spans="15:15">
-      <c r="O538" s="1"/>
+    <row r="537" spans="15:15">
+      <c r="O537" s="1"/>
     </row>
     <row r="539" spans="15:15">
       <c r="O539" s="1"/>
@@ -27881,8 +27925,8 @@
     <row r="541" spans="15:15">
       <c r="O541" s="1"/>
     </row>
-    <row r="545" spans="2:15">
-      <c r="O545" s="1"/>
+    <row r="542" spans="15:15">
+      <c r="O542" s="1"/>
     </row>
     <row r="546" spans="2:15">
       <c r="O546" s="1"/>
@@ -27891,16 +27935,16 @@
       <c r="O547" s="1"/>
     </row>
     <row r="548" spans="2:15">
-      <c r="B548" s="8"/>
-      <c r="M548" s="8"/>
       <c r="O548" s="1"/>
     </row>
     <row r="549" spans="2:15">
+      <c r="B549" s="8"/>
       <c r="M549" s="8"/>
       <c r="O549" s="1"/>
     </row>
-    <row r="551" spans="2:15">
-      <c r="O551" s="1"/>
+    <row r="550" spans="2:15">
+      <c r="M550" s="8"/>
+      <c r="O550" s="1"/>
     </row>
     <row r="552" spans="2:15">
       <c r="O552" s="1"/>
@@ -27914,8 +27958,8 @@
     <row r="555" spans="2:15">
       <c r="O555" s="1"/>
     </row>
-    <row r="559" spans="2:15">
-      <c r="O559" s="1"/>
+    <